--- a/N=6/NBC/data/tweet_bersih_100.xlsx
+++ b/N=6/NBC/data/tweet_bersih_100.xlsx
@@ -22,2719 +22,2719 @@
     <t>label</t>
   </si>
   <si>
-    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia</t>
-  </si>
-  <si>
-    <t>kok arguing without menang</t>
-  </si>
-  <si>
-    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>juga fans lihat tampil serang hahaha</t>
-  </si>
-  <si>
-    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo</t>
-  </si>
-  <si>
-    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p</t>
-  </si>
-  <si>
-    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow</t>
-  </si>
-  <si>
-    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat</t>
-  </si>
-  <si>
-    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan</t>
-  </si>
-  <si>
-    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo</t>
-  </si>
-  <si>
-    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat</t>
-  </si>
-  <si>
-    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p</t>
-  </si>
-  <si>
-    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek</t>
-  </si>
-  <si>
-    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar</t>
-  </si>
-  <si>
-    <t>lebih tni tni bapak pecat udah jangan</t>
-  </si>
-  <si>
-    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal</t>
-  </si>
-  <si>
-    <t>debat malam bukti sama emosional emosi pikir selamat</t>
-  </si>
-  <si>
-    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik</t>
-  </si>
-  <si>
-    <t>turut akhir marah audiens tidak kontrol emosi</t>
-  </si>
-  <si>
-    <t>pak mungkin rasa situasi perang kali</t>
-  </si>
-  <si>
-    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran</t>
-  </si>
-  <si>
-    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo</t>
-  </si>
-  <si>
-    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk</t>
-  </si>
-  <si>
-    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat</t>
-  </si>
-  <si>
-    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar</t>
-  </si>
-  <si>
-    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati</t>
-  </si>
-  <si>
-    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri</t>
-  </si>
-  <si>
-    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor</t>
-  </si>
-  <si>
-    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu</t>
-  </si>
-  <si>
-    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha</t>
-  </si>
-  <si>
-    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir</t>
-  </si>
-  <si>
-    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara</t>
-  </si>
-  <si>
-    <t>aku rantai roda kuasa putus dia sahabat putus</t>
-  </si>
-  <si>
-    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut</t>
-  </si>
-  <si>
-    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april</t>
-  </si>
-  <si>
-    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai</t>
-  </si>
-  <si>
-    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila</t>
-  </si>
-  <si>
-    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih</t>
-  </si>
-  <si>
-    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari</t>
-  </si>
-  <si>
-    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri</t>
-  </si>
-  <si>
-    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang</t>
-  </si>
-  <si>
-    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah</t>
-  </si>
-  <si>
-    <t>calon presiden ajak semua pihak politik negara baik saling tiada</t>
-  </si>
-  <si>
-    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif</t>
-  </si>
-  <si>
-    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu</t>
-  </si>
-  <si>
-    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri</t>
-  </si>
-  <si>
-    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam</t>
-  </si>
-  <si>
-    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris</t>
-  </si>
-  <si>
-    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah</t>
-  </si>
-  <si>
-    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu</t>
-  </si>
-  <si>
-    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu</t>
-  </si>
-  <si>
-    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus</t>
-  </si>
-  <si>
-    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia</t>
-  </si>
-  <si>
-    <t>malam tamat sepakat retwet 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest</t>
-  </si>
-  <si>
-    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer</t>
-  </si>
-  <si>
-    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie</t>
-  </si>
-  <si>
-    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi</t>
-  </si>
-  <si>
-    <t>butuh pimpin optimis pak bukan orang pesimis marah</t>
-  </si>
-  <si>
-    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa</t>
-  </si>
-  <si>
-    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa</t>
-  </si>
-  <si>
-    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps</t>
-  </si>
-  <si>
-    <t>masalah kondisi negara sekarang suatu distrust elite perintah</t>
-  </si>
-  <si>
-    <t>sial nyata cuma orang boneka prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya</t>
-  </si>
-  <si>
-    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el</t>
-  </si>
-  <si>
-    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah</t>
-  </si>
-  <si>
-    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional</t>
-  </si>
-  <si>
-    <t>jokowi intelijen strategis kata tahun depan akan invasi negara</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0</t>
-  </si>
-  <si>
-    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok</t>
-  </si>
-  <si>
-    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung</t>
-  </si>
-  <si>
-    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah</t>
-  </si>
-  <si>
-    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda</t>
-  </si>
-  <si>
-    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah</t>
-  </si>
-  <si>
-    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional</t>
-  </si>
-  <si>
-    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah</t>
-  </si>
-  <si>
-    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar</t>
-  </si>
-  <si>
-    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut</t>
-  </si>
-  <si>
-    <t>jawab telak pak hadap kartu penting apa punya banyak kartu</t>
-  </si>
-  <si>
-    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju</t>
-  </si>
-  <si>
-    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung</t>
-  </si>
-  <si>
-    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha</t>
-  </si>
-  <si>
-    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting</t>
-  </si>
-  <si>
-    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo</t>
-  </si>
-  <si>
-    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi</t>
-  </si>
-  <si>
-    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong</t>
-  </si>
-  <si>
-    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama</t>
-  </si>
-  <si>
-    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai</t>
-  </si>
-  <si>
-    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu</t>
-  </si>
-  <si>
-    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi</t>
-  </si>
-  <si>
-    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah</t>
-  </si>
-  <si>
-    <t>sekian lama pecat tni laku culi mungkin simpan dendam</t>
-  </si>
-  <si>
-    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak</t>
-  </si>
-  <si>
-    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan</t>
-  </si>
-  <si>
-    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais</t>
-  </si>
-  <si>
-    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi</t>
-  </si>
-  <si>
-    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah</t>
-  </si>
-  <si>
-    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe</t>
-  </si>
-  <si>
-    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn</t>
-  </si>
-  <si>
-    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri</t>
-  </si>
-  <si>
-    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri</t>
-  </si>
-  <si>
-    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid</t>
-  </si>
-  <si>
-    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps</t>
-  </si>
-  <si>
-    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba</t>
-  </si>
-  <si>
-    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat</t>
-  </si>
-  <si>
-    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku</t>
-  </si>
-  <si>
-    <t>tampil mas debat calon presiden malam kejut beda debat</t>
-  </si>
-  <si>
-    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar</t>
-  </si>
-  <si>
-    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia</t>
-  </si>
-  <si>
-    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi</t>
-  </si>
-  <si>
-    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya</t>
-  </si>
-  <si>
-    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang</t>
-  </si>
-  <si>
-    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader</t>
-  </si>
-  <si>
-    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan</t>
-  </si>
-  <si>
-    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah</t>
-  </si>
-  <si>
-    <t>ucap orang prajurit tak ragu tulus prabowo</t>
-  </si>
-  <si>
-    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni</t>
-  </si>
-  <si>
-    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah</t>
-  </si>
-  <si>
-    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong</t>
-  </si>
-  <si>
-    <t>keluarga bisa ajar bagaimana cara sabar terus jalan selalu bangkit</t>
-  </si>
-  <si>
-    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya</t>
-  </si>
-  <si>
-    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam</t>
-  </si>
-  <si>
-    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu</t>
-  </si>
-  <si>
-    <t>pak kalian ketawa pak</t>
-  </si>
-  <si>
-    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi</t>
-  </si>
-  <si>
-    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85</t>
-  </si>
-  <si>
-    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak</t>
-  </si>
-  <si>
-    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab</t>
-  </si>
-  <si>
-    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87</t>
-  </si>
-  <si>
-    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot</t>
-  </si>
-  <si>
-    <t>mas puas malam dengan aura tampil pak kan garang tegas berani</t>
-  </si>
-  <si>
-    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni</t>
-  </si>
-  <si>
-    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr</t>
-  </si>
-  <si>
-    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium</t>
-  </si>
-  <si>
-    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila</t>
-  </si>
-  <si>
-    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas</t>
-  </si>
-  <si>
-    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia</t>
-  </si>
-  <si>
-    <t>pak tekan soal kecil anggar tahan pak</t>
-  </si>
-  <si>
-    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c</t>
-  </si>
-  <si>
-    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren</t>
-  </si>
-  <si>
-    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah</t>
-  </si>
-  <si>
-    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti</t>
-  </si>
-  <si>
-    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila</t>
-  </si>
-  <si>
-    <t>sila puas bangga jadi negara mediator international sindir banyak hutang</t>
-  </si>
-  <si>
-    <t>uno jika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg</t>
-  </si>
-  <si>
-    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu</t>
-  </si>
-  <si>
-    <t>good bye pak sandi beres semua laku scaling makmur</t>
-  </si>
-  <si>
-    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm</t>
-  </si>
-  <si>
-    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi</t>
-  </si>
-  <si>
-    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9</t>
-  </si>
-  <si>
-    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek</t>
-  </si>
-  <si>
-    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya</t>
-  </si>
-  <si>
-    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan</t>
-  </si>
-  <si>
-    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa</t>
-  </si>
-  <si>
-    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat</t>
-  </si>
-  <si>
-    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap</t>
-  </si>
-  <si>
-    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah</t>
-  </si>
-  <si>
-    <t>manusia ada kubu tuh selalu akal sehat</t>
-  </si>
-  <si>
-    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud</t>
-  </si>
-  <si>
-    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa</t>
-  </si>
-  <si>
-    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo</t>
-  </si>
-  <si>
-    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih</t>
-  </si>
-  <si>
-    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 -</t>
-  </si>
-  <si>
-    <t>visi misi kok kayak orang surup promosi kok marah</t>
-  </si>
-  <si>
-    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi</t>
-  </si>
-  <si>
-    <t>imho pak lebih baik tak dalam debat kali</t>
-  </si>
-  <si>
-    <t>malam bungkam juga dukung tidak ada ria sorak gembira</t>
-  </si>
-  <si>
-    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik</t>
-  </si>
-  <si>
-    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju</t>
-  </si>
-  <si>
-    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi</t>
-  </si>
-  <si>
-    <t>pak lebih percaya teknologi lama https t co nfiq 982l67</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa</t>
-  </si>
-  <si>
-    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus</t>
-  </si>
-  <si>
-    <t>percaya rantai sahabat pak yakin akan pernah putus sweet banget sih pakde</t>
-  </si>
-  <si>
-    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin</t>
-  </si>
-  <si>
-    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang</t>
-  </si>
-  <si>
-    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war</t>
-  </si>
-  <si>
-    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu</t>
-  </si>
-  <si>
-    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol</t>
-  </si>
-  <si>
-    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih</t>
-  </si>
-  <si>
-    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c</t>
-  </si>
-  <si>
-    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik</t>
-  </si>
-  <si>
-    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik</t>
-  </si>
-  <si>
-    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd</t>
-  </si>
-  <si>
-    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak</t>
-  </si>
-  <si>
-    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat</t>
-  </si>
-  <si>
-    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat</t>
-  </si>
-  <si>
-    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang sama pak debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>perlu garis bawah ke afganistan pake rompi anti peluru</t>
-  </si>
-  <si>
-    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan</t>
-  </si>
-  <si>
-    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya</t>
-  </si>
-  <si>
-    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar</t>
-  </si>
-  <si>
-    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa</t>
-  </si>
-  <si>
-    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara</t>
-  </si>
-  <si>
-    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat</t>
-  </si>
-  <si>
-    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm</t>
-  </si>
-  <si>
-    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk</t>
-  </si>
-  <si>
-    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau</t>
-  </si>
-  <si>
-    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak</t>
-  </si>
-  <si>
-    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia</t>
-  </si>
-  <si>
-    <t>sama indonesia kuat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar</t>
-  </si>
-  <si>
-    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saling hujat saling remeh saling toleransi kawan sahabat idola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debat empat pilpres tutup momen manis </t>
-  </si>
-  <si>
-    <t>konsep pak indonesia maju mantap menangjokowilagi</t>
-  </si>
-  <si>
-    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim</t>
-  </si>
-  <si>
-    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras</t>
-  </si>
-  <si>
-    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou</t>
-  </si>
-  <si>
-    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni</t>
-  </si>
-  <si>
-    <t>nyawa saya taruh republik jangan ragu nasionalisme mas</t>
-  </si>
-  <si>
-    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia</t>
-  </si>
-  <si>
-    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah</t>
-  </si>
-  <si>
-    <t>jember siang tadi rombong wi sambut guru honorer ria</t>
-  </si>
-  <si>
-    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa</t>
-  </si>
-  <si>
-    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot</t>
-  </si>
-  <si>
-    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no</t>
-  </si>
-  <si>
-    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar</t>
-  </si>
-  <si>
-    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w</t>
-  </si>
-  <si>
-    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu</t>
-  </si>
-  <si>
-    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas</t>
-  </si>
-  <si>
-    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih</t>
-  </si>
-  <si>
-    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx</t>
-  </si>
-  <si>
-    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung</t>
-  </si>
-  <si>
-    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua</t>
-  </si>
-  <si>
-    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan</t>
-  </si>
-  <si>
-    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto</t>
-  </si>
-  <si>
-    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik</t>
-  </si>
-  <si>
-    <t>sama orang hebat indonesia maju unggul menangjokowilagi</t>
-  </si>
-  <si>
-    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing</t>
-  </si>
-  <si>
-    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor</t>
-  </si>
-  <si>
-    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini</t>
-  </si>
-  <si>
-    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia</t>
-  </si>
-  <si>
-    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab</t>
-  </si>
-  <si>
-    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru</t>
-  </si>
-  <si>
-    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang</t>
-  </si>
-  <si>
-    <t>mantap bang cebong marahin mala ketawa dasar dungu akut</t>
-  </si>
-  <si>
-    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi</t>
-  </si>
-  <si>
-    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n</t>
-  </si>
-  <si>
-    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup</t>
-  </si>
-  <si>
-    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata</t>
-  </si>
-  <si>
-    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal</t>
-  </si>
-  <si>
-    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang</t>
-  </si>
-  <si>
-    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren</t>
-  </si>
-  <si>
-    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy</t>
-  </si>
-  <si>
-    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data</t>
-  </si>
-  <si>
-    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung</t>
-  </si>
-  <si>
-    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato</t>
-  </si>
-  <si>
-    <t>closing statement aku kuat lawan</t>
-  </si>
-  <si>
-    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak</t>
-  </si>
-  <si>
-    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak</t>
-  </si>
-  <si>
-    <t>soal freeport sangat untung buat apalagi emas perak tembaga</t>
-  </si>
-  <si>
-    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah</t>
-  </si>
-  <si>
-    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik</t>
-  </si>
-  <si>
-    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema</t>
-  </si>
-  <si>
-    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang</t>
-  </si>
-  <si>
-    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista</t>
-  </si>
-  <si>
-    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus</t>
-  </si>
-  <si>
-    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat</t>
-  </si>
-  <si>
-    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu</t>
-  </si>
-  <si>
-    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara</t>
-  </si>
-  <si>
-    <t>denger tuh kata pak saling harga https t co l143x7rvt5</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin</t>
-  </si>
-  <si>
-    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana</t>
-  </si>
-  <si>
-    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung</t>
-  </si>
-  <si>
-    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji</t>
-  </si>
-  <si>
-    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior</t>
-  </si>
-  <si>
-    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang</t>
-  </si>
-  <si>
-    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan</t>
-  </si>
-  <si>
-    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri</t>
-  </si>
-  <si>
-    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang</t>
-  </si>
-  <si>
-    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden</t>
-  </si>
-  <si>
-    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah</t>
-  </si>
-  <si>
-    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup</t>
-  </si>
-  <si>
-    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz</t>
-  </si>
-  <si>
-    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik</t>
-  </si>
-  <si>
-    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang</t>
-  </si>
-  <si>
-    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata</t>
-  </si>
-  <si>
-    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik</t>
-  </si>
-  <si>
-    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi</t>
-  </si>
-  <si>
-    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi</t>
-  </si>
-  <si>
-    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>paling penting bagaimana beri didik</t>
-  </si>
-  <si>
-    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi</t>
-  </si>
-  <si>
-    <t>juang sama sama rakyat biar rakyat tentu</t>
-  </si>
-  <si>
-    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria</t>
-  </si>
-  <si>
-    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah</t>
-  </si>
-  <si>
-    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas</t>
-  </si>
-  <si>
-    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll</t>
-  </si>
-  <si>
-    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02</t>
-  </si>
-  <si>
-    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya</t>
-  </si>
-  <si>
-    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi</t>
-  </si>
-  <si>
-    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c</t>
-  </si>
-  <si>
-    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di</t>
-  </si>
-  <si>
-    <t>dukung pak sukarela buat avatar dukung dukung pak</t>
-  </si>
-  <si>
-    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana</t>
-  </si>
-  <si>
-    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat</t>
-  </si>
-  <si>
-    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa -</t>
-  </si>
-  <si>
-    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi</t>
-  </si>
-  <si>
-    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau</t>
-  </si>
-  <si>
-    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata</t>
-  </si>
-  <si>
-    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak</t>
-  </si>
-  <si>
-    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap</t>
-  </si>
-  <si>
-    <t>pak mungkin inspirasi netijen haus tikai makanya marah</t>
-  </si>
-  <si>
-    <t>menang mbak sepenuh yakin pak menang</t>
-  </si>
-  <si>
-    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa</t>
-  </si>
-  <si>
-    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung</t>
-  </si>
-  <si>
-    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati</t>
-  </si>
-  <si>
-    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi</t>
-  </si>
-  <si>
-    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan</t>
-  </si>
-  <si>
-    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02</t>
-  </si>
-  <si>
-    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur</t>
-  </si>
-  <si>
-    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke -</t>
-  </si>
-  <si>
-    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin</t>
-  </si>
-  <si>
-    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak</t>
-  </si>
-  <si>
-    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta</t>
-  </si>
-  <si>
-    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq</t>
-  </si>
-  <si>
-    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia</t>
-  </si>
-  <si>
-    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang</t>
-  </si>
-  <si>
-    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni</t>
-  </si>
-  <si>
-    <t>lah malah ngulang omong</t>
-  </si>
-  <si>
-    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang</t>
-  </si>
-  <si>
-    <t>pak benar orang baik pilih jadi presiden yang kali</t>
-  </si>
-  <si>
-    <t>turut ini tampil pak paling lepas benar</t>
-  </si>
-  <si>
-    <t>alas pilih prabowo menang debat april coblos sandi</t>
-  </si>
-  <si>
-    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung</t>
-  </si>
-  <si>
-    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi</t>
-  </si>
-  <si>
-    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital</t>
-  </si>
-  <si>
-    <t>bangga baris pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung</t>
-  </si>
-  <si>
-    <t>lebih tni banyak tni</t>
-  </si>
-  <si>
-    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi</t>
-  </si>
-  <si>
-    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya</t>
-  </si>
-  <si>
-    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir</t>
-  </si>
-  <si>
-    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni telak sekali bro tak kutik</t>
-  </si>
-  <si>
-    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa</t>
-  </si>
-  <si>
-    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih</t>
-  </si>
-  <si>
-    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar</t>
-  </si>
-  <si>
-    <t>baru kali tenang banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw</t>
-  </si>
-  <si>
-    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa</t>
-  </si>
-  <si>
-    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana</t>
-  </si>
-  <si>
-    <t>tetap fokus doa allah maha kuasa menang indonesia satu</t>
-  </si>
-  <si>
-    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd</t>
-  </si>
-  <si>
-    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan</t>
-  </si>
-  <si>
-    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan</t>
-  </si>
-  <si>
-    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat</t>
-  </si>
-  <si>
-    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik</t>
-  </si>
-  <si>
-    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat</t>
-  </si>
-  <si>
-    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat</t>
-  </si>
-  <si>
-    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari</t>
-  </si>
-  <si>
-    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus</t>
-  </si>
-  <si>
-    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua</t>
-  </si>
-  <si>
-    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata</t>
-  </si>
-  <si>
-    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi</t>
-  </si>
-  <si>
-    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat</t>
-  </si>
-  <si>
-    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar</t>
-  </si>
-  <si>
-    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu</t>
-  </si>
-  <si>
-    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat</t>
-  </si>
-  <si>
-    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus</t>
-  </si>
-  <si>
-    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara</t>
-  </si>
-  <si>
-    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa</t>
-  </si>
-  <si>
-    <t>kadang bingung sih dukung sama antem substansi saling jatuh</t>
-  </si>
-  <si>
-    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah</t>
-  </si>
-  <si>
-    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully</t>
-  </si>
-  <si>
-    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat</t>
-  </si>
-  <si>
-    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga</t>
-  </si>
-  <si>
-    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup</t>
-  </si>
-  <si>
-    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mbak jaga stamina istirahat pas</t>
-  </si>
-  <si>
-    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang</t>
-  </si>
-  <si>
-    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode</t>
-  </si>
-  <si>
-    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir</t>
-  </si>
-  <si>
-    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang</t>
-  </si>
-  <si>
-    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc</t>
-  </si>
-  <si>
-    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower</t>
-  </si>
-  <si>
-    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan</t>
-  </si>
-  <si>
-    <t>tau betul ibu dukung kang dukung bukan ganti pancasila</t>
-  </si>
-  <si>
-    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia</t>
-  </si>
-  <si>
-    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu</t>
-  </si>
-  <si>
-    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu</t>
-  </si>
-  <si>
-    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah</t>
-  </si>
-  <si>
-    <t>malam pak luar biasa menangjokowilagi</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final</t>
-  </si>
-  <si>
-    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu</t>
-  </si>
-  <si>
-    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih</t>
-  </si>
-  <si>
-    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d</t>
-  </si>
-  <si>
-    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita</t>
-  </si>
-  <si>
-    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti</t>
-  </si>
-  <si>
-    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik</t>
-  </si>
-  <si>
-    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda</t>
-  </si>
-  <si>
-    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju</t>
-  </si>
-  <si>
-    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin</t>
-  </si>
-  <si>
-    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya</t>
-  </si>
-  <si>
-    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas</t>
-  </si>
-  <si>
-    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik</t>
-  </si>
-  <si>
-    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg</t>
-  </si>
-  <si>
-    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara</t>
-  </si>
-  <si>
-    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik</t>
-  </si>
-  <si>
-    <t>01caprespendustaabadi bayang pun kecoh dusta</t>
-  </si>
-  <si>
-    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu</t>
-  </si>
-  <si>
-    <t>pak jangan sampe korban nyawa ibu pertiwi kita</t>
-  </si>
-  <si>
-    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong</t>
-  </si>
-  <si>
-    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan</t>
-  </si>
-  <si>
-    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq</t>
-  </si>
-  <si>
-    <t>mantap pak tegas cerdazzz</t>
-  </si>
-  <si>
-    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa</t>
-  </si>
-  <si>
-    <t>closing statement pak gambar demokrasi yang sungguh</t>
-  </si>
-  <si>
-    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung</t>
-  </si>
-  <si>
-    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi</t>
-  </si>
-  <si>
-    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu</t>
-  </si>
-  <si>
-    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps</t>
-  </si>
-  <si>
-    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>dapat lembaga perintah kuat</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode</t>
-  </si>
-  <si>
-    <t>hal perintah bukan teori soal bagaimana jalan perintah baik</t>
-  </si>
-  <si>
-    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram</t>
-  </si>
-  <si>
-    <t>memang sosok pimpin teladan bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat</t>
-  </si>
-  <si>
-    <t>pak pribadi sederhana senang semua kalang menangjokowilagi</t>
-  </si>
-  <si>
-    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta</t>
-  </si>
-  <si>
-    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi</t>
-  </si>
-  <si>
-    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby</t>
-  </si>
-  <si>
-    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe -</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin</t>
-  </si>
-  <si>
-    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam</t>
-  </si>
-  <si>
-    <t>lebih tni tni jangan kamu maling muka manusia sombong</t>
-  </si>
-  <si>
-    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana</t>
-  </si>
-  <si>
-    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa</t>
-  </si>
-  <si>
-    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut</t>
-  </si>
-  <si>
-    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak</t>
-  </si>
-  <si>
-    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit</t>
-  </si>
-  <si>
-    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs</t>
-  </si>
-  <si>
-    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye</t>
-  </si>
-  <si>
-    <t>hahaha habis peluru ni si buat cerita pak marah segala lah</t>
-  </si>
-  <si>
-    <t>malam minggu adalah malam baik kita saksi pak sangat elegan</t>
-  </si>
-  <si>
-    <t>bong optimis unggul debat yang usung tema ideologi aman tahan</t>
-  </si>
-  <si>
-    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian</t>
-  </si>
-  <si>
-    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung</t>
-  </si>
-  <si>
-    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati</t>
-  </si>
-  <si>
-    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar</t>
-  </si>
-  <si>
-    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa</t>
-  </si>
-  <si>
-    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>fix bagai orang purbalingga banyumasan dukung pak</t>
-  </si>
-  <si>
-    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sampe bingung banyak kutip luar biasa tohok banget</t>
-  </si>
-  <si>
-    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr</t>
-  </si>
-  <si>
-    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat</t>
-  </si>
-  <si>
-    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur</t>
-  </si>
-  <si>
-    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah</t>
-  </si>
-  <si>
-    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf</t>
-  </si>
-  <si>
-    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro</t>
-  </si>
-  <si>
-    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal</t>
-  </si>
-  <si>
-    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa</t>
-  </si>
-  <si>
-    <t>kok malah bangga songong betul sih om eee panjoel genderuwo</t>
-  </si>
-  <si>
-    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget</t>
-  </si>
-  <si>
-    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita bela sungkawa</t>
-  </si>
-  <si>
-    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni</t>
-  </si>
-  <si>
-    <t>pak tenang banget hari</t>
-  </si>
-  <si>
-    <t>terus kok si pecat omong doang ejek hina tni rapuh</t>
-  </si>
-  <si>
-    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji</t>
-  </si>
-  <si>
-    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai</t>
-  </si>
-  <si>
-    <t>arus ubah tak bendung era tiba prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif</t>
-  </si>
-  <si>
-    <t>rindu cinta sayang mari menang beliau jemput pulang</t>
-  </si>
-  <si>
-    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu</t>
-  </si>
-  <si>
-    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata</t>
-  </si>
-  <si>
-    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat</t>
-  </si>
-  <si>
-    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak</t>
-  </si>
-  <si>
-    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni</t>
-  </si>
-  <si>
-    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat</t>
-  </si>
-  <si>
-    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi</t>
-  </si>
-  <si>
-    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang</t>
-  </si>
-  <si>
-    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk</t>
-  </si>
-  <si>
-    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin -</t>
-  </si>
-  <si>
-    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye</t>
-  </si>
-  <si>
-    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih</t>
-  </si>
-  <si>
-    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan</t>
-  </si>
-  <si>
-    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah</t>
-  </si>
-  <si>
-    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik</t>
-  </si>
-  <si>
-    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam</t>
-  </si>
-  <si>
-    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai</t>
-  </si>
-  <si>
-    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx</t>
-  </si>
-  <si>
-    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang</t>
-  </si>
-  <si>
-    <t>makin baik sama pak menangjokowilagi</t>
-  </si>
-  <si>
-    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1</t>
-  </si>
-  <si>
-    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye</t>
-  </si>
-  <si>
-    <t>bangga prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur</t>
-  </si>
-  <si>
-    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah</t>
-  </si>
-  <si>
-    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret</t>
-  </si>
-  <si>
-    <t>dengar pak meski sangat lambat https t co aydhf 1aca7</t>
-  </si>
-  <si>
-    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1</t>
-  </si>
-  <si>
-    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak</t>
-  </si>
-  <si>
-    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa</t>
-  </si>
-  <si>
-    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat</t>
-  </si>
-  <si>
-    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio</t>
-  </si>
-  <si>
-    <t>malam pak tampil serang lugas skakmaat</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat insyallah allah menang pilpres</t>
-  </si>
-  <si>
-    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong</t>
-  </si>
-  <si>
-    <t>lah pak akan lupa sahabat lain jika masalah hukum</t>
-  </si>
-  <si>
-    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer</t>
-  </si>
-  <si>
-    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb</t>
-  </si>
-  <si>
-    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni saya sipil sangat percaya tni -</t>
-  </si>
-  <si>
-    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh</t>
-  </si>
-  <si>
-    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata pula demokrasi</t>
-  </si>
-  <si>
-    <t>industri kreatif indonesia era presiden tumbuh sangat pesat</t>
-  </si>
-  <si>
-    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan</t>
-  </si>
-  <si>
-    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo</t>
-  </si>
-  <si>
-    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan</t>
-  </si>
-  <si>
-    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden</t>
-  </si>
-  <si>
-    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow</t>
-  </si>
-  <si>
-    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g</t>
-  </si>
-  <si>
-    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88</t>
-  </si>
-  <si>
-    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi</t>
-  </si>
-  <si>
-    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan</t>
-  </si>
-  <si>
-    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu</t>
-  </si>
-  <si>
-    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan</t>
-  </si>
-  <si>
-    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan</t>
-  </si>
-  <si>
-    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz</t>
-  </si>
-  <si>
-    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air</t>
-  </si>
-  <si>
-    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax</t>
-  </si>
-  <si>
-    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik</t>
-  </si>
-  <si>
-    <t>membully pak tak istri lalu pamer mesra keluarga</t>
-  </si>
-  <si>
-    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik</t>
-  </si>
-  <si>
-    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi</t>
-  </si>
-  <si>
-    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak</t>
-  </si>
-  <si>
-    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum</t>
-  </si>
-  <si>
-    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri</t>
-  </si>
-  <si>
-    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri</t>
-  </si>
-  <si>
-    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok</t>
-  </si>
-  <si>
-    <t>komplit tukang bohong main curang piye pak de</t>
-  </si>
-  <si>
-    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e</t>
-  </si>
-  <si>
-    <t>unggul april menangjokowilagi</t>
-  </si>
-  <si>
-    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah</t>
-  </si>
-  <si>
-    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional</t>
-  </si>
-  <si>
-    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1</t>
-  </si>
-  <si>
-    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj</t>
-  </si>
-  <si>
-    <t>menang gagas menang debat menang pilpres prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>nama benteng harus kokoh masuk allah uji waktu kondisi</t>
-  </si>
-  <si>
-    <t>percaya kalau pak pimpin baik pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak</t>
-  </si>
-  <si>
-    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar</t>
-  </si>
-  <si>
-    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal</t>
-  </si>
-  <si>
-    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic</t>
-  </si>
-  <si>
-    <t>benteng nkri benteng bukan banteng prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia</t>
-  </si>
-  <si>
-    <t>nah inti juang hasil panen raya jaga lumbung tikus</t>
-  </si>
-  <si>
-    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden</t>
-  </si>
-  <si>
-    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri</t>
-  </si>
-  <si>
-    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru negara kuat program bangun laksana</t>
-  </si>
-  <si>
-    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia -</t>
-  </si>
-  <si>
-    <t>bapak info asal bapak senang https t co 11g3jkmdz3</t>
-  </si>
-  <si>
-    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey</t>
-  </si>
-  <si>
-    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6</t>
-  </si>
-  <si>
-    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy</t>
-  </si>
-  <si>
-    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri</t>
-  </si>
-  <si>
-    <t>kalau pecat pensiun dong bapak dapat pensiun</t>
-  </si>
-  <si>
-    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati</t>
-  </si>
-  <si>
-    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime</t>
-  </si>
-  <si>
-    <t>perintah dil digital layan sangat perlu</t>
-  </si>
-  <si>
-    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up</t>
-  </si>
-  <si>
-    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu</t>
-  </si>
-  <si>
-    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi</t>
-  </si>
-  <si>
-    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz</t>
-  </si>
-  <si>
-    <t>mc kepada pak sila tanggap nyata pak kira ada beda</t>
-  </si>
-  <si>
-    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah</t>
-  </si>
-  <si>
-    <t>prabowo bahasa terlalu tinggi buat planga plongo</t>
-  </si>
-  <si>
-    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>debat pak serang tapi beliau sabar balas</t>
-  </si>
-  <si>
-    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang</t>
-  </si>
-  <si>
-    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri</t>
-  </si>
-  <si>
-    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi</t>
-  </si>
-  <si>
-    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau</t>
-  </si>
-  <si>
-    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani</t>
-  </si>
-  <si>
-    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo</t>
-  </si>
-  <si>
-    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a</t>
-  </si>
-  <si>
-    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah</t>
-  </si>
-  <si>
-    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis</t>
-  </si>
-  <si>
-    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6</t>
-  </si>
-  <si>
-    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna</t>
-  </si>
-  <si>
-    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih</t>
-  </si>
-  <si>
-    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan</t>
-  </si>
-  <si>
-    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung</t>
-  </si>
-  <si>
-    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham</t>
-  </si>
-  <si>
-    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya</t>
-  </si>
-  <si>
-    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam</t>
-  </si>
-  <si>
-    <t>dil digital layan mantap pak pemerintahandilan</t>
-  </si>
-  <si>
-    <t>ucap selamat pak cara naluri aku bagai menang pilpres</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri</t>
-  </si>
-  <si>
-    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019</t>
-  </si>
-  <si>
-    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri</t>
-  </si>
-  <si>
-    <t>menang telak prabowomenangdebat</t>
-  </si>
-  <si>
-    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia</t>
-  </si>
-  <si>
-    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing</t>
-  </si>
-  <si>
-    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis</t>
-  </si>
-  <si>
-    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps</t>
-  </si>
-  <si>
-    <t>wow menang tebal nih mantap pak lanjut 01dilanj</t>
-  </si>
-  <si>
-    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat</t>
-  </si>
-  <si>
-    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot</t>
-  </si>
-  <si>
-    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama</t>
-  </si>
-  <si>
-    <t>betul prabowomenangdebat jelas lah prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua</t>
-  </si>
-  <si>
-    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak</t>
-  </si>
-  <si>
-    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden</t>
-  </si>
-  <si>
-    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah</t>
-  </si>
-  <si>
-    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai</t>
-  </si>
-  <si>
-    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb</t>
-  </si>
-  <si>
-    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap</t>
-  </si>
-  <si>
-    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal</t>
-  </si>
-  <si>
-    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni</t>
-  </si>
-  <si>
-    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja</t>
-  </si>
-  <si>
-    <t>apa bosan terus tuding - nya kritik habis</t>
-  </si>
-  <si>
-    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi</t>
-  </si>
-  <si>
-    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik</t>
-  </si>
-  <si>
-    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala</t>
-  </si>
-  <si>
-    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus</t>
-  </si>
-  <si>
-    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul</t>
-  </si>
-  <si>
-    <t>aje maling teriak maling bung</t>
-  </si>
-  <si>
-    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran</t>
-  </si>
-  <si>
-    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin</t>
-  </si>
-  <si>
-    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530</t>
-  </si>
-  <si>
-    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional</t>
-  </si>
-  <si>
-    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas</t>
-  </si>
-  <si>
-    <t>hari perintah bawah pak sangat maju infrastruktur udara ada</t>
-  </si>
-  <si>
-    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik</t>
-  </si>
-  <si>
-    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat</t>
-  </si>
-  <si>
-    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak</t>
-  </si>
-  <si>
-    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun</t>
-  </si>
-  <si>
-    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan</t>
-  </si>
-  <si>
-    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata</t>
-  </si>
-  <si>
-    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh</t>
-  </si>
-  <si>
-    <t>admin mau bahas kata militer lemah https t co raliyooy 3e</t>
-  </si>
-  <si>
-    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo</t>
-  </si>
-  <si>
-    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu</t>
-  </si>
-  <si>
-    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus</t>
-  </si>
-  <si>
-    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek</t>
-  </si>
-  <si>
-    <t>lihat pak percaya tni pemerintahandilan memang nampol</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman</t>
-  </si>
-  <si>
-    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi</t>
-  </si>
-  <si>
-    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat</t>
-  </si>
-  <si>
-    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri</t>
-  </si>
-  <si>
-    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu</t>
-  </si>
-  <si>
-    <t>kalau opung tak percaya diri citra nempel pak</t>
-  </si>
-  <si>
-    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat</t>
-  </si>
-  <si>
-    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres</t>
-  </si>
-  <si>
-    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi</t>
-  </si>
-  <si>
-    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe</t>
-  </si>
-  <si>
-    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak</t>
-  </si>
-  <si>
-    <t>bukan ngetawain tahan negara cuma ngetawain</t>
-  </si>
-  <si>
-    <t>kampanye lama tahana lampu c o arti pilih sedang hukum</t>
-  </si>
-  <si>
-    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah</t>
-  </si>
-  <si>
-    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia</t>
-  </si>
-  <si>
-    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri</t>
-  </si>
-  <si>
-    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak</t>
-  </si>
-  <si>
-    <t>debat curhat tonton gebu tetap ulang tema lama solusi</t>
-  </si>
-  <si>
-    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan</t>
-  </si>
-  <si>
-    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t</t>
-  </si>
-  <si>
-    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw</t>
-  </si>
-  <si>
-    <t>kaget beneran menangkanprabowosandi april datang tps pilih</t>
-  </si>
-  <si>
-    <t>calon presiden kata lembaga bubar anggap buat layan publik belit</t>
-  </si>
-  <si>
-    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik -</t>
-  </si>
-  <si>
-    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo</t>
-  </si>
-  <si>
-    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang</t>
-  </si>
-  <si>
-    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang -</t>
-  </si>
-  <si>
-    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer</t>
-  </si>
-  <si>
-    <t>marah tahan bangsa tertawa audiens marah diri hina netizen</t>
-  </si>
-  <si>
-    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas</t>
-  </si>
-  <si>
-    <t>maju era android ke era pecatanlebihtnidaritni</t>
-  </si>
-  <si>
-    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton</t>
-  </si>
-  <si>
-    <t>kompas koplak kamu salah kutip bilang gdp apbn</t>
-  </si>
-  <si>
-    <t>mummmeeettt sekarang kali hahaha</t>
-  </si>
-  <si>
-    <t>mutu banget twetnya kentara berat belah</t>
-  </si>
-  <si>
-    <t>kayak panik banget jadi sedi liat</t>
-  </si>
-  <si>
-    <t>i love kurang masuk sama kartu</t>
-  </si>
-  <si>
-    <t>keren banget jawab pak soal tuduh</t>
-  </si>
-  <si>
-    <t>catat paling atas seba kalah laku dukung</t>
-  </si>
-  <si>
-    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri</t>
-  </si>
-  <si>
-    <t>tim sehat tekan darah pak pantau masa acara debat begini marah</t>
-  </si>
-  <si>
-    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu -</t>
-  </si>
-  <si>
-    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia</t>
-  </si>
-  <si>
-    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor</t>
-  </si>
-  <si>
-    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si</t>
-  </si>
-  <si>
-    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak</t>
-  </si>
-  <si>
-    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif</t>
-  </si>
-  <si>
-    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing</t>
-  </si>
-  <si>
-    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban</t>
-  </si>
-  <si>
-    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so</t>
-  </si>
-  <si>
-    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar</t>
-  </si>
-  <si>
-    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni</t>
-  </si>
-  <si>
-    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar</t>
-  </si>
-  <si>
-    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak</t>
-  </si>
-  <si>
-    <t>pak kata kuat lembaga perintah hilang korupsi</t>
-  </si>
-  <si>
-    <t>tertawa tertawa dimarahain</t>
-  </si>
-  <si>
-    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik</t>
-  </si>
-  <si>
-    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>terus hina bangsa indonesia kata percaya dunia internasional</t>
-  </si>
-  <si>
-    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput</t>
-  </si>
-  <si>
-    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang</t>
-  </si>
-  <si>
-    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto</t>
-  </si>
-  <si>
-    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat</t>
-  </si>
-  <si>
-    <t>lawan tak daya lawan mantap oy</t>
-  </si>
-  <si>
-    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir</t>
-  </si>
-  <si>
-    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5</t>
-  </si>
-  <si>
-    <t>beda negara debat maaf keras tengah banyumas</t>
-  </si>
-  <si>
-    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir</t>
-  </si>
-  <si>
-    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan</t>
-  </si>
-  <si>
-    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul</t>
-  </si>
-  <si>
-    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi</t>
-  </si>
-  <si>
-    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol</t>
-  </si>
-  <si>
-    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja</t>
-  </si>
-  <si>
-    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019</t>
-  </si>
-  <si>
-    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong</t>
-  </si>
-  <si>
-    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia</t>
-  </si>
-  <si>
-    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega</t>
-  </si>
-  <si>
-    <t>si manusia gadungan hibur diri junjung kalah sol sol</t>
-  </si>
-  <si>
-    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah</t>
-  </si>
-  <si>
-    <t>luar biasa demen kali sama pak dungu natural akhir keluar</t>
-  </si>
-  <si>
-    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing</t>
-  </si>
-  <si>
-    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani</t>
-  </si>
-  <si>
-    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa</t>
-  </si>
-  <si>
-    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata</t>
-  </si>
-  <si>
-    <t>turut dalam tahan aman boleh anggap akan perang masa depan</t>
-  </si>
-  <si>
-    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer</t>
-  </si>
-  <si>
-    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t</t>
-  </si>
-  <si>
-    <t>latar belakang karya intel amerika defense intelligence agency soal serang asing p</t>
-  </si>
-  <si>
-    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam</t>
-  </si>
-  <si>
-    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn</t>
-  </si>
-  <si>
-    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal</t>
-  </si>
-  <si>
-    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih</t>
-  </si>
-  <si>
-    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk</t>
-  </si>
-  <si>
-    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu</t>
-  </si>
-  <si>
-    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju</t>
-  </si>
-  <si>
-    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia</t>
-  </si>
-  <si>
-    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru</t>
-  </si>
-  <si>
-    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit</t>
-  </si>
-  <si>
-    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura</t>
-  </si>
-  <si>
-    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak</t>
-  </si>
-  <si>
-    <t>acu adalah mertua bukti keluarga mertua di baris</t>
-  </si>
-  <si>
-    <t>dear pak taun bapak jabat akan awas kritisi omel bapak</t>
-  </si>
-  <si>
-    <t>pada nyemplung kolam malu lihat bos bom bardir</t>
-  </si>
-  <si>
-    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku</t>
-  </si>
-  <si>
-    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan</t>
-  </si>
-  <si>
-    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama</t>
-  </si>
-  <si>
-    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis</t>
-  </si>
-  <si>
-    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs</t>
-  </si>
-  <si>
-    <t>deh makan dulu siap debat awas pulpen lupa</t>
-  </si>
-  <si>
-    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas</t>
-  </si>
-  <si>
-    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi</t>
-  </si>
-  <si>
-    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo</t>
-  </si>
-  <si>
-    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan</t>
-  </si>
-  <si>
-    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing</t>
-  </si>
-  <si>
-    <t>nya punya ambisi wowo ambisi jangka pendek harta</t>
-  </si>
-  <si>
-    <t>political will cermin praktik berantas korupsi kata</t>
-  </si>
-  <si>
-    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut</t>
-  </si>
-  <si>
-    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia</t>
-  </si>
-  <si>
-    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi</t>
-  </si>
-  <si>
-    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong</t>
-  </si>
-  <si>
-    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak</t>
-  </si>
-  <si>
-    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia</t>
-  </si>
-  <si>
-    <t>banyak catat jadi kalau kalah mana letak kalah juga balik</t>
-  </si>
-  <si>
-    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo</t>
-  </si>
-  <si>
-    <t>tidak mau mati jabat bpk dulu pernah kurus dia</t>
-  </si>
-  <si>
-    <t>turut tahan lemah implikasi uang indonesia lemah</t>
-  </si>
-  <si>
-    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional</t>
-  </si>
-  <si>
-    <t>kalau bahasa simpel jin numpang sama genderuwo</t>
-  </si>
-  <si>
-    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi</t>
-  </si>
-  <si>
-    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi</t>
-  </si>
-  <si>
-    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>soal tahan benar beri briefing pak kalau presiden pecat</t>
-  </si>
-  <si>
-    <t>pak upaya masyarakat sulit tarik pungli urus segala</t>
-  </si>
-  <si>
-    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang</t>
-  </si>
-  <si>
-    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab</t>
-  </si>
-  <si>
-    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor</t>
-  </si>
-  <si>
-    <t>panjang debat lihat goyah argumen kokoh tak yakin</t>
-  </si>
-  <si>
-    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik</t>
-  </si>
-  <si>
-    <t>sakit masa konflik timur rupa konflik negeri bilang perang</t>
-  </si>
-  <si>
-    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing</t>
-  </si>
-  <si>
-    <t>mantap keren moga ikut seluruh pelosok nusantara</t>
-  </si>
-  <si>
-    <t>pns pilih sulit laku pungli anggar potong ketat anggar</t>
-  </si>
-  <si>
-    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat</t>
-  </si>
-  <si>
-    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat</t>
-  </si>
-  <si>
-    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm</t>
-  </si>
-  <si>
-    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto</t>
-  </si>
-  <si>
-    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden</t>
-  </si>
-  <si>
-    <t>justru makna bersit nada kalah rasa kalah</t>
-  </si>
-  <si>
-    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add</t>
-  </si>
-  <si>
-    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136</t>
-  </si>
-  <si>
-    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung</t>
-  </si>
-  <si>
-    <t>aduh salah data oy bong pinter dikit prabowobentengnkri</t>
-  </si>
-  <si>
-    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid</t>
-  </si>
-  <si>
-    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang</t>
-  </si>
-  <si>
-    <t>pak sama pak sama emosional emosi pikir selamat nkri</t>
-  </si>
-  <si>
-    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat</t>
-  </si>
-  <si>
-    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat</t>
-  </si>
-  <si>
-    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung</t>
-  </si>
-  <si>
-    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak</t>
-  </si>
-  <si>
-    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa</t>
-  </si>
-  <si>
-    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden</t>
-  </si>
-  <si>
-    <t>oke oce bangkrut gagal tingkat daya beli masyarakat</t>
-  </si>
-  <si>
-    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok</t>
-  </si>
-  <si>
-    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah</t>
-  </si>
-  <si>
-    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a</t>
-  </si>
-  <si>
-    <t>mau kalah disalahin khilafah hti bukankah hti bunuh</t>
-  </si>
-  <si>
-    <t>pikir pak tau masalah myanmar</t>
-  </si>
-  <si>
-    <t>tertawa pancing pidato closingnya beranta</t>
-  </si>
-  <si>
-    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni</t>
-  </si>
-  <si>
-    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri</t>
+    <t>buka visi misi begitu pukau sehingga buat presiden asa jadi bebek visimisi bukavisi visimisi misibegitu begitupukau pukausehingga sehinggabuat buatpresiden presidenasa asajadi jadibebek bebekvisimisi bukavisimisi visimisibegitu misibegitupukau begitupukausehingga pukausehinggabuat sehinggabuatpresiden buatpresidenasa presidenasajadi asajadibebek jadibebekvisimisi bukavisimisibegitu visimisibegitupukau misibegitupukausehingga begitupukausehinggabuat pukausehinggabuatpresiden sehinggabuatpresidenasa buatpresidenasajadi presidenasajadibebek asajadibebekvisimisi bukavisimisibegitupukau visimisibegitupukausehingga misibegitupukausehinggabuat begitupukausehinggabuatpresiden pukausehinggabuatpresidenasa sehinggabuatpresidenasajadi buatpresidenasajadibebek presidenasajadibebekvisimisi bukavisimisibegitupukausehingga visimisibegitupukausehinggabuat misibegitupukausehinggabuatpresiden begitupukausehinggabuatpresidenasa pukausehinggabuatpresidenasajadi sehinggabuatpresidenasajadibebek buatpresidenasajadibebekvisimisi</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya negara indonesia keluar indonesia lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayanegara negaraindonesia indonesiakeluar keluarindonesia lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayanegara kayanegaraindonesia negaraindonesiakeluar indonesiakeluarindonesia lebihbaikpakaiteknologi baikpakaiteknologilama pakaiteknologilamakaya teknologilamakayanegara lamakayanegaraindonesia kayanegaraindonesiakeluar negaraindonesiakeluarindonesia lebihbaikpakaiteknologilama baikpakaiteknologilamakaya pakaiteknologilamakayanegara teknologilamakayanegaraindonesia lamakayanegaraindonesiakeluar kayanegaraindonesiakeluarindonesia lebihbaikpakaiteknologilamakaya baikpakaiteknologilamakayanegara pakaiteknologilamakayanegaraindonesia teknologilamakayanegaraindonesiakeluar lamakayanegaraindonesiakeluarindonesia</t>
+  </si>
+  <si>
+    <t>kok arguing without menang kokarguing arguingwithout withoutmenang kokarguingwithout arguingwithoutmenang kokarguingwithoutmenang</t>
+  </si>
+  <si>
+    <t>jalan politik politik satu bukan politik pecah belah salah prabowobentengnkri jalanpolitik politikpolitik politiksatu satubukan bukanpolitik politikpecah pecahbelah belahsalah salahprabowobentengnkri jalanpolitikpolitik politikpolitiksatu politiksatubukan satubukanpolitik bukanpolitikpecah politikpecahbelah pecahbelahsalah belahsalahprabowobentengnkri jalanpolitikpolitiksatu politikpolitiksatubukan politiksatubukanpolitik satubukanpolitikpecah bukanpolitikpecahbelah politikpecahbelahsalah pecahbelahsalahprabowobentengnkri jalanpolitikpolitiksatubukan politikpolitiksatubukanpolitik politiksatubukanpolitikpecah satubukanpolitikpecahbelah bukanpolitikpecahbelahsalah politikpecahbelahsalahprabowobentengnkri jalanpolitikpolitiksatubukanpolitik politikpolitiksatubukanpolitikpecah politiksatubukanpolitikpecahbelah satubukanpolitikpecahbelahsalah bukanpolitikpecahbelahsalahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>juga fans lihat tampil serang hahaha jugafans fanslihat lihattampil tampilserang seranghahaha jugafanslihat fanslihattampil lihattampilserang tampilseranghahaha jugafanslihattampil fanslihattampilserang lihattampilseranghahaha jugafanslihattampilserang fanslihattampilseranghahaha jugafanslihattampilseranghahaha</t>
+  </si>
+  <si>
+    <t>lemah tidak punya uang pak ngomongin tahan negara apa nyindir anak twitter nih optimisindo lemahtidak tidakpunya punyauang uangpak pakngomongin ngomongintahan tahannegara negaraapa apanyindir nyindiranak anaktwitter twitternih nihoptimisindo lemahtidakpunya tidakpunyauang punyauangpak uangpakngomongin pakngomongintahan ngomongintahannegara tahannegaraapa negaraapanyindir apanyindiranak nyindiranaktwitter anaktwitternih twitternihoptimisindo lemahtidakpunyauang tidakpunyauangpak punyauangpakngomongin uangpakngomongintahan pakngomongintahannegara ngomongintahannegaraapa tahannegaraapanyindir negaraapanyindiranak apanyindiranaktwitter nyindiranaktwitternih anaktwitternihoptimisindo lemahtidakpunyauangpak tidakpunyauangpakngomongin punyauangpakngomongintahan uangpakngomongintahannegara pakngomongintahannegaraapa ngomongintahannegaraapanyindir tahannegaraapanyindiranak negaraapanyindiranaktwitter apanyindiranaktwitternih nyindiranaktwitternihoptimisindo lemahtidakpunyauangpakngomongin tidakpunyauangpakngomongintahan punyauangpakngomongintahannegara uangpakngomongintahannegaraapa pakngomongintahannegaraapanyindir ngomongintahannegaraapanyindiranak tahannegaraapanyindiranaktwitter negaraapanyindiranaktwitternih apanyindiranaktwitternihoptimisindo</t>
+  </si>
+  <si>
+    <t>si vis pacem belum bukan mantra dukun arti kalau damai siap perang top p sivis vispacem pacembelum belumbukan bukanmantra mantradukun dukunarti artikalau kalaudamai damaisiap siapperang perangtop topp sivispacem vispacembelum pacembelumbukan belumbukanmantra bukanmantradukun mantradukunarti dukunartikalau artikalaudamai kalaudamaisiap damaisiapperang siapperangtop perangtopp sivispacembelum vispacembelumbukan pacembelumbukanmantra belumbukanmantradukun bukanmantradukunarti mantradukunartikalau dukunartikalaudamai artikalaudamaisiap kalaudamaisiapperang damaisiapperangtop siapperangtopp sivispacembelumbukan vispacembelumbukanmantra pacembelumbukanmantradukun belumbukanmantradukunarti bukanmantradukunartikalau mantradukunartikalaudamai dukunartikalaudamaisiap artikalaudamaisiapperang kalaudamaisiapperangtop damaisiapperangtopp sivispacembelumbukanmantra vispacembelumbukanmantradukun pacembelumbukanmantradukunarti belumbukanmantradukunartikalau bukanmantradukunartikalaudamai mantradukunartikalaudamaisiap dukunartikalaudamaisiapperang artikalaudamaisiapperangtop kalaudamaisiapperangtopp</t>
+  </si>
+  <si>
+    <t>apa bilang pak memang benar mau bukti di ejek asing v i r a l k a n prabow apabilang bilangpak pakmemang memangbenar benarmau maubukti buktidi diejek ejekasing asingv vi ir ra al lk ka an nprabow apabilangpak bilangpakmemang pakmemangbenar memangbenarmau benarmaubukti maubuktidi buktidiejek diejekasing ejekasingv asingvi vir ira ral alk lka kan anprabow apabilangpakmemang bilangpakmemangbenar pakmemangbenarmau memangbenarmaubukti benarmaubuktidi maubuktidiejek buktidiejekasing diejekasingv ejekasingvi asingvir vira iral ralk alka lkan kanprabow apabilangpakmemangbenar bilangpakmemangbenarmau pakmemangbenarmaubukti memangbenarmaubuktidi benarmaubuktidiejek maubuktidiejekasing buktidiejekasingv diejekasingvi ejekasingvir asingvira viral iralk ralka alkan lkanprabow apabilangpakmemangbenarmau bilangpakmemangbenarmaubukti pakmemangbenarmaubuktidi memangbenarmaubuktidiejek benarmaubuktidiejekasing maubuktidiejekasingv buktidiejekasingvi diejekasingvir ejekasingvira asingviral viralk iralka ralkan alkanprabow</t>
+  </si>
+  <si>
+    <t>bidang perintah prabowo-sandi bahwa lembaga perintah kuat baru cipta negara kuat bidangperintah perintahprabowo-sandi prabowo-sandibahwa bahwalembaga lembagaperintah perintahkuat kuatbaru barucipta ciptanegara negarakuat bidangperintahprabowo-sandi perintahprabowo-sandibahwa prabowo-sandibahwalembaga bahwalembagaperintah lembagaperintahkuat perintahkuatbaru kuatbarucipta baruciptanegara ciptanegarakuat bidangperintahprabowo-sandibahwa perintahprabowo-sandibahwalembaga prabowo-sandibahwalembagaperintah bahwalembagaperintahkuat lembagaperintahkuatbaru perintahkuatbarucipta kuatbaruciptanegara baruciptanegarakuat bidangperintahprabowo-sandibahwalembaga perintahprabowo-sandibahwalembagaperintah prabowo-sandibahwalembagaperintahkuat bahwalembagaperintahkuatbaru lembagaperintahkuatbarucipta perintahkuatbaruciptanegara kuatbaruciptanegarakuat bidangperintahprabowo-sandibahwalembagaperintah perintahprabowo-sandibahwalembagaperintahkuat prabowo-sandibahwalembagaperintahkuatbaru bahwalembagaperintahkuatbarucipta lembagaperintahkuatbaruciptanegara perintahkuatbaruciptanegarakuat</t>
+  </si>
+  <si>
+    <t>percaya debat dukung ini sama seru jaman debat dukung choi taek kim junghwan percayadebat debatdukung dukungini inisama samaseru serujaman jamandebat debatdukung dukungchoi choitaek taekkim kimjunghwan percayadebatdukung debatdukungini dukunginisama inisamaseru samaserujaman serujamandebat jamandebatdukung debatdukungchoi dukungchoitaek choitaekkim taekkimjunghwan percayadebatdukungini debatdukunginisama dukunginisamaseru inisamaserujaman samaserujamandebat serujamandebatdukung jamandebatdukungchoi debatdukungchoitaek dukungchoitaekkim choitaekkimjunghwan percayadebatdukunginisama debatdukunginisamaseru dukunginisamaserujaman inisamaserujamandebat samaserujamandebatdukung serujamandebatdukungchoi jamandebatdukungchoitaek debatdukungchoitaekkim dukungchoitaekkimjunghwan percayadebatdukunginisamaseru debatdukunginisamaserujaman dukunginisamaserujamandebat inisamaserujamandebatdukung samaserujamandebatdukungchoi serujamandebatdukungchoitaek jamandebatdukungchoitaekkim debatdukungchoitaekkimjunghwan</t>
+  </si>
+  <si>
+    <t>bidang hubung internasional anut prinsip kawan terlalu sedikit musuh terlalu banyak prabowo bidanghubung hubunginternasional internasionalanut anutprinsip prinsipkawan kawanterlalu terlalusedikit sedikitmusuh musuhterlalu terlalubanyak banyakprabowo bidanghubunginternasional hubunginternasionalanut internasionalanutprinsip anutprinsipkawan prinsipkawanterlalu kawanterlalusedikit terlalusedikitmusuh sedikitmusuhterlalu musuhterlalubanyak terlalubanyakprabowo bidanghubunginternasionalanut hubunginternasionalanutprinsip internasionalanutprinsipkawan anutprinsipkawanterlalu prinsipkawanterlalusedikit kawanterlalusedikitmusuh terlalusedikitmusuhterlalu sedikitmusuhterlalubanyak musuhterlalubanyakprabowo bidanghubunginternasionalanutprinsip hubunginternasionalanutprinsipkawan internasionalanutprinsipkawanterlalu anutprinsipkawanterlalusedikit prinsipkawanterlalusedikitmusuh kawanterlalusedikitmusuhterlalu terlalusedikitmusuhterlalubanyak sedikitmusuhterlalubanyakprabowo bidanghubunginternasionalanutprinsipkawan hubunginternasionalanutprinsipkawanterlalu internasionalanutprinsipkawanterlalusedikit anutprinsipkawanterlalusedikitmusuh prinsipkawanterlalusedikitmusuhterlalu kawanterlalusedikitmusuhterlalubanyak terlalusedikitmusuhterlalubanyakprabowo</t>
+  </si>
+  <si>
+    <t>temen pro dia bilang suka lihat mimik muka saat tiap bicara debat temenpro prodia diabilang bilangsuka sukalihat lihatmimik mimikmuka mukasaat saattiap tiapbicara bicaradebat temenprodia prodiabilang diabilangsuka bilangsukalihat sukalihatmimik lihatmimikmuka mimikmukasaat mukasaattiap saattiapbicara tiapbicaradebat temenprodiabilang prodiabilangsuka diabilangsukalihat bilangsukalihatmimik sukalihatmimikmuka lihatmimikmukasaat mimikmukasaattiap mukasaattiapbicara saattiapbicaradebat temenprodiabilangsuka prodiabilangsukalihat diabilangsukalihatmimik bilangsukalihatmimikmuka sukalihatmimikmukasaat lihatmimikmukasaattiap mimikmukasaattiapbicara mukasaattiapbicaradebat temenprodiabilangsukalihat prodiabilangsukalihatmimik diabilangsukalihatmimikmuka bilangsukalihatmimikmukasaat sukalihatmimikmukasaattiap lihatmimikmukasaattiapbicara mimikmukasaattiapbicaradebat</t>
+  </si>
+  <si>
+    <t>apa sampai p soal e-government e-procurement ini pernah sebut tahu lalu gagal total tuh p apasampai sampaip psoal soale-government e-governmente-procurement e-procurementini inipernah pernahsebut sebuttahu tahulalu lalugagal gagaltotal totaltuh tuhp apasampaip sampaipsoal psoale-government soale-governmente-procurement e-governmente-procurementini e-procurementinipernah inipernahsebut pernahsebuttahu sebuttahulalu tahulalugagal lalugagaltotal gagaltotaltuh totaltuhp apasampaipsoal sampaipsoale-government psoale-governmente-procurement soale-governmente-procurementini e-governmente-procurementinipernah e-procurementinipernahsebut inipernahsebuttahu pernahsebuttahulalu sebuttahulalugagal tahulalugagaltotal lalugagaltotaltuh gagaltotaltuhp apasampaipsoale-government sampaipsoale-governmente-procurement psoale-governmente-procurementini soale-governmente-procurementinipernah e-governmente-procurementinipernahsebut e-procurementinipernahsebuttahu inipernahsebuttahulalu pernahsebuttahulalugagal sebuttahulalugagaltotal tahulalugagaltotaltuh lalugagaltotaltuhp apasampaipsoale-governmente-procurement sampaipsoale-governmente-procurementini psoale-governmente-procurementinipernah soale-governmente-procurementinipernahsebut e-governmente-procurementinipernahsebuttahu e-procurementinipernahsebuttahulalu inipernahsebuttahulalugagal pernahsebuttahulalugagaltotal sebuttahulalugagaltotaltuh tahulalugagaltotaltuhp</t>
+  </si>
+  <si>
+    <t>pak ngomong gebu bukan arti kasar galak pak ngomong pelan bukan arti lembek pakngomong ngomonggebu gebubukan bukanarti artikasar kasargalak galakpak pakngomong ngomongpelan pelanbukan bukanarti artilembek pakngomonggebu ngomonggebubukan gebubukanarti bukanartikasar artikasargalak kasargalakpak galakpakngomong pakngomongpelan ngomongpelanbukan pelanbukanarti bukanartilembek pakngomonggebubukan ngomonggebubukanarti gebubukanartikasar bukanartikasargalak artikasargalakpak kasargalakpakngomong galakpakngomongpelan pakngomongpelanbukan ngomongpelanbukanarti pelanbukanartilembek pakngomonggebubukanarti ngomonggebubukanartikasar gebubukanartikasargalak bukanartikasargalakpak artikasargalakpakngomong kasargalakpakngomongpelan galakpakngomongpelanbukan pakngomongpelanbukanarti ngomongpelanbukanartilembek pakngomonggebubukanartikasar ngomonggebubukanartikasargalak gebubukanartikasargalakpak bukanartikasargalakpakngomong artikasargalakpakngomongpelan kasargalakpakngomongpelanbukan galakpakngomongpelanbukanarti pakngomongpelanbukanartilembek</t>
+  </si>
+  <si>
+    <t>mas malam bagus sekali debat serang tepat jantung tahan akhir muter jawab radar masmalam malambagus bagussekali sekalidebat debatserang serangtepat tepatjantung jantungtahan tahanakhir akhirmuter muterjawab jawabradar masmalambagus malambagussekali bagussekalidebat sekalidebatserang debatserangtepat serangtepatjantung tepatjantungtahan jantungtahanakhir tahanakhirmuter akhirmuterjawab muterjawabradar masmalambagussekali malambagussekalidebat bagussekalidebatserang sekalidebatserangtepat debatserangtepatjantung serangtepatjantungtahan tepatjantungtahanakhir jantungtahanakhirmuter tahanakhirmuterjawab akhirmuterjawabradar masmalambagussekalidebat malambagussekalidebatserang bagussekalidebatserangtepat sekalidebatserangtepatjantung debatserangtepatjantungtahan serangtepatjantungtahanakhir tepatjantungtahanakhirmuter jantungtahanakhirmuterjawab tahanakhirmuterjawabradar masmalambagussekalidebatserang malambagussekalidebatserangtepat bagussekalidebatserangtepatjantung sekalidebatserangtepatjantungtahan debatserangtepatjantungtahanakhir serangtepatjantungtahanakhirmuter tepatjantungtahanakhirmuterjawab jantungtahanakhirmuterjawabradar</t>
+  </si>
+  <si>
+    <t>lebih tni tni bapak pecat udah jangan lebihtni tnitni tnibapak bapakpecat pecatudah udahjangan lebihtnitni tnitnibapak tnibapakpecat bapakpecatudah pecatudahjangan lebihtnitnibapak tnitnibapakpecat tnibapakpecatudah bapakpecatudahjangan lebihtnitnibapakpecat tnitnibapakpecatudah tnibapakpecatudahjangan lebihtnitnibapakpecatudah tnitnibapakpecatudahjangan</t>
+  </si>
+  <si>
+    <t>rawan kopi politik syndicate kps pro capres-cawapres - ma ruf amin bentuk tim siber tangkal rawankopi kopipolitik politiksyndicate syndicatekps kpspro procapres-cawapres capres-cawapres- -ma maruf rufamin aminbentuk bentuktim timsiber sibertangkal rawankopipolitik kopipolitiksyndicate politiksyndicatekps syndicatekpspro kpsprocapres-cawapres procapres-cawapres- capres-cawapres-ma -maruf marufamin rufaminbentuk aminbentuktim bentuktimsiber timsibertangkal rawankopipolitiksyndicate kopipolitiksyndicatekps politiksyndicatekpspro syndicatekpsprocapres-cawapres kpsprocapres-cawapres- procapres-cawapres-ma capres-cawapres-maruf -marufamin marufaminbentuk rufaminbentuktim aminbentuktimsiber bentuktimsibertangkal rawankopipolitiksyndicatekps kopipolitiksyndicatekpspro politiksyndicatekpsprocapres-cawapres syndicatekpsprocapres-cawapres- kpsprocapres-cawapres-ma procapres-cawapres-maruf capres-cawapres-marufamin -marufaminbentuk marufaminbentuktim rufaminbentuktimsiber aminbentuktimsibertangkal rawankopipolitiksyndicatekpspro kopipolitiksyndicatekpsprocapres-cawapres politiksyndicatekpsprocapres-cawapres- syndicatekpsprocapres-cawapres-ma kpsprocapres-cawapres-maruf procapres-cawapres-marufamin capres-cawapres-marufaminbentuk -marufaminbentuktim marufaminbentuktimsiber rufaminbentuktimsibertangkal</t>
+  </si>
+  <si>
+    <t>debat malam bukti sama emosional emosi pikir selamat debatmalam malambukti buktisama samaemosional emosionalemosi emosipikir pikirselamat debatmalambukti malambuktisama buktisamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat debatmalambuktisama malambuktisamaemosional buktisamaemosionalemosi samaemosionalemosipikir emosionalemosipikirselamat debatmalambuktisamaemosional malambuktisamaemosionalemosi buktisamaemosionalemosipikir samaemosionalemosipikirselamat debatmalambuktisamaemosionalemosi malambuktisamaemosionalemosipikir buktisamaemosionalemosipikirselamat</t>
+  </si>
+  <si>
+    <t>pak percaya mampu tni jaga daulat nkri dengan dukung alutsista baik pakpercaya percayamampu mamputni tnijaga jagadaulat daulatnkri nkridengan dengandukung dukungalutsista alutsistabaik pakpercayamampu percayamamputni mamputnijaga tnijagadaulat jagadaulatnkri daulatnkridengan nkridengandukung dengandukungalutsista dukungalutsistabaik pakpercayamamputni percayamamputnijaga mamputnijagadaulat tnijagadaulatnkri jagadaulatnkridengan daulatnkridengandukung nkridengandukungalutsista dengandukungalutsistabaik pakpercayamamputnijaga percayamamputnijagadaulat mamputnijagadaulatnkri tnijagadaulatnkridengan jagadaulatnkridengandukung daulatnkridengandukungalutsista nkridengandukungalutsistabaik pakpercayamamputnijagadaulat percayamamputnijagadaulatnkri mamputnijagadaulatnkridengan tnijagadaulatnkridengandukung jagadaulatnkridengandukungalutsista daulatnkridengandukungalutsistabaik</t>
+  </si>
+  <si>
+    <t>turut akhir marah audiens tidak kontrol emosi turutakhir akhirmarah marahaudiens audienstidak tidakkontrol kontrolemosi turutakhirmarah akhirmarahaudiens marahaudienstidak audienstidakkontrol tidakkontrolemosi turutakhirmarahaudiens akhirmarahaudienstidak marahaudienstidakkontrol audienstidakkontrolemosi turutakhirmarahaudienstidak akhirmarahaudienstidakkontrol marahaudienstidakkontrolemosi turutakhirmarahaudienstidakkontrol akhirmarahaudienstidakkontrolemosi</t>
+  </si>
+  <si>
+    <t>pak mungkin rasa situasi perang kali pakmungkin mungkinrasa rasasituasi situasiperang perangkali pakmungkinrasa mungkinrasasituasi rasasituasiperang situasiperangkali pakmungkinrasasituasi mungkinrasasituasiperang rasasituasiperangkali pakmungkinrasasituasiperang mungkinrasasituasiperangkali pakmungkinrasasituasiperangkali</t>
+  </si>
+  <si>
+    <t>politik luar negeri perintah soal rohingya omong doang ada tuh repatriasi atas peran lebih banyak peran politikluar luarnegeri negeriperintah perintahsoal soalrohingya rohingyaomong omongdoang doangada adatuh tuhrepatriasi repatriasiatas atasperan peranlebih lebihbanyak banyakperan politikluarnegeri luarnegeriperintah negeriperintahsoal perintahsoalrohingya soalrohingyaomong rohingyaomongdoang omongdoangada doangadatuh adatuhrepatriasi tuhrepatriasiatas repatriasiatasperan atasperanlebih peranlebihbanyak lebihbanyakperan politikluarnegeriperintah luarnegeriperintahsoal negeriperintahsoalrohingya perintahsoalrohingyaomong soalrohingyaomongdoang rohingyaomongdoangada omongdoangadatuh doangadatuhrepatriasi adatuhrepatriasiatas tuhrepatriasiatasperan repatriasiatasperanlebih atasperanlebihbanyak peranlebihbanyakperan politikluarnegeriperintahsoal luarnegeriperintahsoalrohingya negeriperintahsoalrohingyaomong perintahsoalrohingyaomongdoang soalrohingyaomongdoangada rohingyaomongdoangadatuh omongdoangadatuhrepatriasi doangadatuhrepatriasiatas adatuhrepatriasiatasperan tuhrepatriasiatasperanlebih repatriasiatasperanlebihbanyak atasperanlebihbanyakperan politikluarnegeriperintahsoalrohingya luarnegeriperintahsoalrohingyaomong negeriperintahsoalrohingyaomongdoang perintahsoalrohingyaomongdoangada soalrohingyaomongdoangadatuh rohingyaomongdoangadatuhrepatriasi omongdoangadatuhrepatriasiatas doangadatuhrepatriasiatasperan adatuhrepatriasiatasperanlebih tuhrepatriasiatasperanlebihbanyak repatriasiatasperanlebihbanyakperan</t>
+  </si>
+  <si>
+    <t>lawan tuduh kubu belah pak pro hadap khilafah ingin ganti pancasila dengan tagar prabowo lawantuduh tuduhkubu kububelah belahpak pakpro prohadap hadapkhilafah khilafahingin inginganti gantipancasila pancasiladengan dengantagar tagarprabowo lawantuduhkubu tuduhkububelah kububelahpak belahpakpro pakprohadap prohadapkhilafah hadapkhilafahingin khilafahinginganti ingingantipancasila gantipancasiladengan pancasiladengantagar dengantagarprabowo lawantuduhkububelah tuduhkububelahpak kububelahpakpro belahpakprohadap pakprohadapkhilafah prohadapkhilafahingin hadapkhilafahinginganti khilafahingingantipancasila ingingantipancasiladengan gantipancasiladengantagar pancasiladengantagarprabowo lawantuduhkububelahpak tuduhkububelahpakpro kububelahpakprohadap belahpakprohadapkhilafah pakprohadapkhilafahingin prohadapkhilafahinginganti hadapkhilafahingingantipancasila khilafahingingantipancasiladengan ingingantipancasiladengantagar gantipancasiladengantagarprabowo lawantuduhkububelahpakpro tuduhkububelahpakprohadap kububelahpakprohadapkhilafah belahpakprohadapkhilafahingin pakprohadapkhilafahinginganti prohadapkhilafahingingantipancasila hadapkhilafahingingantipancasiladengan khilafahingingantipancasiladengantagar ingingantipancasiladengantagarprabowo</t>
+  </si>
+  <si>
+    <t>pelosok desa sampang madura jatim rakyat gotong royong buat apik pak mas dukung yuk pelosokdesa desasampang sampangmadura madurajatim jatimrakyat rakyatgotong gotongroyong royongbuat buatapik apikpak pakmas masdukung dukungyuk pelosokdesasampang desasampangmadura sampangmadurajatim madurajatimrakyat jatimrakyatgotong rakyatgotongroyong gotongroyongbuat royongbuatapik buatapikpak apikpakmas pakmasdukung masdukungyuk pelosokdesasampangmadura desasampangmadurajatim sampangmadurajatimrakyat madurajatimrakyatgotong jatimrakyatgotongroyong rakyatgotongroyongbuat gotongroyongbuatapik royongbuatapikpak buatapikpakmas apikpakmasdukung pakmasdukungyuk pelosokdesasampangmadurajatim desasampangmadurajatimrakyat sampangmadurajatimrakyatgotong madurajatimrakyatgotongroyong jatimrakyatgotongroyongbuat rakyatgotongroyongbuatapik gotongroyongbuatapikpak royongbuatapikpakmas buatapikpakmasdukung apikpakmasdukungyuk pelosokdesasampangmadurajatimrakyat desasampangmadurajatimrakyatgotong sampangmadurajatimrakyatgotongroyong madurajatimrakyatgotongroyongbuat jatimrakyatgotongroyongbuatapik rakyatgotongroyongbuatapikpak gotongroyongbuatapikpakmas royongbuatapikpakmasdukung buatapikpakmasdukungyuk</t>
+  </si>
+  <si>
+    <t>kok berani bilang jadi mediator konflik afghanistan kayak cuma kunjung doang sana n foto sholat kokberani beranibilang bilangjadi jadimediator mediatorkonflik konflikafghanistan afghanistankayak kayakcuma cumakunjung kunjungdoang doangsana sanan nfoto fotosholat kokberanibilang beranibilangjadi bilangjadimediator jadimediatorkonflik mediatorkonflikafghanistan konflikafghanistankayak afghanistankayakcuma kayakcumakunjung cumakunjungdoang kunjungdoangsana doangsanan sananfoto nfotosholat kokberanibilangjadi beranibilangjadimediator bilangjadimediatorkonflik jadimediatorkonflikafghanistan mediatorkonflikafghanistankayak konflikafghanistankayakcuma afghanistankayakcumakunjung kayakcumakunjungdoang cumakunjungdoangsana kunjungdoangsanan doangsananfoto sananfotosholat kokberanibilangjadimediator beranibilangjadimediatorkonflik bilangjadimediatorkonflikafghanistan jadimediatorkonflikafghanistankayak mediatorkonflikafghanistankayakcuma konflikafghanistankayakcumakunjung afghanistankayakcumakunjungdoang kayakcumakunjungdoangsana cumakunjungdoangsanan kunjungdoangsananfoto doangsananfotosholat kokberanibilangjadimediatorkonflik beranibilangjadimediatorkonflikafghanistan bilangjadimediatorkonflikafghanistankayak jadimediatorkonflikafghanistankayakcuma mediatorkonflikafghanistankayakcumakunjung konflikafghanistankayakcumakunjungdoang afghanistankayakcumakunjungdoangsana kayakcumakunjungdoangsanan cumakunjungdoangsananfoto kunjungdoangsananfotosholat</t>
+  </si>
+  <si>
+    <t>pak percaya sama tni iya pak percaya saya percaya nya sama orang suka ngomong bayar pakpercaya percayasama samatni tniiya iyapak pakpercaya percayasaya sayapercaya percayanya nyasama samaorang orangsuka sukangomong ngomongbayar pakpercayasama percayasamatni samatniiya tniiyapak iyapakpercaya pakpercayasaya percayasayapercaya sayapercayanya percayanyasama nyasamaorang samaorangsuka orangsukangomong sukangomongbayar pakpercayasamatni percayasamatniiya samatniiyapak tniiyapakpercaya iyapakpercayasaya pakpercayasayapercaya percayasayapercayanya sayapercayanyasama percayanyasamaorang nyasamaorangsuka samaorangsukangomong orangsukangomongbayar pakpercayasamatniiya percayasamatniiyapak samatniiyapakpercaya tniiyapakpercayasaya iyapakpercayasayapercaya pakpercayasayapercayanya percayasayapercayanyasama sayapercayanyasamaorang percayanyasamaorangsuka nyasamaorangsukangomong samaorangsukangomongbayar pakpercayasamatniiyapak percayasamatniiyapakpercaya samatniiyapakpercayasaya tniiyapakpercayasayapercaya iyapakpercayasayapercayanya pakpercayasayapercayanyasama percayasayapercayanyasamaorang sayapercayanyasamaorangsuka percayanyasamaorangsukangomong nyasamaorangsukangomongbayar</t>
+  </si>
+  <si>
+    <t>cuma orang dongo jangan masih tanya nasionalisme orang jenderal sumpah prajurit bawa mati cumaorang orangdongo dongojangan janganmasih masihtanya tanyanasionalisme nasionalismeorang orangjenderal jenderalsumpah sumpahprajurit prajuritbawa bawamati cumaorangdongo orangdongojangan dongojanganmasih janganmasihtanya masihtanyanasionalisme tanyanasionalismeorang nasionalismeorangjenderal orangjenderalsumpah jenderalsumpahprajurit sumpahprajuritbawa prajuritbawamati cumaorangdongojangan orangdongojanganmasih dongojanganmasihtanya janganmasihtanyanasionalisme masihtanyanasionalismeorang tanyanasionalismeorangjenderal nasionalismeorangjenderalsumpah orangjenderalsumpahprajurit jenderalsumpahprajuritbawa sumpahprajuritbawamati cumaorangdongojanganmasih orangdongojanganmasihtanya dongojanganmasihtanyanasionalisme janganmasihtanyanasionalismeorang masihtanyanasionalismeorangjenderal tanyanasionalismeorangjenderalsumpah nasionalismeorangjenderalsumpahprajurit orangjenderalsumpahprajuritbawa jenderalsumpahprajuritbawamati cumaorangdongojanganmasihtanya orangdongojanganmasihtanyanasionalisme dongojanganmasihtanyanasionalismeorang janganmasihtanyanasionalismeorangjenderal masihtanyanasionalismeorangjenderalsumpah tanyanasionalismeorangjenderalsumpahprajurit nasionalismeorangjenderalsumpahprajuritbawa orangjenderalsumpahprajuritbawamati</t>
+  </si>
+  <si>
+    <t>debat kali turut pak all keluar performa maksimal bro jokowi kasi tunduk terus kurang caca diri debatkali kaliturut turutpak pakall allkeluar keluarperforma performamaksimal maksimalbro brojokowi jokowikasi kasitunduk tundukterus teruskurang kurangcaca cacadiri debatkaliturut kaliturutpak turutpakall pakallkeluar allkeluarperforma keluarperformamaksimal performamaksimalbro maksimalbrojokowi brojokowikasi jokowikasitunduk kasitundukterus tundukteruskurang teruskurangcaca kurangcacadiri debatkaliturutpak kaliturutpakall turutpakallkeluar pakallkeluarperforma allkeluarperformamaksimal keluarperformamaksimalbro performamaksimalbrojokowi maksimalbrojokowikasi brojokowikasitunduk jokowikasitundukterus kasitundukteruskurang tundukteruskurangcaca teruskurangcacadiri debatkaliturutpakall kaliturutpakallkeluar turutpakallkeluarperforma pakallkeluarperformamaksimal allkeluarperformamaksimalbro keluarperformamaksimalbrojokowi performamaksimalbrojokowikasi maksimalbrojokowikasitunduk brojokowikasitundukterus jokowikasitundukteruskurang kasitundukteruskurangcaca tundukteruskurangcacadiri debatkaliturutpakallkeluar kaliturutpakallkeluarperforma turutpakallkeluarperformamaksimal pakallkeluarperformamaksimalbro allkeluarperformamaksimalbrojokowi keluarperformamaksimalbrojokowikasi performamaksimalbrojokowikasitunduk maksimalbrojokowikasitundukterus brojokowikasitundukteruskurang jokowikasitundukteruskurangcaca kasitundukteruskurangcacadiri</t>
+  </si>
+  <si>
+    <t>menang telak sibuk molbek 2in akun sipp lah sing penting semua semangat prabowobentengnkri menangtelak telaksibuk sibukmolbek molbek2in 2inakun akunsipp sipplah lahsing singpenting pentingsemua semuasemangat semangatprabowobentengnkri menangtelaksibuk telaksibukmolbek sibukmolbek2in molbek2inakun 2inakunsipp akunsipplah sipplahsing lahsingpenting singpentingsemua pentingsemuasemangat semuasemangatprabowobentengnkri menangtelaksibukmolbek telaksibukmolbek2in sibukmolbek2inakun molbek2inakunsipp 2inakunsipplah akunsipplahsing sipplahsingpenting lahsingpentingsemua singpentingsemuasemangat pentingsemuasemangatprabowobentengnkri menangtelaksibukmolbek2in telaksibukmolbek2inakun sibukmolbek2inakunsipp molbek2inakunsipplah 2inakunsipplahsing akunsipplahsingpenting sipplahsingpentingsemua lahsingpentingsemuasemangat singpentingsemuasemangatprabowobentengnkri menangtelaksibukmolbek2inakun telaksibukmolbek2inakunsipp sibukmolbek2inakunsipplah molbek2inakunsipplahsing 2inakunsipplahsingpenting akunsipplahsingpentingsemua sipplahsingpentingsemuasemangat lahsingpentingsemuasemangatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bangun sistem layan masyarakat untuk cegah korupsi bocor bangunsistem sistemlayan layanmasyarakat masyarakatuntuk untukcegah cegahkorupsi korupsibocor bangunsistemlayan sistemlayanmasyarakat layanmasyarakatuntuk masyarakatuntukcegah untukcegahkorupsi cegahkorupsibocor bangunsistemlayanmasyarakat sistemlayanmasyarakatuntuk layanmasyarakatuntukcegah masyarakatuntukcegahkorupsi untukcegahkorupsibocor bangunsistemlayanmasyarakatuntuk sistemlayanmasyarakatuntukcegah layanmasyarakatuntukcegahkorupsi masyarakatuntukcegahkorupsibocor bangunsistemlayanmasyarakatuntukcegah sistemlayanmasyarakatuntukcegahkorupsi layanmasyarakatuntukcegahkorupsibocor</t>
+  </si>
+  <si>
+    <t>woy asal bapak senang banyak tim lho menteri afkiran selalu kasih data salah sama kamu woyasal asalbapak bapaksenang senangbanyak banyaktim timlho lhomenteri menteriafkiran afkiranselalu selalukasih kasihdata datasalah salahsama samakamu woyasalbapak asalbapaksenang bapaksenangbanyak senangbanyaktim banyaktimlho timlhomenteri lhomenteriafkiran menteriafkiranselalu afkiranselalukasih selalukasihdata kasihdatasalah datasalahsama salahsamakamu woyasalbapaksenang asalbapaksenangbanyak bapaksenangbanyaktim senangbanyaktimlho banyaktimlhomenteri timlhomenteriafkiran lhomenteriafkiranselalu menteriafkiranselalukasih afkiranselalukasihdata selalukasihdatasalah kasihdatasalahsama datasalahsamakamu woyasalbapaksenangbanyak asalbapaksenangbanyaktim bapaksenangbanyaktimlho senangbanyaktimlhomenteri banyaktimlhomenteriafkiran timlhomenteriafkiranselalu lhomenteriafkiranselalukasih menteriafkiranselalukasihdata afkiranselalukasihdatasalah selalukasihdatasalahsama kasihdatasalahsamakamu woyasalbapaksenangbanyaktim asalbapaksenangbanyaktimlho bapaksenangbanyaktimlhomenteri senangbanyaktimlhomenteriafkiran banyaktimlhomenteriafkiranselalu timlhomenteriafkiranselalukasih lhomenteriafkiranselalukasihdata menteriafkiranselalukasihdatasalah afkiranselalukasihdatasalahsama selalukasihdatasalahsamakamu</t>
+  </si>
+  <si>
+    <t>malam dukung pak bisa tidur nyenyak akan ucap selamat tinggal pak jokowi hahaha malamdukung dukungpak pakbisa bisatidur tidurnyenyak nyenyakakan akanucap ucapselamat selamattinggal tinggalpak pakjokowi jokowihahaha malamdukungpak dukungpakbisa pakbisatidur bisatidurnyenyak tidurnyenyakakan nyenyakakanucap akanucapselamat ucapselamattinggal selamattinggalpak tinggalpakjokowi pakjokowihahaha malamdukungpakbisa dukungpakbisatidur pakbisatidurnyenyak bisatidurnyenyakakan tidurnyenyakakanucap nyenyakakanucapselamat akanucapselamattinggal ucapselamattinggalpak selamattinggalpakjokowi tinggalpakjokowihahaha malamdukungpakbisatidur dukungpakbisatidurnyenyak pakbisatidurnyenyakakan bisatidurnyenyakakanucap tidurnyenyakakanucapselamat nyenyakakanucapselamattinggal akanucapselamattinggalpak ucapselamattinggalpakjokowi selamattinggalpakjokowihahaha malamdukungpakbisatidurnyenyak dukungpakbisatidurnyenyakakan pakbisatidurnyenyakakanucap bisatidurnyenyakakanucapselamat tidurnyenyakakanucapselamattinggal nyenyakakanucapselamattinggalpak akanucapselamattinggalpakjokowi ucapselamattinggalpakjokowihahaha</t>
+  </si>
+  <si>
+    <t>memang tarung pilpres sekali tentang cara pikir baru lawan cara pikir lama moga ini tarung akhir memangtarung tarungpilpres pilpressekali sekalitentang tentangcara carapikir pikirbaru barulawan lawancara carapikir pikirlama lamamoga mogaini initarung tarungakhir memangtarungpilpres tarungpilpressekali pilpressekalitentang sekalitentangcara tentangcarapikir carapikirbaru pikirbarulawan barulawancara lawancarapikir carapikirlama pikirlamamoga lamamogaini mogainitarung initarungakhir memangtarungpilpressekali tarungpilpressekalitentang pilpressekalitentangcara sekalitentangcarapikir tentangcarapikirbaru carapikirbarulawan pikirbarulawancara barulawancarapikir lawancarapikirlama carapikirlamamoga pikirlamamogaini lamamogainitarung mogainitarungakhir memangtarungpilpressekalitentang tarungpilpressekalitentangcara pilpressekalitentangcarapikir sekalitentangcarapikirbaru tentangcarapikirbarulawan carapikirbarulawancara pikirbarulawancarapikir barulawancarapikirlama lawancarapikirlamamoga carapikirlamamogaini pikirlamamogainitarung lamamogainitarungakhir memangtarungpilpressekalitentangcara tarungpilpressekalitentangcarapikir pilpressekalitentangcarapikirbaru sekalitentangcarapikirbarulawan tentangcarapikirbarulawancara carapikirbarulawancarapikir pikirbarulawancarapikirlama barulawancarapikirlamamoga lawancarapikirlamamogaini carapikirlamamogainitarung pikirlamamogainitarungakhir</t>
+  </si>
+  <si>
+    <t>moderator sampai haru dengar papar pak kena apa perlu cepat teknologi informasi kalau kaya ambil negara moderatorsampai sampaiharu harudengar dengarpapar paparpak pakkena kenaapa apaperlu perlucepat cepatteknologi teknologiinformasi informasikalau kalaukaya kayaambil ambilnegara moderatorsampaiharu sampaiharudengar harudengarpapar dengarpaparpak paparpakkena pakkenaapa kenaapaperlu apaperlucepat perlucepatteknologi cepatteknologiinformasi teknologiinformasikalau informasikalaukaya kalaukayaambil kayaambilnegara moderatorsampaiharudengar sampaiharudengarpapar harudengarpaparpak dengarpaparpakkena paparpakkenaapa pakkenaapaperlu kenaapaperlucepat apaperlucepatteknologi perlucepatteknologiinformasi cepatteknologiinformasikalau teknologiinformasikalaukaya informasikalaukayaambil kalaukayaambilnegara moderatorsampaiharudengarpapar sampaiharudengarpaparpak harudengarpaparpakkena dengarpaparpakkenaapa paparpakkenaapaperlu pakkenaapaperlucepat kenaapaperlucepatteknologi apaperlucepatteknologiinformasi perlucepatteknologiinformasikalau cepatteknologiinformasikalaukaya teknologiinformasikalaukayaambil informasikalaukayaambilnegara moderatorsampaiharudengarpaparpak sampaiharudengarpaparpakkena harudengarpaparpakkenaapa dengarpaparpakkenaapaperlu paparpakkenaapaperlucepat pakkenaapaperlucepatteknologi kenaapaperlucepatteknologiinformasi apaperlucepatteknologiinformasikalau perlucepatteknologiinformasikalaukaya cepatteknologiinformasikalaukayaambil teknologiinformasikalaukayaambilnegara</t>
+  </si>
+  <si>
+    <t>aku rantai roda kuasa putus dia sahabat putus akurantai rantairoda rodakuasa kuasaputus putusdia diasahabat sahabatputus akurantairoda rantairodakuasa rodakuasaputus kuasaputusdia putusdiasahabat diasahabatputus akurantairodakuasa rantairodakuasaputus rodakuasaputusdia kuasaputusdiasahabat putusdiasahabatputus akurantairodakuasaputus rantairodakuasaputusdia rodakuasaputusdiasahabat kuasaputusdiasahabatputus akurantairodakuasaputusdia rantairodakuasaputusdiasahabat rodakuasaputusdiasahabatputus</t>
+  </si>
+  <si>
+    <t>henti tv lihat debat sebentar terus teriak supir bus sorak sorai ikut hentitv tvlihat lihatdebat debatsebentar sebentarterus terusteriak teriaksupir supirbus bussorak soraksorai soraiikut hentitvlihat tvlihatdebat lihatdebatsebentar debatsebentarterus sebentarterusteriak terusteriaksupir teriaksupirbus supirbussorak bussoraksorai soraksoraiikut hentitvlihatdebat tvlihatdebatsebentar lihatdebatsebentarterus debatsebentarterusteriak sebentarterusteriaksupir terusteriaksupirbus teriaksupirbussorak supirbussoraksorai bussoraksoraiikut hentitvlihatdebatsebentar tvlihatdebatsebentarterus lihatdebatsebentarterusteriak debatsebentarterusteriaksupir sebentarterusteriaksupirbus terusteriaksupirbussorak teriaksupirbussoraksorai supirbussoraksoraiikut hentitvlihatdebatsebentarterus tvlihatdebatsebentarterusteriak lihatdebatsebentarterusteriaksupir debatsebentarterusteriaksupirbus sebentarterusteriaksupirbussorak terusteriaksupirbussoraksorai teriaksupirbussoraksoraiikut</t>
+  </si>
+  <si>
+    <t>hahaha closing sempurna pak gila sih nyata receh beliau yakin optimis april hahahaclosing closingsempurna sempurnapak pakgila gilasih sihnyata nyatareceh recehbeliau beliauyakin yakinoptimis optimisapril hahahaclosingsempurna closingsempurnapak sempurnapakgila pakgilasih gilasihnyata sihnyatareceh nyatarecehbeliau recehbeliauyakin beliauyakinoptimis yakinoptimisapril hahahaclosingsempurnapak closingsempurnapakgila sempurnapakgilasih pakgilasihnyata gilasihnyatareceh sihnyatarecehbeliau nyatarecehbeliauyakin recehbeliauyakinoptimis beliauyakinoptimisapril hahahaclosingsempurnapakgila closingsempurnapakgilasih sempurnapakgilasihnyata pakgilasihnyatareceh gilasihnyatarecehbeliau sihnyatarecehbeliauyakin nyatarecehbeliauyakinoptimis recehbeliauyakinoptimisapril hahahaclosingsempurnapakgilasih closingsempurnapakgilasihnyata sempurnapakgilasihnyatareceh pakgilasihnyatarecehbeliau gilasihnyatarecehbeliauyakin sihnyatarecehbeliauyakinoptimis nyatarecehbeliauyakinoptimisapril</t>
+  </si>
+  <si>
+    <t>ingin ganti pancasila republik ada banyak yang ingin ganti presiden jangan kok santai inginganti gantipancasila pancasilarepublik republikada adabanyak banyakyang yangingin inginganti gantipresiden presidenjangan jangankok koksantai ingingantipancasila gantipancasilarepublik pancasilarepublikada republikadabanyak adabanyakyang banyakyangingin yanginginganti ingingantipresiden gantipresidenjangan presidenjangankok jangankoksantai ingingantipancasilarepublik gantipancasilarepublikada pancasilarepublikadabanyak republikadabanyakyang adabanyakyangingin banyakyanginginganti yangingingantipresiden ingingantipresidenjangan gantipresidenjangankok presidenjangankoksantai ingingantipancasilarepublikada gantipancasilarepublikadabanyak pancasilarepublikadabanyakyang republikadabanyakyangingin adabanyakyanginginganti banyakyangingingantipresiden yangingingantipresidenjangan ingingantipresidenjangankok gantipresidenjangankoksantai ingingantipancasilarepublikadabanyak gantipancasilarepublikadabanyakyang pancasilarepublikadabanyakyangingin republikadabanyakyanginginganti adabanyakyangingingantipresiden banyakyangingingantipresidenjangan yangingingantipresidenjangankok ingingantipresidenjangankoksantai</t>
+  </si>
+  <si>
+    <t>si bilang bela pancasila dukung curut khilafah hti juga hapal pancasila sibilang bilangbela belapancasila pancasiladukung dukungcurut curutkhilafah khilafahhti htijuga jugahapal hapalpancasila sibilangbela bilangbelapancasila belapancasiladukung pancasiladukungcurut dukungcurutkhilafah curutkhilafahhti khilafahhtijuga htijugahapal jugahapalpancasila sibilangbelapancasila bilangbelapancasiladukung belapancasiladukungcurut pancasiladukungcurutkhilafah dukungcurutkhilafahhti curutkhilafahhtijuga khilafahhtijugahapal htijugahapalpancasila sibilangbelapancasiladukung bilangbelapancasiladukungcurut belapancasiladukungcurutkhilafah pancasiladukungcurutkhilafahhti dukungcurutkhilafahhtijuga curutkhilafahhtijugahapal khilafahhtijugahapalpancasila sibilangbelapancasiladukungcurut bilangbelapancasiladukungcurutkhilafah belapancasiladukungcurutkhilafahhti pancasiladukungcurutkhilafahhtijuga dukungcurutkhilafahhtijugahapal curutkhilafahhtijugahapalpancasila</t>
+  </si>
+  <si>
+    <t>poin besar kalah tahana dukung ngetawain nasionalisme mas prabowobentengnkri poinbesar besarkalah kalahtahana tahanadukung dukungngetawain ngetawainnasionalisme nasionalismemas masprabowobentengnkri poinbesarkalah besarkalahtahana kalahtahanadukung tahanadukungngetawain dukungngetawainnasionalisme ngetawainnasionalismemas nasionalismemasprabowobentengnkri poinbesarkalahtahana besarkalahtahanadukung kalahtahanadukungngetawain tahanadukungngetawainnasionalisme dukungngetawainnasionalismemas ngetawainnasionalismemasprabowobentengnkri poinbesarkalahtahanadukung besarkalahtahanadukungngetawain kalahtahanadukungngetawainnasionalisme tahanadukungngetawainnasionalismemas dukungngetawainnasionalismemasprabowobentengnkri poinbesarkalahtahanadukungngetawain besarkalahtahanadukungngetawainnasionalisme kalahtahanadukungngetawainnasionalismemas tahanadukungngetawainnasionalismemasprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>saya percaya kuat pimpin ada banyak diri bapak topang tahu lebih sayapercaya percayakuat kuatpimpin pimpinada adabanyak banyakdiri diribapak bapaktopang topangtahu tahulebih sayapercayakuat percayakuatpimpin kuatpimpinada pimpinadabanyak adabanyakdiri banyakdiribapak diribapaktopang bapaktopangtahu topangtahulebih sayapercayakuatpimpin percayakuatpimpinada kuatpimpinadabanyak pimpinadabanyakdiri adabanyakdiribapak banyakdiribapaktopang diribapaktopangtahu bapaktopangtahulebih sayapercayakuatpimpinada percayakuatpimpinadabanyak kuatpimpinadabanyakdiri pimpinadabanyakdiribapak adabanyakdiribapaktopang banyakdiribapaktopangtahu diribapaktopangtahulebih sayapercayakuatpimpinadabanyak percayakuatpimpinadabanyakdiri kuatpimpinadabanyakdiribapak pimpinadabanyakdiribapaktopang adabanyakdiribapaktopangtahu banyakdiribapaktopangtahulebih</t>
+  </si>
+  <si>
+    <t>nasionalisme nampak sangat kental debat pilpres tuju bandara kelola asing berdikari nasionalismenampak nampaksangat sangatkental kentaldebat debatpilpres pilprestuju tujubandara bandarakelola kelolaasing asingberdikari nasionalismenampaksangat nampaksangatkental sangatkentaldebat kentaldebatpilpres debatpilprestuju pilprestujubandara tujubandarakelola bandarakelolaasing kelolaasingberdikari nasionalismenampaksangatkental nampaksangatkentaldebat sangatkentaldebatpilpres kentaldebatpilprestuju debatpilprestujubandara pilprestujubandarakelola tujubandarakelolaasing bandarakelolaasingberdikari nasionalismenampaksangatkentaldebat nampaksangatkentaldebatpilpres sangatkentaldebatpilprestuju kentaldebatpilprestujubandara debatpilprestujubandarakelola pilprestujubandarakelolaasing tujubandarakelolaasingberdikari nasionalismenampaksangatkentaldebatpilpres nampaksangatkentaldebatpilprestuju sangatkentaldebatpilprestujubandara kentaldebatpilprestujubandarakelola debatpilprestujubandarakelolaasing pilprestujubandarakelolaasingberdikari</t>
+  </si>
+  <si>
+    <t>pak tampil malam buat makin bangga kamu lihat sangat peduli nkri paktampil tampilmalam malambuat buatmakin makinbangga banggakamu kamulihat lihatsangat sangatpeduli pedulinkri paktampilmalam tampilmalambuat malambuatmakin buatmakinbangga makinbanggakamu banggakamulihat kamulihatsangat lihatsangatpeduli sangatpedulinkri paktampilmalambuat tampilmalambuatmakin malambuatmakinbangga buatmakinbanggakamu makinbanggakamulihat banggakamulihatsangat kamulihatsangatpeduli lihatsangatpedulinkri paktampilmalambuatmakin tampilmalambuatmakinbangga malambuatmakinbanggakamu buatmakinbanggakamulihat makinbanggakamulihatsangat banggakamulihatsangatpeduli kamulihatsangatpedulinkri paktampilmalambuatmakinbangga tampilmalambuatmakinbanggakamu malambuatmakinbanggakamulihat buatmakinbanggakamulihatsangat makinbanggakamulihatsangatpeduli banggakamulihatsangatpedulinkri</t>
+  </si>
+  <si>
+    <t>ini tni pak pecat debatpilpres 2019 https t co usdobwdlba initni tnipak pakpecat pecatdebatpilpres debatpilpres2019 2019https httpst tco cousdobwdlba initnipak tnipakpecat pakpecatdebatpilpres pecatdebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcousdobwdlba initnipakpecat tnipakpecatdebatpilpres pakpecatdebatpilpres2019 pecatdebatpilpres2019https debatpilpres2019httpst 2019httpstco httpstcousdobwdlba initnipakpecatdebatpilpres tnipakpecatdebatpilpres2019 pakpecatdebatpilpres2019https pecatdebatpilpres2019httpst debatpilpres2019httpstco 2019httpstcousdobwdlba initnipakpecatdebatpilpres2019 tnipakpecatdebatpilpres2019https pakpecatdebatpilpres2019httpst pecatdebatpilpres2019httpstco debatpilpres2019httpstcousdobwdlba</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam pak tampil tenang visioner matang gulir gagas cara cemerlang debatcalon calonpresiden presidenmalam malampak paktampil tampiltenang tenangvisioner visionermatang matanggulir gulirgagas gagascara caracemerlang debatcalonpresiden calonpresidenmalam presidenmalampak malampaktampil paktampiltenang tampiltenangvisioner tenangvisionermatang visionermatanggulir matanggulirgagas gulirgagascara gagascaracemerlang debatcalonpresidenmalam calonpresidenmalampak presidenmalampaktampil malampaktampiltenang paktampiltenangvisioner tampiltenangvisionermatang tenangvisionermatanggulir visionermatanggulirgagas matanggulirgagascara gulirgagascaracemerlang debatcalonpresidenmalampak calonpresidenmalampaktampil presidenmalampaktampiltenang malampaktampiltenangvisioner paktampiltenangvisionermatang tampiltenangvisionermatanggulir tenangvisionermatanggulirgagas visionermatanggulirgagascara matanggulirgagascaracemerlang debatcalonpresidenmalampaktampil calonpresidenmalampaktampiltenang presidenmalampaktampiltenangvisioner malampaktampiltenangvisionermatang paktampiltenangvisionermatanggulir tampiltenangvisionermatanggulirgagas tenangvisionermatanggulirgagascara visionermatanggulirgagascaracemerlang</t>
+  </si>
+  <si>
+    <t>sekarang gilir kpps nya tidak netral makin benar curang dapat kalah sekaranggilir gilirkpps kppsnya nyatidak tidaknetral netralmakin makinbenar benarcurang curangdapat dapatkalah sekaranggilirkpps gilirkppsnya kppsnyatidak nyatidaknetral tidaknetralmakin netralmakinbenar makinbenarcurang benarcurangdapat curangdapatkalah sekaranggilirkppsnya gilirkppsnyatidak kppsnyatidaknetral nyatidaknetralmakin tidaknetralmakinbenar netralmakinbenarcurang makinbenarcurangdapat benarcurangdapatkalah sekaranggilirkppsnyatidak gilirkppsnyatidaknetral kppsnyatidaknetralmakin nyatidaknetralmakinbenar tidaknetralmakinbenarcurang netralmakinbenarcurangdapat makinbenarcurangdapatkalah sekaranggilirkppsnyatidaknetral gilirkppsnyatidaknetralmakin kppsnyatidaknetralmakinbenar nyatidaknetralmakinbenarcurang tidaknetralmakinbenarcurangdapat netralmakinbenarcurangdapatkalah</t>
+  </si>
+  <si>
+    <t>calon presiden ajak semua pihak politik negara baik saling tiada calonpresiden presidenajak ajaksemua semuapihak pihakpolitik politiknegara negarabaik baiksaling salingtiada calonpresidenajak presidenajaksemua ajaksemuapihak semuapihakpolitik pihakpolitiknegara politiknegarabaik negarabaiksaling baiksalingtiada calonpresidenajaksemua presidenajaksemuapihak ajaksemuapihakpolitik semuapihakpolitiknegara pihakpolitiknegarabaik politiknegarabaiksaling negarabaiksalingtiada calonpresidenajaksemuapihak presidenajaksemuapihakpolitik ajaksemuapihakpolitiknegara semuapihakpolitiknegarabaik pihakpolitiknegarabaiksaling politiknegarabaiksalingtiada calonpresidenajaksemuapihakpolitik presidenajaksemuapihakpolitiknegara ajaksemuapihakpolitiknegarabaik semuapihakpolitiknegarabaiksaling pihakpolitiknegarabaiksalingtiada</t>
+  </si>
+  <si>
+    <t>malam debat pilpres ke tampil pak patut apresiasi beliau lebih kritis ofensif malamdebat debatpilpres pilpreske ketampil tampilpak pakpatut patutapresiasi apresiasibeliau beliaulebih lebihkritis kritisofensif malamdebatpilpres debatpilpreske pilpresketampil ketampilpak tampilpakpatut pakpatutapresiasi patutapresiasibeliau apresiasibeliaulebih beliaulebihkritis lebihkritisofensif malamdebatpilpreske debatpilpresketampil pilpresketampilpak ketampilpakpatut tampilpakpatutapresiasi pakpatutapresiasibeliau patutapresiasibeliaulebih apresiasibeliaulebihkritis beliaulebihkritisofensif malamdebatpilpresketampil debatpilpresketampilpak pilpresketampilpakpatut ketampilpakpatutapresiasi tampilpakpatutapresiasibeliau pakpatutapresiasibeliaulebih patutapresiasibeliaulebihkritis apresiasibeliaulebihkritisofensif malamdebatpilpresketampilpak debatpilpresketampilpakpatut pilpresketampilpakpatutapresiasi ketampilpakpatutapresiasibeliau tampilpakpatutapresiasibeliaulebih pakpatutapresiasibeliaulebihkritis patutapresiasibeliaulebihkritisofensif</t>
+  </si>
+  <si>
+    <t>tahan indonesia sangat lemah jauh yang harap kita punya uang prabowobentengnkri tahanindonesia indonesiasangat sangatlemah lemahjauh jauhyang yangharap harapkita kitapunya punyauang uangprabowobentengnkri tahanindonesiasangat indonesiasangatlemah sangatlemahjauh lemahjauhyang jauhyangharap yangharapkita harapkitapunya kitapunyauang punyauangprabowobentengnkri tahanindonesiasangatlemah indonesiasangatlemahjauh sangatlemahjauhyang lemahjauhyangharap jauhyangharapkita yangharapkitapunya harapkitapunyauang kitapunyauangprabowobentengnkri tahanindonesiasangatlemahjauh indonesiasangatlemahjauhyang sangatlemahjauhyangharap lemahjauhyangharapkita jauhyangharapkitapunya yangharapkitapunyauang harapkitapunyauangprabowobentengnkri tahanindonesiasangatlemahjauhyang indonesiasangatlemahjauhyangharap sangatlemahjauhyangharapkita lemahjauhyangharapkitapunya jauhyangharapkitapunyauang yangharapkitapunyauangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>selesai selamat pak cinta rindu cinta rindu cinta rindu selesaiselamat selamatpak pakcinta cintarindu rinducinta cintarindu rinducinta cintarindu selesaiselamatpak selamatpakcinta pakcintarindu cintarinducinta rinducintarindu cintarinducinta rinducintarindu selesaiselamatpakcinta selamatpakcintarindu pakcintarinducinta cintarinducintarindu rinducintarinducinta cintarinducintarindu selesaiselamatpakcintarindu selamatpakcintarinducinta pakcintarinducintarindu cintarinducintarinducinta rinducintarinducintarindu selesaiselamatpakcintarinducinta selamatpakcintarinducintarindu pakcintarinducintarinducinta cintarinducintarinducintarindu</t>
+  </si>
+  <si>
+    <t>jawab skak mat mas hadap kartu nya si jokowi apa punya banyak kartu kalau kaya keluar negeri jawabskak skakmat matmas mashadap hadapkartu kartunya nyasi sijokowi jokowiapa apapunya punyabanyak banyakkartu kartukalau kalaukaya kayakeluar keluarnegeri jawabskakmat skakmatmas matmashadap mashadapkartu hadapkartunya kartunyasi nyasijokowi sijokowiapa jokowiapapunya apapunyabanyak punyabanyakkartu banyakkartukalau kartukalaukaya kalaukayakeluar kayakeluarnegeri jawabskakmatmas skakmatmashadap matmashadapkartu mashadapkartunya hadapkartunyasi kartunyasijokowi nyasijokowiapa sijokowiapapunya jokowiapapunyabanyak apapunyabanyakkartu punyabanyakkartukalau banyakkartukalaukaya kartukalaukayakeluar kalaukayakeluarnegeri jawabskakmatmashadap skakmatmashadapkartu matmashadapkartunya mashadapkartunyasi hadapkartunyasijokowi kartunyasijokowiapa nyasijokowiapapunya sijokowiapapunyabanyak jokowiapapunyabanyakkartu apapunyabanyakkartukalau punyabanyakkartukalaukaya banyakkartukalaukayakeluar kartukalaukayakeluarnegeri jawabskakmatmashadapkartu skakmatmashadapkartunya matmashadapkartunyasi mashadapkartunyasijokowi hadapkartunyasijokowiapa kartunyasijokowiapapunya nyasijokowiapapunyabanyak sijokowiapapunyabanyakkartu jokowiapapunyabanyakkartukalau apapunyabanyakkartukalaukaya punyabanyakkartukalaukayakeluar banyakkartukalaukayakeluarnegeri</t>
+  </si>
+  <si>
+    <t>menang telak sih gilee bantai cara telak debat gilak brutal malam menangtelak telaksih sihgilee gileebantai bantaicara caratelak telakdebat debatgilak gilakbrutal brutalmalam menangtelaksih telaksihgilee sihgileebantai gileebantaicara bantaicaratelak caratelakdebat telakdebatgilak debatgilakbrutal gilakbrutalmalam menangtelaksihgilee telaksihgileebantai sihgileebantaicara gileebantaicaratelak bantaicaratelakdebat caratelakdebatgilak telakdebatgilakbrutal debatgilakbrutalmalam menangtelaksihgileebantai telaksihgileebantaicara sihgileebantaicaratelak gileebantaicaratelakdebat bantaicaratelakdebatgilak caratelakdebatgilakbrutal telakdebatgilakbrutalmalam menangtelaksihgileebantaicara telaksihgileebantaicaratelak sihgileebantaicaratelakdebat gileebantaicaratelakdebatgilak bantaicaratelakdebatgilakbrutal caratelakdebatgilakbrutalmalam</t>
+  </si>
+  <si>
+    <t>duh pak baik banget kalau bicara bahasa inggris arti tahu kalau pak bisa bahasa inggris duhpak pakbaik baikbanget bangetkalau kalaubicara bicarabahasa bahasainggris inggrisarti artitahu tahukalau kalaupak pakbisa bisabahasa bahasainggris duhpakbaik pakbaikbanget baikbangetkalau bangetkalaubicara kalaubicarabahasa bicarabahasainggris bahasainggrisarti inggrisartitahu artitahukalau tahukalaupak kalaupakbisa pakbisabahasa bisabahasainggris duhpakbaikbanget pakbaikbangetkalau baikbangetkalaubicara bangetkalaubicarabahasa kalaubicarabahasainggris bicarabahasainggrisarti bahasainggrisartitahu inggrisartitahukalau artitahukalaupak tahukalaupakbisa kalaupakbisabahasa pakbisabahasainggris duhpakbaikbangetkalau pakbaikbangetkalaubicara baikbangetkalaubicarabahasa bangetkalaubicarabahasainggris kalaubicarabahasainggrisarti bicarabahasainggrisartitahu bahasainggrisartitahukalau inggrisartitahukalaupak artitahukalaupakbisa tahukalaupakbisabahasa kalaupakbisabahasainggris duhpakbaikbangetkalaubicara pakbaikbangetkalaubicarabahasa baikbangetkalaubicarabahasainggris bangetkalaubicarabahasainggrisarti kalaubicarabahasainggrisartitahu bicarabahasainggrisartitahukalau bahasainggrisartitahukalaupak inggrisartitahukalaupakbisa artitahukalaupakbisabahasa tahukalaupakbisabahasainggris</t>
+  </si>
+  <si>
+    <t>percaya tni sedang sipil aku sangat percaya tni pemerintahandilan percayatni tnisedang sedangsipil sipilaku akusangat sangatpercaya percayatni tnipemerintahandilan percayatnisedang tnisedangsipil sedangsipilaku sipilakusangat akusangatpercaya sangatpercayatni percayatnipemerintahandilan percayatnisedangsipil tnisedangsipilaku sedangsipilakusangat sipilakusangatpercaya akusangatpercayatni sangatpercayatnipemerintahandilan percayatnisedangsipilaku tnisedangsipilakusangat sedangsipilakusangatpercaya sipilakusangatpercayatni akusangatpercayatnipemerintahandilan percayatnisedangsipilakusangat tnisedangsipilakusangatpercaya sedangsipilakusangatpercayatni sipilakusangatpercayatnipemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak kalau diplomasi jadi nice guy pak faham betul diplomasi batas ramah tamah pakkalau kalaudiplomasi diplomasijadi jadinice niceguy guypak pakfaham fahambetul betuldiplomasi diplomasibatas batasramah ramahtamah pakkalaudiplomasi kalaudiplomasijadi diplomasijadinice jadiniceguy niceguypak guypakfaham pakfahambetul fahambetuldiplomasi betuldiplomasibatas diplomasibatasramah batasramahtamah pakkalaudiplomasijadi kalaudiplomasijadinice diplomasijadiniceguy jadiniceguypak niceguypakfaham guypakfahambetul pakfahambetuldiplomasi fahambetuldiplomasibatas betuldiplomasibatasramah diplomasibatasramahtamah pakkalaudiplomasijadinice kalaudiplomasijadiniceguy diplomasijadiniceguypak jadiniceguypakfaham niceguypakfahambetul guypakfahambetuldiplomasi pakfahambetuldiplomasibatas fahambetuldiplomasibatasramah betuldiplomasibatasramahtamah pakkalaudiplomasijadiniceguy kalaudiplomasijadiniceguypak diplomasijadiniceguypakfaham jadiniceguypakfahambetul niceguypakfahambetuldiplomasi guypakfahambetuldiplomasibatas pakfahambetuldiplomasibatasramah fahambetuldiplomasibatasramahtamah</t>
+  </si>
+  <si>
+    <t>wongsai kok ngajak perang lama selalu ajak maju indonesia si mental ciken selalu lihat keburu wongsaikok kokngajak ngajakperang peranglama lamaselalu selaluajak ajakmaju majuindonesia indonesiasi simental mentalciken cikenselalu selalulihat lihatkeburu wongsaikokngajak kokngajakperang ngajakperanglama peranglamaselalu lamaselaluajak selaluajakmaju ajakmajuindonesia majuindonesiasi indonesiasimental simentalciken mentalcikenselalu cikenselalulihat selalulihatkeburu wongsaikokngajakperang kokngajakperanglama ngajakperanglamaselalu peranglamaselaluajak lamaselaluajakmaju selaluajakmajuindonesia ajakmajuindonesiasi majuindonesiasimental indonesiasimentalciken simentalcikenselalu mentalcikenselalulihat cikenselalulihatkeburu wongsaikokngajakperanglama kokngajakperanglamaselalu ngajakperanglamaselaluajak peranglamaselaluajakmaju lamaselaluajakmajuindonesia selaluajakmajuindonesiasi ajakmajuindonesiasimental majuindonesiasimentalciken indonesiasimentalcikenselalu simentalcikenselalulihat mentalcikenselalulihatkeburu wongsaikokngajakperanglamaselalu kokngajakperanglamaselaluajak ngajakperanglamaselaluajakmaju peranglamaselaluajakmajuindonesia lamaselaluajakmajuindonesiasi selaluajakmajuindonesiasimental ajakmajuindonesiasimentalciken majuindonesiasimentalcikenselalu indonesiasimentalcikenselalulihat simentalcikenselalulihatkeburu</t>
+  </si>
+  <si>
+    <t>bagai minoritas yakin pak bang dapat mandat rakyat kuat rasa satu bagaiminoritas minoritasyakin yakinpak pakbang bangdapat dapatmandat mandatrakyat rakyatkuat kuatrasa rasasatu bagaiminoritasyakin minoritasyakinpak yakinpakbang pakbangdapat bangdapatmandat dapatmandatrakyat mandatrakyatkuat rakyatkuatrasa kuatrasasatu bagaiminoritasyakinpak minoritasyakinpakbang yakinpakbangdapat pakbangdapatmandat bangdapatmandatrakyat dapatmandatrakyatkuat mandatrakyatkuatrasa rakyatkuatrasasatu bagaiminoritasyakinpakbang minoritasyakinpakbangdapat yakinpakbangdapatmandat pakbangdapatmandatrakyat bangdapatmandatrakyatkuat dapatmandatrakyatkuatrasa mandatrakyatkuatrasasatu bagaiminoritasyakinpakbangdapat minoritasyakinpakbangdapatmandat yakinpakbangdapatmandatrakyat pakbangdapatmandatrakyatkuat bangdapatmandatrakyatkuatrasa dapatmandatrakyatkuatrasasatu</t>
+  </si>
+  <si>
+    <t>salam presiden insyallah debat malam bapak pukau salam sayang rakyat pak bagus salampresiden presideninsyallah insyallahdebat debatmalam malambapak bapakpukau pukausalam salamsayang sayangrakyat rakyatpak pakbagus salampresideninsyallah presideninsyallahdebat insyallahdebatmalam debatmalambapak malambapakpukau bapakpukausalam pukausalamsayang salamsayangrakyat sayangrakyatpak rakyatpakbagus salampresideninsyallahdebat presideninsyallahdebatmalam insyallahdebatmalambapak debatmalambapakpukau malambapakpukausalam bapakpukausalamsayang pukausalamsayangrakyat salamsayangrakyatpak sayangrakyatpakbagus salampresideninsyallahdebatmalam presideninsyallahdebatmalambapak insyallahdebatmalambapakpukau debatmalambapakpukausalam malambapakpukausalamsayang bapakpukausalamsayangrakyat pukausalamsayangrakyatpak salamsayangrakyatpakbagus salampresideninsyallahdebatmalambapak presideninsyallahdebatmalambapakpukau insyallahdebatmalambapakpukausalam debatmalambapakpukausalamsayang malambapakpukausalamsayangrakyat bapakpukausalamsayangrakyatpak pukausalamsayangrakyatpakbagus</t>
+  </si>
+  <si>
+    <t>siapa calon presiden tampil lebih baik debatpilpres 2019 malam pemilunesia debatpilpres 2019 siapacalon calonpresiden presidentampil tampillebih lebihbaik baikdebatpilpres debatpilpres2019 2019malam malampemilunesia pemilunesiadebatpilpres debatpilpres2019 siapacalonpresiden calonpresidentampil presidentampillebih tampillebihbaik lebihbaikdebatpilpres baikdebatpilpres2019 debatpilpres2019malam 2019malampemilunesia malampemilunesiadebatpilpres pemilunesiadebatpilpres2019 siapacalonpresidentampil calonpresidentampillebih presidentampillebihbaik tampillebihbaikdebatpilpres lebihbaikdebatpilpres2019 baikdebatpilpres2019malam debatpilpres2019malampemilunesia 2019malampemilunesiadebatpilpres malampemilunesiadebatpilpres2019 siapacalonpresidentampillebih calonpresidentampillebihbaik presidentampillebihbaikdebatpilpres tampillebihbaikdebatpilpres2019 lebihbaikdebatpilpres2019malam baikdebatpilpres2019malampemilunesia debatpilpres2019malampemilunesiadebatpilpres 2019malampemilunesiadebatpilpres2019 siapacalonpresidentampillebihbaik calonpresidentampillebihbaikdebatpilpres presidentampillebihbaikdebatpilpres2019 tampillebihbaikdebatpilpres2019malam lebihbaikdebatpilpres2019malampemilunesia baikdebatpilpres2019malampemilunesiadebatpilpres debatpilpres2019malampemilunesiadebatpilpres2019</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam beliau bangun hai universitas islam international indonesia lihatkalian kalianfitnah fitnahanti antiislam islambeliau beliaubangun bangunhai haiuniversitas universitasislam islaminternational internationalindonesia lihatkalianfitnah kalianfitnahanti fitnahantiislam antiislambeliau islambeliaubangun beliaubangunhai bangunhaiuniversitas haiuniversitasislam universitasislaminternational islaminternationalindonesia lihatkalianfitnahanti kalianfitnahantiislam fitnahantiislambeliau antiislambeliaubangun islambeliaubangunhai beliaubangunhaiuniversitas bangunhaiuniversitasislam haiuniversitasislaminternational universitasislaminternationalindonesia lihatkalianfitnahantiislam kalianfitnahantiislambeliau fitnahantiislambeliaubangun antiislambeliaubangunhai islambeliaubangunhaiuniversitas beliaubangunhaiuniversitasislam bangunhaiuniversitasislaminternational haiuniversitasislaminternationalindonesia lihatkalianfitnahantiislambeliau kalianfitnahantiislambeliaubangun fitnahantiislambeliaubangunhai antiislambeliaubangunhaiuniversitas islambeliaubangunhaiuniversitasislam beliaubangunhaiuniversitasislaminternational bangunhaiuniversitasislaminternationalindonesia</t>
+  </si>
+  <si>
+    <t>malam tamat sepakat retwet 01caprespendustaabadi malamtamat tamatsepakat sepakatretwet retwet01caprespendustaabadi malamtamatsepakat tamatsepakatretwet sepakatretwet01caprespendustaabadi malamtamatsepakatretwet tamatsepakatretwet01caprespendustaabadi malamtamatsepakatretwet01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>pak kalau badan gemuk tinggi bapak baik kalau pake setel jas jangan model double breastest pakkalau kalaubadan badangemuk gemuktinggi tinggibapak bapakbaik baikkalau kalaupake pakesetel seteljas jasjangan janganmodel modeldouble doublebreastest pakkalaubadan kalaubadangemuk badangemuktinggi gemuktinggibapak tinggibapakbaik bapakbaikkalau baikkalaupake kalaupakesetel pakeseteljas seteljasjangan jasjanganmodel janganmodeldouble modeldoublebreastest pakkalaubadangemuk kalaubadangemuktinggi badangemuktinggibapak gemuktinggibapakbaik tinggibapakbaikkalau bapakbaikkalaupake baikkalaupakesetel kalaupakeseteljas pakeseteljasjangan seteljasjanganmodel jasjanganmodeldouble janganmodeldoublebreastest pakkalaubadangemuktinggi kalaubadangemuktinggibapak badangemuktinggibapakbaik gemuktinggibapakbaikkalau tinggibapakbaikkalaupake bapakbaikkalaupakesetel baikkalaupakeseteljas kalaupakeseteljasjangan pakeseteljasjanganmodel seteljasjanganmodeldouble jasjanganmodeldoublebreastest pakkalaubadangemuktinggibapak kalaubadangemuktinggibapakbaik badangemuktinggibapakbaikkalau gemuktinggibapakbaikkalaupake tinggibapakbaikkalaupakesetel bapakbaikkalaupakeseteljas baikkalaupakeseteljasjangan kalaupakeseteljasjanganmodel pakeseteljasjanganmodeldouble seteljasjanganmodeldoublebreastest</t>
+  </si>
+  <si>
+    <t>tegas sekali presiden malam jangan kasih kendor jenderal idola tunjuk dunia prabowobentengnkri tegassekali sekalipresiden presidenmalam malamjangan jangankasih kasihkendor kendorjenderal jenderalidola idolatunjuk tunjukdunia duniaprabowobentengnkri tegassekalipresiden sekalipresidenmalam presidenmalamjangan malamjangankasih jangankasihkendor kasihkendorjenderal kendorjenderalidola jenderalidolatunjuk idolatunjukdunia tunjukduniaprabowobentengnkri tegassekalipresidenmalam sekalipresidenmalamjangan presidenmalamjangankasih malamjangankasihkendor jangankasihkendorjenderal kasihkendorjenderalidola kendorjenderalidolatunjuk jenderalidolatunjukdunia idolatunjukduniaprabowobentengnkri tegassekalipresidenmalamjangan sekalipresidenmalamjangankasih presidenmalamjangankasihkendor malamjangankasihkendorjenderal jangankasihkendorjenderalidola kasihkendorjenderalidolatunjuk kendorjenderalidolatunjukdunia jenderalidolatunjukduniaprabowobentengnkri tegassekalipresidenmalamjangankasih sekalipresidenmalamjangankasihkendor presidenmalamjangankasihkendorjenderal malamjangankasihkendorjenderalidola jangankasihkendorjenderalidolatunjuk kasihkendorjenderalidolatunjukdunia kendorjenderalidolatunjukduniaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>clossing pak debat kali sangat luarbiasa tuju sama bapak sahabat memang nomer clossingpak pakdebat debatkali kalisangat sangatluarbiasa luarbiasatuju tujusama samabapak bapaksahabat sahabatmemang memangnomer clossingpakdebat pakdebatkali debatkalisangat kalisangatluarbiasa sangatluarbiasatuju luarbiasatujusama tujusamabapak samabapaksahabat bapaksahabatmemang sahabatmemangnomer clossingpakdebatkali pakdebatkalisangat debatkalisangatluarbiasa kalisangatluarbiasatuju sangatluarbiasatujusama luarbiasatujusamabapak tujusamabapaksahabat samabapaksahabatmemang bapaksahabatmemangnomer clossingpakdebatkalisangat pakdebatkalisangatluarbiasa debatkalisangatluarbiasatuju kalisangatluarbiasatujusama sangatluarbiasatujusamabapak luarbiasatujusamabapaksahabat tujusamabapaksahabatmemang samabapaksahabatmemangnomer clossingpakdebatkalisangatluarbiasa pakdebatkalisangatluarbiasatuju debatkalisangatluarbiasatujusama kalisangatluarbiasatujusamabapak sangatluarbiasatujusamabapaksahabat luarbiasatujusamabapaksahabatmemang tujusamabapaksahabatmemangnomer</t>
+  </si>
+  <si>
+    <t>suka banget video pak memang juara terimakasihistriku https t co nm5n7irsie sukabanget bangetvideo videopak pakmemang memangjuara juaraterimakasihistriku terimakasihistrikuhttps httpst tco conm5n7irsie sukabangetvideo bangetvideopak videopakmemang pakmemangjuara memangjuaraterimakasihistriku juaraterimakasihistrikuhttps terimakasihistrikuhttpst httpstco tconm5n7irsie sukabangetvideopak bangetvideopakmemang videopakmemangjuara pakmemangjuaraterimakasihistriku memangjuaraterimakasihistrikuhttps juaraterimakasihistrikuhttpst terimakasihistrikuhttpstco httpstconm5n7irsie sukabangetvideopakmemang bangetvideopakmemangjuara videopakmemangjuaraterimakasihistriku pakmemangjuaraterimakasihistrikuhttps memangjuaraterimakasihistrikuhttpst juaraterimakasihistrikuhttpstco terimakasihistrikuhttpstconm5n7irsie sukabangetvideopakmemangjuara bangetvideopakmemangjuaraterimakasihistriku videopakmemangjuaraterimakasihistrikuhttps pakmemangjuaraterimakasihistrikuhttpst memangjuaraterimakasihistrikuhttpstco juaraterimakasihistrikuhttpstconm5n7irsie</t>
+  </si>
+  <si>
+    <t>bukti indonesia lebih maju bawah pimpin presiden menangjokowilagi buktiindonesia indonesialebih lebihmaju majubawah bawahpimpin pimpinpresiden presidenmenangjokowilagi buktiindonesialebih indonesialebihmaju lebihmajubawah majubawahpimpin bawahpimpinpresiden pimpinpresidenmenangjokowilagi buktiindonesialebihmaju indonesialebihmajubawah lebihmajubawahpimpin majubawahpimpinpresiden bawahpimpinpresidenmenangjokowilagi buktiindonesialebihmajubawah indonesialebihmajubawahpimpin lebihmajubawahpimpinpresiden majubawahpimpinpresidenmenangjokowilagi buktiindonesialebihmajubawahpimpin indonesialebihmajubawahpimpinpresiden lebihmajubawahpimpinpresidenmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>butuh pimpin optimis pak bukan orang pesimis marah butuhpimpin pimpinoptimis optimispak pakbukan bukanorang orangpesimis pesimismarah butuhpimpinoptimis pimpinoptimispak optimispakbukan pakbukanorang bukanorangpesimis orangpesimismarah butuhpimpinoptimispak pimpinoptimispakbukan optimispakbukanorang pakbukanorangpesimis bukanorangpesimismarah butuhpimpinoptimispakbukan pimpinoptimispakbukanorang optimispakbukanorangpesimis pakbukanorangpesimismarah butuhpimpinoptimispakbukanorang pimpinoptimispakbukanorangpesimis optimispakbukanorangpesimismarah</t>
+  </si>
+  <si>
+    <t>bareng pak jadi indonesia lebih maju selalu optimis kerja bangun bangsa barengpak pakjadi jadiindonesia indonesialebih lebihmaju majuselalu selaluoptimis optimiskerja kerjabangun bangunbangsa barengpakjadi pakjadiindonesia jadiindonesialebih indonesialebihmaju lebihmajuselalu majuselaluoptimis selaluoptimiskerja optimiskerjabangun kerjabangunbangsa barengpakjadiindonesia pakjadiindonesialebih jadiindonesialebihmaju indonesialebihmajuselalu lebihmajuselaluoptimis majuselaluoptimiskerja selaluoptimiskerjabangun optimiskerjabangunbangsa barengpakjadiindonesialebih pakjadiindonesialebihmaju jadiindonesialebihmajuselalu indonesialebihmajuselaluoptimis lebihmajuselaluoptimiskerja majuselaluoptimiskerjabangun selaluoptimiskerjabangunbangsa barengpakjadiindonesialebihmaju pakjadiindonesialebihmajuselalu jadiindonesialebihmajuselaluoptimis indonesialebihmajuselaluoptimiskerja lebihmajuselaluoptimiskerjabangun majuselaluoptimiskerjabangunbangsa</t>
+  </si>
+  <si>
+    <t>mewek curhat pak lihat tuh pak lama 4 5 tahu tuduh pki beliau biasa mewekcurhat curhatpak paklihat lihattuh tuhpak paklama lama4 45 5tahu tahutuduh tuduhpki pkibeliau beliaubiasa mewekcurhatpak curhatpaklihat paklihattuh lihattuhpak tuhpaklama paklama4 lama45 45tahu 5tahutuduh tahutuduhpki tuduhpkibeliau pkibeliaubiasa mewekcurhatpaklihat curhatpaklihattuh paklihattuhpak lihattuhpaklama tuhpaklama4 paklama45 lama45tahu 45tahutuduh 5tahutuduhpki tahutuduhpkibeliau tuduhpkibeliaubiasa mewekcurhatpaklihattuh curhatpaklihattuhpak paklihattuhpaklama lihattuhpaklama4 tuhpaklama45 paklama45tahu lama45tahutuduh 45tahutuduhpki 5tahutuduhpkibeliau tahutuduhpkibeliaubiasa mewekcurhatpaklihattuhpak curhatpaklihattuhpaklama paklihattuhpaklama4 lihattuhpaklama45 tuhpaklama45tahu paklama45tahutuduh lama45tahutuduhpki 45tahutuduhpkibeliau 5tahutuduhpkibeliaubiasa</t>
+  </si>
+  <si>
+    <t>prediksi telah debat empat non-prabowo pak bang popular vote jaga baik tps prediksitelah telahdebat debatempat empatnon-prabowo non-prabowopak pakbang bangpopular popularvote votejaga jagabaik baiktps prediksitelahdebat telahdebatempat debatempatnon-prabowo empatnon-prabowopak non-prabowopakbang pakbangpopular bangpopularvote popularvotejaga votejagabaik jagabaiktps prediksitelahdebatempat telahdebatempatnon-prabowo debatempatnon-prabowopak empatnon-prabowopakbang non-prabowopakbangpopular pakbangpopularvote bangpopularvotejaga popularvotejagabaik votejagabaiktps prediksitelahdebatempatnon-prabowo telahdebatempatnon-prabowopak debatempatnon-prabowopakbang empatnon-prabowopakbangpopular non-prabowopakbangpopularvote pakbangpopularvotejaga bangpopularvotejagabaik popularvotejagabaiktps prediksitelahdebatempatnon-prabowopak telahdebatempatnon-prabowopakbang debatempatnon-prabowopakbangpopular empatnon-prabowopakbangpopularvote non-prabowopakbangpopularvotejaga pakbangpopularvotejagabaik bangpopularvotejagabaiktps</t>
+  </si>
+  <si>
+    <t>masalah kondisi negara sekarang suatu distrust elite perintah masalahkondisi kondisinegara negarasekarang sekarangsuatu suatudistrust distrustelite eliteperintah masalahkondisinegara kondisinegarasekarang negarasekarangsuatu sekarangsuatudistrust suatudistrustelite distrusteliteperintah masalahkondisinegarasekarang kondisinegarasekarangsuatu negarasekarangsuatudistrust sekarangsuatudistrustelite suatudistrusteliteperintah masalahkondisinegarasekarangsuatu kondisinegarasekarangsuatudistrust negarasekarangsuatudistrustelite sekarangsuatudistrusteliteperintah masalahkondisinegarasekarangsuatudistrust kondisinegarasekarangsuatudistrustelite negarasekarangsuatudistrusteliteperintah</t>
+  </si>
+  <si>
+    <t>sial nyata cuma orang boneka prabowobentengnkri sialnyata nyatacuma cumaorang orangboneka bonekaprabowobentengnkri sialnyatacuma nyatacumaorang cumaorangboneka orangbonekaprabowobentengnkri sialnyatacumaorang nyatacumaorangboneka cumaorangbonekaprabowobentengnkri sialnyatacumaorangboneka nyatacumaorangbonekaprabowobentengnkri sialnyatacumaorangbonekaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>orang indonesia miskin ikan beberapa karung beras mereka vote saya orangindonesia indonesiamiskin miskinikan ikanbeberapa beberapakarung karungberas berasmereka merekavote votesaya orangindonesiamiskin indonesiamiskinikan miskinikanbeberapa ikanbeberapakarung beberapakarungberas karungberasmereka berasmerekavote merekavotesaya orangindonesiamiskinikan indonesiamiskinikanbeberapa miskinikanbeberapakarung ikanbeberapakarungberas beberapakarungberasmereka karungberasmerekavote berasmerekavotesaya orangindonesiamiskinikanbeberapa indonesiamiskinikanbeberapakarung miskinikanbeberapakarungberas ikanbeberapakarungberasmereka beberapakarungberasmerekavote karungberasmerekavotesaya orangindonesiamiskinikanbeberapakarung indonesiamiskinikanbeberapakarungberas miskinikanbeberapakarungberasmereka ikanbeberapakarungberasmerekavote beberapakarungberasmerekavotesaya</t>
+  </si>
+  <si>
+    <t>sangat kagum sikap ramah dukung prabowopresidenke 2019 https t co 3fzmdf48el sangatkagum kagumsikap sikapramah ramahdukung dukungprabowopresidenke prabowopresidenke2019 2019https httpst tco co3fzmdf48el sangatkagumsikap kagumsikapramah sikapramahdukung ramahdukungprabowopresidenke dukungprabowopresidenke2019 prabowopresidenke2019https 2019httpst httpstco tco3fzmdf48el sangatkagumsikapramah kagumsikapramahdukung sikapramahdukungprabowopresidenke ramahdukungprabowopresidenke2019 dukungprabowopresidenke2019https prabowopresidenke2019httpst 2019httpstco httpstco3fzmdf48el sangatkagumsikapramahdukung kagumsikapramahdukungprabowopresidenke sikapramahdukungprabowopresidenke2019 ramahdukungprabowopresidenke2019https dukungprabowopresidenke2019httpst prabowopresidenke2019httpstco 2019httpstco3fzmdf48el sangatkagumsikapramahdukungprabowopresidenke kagumsikapramahdukungprabowopresidenke2019 sikapramahdukungprabowopresidenke2019https ramahdukungprabowopresidenke2019httpst dukungprabowopresidenke2019httpstco prabowopresidenke2019httpstco3fzmdf48el</t>
+  </si>
+  <si>
+    <t>debat lebih panjang lagi jadi showcase atas hasil progress perintah debatlebih lebihpanjang panjanglagi lagijadi jadishowcase showcaseatas atashasil hasilprogress progressperintah debatlebihpanjang lebihpanjanglagi panjanglagijadi lagijadishowcase jadishowcaseatas showcaseatashasil atashasilprogress hasilprogressperintah debatlebihpanjanglagi lebihpanjanglagijadi panjanglagijadishowcase lagijadishowcaseatas jadishowcaseatashasil showcaseatashasilprogress atashasilprogressperintah debatlebihpanjanglagijadi lebihpanjanglagijadishowcase panjanglagijadishowcaseatas lagijadishowcaseatashasil jadishowcaseatashasilprogress showcaseatashasilprogressperintah debatlebihpanjanglagijadishowcase lebihpanjanglagijadishowcaseatas panjanglagijadishowcaseatashasil lagijadishowcaseatashasilprogress jadishowcaseatashasilprogressperintah</t>
+  </si>
+  <si>
+    <t>sombong klaim diri lebih tni para tni mana nyata angkuh emosional sombongklaim klaimdiri dirilebih lebihtni tnipara paratni tnimana mananyata nyataangkuh angkuhemosional sombongklaimdiri klaimdirilebih dirilebihtni lebihtnipara tniparatni paratnimana tnimananyata mananyataangkuh nyataangkuhemosional sombongklaimdirilebih klaimdirilebihtni dirilebihtnipara lebihtniparatni tniparatnimana paratnimananyata tnimananyataangkuh mananyataangkuhemosional sombongklaimdirilebihtni klaimdirilebihtnipara dirilebihtniparatni lebihtniparatnimana tniparatnimananyata paratnimananyataangkuh tnimananyataangkuhemosional sombongklaimdirilebihtnipara klaimdirilebihtniparatni dirilebihtniparatnimana lebihtniparatnimananyata tniparatnimananyataangkuh paratnimananyataangkuhemosional</t>
+  </si>
+  <si>
+    <t>jokowi intelijen strategis kata tahun depan akan invasi negara jokowiintelijen intelijenstrategis strategiskata katatahun tahundepan depanakan akaninvasi invasinegara jokowiintelijenstrategis intelijenstrategiskata strategiskatatahun katatahundepan tahundepanakan depanakaninvasi akaninvasinegara jokowiintelijenstrategiskata intelijenstrategiskatatahun strategiskatatahundepan katatahundepanakan tahundepanakaninvasi depanakaninvasinegara jokowiintelijenstrategiskatatahun intelijenstrategiskatatahundepan strategiskatatahundepanakan katatahundepanakaninvasi tahundepanakaninvasinegara jokowiintelijenstrategiskatatahundepan intelijenstrategiskatatahundepanakan strategiskatatahundepanakaninvasi katatahundepanakaninvasinegara</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah bas digital jadi prestasi pak tengak revolusi industri 4 0 pemerintahandilanperintah perintahbas basdigital digitaljadi jadiprestasi prestasipak paktengak tengakrevolusi revolusiindustri industri4 40 pemerintahandilanperintahbas perintahbasdigital basdigitaljadi digitaljadiprestasi jadiprestasipak prestasipaktengak paktengakrevolusi tengakrevolusiindustri revolusiindustri4 industri40 pemerintahandilanperintahbasdigital perintahbasdigitaljadi basdigitaljadiprestasi digitaljadiprestasipak jadiprestasipaktengak prestasipaktengakrevolusi paktengakrevolusiindustri tengakrevolusiindustri4 revolusiindustri40 pemerintahandilanperintahbasdigitaljadi perintahbasdigitaljadiprestasi basdigitaljadiprestasipak digitaljadiprestasipaktengak jadiprestasipaktengakrevolusi prestasipaktengakrevolusiindustri paktengakrevolusiindustri4 tengakrevolusiindustri40 pemerintahandilanperintahbasdigitaljadiprestasi perintahbasdigitaljadiprestasipak basdigitaljadiprestasipaktengak digitaljadiprestasipaktengakrevolusi jadiprestasipaktengakrevolusiindustri prestasipaktengakrevolusiindustri4 paktengakrevolusiindustri40</t>
+  </si>
+  <si>
+    <t>pak tahan indonesia terlalu lemah iya bagaimana pak kalau chat hei sama mantan jangan langsung mikir besok paktahan tahanindonesia indonesiaterlalu terlalulemah lemahiya iyabagaimana bagaimanapak pakkalau kalauchat chathei heisama samamantan mantanjangan janganlangsung langsungmikir mikirbesok paktahanindonesia tahanindonesiaterlalu indonesiaterlalulemah terlalulemahiya lemahiyabagaimana iyabagaimanapak bagaimanapakkalau pakkalauchat kalauchathei chatheisama heisamamantan samamantanjangan mantanjanganlangsung janganlangsungmikir langsungmikirbesok paktahanindonesiaterlalu tahanindonesiaterlalulemah indonesiaterlalulemahiya terlalulemahiyabagaimana lemahiyabagaimanapak iyabagaimanapakkalau bagaimanapakkalauchat pakkalauchathei kalauchatheisama chatheisamamantan heisamamantanjangan samamantanjanganlangsung mantanjanganlangsungmikir janganlangsungmikirbesok paktahanindonesiaterlalulemah tahanindonesiaterlalulemahiya indonesiaterlalulemahiyabagaimana terlalulemahiyabagaimanapak lemahiyabagaimanapakkalau iyabagaimanapakkalauchat bagaimanapakkalauchathei pakkalauchatheisama kalauchatheisamamantan chatheisamamantanjangan heisamamantanjanganlangsung samamantanjanganlangsungmikir mantanjanganlangsungmikirbesok paktahanindonesiaterlalulemahiya tahanindonesiaterlalulemahiyabagaimana indonesiaterlalulemahiyabagaimanapak terlalulemahiyabagaimanapakkalau lemahiyabagaimanapakkalauchat iyabagaimanapakkalauchathei bagaimanapakkalauchatheisama pakkalauchatheisamamantan kalauchatheisamamantanjangan chatheisamamantanjanganlangsung heisamamantanjanganlangsungmikir samamantanjanganlangsungmikirbesok</t>
+  </si>
+  <si>
+    <t>kini tegas tentang diri khalifah sama itu kabar buruk hti dukung kinitegas tegastentang tentangdiri dirikhalifah khalifahsama samaitu itukabar kabarburuk burukhti htidukung kinitegastentang tegastentangdiri tentangdirikhalifah dirikhalifahsama khalifahsamaitu samaitukabar itukabarburuk kabarburukhti burukhtidukung kinitegastentangdiri tegastentangdirikhalifah tentangdirikhalifahsama dirikhalifahsamaitu khalifahsamaitukabar samaitukabarburuk itukabarburukhti kabarburukhtidukung kinitegastentangdirikhalifah tegastentangdirikhalifahsama tentangdirikhalifahsamaitu dirikhalifahsamaitukabar khalifahsamaitukabarburuk samaitukabarburukhti itukabarburukhtidukung kinitegastentangdirikhalifahsama tegastentangdirikhalifahsamaitu tentangdirikhalifahsamaitukabar dirikhalifahsamaitukabarburuk khalifahsamaitukabarburukhti samaitukabarburukhtidukung</t>
+  </si>
+  <si>
+    <t>pak langsung ban klarifikasi tuduh kubu tahana tuduh khilafah paklangsung langsungban banklarifikasi klarifikasituduh tuduhkubu kubutahana tahanatuduh tuduhkhilafah paklangsungban langsungbanklarifikasi banklarifikasituduh klarifikasituduhkubu tuduhkubutahana kubutahanatuduh tahanatuduhkhilafah paklangsungbanklarifikasi langsungbanklarifikasituduh banklarifikasituduhkubu klarifikasituduhkubutahana tuduhkubutahanatuduh kubutahanatuduhkhilafah paklangsungbanklarifikasituduh langsungbanklarifikasituduhkubu banklarifikasituduhkubutahana klarifikasituduhkubutahanatuduh tuduhkubutahanatuduhkhilafah paklangsungbanklarifikasituduhkubu langsungbanklarifikasituduhkubutahana banklarifikasituduhkubutahanatuduh klarifikasituduhkubutahanatuduhkhilafah</t>
+  </si>
+  <si>
+    <t>bismillah pak sukses debat mohon maaf tidak tani saya janji anak muda bismillahpak paksukses suksesdebat debatmohon mohonmaaf maaftidak tidaktani tanisaya sayajanji janjianak anakmuda bismillahpaksukses paksuksesdebat suksesdebatmohon debatmohonmaaf mohonmaaftidak maaftidaktani tidaktanisaya tanisayajanji sayajanjianak janjianakmuda bismillahpaksuksesdebat paksuksesdebatmohon suksesdebatmohonmaaf debatmohonmaaftidak mohonmaaftidaktani maaftidaktanisaya tidaktanisayajanji tanisayajanjianak sayajanjianakmuda bismillahpaksuksesdebatmohon paksuksesdebatmohonmaaf suksesdebatmohonmaaftidak debatmohonmaaftidaktani mohonmaaftidaktanisaya maaftidaktanisayajanji tidaktanisayajanjianak tanisayajanjianakmuda bismillahpaksuksesdebatmohonmaaf paksuksesdebatmohonmaaftidak suksesdebatmohonmaaftidaktani debatmohonmaaftidaktanisaya mohonmaaftidaktanisayajanji maaftidaktanisayajanjianak tidaktanisayajanjianakmuda</t>
+  </si>
+  <si>
+    <t>sorot debatpilpres 2019 kali presiden sangat jelas masa kini masa depan realita solusi masalah sorotdebatpilpres debatpilpres2019 2019kali kalipresiden presidensangat sangatjelas jelasmasa masakini kinimasa masadepan depanrealita realitasolusi solusimasalah sorotdebatpilpres2019 debatpilpres2019kali 2019kalipresiden kalipresidensangat presidensangatjelas sangatjelasmasa jelasmasakini masakinimasa kinimasadepan masadepanrealita depanrealitasolusi realitasolusimasalah sorotdebatpilpres2019kali debatpilpres2019kalipresiden 2019kalipresidensangat kalipresidensangatjelas presidensangatjelasmasa sangatjelasmasakini jelasmasakinimasa masakinimasadepan kinimasadepanrealita masadepanrealitasolusi depanrealitasolusimasalah sorotdebatpilpres2019kalipresiden debatpilpres2019kalipresidensangat 2019kalipresidensangatjelas kalipresidensangatjelasmasa presidensangatjelasmasakini sangatjelasmasakinimasa jelasmasakinimasadepan masakinimasadepanrealita kinimasadepanrealitasolusi masadepanrealitasolusimasalah sorotdebatpilpres2019kalipresidensangat debatpilpres2019kalipresidensangatjelas 2019kalipresidensangatjelasmasa kalipresidensangatjelasmasakini presidensangatjelasmasakinimasa sangatjelasmasakinimasadepan jelasmasakinimasadepanrealita masakinimasadepanrealitasolusi kinimasadepanrealitasolusimasalah</t>
+  </si>
+  <si>
+    <t>pak pidato bicara bahasa inggris baik benar teks forum internasional pakpidato pidatobicara bicarabahasa bahasainggris inggrisbaik baikbenar benarteks teksforum foruminternasional pakpidatobicara pidatobicarabahasa bicarabahasainggris bahasainggrisbaik inggrisbaikbenar baikbenarteks benarteksforum teksforuminternasional pakpidatobicarabahasa pidatobicarabahasainggris bicarabahasainggrisbaik bahasainggrisbaikbenar inggrisbaikbenarteks baikbenarteksforum benarteksforuminternasional pakpidatobicarabahasainggris pidatobicarabahasainggrisbaik bicarabahasainggrisbaikbenar bahasainggrisbaikbenarteks inggrisbaikbenarteksforum baikbenarteksforuminternasional pakpidatobicarabahasainggrisbaik pidatobicarabahasainggrisbaikbenar bicarabahasainggrisbaikbenarteks bahasainggrisbaikbenarteksforum inggrisbaikbenarteksforuminternasional</t>
+  </si>
+  <si>
+    <t>indonesia syukur hasil survei lembaga independen indikasi menang telak menangjokowilagi indonesiasyukur syukurhasil hasilsurvei surveilembaga lembagaindependen independenindikasi indikasimenang menangtelak telakmenangjokowilagi indonesiasyukurhasil syukurhasilsurvei hasilsurveilembaga surveilembagaindependen lembagaindependenindikasi independenindikasimenang indikasimenangtelak menangtelakmenangjokowilagi indonesiasyukurhasilsurvei syukurhasilsurveilembaga hasilsurveilembagaindependen surveilembagaindependenindikasi lembagaindependenindikasimenang independenindikasimenangtelak indikasimenangtelakmenangjokowilagi indonesiasyukurhasilsurveilembaga syukurhasilsurveilembagaindependen hasilsurveilembagaindependenindikasi surveilembagaindependenindikasimenang lembagaindependenindikasimenangtelak independenindikasimenangtelakmenangjokowilagi indonesiasyukurhasilsurveilembagaindependen syukurhasilsurveilembagaindependenindikasi hasilsurveilembagaindependenindikasimenang surveilembagaindependenindikasimenangtelak lembagaindependenindikasimenangtelakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>yang golput besok kalau udah kelar pilpres terus udah jalan perintah ada salah jangan nyalahin perintah yanggolput golputbesok besokkalau kalauudah udahkelar kelarpilpres pilpresterus terusudah udahjalan jalanperintah perintahada adasalah salahjangan jangannyalahin nyalahinperintah yanggolputbesok golputbesokkalau besokkalauudah kalauudahkelar udahkelarpilpres kelarpilpresterus pilpresterusudah terusudahjalan udahjalanperintah jalanperintahada perintahadasalah adasalahjangan salahjangannyalahin jangannyalahinperintah yanggolputbesokkalau golputbesokkalauudah besokkalauudahkelar kalauudahkelarpilpres udahkelarpilpresterus kelarpilpresterusudah pilpresterusudahjalan terusudahjalanperintah udahjalanperintahada jalanperintahadasalah perintahadasalahjangan adasalahjangannyalahin salahjangannyalahinperintah yanggolputbesokkalauudah golputbesokkalauudahkelar besokkalauudahkelarpilpres kalauudahkelarpilpresterus udahkelarpilpresterusudah kelarpilpresterusudahjalan pilpresterusudahjalanperintah terusudahjalanperintahada udahjalanperintahadasalah jalanperintahadasalahjangan perintahadasalahjangannyalahin adasalahjangannyalahinperintah yanggolputbesokkalauudahkelar golputbesokkalauudahkelarpilpres besokkalauudahkelarpilpresterus kalauudahkelarpilpresterusudah udahkelarpilpresterusudahjalan kelarpilpresterusudahjalanperintah pilpresterusudahjalanperintahada terusudahjalanperintahadasalah udahjalanperintahadasalahjangan jalanperintahadasalahjangannyalahin perintahadasalahjangannyalahinperintah</t>
+  </si>
+  <si>
+    <t>kecewa larang perintah kampanye akbar dalam stadion pakansari bangun rakyat ujar kecewalarang larangperintah perintahkampanye kampanyeakbar akbardalam dalamstadion stadionpakansari pakansaribangun bangunrakyat rakyatujar kecewalarangperintah larangperintahkampanye perintahkampanyeakbar kampanyeakbardalam akbardalamstadion dalamstadionpakansari stadionpakansaribangun pakansaribangunrakyat bangunrakyatujar kecewalarangperintahkampanye larangperintahkampanyeakbar perintahkampanyeakbardalam kampanyeakbardalamstadion akbardalamstadionpakansari dalamstadionpakansaribangun stadionpakansaribangunrakyat pakansaribangunrakyatujar kecewalarangperintahkampanyeakbar larangperintahkampanyeakbardalam perintahkampanyeakbardalamstadion kampanyeakbardalamstadionpakansari akbardalamstadionpakansaribangun dalamstadionpakansaribangunrakyat stadionpakansaribangunrakyatujar kecewalarangperintahkampanyeakbardalam larangperintahkampanyeakbardalamstadion perintahkampanyeakbardalamstadionpakansari kampanyeakbardalamstadionpakansaribangun akbardalamstadionpakansaribangunrakyat dalamstadionpakansaribangunrakyatujar</t>
+  </si>
+  <si>
+    <t>debat sikap kok sama persis sikap dukung khilafah selalu sebar takut debatsikap sikapkok koksama samapersis persissikap sikapdukung dukungkhilafah khilafahselalu selalusebar sebartakut debatsikapkok sikapkoksama koksamapersis samapersissikap persissikapdukung sikapdukungkhilafah dukungkhilafahselalu khilafahselalusebar selalusebartakut debatsikapkoksama sikapkoksamapersis koksamapersissikap samapersissikapdukung persissikapdukungkhilafah sikapdukungkhilafahselalu dukungkhilafahselalusebar khilafahselalusebartakut debatsikapkoksamapersis sikapkoksamapersissikap koksamapersissikapdukung samapersissikapdukungkhilafah persissikapdukungkhilafahselalu sikapdukungkhilafahselalusebar dukungkhilafahselalusebartakut debatsikapkoksamapersissikap sikapkoksamapersissikapdukung koksamapersissikapdukungkhilafah samapersissikapdukungkhilafahselalu persissikapdukungkhilafahselalusebar sikapdukungkhilafahselalusebartakut</t>
+  </si>
+  <si>
+    <t>jawab telak pak hadap kartu penting apa punya banyak kartu jawabtelak telakpak pakhadap hadapkartu kartupenting pentingapa apapunya punyabanyak banyakkartu jawabtelakpak telakpakhadap pakhadapkartu hadapkartupenting kartupentingapa pentingapapunya apapunyabanyak punyabanyakkartu jawabtelakpakhadap telakpakhadapkartu pakhadapkartupenting hadapkartupentingapa kartupentingapapunya pentingapapunyabanyak apapunyabanyakkartu jawabtelakpakhadapkartu telakpakhadapkartupenting pakhadapkartupentingapa hadapkartupentingapapunya kartupentingapapunyabanyak pentingapapunyabanyakkartu jawabtelakpakhadapkartupenting telakpakhadapkartupentingapa pakhadapkartupentingapapunya hadapkartupentingapapunyabanyak kartupentingapapunyabanyakkartu</t>
+  </si>
+  <si>
+    <t>benteng nkri negara belanda simpan dokumentasi selamat sandra papua prabowobentengnkri bentengnkri nkrinegara negarabelanda belandasimpan simpandokumentasi dokumentasiselamat selamatsandra sandrapapua papuaprabowobentengnkri bentengnkrinegara nkrinegarabelanda negarabelandasimpan belandasimpandokumentasi simpandokumentasiselamat dokumentasiselamatsandra selamatsandrapapua sandrapapuaprabowobentengnkri bentengnkrinegarabelanda nkrinegarabelandasimpan negarabelandasimpandokumentasi belandasimpandokumentasiselamat simpandokumentasiselamatsandra dokumentasiselamatsandrapapua selamatsandrapapuaprabowobentengnkri bentengnkrinegarabelandasimpan nkrinegarabelandasimpandokumentasi negarabelandasimpandokumentasiselamat belandasimpandokumentasiselamatsandra simpandokumentasiselamatsandrapapua dokumentasiselamatsandrapapuaprabowobentengnkri bentengnkrinegarabelandasimpandokumentasi nkrinegarabelandasimpandokumentasiselamat negarabelandasimpandokumentasiselamatsandra belandasimpandokumentasiselamatsandrapapua simpandokumentasiselamatsandrapapuaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>bukti bangun indonesia maju adab lebih baik menangjokowilagi buktibangun bangunindonesia indonesiamaju majuadab adablebih lebihbaik baikmenangjokowilagi buktibangunindonesia bangunindonesiamaju indonesiamajuadab majuadablebih adablebihbaik lebihbaikmenangjokowilagi buktibangunindonesiamaju bangunindonesiamajuadab indonesiamajuadablebih majuadablebihbaik adablebihbaikmenangjokowilagi buktibangunindonesiamajuadab bangunindonesiamajuadablebih indonesiamajuadablebihbaik majuadablebihbaikmenangjokowilagi buktibangunindonesiamajuadablebih bangunindonesiamajuadablebihbaik indonesiamajuadablebihbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>simak sebar doauntukprabowosandi menang pilpres hampir pasti laju simaksebar sebardoauntukprabowosandi doauntukprabowosandimenang menangpilpres pilpreshampir hampirpasti pastilaju simaksebardoauntukprabowosandi sebardoauntukprabowosandimenang doauntukprabowosandimenangpilpres menangpilpreshampir pilpreshampirpasti hampirpastilaju simaksebardoauntukprabowosandimenang sebardoauntukprabowosandimenangpilpres doauntukprabowosandimenangpilpreshampir menangpilpreshampirpasti pilpreshampirpastilaju simaksebardoauntukprabowosandimenangpilpres sebardoauntukprabowosandimenangpilpreshampir doauntukprabowosandimenangpilpreshampirpasti menangpilpreshampirpastilaju simaksebardoauntukprabowosandimenangpilpreshampir sebardoauntukprabowosandimenangpilpreshampirpasti doauntukprabowosandimenangpilpreshampirpastilaju</t>
+  </si>
+  <si>
+    <t>bagai muslim senang tulis yuk baca guys yang muslim baik dukung bagaimuslim muslimsenang senangtulis tulisyuk yukbaca bacaguys guysyang yangmuslim muslimbaik baikdukung bagaimuslimsenang muslimsenangtulis senangtulisyuk tulisyukbaca yukbacaguys bacaguysyang guysyangmuslim yangmuslimbaik muslimbaikdukung bagaimuslimsenangtulis muslimsenangtulisyuk senangtulisyukbaca tulisyukbacaguys yukbacaguysyang bacaguysyangmuslim guysyangmuslimbaik yangmuslimbaikdukung bagaimuslimsenangtulisyuk muslimsenangtulisyukbaca senangtulisyukbacaguys tulisyukbacaguysyang yukbacaguysyangmuslim bacaguysyangmuslimbaik guysyangmuslimbaikdukung bagaimuslimsenangtulisyukbaca muslimsenangtulisyukbacaguys senangtulisyukbacaguysyang tulisyukbacaguysyangmuslim yukbacaguysyangmuslimbaik bacaguysyangmuslimbaikdukung</t>
+  </si>
+  <si>
+    <t>cakep nih debat pintar ada mal layan publik harap cepat layan bisa beri usaha cakepnih nihdebat debatpintar pintarada adamal mallayan layanpublik publikharap harapcepat cepatlayan layanbisa bisaberi beriusaha cakepnihdebat nihdebatpintar debatpintarada pintaradamal adamallayan mallayanpublik layanpublikharap publikharapcepat harapcepatlayan cepatlayanbisa layanbisaberi bisaberiusaha cakepnihdebatpintar nihdebatpintarada debatpintaradamal pintaradamallayan adamallayanpublik mallayanpublikharap layanpublikharapcepat publikharapcepatlayan harapcepatlayanbisa cepatlayanbisaberi layanbisaberiusaha cakepnihdebatpintarada nihdebatpintaradamal debatpintaradamallayan pintaradamallayanpublik adamallayanpublikharap mallayanpublikharapcepat layanpublikharapcepatlayan publikharapcepatlayanbisa harapcepatlayanbisaberi cepatlayanbisaberiusaha cakepnihdebatpintaradamal nihdebatpintaradamallayan debatpintaradamallayanpublik pintaradamallayanpublikharap adamallayanpublikharapcepat mallayanpublikharapcepatlayan layanpublikharapcepatlayanbisa publikharapcepatlayanbisaberi harapcepatlayanbisaberiusaha</t>
+  </si>
+  <si>
+    <t>aman semua pak kendali pak radar cukup pak budaya indonesia asal bapak senang jadi mohon kaji tahan sangat penting amansemua semuapak pakkendali kendalipak pakradar radarcukup cukuppak pakbudaya budayaindonesia indonesiaasal asalbapak bapaksenang senangjadi jadimohon mohonkaji kajitahan tahansangat sangatpenting amansemuapak semuapakkendali pakkendalipak kendalipakradar pakradarcukup radarcukuppak cukuppakbudaya pakbudayaindonesia budayaindonesiaasal indonesiaasalbapak asalbapaksenang bapaksenangjadi senangjadimohon jadimohonkaji mohonkajitahan kajitahansangat tahansangatpenting amansemuapakkendali semuapakkendalipak pakkendalipakradar kendalipakradarcukup pakradarcukuppak radarcukuppakbudaya cukuppakbudayaindonesia pakbudayaindonesiaasal budayaindonesiaasalbapak indonesiaasalbapaksenang asalbapaksenangjadi bapaksenangjadimohon senangjadimohonkaji jadimohonkajitahan mohonkajitahansangat kajitahansangatpenting amansemuapakkendalipak semuapakkendalipakradar pakkendalipakradarcukup kendalipakradarcukuppak pakradarcukuppakbudaya radarcukuppakbudayaindonesia cukuppakbudayaindonesiaasal pakbudayaindonesiaasalbapak budayaindonesiaasalbapaksenang indonesiaasalbapaksenangjadi asalbapaksenangjadimohon bapaksenangjadimohonkaji senangjadimohonkajitahan jadimohonkajitahansangat mohonkajitahansangatpenting amansemuapakkendalipakradar semuapakkendalipakradarcukup pakkendalipakradarcukuppak kendalipakradarcukuppakbudaya pakradarcukuppakbudayaindonesia radarcukuppakbudayaindonesiaasal cukuppakbudayaindonesiaasalbapak pakbudayaindonesiaasalbapaksenang budayaindonesiaasalbapaksenangjadi indonesiaasalbapaksenangjadimohon asalbapaksenangjadimohonkaji bapaksenangjadimohonkajitahan senangjadimohonkajitahansangat jadimohonkajitahansangatpenting</t>
+  </si>
+  <si>
+    <t>jauh kelas banding jokowi barusan kan gaes presiden 2019-2024 sepakat retwet 19harilagicoblo jauhkelas kelasbanding bandingjokowi jokowibarusan barusankan kangaes gaespresiden presiden2019-2024 2019-2024sepakat sepakatretwet retwet19harilagicoblo jauhkelasbanding kelasbandingjokowi bandingjokowibarusan jokowibarusankan barusankangaes kangaespresiden gaespresiden2019-2024 presiden2019-2024sepakat 2019-2024sepakatretwet sepakatretwet19harilagicoblo jauhkelasbandingjokowi kelasbandingjokowibarusan bandingjokowibarusankan jokowibarusankangaes barusankangaespresiden kangaespresiden2019-2024 gaespresiden2019-2024sepakat presiden2019-2024sepakatretwet 2019-2024sepakatretwet19harilagicoblo jauhkelasbandingjokowibarusan kelasbandingjokowibarusankan bandingjokowibarusankangaes jokowibarusankangaespresiden barusankangaespresiden2019-2024 kangaespresiden2019-2024sepakat gaespresiden2019-2024sepakatretwet presiden2019-2024sepakatretwet19harilagicoblo jauhkelasbandingjokowibarusankan kelasbandingjokowibarusankangaes bandingjokowibarusankangaespresiden jokowibarusankangaespresiden2019-2024 barusankangaespresiden2019-2024sepakat kangaespresiden2019-2024sepakatretwet gaespresiden2019-2024sepakatretwet19harilagicoblo</t>
+  </si>
+  <si>
+    <t>pak jokowi sering tunduk lemas lihat papar jenderal turut tuipers apa pikir jokowi pakjokowi jokowisering seringtunduk tunduklemas lemaslihat lihatpapar paparjenderal jenderalturut turuttuipers tuipersapa apapikir pikirjokowi pakjokowisering jokowiseringtunduk seringtunduklemas tunduklemaslihat lemaslihatpapar lihatpaparjenderal paparjenderalturut jenderalturuttuipers turuttuipersapa tuipersapapikir apapikirjokowi pakjokowiseringtunduk jokowiseringtunduklemas seringtunduklemaslihat tunduklemaslihatpapar lemaslihatpaparjenderal lihatpaparjenderalturut paparjenderalturuttuipers jenderalturuttuipersapa turuttuipersapapikir tuipersapapikirjokowi pakjokowiseringtunduklemas jokowiseringtunduklemaslihat seringtunduklemaslihatpapar tunduklemaslihatpaparjenderal lemaslihatpaparjenderalturut lihatpaparjenderalturuttuipers paparjenderalturuttuipersapa jenderalturuttuipersapapikir turuttuipersapapikirjokowi pakjokowiseringtunduklemaslihat jokowiseringtunduklemaslihatpapar seringtunduklemaslihatpaparjenderal tunduklemaslihatpaparjenderalturut lemaslihatpaparjenderalturuttuipers lihatpaparjenderalturuttuipersapa paparjenderalturuttuipersapapikir jenderalturuttuipersapapikirjokowi</t>
+  </si>
+  <si>
+    <t>masyaallah speechless rp juta sumbang buruh migran tki tkw - sandi cibinong masyaallahspeechless speechlessrp rpjuta jutasumbang sumbangburuh buruhmigran migrantki tkitkw tkw- -sandi sandicibinong masyaallahspeechlessrp speechlessrpjuta rpjutasumbang jutasumbangburuh sumbangburuhmigran buruhmigrantki migrantkitkw tkitkw- tkw-sandi -sandicibinong masyaallahspeechlessrpjuta speechlessrpjutasumbang rpjutasumbangburuh jutasumbangburuhmigran sumbangburuhmigrantki buruhmigrantkitkw migrantkitkw- tkitkw-sandi tkw-sandicibinong masyaallahspeechlessrpjutasumbang speechlessrpjutasumbangburuh rpjutasumbangburuhmigran jutasumbangburuhmigrantki sumbangburuhmigrantkitkw buruhmigrantkitkw- migrantkitkw-sandi tkitkw-sandicibinong masyaallahspeechlessrpjutasumbangburuh speechlessrpjutasumbangburuhmigran rpjutasumbangburuhmigrantki jutasumbangburuhmigrantkitkw sumbangburuhmigrantkitkw- buruhmigrantkitkw-sandi migrantkitkw-sandicibinong</t>
+  </si>
+  <si>
+    <t>sandi juang seluruh rakyat indonesia bentuk perintah bersih tegas sama sandijuang juangseluruh seluruhrakyat rakyatindonesia indonesiabentuk bentukperintah perintahbersih bersihtegas tegassama sandijuangseluruh juangseluruhrakyat seluruhrakyatindonesia rakyatindonesiabentuk indonesiabentukperintah bentukperintahbersih perintahbersihtegas bersihtegassama sandijuangseluruhrakyat juangseluruhrakyatindonesia seluruhrakyatindonesiabentuk rakyatindonesiabentukperintah indonesiabentukperintahbersih bentukperintahbersihtegas perintahbersihtegassama sandijuangseluruhrakyatindonesia juangseluruhrakyatindonesiabentuk seluruhrakyatindonesiabentukperintah rakyatindonesiabentukperintahbersih indonesiabentukperintahbersihtegas bentukperintahbersihtegassama sandijuangseluruhrakyatindonesiabentuk juangseluruhrakyatindonesiabentukperintah seluruhrakyatindonesiabentukperintahbersih rakyatindonesiabentukperintahbersihtegas indonesiabentukperintahbersihtegassama</t>
+  </si>
+  <si>
+    <t>tuju sekali pak selesai soal korupsi memang benah sistem bisa potong rantai tujusekali sekalipak pakselesai selesaisoal soalkorupsi korupsimemang memangbenah benahsistem sistembisa bisapotong potongrantai tujusekalipak sekalipakselesai pakselesaisoal selesaisoalkorupsi soalkorupsimemang korupsimemangbenah memangbenahsistem benahsistembisa sistembisapotong bisapotongrantai tujusekalipakselesai sekalipakselesaisoal pakselesaisoalkorupsi selesaisoalkorupsimemang soalkorupsimemangbenah korupsimemangbenahsistem memangbenahsistembisa benahsistembisapotong sistembisapotongrantai tujusekalipakselesaisoal sekalipakselesaisoalkorupsi pakselesaisoalkorupsimemang selesaisoalkorupsimemangbenah soalkorupsimemangbenahsistem korupsimemangbenahsistembisa memangbenahsistembisapotong benahsistembisapotongrantai tujusekalipakselesaisoalkorupsi sekalipakselesaisoalkorupsimemang pakselesaisoalkorupsimemangbenah selesaisoalkorupsimemangbenahsistem soalkorupsimemangbenahsistembisa korupsimemangbenahsistembisapotong memangbenahsistembisapotongrantai</t>
+  </si>
+  <si>
+    <t>tuju pas pak bilang ngajak toleransi dalam jalan politik politik satu tujupas paspak pakbilang bilangngajak ngajaktoleransi toleransidalam dalamjalan jalanpolitik politikpolitik politiksatu tujupaspak paspakbilang pakbilangngajak bilangngajaktoleransi ngajaktoleransidalam toleransidalamjalan dalamjalanpolitik jalanpolitikpolitik politikpolitiksatu tujupaspakbilang paspakbilangngajak pakbilangngajaktoleransi bilangngajaktoleransidalam ngajaktoleransidalamjalan toleransidalamjalanpolitik dalamjalanpolitikpolitik jalanpolitikpolitiksatu tujupaspakbilangngajak paspakbilangngajaktoleransi pakbilangngajaktoleransidalam bilangngajaktoleransidalamjalan ngajaktoleransidalamjalanpolitik toleransidalamjalanpolitikpolitik dalamjalanpolitikpolitiksatu tujupaspakbilangngajaktoleransi paspakbilangngajaktoleransidalam pakbilangngajaktoleransidalamjalan bilangngajaktoleransidalamjalanpolitik ngajaktoleransidalamjalanpolitikpolitik toleransidalamjalanpolitikpolitiksatu</t>
+  </si>
+  <si>
+    <t>akhir rezim guna pasal karet guna bungkam lawan politik sama - sandi akhirrezim rezimguna gunapasal pasalkaret karetguna gunabungkam bungkamlawan lawanpolitik politiksama sama- -sandi akhirrezimguna rezimgunapasal gunapasalkaret pasalkaretguna karetgunabungkam gunabungkamlawan bungkamlawanpolitik lawanpolitiksama politiksama- sama-sandi akhirrezimgunapasal rezimgunapasalkaret gunapasalkaretguna pasalkaretgunabungkam karetgunabungkamlawan gunabungkamlawanpolitik bungkamlawanpolitiksama lawanpolitiksama- politiksama-sandi akhirrezimgunapasalkaret rezimgunapasalkaretguna gunapasalkaretgunabungkam pasalkaretgunabungkamlawan karetgunabungkamlawanpolitik gunabungkamlawanpolitiksama bungkamlawanpolitiksama- lawanpolitiksama-sandi akhirrezimgunapasalkaretguna rezimgunapasalkaretgunabungkam gunapasalkaretgunabungkamlawan pasalkaretgunabungkamlawanpolitik karetgunabungkamlawanpolitiksama gunabungkamlawanpolitiksama- bungkamlawanpolitiksama-sandi</t>
+  </si>
+  <si>
+    <t>pak tegas penting maju teknologi transparansi efektitivitas efisiensi perintah paktegas tegaspenting pentingmaju majuteknologi teknologitransparansi transparansiefektitivitas efektitivitasefisiensi efisiensiperintah paktegaspenting tegaspentingmaju pentingmajuteknologi majuteknologitransparansi teknologitransparansiefektitivitas transparansiefektitivitasefisiensi efektitivitasefisiensiperintah paktegaspentingmaju tegaspentingmajuteknologi pentingmajuteknologitransparansi majuteknologitransparansiefektitivitas teknologitransparansiefektitivitasefisiensi transparansiefektitivitasefisiensiperintah paktegaspentingmajuteknologi tegaspentingmajuteknologitransparansi pentingmajuteknologitransparansiefektitivitas majuteknologitransparansiefektitivitasefisiensi teknologitransparansiefektitivitasefisiensiperintah paktegaspentingmajuteknologitransparansi tegaspentingmajuteknologitransparansiefektitivitas pentingmajuteknologitransparansiefektitivitasefisiensi majuteknologitransparansiefektitivitasefisiensiperintah</t>
+  </si>
+  <si>
+    <t>sekian lama pecat tni laku culi mungkin simpan dendam sekianlama lamapecat pecattni tnilaku lakuculi culimungkin mungkinsimpan simpandendam sekianlamapecat lamapecattni pecattnilaku tnilakuculi lakuculimungkin culimungkinsimpan mungkinsimpandendam sekianlamapecattni lamapecattnilaku pecattnilakuculi tnilakuculimungkin lakuculimungkinsimpan culimungkinsimpandendam sekianlamapecattnilaku lamapecattnilakuculi pecattnilakuculimungkin tnilakuculimungkinsimpan lakuculimungkinsimpandendam sekianlamapecattnilakuculi lamapecattnilakuculimungkin pecattnilakuculimungkinsimpan tnilakuculimungkinsimpandendam</t>
+  </si>
+  <si>
+    <t>benci bilang marah kalimat bapak bilang ada sedih kalimat pak bencibilang bilangmarah marahkalimat kalimatbapak bapakbilang bilangada adasedih sedihkalimat kalimatpak bencibilangmarah bilangmarahkalimat marahkalimatbapak kalimatbapakbilang bapakbilangada bilangadasedih adasedihkalimat sedihkalimatpak bencibilangmarahkalimat bilangmarahkalimatbapak marahkalimatbapakbilang kalimatbapakbilangada bapakbilangadasedih bilangadasedihkalimat adasedihkalimatpak bencibilangmarahkalimatbapak bilangmarahkalimatbapakbilang marahkalimatbapakbilangada kalimatbapakbilangadasedih bapakbilangadasedihkalimat bilangadasedihkalimatpak bencibilangmarahkalimatbapakbilang bilangmarahkalimatbapakbilangada marahkalimatbapakbilangadasedih kalimatbapakbilangadasedihkalimat bapakbilangadasedihkalimatpak</t>
+  </si>
+  <si>
+    <t>tenang kalau sampe perang saya yakin pak udah mikirin musti bagaimana akan diam lah sistem tahan tenangkalau kalausampe sampeperang perangsaya sayayakin yakinpak pakudah udahmikirin mikirinmusti mustibagaimana bagaimanaakan akandiam diamlah lahsistem sistemtahan tenangkalausampe kalausampeperang sampeperangsaya perangsayayakin sayayakinpak yakinpakudah pakudahmikirin udahmikirinmusti mikirinmustibagaimana mustibagaimanaakan bagaimanaakandiam akandiamlah diamlahsistem lahsistemtahan tenangkalausampeperang kalausampeperangsaya sampeperangsayayakin perangsayayakinpak sayayakinpakudah yakinpakudahmikirin pakudahmikirinmusti udahmikirinmustibagaimana mikirinmustibagaimanaakan mustibagaimanaakandiam bagaimanaakandiamlah akandiamlahsistem diamlahsistemtahan tenangkalausampeperangsaya kalausampeperangsayayakin sampeperangsayayakinpak perangsayayakinpakudah sayayakinpakudahmikirin yakinpakudahmikirinmusti pakudahmikirinmustibagaimana udahmikirinmustibagaimanaakan mikirinmustibagaimanaakandiam mustibagaimanaakandiamlah bagaimanaakandiamlahsistem akandiamlahsistemtahan tenangkalausampeperangsayayakin kalausampeperangsayayakinpak sampeperangsayayakinpakudah perangsayayakinpakudahmikirin sayayakinpakudahmikirinmusti yakinpakudahmikirinmustibagaimana pakudahmikirinmustibagaimanaakan udahmikirinmustibagaimanaakandiam mikirinmustibagaimanaakandiamlah mustibagaimanaakandiamlahsistem bagaimanaakandiamlahsistemtahan</t>
+  </si>
+  <si>
+    <t>percaya pak pancasila-is tuduh khilafah saya juga percaya pak pancasilais percayapak pakpancasila-is pancasila-istuduh tuduhkhilafah khilafahsaya sayajuga jugapercaya percayapak pakpancasilais percayapakpancasila-is pakpancasila-istuduh pancasila-istuduhkhilafah tuduhkhilafahsaya khilafahsayajuga sayajugapercaya jugapercayapak percayapakpancasilais percayapakpancasila-istuduh pakpancasila-istuduhkhilafah pancasila-istuduhkhilafahsaya tuduhkhilafahsayajuga khilafahsayajugapercaya sayajugapercayapak jugapercayapakpancasilais percayapakpancasila-istuduhkhilafah pakpancasila-istuduhkhilafahsaya pancasila-istuduhkhilafahsayajuga tuduhkhilafahsayajugapercaya khilafahsayajugapercayapak sayajugapercayapakpancasilais percayapakpancasila-istuduhkhilafahsaya pakpancasila-istuduhkhilafahsayajuga pancasila-istuduhkhilafahsayajugapercaya tuduhkhilafahsayajugapercayapak khilafahsayajugapercayapakpancasilais</t>
+  </si>
+  <si>
+    <t>presiden tukar negara kembali normal sesuai pancasila cara pilih sandi presidentukar tukarnegara negarakembali kembalinormal normalsesuai sesuaipancasila pancasilacara carapilih pilihsandi presidentukarnegara tukarnegarakembali negarakembalinormal kembalinormalsesuai normalsesuaipancasila sesuaipancasilacara pancasilacarapilih carapilihsandi presidentukarnegarakembali tukarnegarakembalinormal negarakembalinormalsesuai kembalinormalsesuaipancasila normalsesuaipancasilacara sesuaipancasilacarapilih pancasilacarapilihsandi presidentukarnegarakembalinormal tukarnegarakembalinormalsesuai negarakembalinormalsesuaipancasila kembalinormalsesuaipancasilacara normalsesuaipancasilacarapilih sesuaipancasilacarapilihsandi presidentukarnegarakembalinormalsesuai tukarnegarakembalinormalsesuaipancasila negarakembalinormalsesuaipancasilacara kembalinormalsesuaipancasilacarapilih normalsesuaipancasilacarapilihsandi</t>
+  </si>
+  <si>
+    <t>lepas substansi debat khawatir sikap emosional pak cenderung labil merespon suatu masalah lepassubstansi substansidebat debatkhawatir khawatirsikap sikapemosional emosionalpak pakcenderung cenderunglabil labilmerespon meresponsuatu suatumasalah lepassubstansidebat substansidebatkhawatir debatkhawatirsikap khawatirsikapemosional sikapemosionalpak emosionalpakcenderung pakcenderunglabil cenderunglabilmerespon labilmeresponsuatu meresponsuatumasalah lepassubstansidebatkhawatir substansidebatkhawatirsikap debatkhawatirsikapemosional khawatirsikapemosionalpak sikapemosionalpakcenderung emosionalpakcenderunglabil pakcenderunglabilmerespon cenderunglabilmeresponsuatu labilmeresponsuatumasalah lepassubstansidebatkhawatirsikap substansidebatkhawatirsikapemosional debatkhawatirsikapemosionalpak khawatirsikapemosionalpakcenderung sikapemosionalpakcenderunglabil emosionalpakcenderunglabilmerespon pakcenderunglabilmeresponsuatu cenderunglabilmeresponsuatumasalah lepassubstansidebatkhawatirsikapemosional substansidebatkhawatirsikapemosionalpak debatkhawatirsikapemosionalpakcenderung khawatirsikapemosionalpakcenderunglabil sikapemosionalpakcenderunglabilmerespon emosionalpakcenderunglabilmeresponsuatu pakcenderunglabilmeresponsuatumasalah</t>
+  </si>
+  <si>
+    <t>optimisindonesiamaju kalau tetap percaya sama orang walau sering tuduh itu hehe optimisindonesiamajukalau kalautetap tetappercaya percayasama samaorang orangwalau walausering seringtuduh tuduhitu ituhehe optimisindonesiamajukalautetap kalautetappercaya tetappercayasama percayasamaorang samaorangwalau orangwalausering walauseringtuduh seringtuduhitu tuduhituhehe optimisindonesiamajukalautetappercaya kalautetappercayasama tetappercayasamaorang percayasamaorangwalau samaorangwalausering orangwalauseringtuduh walauseringtuduhitu seringtuduhituhehe optimisindonesiamajukalautetappercayasama kalautetappercayasamaorang tetappercayasamaorangwalau percayasamaorangwalausering samaorangwalauseringtuduh orangwalauseringtuduhitu walauseringtuduhituhehe optimisindonesiamajukalautetappercayasamaorang kalautetappercayasamaorangwalau tetappercayasamaorangwalausering percayasamaorangwalauseringtuduh samaorangwalauseringtuduhitu orangwalauseringtuduhituhehe</t>
+  </si>
+  <si>
+    <t>cuma analis bodoh menganalisa keyword https t co latbu 4q1xn cumaanalis analisbodoh bodohmenganalisa menganalisakeyword keywordhttps httpst tco colatbu latbu4q1xn cumaanalisbodoh analisbodohmenganalisa bodohmenganalisakeyword menganalisakeywordhttps keywordhttpst httpstco tcolatbu colatbu4q1xn cumaanalisbodohmenganalisa analisbodohmenganalisakeyword bodohmenganalisakeywordhttps menganalisakeywordhttpst keywordhttpstco httpstcolatbu tcolatbu4q1xn cumaanalisbodohmenganalisakeyword analisbodohmenganalisakeywordhttps bodohmenganalisakeywordhttpst menganalisakeywordhttpstco keywordhttpstcolatbu httpstcolatbu4q1xn cumaanalisbodohmenganalisakeywordhttps analisbodohmenganalisakeywordhttpst bodohmenganalisakeywordhttpstco menganalisakeywordhttpstcolatbu keywordhttpstcolatbu4q1xn</t>
+  </si>
+  <si>
+    <t>do a tulus orang ibu gendong anak rupa fans berat bapak jadi presiden ri doa atulus tulusorang orangibu ibugendong gendonganak anakrupa rupafans fansberat beratbapak bapakjadi jadipresiden presidenri doatulus atulusorang tulusorangibu orangibugendong ibugendonganak gendonganakrupa anakrupafans rupafansberat fansberatbapak beratbapakjadi bapakjadipresiden jadipresidenri doatulusorang atulusorangibu tulusorangibugendong orangibugendonganak ibugendonganakrupa gendonganakrupafans anakrupafansberat rupafansberatbapak fansberatbapakjadi beratbapakjadipresiden bapakjadipresidenri doatulusorangibu atulusorangibugendong tulusorangibugendonganak orangibugendonganakrupa ibugendonganakrupafans gendonganakrupafansberat anakrupafansberatbapak rupafansberatbapakjadi fansberatbapakjadipresiden beratbapakjadipresidenri doatulusorangibugendong atulusorangibugendonganak tulusorangibugendonganakrupa orangibugendonganakrupafans ibugendonganakrupafansberat gendonganakrupafansberatbapak anakrupafansberatbapakjadi rupafansberatbapakjadipresiden fansberatbapakjadipresidenri</t>
+  </si>
+  <si>
+    <t>dong pak sangat pro ekonomi digital pemerintahandilan https t co heqqtohzri dongpak paksangat sangatpro proekonomi ekonomidigital digitalpemerintahandilan pemerintahandilanhttps httpst tco coheqqtohzri dongpaksangat paksangatpro sangatproekonomi proekonomidigital ekonomidigitalpemerintahandilan digitalpemerintahandilanhttps pemerintahandilanhttpst httpstco tcoheqqtohzri dongpaksangatpro paksangatproekonomi sangatproekonomidigital proekonomidigitalpemerintahandilan ekonomidigitalpemerintahandilanhttps digitalpemerintahandilanhttpst pemerintahandilanhttpstco httpstcoheqqtohzri dongpaksangatproekonomi paksangatproekonomidigital sangatproekonomidigitalpemerintahandilan proekonomidigitalpemerintahandilanhttps ekonomidigitalpemerintahandilanhttpst digitalpemerintahandilanhttpstco pemerintahandilanhttpstcoheqqtohzri dongpaksangatproekonomidigital paksangatproekonomidigitalpemerintahandilan sangatproekonomidigitalpemerintahandilanhttps proekonomidigitalpemerintahandilanhttpst ekonomidigitalpemerintahandilanhttpstco digitalpemerintahandilanhttpstcoheqqtohzri</t>
+  </si>
+  <si>
+    <t>aura menang mas makin lihat jelas kalau mas menang apa akan kamu laku sobat tuips jokowid auramenang menangmas masmakin makinlihat lihatjelas jelaskalau kalaumas masmenang menangapa apaakan akankamu kamulaku lakusobat sobattuips tuipsjokowid auramenangmas menangmasmakin masmakinlihat makinlihatjelas lihatjelaskalau jelaskalaumas kalaumasmenang masmenangapa menangapaakan apaakankamu akankamulaku kamulakusobat lakusobattuips sobattuipsjokowid auramenangmasmakin menangmasmakinlihat masmakinlihatjelas makinlihatjelaskalau lihatjelaskalaumas jelaskalaumasmenang kalaumasmenangapa masmenangapaakan menangapaakankamu apaakankamulaku akankamulakusobat kamulakusobattuips lakusobattuipsjokowid auramenangmasmakinlihat menangmasmakinlihatjelas masmakinlihatjelaskalau makinlihatjelaskalaumas lihatjelaskalaumasmenang jelaskalaumasmenangapa kalaumasmenangapaakan masmenangapaakankamu menangapaakankamulaku apaakankamulakusobat akankamulakusobattuips kamulakusobattuipsjokowid auramenangmasmakinlihatjelas menangmasmakinlihatjelaskalau masmakinlihatjelaskalaumas makinlihatjelaskalaumasmenang lihatjelaskalaumasmenangapa jelaskalaumasmenangapaakan kalaumasmenangapaakankamu masmenangapaakankamulaku menangapaakankamulakusobat apaakankamulakusobattuips akankamulakusobattuipsjokowid</t>
+  </si>
+  <si>
+    <t>mantep banget nih ustad tak perlu ganti presiden cukup pilih pak di tps mantepbanget bangetnih nihustad ustadtak takperlu perluganti gantipresiden presidencukup cukuppilih pilihpak pakdi ditps mantepbangetnih bangetnihustad nihustadtak ustadtakperlu takperluganti perlugantipresiden gantipresidencukup presidencukuppilih cukuppilihpak pilihpakdi pakditps mantepbangetnihustad bangetnihustadtak nihustadtakperlu ustadtakperluganti takperlugantipresiden perlugantipresidencukup gantipresidencukuppilih presidencukuppilihpak cukuppilihpakdi pilihpakditps mantepbangetnihustadtak bangetnihustadtakperlu nihustadtakperluganti ustadtakperlugantipresiden takperlugantipresidencukup perlugantipresidencukuppilih gantipresidencukuppilihpak presidencukuppilihpakdi cukuppilihpakditps mantepbangetnihustadtakperlu bangetnihustadtakperluganti nihustadtakperlugantipresiden ustadtakperlugantipresidencukup takperlugantipresidencukuppilih perlugantipresidencukuppilihpak gantipresidencukuppilihpakdi presidencukuppilihpakditps</t>
+  </si>
+  <si>
+    <t>kalau mau jadi nice guy jadi mediator monggo kalau juang indonesia hormat indonesia kuat kalaumau maujadi jadinice niceguy guyjadi jadimediator mediatormonggo monggokalau kalaujuang juangindonesia indonesiahormat hormatindonesia indonesiakuat kalaumaujadi maujadinice jadiniceguy niceguyjadi guyjadimediator jadimediatormonggo mediatormonggokalau monggokalaujuang kalaujuangindonesia juangindonesiahormat indonesiahormatindonesia hormatindonesiakuat kalaumaujadinice maujadiniceguy jadiniceguyjadi niceguyjadimediator guyjadimediatormonggo jadimediatormonggokalau mediatormonggokalaujuang monggokalaujuangindonesia kalaujuangindonesiahormat juangindonesiahormatindonesia indonesiahormatindonesiakuat kalaumaujadiniceguy maujadiniceguyjadi jadiniceguyjadimediator niceguyjadimediatormonggo guyjadimediatormonggokalau jadimediatormonggokalaujuang mediatormonggokalaujuangindonesia monggokalaujuangindonesiahormat kalaujuangindonesiahormatindonesia juangindonesiahormatindonesiakuat kalaumaujadiniceguyjadi maujadiniceguyjadimediator jadiniceguyjadimediatormonggo niceguyjadimediatormonggokalau guyjadimediatormonggokalaujuang jadimediatormonggokalaujuangindonesia mediatormonggokalaujuangindonesiahormat monggokalaujuangindonesiahormatindonesia kalaujuangindonesiahormatindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak percaya pbb peran indonesia selesai kasus rohingya datang tiba pakpercaya percayapbb pbbperan peranindonesia indonesiaselesai selesaikasus kasusrohingya rohingyadatang datangtiba pakpercayapbb percayapbbperan pbbperanindonesia peranindonesiaselesai indonesiaselesaikasus selesaikasusrohingya kasusrohingyadatang rohingyadatangtiba pakpercayapbbperan percayapbbperanindonesia pbbperanindonesiaselesai peranindonesiaselesaikasus indonesiaselesaikasusrohingya selesaikasusrohingyadatang kasusrohingyadatangtiba pakpercayapbbperanindonesia percayapbbperanindonesiaselesai pbbperanindonesiaselesaikasus peranindonesiaselesaikasusrohingya indonesiaselesaikasusrohingyadatang selesaikasusrohingyadatangtiba pakpercayapbbperanindonesiaselesai percayapbbperanindonesiaselesaikasus pbbperanindonesiaselesaikasusrohingya peranindonesiaselesaikasusrohingyadatang indonesiaselesaikasusrohingyadatangtiba</t>
+  </si>
+  <si>
+    <t>lagi bohong diri sendiri rakyat soal radar tahan indonesia kuat lagibohong bohongdiri dirisendiri sendirirakyat rakyatsoal soalradar radartahan tahanindonesia indonesiakuat lagibohongdiri bohongdirisendiri dirisendirirakyat sendirirakyatsoal rakyatsoalradar soalradartahan radartahanindonesia tahanindonesiakuat lagibohongdirisendiri bohongdirisendirirakyat dirisendirirakyatsoal sendirirakyatsoalradar rakyatsoalradartahan soalradartahanindonesia radartahanindonesiakuat lagibohongdirisendirirakyat bohongdirisendirirakyatsoal dirisendirirakyatsoalradar sendirirakyatsoalradartahan rakyatsoalradartahanindonesia soalradartahanindonesiakuat lagibohongdirisendirirakyatsoal bohongdirisendirirakyatsoalradar dirisendirirakyatsoalradartahan sendirirakyatsoalradartahanindonesia rakyatsoalradartahanindonesiakuat</t>
+  </si>
+  <si>
+    <t>pak kaya ken banget perang gabung twitter jangan pak hampir tiap hari perang optimisindonesiamaju pakkaya kayaken kenbanget bangetperang peranggabung gabungtwitter twitterjangan janganpak pakhampir hampirtiap tiaphari hariperang perangoptimisindonesiamaju pakkayaken kayakenbanget kenbangetperang bangetperanggabung peranggabungtwitter gabungtwitterjangan twitterjanganpak janganpakhampir pakhampirtiap hampirtiaphari tiaphariperang hariperangoptimisindonesiamaju pakkayakenbanget kayakenbangetperang kenbangetperanggabung bangetperanggabungtwitter peranggabungtwitterjangan gabungtwitterjanganpak twitterjanganpakhampir janganpakhampirtiap pakhampirtiaphari hampirtiaphariperang tiaphariperangoptimisindonesiamaju pakkayakenbangetperang kayakenbangetperanggabung kenbangetperanggabungtwitter bangetperanggabungtwitterjangan peranggabungtwitterjanganpak gabungtwitterjanganpakhampir twitterjanganpakhampirtiap janganpakhampirtiaphari pakhampirtiaphariperang hampirtiaphariperangoptimisindonesiamaju pakkayakenbangetperanggabung kayakenbangetperanggabungtwitter kenbangetperanggabungtwitterjangan bangetperanggabungtwitterjanganpak peranggabungtwitterjanganpakhampir gabungtwitterjanganpakhampirtiap twitterjanganpakhampirtiaphari janganpakhampirtiaphariperang pakhampirtiaphariperangoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya tni ini tni taruh nyawa di tni lebih tni banyak tni bukantidak tidakpercaya percayatni tniini initni tnitaruh taruhnyawa nyawadi ditni tnilebih lebihtni tnibanyak banyaktni bukantidakpercaya tidakpercayatni percayatniini tniinitni initnitaruh tnitaruhnyawa taruhnyawadi nyawaditni ditnilebih tnilebihtni lebihtnibanyak tnibanyaktni bukantidakpercayatni tidakpercayatniini percayatniinitni tniinitnitaruh initnitaruhnyawa tnitaruhnyawadi taruhnyawaditni nyawaditnilebih ditnilebihtni tnilebihtnibanyak lebihtnibanyaktni bukantidakpercayatniini tidakpercayatniinitni percayatniinitnitaruh tniinitnitaruhnyawa initnitaruhnyawadi tnitaruhnyawaditni taruhnyawaditnilebih nyawaditnilebihtni ditnilebihtnibanyak tnilebihtnibanyaktni bukantidakpercayatniinitni tidakpercayatniinitnitaruh percayatniinitnitaruhnyawa tniinitnitaruhnyawadi initnitaruhnyawaditni tnitaruhnyawaditnilebih taruhnyawaditnilebihtni nyawaditnilebihtnibanyak ditnilebihtnibanyaktni</t>
+  </si>
+  <si>
+    <t>bukan figur pimpin sempurna kalau lihat debat ya lebih yakin rival tahu mau laku bukanfigur figurpimpin pimpinsempurna sempurnakalau kalaulihat lihatdebat debatya yalebih lebihyakin yakinrival rivaltahu tahumau maulaku bukanfigurpimpin figurpimpinsempurna pimpinsempurnakalau sempurnakalaulihat kalaulihatdebat lihatdebatya debatyalebih yalebihyakin lebihyakinrival yakinrivaltahu rivaltahumau tahumaulaku bukanfigurpimpinsempurna figurpimpinsempurnakalau pimpinsempurnakalaulihat sempurnakalaulihatdebat kalaulihatdebatya lihatdebatyalebih debatyalebihyakin yalebihyakinrival lebihyakinrivaltahu yakinrivaltahumau rivaltahumaulaku bukanfigurpimpinsempurnakalau figurpimpinsempurnakalaulihat pimpinsempurnakalaulihatdebat sempurnakalaulihatdebatya kalaulihatdebatyalebih lihatdebatyalebihyakin debatyalebihyakinrival yalebihyakinrivaltahu lebihyakinrivaltahumau yakinrivaltahumaulaku bukanfigurpimpinsempurnakalaulihat figurpimpinsempurnakalaulihatdebat pimpinsempurnakalaulihatdebatya sempurnakalaulihatdebatyalebih kalaulihatdebatyalebihyakin lihatdebatyalebihyakinrival debatyalebihyakinrivaltahu yalebihyakinrivaltahumau lebihyakinrivaltahumaulaku</t>
+  </si>
+  <si>
+    <t>tampil mas debat calon presiden malam kejut beda debat tampilmas masdebat debatcalon calonpresiden presidenmalam malamkejut kejutbeda bedadebat tampilmasdebat masdebatcalon debatcalonpresiden calonpresidenmalam presidenmalamkejut malamkejutbeda kejutbedadebat tampilmasdebatcalon masdebatcalonpresiden debatcalonpresidenmalam calonpresidenmalamkejut presidenmalamkejutbeda malamkejutbedadebat tampilmasdebatcalonpresiden masdebatcalonpresidenmalam debatcalonpresidenmalamkejut calonpresidenmalamkejutbeda presidenmalamkejutbedadebat tampilmasdebatcalonpresidenmalam masdebatcalonpresidenmalamkejut debatcalonpresidenmalamkejutbeda calonpresidenmalamkejutbedadebat</t>
+  </si>
+  <si>
+    <t>tampil lebih semangat tegas rada ofensif justru lihat sangat natural cerdas keluar tampillebih lebihsemangat semangattegas tegasrada radaofensif ofensifjustru justrulihat lihatsangat sangatnatural naturalcerdas cerdaskeluar tampillebihsemangat lebihsemangattegas semangattegasrada tegasradaofensif radaofensifjustru ofensifjustrulihat justrulihatsangat lihatsangatnatural sangatnaturalcerdas naturalcerdaskeluar tampillebihsemangattegas lebihsemangattegasrada semangattegasradaofensif tegasradaofensifjustru radaofensifjustrulihat ofensifjustrulihatsangat justrulihatsangatnatural lihatsangatnaturalcerdas sangatnaturalcerdaskeluar tampillebihsemangattegasrada lebihsemangattegasradaofensif semangattegasradaofensifjustru tegasradaofensifjustrulihat radaofensifjustrulihatsangat ofensifjustrulihatsangatnatural justrulihatsangatnaturalcerdas lihatsangatnaturalcerdaskeluar tampillebihsemangattegasradaofensif lebihsemangattegasradaofensifjustru semangattegasradaofensifjustrulihat tegasradaofensifjustrulihatsangat radaofensifjustrulihatsangatnatural ofensifjustrulihatsangatnaturalcerdas justrulihatsangatnaturalcerdaskeluar</t>
+  </si>
+  <si>
+    <t>apa cepat kalau kaya alir luar negeri lebih baik pakai teknologi lama kaya indonesia apacepat cepatkalau kalaukaya kayaalir alirluar luarnegeri negerilebih lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia apacepatkalau cepatkalaukaya kalaukayaalir kayaalirluar alirluarnegeri luarnegerilebih negerilebihbaik lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayaindonesia apacepatkalaukaya cepatkalaukayaalir kalaukayaalirluar kayaalirluarnegeri alirluarnegerilebih luarnegerilebihbaik negerilebihbaikpakai lebihbaikpakaiteknologi baikpakaiteknologilama pakaiteknologilamakaya teknologilamakayaindonesia apacepatkalaukayaalir cepatkalaukayaalirluar kalaukayaalirluarnegeri kayaalirluarnegerilebih alirluarnegerilebihbaik luarnegerilebihbaikpakai negerilebihbaikpakaiteknologi lebihbaikpakaiteknologilama baikpakaiteknologilamakaya pakaiteknologilamakayaindonesia apacepatkalaukayaalirluar cepatkalaukayaalirluarnegeri kalaukayaalirluarnegerilebih kayaalirluarnegerilebihbaik alirluarnegerilebihbaikpakai luarnegerilebihbaikpakaiteknologi negerilebihbaikpakaiteknologilama lebihbaikpakaiteknologilamakaya baikpakaiteknologilamakayaindonesia</t>
+  </si>
+  <si>
+    <t>seluruh rakyat siap bangun indonesia sama menangjokowilagi seluruhrakyat rakyatsiap siapbangun bangunindonesia indonesiasama samamenangjokowilagi seluruhrakyatsiap rakyatsiapbangun siapbangunindonesia bangunindonesiasama indonesiasamamenangjokowilagi seluruhrakyatsiapbangun rakyatsiapbangunindonesia siapbangunindonesiasama bangunindonesiasamamenangjokowilagi seluruhrakyatsiapbangunindonesia rakyatsiapbangunindonesiasama siapbangunindonesiasamamenangjokowilagi seluruhrakyatsiapbangunindonesiasama rakyatsiapbangunindonesiasamamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>jangan uang indonesia lari keluar negeri kata iya pak yang link ya janganuang uangindonesia indonesialari larikeluar keluarnegeri negerikata kataiya iyapak pakyang yanglink linkya janganuangindonesia uangindonesialari indonesialarikeluar larikeluarnegeri keluarnegerikata negerikataiya kataiyapak iyapakyang pakyanglink yanglinkya janganuangindonesialari uangindonesialarikeluar indonesialarikeluarnegeri larikeluarnegerikata keluarnegerikataiya negerikataiyapak kataiyapakyang iyapakyanglink pakyanglinkya janganuangindonesialarikeluar uangindonesialarikeluarnegeri indonesialarikeluarnegerikata larikeluarnegerikataiya keluarnegerikataiyapak negerikataiyapakyang kataiyapakyanglink iyapakyanglinkya janganuangindonesialarikeluarnegeri uangindonesialarikeluarnegerikata indonesialarikeluarnegerikataiya larikeluarnegerikataiyapak keluarnegerikataiyapakyang negerikataiyapakyanglink kataiyapakyanglinkya</t>
+  </si>
+  <si>
+    <t>biasa cuma lantang retorika kata dulu banyak panglima lapor asal bapak senang biasacuma cumalantang lantangretorika retorikakata katadulu dulubanyak banyakpanglima panglimalapor laporasal asalbapak bapaksenang biasacumalantang cumalantangretorika lantangretorikakata retorikakatadulu katadulubanyak dulubanyakpanglima banyakpanglimalapor panglimalaporasal laporasalbapak asalbapaksenang biasacumalantangretorika cumalantangretorikakata lantangretorikakatadulu retorikakatadulubanyak katadulubanyakpanglima dulubanyakpanglimalapor banyakpanglimalaporasal panglimalaporasalbapak laporasalbapaksenang biasacumalantangretorikakata cumalantangretorikakatadulu lantangretorikakatadulubanyak retorikakatadulubanyakpanglima katadulubanyakpanglimalapor dulubanyakpanglimalaporasal banyakpanglimalaporasalbapak panglimalaporasalbapaksenang biasacumalantangretorikakatadulu cumalantangretorikakatadulubanyak lantangretorikakatadulubanyakpanglima retorikakatadulubanyakpanglimalapor katadulubanyakpanglimalaporasal dulubanyakpanglimalaporasalbapak banyakpanglimalaporasalbapaksenang</t>
+  </si>
+  <si>
+    <t>real leader lihat jangan closing statement jadi ngikut begitu orang leader realleader leaderlihat lihatjangan janganclosing closingstatement statementjadi jadingikut ngikutbegitu begituorang orangleader realleaderlihat leaderlihatjangan lihatjanganclosing janganclosingstatement closingstatementjadi statementjadingikut jadingikutbegitu ngikutbegituorang begituorangleader realleaderlihatjangan leaderlihatjanganclosing lihatjanganclosingstatement janganclosingstatementjadi closingstatementjadingikut statementjadingikutbegitu jadingikutbegituorang ngikutbegituorangleader realleaderlihatjanganclosing leaderlihatjanganclosingstatement lihatjanganclosingstatementjadi janganclosingstatementjadingikut closingstatementjadingikutbegitu statementjadingikutbegituorang jadingikutbegituorangleader realleaderlihatjanganclosingstatement leaderlihatjanganclosingstatementjadi lihatjanganclosingstatementjadingikut janganclosingstatementjadingikutbegitu closingstatementjadingikutbegituorang statementjadingikutbegituorangleader</t>
+  </si>
+  <si>
+    <t>visi misi tawar baru baharu yang lebih visioner lebih detail pemerintahandilan visimisi misitawar tawarbaru barubaharu baharuyang yanglebih lebihvisioner visionerlebih lebihdetail detailpemerintahandilan visimisitawar misitawarbaru tawarbarubaharu barubaharuyang baharuyanglebih yanglebihvisioner lebihvisionerlebih visionerlebihdetail lebihdetailpemerintahandilan visimisitawarbaru misitawarbarubaharu tawarbarubaharuyang barubaharuyanglebih baharuyanglebihvisioner yanglebihvisionerlebih lebihvisionerlebihdetail visionerlebihdetailpemerintahandilan visimisitawarbarubaharu misitawarbarubaharuyang tawarbarubaharuyanglebih barubaharuyanglebihvisioner baharuyanglebihvisionerlebih yanglebihvisionerlebihdetail lebihvisionerlebihdetailpemerintahandilan visimisitawarbarubaharuyang misitawarbarubaharuyanglebih tawarbarubaharuyanglebihvisioner barubaharuyanglebihvisionerlebih baharuyanglebihvisionerlebihdetail yanglebihvisionerlebihdetailpemerintahandilan</t>
+  </si>
+  <si>
+    <t>detik detik marah marah di tertawa debatkeempatpilpres 2019 jokowimengubahsemua 01dilanjutkan detikdetik detikmarah marahmarah marahdi ditertawa tertawadebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dilanjutkan detikdetikmarah detikmarahmarah marahmarahdi marahditertawa ditertawadebatkeempatpilpres tertawadebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dilanjutkan detikdetikmarahmarah detikmarahmarahdi marahmarahditertawa marahditertawadebatkeempatpilpres ditertawadebatkeempatpilpres2019 tertawadebatkeempatpilpres2019jokowimengubahsemua debatkeempatpilpres2019jokowimengubahsemua01dilanjutkan detikdetikmarahmarahdi detikmarahmarahditertawa marahmarahditertawadebatkeempatpilpres marahditertawadebatkeempatpilpres2019 ditertawadebatkeempatpilpres2019jokowimengubahsemua tertawadebatkeempatpilpres2019jokowimengubahsemua01dilanjutkan detikdetikmarahmarahditertawa detikmarahmarahditertawadebatkeempatpilpres marahmarahditertawadebatkeempatpilpres2019 marahditertawadebatkeempatpilpres2019jokowimengubahsemua ditertawadebatkeempatpilpres2019jokowimengubahsemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>allah maha dengar simpuh hadap mohon pak bang beri mudah allahmaha mahadengar dengarsimpuh simpuhhadap hadapmohon mohonpak pakbang bangberi berimudah allahmahadengar mahadengarsimpuh dengarsimpuhhadap simpuhhadapmohon hadapmohonpak mohonpakbang pakbangberi bangberimudah allahmahadengarsimpuh mahadengarsimpuhhadap dengarsimpuhhadapmohon simpuhhadapmohonpak hadapmohonpakbang mohonpakbangberi pakbangberimudah allahmahadengarsimpuhhadap mahadengarsimpuhhadapmohon dengarsimpuhhadapmohonpak simpuhhadapmohonpakbang hadapmohonpakbangberi mohonpakbangberimudah allahmahadengarsimpuhhadapmohon mahadengarsimpuhhadapmohonpak dengarsimpuhhadapmohonpakbang simpuhhadapmohonpakbangberi hadapmohonpakbangberimudah</t>
+  </si>
+  <si>
+    <t>ucap orang prajurit tak ragu tulus prabowo ucaporang orangprajurit prajurittak takragu ragutulus tulusprabowo ucaporangprajurit orangprajurittak prajurittakragu takragutulus ragutulusprabowo ucaporangprajurittak orangprajurittakragu prajurittakragutulus takragutulusprabowo ucaporangprajurittakragu orangprajurittakragutulus prajurittakragutulusprabowo ucaporangprajurittakragutulus orangprajurittakragutulusprabowo</t>
+  </si>
+  <si>
+    <t>satu tak lebih megalomaniak puja diri sendiri anggap diri paling hebat tni satutak taklebih lebihmegalomaniak megalomaniakpuja pujadiri dirisendiri sendirianggap anggapdiri diripaling palinghebat hebattni satutaklebih taklebihmegalomaniak lebihmegalomaniakpuja megalomaniakpujadiri pujadirisendiri dirisendirianggap sendirianggapdiri anggapdiripaling diripalinghebat palinghebattni satutaklebihmegalomaniak taklebihmegalomaniakpuja lebihmegalomaniakpujadiri megalomaniakpujadirisendiri pujadirisendirianggap dirisendirianggapdiri sendirianggapdiripaling anggapdiripalinghebat diripalinghebattni satutaklebihmegalomaniakpuja taklebihmegalomaniakpujadiri lebihmegalomaniakpujadirisendiri megalomaniakpujadirisendirianggap pujadirisendirianggapdiri dirisendirianggapdiripaling sendirianggapdiripalinghebat anggapdiripalinghebattni satutaklebihmegalomaniakpujadiri taklebihmegalomaniakpujadirisendiri lebihmegalomaniakpujadirisendirianggap megalomaniakpujadirisendirianggapdiri pujadirisendirianggapdiripaling dirisendirianggapdiripalinghebat sendirianggapdiripalinghebattni</t>
+  </si>
+  <si>
+    <t>sistem jalur mana bagai izin jadi tempat ide luar biasa pakde ayah sistemjalur jalurmana manabagai bagaiizin izinjadi jaditempat tempatide ideluar luarbiasa biasapakde pakdeayah sistemjalurmana jalurmanabagai manabagaiizin bagaiizinjadi izinjaditempat jaditempatide tempatideluar ideluarbiasa luarbiasapakde biasapakdeayah sistemjalurmanabagai jalurmanabagaiizin manabagaiizinjadi bagaiizinjaditempat izinjaditempatide jaditempatideluar tempatideluarbiasa ideluarbiasapakde luarbiasapakdeayah sistemjalurmanabagaiizin jalurmanabagaiizinjadi manabagaiizinjaditempat bagaiizinjaditempatide izinjaditempatideluar jaditempatideluarbiasa tempatideluarbiasapakde ideluarbiasapakdeayah sistemjalurmanabagaiizinjadi jalurmanabagaiizinjaditempat manabagaiizinjaditempatide bagaiizinjaditempatideluar izinjaditempatideluarbiasa jaditempatideluarbiasapakde tempatideluarbiasapakdeayah</t>
+  </si>
+  <si>
+    <t>soal ungsi rohingya ada tuh peran jelas perintah pulang ungsi cox bazar wah bohong soalungsi ungsirohingya rohingyaada adatuh tuhperan peranjelas jelasperintah perintahpulang pulangungsi ungsicox coxbazar bazarwah wahbohong soalungsirohingya ungsirohingyaada rohingyaadatuh adatuhperan tuhperanjelas peranjelasperintah jelasperintahpulang perintahpulangungsi pulangungsicox ungsicoxbazar coxbazarwah bazarwahbohong soalungsirohingyaada ungsirohingyaadatuh rohingyaadatuhperan adatuhperanjelas tuhperanjelasperintah peranjelasperintahpulang jelasperintahpulangungsi perintahpulangungsicox pulangungsicoxbazar ungsicoxbazarwah coxbazarwahbohong soalungsirohingyaadatuh ungsirohingyaadatuhperan rohingyaadatuhperanjelas adatuhperanjelasperintah tuhperanjelasperintahpulang peranjelasperintahpulangungsi jelasperintahpulangungsicox perintahpulangungsicoxbazar pulangungsicoxbazarwah ungsicoxbazarwahbohong soalungsirohingyaadatuhperan ungsirohingyaadatuhperanjelas rohingyaadatuhperanjelasperintah adatuhperanjelasperintahpulang tuhperanjelasperintahpulangungsi peranjelasperintahpulangungsicox jelasperintahpulangungsicoxbazar perintahpulangungsicoxbazarwah pulangungsicoxbazarwahbohong</t>
+  </si>
+  <si>
+    <t>keluarga bisa ajar bagaimana cara sabar terus jalan keluargabisa bisaajar ajarbagaimana bagaimanacara carasabar sabarterus terusjalan keluargabisaajar bisaajarbagaimana ajarbagaimanacara bagaimanacarasabar carasabarterus sabarterusjalan keluargabisaajarbagaimana bisaajarbagaimanacara ajarbagaimanacarasabar bagaimanacarasabarterus carasabarterusjalan keluargabisaajarbagaimanacara bisaajarbagaimanacarasabar ajarbagaimanacarasabarterus bagaimanacarasabarterusjalan keluargabisaajarbagaimanacarasabar bisaajarbagaimanacarasabarterus ajarbagaimanacarasabarterusjalan selalu bangkit selalubangkit</t>
+  </si>
+  <si>
+    <t>bukan emosi bos tegas tu nama nya jelas kan hadap orang buta hati nya bukanemosi emosibos bostegas tegastu tunama namanya nyajelas jelaskan kanhadap hadaporang orangbuta butahati hatinya bukanemosibos emosibostegas bostegastu tegastunama tunamanya namanyajelas nyajelaskan jelaskanhadap kanhadaporang hadaporangbuta orangbutahati butahatinya bukanemosibostegas emosibostegastu bostegastunama tegastunamanya tunamanyajelas namanyajelaskan nyajelaskanhadap jelaskanhadaporang kanhadaporangbuta hadaporangbutahati orangbutahatinya bukanemosibostegastu emosibostegastunama bostegastunamanya tegastunamanyajelas tunamanyajelaskan namanyajelaskanhadap nyajelaskanhadaporang jelaskanhadaporangbuta kanhadaporangbutahati hadaporangbutahatinya bukanemosibostegastunama emosibostegastunamanya bostegastunamanyajelas tegastunamanyajelaskan tunamanyajelaskanhadap namanyajelaskanhadaporang nyajelaskanhadaporangbuta jelaskanhadaporangbutahati kanhadaporangbutahatinya</t>
+  </si>
+  <si>
+    <t>woi menang telak santai dikit ngapain sibuk nampolin cebong dongo biar halu alam woimenang menangtelak telaksantai santaidikit dikitngapain ngapainsibuk sibuknampolin nampolincebong cebongdongo dongobiar biarhalu halualam woimenangtelak menangtelaksantai telaksantaidikit santaidikitngapain dikitngapainsibuk ngapainsibuknampolin sibuknampolincebong nampolincebongdongo cebongdongobiar dongobiarhalu biarhalualam woimenangtelaksantai menangtelaksantaidikit telaksantaidikitngapain santaidikitngapainsibuk dikitngapainsibuknampolin ngapainsibuknampolincebong sibuknampolincebongdongo nampolincebongdongobiar cebongdongobiarhalu dongobiarhalualam woimenangtelaksantaidikit menangtelaksantaidikitngapain telaksantaidikitngapainsibuk santaidikitngapainsibuknampolin dikitngapainsibuknampolincebong ngapainsibuknampolincebongdongo sibuknampolincebongdongobiar nampolincebongdongobiarhalu cebongdongobiarhalualam woimenangtelaksantaidikitngapain menangtelaksantaidikitngapainsibuk telaksantaidikitngapainsibuknampolin santaidikitngapainsibuknampolincebong dikitngapainsibuknampolincebongdongo ngapainsibuknampolincebongdongobiar sibuknampolincebongdongobiarhalu nampolincebongdongobiarhalualam</t>
+  </si>
+  <si>
+    <t>tahan lemah kalian ketawa sila kalian ketawa dukung memang nyata goblok dungu tahanlemah lemahkalian kalianketawa ketawasila silakalian kalianketawa ketawadukung dukungmemang memangnyata nyatagoblok goblokdungu tahanlemahkalian lemahkalianketawa kalianketawasila ketawasilakalian silakalianketawa kalianketawadukung ketawadukungmemang dukungmemangnyata memangnyatagoblok nyatagoblokdungu tahanlemahkalianketawa lemahkalianketawasila kalianketawasilakalian ketawasilakalianketawa silakalianketawadukung kalianketawadukungmemang ketawadukungmemangnyata dukungmemangnyatagoblok memangnyatagoblokdungu tahanlemahkalianketawasila lemahkalianketawasilakalian kalianketawasilakalianketawa ketawasilakalianketawadukung silakalianketawadukungmemang kalianketawadukungmemangnyata ketawadukungmemangnyatagoblok dukungmemangnyatagoblokdungu tahanlemahkalianketawasilakalian lemahkalianketawasilakalianketawa kalianketawasilakalianketawadukung ketawasilakalianketawadukungmemang silakalianketawadukungmemangnyata kalianketawadukungmemangnyatagoblok ketawadukungmemangnyatagoblokdungu</t>
+  </si>
+  <si>
+    <t>pak kalian ketawa pak pakkalian kalianketawa ketawapak pakkalianketawa kalianketawapak pakkalianketawapak</t>
+  </si>
+  <si>
+    <t>biar rakyat tentu pilih baik bangsa negara prabowobentengnkri biarrakyat rakyattentu tentupilih pilihbaik baikbangsa bangsanegara negaraprabowobentengnkri biarrakyattentu rakyattentupilih tentupilihbaik pilihbaikbangsa baikbangsanegara bangsanegaraprabowobentengnkri biarrakyattentupilih rakyattentupilihbaik tentupilihbaikbangsa pilihbaikbangsanegara baikbangsanegaraprabowobentengnkri biarrakyattentupilihbaik rakyattentupilihbaikbangsa tentupilihbaikbangsanegara pilihbaikbangsanegaraprabowobentengnkri biarrakyattentupilihbaikbangsa rakyattentupilihbaikbangsanegara tentupilihbaikbangsanegaraprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rap bilang lebih tni banding tni macam hina hadap tni dendam pribadi rapbilang bilanglebih lebihtni tnibanding bandingtni tnimacam macamhina hinahadap hadaptni tnidendam dendampribadi rapbilanglebih bilanglebihtni lebihtnibanding tnibandingtni bandingtnimacam tnimacamhina macamhinahadap hinahadaptni hadaptnidendam tnidendampribadi rapbilanglebihtni bilanglebihtnibanding lebihtnibandingtni tnibandingtnimacam bandingtnimacamhina tnimacamhinahadap macamhinahadaptni hinahadaptnidendam hadaptnidendampribadi rapbilanglebihtnibanding bilanglebihtnibandingtni lebihtnibandingtnimacam tnibandingtnimacamhina bandingtnimacamhinahadap tnimacamhinahadaptni macamhinahadaptnidendam hinahadaptnidendampribadi rapbilanglebihtnibandingtni bilanglebihtnibandingtnimacam lebihtnibandingtnimacamhina tnibandingtnimacamhinahadap bandingtnimacamhinahadaptni tnimacamhinahadaptnidendam macamhinahadaptnidendampribadi</t>
+  </si>
+  <si>
+    <t>orang adalah njenengan sendiri pak sama debatasyikjokowi karnajokowi https t co khmy 7knh85 orangadalah adalahnjenengan njenengansendiri sendiripak paksama samadebatasyikjokowi debatasyikjokowikarnajokowi karnajokowihttps httpst tco cokhmy khmy7knh85 orangadalahnjenengan adalahnjenengansendiri njenengansendiripak sendiripaksama paksamadebatasyikjokowi samadebatasyikjokowikarnajokowi debatasyikjokowikarnajokowihttps karnajokowihttpst httpstco tcokhmy cokhmy7knh85 orangadalahnjenengansendiri adalahnjenengansendiripak njenengansendiripaksama sendiripaksamadebatasyikjokowi paksamadebatasyikjokowikarnajokowi samadebatasyikjokowikarnajokowihttps debatasyikjokowikarnajokowihttpst karnajokowihttpstco httpstcokhmy tcokhmy7knh85 orangadalahnjenengansendiripak adalahnjenengansendiripaksama njenengansendiripaksamadebatasyikjokowi sendiripaksamadebatasyikjokowikarnajokowi paksamadebatasyikjokowikarnajokowihttps samadebatasyikjokowikarnajokowihttpst debatasyikjokowikarnajokowihttpstco karnajokowihttpstcokhmy httpstcokhmy7knh85 orangadalahnjenengansendiripaksama adalahnjenengansendiripaksamadebatasyikjokowi njenengansendiripaksamadebatasyikjokowikarnajokowi sendiripaksamadebatasyikjokowikarnajokowihttps paksamadebatasyikjokowikarnajokowihttpst samadebatasyikjokowikarnajokowihttpstco debatasyikjokowikarnajokowihttpstcokhmy karnajokowihttpstcokhmy7knh85</t>
+  </si>
+  <si>
+    <t>mas janji tingkat rasio pajak jadi gaji pns akan naik tagih janji bapak masjanji janjitingkat tingkatrasio rasiopajak pajakjadi jadigaji gajipns pnsakan akannaik naiktagih tagihjanji janjibapak masjanjitingkat janjitingkatrasio tingkatrasiopajak rasiopajakjadi pajakjadigaji jadigajipns gajipnsakan pnsakannaik akannaiktagih naiktagihjanji tagihjanjibapak masjanjitingkatrasio janjitingkatrasiopajak tingkatrasiopajakjadi rasiopajakjadigaji pajakjadigajipns jadigajipnsakan gajipnsakannaik pnsakannaiktagih akannaiktagihjanji naiktagihjanjibapak masjanjitingkatrasiopajak janjitingkatrasiopajakjadi tingkatrasiopajakjadigaji rasiopajakjadigajipns pajakjadigajipnsakan jadigajipnsakannaik gajipnsakannaiktagih pnsakannaiktagihjanji akannaiktagihjanjibapak masjanjitingkatrasiopajakjadi janjitingkatrasiopajakjadigaji tingkatrasiopajakjadigajipns rasiopajakjadigajipnsakan pajakjadigajipnsakannaik jadigajipnsakannaiktagih gajipnsakannaiktagihjanji pnsakannaiktagihjanjibapak</t>
+  </si>
+  <si>
+    <t>makanya jokowi bedah tuh buku undercover kampus 2019gantipresiden https t co 4udrafliab makanyajokowi jokowibedah bedahtuh tuhbuku bukuundercover undercoverkampus kampus2019gantipresiden 2019gantipresidenhttps httpst tco co4udrafliab makanyajokowibedah jokowibedahtuh bedahtuhbuku tuhbukuundercover bukuundercoverkampus undercoverkampus2019gantipresiden kampus2019gantipresidenhttps 2019gantipresidenhttpst httpstco tco4udrafliab makanyajokowibedahtuh jokowibedahtuhbuku bedahtuhbukuundercover tuhbukuundercoverkampus bukuundercoverkampus2019gantipresiden undercoverkampus2019gantipresidenhttps kampus2019gantipresidenhttpst 2019gantipresidenhttpstco httpstco4udrafliab makanyajokowibedahtuhbuku jokowibedahtuhbukuundercover bedahtuhbukuundercoverkampus tuhbukuundercoverkampus2019gantipresiden bukuundercoverkampus2019gantipresidenhttps undercoverkampus2019gantipresidenhttpst kampus2019gantipresidenhttpstco 2019gantipresidenhttpstco4udrafliab makanyajokowibedahtuhbukuundercover jokowibedahtuhbukuundercoverkampus bedahtuhbukuundercoverkampus2019gantipresiden tuhbukuundercoverkampus2019gantipresidenhttps bukuundercoverkampus2019gantipresidenhttpst undercoverkampus2019gantipresidenhttpstco kampus2019gantipresidenhttpstco4udrafliab</t>
+  </si>
+  <si>
+    <t>kutip benar persen apbn singapura belanja militer https t co 8roepzmp87 kutipbenar benarpersen persenapbn apbnsingapura singapurabelanja belanjamiliter militerhttps httpst tco co8roepzmp87 kutipbenarpersen benarpersenapbn persenapbnsingapura apbnsingapurabelanja singapurabelanjamiliter belanjamiliterhttps militerhttpst httpstco tco8roepzmp87 kutipbenarpersenapbn benarpersenapbnsingapura persenapbnsingapurabelanja apbnsingapurabelanjamiliter singapurabelanjamiliterhttps belanjamiliterhttpst militerhttpstco httpstco8roepzmp87 kutipbenarpersenapbnsingapura benarpersenapbnsingapurabelanja persenapbnsingapurabelanjamiliter apbnsingapurabelanjamiliterhttps singapurabelanjamiliterhttpst belanjamiliterhttpstco militerhttpstco8roepzmp87 kutipbenarpersenapbnsingapurabelanja benarpersenapbnsingapurabelanjamiliter persenapbnsingapurabelanjamiliterhttps apbnsingapurabelanjamiliterhttpst singapurabelanjamiliterhttpstco belanjamiliterhttpstco8roepzmp87</t>
+  </si>
+  <si>
+    <t>bahasa inggris p keren indonesia pandang top dunia quote-nya bobot bahasainggris inggrisp pkeren kerenindonesia indonesiapandang pandangtop topdunia duniaquote-nya quote-nyabobot bahasainggrisp inggrispkeren pkerenindonesia kerenindonesiapandang indonesiapandangtop pandangtopdunia topduniaquote-nya duniaquote-nyabobot bahasainggrispkeren inggrispkerenindonesia pkerenindonesiapandang kerenindonesiapandangtop indonesiapandangtopdunia pandangtopduniaquote-nya topduniaquote-nyabobot bahasainggrispkerenindonesia inggrispkerenindonesiapandang pkerenindonesiapandangtop kerenindonesiapandangtopdunia indonesiapandangtopduniaquote-nya pandangtopduniaquote-nyabobot bahasainggrispkerenindonesiapandang inggrispkerenindonesiapandangtop pkerenindonesiapandangtopdunia kerenindonesiapandangtopduniaquote-nya indonesiapandangtopduniaquote-nyabobot</t>
+  </si>
+  <si>
+    <t>mas puas malam dengan aura tampil pak kan garang tegas berani maspuas puasmalam malamdengan denganaura auratampil tampilpak pakkan kangarang garangtegas tegasberani maspuasmalam puasmalamdengan malamdenganaura denganauratampil auratampilpak tampilpakkan pakkangarang kangarangtegas garangtegasberani maspuasmalamdengan puasmalamdenganaura malamdenganauratampil denganauratampilpak auratampilpakkan tampilpakkangarang pakkangarangtegas kangarangtegasberani maspuasmalamdenganaura puasmalamdenganauratampil malamdenganauratampilpak denganauratampilpakkan auratampilpakkangarang tampilpakkangarangtegas pakkangarangtegasberani maspuasmalamdenganauratampil puasmalamdenganauratampilpak malamdenganauratampilpakkan denganauratampilpakkangarang auratampilpakkangarangtegas tampilpakkangarangtegasberani</t>
+  </si>
+  <si>
+    <t>kembali jaya indonesia kawal bapak tuju istana negara prabowobentengnkri prabowobentengnkri kembalijaya jayaindonesia indonesiakawal kawalbapak bapaktuju tujuistana istananegara negaraprabowobentengnkri prabowobentengnkriprabowobentengnkri kembalijayaindonesia jayaindonesiakawal indonesiakawalbapak kawalbapaktuju bapaktujuistana tujuistananegara istananegaraprabowobentengnkri negaraprabowobentengnkriprabowobentengnkri kembalijayaindonesiakawal jayaindonesiakawalbapak indonesiakawalbapaktuju kawalbapaktujuistana bapaktujuistananegara tujuistananegaraprabowobentengnkri istananegaraprabowobentengnkriprabowobentengnkri kembalijayaindonesiakawalbapak jayaindonesiakawalbapaktuju indonesiakawalbapaktujuistana kawalbapaktujuistananegara bapaktujuistananegaraprabowobentengnkri tujuistananegaraprabowobentengnkriprabowobentengnkri kembalijayaindonesiakawalbapaktuju jayaindonesiakawalbapaktujuistana indonesiakawalbapaktujuistananegara kawalbapaktujuistananegaraprabowobentengnkri bapaktujuistananegaraprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>jawab pak tanggap tahan rapuh yang sipil sangat percaya tni jawabpak paktanggap tanggaptahan tahanrapuh rapuhyang yangsipil sipilsangat sangatpercaya percayatni jawabpaktanggap paktanggaptahan tanggaptahanrapuh tahanrapuhyang rapuhyangsipil yangsipilsangat sipilsangatpercaya sangatpercayatni jawabpaktanggaptahan paktanggaptahanrapuh tanggaptahanrapuhyang tahanrapuhyangsipil rapuhyangsipilsangat yangsipilsangatpercaya sipilsangatpercayatni jawabpaktanggaptahanrapuh paktanggaptahanrapuhyang tanggaptahanrapuhyangsipil tahanrapuhyangsipilsangat rapuhyangsipilsangatpercaya yangsipilsangatpercayatni jawabpaktanggaptahanrapuhyang paktanggaptahanrapuhyangsipil tanggaptahanrapuhyangsipilsangat tahanrapuhyangsipilsangatpercaya rapuhyangsipilsangatpercayatni</t>
+  </si>
+  <si>
+    <t>bismillah pak insaallah allah mudah debat hari semangat sukses pak https t co xer 1pigoxr bismillahpak pakinsaallah insaallahallah allahmudah mudahdebat debathari harisemangat semangatsukses suksespak pakhttps httpst tco coxer xer1pigoxr bismillahpakinsaallah pakinsaallahallah insaallahallahmudah allahmudahdebat mudahdebathari debatharisemangat harisemangatsukses semangatsuksespak suksespakhttps pakhttpst httpstco tcoxer coxer1pigoxr bismillahpakinsaallahallah pakinsaallahallahmudah insaallahallahmudahdebat allahmudahdebathari mudahdebatharisemangat debatharisemangatsukses harisemangatsuksespak semangatsuksespakhttps suksespakhttpst pakhttpstco httpstcoxer tcoxer1pigoxr bismillahpakinsaallahallahmudah pakinsaallahallahmudahdebat insaallahallahmudahdebathari allahmudahdebatharisemangat mudahdebatharisemangatsukses debatharisemangatsuksespak harisemangatsuksespakhttps semangatsuksespakhttpst suksespakhttpstco pakhttpstcoxer httpstcoxer1pigoxr bismillahpakinsaallahallahmudahdebat pakinsaallahallahmudahdebathari insaallahallahmudahdebatharisemangat allahmudahdebatharisemangatsukses mudahdebatharisemangatsuksespak debatharisemangatsuksespakhttps harisemangatsuksespakhttpst semangatsuksespakhttpstco suksespakhttpstcoxer pakhttpstcoxer1pigoxr</t>
+  </si>
+  <si>
+    <t>kata korupsi indonesia ada taraf parah kalau sakit sudah stadium katakorupsi korupsiindonesia indonesiaada adataraf tarafparah parahkalau kalausakit sakitsudah sudahstadium katakorupsiindonesia korupsiindonesiaada indonesiaadataraf adatarafparah tarafparahkalau parahkalausakit kalausakitsudah sakitsudahstadium katakorupsiindonesiaada korupsiindonesiaadataraf indonesiaadatarafparah adatarafparahkalau tarafparahkalausakit parahkalausakitsudah kalausakitsudahstadium katakorupsiindonesiaadataraf korupsiindonesiaadatarafparah indonesiaadatarafparahkalau adatarafparahkalausakit tarafparahkalausakitsudah parahkalausakitsudahstadium katakorupsiindonesiaadatarafparah korupsiindonesiaadatarafparahkalau indonesiaadatarafparahkalausakit adatarafparahkalausakitsudah tarafparahkalausakitsudahstadium</t>
+  </si>
+  <si>
+    <t>telak momen blejekin si doi pak dhe keren debatkeempatpilpres 2019 jokowimengubahsemua 01dila telakmomen momenblejekin blejekinsi sidoi doipak pakdhe dhekeren kerendebatkeempatpilpres debatkeempatpilpres2019 2019jokowimengubahsemua jokowimengubahsemua01dila telakmomenblejekin momenblejekinsi blejekinsidoi sidoipak doipakdhe pakdhekeren dhekerendebatkeempatpilpres kerendebatkeempatpilpres2019 debatkeempatpilpres2019jokowimengubahsemua 2019jokowimengubahsemua01dila telakmomenblejekinsi momenblejekinsidoi blejekinsidoipak sidoipakdhe doipakdhekeren pakdhekerendebatkeempatpilpres dhekerendebatkeempatpilpres2019 kerendebatkeempatpilpres2019jokowimengubahsemua debatkeempatpilpres2019jokowimengubahsemua01dila telakmomenblejekinsidoi momenblejekinsidoipak blejekinsidoipakdhe sidoipakdhekeren doipakdhekerendebatkeempatpilpres pakdhekerendebatkeempatpilpres2019 dhekerendebatkeempatpilpres2019jokowimengubahsemua kerendebatkeempatpilpres2019jokowimengubahsemua01dila telakmomenblejekinsidoipak momenblejekinsidoipakdhe blejekinsidoipakdhekeren sidoipakdhekerendebatkeempatpilpres doipakdhekerendebatkeempatpilpres2019 pakdhekerendebatkeempatpilpres2019jokowimengubahsemua dhekerendebatkeempatpilpres2019jokowimengubahsemua01dila</t>
+  </si>
+  <si>
+    <t>tertawa puas takut marah larang ingat pilih biar bebas tertawa batas tertawapuas puastakut takutmarah marahlarang larangingat ingatpilih pilihbiar biarbebas bebastertawa tertawabatas tertawapuastakut puastakutmarah takutmarahlarang marahlarangingat larangingatpilih ingatpilihbiar pilihbiarbebas biarbebastertawa bebastertawabatas tertawapuastakutmarah puastakutmarahlarang takutmarahlarangingat marahlarangingatpilih larangingatpilihbiar ingatpilihbiarbebas pilihbiarbebastertawa biarbebastertawabatas tertawapuastakutmarahlarang puastakutmarahlarangingat takutmarahlarangingatpilih marahlarangingatpilihbiar larangingatpilihbiarbebas ingatpilihbiarbebastertawa pilihbiarbebastertawabatas tertawapuastakutmarahlarangingat puastakutmarahlarangingatpilih takutmarahlarangingatpilihbiar marahlarangingatpilihbiarbebas larangingatpilihbiarbebastertawa ingatpilihbiarbebastertawabatas</t>
+  </si>
+  <si>
+    <t>nilai besar jumlah duduk muslim jadi salah satu kuat diplomasi indonesia nilaibesar besarjumlah jumlahduduk dudukmuslim muslimjadi jadisalah salahsatu satukuat kuatdiplomasi diplomasiindonesia nilaibesarjumlah besarjumlahduduk jumlahdudukmuslim dudukmuslimjadi muslimjadisalah jadisalahsatu salahsatukuat satukuatdiplomasi kuatdiplomasiindonesia nilaibesarjumlahduduk besarjumlahdudukmuslim jumlahdudukmuslimjadi dudukmuslimjadisalah muslimjadisalahsatu jadisalahsatukuat salahsatukuatdiplomasi satukuatdiplomasiindonesia nilaibesarjumlahdudukmuslim besarjumlahdudukmuslimjadi jumlahdudukmuslimjadisalah dudukmuslimjadisalahsatu muslimjadisalahsatukuat jadisalahsatukuatdiplomasi salahsatukuatdiplomasiindonesia nilaibesarjumlahdudukmuslimjadi besarjumlahdudukmuslimjadisalah jumlahdudukmuslimjadisalahsatu dudukmuslimjadisalahsatukuat muslimjadisalahsatukuatdiplomasi jadisalahsatukuatdiplomasiindonesia</t>
+  </si>
+  <si>
+    <t>pak tekan soal kecil anggar tahan pak paktekan tekansoal soalkecil kecilanggar anggartahan tahanpak paktekansoal tekansoalkecil soalkecilanggar kecilanggartahan anggartahanpak paktekansoalkecil tekansoalkecilanggar soalkecilanggartahan kecilanggartahanpak paktekansoalkecilanggar tekansoalkecilanggartahan soalkecilanggartahanpak paktekansoalkecilanggartahan tekansoalkecilanggartahanpak</t>
+  </si>
+  <si>
+    <t>kalau sederhana bunyi jadi besar pilih tolol https t co 5jtydtkg5c kalausederhana sederhanabunyi bunyijadi jadibesar besarpilih pilihtolol tololhttps httpst tco co5jtydtkg5c kalausederhanabunyi sederhanabunyijadi bunyijadibesar jadibesarpilih besarpilihtolol pilihtololhttps tololhttpst httpstco tco5jtydtkg5c kalausederhanabunyijadi sederhanabunyijadibesar bunyijadibesarpilih jadibesarpilihtolol besarpilihtololhttps pilihtololhttpst tololhttpstco httpstco5jtydtkg5c kalausederhanabunyijadibesar sederhanabunyijadibesarpilih bunyijadibesarpilihtolol jadibesarpilihtololhttps besarpilihtololhttpst pilihtololhttpstco tololhttpstco5jtydtkg5c kalausederhanabunyijadibesarpilih sederhanabunyijadibesarpilihtolol bunyijadibesarpilihtololhttps jadibesarpilihtololhttpst besarpilihtololhttpstco pilihtololhttpstco5jtydtkg5c</t>
+  </si>
+  <si>
+    <t>pak tinggal panggung kepala tegak laksana ayam jago habis menang tarung keren paktinggal tinggalpanggung panggungkepala kepalategak tegaklaksana laksanaayam ayamjago jagohabis habismenang menangtarung tarungkeren paktinggalpanggung tinggalpanggungkepala panggungkepalategak kepalategaklaksana tegaklaksanaayam laksanaayamjago ayamjagohabis jagohabismenang habismenangtarung menangtarungkeren paktinggalpanggungkepala tinggalpanggungkepalategak panggungkepalategaklaksana kepalategaklaksanaayam tegaklaksanaayamjago laksanaayamjagohabis ayamjagohabismenang jagohabismenangtarung habismenangtarungkeren paktinggalpanggungkepalategak tinggalpanggungkepalategaklaksana panggungkepalategaklaksanaayam kepalategaklaksanaayamjago tegaklaksanaayamjagohabis laksanaayamjagohabismenang ayamjagohabismenangtarung jagohabismenangtarungkeren paktinggalpanggungkepalategaklaksana tinggalpanggungkepalategaklaksanaayam panggungkepalategaklaksanaayamjago kepalategaklaksanaayamjagohabis tegaklaksanaayamjagohabismenang laksanaayamjagohabismenangtarung ayamjagohabismenangtarungkeren</t>
+  </si>
+  <si>
+    <t>alhamdulillah sudah tiba hotel shangri-la siap dukung pak debat empat pilpres bismilllah alhamdulillahsudah sudahtiba tibahotel hotelshangri-la shangri-lasiap siapdukung dukungpak pakdebat debatempat empatpilpres pilpresbismilllah alhamdulillahsudahtiba sudahtibahotel tibahotelshangri-la hotelshangri-lasiap shangri-lasiapdukung siapdukungpak dukungpakdebat pakdebatempat debatempatpilpres empatpilpresbismilllah alhamdulillahsudahtibahotel sudahtibahotelshangri-la tibahotelshangri-lasiap hotelshangri-lasiapdukung shangri-lasiapdukungpak siapdukungpakdebat dukungpakdebatempat pakdebatempatpilpres debatempatpilpresbismilllah alhamdulillahsudahtibahotelshangri-la sudahtibahotelshangri-lasiap tibahotelshangri-lasiapdukung hotelshangri-lasiapdukungpak shangri-lasiapdukungpakdebat siapdukungpakdebatempat dukungpakdebatempatpilpres pakdebatempatpilpresbismilllah alhamdulillahsudahtibahotelshangri-lasiap sudahtibahotelshangri-lasiapdukung tibahotelshangri-lasiapdukungpak hotelshangri-lasiapdukungpakdebat shangri-lasiapdukungpakdebatempat siapdukungpakdebatempatpilpres dukungpakdebatempatpilpresbismilllah</t>
+  </si>
+  <si>
+    <t>pak kalau benar pikir bapak soal tahan aman mohon maaf bapak layak ganti pakkalau kalaubenar benarpikir pikirbapak bapaksoal soaltahan tahanaman amanmohon mohonmaaf maafbapak bapaklayak layakganti pakkalaubenar kalaubenarpikir benarpikirbapak pikirbapaksoal bapaksoaltahan soaltahanaman tahanamanmohon amanmohonmaaf mohonmaafbapak maafbapaklayak bapaklayakganti pakkalaubenarpikir kalaubenarpikirbapak benarpikirbapaksoal pikirbapaksoaltahan bapaksoaltahanaman soaltahanamanmohon tahanamanmohonmaaf amanmohonmaafbapak mohonmaafbapaklayak maafbapaklayakganti pakkalaubenarpikirbapak kalaubenarpikirbapaksoal benarpikirbapaksoaltahan pikirbapaksoaltahanaman bapaksoaltahanamanmohon soaltahanamanmohonmaaf tahanamanmohonmaafbapak amanmohonmaafbapaklayak mohonmaafbapaklayakganti pakkalaubenarpikirbapaksoal kalaubenarpikirbapaksoaltahan benarpikirbapaksoaltahanaman pikirbapaksoaltahanamanmohon bapaksoaltahanamanmohonmaaf soaltahanamanmohonmaafbapak tahanamanmohonmaafbapaklayak amanmohonmaafbapaklayakganti</t>
+  </si>
+  <si>
+    <t>debat malam final sedikit ragu kepada orang subianto ideologi pancasila debatmalam malamfinal finalsedikit sedikitragu ragukepada kepadaorang orangsubianto subiantoideologi ideologipancasila debatmalamfinal malamfinalsedikit finalsedikitragu sedikitragukepada ragukepadaorang kepadaorangsubianto orangsubiantoideologi subiantoideologipancasila debatmalamfinalsedikit malamfinalsedikitragu finalsedikitragukepada sedikitragukepadaorang ragukepadaorangsubianto kepadaorangsubiantoideologi orangsubiantoideologipancasila debatmalamfinalsedikitragu malamfinalsedikitragukepada finalsedikitragukepadaorang sedikitragukepadaorangsubianto ragukepadaorangsubiantoideologi kepadaorangsubiantoideologipancasila debatmalamfinalsedikitragukepada malamfinalsedikitragukepadaorang finalsedikitragukepadaorangsubianto sedikitragukepadaorangsubiantoideologi ragukepadaorangsubiantoideologipancasila</t>
+  </si>
+  <si>
+    <t>sila puas bangga jadi negara mediator international sindir banyak hutang silapuas puasbangga banggajadi jadinegara negaramediator mediatorinternational internationalsindir sindirbanyak banyakhutang silapuasbangga puasbanggajadi banggajadinegara jadinegaramediator negaramediatorinternational mediatorinternationalsindir internationalsindirbanyak sindirbanyakhutang silapuasbanggajadi puasbanggajadinegara banggajadinegaramediator jadinegaramediatorinternational negaramediatorinternationalsindir mediatorinternationalsindirbanyak internationalsindirbanyakhutang silapuasbanggajadinegara puasbanggajadinegaramediator banggajadinegaramediatorinternational jadinegaramediatorinternationalsindir negaramediatorinternationalsindirbanyak mediatorinternationalsindirbanyakhutang silapuasbanggajadinegaramediator puasbanggajadinegaramediatorinternational banggajadinegaramediatorinternationalsindir jadinegaramediatorinternationalsindirbanyak negaramediatorinternationalsindirbanyakhutang</t>
+  </si>
+  <si>
+    <t>uno jika unojika menang 1 5 pdb alokasi sektor hankam https t co 8toa5jljcg menang1 15 5pdb pdbalokasi alokasisektor sektorhankam hankamhttps httpst tco co8toa5jljcg menang15 15pdb 5pdbalokasi pdbalokasisektor alokasisektorhankam sektorhankamhttps hankamhttpst httpstco tco8toa5jljcg menang15pdb 15pdbalokasi 5pdbalokasisektor pdbalokasisektorhankam alokasisektorhankamhttps sektorhankamhttpst hankamhttpstco httpstco8toa5jljcg menang15pdbalokasi 15pdbalokasisektor 5pdbalokasisektorhankam pdbalokasisektorhankamhttps alokasisektorhankamhttpst sektorhankamhttpstco hankamhttpstco8toa5jljcg menang15pdbalokasisektor 15pdbalokasisektorhankam 5pdbalokasisektorhankamhttps pdbalokasisektorhankamhttpst alokasisektorhankamhttpstco sektorhankamhttpstco8toa5jljcg</t>
+  </si>
+  <si>
+    <t>kayak kalau jadi presiden baru tahun udah perang deh dilikirin perang mulu kayakkalau kalaujadi jadipresiden presidenbaru barutahun tahunudah udahperang perangdeh dehdilikirin dilikirinperang perangmulu kayakkalaujadi kalaujadipresiden jadipresidenbaru presidenbarutahun barutahunudah tahunudahperang udahperangdeh perangdehdilikirin dehdilikirinperang dilikirinperangmulu kayakkalaujadipresiden kalaujadipresidenbaru jadipresidenbarutahun presidenbarutahunudah barutahunudahperang tahunudahperangdeh udahperangdehdilikirin perangdehdilikirinperang dehdilikirinperangmulu kayakkalaujadipresidenbaru kalaujadipresidenbarutahun jadipresidenbarutahunudah presidenbarutahunudahperang barutahunudahperangdeh tahunudahperangdehdilikirin udahperangdehdilikirinperang perangdehdilikirinperangmulu kayakkalaujadipresidenbarutahun kalaujadipresidenbarutahunudah jadipresidenbarutahunudahperang presidenbarutahunudahperangdeh barutahunudahperangdehdilikirin tahunudahperangdehdilikirinperang udahperangdehdilikirinperangmulu</t>
+  </si>
+  <si>
+    <t>good bye pak sandi beres semua laku scaling makmur goodbye byepak paksandi sandiberes beressemua semualaku lakuscaling scalingmakmur goodbyepak byepaksandi paksandiberes sandiberessemua beressemualaku semualakuscaling lakuscalingmakmur goodbyepaksandi byepaksandiberes paksandiberessemua sandiberessemualaku beressemualakuscaling semualakuscalingmakmur goodbyepaksandiberes byepaksandiberessemua paksandiberessemualaku sandiberessemualakuscaling beressemualakuscalingmakmur goodbyepaksandiberessemua byepaksandiberessemualaku paksandiberessemualakuscaling sandiberessemualakuscalingmakmur</t>
+  </si>
+  <si>
+    <t>pak kata nasionalis tinggi pak usah swis indonesia lebih tahun masa saham di nasional pakkata katanasionalis nasionalistinggi tinggipak pakusah usahswis swisindonesia indonesialebih lebihtahun tahunmasa masasaham sahamdi dinasional pakkatanasionalis katanasionalistinggi nasionalistinggipak tinggipakusah pakusahswis usahswisindonesia swisindonesialebih indonesialebihtahun lebihtahunmasa tahunmasasaham masasahamdi sahamdinasional pakkatanasionalistinggi katanasionalistinggipak nasionalistinggipakusah tinggipakusahswis pakusahswisindonesia usahswisindonesialebih swisindonesialebihtahun indonesialebihtahunmasa lebihtahunmasasaham tahunmasasahamdi masasahamdinasional pakkatanasionalistinggipak katanasionalistinggipakusah nasionalistinggipakusahswis tinggipakusahswisindonesia pakusahswisindonesialebih usahswisindonesialebihtahun swisindonesialebihtahunmasa indonesialebihtahunmasasaham lebihtahunmasasahamdi tahunmasasahamdinasional pakkatanasionalistinggipakusah katanasionalistinggipakusahswis nasionalistinggipakusahswisindonesia tinggipakusahswisindonesialebih pakusahswisindonesialebihtahun usahswisindonesialebihtahunmasa swisindonesialebihtahunmasasaham indonesialebihtahunmasasahamdi lebihtahunmasasahamdinasional</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co phy 5t8pclm perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco cophy phy5t8pclm perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcophy cophy5t8pclm perintahyngsigaplayan yngsigaplayanrakyat sigaplayanrakyatbagus layanrakyatbaguspak rakyatbaguspakpemerintahandilan baguspakpemerintahandilanhttps pakpemerintahandilanhttpst pemerintahandilanhttpstco httpstcophy tcophy5t8pclm perintahyngsigaplayanrakyat yngsigaplayanrakyatbagus sigaplayanrakyatbaguspak layanrakyatbaguspakpemerintahandilan rakyatbaguspakpemerintahandilanhttps baguspakpemerintahandilanhttpst pakpemerintahandilanhttpstco pemerintahandilanhttpstcophy httpstcophy5t8pclm perintahyngsigaplayanrakyatbagus yngsigaplayanrakyatbaguspak sigaplayanrakyatbaguspakpemerintahandilan layanrakyatbaguspakpemerintahandilanhttps rakyatbaguspakpemerintahandilanhttpst baguspakpemerintahandilanhttpstco pakpemerintahandilanhttpstcophy pemerintahandilanhttpstcophy5t8pclm</t>
+  </si>
+  <si>
+    <t>bukan apa dari sudut kota kecil jogjakarta punya semangat menang prabowo-sandi bukanapa apadari darisudut sudutkota kotakecil keciljogjakarta jogjakartapunya punyasemangat semangatmenang menangprabowo-sandi bukanapadari apadarisudut darisudutkota sudutkotakecil kotakeciljogjakarta keciljogjakartapunya jogjakartapunyasemangat punyasemangatmenang semangatmenangprabowo-sandi bukanapadarisudut apadarisudutkota darisudutkotakecil sudutkotakeciljogjakarta kotakeciljogjakartapunya keciljogjakartapunyasemangat jogjakartapunyasemangatmenang punyasemangatmenangprabowo-sandi bukanapadarisudutkota apadarisudutkotakecil darisudutkotakeciljogjakarta sudutkotakeciljogjakartapunya kotakeciljogjakartapunyasemangat keciljogjakartapunyasemangatmenang jogjakartapunyasemangatmenangprabowo-sandi bukanapadarisudutkotakecil apadarisudutkotakeciljogjakarta darisudutkotakeciljogjakartapunya sudutkotakeciljogjakartapunyasemangat kotakeciljogjakartapunyasemangatmenang keciljogjakartapunyasemangatmenangprabowo-sandi</t>
+  </si>
+  <si>
+    <t>pemerintahandilan perintah percaya tni mantap jokowilagi https t co ws2xjlvdz9 pemerintahandilanperintah perintahpercaya percayatni tnimantap mantapjokowilagi jokowilagihttps httpst tco cows2xjlvdz9 pemerintahandilanperintahpercaya perintahpercayatni percayatnimantap tnimantapjokowilagi mantapjokowilagihttps jokowilagihttpst httpstco tcows2xjlvdz9 pemerintahandilanperintahpercayatni perintahpercayatnimantap percayatnimantapjokowilagi tnimantapjokowilagihttps mantapjokowilagihttpst jokowilagihttpstco httpstcows2xjlvdz9 pemerintahandilanperintahpercayatnimantap perintahpercayatnimantapjokowilagi percayatnimantapjokowilagihttps tnimantapjokowilagihttpst mantapjokowilagihttpstco jokowilagihttpstcows2xjlvdz9 pemerintahandilanperintahpercayatnimantapjokowilagi perintahpercayatnimantapjokowilagihttps percayatnimantapjokowilagihttpst tnimantapjokowilagihttpstco mantapjokowilagihttpstcows2xjlvdz9</t>
+  </si>
+  <si>
+    <t>sejak dukung tahun tetap dukung menang ya tetap ngamen ada imbal proyek sejakdukung dukungtahun tahuntetap tetapdukung dukungmenang menangya yatetap tetapngamen ngamenada adaimbal imbalproyek sejakdukungtahun dukungtahuntetap tahuntetapdukung tetapdukungmenang dukungmenangya menangyatetap yatetapngamen tetapngamenada ngamenadaimbal adaimbalproyek sejakdukungtahuntetap dukungtahuntetapdukung tahuntetapdukungmenang tetapdukungmenangya dukungmenangyatetap menangyatetapngamen yatetapngamenada tetapngamenadaimbal ngamenadaimbalproyek sejakdukungtahuntetapdukung dukungtahuntetapdukungmenang tahuntetapdukungmenangya tetapdukungmenangyatetap dukungmenangyatetapngamen menangyatetapngamenada yatetapngamenadaimbal tetapngamenadaimbalproyek sejakdukungtahuntetapdukungmenang dukungtahuntetapdukungmenangya tahuntetapdukungmenangyatetap tetapdukungmenangyatetapngamen dukungmenangyatetapngamenada menangyatetapngamenadaimbal yatetapngamenadaimbalproyek</t>
+  </si>
+  <si>
+    <t>mantap makin yakin indonesia menang kami pancasila ideologi final kami tekad mempertahankanya mantapmakin makinyakin yakinindonesia indonesiamenang menangkami kamipancasila pancasilaideologi ideologifinal finalkami kamitekad tekadmempertahankanya mantapmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangkami menangkamipancasila kamipancasilaideologi pancasilaideologifinal ideologifinalkami finalkamitekad kamitekadmempertahankanya mantapmakinyakinindonesia makinyakinindonesiamenang yakinindonesiamenangkami indonesiamenangkamipancasila menangkamipancasilaideologi kamipancasilaideologifinal pancasilaideologifinalkami ideologifinalkamitekad finalkamitekadmempertahankanya mantapmakinyakinindonesiamenang makinyakinindonesiamenangkami yakinindonesiamenangkamipancasila indonesiamenangkamipancasilaideologi menangkamipancasilaideologifinal kamipancasilaideologifinalkami pancasilaideologifinalkamitekad ideologifinalkamitekadmempertahankanya mantapmakinyakinindonesiamenangkami makinyakinindonesiamenangkamipancasila yakinindonesiamenangkamipancasilaideologi indonesiamenangkamipancasilaideologifinal menangkamipancasilaideologifinalkami kamipancasilaideologifinalkamitekad pancasilaideologifinalkamitekadmempertahankanya</t>
+  </si>
+  <si>
+    <t>jiwa sangat nasionalis you pak debat malam sungguh sangat luar biasa prabowobentengnkri jiwasangat sangatnasionalis nasionalisyou youpak pakdebat debatmalam malamsungguh sungguhsangat sangatluar luarbiasa biasaprabowobentengnkri jiwasangatnasionalis sangatnasionalisyou nasionalisyoupak youpakdebat pakdebatmalam debatmalamsungguh malamsungguhsangat sungguhsangatluar sangatluarbiasa luarbiasaprabowobentengnkri jiwasangatnasionalisyou sangatnasionalisyoupak nasionalisyoupakdebat youpakdebatmalam pakdebatmalamsungguh debatmalamsungguhsangat malamsungguhsangatluar sungguhsangatluarbiasa sangatluarbiasaprabowobentengnkri jiwasangatnasionalisyoupak sangatnasionalisyoupakdebat nasionalisyoupakdebatmalam youpakdebatmalamsungguh pakdebatmalamsungguhsangat debatmalamsungguhsangatluar malamsungguhsangatluarbiasa sungguhsangatluarbiasaprabowobentengnkri jiwasangatnasionalisyoupakdebat sangatnasionalisyoupakdebatmalam nasionalisyoupakdebatmalamsungguh youpakdebatmalamsungguhsangat pakdebatmalamsungguhsangatluar debatmalamsungguhsangatluarbiasa malamsungguhsangatluarbiasaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>ngajak maju ngajak perang jadi clear gaes siapa harus pilih pemerintahandilan ngajakmaju majungajak ngajakperang perangjadi jadiclear cleargaes gaessiapa siapaharus haruspilih pilihpemerintahandilan ngajakmajungajak majungajakperang ngajakperangjadi perangjadiclear jadicleargaes cleargaessiapa gaessiapaharus siapaharuspilih haruspilihpemerintahandilan ngajakmajungajakperang majungajakperangjadi ngajakperangjadiclear perangjadicleargaes jadicleargaessiapa cleargaessiapaharus gaessiapaharuspilih siapaharuspilihpemerintahandilan ngajakmajungajakperangjadi majungajakperangjadiclear ngajakperangjadicleargaes perangjadicleargaessiapa jadicleargaessiapaharus cleargaessiapaharuspilih gaessiapaharuspilihpemerintahandilan ngajakmajungajakperangjadiclear majungajakperangjadicleargaes ngajakperangjadicleargaessiapa perangjadicleargaessiapaharus jadicleargaessiapaharuspilih cleargaessiapaharuspilihpemerintahandilan</t>
+  </si>
+  <si>
+    <t>sila kalian ketawa kaya bilang bocor lalu sekarang soal tahan kalian ketawa silakalian kalianketawa ketawakaya kayabilang bilangbocor bocorlalu lalusekarang sekarangsoal soaltahan tahankalian kalianketawa silakalianketawa kalianketawakaya ketawakayabilang kayabilangbocor bilangbocorlalu bocorlalusekarang lalusekarangsoal sekarangsoaltahan soaltahankalian tahankalianketawa silakalianketawakaya kalianketawakayabilang ketawakayabilangbocor kayabilangbocorlalu bilangbocorlalusekarang bocorlalusekarangsoal lalusekarangsoaltahan sekarangsoaltahankalian soaltahankalianketawa silakalianketawakayabilang kalianketawakayabilangbocor ketawakayabilangbocorlalu kayabilangbocorlalusekarang bilangbocorlalusekarangsoal bocorlalusekarangsoaltahan lalusekarangsoaltahankalian sekarangsoaltahankalianketawa silakalianketawakayabilangbocor kalianketawakayabilangbocorlalu ketawakayabilangbocorlalusekarang kayabilangbocorlalusekarangsoal bilangbocorlalusekarangsoaltahan bocorlalusekarangsoaltahankalian lalusekarangsoaltahankalianketawa</t>
+  </si>
+  <si>
+    <t>calon presiden nilai unggul debat calon presiden klaim kuasa soal kait tema debat calonpresiden presidennilai nilaiunggul ungguldebat debatcalon calonpresiden presidenklaim klaimkuasa kuasasoal soalkait kaittema temadebat calonpresidennilai presidennilaiunggul nilaiungguldebat ungguldebatcalon debatcalonpresiden calonpresidenklaim presidenklaimkuasa klaimkuasasoal kuasasoalkait soalkaittema kaittemadebat calonpresidennilaiunggul presidennilaiungguldebat nilaiungguldebatcalon ungguldebatcalonpresiden debatcalonpresidenklaim calonpresidenklaimkuasa presidenklaimkuasasoal klaimkuasasoalkait kuasasoalkaittema soalkaittemadebat calonpresidennilaiungguldebat presidennilaiungguldebatcalon nilaiungguldebatcalonpresiden ungguldebatcalonpresidenklaim debatcalonpresidenklaimkuasa calonpresidenklaimkuasasoal presidenklaimkuasasoalkait klaimkuasasoalkaittema kuasasoalkaittemadebat calonpresidennilaiungguldebatcalon presidennilaiungguldebatcalonpresiden nilaiungguldebatcalonpresidenklaim ungguldebatcalonpresidenklaimkuasa debatcalonpresidenklaimkuasasoal calonpresidenklaimkuasasoalkait presidenklaimkuasasoalkaittema klaimkuasasoalkaittemadebat</t>
+  </si>
+  <si>
+    <t>https t co mmjebjk 6md pemerintahandilan calon wakil presiden ma ruf amin kata tampil sesuai harap httpst tco commjebjk mmjebjk6md 6mdpemerintahandilan pemerintahandilancalon calonwakil wakilpresiden presidenma maruf rufamin aminkata katatampil tampilsesuai sesuaiharap httpstco tcommjebjk commjebjk6md mmjebjk6mdpemerintahandilan 6mdpemerintahandilancalon pemerintahandilancalonwakil calonwakilpresiden wakilpresidenma presidenmaruf marufamin rufaminkata aminkatatampil katatampilsesuai tampilsesuaiharap httpstcommjebjk tcommjebjk6md commjebjk6mdpemerintahandilan mmjebjk6mdpemerintahandilancalon 6mdpemerintahandilancalonwakil pemerintahandilancalonwakilpresiden calonwakilpresidenma wakilpresidenmaruf presidenmarufamin marufaminkata rufaminkatatampil aminkatatampilsesuai katatampilsesuaiharap httpstcommjebjk6md tcommjebjk6mdpemerintahandilan commjebjk6mdpemerintahandilancalon mmjebjk6mdpemerintahandilancalonwakil 6mdpemerintahandilancalonwakilpresiden pemerintahandilancalonwakilpresidenma calonwakilpresidenmaruf wakilpresidenmarufamin presidenmarufaminkata marufaminkatatampil rufaminkatatampilsesuai aminkatatampilsesuaiharap httpstcommjebjk6mdpemerintahandilan tcommjebjk6mdpemerintahandilancalon commjebjk6mdpemerintahandilancalonwakil mmjebjk6mdpemerintahandilancalonwakilpresiden 6mdpemerintahandilancalonwakilpresidenma pemerintahandilancalonwakilpresidenmaruf calonwakilpresidenmarufamin wakilpresidenmarufaminkata presidenmarufaminkatatampil marufaminkatatampilsesuai rufaminkatatampilsesuaiharap</t>
+  </si>
+  <si>
+    <t>deklarasi rawan nasution saudara deklarasi mutk dukung pasang prabowo-sandi pilpres alhamdulillah deklarasirawan rawannasution nasutionsaudara saudaradeklarasi deklarasimutk mutkdukung dukungpasang pasangprabowo-sandi prabowo-sandipilpres pilpresalhamdulillah deklarasirawannasution rawannasutionsaudara nasutionsaudaradeklarasi saudaradeklarasimutk deklarasimutkdukung mutkdukungpasang dukungpasangprabowo-sandi pasangprabowo-sandipilpres prabowo-sandipilpresalhamdulillah deklarasirawannasutionsaudara rawannasutionsaudaradeklarasi nasutionsaudaradeklarasimutk saudaradeklarasimutkdukung deklarasimutkdukungpasang mutkdukungpasangprabowo-sandi dukungpasangprabowo-sandipilpres pasangprabowo-sandipilpresalhamdulillah deklarasirawannasutionsaudaradeklarasi rawannasutionsaudaradeklarasimutk nasutionsaudaradeklarasimutkdukung saudaradeklarasimutkdukungpasang deklarasimutkdukungpasangprabowo-sandi mutkdukungpasangprabowo-sandipilpres dukungpasangprabowo-sandipilpresalhamdulillah deklarasirawannasutionsaudaradeklarasimutk rawannasutionsaudaradeklarasimutkdukung nasutionsaudaradeklarasimutkdukungpasang saudaradeklarasimutkdukungpasangprabowo-sandi deklarasimutkdukungpasangprabowo-sandipilpres mutkdukungpasangprabowo-sandipilpresalhamdulillah</t>
+  </si>
+  <si>
+    <t>manusia ada kubu tuh selalu akal sehat manusiaada adakubu kubutuh tuhselalu selaluakal akalsehat manusiaadakubu adakubutuh kubutuhselalu tuhselaluakal selaluakalsehat manusiaadakubutuh adakubutuhselalu kubutuhselaluakal tuhselaluakalsehat manusiaadakubutuhselalu adakubutuhselaluakal kubutuhselaluakalsehat manusiaadakubutuhselaluakal adakubutuhselaluakalsehat</t>
+  </si>
+  <si>
+    <t>sekali rendah tni bilang lebih tni tni cukk apa maksud sekalirendah rendahtni tnibilang bilanglebih lebihtni tnitni tnicukk cukkapa apamaksud sekalirendahtni rendahtnibilang tnibilanglebih bilanglebihtni lebihtnitni tnitnicukk tnicukkapa cukkapamaksud sekalirendahtnibilang rendahtnibilanglebih tnibilanglebihtni bilanglebihtnitni lebihtnitnicukk tnitnicukkapa tnicukkapamaksud sekalirendahtnibilanglebih rendahtnibilanglebihtni tnibilanglebihtnitni bilanglebihtnitnicukk lebihtnitnicukkapa tnitnicukkapamaksud sekalirendahtnibilanglebihtni rendahtnibilanglebihtnitni tnibilanglebihtnitnicukk bilanglebihtnitnicukkapa lebihtnitnicukkapamaksud</t>
+  </si>
+  <si>
+    <t>prabowo sandi nyerang bang beliau bicara jujur otentik pk poles apa bisa prabowosandi sandinyerang nyerangbang bangbeliau beliaubicara bicarajujur jujurotentik otentikpk pkpoles polesapa apabisa prabowosandinyerang sandinyerangbang nyerangbangbeliau bangbeliaubicara beliaubicarajujur bicarajujurotentik jujurotentikpk otentikpkpoles pkpolesapa polesapabisa prabowosandinyerangbang sandinyerangbangbeliau nyerangbangbeliaubicara bangbeliaubicarajujur beliaubicarajujurotentik bicarajujurotentikpk jujurotentikpkpoles otentikpkpolesapa pkpolesapabisa prabowosandinyerangbangbeliau sandinyerangbangbeliaubicara nyerangbangbeliaubicarajujur bangbeliaubicarajujurotentik beliaubicarajujurotentikpk bicarajujurotentikpkpoles jujurotentikpkpolesapa otentikpkpolesapabisa prabowosandinyerangbangbeliaubicara sandinyerangbangbeliaubicarajujur nyerangbangbeliaubicarajujurotentik bangbeliaubicarajujurotentikpk beliaubicarajujurotentikpkpoles bicarajujurotentikpkpolesapa jujurotentikpkpolesapabisa</t>
+  </si>
+  <si>
+    <t>pak korupsi turun sistem baik bagus pak pemerintahandilan pakkorupsi korupsiturun turunsistem sistembaik baikbagus baguspak pakpemerintahandilan pakkorupsiturun korupsiturunsistem turunsistembaik sistembaikbagus baikbaguspak baguspakpemerintahandilan pakkorupsiturunsistem korupsiturunsistembaik turunsistembaikbagus sistembaikbaguspak baikbaguspakpemerintahandilan pakkorupsiturunsistembaik korupsiturunsistembaikbagus turunsistembaikbaguspak sistembaikbaguspakpemerintahandilan pakkorupsiturunsistembaikbagus korupsiturunsistembaikbaguspak turunsistembaikbaguspakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>buzzer bayar siap ikut polling nih rakyat mau lawan lihat siapa menang prabowo buzzerbayar bayarsiap siapikut ikutpolling pollingnih nihrakyat rakyatmau maulawan lawanlihat lihatsiapa siapamenang menangprabowo buzzerbayarsiap bayarsiapikut siapikutpolling ikutpollingnih pollingnihrakyat nihrakyatmau rakyatmaulawan maulawanlihat lawanlihatsiapa lihatsiapamenang siapamenangprabowo buzzerbayarsiapikut bayarsiapikutpolling siapikutpollingnih ikutpollingnihrakyat pollingnihrakyatmau nihrakyatmaulawan rakyatmaulawanlihat maulawanlihatsiapa lawanlihatsiapamenang lihatsiapamenangprabowo buzzerbayarsiapikutpolling bayarsiapikutpollingnih siapikutpollingnihrakyat ikutpollingnihrakyatmau pollingnihrakyatmaulawan nihrakyatmaulawanlihat rakyatmaulawanlihatsiapa maulawanlihatsiapamenang lawanlihatsiapamenangprabowo buzzerbayarsiapikutpollingnih bayarsiapikutpollingnihrakyat siapikutpollingnihrakyatmau ikutpollingnihrakyatmaulawan pollingnihrakyatmaulawanlihat nihrakyatmaulawanlihatsiapa rakyatmaulawanlihatsiapamenang maulawanlihatsiapamenangprabowo</t>
+  </si>
+  <si>
+    <t>rada ijid ningali bobotoh deklarasi dukung paslon rek deklarasi milih radaijid ijidningali ningalibobotoh bobotohdeklarasi deklarasidukung dukungpaslon paslonrek rekdeklarasi deklarasimilih radaijidningali ijidningalibobotoh ningalibobotohdeklarasi bobotohdeklarasidukung deklarasidukungpaslon dukungpaslonrek paslonrekdeklarasi rekdeklarasimilih radaijidningalibobotoh ijidningalibobotohdeklarasi ningalibobotohdeklarasidukung bobotohdeklarasidukungpaslon deklarasidukungpaslonrek dukungpaslonrekdeklarasi paslonrekdeklarasimilih radaijidningalibobotohdeklarasi ijidningalibobotohdeklarasidukung ningalibobotohdeklarasidukungpaslon bobotohdeklarasidukungpaslonrek deklarasidukungpaslonrekdeklarasi dukungpaslonrekdeklarasimilih radaijidningalibobotohdeklarasidukung ijidningalibobotohdeklarasidukungpaslon ningalibobotohdeklarasidukungpaslonrek bobotohdeklarasidukungpaslonrekdeklarasi deklarasidukungpaslonrekdeklarasimilih</t>
+  </si>
+  <si>
+    <t>ujung debat calon presiden pak hasil jinak emosi satu kalimat santun sahabat tidak pernah putus ujungdebat debatcalon calonpresiden presidenpak pakhasil hasiljinak jinakemosi emosisatu satukalimat kalimatsantun santunsahabat sahabattidak tidakpernah pernahputus ujungdebatcalon debatcalonpresiden calonpresidenpak presidenpakhasil pakhasiljinak hasiljinakemosi jinakemosisatu emosisatukalimat satukalimatsantun kalimatsantunsahabat santunsahabattidak sahabattidakpernah tidakpernahputus ujungdebatcalonpresiden debatcalonpresidenpak calonpresidenpakhasil presidenpakhasiljinak pakhasiljinakemosi hasiljinakemosisatu jinakemosisatukalimat emosisatukalimatsantun satukalimatsantunsahabat kalimatsantunsahabattidak santunsahabattidakpernah sahabattidakpernahputus ujungdebatcalonpresidenpak debatcalonpresidenpakhasil calonpresidenpakhasiljinak presidenpakhasiljinakemosi pakhasiljinakemosisatu hasiljinakemosisatukalimat jinakemosisatukalimatsantun emosisatukalimatsantunsahabat satukalimatsantunsahabattidak kalimatsantunsahabattidakpernah santunsahabattidakpernahputus ujungdebatcalonpresidenpakhasil debatcalonpresidenpakhasiljinak calonpresidenpakhasiljinakemosi presidenpakhasiljinakemosisatu pakhasiljinakemosisatukalimat hasiljinakemosisatukalimatsantun jinakemosisatukalimatsantunsahabat emosisatukalimatsantunsahabattidak satukalimatsantunsahabattidakpernah kalimatsantunsahabattidakpernahputus</t>
+  </si>
+  <si>
+    <t>kuis pilpres calon presiden mana suka joged telanjang dada muka umum https t co jn0ui9jd3s c7 - kuispilpres pilprescalon calonpresiden presidenmana manasuka sukajoged jogedtelanjang telanjangdada dadamuka mukaumum umumhttps httpst tco cojn0ui9jd3s jn0ui9jd3sc7 c7- kuispilprescalon pilprescalonpresiden calonpresidenmana presidenmanasuka manasukajoged sukajogedtelanjang jogedtelanjangdada telanjangdadamuka dadamukaumum mukaumumhttps umumhttpst httpstco tcojn0ui9jd3s cojn0ui9jd3sc7 jn0ui9jd3sc7- kuispilprescalonpresiden pilprescalonpresidenmana calonpresidenmanasuka presidenmanasukajoged manasukajogedtelanjang sukajogedtelanjangdada jogedtelanjangdadamuka telanjangdadamukaumum dadamukaumumhttps mukaumumhttpst umumhttpstco httpstcojn0ui9jd3s tcojn0ui9jd3sc7 cojn0ui9jd3sc7- kuispilprescalonpresidenmana pilprescalonpresidenmanasuka calonpresidenmanasukajoged presidenmanasukajogedtelanjang manasukajogedtelanjangdada sukajogedtelanjangdadamuka jogedtelanjangdadamukaumum telanjangdadamukaumumhttps dadamukaumumhttpst mukaumumhttpstco umumhttpstcojn0ui9jd3s httpstcojn0ui9jd3sc7 tcojn0ui9jd3sc7- kuispilprescalonpresidenmanasuka pilprescalonpresidenmanasukajoged calonpresidenmanasukajogedtelanjang presidenmanasukajogedtelanjangdada manasukajogedtelanjangdadamuka sukajogedtelanjangdadamukaumum jogedtelanjangdadamukaumumhttps telanjangdadamukaumumhttpst dadamukaumumhttpstco mukaumumhttpstcojn0ui9jd3s umumhttpstcojn0ui9jd3sc7 httpstcojn0ui9jd3sc7-</t>
+  </si>
+  <si>
+    <t>visi misi kok kayak orang surup promosi kok marah visimisi misikok kokkayak kayakorang orangsurup suruppromosi promosikok kokmarah visimisikok misikokkayak kokkayakorang kayakorangsurup orangsuruppromosi suruppromosikok promosikokmarah visimisikokkayak misikokkayakorang kokkayakorangsurup kayakorangsuruppromosi orangsuruppromosikok suruppromosikokmarah visimisikokkayakorang misikokkayakorangsurup kokkayakorangsuruppromosi kayakorangsuruppromosikok orangsuruppromosikokmarah visimisikokkayakorangsurup misikokkayakorangsuruppromosi kokkayakorangsuruppromosikok kayakorangsuruppromosikokmarah</t>
+  </si>
+  <si>
+    <t>ni adek bagi kelompok radikal mau ganti pancasila wajah jangan udah rem dukung sandi niadek adekbagi bagikelompok kelompokradikal radikalmau mauganti gantipancasila pancasilawajah wajahjangan janganudah udahrem remdukung dukungsandi niadekbagi adekbagikelompok bagikelompokradikal kelompokradikalmau radikalmauganti maugantipancasila gantipancasilawajah pancasilawajahjangan wajahjanganudah janganudahrem udahremdukung remdukungsandi niadekbagikelompok adekbagikelompokradikal bagikelompokradikalmau kelompokradikalmauganti radikalmaugantipancasila maugantipancasilawajah gantipancasilawajahjangan pancasilawajahjanganudah wajahjanganudahrem janganudahremdukung udahremdukungsandi niadekbagikelompokradikal adekbagikelompokradikalmau bagikelompokradikalmauganti kelompokradikalmaugantipancasila radikalmaugantipancasilawajah maugantipancasilawajahjangan gantipancasilawajahjanganudah pancasilawajahjanganudahrem wajahjanganudahremdukung janganudahremdukungsandi niadekbagikelompokradikalmau adekbagikelompokradikalmauganti bagikelompokradikalmaugantipancasila kelompokradikalmaugantipancasilawajah radikalmaugantipancasilawajahjangan maugantipancasilawajahjanganudah gantipancasilawajahjanganudahrem pancasilawajahjanganudahremdukung wajahjanganudahremdukungsandi</t>
+  </si>
+  <si>
+    <t>imho pak lebih baik tak dalam debat kali imhopak paklebih lebihbaik baiktak takdalam dalamdebat debatkali imhopaklebih paklebihbaik lebihbaiktak baiktakdalam takdalamdebat dalamdebatkali imhopaklebihbaik paklebihbaiktak lebihbaiktakdalam baiktakdalamdebat takdalamdebatkali imhopaklebihbaiktak paklebihbaiktakdalam lebihbaiktakdalamdebat baiktakdalamdebatkali imhopaklebihbaiktakdalam paklebihbaiktakdalamdebat lebihbaiktakdalamdebatkali</t>
+  </si>
+  <si>
+    <t>malam bungkam juga dukung tidak ada ria sorak gembira malambungkam bungkamjuga jugadukung dukungtidak tidakada adaria riasorak sorakgembira malambungkamjuga bungkamjugadukung jugadukungtidak dukungtidakada tidakadaria adariasorak riasorakgembira malambungkamjugadukung bungkamjugadukungtidak jugadukungtidakada dukungtidakadaria tidakadariasorak adariasorakgembira malambungkamjugadukungtidak bungkamjugadukungtidakada jugadukungtidakadaria dukungtidakadariasorak tidakadariasorakgembira malambungkamjugadukungtidakada bungkamjugadukungtidakadaria jugadukungtidakadariasorak dukungtidakadariasorakgembira</t>
+  </si>
+  <si>
+    <t>tahan aman indonesia harga mati jenderal kalau dunia internasional lihat balik tahanaman amanindonesia indonesiaharga hargamati matijenderal jenderalkalau kalaudunia duniainternasional internasionallihat lihatbalik tahanamanindonesia amanindonesiaharga indonesiahargamati hargamatijenderal matijenderalkalau jenderalkalaudunia kalauduniainternasional duniainternasionallihat internasionallihatbalik tahanamanindonesiaharga amanindonesiahargamati indonesiahargamatijenderal hargamatijenderalkalau matijenderalkalaudunia jenderalkalauduniainternasional kalauduniainternasionallihat duniainternasionallihatbalik tahanamanindonesiahargamati amanindonesiahargamatijenderal indonesiahargamatijenderalkalau hargamatijenderalkalaudunia matijenderalkalauduniainternasional jenderalkalauduniainternasionallihat kalauduniainternasionallihatbalik tahanamanindonesiahargamatijenderal amanindonesiahargamatijenderalkalau indonesiahargamatijenderalkalaudunia hargamatijenderalkalauduniainternasional matijenderalkalauduniainternasionallihat jenderalkalauduniainternasionallihatbalik</t>
+  </si>
+  <si>
+    <t>tuh bingung jadi pak prabowo masak balik jadul makin yakin kalau pak jangan 01indonesiamaju tuhbingung bingungjadi jadipak pakprabowo prabowomasak masakbalik balikjadul jadulmakin makinyakin yakinkalau kalaupak pakjangan jangan01indonesiamaju tuhbingungjadi bingungjadipak jadipakprabowo pakprabowomasak prabowomasakbalik masakbalikjadul balikjadulmakin jadulmakinyakin makinyakinkalau yakinkalaupak kalaupakjangan pakjangan01indonesiamaju tuhbingungjadipak bingungjadipakprabowo jadipakprabowomasak pakprabowomasakbalik prabowomasakbalikjadul masakbalikjadulmakin balikjadulmakinyakin jadulmakinyakinkalau makinyakinkalaupak yakinkalaupakjangan kalaupakjangan01indonesiamaju tuhbingungjadipakprabowo bingungjadipakprabowomasak jadipakprabowomasakbalik pakprabowomasakbalikjadul prabowomasakbalikjadulmakin masakbalikjadulmakinyakin balikjadulmakinyakinkalau jadulmakinyakinkalaupak makinyakinkalaupakjangan yakinkalaupakjangan01indonesiamaju tuhbingungjadipakprabowomasak bingungjadipakprabowomasakbalik jadipakprabowomasakbalikjadul pakprabowomasakbalikjadulmakin prabowomasakbalikjadulmakinyakin masakbalikjadulmakinyakinkalau balikjadulmakinyakinkalaupak jadulmakinyakinkalaupakjangan makinyakinkalaupakjangan01indonesiamaju</t>
+  </si>
+  <si>
+    <t>serentak kompak naik jokowidiambangkekalahan kita sambut pimpin baru - sandi serentakkompak kompaknaik naikjokowidiambangkekalahan jokowidiambangkekalahankita kitasambut sambutpimpin pimpinbaru baru- -sandi serentakkompaknaik kompaknaikjokowidiambangkekalahan naikjokowidiambangkekalahankita jokowidiambangkekalahankitasambut kitasambutpimpin sambutpimpinbaru pimpinbaru- baru-sandi serentakkompaknaikjokowidiambangkekalahan kompaknaikjokowidiambangkekalahankita naikjokowidiambangkekalahankitasambut jokowidiambangkekalahankitasambutpimpin kitasambutpimpinbaru sambutpimpinbaru- pimpinbaru-sandi serentakkompaknaikjokowidiambangkekalahankita kompaknaikjokowidiambangkekalahankitasambut naikjokowidiambangkekalahankitasambutpimpin jokowidiambangkekalahankitasambutpimpinbaru kitasambutpimpinbaru- sambutpimpinbaru-sandi serentakkompaknaikjokowidiambangkekalahankitasambut kompaknaikjokowidiambangkekalahankitasambutpimpin naikjokowidiambangkekalahankitasambutpimpinbaru jokowidiambangkekalahankitasambutpimpinbaru- kitasambutpimpinbaru-sandi</t>
+  </si>
+  <si>
+    <t>pak lebih percaya teknologi lama https t co nfiq 982l67 paklebih lebihpercaya percayateknologi teknologilama lamahttps httpst tco confiq nfiq982l67 paklebihpercaya lebihpercayateknologi percayateknologilama teknologilamahttps lamahttpst httpstco tconfiq confiq982l67 paklebihpercayateknologi lebihpercayateknologilama percayateknologilamahttps teknologilamahttpst lamahttpstco httpstconfiq tconfiq982l67 paklebihpercayateknologilama lebihpercayateknologilamahttps percayateknologilamahttpst teknologilamahttpstco lamahttpstconfiq httpstconfiq982l67 paklebihpercayateknologilamahttps lebihpercayateknologilamahttpst percayateknologilamahttpstco teknologilamahttpstconfiq lamahttpstconfiq982l67</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah pak tapi tidak tahu salah siapa kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahpak paktapi tapitidak tidaktahu tahusalah salahsiapa kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahpak salahpaktapi paktapitidak tapitidaktahu tidaktahusalah tahusalahsiapa kuattahansangatrapuh tahansangatrapuhlemah sangatrapuhlemahbukan rapuhlemahbukansalah lemahbukansalahpak bukansalahpaktapi salahpaktapitidak paktapitidaktahu tapitidaktahusalah tidaktahusalahsiapa kuattahansangatrapuhlemah tahansangatrapuhlemahbukan sangatrapuhlemahbukansalah rapuhlemahbukansalahpak lemahbukansalahpaktapi bukansalahpaktapitidak salahpaktapitidaktahu paktapitidaktahusalah tapitidaktahusalahsiapa kuattahansangatrapuhlemahbukan tahansangatrapuhlemahbukansalah sangatrapuhlemahbukansalahpak rapuhlemahbukansalahpaktapi lemahbukansalahpaktapitidak bukansalahpaktapitidaktahu salahpaktapitidaktahusalah paktapitidaktahusalahsiapa</t>
+  </si>
+  <si>
+    <t>sering sedang naik sepeda rantai putus percaya saya pak rantai sahabat tidak pernah putus seringsedang sedangnaik naiksepeda sepedarantai rantaiputus putuspercaya percayasaya sayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus seringsedangnaik sedangnaiksepeda naiksepedarantai sepedarantaiputus rantaiputuspercaya putuspercayasaya percayasayapak sayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus seringsedangnaiksepeda sedangnaiksepedarantai naiksepedarantaiputus sepedarantaiputuspercaya rantaiputuspercayasaya putuspercayasayapak percayasayapakrantai sayapakrantaisahabat pakrantaisahabattidak rantaisahabattidakpernah sahabattidakpernahputus seringsedangnaiksepedarantai sedangnaiksepedarantaiputus naiksepedarantaiputuspercaya sepedarantaiputuspercayasaya rantaiputuspercayasayapak putuspercayasayapakrantai percayasayapakrantaisahabat sayapakrantaisahabattidak pakrantaisahabattidakpernah rantaisahabattidakpernahputus seringsedangnaiksepedarantaiputus sedangnaiksepedarantaiputuspercaya naiksepedarantaiputuspercayasaya sepedarantaiputuspercayasayapak rantaiputuspercayasayapakrantai putuspercayasayapakrantaisahabat percayasayapakrantaisahabattidak sayapakrantaisahabattidakpernah pakrantaisahabattidakpernahputus</t>
+  </si>
+  <si>
+    <t>percaya rantai sahabat percayarantai rantaisahabat percayarantaisahabat pak yakin akan pernah putus sweet banget sih pakde pakyakin yakinakan akanpernah pernahputus putussweet sweetbanget bangetsih sihpakde pakyakinakan yakinakanpernah akanpernahputus pernahputussweet putussweetbanget sweetbangetsih bangetsihpakde pakyakinakanpernah yakinakanpernahputus akanpernahputussweet pernahputussweetbanget putussweetbangetsih sweetbangetsihpakde pakyakinakanpernahputus yakinakanpernahputussweet akanpernahputussweetbanget pernahputussweetbangetsih putussweetbangetsihpakde pakyakinakanpernahputussweet yakinakanpernahputussweetbanget akanpernahputussweetbangetsih pernahputussweetbangetsihpakde</t>
+  </si>
+  <si>
+    <t>emosi kontrol parah audiens orang begini bahaya kalau pimpin emosikontrol kontrolparah parahaudiens audiensorang orangbegini beginibahaya bahayakalau kalaupimpin emosikontrolparah kontrolparahaudiens parahaudiensorang audiensorangbegini orangbeginibahaya beginibahayakalau bahayakalaupimpin emosikontrolparahaudiens kontrolparahaudiensorang parahaudiensorangbegini audiensorangbeginibahaya orangbeginibahayakalau beginibahayakalaupimpin emosikontrolparahaudiensorang kontrolparahaudiensorangbegini parahaudiensorangbeginibahaya audiensorangbeginibahayakalau orangbeginibahayakalaupimpin emosikontrolparahaudiensorangbegini kontrolparahaudiensorangbeginibahaya parahaudiensorangbeginibahayakalau audiensorangbeginibahayakalaupimpin</t>
+  </si>
+  <si>
+    <t>silah tertawa jadi presiden kalau beliau menang ketawa larang silahtertawa tertawajadi jadipresiden presidenkalau kalaubeliau beliaumenang menangketawa ketawalarang silahtertawajadi tertawajadipresiden jadipresidenkalau presidenkalaubeliau kalaubeliaumenang beliaumenangketawa menangketawalarang silahtertawajadipresiden tertawajadipresidenkalau jadipresidenkalaubeliau presidenkalaubeliaumenang kalaubeliaumenangketawa beliaumenangketawalarang silahtertawajadipresidenkalau tertawajadipresidenkalaubeliau jadipresidenkalaubeliaumenang presidenkalaubeliaumenangketawa kalaubeliaumenangketawalarang silahtertawajadipresidenkalaubeliau tertawajadipresidenkalaubeliaumenang jadipresidenkalaubeliaumenangketawa presidenkalaubeliaumenangketawalarang</t>
+  </si>
+  <si>
+    <t>jokowi faham model perang depan perang apa kalau jadi cyber war space war jokowifaham fahammodel modelperang perangdepan depanperang perangapa apakalau kalaujadi jadicyber cyberwar warspace spacewar jokowifahammodel fahammodelperang modelperangdepan perangdepanperang depanperangapa perangapakalau apakalaujadi kalaujadicyber jadicyberwar cyberwarspace warspacewar jokowifahammodelperang fahammodelperangdepan modelperangdepanperang perangdepanperangapa depanperangapakalau perangapakalaujadi apakalaujadicyber kalaujadicyberwar jadicyberwarspace cyberwarspacewar jokowifahammodelperangdepan fahammodelperangdepanperang modelperangdepanperangapa perangdepanperangapakalau depanperangapakalaujadi perangapakalaujadicyber apakalaujadicyberwar kalaujadicyberwarspace jadicyberwarspacewar jokowifahammodelperangdepanperang fahammodelperangdepanperangapa modelperangdepanperangapakalau perangdepanperangapakalaujadi depanperangapakalaujadicyber perangapakalaujadicyberwar apakalaujadicyberwarspace kalaujadicyberwarspacewar</t>
+  </si>
+  <si>
+    <t>masuk all seriousness saya ngerti topik military defense harus jadi sisi kuat malah beranta gitu masukall allseriousness seriousnesssaya sayangerti ngertitopik topikmilitary militarydefense defenseharus harusjadi jadisisi sisikuat kuatmalah malahberanta berantagitu masukallseriousness allseriousnesssaya seriousnesssayangerti sayangertitopik ngertitopikmilitary topikmilitarydefense militarydefenseharus defenseharusjadi harusjadisisi jadisisikuat sisikuatmalah kuatmalahberanta malahberantagitu masukallseriousnesssaya allseriousnesssayangerti seriousnesssayangertitopik sayangertitopikmilitary ngertitopikmilitarydefense topikmilitarydefenseharus militarydefenseharusjadi defenseharusjadisisi harusjadisisikuat jadisisikuatmalah sisikuatmalahberanta kuatmalahberantagitu masukallseriousnesssayangerti allseriousnesssayangertitopik seriousnesssayangertitopikmilitary sayangertitopikmilitarydefense ngertitopikmilitarydefenseharus topikmilitarydefenseharusjadi militarydefenseharusjadisisi defenseharusjadisisikuat harusjadisisikuatmalah jadisisikuatmalahberanta sisikuatmalahberantagitu masukallseriousnesssayangertitopik allseriousnesssayangertitopikmilitary seriousnesssayangertitopikmilitarydefense sayangertitopikmilitarydefenseharus ngertitopikmilitarydefenseharusjadi topikmilitarydefenseharusjadisisi militarydefenseharusjadisisikuat defenseharusjadisisikuatmalah harusjadisisikuatmalahberanta jadisisikuatmalahberantagitu</t>
+  </si>
+  <si>
+    <t>merinding tanda cinta rakyat hadap pak moga lanjut periode gaspoljokowijempol merindingtanda tandacinta cintarakyat rakyathadap hadappak pakmoga mogalanjut lanjutperiode periodegaspoljokowijempol merindingtandacinta tandacintarakyat cintarakyathadap rakyathadappak hadappakmoga pakmogalanjut mogalanjutperiode lanjutperiodegaspoljokowijempol merindingtandacintarakyat tandacintarakyathadap cintarakyathadappak rakyathadappakmoga hadappakmogalanjut pakmogalanjutperiode mogalanjutperiodegaspoljokowijempol merindingtandacintarakyathadap tandacintarakyathadappak cintarakyathadappakmoga rakyathadappakmogalanjut hadappakmogalanjutperiode pakmogalanjutperiodegaspoljokowijempol merindingtandacintarakyathadappak tandacintarakyathadappakmoga cintarakyathadappakmogalanjut rakyathadappakmogalanjutperiode hadappakmogalanjutperiodegaspoljokowijempol</t>
+  </si>
+  <si>
+    <t>harap harap rakyat ingin ubah indonesia adil makmur april coblos pilih harapharap haraprakyat rakyatingin inginubah ubahindonesia indonesiaadil adilmakmur makmurapril aprilcoblos coblospilih harapharaprakyat haraprakyatingin rakyatinginubah inginubahindonesia ubahindonesiaadil indonesiaadilmakmur adilmakmurapril makmuraprilcoblos aprilcoblospilih harapharaprakyatingin haraprakyatinginubah rakyatinginubahindonesia inginubahindonesiaadil ubahindonesiaadilmakmur indonesiaadilmakmurapril adilmakmuraprilcoblos makmuraprilcoblospilih harapharaprakyatinginubah haraprakyatinginubahindonesia rakyatinginubahindonesiaadil inginubahindonesiaadilmakmur ubahindonesiaadilmakmurapril indonesiaadilmakmuraprilcoblos adilmakmuraprilcoblospilih harapharaprakyatinginubahindonesia haraprakyatinginubahindonesiaadil rakyatinginubahindonesiaadilmakmur inginubahindonesiaadilmakmurapril ubahindonesiaadilmakmuraprilcoblos indonesiaadilmakmuraprilcoblospilih</t>
+  </si>
+  <si>
+    <t>saya bela rakyat hormat sangat mulia subianto prabowobentengnkri sayabela belarakyat rakyathormat hormatsangat sangatmulia muliasubianto subiantoprabowobentengnkri sayabelarakyat belarakyathormat rakyathormatsangat hormatsangatmulia sangatmuliasubianto muliasubiantoprabowobentengnkri sayabelarakyathormat belarakyathormatsangat rakyathormatsangatmulia hormatsangatmuliasubianto sangatmuliasubiantoprabowobentengnkri sayabelarakyathormatsangat belarakyathormatsangatmulia rakyathormatsangatmuliasubianto hormatsangatmuliasubiantoprabowobentengnkri sayabelarakyathormatsangatmulia belarakyathormatsangatmuliasubianto rakyathormatsangatmuliasubiantoprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co 328hggut9c perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco co328hggut9c perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tco328hggut9c perintahyngsigaplayan yngsigaplayanrakyat sigaplayanrakyatbagus layanrakyatbaguspak rakyatbaguspakpemerintahandilan baguspakpemerintahandilanhttps pakpemerintahandilanhttpst pemerintahandilanhttpstco httpstco328hggut9c perintahyngsigaplayanrakyat yngsigaplayanrakyatbagus sigaplayanrakyatbaguspak layanrakyatbaguspakpemerintahandilan rakyatbaguspakpemerintahandilanhttps baguspakpemerintahandilanhttpst pakpemerintahandilanhttpstco pemerintahandilanhttpstco328hggut9c perintahyngsigaplayanrakyatbagus yngsigaplayanrakyatbaguspak sigaplayanrakyatbaguspakpemerintahandilan layanrakyatbaguspakpemerintahandilanhttps rakyatbaguspakpemerintahandilanhttpst baguspakpemerintahandilanhttpstco pakpemerintahandilanhttpstco328hggut9c</t>
+  </si>
+  <si>
+    <t>debat hari lah sifat asli pak mulai keluar nampaknya beliau tidak tahan sandiwara jadi orang baik debathari harilah lahsifat sifatasli aslipak pakmulai mulaikeluar keluarnampaknya nampaknyabeliau beliautidak tidaktahan tahansandiwara sandiwarajadi jadiorang orangbaik debatharilah harilahsifat lahsifatasli sifataslipak aslipakmulai pakmulaikeluar mulaikeluarnampaknya keluarnampaknyabeliau nampaknyabeliautidak beliautidaktahan tidaktahansandiwara tahansandiwarajadi sandiwarajadiorang jadiorangbaik debatharilahsifat harilahsifatasli lahsifataslipak sifataslipakmulai aslipakmulaikeluar pakmulaikeluarnampaknya mulaikeluarnampaknyabeliau keluarnampaknyabeliautidak nampaknyabeliautidaktahan beliautidaktahansandiwara tidaktahansandiwarajadi tahansandiwarajadiorang sandiwarajadiorangbaik debatharilahsifatasli harilahsifataslipak lahsifataslipakmulai sifataslipakmulaikeluar aslipakmulaikeluarnampaknya pakmulaikeluarnampaknyabeliau mulaikeluarnampaknyabeliautidak keluarnampaknyabeliautidaktahan nampaknyabeliautidaktahansandiwara beliautidaktahansandiwarajadi tidaktahansandiwarajadiorang tahansandiwarajadiorangbaik debatharilahsifataslipak harilahsifataslipakmulai lahsifataslipakmulaikeluar sifataslipakmulaikeluarnampaknya aslipakmulaikeluarnampaknyabeliau pakmulaikeluarnampaknyabeliautidak mulaikeluarnampaknyabeliautidaktahan keluarnampaknyabeliautidaktahansandiwara nampaknyabeliautidaktahansandiwarajadi beliautidaktahansandiwarajadiorang tidaktahansandiwarajadiorangbaik</t>
+  </si>
+  <si>
+    <t>lihat ganas malam tapi lihat prihatin seperti habis pikir gemas sendiri bisik lihatganas ganasmalam malamtapi tapilihat lihatprihatin prihatinseperti sepertihabis habispikir pikirgemas gemassendiri sendiribisik lihatganasmalam ganasmalamtapi malamtapilihat tapilihatprihatin lihatprihatinseperti prihatinsepertihabis sepertihabispikir habispikirgemas pikirgemassendiri gemassendiribisik lihatganasmalamtapi ganasmalamtapilihat malamtapilihatprihatin tapilihatprihatinseperti lihatprihatinsepertihabis prihatinsepertihabispikir sepertihabispikirgemas habispikirgemassendiri pikirgemassendiribisik lihatganasmalamtapilihat ganasmalamtapilihatprihatin malamtapilihatprihatinseperti tapilihatprihatinsepertihabis lihatprihatinsepertihabispikir prihatinsepertihabispikirgemas sepertihabispikirgemassendiri habispikirgemassendiribisik lihatganasmalamtapilihatprihatin ganasmalamtapilihatprihatinseperti malamtapilihatprihatinsepertihabis tapilihatprihatinsepertihabispikir lihatprihatinsepertihabispikirgemas prihatinsepertihabispikirgemassendiri sepertihabispikirgemassendiribisik</t>
+  </si>
+  <si>
+    <t>perintah an sigap layan rakyat bagus pak pemerintahandilan https t co vwhecy 74nd perintahan ansigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco covwhecy vwhecy74nd perintahansigap ansigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcovwhecy covwhecy74nd perintahansigaplayan ansigaplayanrakyat sigaplayanrakyatbagus layanrakyatbaguspak rakyatbaguspakpemerintahandilan baguspakpemerintahandilanhttps pakpemerintahandilanhttpst pemerintahandilanhttpstco httpstcovwhecy tcovwhecy74nd perintahansigaplayanrakyat ansigaplayanrakyatbagus sigaplayanrakyatbaguspak layanrakyatbaguspakpemerintahandilan rakyatbaguspakpemerintahandilanhttps baguspakpemerintahandilanhttpst pakpemerintahandilanhttpstco pemerintahandilanhttpstcovwhecy httpstcovwhecy74nd perintahansigaplayanrakyatbagus ansigaplayanrakyatbaguspak sigaplayanrakyatbaguspakpemerintahandilan layanrakyatbaguspakpemerintahandilanhttps rakyatbaguspakpemerintahandilanhttpst baguspakpemerintahandilanhttpstco pakpemerintahandilanhttpstcovwhecy pemerintahandilanhttpstcovwhecy74nd</t>
+  </si>
+  <si>
+    <t>yuk satu satu lebih asyik pemerintahandilan https t co oejifofpsx yuksatu satusatu satulebih lebihasyik asyikpemerintahandilan pemerintahandilanhttps httpst tco cooejifofpsx yuksatusatu satusatulebih satulebihasyik lebihasyikpemerintahandilan asyikpemerintahandilanhttps pemerintahandilanhttpst httpstco tcooejifofpsx yuksatusatulebih satusatulebihasyik satulebihasyikpemerintahandilan lebihasyikpemerintahandilanhttps asyikpemerintahandilanhttpst pemerintahandilanhttpstco httpstcooejifofpsx yuksatusatulebihasyik satusatulebihasyikpemerintahandilan satulebihasyikpemerintahandilanhttps lebihasyikpemerintahandilanhttpst asyikpemerintahandilanhttpstco pemerintahandilanhttpstcooejifofpsx yuksatusatulebihasyikpemerintahandilan satusatulebihasyikpemerintahandilanhttps satulebihasyikpemerintahandilanhttpst lebihasyikpemerintahandilanhttpstco asyikpemerintahandilanhttpstcooejifofpsx</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut dimarahin pak duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutdimarahin dimarahinpak dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutdimarahin takutdimarahinpak dulukenketawatakut kenketawatakutdosa ketawatakutdosasekarang takutdosasekarangken dosasekarangkenketawa sekarangkenketawatakut kenketawatakutdimarahin ketawatakutdimarahinpak dulukenketawatakutdosa kenketawatakutdosasekarang ketawatakutdosasekarangken takutdosasekarangkenketawa dosasekarangkenketawatakut sekarangkenketawatakutdimarahin kenketawatakutdimarahinpak dulukenketawatakutdosasekarang kenketawatakutdosasekarangken ketawatakutdosasekarangkenketawa takutdosasekarangkenketawatakut dosasekarangkenketawatakutdimarahin sekarangkenketawatakutdimarahinpak</t>
+  </si>
+  <si>
+    <t>debat calon presiden malam saya ikan score 10-0 buat menang pak bisa lihat karakter pimpin kuat debatcalon calonpresiden presidenmalam malamsaya sayaikan ikanscore score10-0 10-0buat buatmenang menangpak pakbisa bisalihat lihatkarakter karakterpimpin pimpinkuat debatcalonpresiden calonpresidenmalam presidenmalamsaya malamsayaikan sayaikanscore ikanscore10-0 score10-0buat 10-0buatmenang buatmenangpak menangpakbisa pakbisalihat bisalihatkarakter lihatkarakterpimpin karakterpimpinkuat debatcalonpresidenmalam calonpresidenmalamsaya presidenmalamsayaikan malamsayaikanscore sayaikanscore10-0 ikanscore10-0buat score10-0buatmenang 10-0buatmenangpak buatmenangpakbisa menangpakbisalihat pakbisalihatkarakter bisalihatkarakterpimpin lihatkarakterpimpinkuat debatcalonpresidenmalamsaya calonpresidenmalamsayaikan presidenmalamsayaikanscore malamsayaikanscore10-0 sayaikanscore10-0buat ikanscore10-0buatmenang score10-0buatmenangpak 10-0buatmenangpakbisa buatmenangpakbisalihat menangpakbisalihatkarakter pakbisalihatkarakterpimpin bisalihatkarakterpimpinkuat debatcalonpresidenmalamsayaikan calonpresidenmalamsayaikanscore presidenmalamsayaikanscore10-0 malamsayaikanscore10-0buat sayaikanscore10-0buatmenang ikanscore10-0buatmenangpak score10-0buatmenangpakbisa 10-0buatmenangpakbisalihat buatmenangpakbisalihatkarakter menangpakbisalihatkarakterpimpin pakbisalihatkarakterpimpinkuat</t>
+  </si>
+  <si>
+    <t>sebut betul koruptor orang baik pilih jadi presiden diri beri sempat sebutbetul betulkoruptor koruptororang orangbaik baikpilih pilihjadi jadipresiden presidendiri diriberi berisempat sebutbetulkoruptor betulkoruptororang koruptororangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidendiri presidendiriberi diriberisempat sebutbetulkoruptororang betulkoruptororangbaik koruptororangbaikpilih orangbaikpilihjadi baikpilihjadipresiden pilihjadipresidendiri jadipresidendiriberi presidendiriberisempat sebutbetulkoruptororangbaik betulkoruptororangbaikpilih koruptororangbaikpilihjadi orangbaikpilihjadipresiden baikpilihjadipresidendiri pilihjadipresidendiriberi jadipresidendiriberisempat sebutbetulkoruptororangbaikpilih betulkoruptororangbaikpilihjadi koruptororangbaikpilihjadipresiden orangbaikpilihjadipresidendiri baikpilihjadipresidendiriberi pilihjadipresidendiriberisempat</t>
+  </si>
+  <si>
+    <t>kalau bicara nasionalisme p semangat jangan ketawa lemah itu reaksi spontan patriotik kalaubicara bicaranasionalisme nasionalismep psemangat semangatjangan janganketawa ketawalemah lemahitu itureaksi reaksispontan spontanpatriotik kalaubicaranasionalisme bicaranasionalismep nasionalismepsemangat psemangatjangan semangatjanganketawa janganketawalemah ketawalemahitu lemahitureaksi itureaksispontan reaksispontanpatriotik kalaubicaranasionalismep bicaranasionalismepsemangat nasionalismepsemangatjangan psemangatjanganketawa semangatjanganketawalemah janganketawalemahitu ketawalemahitureaksi lemahitureaksispontan itureaksispontanpatriotik kalaubicaranasionalismepsemangat bicaranasionalismepsemangatjangan nasionalismepsemangatjanganketawa psemangatjanganketawalemah semangatjanganketawalemahitu janganketawalemahitureaksi ketawalemahitureaksispontan lemahitureaksispontanpatriotik kalaubicaranasionalismepsemangatjangan bicaranasionalismepsemangatjanganketawa nasionalismepsemangatjanganketawalemah psemangatjanganketawalemahitu semangatjanganketawalemahitureaksi janganketawalemahitureaksispontan ketawalemahitureaksispontanpatriotik</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang sama pak debatpilpres 2019 tertawatertawa tertawalarang larangsama samapak pakdebatpilpres debatpilpres2019 tertawatertawalarang tertawalarangsama larangsamapak samapakdebatpilpres pakdebatpilpres2019 tertawatertawalarangsama tertawalarangsamapak larangsamapakdebatpilpres samapakdebatpilpres2019 tertawatertawalarangsamapak tertawalarangsamapakdebatpilpres larangsamapakdebatpilpres2019 tertawatertawalarangsamapakdebatpilpres tertawalarangsamapakdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>perlu garis bawah ke afganistan pake rompi anti peluru perlugaris garisbawah bawahke keafganistan afganistanpake pakerompi rompianti antipeluru perlugarisbawah garisbawahke bawahkeafganistan keafganistanpake afganistanpakerompi pakerompianti rompiantipeluru perlugarisbawahke garisbawahkeafganistan bawahkeafganistanpake keafganistanpakerompi afganistanpakerompianti pakerompiantipeluru perlugarisbawahkeafganistan garisbawahkeafganistanpake bawahkeafganistanpakerompi keafganistanpakerompianti afganistanpakerompiantipeluru perlugarisbawahkeafganistanpake garisbawahkeafganistanpakerompi bawahkeafganistanpakerompianti keafganistanpakerompiantipeluru</t>
+  </si>
+  <si>
+    <t>marah sih pak panggil dil debatpilpres 2019 kali pemerintahandilan marahsih sihpak pakpanggil panggildil dildebatpilpres debatpilpres2019 2019kali kalipemerintahandilan marahsihpak sihpakpanggil pakpanggildil panggildildebatpilpres dildebatpilpres2019 debatpilpres2019kali 2019kalipemerintahandilan marahsihpakpanggil sihpakpanggildil pakpanggildildebatpilpres panggildildebatpilpres2019 dildebatpilpres2019kali debatpilpres2019kalipemerintahandilan marahsihpakpanggildil sihpakpanggildildebatpilpres pakpanggildildebatpilpres2019 panggildildebatpilpres2019kali dildebatpilpres2019kalipemerintahandilan marahsihpakpanggildildebatpilpres sihpakpanggildildebatpilpres2019 pakpanggildildebatpilpres2019kali panggildildebatpilpres2019kalipemerintahandilan</t>
+  </si>
+  <si>
+    <t>milu legislatif pilih presiden april besok habis biaya tidak sedikit triliun rupiah milulegislatif legislatifpilih pilihpresiden presidenapril aprilbesok besokhabis habisbiaya biayatidak tidaksedikit sedikittriliun triliunrupiah milulegislatifpilih legislatifpilihpresiden pilihpresidenapril presidenaprilbesok aprilbesokhabis besokhabisbiaya habisbiayatidak biayatidaksedikit tidaksedikittriliun sedikittriliunrupiah milulegislatifpilihpresiden legislatifpilihpresidenapril pilihpresidenaprilbesok presidenaprilbesokhabis aprilbesokhabisbiaya besokhabisbiayatidak habisbiayatidaksedikit biayatidaksedikittriliun tidaksedikittriliunrupiah milulegislatifpilihpresidenapril legislatifpilihpresidenaprilbesok pilihpresidenaprilbesokhabis presidenaprilbesokhabisbiaya aprilbesokhabisbiayatidak besokhabisbiayatidaksedikit habisbiayatidaksedikittriliun biayatidaksedikittriliunrupiah milulegislatifpilihpresidenaprilbesok legislatifpilihpresidenaprilbesokhabis pilihpresidenaprilbesokhabisbiaya presidenaprilbesokhabisbiayatidak aprilbesokhabisbiayatidaksedikit besokhabisbiayatidaksedikittriliun habisbiayatidaksedikittriliunrupiah</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik kita semua 01dilanjutkan warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikkita kitasemua semua01dilanjutkan warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikkita baikkitasemua kitasemua01dilanjutkan warganegarabaikpilih negarabaikpilihpimpin baikpilihpimpinbaik pilihpimpinbaikjawab pimpinbaikjawabbaik baikjawabbaikkita jawabbaikkitasemua baikkitasemua01dilanjutkan warganegarabaikpilihpimpin negarabaikpilihpimpinbaik baikpilihpimpinbaikjawab pilihpimpinbaikjawabbaik pimpinbaikjawabbaikkita baikjawabbaikkitasemua jawabbaikkitasemua01dilanjutkan warganegarabaikpilihpimpinbaik negarabaikpilihpimpinbaikjawab baikpilihpimpinbaikjawabbaik pilihpimpinbaikjawabbaikkita pimpinbaikjawabbaikkitasemua baikjawabbaikkitasemua01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak masalah apa si sini cerita sini jan marah marah mulu dong kek dosen kalau ngambek mahasiswa nya pakmasalah masalahapa apasi sisini sinicerita ceritasini sinijan janmarah marahmarah marahmulu muludong dongkek kekdosen dosenkalau kalaungambek ngambekmahasiswa mahasiswanya pakmasalahapa masalahapasi apasisini sisinicerita siniceritasini ceritasinijan sinijanmarah janmarahmarah marahmarahmulu marahmuludong muludongkek dongkekdosen kekdosenkalau dosenkalaungambek kalaungambekmahasiswa ngambekmahasiswanya pakmasalahapasi masalahapasisini apasisinicerita sisiniceritasini siniceritasinijan ceritasinijanmarah sinijanmarahmarah janmarahmarahmulu marahmarahmuludong marahmuludongkek muludongkekdosen dongkekdosenkalau kekdosenkalaungambek dosenkalaungambekmahasiswa kalaungambekmahasiswanya pakmasalahapasisini masalahapasisinicerita apasisiniceritasini sisiniceritasinijan siniceritasinijanmarah ceritasinijanmarahmarah sinijanmarahmarahmulu janmarahmarahmuludong marahmarahmuludongkek marahmuludongkekdosen muludongkekdosenkalau dongkekdosenkalaungambek kekdosenkalaungambekmahasiswa dosenkalaungambekmahasiswanya pakmasalahapasisinicerita masalahapasisiniceritasini apasisiniceritasinijan sisiniceritasinijanmarah siniceritasinijanmarahmarah ceritasinijanmarahmarahmulu sinijanmarahmarahmuludong janmarahmarahmuludongkek marahmarahmuludongkekdosen marahmuludongkekdosenkalau muludongkekdosenkalaungambek dongkekdosenkalaungambekmahasiswa kekdosenkalaungambekmahasiswanya</t>
+  </si>
+  <si>
+    <t>serang emosi pak tetap kata bukan salah bapak salut engkau sungguh jiwa besar serangemosi emosipak paktetap tetapkata katabukan bukansalah salahbapak bapaksalut salutengkau engkausungguh sungguhjiwa jiwabesar serangemosipak emosipaktetap paktetapkata tetapkatabukan katabukansalah bukansalahbapak salahbapaksalut bapaksalutengkau salutengkausungguh engkausungguhjiwa sungguhjiwabesar serangemosipaktetap emosipaktetapkata paktetapkatabukan tetapkatabukansalah katabukansalahbapak bukansalahbapaksalut salahbapaksalutengkau bapaksalutengkausungguh salutengkausungguhjiwa engkausungguhjiwabesar serangemosipaktetapkata emosipaktetapkatabukan paktetapkatabukansalah tetapkatabukansalahbapak katabukansalahbapaksalut bukansalahbapaksalutengkau salahbapaksalutengkausungguh bapaksalutengkausungguhjiwa salutengkausungguhjiwabesar serangemosipaktetapkatabukan emosipaktetapkatabukansalah paktetapkatabukansalahbapak tetapkatabukansalahbapaksalut katabukansalahbapaksalutengkau bukansalahbapaksalutengkausungguh salahbapaksalutengkausungguhjiwa bapaksalutengkausungguhjiwabesar</t>
+  </si>
+  <si>
+    <t>pak timses kamu bilang anak ingus nih tertib pak bapak hormat bangsa paktimses timseskamu kamubilang bilanganak anakingus ingusnih nihtertib tertibpak pakbapak bapakhormat hormatbangsa paktimseskamu timseskamubilang kamubilanganak bilanganakingus anakingusnih ingusnihtertib nihtertibpak tertibpakbapak pakbapakhormat bapakhormatbangsa paktimseskamubilang timseskamubilanganak kamubilanganakingus bilanganakingusnih anakingusnihtertib ingusnihtertibpak nihtertibpakbapak tertibpakbapakhormat pakbapakhormatbangsa paktimseskamubilanganak timseskamubilanganakingus kamubilanganakingusnih bilanganakingusnihtertib anakingusnihtertibpak ingusnihtertibpakbapak nihtertibpakbapakhormat tertibpakbapakhormatbangsa paktimseskamubilanganakingus timseskamubilanganakingusnih kamubilanganakingusnihtertib bilanganakingusnihtertibpak anakingusnihtertibpakbapak ingusnihtertibpakbapakhormat nihtertibpakbapakhormatbangsa</t>
+  </si>
+  <si>
+    <t>papar visi misi klaim praktik korupsi perintah turut lemah negara paparvisi visimisi misiklaim klaimpraktik praktikkorupsi korupsiperintah perintahturut turutlemah lemahnegara paparvisimisi visimisiklaim misiklaimpraktik klaimpraktikkorupsi praktikkorupsiperintah korupsiperintahturut perintahturutlemah turutlemahnegara paparvisimisiklaim visimisiklaimpraktik misiklaimpraktikkorupsi klaimpraktikkorupsiperintah praktikkorupsiperintahturut korupsiperintahturutlemah perintahturutlemahnegara paparvisimisiklaimpraktik visimisiklaimpraktikkorupsi misiklaimpraktikkorupsiperintah klaimpraktikkorupsiperintahturut praktikkorupsiperintahturutlemah korupsiperintahturutlemahnegara paparvisimisiklaimpraktikkorupsi visimisiklaimpraktikkorupsiperintah misiklaimpraktikkorupsiperintahturut klaimpraktikkorupsiperintahturutlemah praktikkorupsiperintahturutlemahnegara</t>
+  </si>
+  <si>
+    <t>kata pak bukan lemah kalah kuat yang lambat kalah yang cepat katapak pakbukan bukanlemah lemahkalah kalahkuat kuatyang yanglambat lambatkalah kalahyang yangcepat katapakbukan pakbukanlemah bukanlemahkalah lemahkalahkuat kalahkuatyang kuatyanglambat yanglambatkalah lambatkalahyang kalahyangcepat katapakbukanlemah pakbukanlemahkalah bukanlemahkalahkuat lemahkalahkuatyang kalahkuatyanglambat kuatyanglambatkalah yanglambatkalahyang lambatkalahyangcepat katapakbukanlemahkalah pakbukanlemahkalahkuat bukanlemahkalahkuatyang lemahkalahkuatyanglambat kalahkuatyanglambatkalah kuatyanglambatkalahyang yanglambatkalahyangcepat katapakbukanlemahkalahkuat pakbukanlemahkalahkuatyang bukanlemahkalahkuatyanglambat lemahkalahkuatyanglambatkalah kalahkuatyanglambatkalahyang kuatyanglambatkalahyangcepat</t>
+  </si>
+  <si>
+    <t>kpu angkat bicara soal alokasi waktu cara adil masih jangan bilang main curang hm kpuangkat angkatbicara bicarasoal soalalokasi alokasiwaktu waktucara caraadil adilmasih masihjangan janganbilang bilangmain maincurang curanghm kpuangkatbicara angkatbicarasoal bicarasoalalokasi soalalokasiwaktu alokasiwaktucara waktucaraadil caraadilmasih adilmasihjangan masihjanganbilang janganbilangmain bilangmaincurang maincuranghm kpuangkatbicarasoal angkatbicarasoalalokasi bicarasoalalokasiwaktu soalalokasiwaktucara alokasiwaktucaraadil waktucaraadilmasih caraadilmasihjangan adilmasihjanganbilang masihjanganbilangmain janganbilangmaincurang bilangmaincuranghm kpuangkatbicarasoalalokasi angkatbicarasoalalokasiwaktu bicarasoalalokasiwaktucara soalalokasiwaktucaraadil alokasiwaktucaraadilmasih waktucaraadilmasihjangan caraadilmasihjanganbilang adilmasihjanganbilangmain masihjanganbilangmaincurang janganbilangmaincuranghm kpuangkatbicarasoalalokasiwaktu angkatbicarasoalalokasiwaktucara bicarasoalalokasiwaktucaraadil soalalokasiwaktucaraadilmasih alokasiwaktucaraadilmasihjangan waktucaraadilmasihjanganbilang caraadilmasihjanganbilangmain adilmasihjanganbilangmaincurang masihjanganbilangmaincuranghm</t>
+  </si>
+  <si>
+    <t>moga pak beri mudah lancar malam al fatihah prabowobentengnkri https t co gmhz 1husuk mogapak pakberi berimudah mudahlancar lancarmalam malamal alfatihah fatihahprabowobentengnkri prabowobentengnkrihttps httpst tco cogmhz gmhz1husuk mogapakberi pakberimudah berimudahlancar mudahlancarmalam lancarmalamal malamalfatihah alfatihahprabowobentengnkri fatihahprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcogmhz cogmhz1husuk mogapakberimudah pakberimudahlancar berimudahlancarmalam mudahlancarmalamal lancarmalamalfatihah malamalfatihahprabowobentengnkri alfatihahprabowobentengnkrihttps fatihahprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcogmhz tcogmhz1husuk mogapakberimudahlancar pakberimudahlancarmalam berimudahlancarmalamal mudahlancarmalamalfatihah lancarmalamalfatihahprabowobentengnkri malamalfatihahprabowobentengnkrihttps alfatihahprabowobentengnkrihttpst fatihahprabowobentengnkrihttpstco prabowobentengnkrihttpstcogmhz httpstcogmhz1husuk mogapakberimudahlancarmalam pakberimudahlancarmalamal berimudahlancarmalamalfatihah mudahlancarmalamalfatihahprabowobentengnkri lancarmalamalfatihahprabowobentengnkrihttps malamalfatihahprabowobentengnkrihttpst alfatihahprabowobentengnkrihttpstco fatihahprabowobentengnkrihttpstcogmhz prabowobentengnkrihttpstcogmhz1husuk</t>
+  </si>
+  <si>
+    <t>bawah pimpin prabowo-sandi akan komitmen hadir harga bahan pokok stabil jangkau bawahpimpin pimpinprabowo-sandi prabowo-sandiakan akankomitmen komitmenhadir hadirharga hargabahan bahanpokok pokokstabil stabiljangkau bawahpimpinprabowo-sandi pimpinprabowo-sandiakan prabowo-sandiakankomitmen akankomitmenhadir komitmenhadirharga hadirhargabahan hargabahanpokok bahanpokokstabil pokokstabiljangkau bawahpimpinprabowo-sandiakan pimpinprabowo-sandiakankomitmen prabowo-sandiakankomitmenhadir akankomitmenhadirharga komitmenhadirhargabahan hadirhargabahanpokok hargabahanpokokstabil bahanpokokstabiljangkau bawahpimpinprabowo-sandiakankomitmen pimpinprabowo-sandiakankomitmenhadir prabowo-sandiakankomitmenhadirharga akankomitmenhadirhargabahan komitmenhadirhargabahanpokok hadirhargabahanpokokstabil hargabahanpokokstabiljangkau bawahpimpinprabowo-sandiakankomitmenhadir pimpinprabowo-sandiakankomitmenhadirharga prabowo-sandiakankomitmenhadirhargabahan akankomitmenhadirhargabahanpokok komitmenhadirhargabahanpokokstabil hadirhargabahanpokokstabiljangkau</t>
+  </si>
+  <si>
+    <t>kata mobil esemka bohong moga dosa 2nya ampun allah swt yang fitnah kait ini pak katamobil mobilesemka esemkabohong bohongmoga mogadosa dosa2nya 2nyaampun ampunallah allahswt swtyang yangfitnah fitnahkait kaitini inipak katamobilesemka mobilesemkabohong esemkabohongmoga bohongmogadosa mogadosa2nya dosa2nyaampun 2nyaampunallah ampunallahswt allahswtyang swtyangfitnah yangfitnahkait fitnahkaitini kaitinipak katamobilesemkabohong mobilesemkabohongmoga esemkabohongmogadosa bohongmogadosa2nya mogadosa2nyaampun dosa2nyaampunallah 2nyaampunallahswt ampunallahswtyang allahswtyangfitnah swtyangfitnahkait yangfitnahkaitini fitnahkaitinipak katamobilesemkabohongmoga mobilesemkabohongmogadosa esemkabohongmogadosa2nya bohongmogadosa2nyaampun mogadosa2nyaampunallah dosa2nyaampunallahswt 2nyaampunallahswtyang ampunallahswtyangfitnah allahswtyangfitnahkait swtyangfitnahkaitini yangfitnahkaitinipak katamobilesemkabohongmogadosa mobilesemkabohongmogadosa2nya esemkabohongmogadosa2nyaampun bohongmogadosa2nyaampunallah mogadosa2nyaampunallahswt dosa2nyaampunallahswtyang 2nyaampunallahswtyangfitnah ampunallahswtyangfitnahkait allahswtyangfitnahkaitini swtyangfitnahkaitinipak</t>
+  </si>
+  <si>
+    <t>insyallah allah menang indonesia jadi macan asia bukan cebong asia insyallahallah allahmenang menangindonesia indonesiajadi jadimacan macanasia asiabukan bukancebong cebongasia insyallahallahmenang allahmenangindonesia menangindonesiajadi indonesiajadimacan jadimacanasia macanasiabukan asiabukancebong bukancebongasia insyallahallahmenangindonesia allahmenangindonesiajadi menangindonesiajadimacan indonesiajadimacanasia jadimacanasiabukan macanasiabukancebong asiabukancebongasia insyallahallahmenangindonesiajadi allahmenangindonesiajadimacan menangindonesiajadimacanasia indonesiajadimacanasiabukan jadimacanasiabukancebong macanasiabukancebongasia insyallahallahmenangindonesiajadimacan allahmenangindonesiajadimacanasia menangindonesiajadimacanasiabukan indonesiajadimacanasiabukancebong jadimacanasiabukancebongasia</t>
+  </si>
+  <si>
+    <t>sama indonesia kuat prabowobentengnkri samaindonesia indonesiakuat kuatprabowobentengnkri samaindonesiakuat indonesiakuatprabowobentengnkri samaindonesiakuatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>presiden conference pasca debat tkn cara baca data pak kena kuat militer banding anggar presidenconference conferencepasca pascadebat debattkn tkncara carabaca bacadata datapak pakkena kenakuat kuatmiliter militerbanding bandinganggar presidenconferencepasca conferencepascadebat pascadebattkn debattkncara tkncarabaca carabacadata bacadatapak datapakkena pakkenakuat kenakuatmiliter kuatmiliterbanding militerbandinganggar presidenconferencepascadebat conferencepascadebattkn pascadebattkncara debattkncarabaca tkncarabacadata carabacadatapak bacadatapakkena datapakkenakuat pakkenakuatmiliter kenakuatmiliterbanding kuatmiliterbandinganggar presidenconferencepascadebattkn conferencepascadebattkncara pascadebattkncarabaca debattkncarabacadata tkncarabacadatapak carabacadatapakkena bacadatapakkenakuat datapakkenakuatmiliter pakkenakuatmiliterbanding kenakuatmiliterbandinganggar presidenconferencepascadebattkncara conferencepascadebattkncarabaca pascadebattkncarabacadata debattkncarabacadatapak tkncarabacadatapakkena carabacadatapakkenakuat bacadatapakkenakuatmiliter datapakkenakuatmiliterbanding pakkenakuatmiliterbandinganggar</t>
+  </si>
+  <si>
+    <t>warga negara baik pilih pimpin baik jawab baik menangjokowilagi warganegara negarabaik baikpilih pilihpimpin pimpinbaik baikjawab jawabbaik baikmenangjokowilagi warganegarabaik negarabaikpilih baikpilihpimpin pilihpimpinbaik pimpinbaikjawab baikjawabbaik jawabbaikmenangjokowilagi warganegarabaikpilih negarabaikpilihpimpin baikpilihpimpinbaik pilihpimpinbaikjawab pimpinbaikjawabbaik baikjawabbaikmenangjokowilagi warganegarabaikpilihpimpin negarabaikpilihpimpinbaik baikpilihpimpinbaikjawab pilihpimpinbaikjawabbaik pimpinbaikjawabbaikmenangjokowilagi warganegarabaikpilihpimpinbaik negarabaikpilihpimpinbaikjawab baikpilihpimpinbaikjawabbaik pilihpimpinbaikjawabbaikmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saling hujat saling remeh saling toleransi kawan sahabat idola salinghujat hujatsaling salingremeh remehsaling salingtoleransi toleransikawan kawansahabat sahabatidola salinghujatsaling hujatsalingremeh salingremehsaling remehsalingtoleransi salingtoleransikawan toleransikawansahabat kawansahabatidola salinghujatsalingremeh hujatsalingremehsaling salingremehsalingtoleransi remehsalingtoleransikawan salingtoleransikawansahabat toleransikawansahabatidola salinghujatsalingremehsaling hujatsalingremehsalingtoleransi salingremehsalingtoleransikawan remehsalingtoleransikawansahabat salingtoleransikawansahabatidola salinghujatsalingremehsalingtoleransi hujatsalingremehsalingtoleransikawan salingremehsalingtoleransikawansahabat remehsalingtoleransikawansahabatidola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debat empat pilpres tutup momen manis debatempat empatpilpres pilprestutup tutupmomen momenmanis debatempatpilpres empatpilprestutup pilprestutupmomen tutupmomenmanis debatempatpilprestutup empatpilprestutupmomen pilprestutupmomenmanis debatempatpilprestutupmomen empatpilprestutupmomenmanis debatempatpilprestutupmomenmanis </t>
+  </si>
+  <si>
+    <t>konsep pak indonesia maju mantap menangjokowilagi konseppak pakindonesia indonesiamaju majumantap mantapmenangjokowilagi konseppakindonesia pakindonesiamaju indonesiamajumantap majumantapmenangjokowilagi konseppakindonesiamaju pakindonesiamajumantap indonesiamajumantapmenangjokowilagi konseppakindonesiamajumantap pakindonesiamajumantapmenangjokowilagi konseppakindonesiamajumantapmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>buah tangan perintah pak sby saja aku debat aneh demen main klaim buahtangan tanganperintah perintahpak paksby sbysaja sajaaku akudebat debataneh anehdemen demenmain mainklaim buahtanganperintah tanganperintahpak perintahpaksby paksbysaja sbysajaaku sajaakudebat akudebataneh debatanehdemen anehdemenmain demenmainklaim buahtanganperintahpak tanganperintahpaksby perintahpaksbysaja paksbysajaaku sbysajaakudebat sajaakudebataneh akudebatanehdemen debatanehdemenmain anehdemenmainklaim buahtanganperintahpaksby tanganperintahpaksbysaja perintahpaksbysajaaku paksbysajaakudebat sbysajaakudebataneh sajaakudebatanehdemen akudebatanehdemenmain debatanehdemenmainklaim buahtanganperintahpaksbysaja tanganperintahpaksbysajaaku perintahpaksbysajaakudebat paksbysajaakudebataneh sbysajaakudebatanehdemen sajaakudebatanehdemenmain akudebatanehdemenmainklaim</t>
+  </si>
+  <si>
+    <t>salut bangga pakde walaupun sipil bagai panglima tinggi baik harga kerja keras salutbangga banggapakde pakdewalaupun walaupunsipil sipilbagai bagaipanglima panglimatinggi tinggibaik baikharga hargakerja kerjakeras salutbanggapakde banggapakdewalaupun pakdewalaupunsipil walaupunsipilbagai sipilbagaipanglima bagaipanglimatinggi panglimatinggibaik tinggibaikharga baikhargakerja hargakerjakeras salutbanggapakdewalaupun banggapakdewalaupunsipil pakdewalaupunsipilbagai walaupunsipilbagaipanglima sipilbagaipanglimatinggi bagaipanglimatinggibaik panglimatinggibaikharga tinggibaikhargakerja baikhargakerjakeras salutbanggapakdewalaupunsipil banggapakdewalaupunsipilbagai pakdewalaupunsipilbagaipanglima walaupunsipilbagaipanglimatinggi sipilbagaipanglimatinggibaik bagaipanglimatinggibaikharga panglimatinggibaikhargakerja tinggibaikhargakerjakeras salutbanggapakdewalaupunsipilbagai banggapakdewalaupunsipilbagaipanglima pakdewalaupunsipilbagaipanglimatinggi walaupunsipilbagaipanglimatinggibaik sipilbagaipanglimatinggibaikharga bagaipanglimatinggibaikhargakerja panglimatinggibaikhargakerjakeras</t>
+  </si>
+  <si>
+    <t>indonesia kini sama jadi negara hebat menangjokowilagi https t co pyphejzzou indonesiakini kinisama samajadi jadinegara negarahebat hebatmenangjokowilagi menangjokowilagihttps httpst tco copyphejzzou indonesiakinisama kinisamajadi samajadinegara jadinegarahebat negarahebatmenangjokowilagi hebatmenangjokowilagihttps menangjokowilagihttpst httpstco tcopyphejzzou indonesiakinisamajadi kinisamajadinegara samajadinegarahebat jadinegarahebatmenangjokowilagi negarahebatmenangjokowilagihttps hebatmenangjokowilagihttpst menangjokowilagihttpstco httpstcopyphejzzou indonesiakinisamajadinegara kinisamajadinegarahebat samajadinegarahebatmenangjokowilagi jadinegarahebatmenangjokowilagihttps negarahebatmenangjokowilagihttpst hebatmenangjokowilagihttpstco menangjokowilagihttpstcopyphejzzou indonesiakinisamajadinegarahebat kinisamajadinegarahebatmenangjokowilagi samajadinegarahebatmenangjokowilagihttps jadinegarahebatmenangjokowilagihttpst negarahebatmenangjokowilagihttpstco hebatmenangjokowilagihttpstcopyphejzzou</t>
+  </si>
+  <si>
+    <t>tukang kayu lebih ngerti militer yang pernah jadi militer lebih tni tni tukangkayu kayulebih lebihngerti ngertimiliter militeryang yangpernah pernahjadi jadimiliter militerlebih lebihtni tnitni tukangkayulebih kayulebihngerti lebihngertimiliter ngertimiliteryang militeryangpernah yangpernahjadi pernahjadimiliter jadimiliterlebih militerlebihtni lebihtnitni tukangkayulebihngerti kayulebihngertimiliter lebihngertimiliteryang ngertimiliteryangpernah militeryangpernahjadi yangpernahjadimiliter pernahjadimiliterlebih jadimiliterlebihtni militerlebihtnitni tukangkayulebihngertimiliter kayulebihngertimiliteryang lebihngertimiliteryangpernah ngertimiliteryangpernahjadi militeryangpernahjadimiliter yangpernahjadimiliterlebih pernahjadimiliterlebihtni jadimiliterlebihtnitni tukangkayulebihngertimiliteryang kayulebihngertimiliteryangpernah lebihngertimiliteryangpernahjadi ngertimiliteryangpernahjadimiliter militeryangpernahjadimiliterlebih yangpernahjadimiliterlebihtni pernahjadimiliterlebihtnitni</t>
+  </si>
+  <si>
+    <t>nyawa saya taruh republik jangan ragu nasionalisme mas nyawasaya sayataruh taruhrepublik republikjangan janganragu ragunasionalisme nasionalismemas nyawasayataruh sayataruhrepublik taruhrepublikjangan republikjanganragu janganragunasionalisme ragunasionalismemas nyawasayataruhrepublik sayataruhrepublikjangan taruhrepublikjanganragu republikjanganragunasionalisme janganragunasionalismemas nyawasayataruhrepublikjangan sayataruhrepublikjanganragu taruhrepublikjanganragunasionalisme republikjanganragunasionalismemas nyawasayataruhrepublikjanganragu sayataruhrepublikjanganragunasionalisme taruhrepublikjanganragunasionalismemas</t>
+  </si>
+  <si>
+    <t>pancasila hasil suatu komporomi besar cemerlang generasi diri bangsa indonesia pancasilahasil hasilsuatu suatukomporomi komporomibesar besarcemerlang cemerlanggenerasi generasidiri diribangsa bangsaindonesia pancasilahasilsuatu hasilsuatukomporomi suatukomporomibesar komporomibesarcemerlang besarcemerlanggenerasi cemerlanggenerasidiri generasidiribangsa diribangsaindonesia pancasilahasilsuatukomporomi hasilsuatukomporomibesar suatukomporomibesarcemerlang komporomibesarcemerlanggenerasi besarcemerlanggenerasidiri cemerlanggenerasidiribangsa generasidiribangsaindonesia pancasilahasilsuatukomporomibesar hasilsuatukomporomibesarcemerlang suatukomporomibesarcemerlanggenerasi komporomibesarcemerlanggenerasidiri besarcemerlanggenerasidiribangsa cemerlanggenerasidiribangsaindonesia pancasilahasilsuatukomporomibesarcemerlang hasilsuatukomporomibesarcemerlanggenerasi suatukomporomibesarcemerlanggenerasidiri komporomibesarcemerlanggenerasidiribangsa besarcemerlanggenerasidiribangsaindonesia</t>
+  </si>
+  <si>
+    <t>paling sewot sayagolput dukung kami ingat pada alam bawah sadar bahwa kalah palingsewot sewotsayagolput sayagolputdukung dukungkami kamiingat ingatpada padaalam alambawah bawahsadar sadarbahwa bahwakalah palingsewotsayagolput sewotsayagolputdukung sayagolputdukungkami dukungkamiingat kamiingatpada ingatpadaalam padaalambawah alambawahsadar bawahsadarbahwa sadarbahwakalah palingsewotsayagolputdukung sewotsayagolputdukungkami sayagolputdukungkamiingat dukungkamiingatpada kamiingatpadaalam ingatpadaalambawah padaalambawahsadar alambawahsadarbahwa bawahsadarbahwakalah palingsewotsayagolputdukungkami sewotsayagolputdukungkamiingat sayagolputdukungkamiingatpada dukungkamiingatpadaalam kamiingatpadaalambawah ingatpadaalambawahsadar padaalambawahsadarbahwa alambawahsadarbahwakalah palingsewotsayagolputdukungkamiingat sewotsayagolputdukungkamiingatpada sayagolputdukungkamiingatpadaalam dukungkamiingatpadaalambawah kamiingatpadaalambawahsadar ingatpadaalambawahsadarbahwa padaalambawahsadarbahwakalah</t>
+  </si>
+  <si>
+    <t>jember siang tadi rombong wi sambut guru honorer ria jembersiang siangtadi tadirombong rombongwi wisambut sambutguru guruhonorer honorerria jembersiangtadi siangtadirombong tadirombongwi rombongwisambut wisambutguru sambutguruhonorer guruhonorerria jembersiangtadirombong siangtadirombongwi tadirombongwisambut rombongwisambutguru wisambutguruhonorer sambutguruhonorerria jembersiangtadirombongwi siangtadirombongwisambut tadirombongwisambutguru rombongwisambutguruhonorer wisambutguruhonorerria jembersiangtadirombongwisambut siangtadirombongwisambutguru tadirombongwisambutguruhonorer rombongwisambutguruhonorerria</t>
+  </si>
+  <si>
+    <t>dengan tekad kuat rubah bangsa pak mampu beri ubah bagai lini bangsa dengantekad tekadkuat kuatrubah rubahbangsa bangsapak pakmampu mampuberi beriubah ubahbagai bagailini linibangsa dengantekadkuat tekadkuatrubah kuatrubahbangsa rubahbangsapak bangsapakmampu pakmampuberi mampuberiubah beriubahbagai ubahbagailini bagailinibangsa dengantekadkuatrubah tekadkuatrubahbangsa kuatrubahbangsapak rubahbangsapakmampu bangsapakmampuberi pakmampuberiubah mampuberiubahbagai beriubahbagailini ubahbagailinibangsa dengantekadkuatrubahbangsa tekadkuatrubahbangsapak kuatrubahbangsapakmampu rubahbangsapakmampuberi bangsapakmampuberiubah pakmampuberiubahbagai mampuberiubahbagailini beriubahbagailinibangsa dengantekadkuatrubahbangsapak tekadkuatrubahbangsapakmampu kuatrubahbangsapakmampuberi rubahbangsapakmampuberiubah bangsapakmampuberiubahbagai pakmampuberiubahbagailini mampuberiubahbagailinibangsa</t>
+  </si>
+  <si>
+    <t>yang tau definisi polyglot coba cek google deh nyata pak orang polyglot yangtau taudefinisi definisipolyglot polyglotcoba cobacek cekgoogle googledeh dehnyata nyatapak pakorang orangpolyglot yangtaudefinisi taudefinisipolyglot definisipolyglotcoba polyglotcobacek cobacekgoogle cekgoogledeh googledehnyata dehnyatapak nyatapakorang pakorangpolyglot yangtaudefinisipolyglot taudefinisipolyglotcoba definisipolyglotcobacek polyglotcobacekgoogle cobacekgoogledeh cekgoogledehnyata googledehnyatapak dehnyatapakorang nyatapakorangpolyglot yangtaudefinisipolyglotcoba taudefinisipolyglotcobacek definisipolyglotcobacekgoogle polyglotcobacekgoogledeh cobacekgoogledehnyata cekgoogledehnyatapak googledehnyatapakorang dehnyatapakorangpolyglot yangtaudefinisipolyglotcobacek taudefinisipolyglotcobacekgoogle definisipolyglotcobacekgoogledeh polyglotcobacekgoogledehnyata cobacekgoogledehnyatapak cekgoogledehnyatapakorang googledehnyatapakorangpolyglot</t>
+  </si>
+  <si>
+    <t>sangat haru salam pisah pak jokowi barusan sahabat nomer satu presiden no sangatharu harusalam salampisah pisahpak pakjokowi jokowibarusan barusansahabat sahabatnomer nomersatu satupresiden presidenno sangatharusalam harusalampisah salampisahpak pisahpakjokowi pakjokowibarusan jokowibarusansahabat barusansahabatnomer sahabatnomersatu nomersatupresiden satupresidenno sangatharusalampisah harusalampisahpak salampisahpakjokowi pisahpakjokowibarusan pakjokowibarusansahabat jokowibarusansahabatnomer barusansahabatnomersatu sahabatnomersatupresiden nomersatupresidenno sangatharusalampisahpak harusalampisahpakjokowi salampisahpakjokowibarusan pisahpakjokowibarusansahabat pakjokowibarusansahabatnomer jokowibarusansahabatnomersatu barusansahabatnomersatupresiden sahabatnomersatupresidenno sangatharusalampisahpakjokowi harusalampisahpakjokowibarusan salampisahpakjokowibarusansahabat pisahpakjokowibarusansahabatnomer pakjokowibarusansahabatnomersatu jokowibarusansahabatnomersatupresiden barusansahabatnomersatupresidenno</t>
+  </si>
+  <si>
+    <t>kuat 2an adu isu elektabilitas media tulis elektabilitas non-prabowo sulit kejar kuat2an 2anadu aduisu isuelektabilitas elektabilitasmedia mediatulis tuliselektabilitas elektabilitasnon-prabowo non-prabowosulit sulitkejar kuat2anadu 2anaduisu aduisuelektabilitas isuelektabilitasmedia elektabilitasmediatulis mediatuliselektabilitas tuliselektabilitasnon-prabowo elektabilitasnon-prabowosulit non-prabowosulitkejar kuat2anaduisu 2anaduisuelektabilitas aduisuelektabilitasmedia isuelektabilitasmediatulis elektabilitasmediatuliselektabilitas mediatuliselektabilitasnon-prabowo tuliselektabilitasnon-prabowosulit elektabilitasnon-prabowosulitkejar kuat2anaduisuelektabilitas 2anaduisuelektabilitasmedia aduisuelektabilitasmediatulis isuelektabilitasmediatuliselektabilitas elektabilitasmediatuliselektabilitasnon-prabowo mediatuliselektabilitasnon-prabowosulit tuliselektabilitasnon-prabowosulitkejar kuat2anaduisuelektabilitasmedia 2anaduisuelektabilitasmediatulis aduisuelektabilitasmediatuliselektabilitas isuelektabilitasmediatuliselektabilitasnon-prabowo elektabilitasmediatuliselektabilitasnon-prabowosulit mediatuliselektabilitasnon-prabowosulitkejar</t>
+  </si>
+  <si>
+    <t>rakyat percaya tni 01dilanjutkan https t co fhdmwypu 5w rakyatpercaya percayatni tni01dilanjutkan 01dilanjutkanhttps httpst tco cofhdmwypu fhdmwypu5w rakyatpercayatni percayatni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcofhdmwypu cofhdmwypu5w rakyatpercayatni01dilanjutkan percayatni01dilanjutkanhttps tni01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcofhdmwypu tcofhdmwypu5w rakyatpercayatni01dilanjutkanhttps percayatni01dilanjutkanhttpst tni01dilanjutkanhttpstco 01dilanjutkanhttpstcofhdmwypu httpstcofhdmwypu5w rakyatpercayatni01dilanjutkanhttpst percayatni01dilanjutkanhttpstco tni01dilanjutkanhttpstcofhdmwypu 01dilanjutkanhttpstcofhdmwypu5w</t>
+  </si>
+  <si>
+    <t>pak nih kalau tongkrong tipikal semangat cerita panjang lebar tidak ditanggepin sama anak anak skip jangan gitu paknih nihkalau kalautongkrong tongkrongtipikal tipikalsemangat semangatcerita ceritapanjang panjanglebar lebartidak tidakditanggepin ditanggepinsama samaanak anakanak anakskip skipjangan jangangitu paknihkalau nihkalautongkrong kalautongkrongtipikal tongkrongtipikalsemangat tipikalsemangatcerita semangatceritapanjang ceritapanjanglebar panjanglebartidak lebartidakditanggepin tidakditanggepinsama ditanggepinsamaanak samaanakanak anakanakskip anakskipjangan skipjangangitu paknihkalautongkrong nihkalautongkrongtipikal kalautongkrongtipikalsemangat tongkrongtipikalsemangatcerita tipikalsemangatceritapanjang semangatceritapanjanglebar ceritapanjanglebartidak panjanglebartidakditanggepin lebartidakditanggepinsama tidakditanggepinsamaanak ditanggepinsamaanakanak samaanakanakskip anakanakskipjangan anakskipjangangitu paknihkalautongkrongtipikal nihkalautongkrongtipikalsemangat kalautongkrongtipikalsemangatcerita tongkrongtipikalsemangatceritapanjang tipikalsemangatceritapanjanglebar semangatceritapanjanglebartidak ceritapanjanglebartidakditanggepin panjanglebartidakditanggepinsama lebartidakditanggepinsamaanak tidakditanggepinsamaanakanak ditanggepinsamaanakanakskip samaanakanakskipjangan anakanakskipjangangitu paknihkalautongkrongtipikalsemangat nihkalautongkrongtipikalsemangatcerita kalautongkrongtipikalsemangatceritapanjang tongkrongtipikalsemangatceritapanjanglebar tipikalsemangatceritapanjanglebartidak semangatceritapanjanglebartidakditanggepin ceritapanjanglebartidakditanggepinsama panjanglebartidakditanggepinsamaanak lebartidakditanggepinsamaanakanak tidakditanggepinsamaanakanakskip ditanggepinsamaanakanakskipjangan samaanakanakskipjangangitu</t>
+  </si>
+  <si>
+    <t>pemerintahandilan keren tingkat puas publik hadap kerja perintah jokowi-jk tinggi atas pemerintahandilankeren kerentingkat tingkatpuas puaspublik publikhadap hadapkerja kerjaperintah perintahjokowi-jk jokowi-jktinggi tinggiatas pemerintahandilankerentingkat kerentingkatpuas tingkatpuaspublik puaspublikhadap publikhadapkerja hadapkerjaperintah kerjaperintahjokowi-jk perintahjokowi-jktinggi jokowi-jktinggiatas pemerintahandilankerentingkatpuas kerentingkatpuaspublik tingkatpuaspublikhadap puaspublikhadapkerja publikhadapkerjaperintah hadapkerjaperintahjokowi-jk kerjaperintahjokowi-jktinggi perintahjokowi-jktinggiatas pemerintahandilankerentingkatpuaspublik kerentingkatpuaspublikhadap tingkatpuaspublikhadapkerja puaspublikhadapkerjaperintah publikhadapkerjaperintahjokowi-jk hadapkerjaperintahjokowi-jktinggi kerjaperintahjokowi-jktinggiatas pemerintahandilankerentingkatpuaspublikhadap kerentingkatpuaspublikhadapkerja tingkatpuaspublikhadapkerjaperintah puaspublikhadapkerjaperintahjokowi-jk publikhadapkerjaperintahjokowi-jktinggi hadapkerjaperintahjokowi-jktinggiatas</t>
+  </si>
+  <si>
+    <t>tahan bidang hankam terlalu lemah anggar sangat kecil yang kita baik tahanbidang bidanghankam hankamterlalu terlalulemah lemahanggar anggarsangat sangatkecil kecilyang yangkita kitabaik tahanbidanghankam bidanghankamterlalu hankamterlalulemah terlalulemahanggar lemahanggarsangat anggarsangatkecil sangatkecilyang kecilyangkita yangkitabaik tahanbidanghankamterlalu bidanghankamterlalulemah hankamterlalulemahanggar terlalulemahanggarsangat lemahanggarsangatkecil anggarsangatkecilyang sangatkecilyangkita kecilyangkitabaik tahanbidanghankamterlalulemah bidanghankamterlalulemahanggar hankamterlalulemahanggarsangat terlalulemahanggarsangatkecil lemahanggarsangatkecilyang anggarsangatkecilyangkita sangatkecilyangkitabaik tahanbidanghankamterlalulemahanggar bidanghankamterlalulemahanggarsangat hankamterlalulemahanggarsangatkecil terlalulemahanggarsangatkecilyang lemahanggarsangatkecilyangkita anggarsangatkecilyangkitabaik</t>
+  </si>
+  <si>
+    <t>selamat pagi penganten lebih paham mana coblos mana pilih goyang jari pilih selamatpagi pagipenganten pengantenlebih lebihpaham pahammana manacoblos coblosmana manapilih pilihgoyang goyangjari jaripilih selamatpagipenganten pagipengantenlebih pengantenlebihpaham lebihpahammana pahammanacoblos manacoblosmana coblosmanapilih manapilihgoyang pilihgoyangjari goyangjaripilih selamatpagipengantenlebih pagipengantenlebihpaham pengantenlebihpahammana lebihpahammanacoblos pahammanacoblosmana manacoblosmanapilih coblosmanapilihgoyang manapilihgoyangjari pilihgoyangjaripilih selamatpagipengantenlebihpaham pagipengantenlebihpahammana pengantenlebihpahammanacoblos lebihpahammanacoblosmana pahammanacoblosmanapilih manacoblosmanapilihgoyang coblosmanapilihgoyangjari manapilihgoyangjaripilih selamatpagipengantenlebihpahammana pagipengantenlebihpahammanacoblos pengantenlebihpahammanacoblosmana lebihpahammanacoblosmanapilih pahammanacoblosmanapilihgoyang manacoblosmanapilihgoyangjari coblosmanapilihgoyangjaripilih</t>
+  </si>
+  <si>
+    <t>indonesia maju infrastruktur baik menang 01dilanjutkan https t co muddzx 0kwx indonesiamaju majuinfrastruktur infrastrukturbaik baikmenang menang01dilanjutkan 01dilanjutkanhttps httpst tco comuddzx muddzx0kwx indonesiamajuinfrastruktur majuinfrastrukturbaik infrastrukturbaikmenang baikmenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomuddzx comuddzx0kwx indonesiamajuinfrastrukturbaik majuinfrastrukturbaikmenang infrastrukturbaikmenang01dilanjutkan baikmenang01dilanjutkanhttps menang01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcomuddzx tcomuddzx0kwx indonesiamajuinfrastrukturbaikmenang majuinfrastrukturbaikmenang01dilanjutkan infrastrukturbaikmenang01dilanjutkanhttps baikmenang01dilanjutkanhttpst menang01dilanjutkanhttpstco 01dilanjutkanhttpstcomuddzx httpstcomuddzx0kwx indonesiamajuinfrastrukturbaikmenang01dilanjutkan majuinfrastrukturbaikmenang01dilanjutkanhttps infrastrukturbaikmenang01dilanjutkanhttpst baikmenang01dilanjutkanhttpstco menang01dilanjutkanhttpstcomuddzx 01dilanjutkanhttpstcomuddzx0kwx</t>
+  </si>
+  <si>
+    <t>selamat nama jadi trending paling banyak bicara good kerja buat anak twitter dukung selamatnama namajadi jaditrending trendingpaling palingbanyak banyakbicara bicaragood goodkerja kerjabuat buatanak anaktwitter twitterdukung selamatnamajadi namajaditrending jaditrendingpaling trendingpalingbanyak palingbanyakbicara banyakbicaragood bicaragoodkerja goodkerjabuat kerjabuatanak buatanaktwitter anaktwitterdukung selamatnamajaditrending namajaditrendingpaling jaditrendingpalingbanyak trendingpalingbanyakbicara palingbanyakbicaragood banyakbicaragoodkerja bicaragoodkerjabuat goodkerjabuatanak kerjabuatanaktwitter buatanaktwitterdukung selamatnamajaditrendingpaling namajaditrendingpalingbanyak jaditrendingpalingbanyakbicara trendingpalingbanyakbicaragood palingbanyakbicaragoodkerja banyakbicaragoodkerjabuat bicaragoodkerjabuatanak goodkerjabuatanaktwitter kerjabuatanaktwitterdukung selamatnamajaditrendingpalingbanyak namajaditrendingpalingbanyakbicara jaditrendingpalingbanyakbicaragood trendingpalingbanyakbicaragoodkerja palingbanyakbicaragoodkerjabuat banyakbicaragoodkerjabuatanak bicaragoodkerjabuatanaktwitter goodkerjabuatanaktwitterdukung</t>
+  </si>
+  <si>
+    <t>insyallah allah pak menang telak prabowobentengnkri https t co qptegiu 2ua insyallahallah allahpak pakmenang menangtelak telakprabowobentengnkri prabowobentengnkrihttps httpst tco coqptegiu qptegiu2ua insyallahallahpak allahpakmenang pakmenangtelak menangtelakprabowobentengnkri telakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoqptegiu coqptegiu2ua insyallahallahpakmenang allahpakmenangtelak pakmenangtelakprabowobentengnkri menangtelakprabowobentengnkrihttps telakprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcoqptegiu tcoqptegiu2ua insyallahallahpakmenangtelak allahpakmenangtelakprabowobentengnkri pakmenangtelakprabowobentengnkrihttps menangtelakprabowobentengnkrihttpst telakprabowobentengnkrihttpstco prabowobentengnkrihttpstcoqptegiu httpstcoqptegiu2ua insyallahallahpakmenangtelakprabowobentengnkri allahpakmenangtelakprabowobentengnkrihttps pakmenangtelakprabowobentengnkrihttpst menangtelakprabowobentengnkrihttpstco telakprabowobentengnkrihttpstcoqptegiu prabowobentengnkrihttpstcoqptegiu2ua</t>
+  </si>
+  <si>
+    <t>wajah prabohong pucet gara-gara tau apa kata pak kualitas lanjut pemerintahandilan wajahprabohong prabohongpucet pucetgara-gara gara-garatau tauapa apakata katapak pakkualitas kualitaslanjut lanjutpemerintahandilan wajahprabohongpucet prabohongpucetgara-gara pucetgara-garatau gara-garatauapa tauapakata apakatapak katapakkualitas pakkualitaslanjut kualitaslanjutpemerintahandilan wajahprabohongpucetgara-gara prabohongpucetgara-garatau pucetgara-garatauapa gara-garatauapakata tauapakatapak apakatapakkualitas katapakkualitaslanjut pakkualitaslanjutpemerintahandilan wajahprabohongpucetgara-garatau prabohongpucetgara-garatauapa pucetgara-garatauapakata gara-garatauapakatapak tauapakatapakkualitas apakatapakkualitaslanjut katapakkualitaslanjutpemerintahandilan wajahprabohongpucetgara-garatauapa prabohongpucetgara-garatauapakata pucetgara-garatauapakatapak gara-garatauapakatapakkualitas tauapakatapakkualitaslanjut apakatapakkualitaslanjutpemerintahandilan</t>
+  </si>
+  <si>
+    <t>khas pak kena kemeja putih lengan panjang gulung 01dilanjutkan https t co re2jvkcqto khaspak pakkena kenakemeja kemejaputih putihlengan lenganpanjang panjanggulung gulung01dilanjutkan 01dilanjutkanhttps httpst tco core2jvkcqto khaspakkena pakkenakemeja kenakemejaputih kemejaputihlengan putihlenganpanjang lenganpanjanggulung panjanggulung01dilanjutkan gulung01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcore2jvkcqto khaspakkenakemeja pakkenakemejaputih kenakemejaputihlengan kemejaputihlenganpanjang putihlenganpanjanggulung lenganpanjanggulung01dilanjutkan panjanggulung01dilanjutkanhttps gulung01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcore2jvkcqto khaspakkenakemejaputih pakkenakemejaputihlengan kenakemejaputihlenganpanjang kemejaputihlenganpanjanggulung putihlenganpanjanggulung01dilanjutkan lenganpanjanggulung01dilanjutkanhttps panjanggulung01dilanjutkanhttpst gulung01dilanjutkanhttpstco 01dilanjutkanhttpstcore2jvkcqto khaspakkenakemejaputihlengan pakkenakemejaputihlenganpanjang kenakemejaputihlenganpanjanggulung kemejaputihlenganpanjanggulung01dilanjutkan putihlenganpanjanggulung01dilanjutkanhttps lenganpanjanggulung01dilanjutkanhttpst panjanggulung01dilanjutkanhttpstco gulung01dilanjutkanhttpstcore2jvkcqto</t>
+  </si>
+  <si>
+    <t>jalan demokrasi baik laksana sekarang kok tolak belakang prabowobentengnkri jalandemokrasi demokrasibaik baiklaksana laksanasekarang sekarangkok koktolak tolakbelakang belakangprabowobentengnkri jalandemokrasibaik demokrasibaiklaksana baiklaksanasekarang laksanasekarangkok sekarangkoktolak koktolakbelakang tolakbelakangprabowobentengnkri jalandemokrasibaiklaksana demokrasibaiklaksanasekarang baiklaksanasekarangkok laksanasekarangkoktolak sekarangkoktolakbelakang koktolakbelakangprabowobentengnkri jalandemokrasibaiklaksanasekarang demokrasibaiklaksanasekarangkok baiklaksanasekarangkoktolak laksanasekarangkoktolakbelakang sekarangkoktolakbelakangprabowobentengnkri jalandemokrasibaiklaksanasekarangkok demokrasibaiklaksanasekarangkoktolak baiklaksanasekarangkoktolakbelakang laksanasekarangkoktolakbelakangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>personifikasi debat empat sangat kuat itu kokoh pribadi diri bagai orang patriotik personifikasidebat debatempat empatsangat sangatkuat kuatitu itukokoh kokohpribadi pribadidiri diribagai bagaiorang orangpatriotik personifikasidebatempat debatempatsangat empatsangatkuat sangatkuatitu kuatitukokoh itukokohpribadi kokohpribadidiri pribadidiribagai diribagaiorang bagaiorangpatriotik personifikasidebatempatsangat debatempatsangatkuat empatsangatkuatitu sangatkuatitukokoh kuatitukokohpribadi itukokohpribadidiri kokohpribadidiribagai pribadidiribagaiorang diribagaiorangpatriotik personifikasidebatempatsangatkuat debatempatsangatkuatitu empatsangatkuatitukokoh sangatkuatitukokohpribadi kuatitukokohpribadidiri itukokohpribadidiribagai kokohpribadidiribagaiorang pribadidiribagaiorangpatriotik personifikasidebatempatsangatkuatitu debatempatsangatkuatitukokoh empatsangatkuatitukokohpribadi sangatkuatitukokohpribadidiri kuatitukokohpribadidiribagai itukokohpribadidiribagaiorang kokohpribadidiribagaiorangpatriotik</t>
+  </si>
+  <si>
+    <t>sama orang hebat indonesia maju unggul menangjokowilagi samaorang oranghebat hebatindonesia indonesiamaju majuunggul unggulmenangjokowilagi samaoranghebat oranghebatindonesia hebatindonesiamaju indonesiamajuunggul majuunggulmenangjokowilagi samaoranghebatindonesia oranghebatindonesiamaju hebatindonesiamajuunggul indonesiamajuunggulmenangjokowilagi samaoranghebatindonesiamaju oranghebatindonesiamajuunggul hebatindonesiamajuunggulmenangjokowilagi samaoranghebatindonesiamajuunggul oranghebatindonesiamajuunggulmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>marah tahan negara lemah tertawa bukti sangkut paranoid atas ancam asing marahtahan tahannegara negaralemah lemahtertawa tertawabukti buktisangkut sangkutparanoid paranoidatas atasancam ancamasing marahtahannegara tahannegaralemah negaralemahtertawa lemahtertawabukti tertawabuktisangkut buktisangkutparanoid sangkutparanoidatas paranoidatasancam atasancamasing marahtahannegaralemah tahannegaralemahtertawa negaralemahtertawabukti lemahtertawabuktisangkut tertawabuktisangkutparanoid buktisangkutparanoidatas sangkutparanoidatasancam paranoidatasancamasing marahtahannegaralemahtertawa tahannegaralemahtertawabukti negaralemahtertawabuktisangkut lemahtertawabuktisangkutparanoid tertawabuktisangkutparanoidatas buktisangkutparanoidatasancam sangkutparanoidatasancamasing marahtahannegaralemahtertawabukti tahannegaralemahtertawabuktisangkut negaralemahtertawabuktisangkutparanoid lemahtertawabuktisangkutparanoidatas tertawabuktisangkutparanoidatasancam buktisangkutparanoidatasancamasing</t>
+  </si>
+  <si>
+    <t>jumlah massa kampanye akbar pakansari hingga jalan capai satu juta orang luar biasa bogor jumlahmassa massakampanye kampanyeakbar akbarpakansari pakansarihingga hinggajalan jalancapai capaisatu satujuta jutaorang orangluar luarbiasa biasabogor jumlahmassakampanye massakampanyeakbar kampanyeakbarpakansari akbarpakansarihingga pakansarihinggajalan hinggajalancapai jalancapaisatu capaisatujuta satujutaorang jutaorangluar orangluarbiasa luarbiasabogor jumlahmassakampanyeakbar massakampanyeakbarpakansari kampanyeakbarpakansarihingga akbarpakansarihinggajalan pakansarihinggajalancapai hinggajalancapaisatu jalancapaisatujuta capaisatujutaorang satujutaorangluar jutaorangluarbiasa orangluarbiasabogor jumlahmassakampanyeakbarpakansari massakampanyeakbarpakansarihingga kampanyeakbarpakansarihinggajalan akbarpakansarihinggajalancapai pakansarihinggajalancapaisatu hinggajalancapaisatujuta jalancapaisatujutaorang capaisatujutaorangluar satujutaorangluarbiasa jutaorangluarbiasabogor jumlahmassakampanyeakbarpakansarihingga massakampanyeakbarpakansarihinggajalan kampanyeakbarpakansarihinggajalancapai akbarpakansarihinggajalancapaisatu pakansarihinggajalancapaisatujuta hinggajalancapaisatujutaorang jalancapaisatujutaorangluar capaisatujutaorangluarbiasa satujutaorangluarbiasabogor</t>
+  </si>
+  <si>
+    <t>kita banding pakai hati nurani akal sehat pancasila beri sejak dini kitabanding bandingpakai pakaihati hatinurani nuraniakal akalsehat sehatpancasila pancasilaberi berisejak sejakdini kitabandingpakai bandingpakaihati pakaihatinurani hatinuraniakal nuraniakalsehat akalsehatpancasila sehatpancasilaberi pancasilaberisejak berisejakdini kitabandingpakaihati bandingpakaihatinurani pakaihatinuraniakal hatinuraniakalsehat nuraniakalsehatpancasila akalsehatpancasilaberi sehatpancasilaberisejak pancasilaberisejakdini kitabandingpakaihatinurani bandingpakaihatinuraniakal pakaihatinuraniakalsehat hatinuraniakalsehatpancasila nuraniakalsehatpancasilaberi akalsehatpancasilaberisejak sehatpancasilaberisejakdini kitabandingpakaihatinuraniakal bandingpakaihatinuraniakalsehat pakaihatinuraniakalsehatpancasila hatinuraniakalsehatpancasilaberi nuraniakalsehatpancasilaberisejak akalsehatpancasilaberisejakdini</t>
+  </si>
+  <si>
+    <t>mumpung debatpilpres 2019 istirahat senyum manis dulu salam bismillah indonesia mumpungdebatpilpres debatpilpres2019 2019istirahat istirahatsenyum senyummanis manisdulu dulusalam salambismillah bismillahindonesia mumpungdebatpilpres2019 debatpilpres2019istirahat 2019istirahatsenyum istirahatsenyummanis senyummanisdulu manisdulusalam dulusalambismillah salambismillahindonesia mumpungdebatpilpres2019istirahat debatpilpres2019istirahatsenyum 2019istirahatsenyummanis istirahatsenyummanisdulu senyummanisdulusalam manisdulusalambismillah dulusalambismillahindonesia mumpungdebatpilpres2019istirahatsenyum debatpilpres2019istirahatsenyummanis 2019istirahatsenyummanisdulu istirahatsenyummanisdulusalam senyummanisdulusalambismillah manisdulusalambismillahindonesia mumpungdebatpilpres2019istirahatsenyummanis debatpilpres2019istirahatsenyummanisdulu 2019istirahatsenyummanisdulusalam istirahatsenyummanisdulusalambismillah senyummanisdulusalambismillahindonesia</t>
+  </si>
+  <si>
+    <t>hei kalian suka nyinyirin bapak jelek 2an beliau maaf selalu bukti beliau orang baik tanggungjawab heikalian kaliansuka sukanyinyirin nyinyirinbapak bapakjelek jelek2an 2anbeliau beliaumaaf maafselalu selalubukti buktibeliau beliauorang orangbaik baiktanggungjawab heikaliansuka kaliansukanyinyirin sukanyinyirinbapak nyinyirinbapakjelek bapakjelek2an jelek2anbeliau 2anbeliaumaaf beliaumaafselalu maafselalubukti selalubuktibeliau buktibeliauorang beliauorangbaik orangbaiktanggungjawab heikaliansukanyinyirin kaliansukanyinyirinbapak sukanyinyirinbapakjelek nyinyirinbapakjelek2an bapakjelek2anbeliau jelek2anbeliaumaaf 2anbeliaumaafselalu beliaumaafselalubukti maafselalubuktibeliau selalubuktibeliauorang buktibeliauorangbaik beliauorangbaiktanggungjawab heikaliansukanyinyirinbapak kaliansukanyinyirinbapakjelek sukanyinyirinbapakjelek2an nyinyirinbapakjelek2anbeliau bapakjelek2anbeliaumaaf jelek2anbeliaumaafselalu 2anbeliaumaafselalubukti beliaumaafselalubuktibeliau maafselalubuktibeliauorang selalubuktibeliauorangbaik buktibeliauorangbaiktanggungjawab heikaliansukanyinyirinbapakjelek kaliansukanyinyirinbapakjelek2an sukanyinyirinbapakjelek2anbeliau nyinyirinbapakjelek2anbeliaumaaf bapakjelek2anbeliaumaafselalu jelek2anbeliaumaafselalubukti 2anbeliaumaafselalubuktibeliau beliaumaafselalubuktibeliauorang maafselalubuktibeliauorangbaik selalubuktibeliauorangbaiktanggungjawab</t>
+  </si>
+  <si>
+    <t>jual beli jabat waris sejak perintah mantan mertua kamu pak memang susah rubah mental orde baru jualbeli belijabat jabatwaris warissejak sejakperintah perintahmantan mantanmertua mertuakamu kamupak pakmemang memangsusah susahrubah rubahmental mentalorde ordebaru jualbelijabat belijabatwaris jabatwarissejak warissejakperintah sejakperintahmantan perintahmantanmertua mantanmertuakamu mertuakamupak kamupakmemang pakmemangsusah memangsusahrubah susahrubahmental rubahmentalorde mentalordebaru jualbelijabatwaris belijabatwarissejak jabatwarissejakperintah warissejakperintahmantan sejakperintahmantanmertua perintahmantanmertuakamu mantanmertuakamupak mertuakamupakmemang kamupakmemangsusah pakmemangsusahrubah memangsusahrubahmental susahrubahmentalorde rubahmentalordebaru jualbelijabatwarissejak belijabatwarissejakperintah jabatwarissejakperintahmantan warissejakperintahmantanmertua sejakperintahmantanmertuakamu perintahmantanmertuakamupak mantanmertuakamupakmemang mertuakamupakmemangsusah kamupakmemangsusahrubah pakmemangsusahrubahmental memangsusahrubahmentalorde susahrubahmentalordebaru jualbelijabatwarissejakperintah belijabatwarissejakperintahmantan jabatwarissejakperintahmantanmertua warissejakperintahmantanmertuakamu sejakperintahmantanmertuakamupak perintahmantanmertuakamupakmemang mantanmertuakamupakmemangsusah mertuakamupakmemangsusahrubah kamupakmemangsusahrubahmental pakmemangsusahrubahmentalorde memangsusahrubahmentalordebaru</t>
+  </si>
+  <si>
+    <t>orasi politik ketua umum pan tegas jawa barat salah satu kunci menang orasipolitik politikketua ketuaumum umumpan pantegas tegasjawa jawabarat baratsalah salahsatu satukunci kuncimenang orasipolitikketua politikketuaumum ketuaumumpan umumpantegas pantegasjawa tegasjawabarat jawabaratsalah baratsalahsatu salahsatukunci satukuncimenang orasipolitikketuaumum politikketuaumumpan ketuaumumpantegas umumpantegasjawa pantegasjawabarat tegasjawabaratsalah jawabaratsalahsatu baratsalahsatukunci salahsatukuncimenang orasipolitikketuaumumpan politikketuaumumpantegas ketuaumumpantegasjawa umumpantegasjawabarat pantegasjawabaratsalah tegasjawabaratsalahsatu jawabaratsalahsatukunci baratsalahsatukuncimenang orasipolitikketuaumumpantegas politikketuaumumpantegasjawa ketuaumumpantegasjawabarat umumpantegasjawabaratsalah pantegasjawabaratsalahsatu tegasjawabaratsalahsatukunci jawabaratsalahsatukuncimenang</t>
+  </si>
+  <si>
+    <t>mantap bang cebong marahin mala ketawa dasar dungu akut mantapbang bangcebong cebongmarahin marahinmala malaketawa ketawadasar dasardungu dunguakut mantapbangcebong bangcebongmarahin cebongmarahinmala marahinmalaketawa malaketawadasar ketawadasardungu dasardunguakut mantapbangcebongmarahin bangcebongmarahinmala cebongmarahinmalaketawa marahinmalaketawadasar malaketawadasardungu ketawadasardunguakut mantapbangcebongmarahinmala bangcebongmarahinmalaketawa cebongmarahinmalaketawadasar marahinmalaketawadasardungu malaketawadasardunguakut mantapbangcebongmarahinmalaketawa bangcebongmarahinmalaketawadasar cebongmarahinmalaketawadasardungu marahinmalaketawadasardunguakut</t>
+  </si>
+  <si>
+    <t>saya inti perintah bahwa lembaga perintah harus bersih korupsi sayainti intiperintah perintahbahwa bahwalembaga lembagaperintah perintahharus harusbersih bersihkorupsi sayaintiperintah intiperintahbahwa perintahbahwalembaga bahwalembagaperintah lembagaperintahharus perintahharusbersih harusbersihkorupsi sayaintiperintahbahwa intiperintahbahwalembaga perintahbahwalembagaperintah bahwalembagaperintahharus lembagaperintahharusbersih perintahharusbersihkorupsi sayaintiperintahbahwalembaga intiperintahbahwalembagaperintah perintahbahwalembagaperintahharus bahwalembagaperintahharusbersih lembagaperintahharusbersihkorupsi sayaintiperintahbahwalembagaperintah intiperintahbahwalembagaperintahharus perintahbahwalembagaperintahharusbersih bahwalembagaperintahharusbersihkorupsi</t>
+  </si>
+  <si>
+    <t>omong pak calon presiden pecat tni begitu pantes pecat wong sering gagal paham https t co etacadeg 8n omongpak pakcalon calonpresiden presidenpecat pecattni tnibegitu begitupantes pantespecat pecatwong wongsering seringgagal gagalpaham pahamhttps httpst tco coetacadeg etacadeg8n omongpakcalon pakcalonpresiden calonpresidenpecat presidenpecattni pecattnibegitu tnibegitupantes begitupantespecat pantespecatwong pecatwongsering wongseringgagal seringgagalpaham gagalpahamhttps pahamhttpst httpstco tcoetacadeg coetacadeg8n omongpakcalonpresiden pakcalonpresidenpecat calonpresidenpecattni presidenpecattnibegitu pecattnibegitupantes tnibegitupantespecat begitupantespecatwong pantespecatwongsering pecatwongseringgagal wongseringgagalpaham seringgagalpahamhttps gagalpahamhttpst pahamhttpstco httpstcoetacadeg tcoetacadeg8n omongpakcalonpresidenpecat pakcalonpresidenpecattni calonpresidenpecattnibegitu presidenpecattnibegitupantes pecattnibegitupantespecat tnibegitupantespecatwong begitupantespecatwongsering pantespecatwongseringgagal pecatwongseringgagalpaham wongseringgagalpahamhttps seringgagalpahamhttpst gagalpahamhttpstco pahamhttpstcoetacadeg httpstcoetacadeg8n omongpakcalonpresidenpecattni pakcalonpresidenpecattnibegitu calonpresidenpecattnibegitupantes presidenpecattnibegitupantespecat pecattnibegitupantespecatwong tnibegitupantespecatwongsering begitupantespecatwongseringgagal pantespecatwongseringgagalpaham pecatwongseringgagalpahamhttps wongseringgagalpahamhttpst seringgagalpahamhttpstco gagalpahamhttpstcoetacadeg pahamhttpstcoetacadeg8n</t>
+  </si>
+  <si>
+    <t>sangat dukung kembang ekonomi digital lalu pemerintahandilan usaha pelihara stratup sangatdukung dukungkembang kembangekonomi ekonomidigital digitallalu lalupemerintahandilan pemerintahandilanusaha usahapelihara peliharastratup sangatdukungkembang dukungkembangekonomi kembangekonomidigital ekonomidigitallalu digitallalupemerintahandilan lalupemerintahandilanusaha pemerintahandilanusahapelihara usahapeliharastratup sangatdukungkembangekonomi dukungkembangekonomidigital kembangekonomidigitallalu ekonomidigitallalupemerintahandilan digitallalupemerintahandilanusaha lalupemerintahandilanusahapelihara pemerintahandilanusahapeliharastratup sangatdukungkembangekonomidigital dukungkembangekonomidigitallalu kembangekonomidigitallalupemerintahandilan ekonomidigitallalupemerintahandilanusaha digitallalupemerintahandilanusahapelihara lalupemerintahandilanusahapeliharastratup sangatdukungkembangekonomidigitallalu dukungkembangekonomidigitallalupemerintahandilan kembangekonomidigitallalupemerintahandilanusaha ekonomidigitallalupemerintahandilanusahapelihara digitallalupemerintahandilanusahapeliharastratup</t>
+  </si>
+  <si>
+    <t>benar pak sampai tadi bahwasannya perintah sekarang banyak teori tidak sesuai nyata benarpak paksampai sampaitadi tadibahwasannya bahwasannyaperintah perintahsekarang sekarangbanyak banyakteori teoritidak tidaksesuai sesuainyata benarpaksampai paksampaitadi sampaitadibahwasannya tadibahwasannyaperintah bahwasannyaperintahsekarang perintahsekarangbanyak sekarangbanyakteori banyakteoritidak teoritidaksesuai tidaksesuainyata benarpaksampaitadi paksampaitadibahwasannya sampaitadibahwasannyaperintah tadibahwasannyaperintahsekarang bahwasannyaperintahsekarangbanyak perintahsekarangbanyakteori sekarangbanyakteoritidak banyakteoritidaksesuai teoritidaksesuainyata benarpaksampaitadibahwasannya paksampaitadibahwasannyaperintah sampaitadibahwasannyaperintahsekarang tadibahwasannyaperintahsekarangbanyak bahwasannyaperintahsekarangbanyakteori perintahsekarangbanyakteoritidak sekarangbanyakteoritidaksesuai banyakteoritidaksesuainyata benarpaksampaitadibahwasannyaperintah paksampaitadibahwasannyaperintahsekarang sampaitadibahwasannyaperintahsekarangbanyak tadibahwasannyaperintahsekarangbanyakteori bahwasannyaperintahsekarangbanyakteoritidak perintahsekarangbanyakteoritidaksesuai sekarangbanyakteoritidaksesuainyata</t>
+  </si>
+  <si>
+    <t>ada wiranto luhut hendro agum masak jenderal dukung bila pki sendiri jenderal adawiranto wirantoluhut luhuthendro hendroagum agummasak masakjenderal jenderaldukung dukungbila bilapki pkisendiri sendirijenderal adawirantoluhut wirantoluhuthendro luhuthendroagum hendroagummasak agummasakjenderal masakjenderaldukung jenderaldukungbila dukungbilapki bilapkisendiri pkisendirijenderal adawirantoluhuthendro wirantoluhuthendroagum luhuthendroagummasak hendroagummasakjenderal agummasakjenderaldukung masakjenderaldukungbila jenderaldukungbilapki dukungbilapkisendiri bilapkisendirijenderal adawirantoluhuthendroagum wirantoluhuthendroagummasak luhuthendroagummasakjenderal hendroagummasakjenderaldukung agummasakjenderaldukungbila masakjenderaldukungbilapki jenderaldukungbilapkisendiri dukungbilapkisendirijenderal adawirantoluhuthendroagummasak wirantoluhuthendroagummasakjenderal luhuthendroagummasakjenderaldukung hendroagummasakjenderaldukungbila agummasakjenderaldukungbilapki masakjenderaldukungbilapkisendiri jenderaldukungbilapkisendirijenderal</t>
+  </si>
+  <si>
+    <t>culik culik hati milenial tionghoa kuaile de zhandou selamat juang culikculik culikhati hatimilenial milenialtionghoa tionghoakuaile kuailede dezhandou zhandouselamat selamatjuang culikculikhati culikhatimilenial hatimilenialtionghoa milenialtionghoakuaile tionghoakuailede kuailedezhandou dezhandouselamat zhandouselamatjuang culikculikhatimilenial culikhatimilenialtionghoa hatimilenialtionghoakuaile milenialtionghoakuailede tionghoakuailedezhandou kuailedezhandouselamat dezhandouselamatjuang culikculikhatimilenialtionghoa culikhatimilenialtionghoakuaile hatimilenialtionghoakuailede milenialtionghoakuailedezhandou tionghoakuailedezhandouselamat kuailedezhandouselamatjuang culikculikhatimilenialtionghoakuaile culikhatimilenialtionghoakuailede hatimilenialtionghoakuailedezhandou milenialtionghoakuailedezhandouselamat tionghoakuailedezhandouselamatjuang</t>
+  </si>
+  <si>
+    <t>nonton kok jurus aja monoton contoh bahas korupsi lagi lagi jurus kemaren nontonkok kokjurus jurusaja ajamonoton monotoncontoh contohbahas bahaskorupsi korupsilagi lagilagi lagijurus juruskemaren nontonkokjurus kokjurusaja jurusajamonoton ajamonotoncontoh monotoncontohbahas contohbahaskorupsi bahaskorupsilagi korupsilagilagi lagilagijurus lagijuruskemaren nontonkokjurusaja kokjurusajamonoton jurusajamonotoncontoh ajamonotoncontohbahas monotoncontohbahaskorupsi contohbahaskorupsilagi bahaskorupsilagilagi korupsilagilagijurus lagilagijuruskemaren nontonkokjurusajamonoton kokjurusajamonotoncontoh jurusajamonotoncontohbahas ajamonotoncontohbahaskorupsi monotoncontohbahaskorupsilagi contohbahaskorupsilagilagi bahaskorupsilagilagijurus korupsilagilagijuruskemaren nontonkokjurusajamonotoncontoh kokjurusajamonotoncontohbahas jurusajamonotoncontohbahaskorupsi ajamonotoncontohbahaskorupsilagi monotoncontohbahaskorupsilagilagi contohbahaskorupsilagilagijurus bahaskorupsilagilagijuruskemaren</t>
+  </si>
+  <si>
+    <t>rawan muda gelar nobar tekan golput kalang milenial https t co w4k3nrowfy rawanmuda mudagelar gelarnobar nobartekan tekangolput golputkalang kalangmilenial milenialhttps httpst tco cow4k3nrowfy rawanmudagelar mudagelarnobar gelarnobartekan nobartekangolput tekangolputkalang golputkalangmilenial kalangmilenialhttps milenialhttpst httpstco tcow4k3nrowfy rawanmudagelarnobar mudagelarnobartekan gelarnobartekangolput nobartekangolputkalang tekangolputkalangmilenial golputkalangmilenialhttps kalangmilenialhttpst milenialhttpstco httpstcow4k3nrowfy rawanmudagelarnobartekan mudagelarnobartekangolput gelarnobartekangolputkalang nobartekangolputkalangmilenial tekangolputkalangmilenialhttps golputkalangmilenialhttpst kalangmilenialhttpstco milenialhttpstcow4k3nrowfy rawanmudagelarnobartekangolput mudagelarnobartekangolputkalang gelarnobartekangolputkalangmilenial nobartekangolputkalangmilenialhttps tekangolputkalangmilenialhttpst golputkalangmilenialhttpstco kalangmilenialhttpstcow4k3nrowfy</t>
+  </si>
+  <si>
+    <t>salah satu contoh kecil prestasi hasil nya jelas silah cek sendiri data salahsatu satucontoh contohkecil kecilprestasi prestasihasil hasilnya nyajelas jelassilah silahcek ceksendiri sendiridata salahsatucontoh satucontohkecil contohkecilprestasi kecilprestasihasil prestasihasilnya hasilnyajelas nyajelassilah jelassilahcek silahceksendiri ceksendiridata salahsatucontohkecil satucontohkecilprestasi contohkecilprestasihasil kecilprestasihasilnya prestasihasilnyajelas hasilnyajelassilah nyajelassilahcek jelassilahceksendiri silahceksendiridata salahsatucontohkecilprestasi satucontohkecilprestasihasil contohkecilprestasihasilnya kecilprestasihasilnyajelas prestasihasilnyajelassilah hasilnyajelassilahcek nyajelassilahceksendiri jelassilahceksendiridata salahsatucontohkecilprestasihasil satucontohkecilprestasihasilnya contohkecilprestasihasilnyajelas kecilprestasihasilnyajelassilah prestasihasilnyajelassilahcek hasilnyajelassilahceksendiri nyajelassilahceksendiridata</t>
+  </si>
+  <si>
+    <t>sumber foto jenderal goblok udah edit eh foto orang kamboja keren cici kamboja dukung sumberfoto fotojenderal jenderalgoblok goblokudah udahedit editeh ehfoto fotoorang orangkamboja kambojakeren kerencici cicikamboja kambojadukung sumberfotojenderal fotojenderalgoblok jenderalgoblokudah goblokudahedit udahediteh editehfoto ehfotoorang fotoorangkamboja orangkambojakeren kambojakerencici kerencicikamboja cicikambojadukung sumberfotojenderalgoblok fotojenderalgoblokudah jenderalgoblokudahedit goblokudahediteh udaheditehfoto editehfotoorang ehfotoorangkamboja fotoorangkambojakeren orangkambojakerencici kambojakerencicikamboja kerencicikambojadukung sumberfotojenderalgoblokudah fotojenderalgoblokudahedit jenderalgoblokudahediteh goblokudaheditehfoto udaheditehfotoorang editehfotoorangkamboja ehfotoorangkambojakeren fotoorangkambojakerencici orangkambojakerencicikamboja kambojakerencicikambojadukung sumberfotojenderalgoblokudahedit fotojenderalgoblokudahediteh jenderalgoblokudaheditehfoto goblokudaheditehfotoorang udaheditehfotoorangkamboja editehfotoorangkambojakeren ehfotoorangkambojakerencici fotoorangkambojakerencicikamboja orangkambojakerencicikambojadukung</t>
+  </si>
+  <si>
+    <t>pak mau indonesia hormat tidak tahu cara capa tahu cara pidato pakmau mauindonesia indonesiahormat hormattidak tidaktahu tahucara caracapa capatahu tahucara carapidato pakmauindonesia mauindonesiahormat indonesiahormattidak hormattidaktahu tidaktahucara tahucaracapa caracapatahu capatahucara tahucarapidato pakmauindonesiahormat mauindonesiahormattidak indonesiahormattidaktahu hormattidaktahucara tidaktahucaracapa tahucaracapatahu caracapatahucara capatahucarapidato pakmauindonesiahormattidak mauindonesiahormattidaktahu indonesiahormattidaktahucara hormattidaktahucaracapa tidaktahucaracapatahu tahucaracapatahucara caracapatahucarapidato pakmauindonesiahormattidaktahu mauindonesiahormattidaktahucara indonesiahormattidaktahucaracapa hormattidaktahucaracapatahu tidaktahucaracapatahucara tahucaracapatahucarapidato</t>
+  </si>
+  <si>
+    <t>closing statement aku kuat lawan closingstatement statementaku akukuat kuatlawan closingstatementaku statementakukuat akukuatlawan closingstatementakukuat statementakukuatlawan closingstatementakukuatlawan</t>
+  </si>
+  <si>
+    <t>beberapa pimpin organisasi bobotoh para suporter persib bandung deklarasi dukung pak beberapapimpin pimpinorganisasi organisasibobotoh bobotohpara parasuporter suporterpersib persibbandung bandungdeklarasi deklarasidukung dukungpak beberapapimpinorganisasi pimpinorganisasibobotoh organisasibobotohpara bobotohparasuporter parasuporterpersib suporterpersibbandung persibbandungdeklarasi bandungdeklarasidukung deklarasidukungpak beberapapimpinorganisasibobotoh pimpinorganisasibobotohpara organisasibobotohparasuporter bobotohparasuporterpersib parasuporterpersibbandung suporterpersibbandungdeklarasi persibbandungdeklarasidukung bandungdeklarasidukungpak beberapapimpinorganisasibobotohpara pimpinorganisasibobotohparasuporter organisasibobotohparasuporterpersib bobotohparasuporterpersibbandung parasuporterpersibbandungdeklarasi suporterpersibbandungdeklarasidukung persibbandungdeklarasidukungpak beberapapimpinorganisasibobotohparasuporter pimpinorganisasibobotohparasuporterpersib organisasibobotohparasuporterpersibbandung bobotohparasuporterpersibbandungdeklarasi parasuporterpersibbandungdeklarasidukung suporterpersibbandungdeklarasidukungpak</t>
+  </si>
+  <si>
+    <t>saya bukan salah saya kuat tahan sangat rapuh lemah bukan salah bapak sayabukan bukansalah salahsaya sayakuat kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak sayabukansalah bukansalahsaya salahsayakuat sayakuattahan kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak sayabukansalahsaya bukansalahsayakuat salahsayakuattahan sayakuattahansangat kuattahansangatrapuh tahansangatrapuhlemah sangatrapuhlemahbukan rapuhlemahbukansalah lemahbukansalahbapak sayabukansalahsayakuat bukansalahsayakuattahan salahsayakuattahansangat sayakuattahansangatrapuh kuattahansangatrapuhlemah tahansangatrapuhlemahbukan sangatrapuhlemahbukansalah rapuhlemahbukansalahbapak sayabukansalahsayakuattahan bukansalahsayakuattahansangat salahsayakuattahansangatrapuh sayakuattahansangatrapuhlemah kuattahansangatrapuhlemahbukan tahansangatrapuhlemahbukansalah sangatrapuhlemahbukansalahbapak</t>
+  </si>
+  <si>
+    <t>soal freeport sangat untung buat apalagi emas perak tembaga soalfreeport freeportsangat sangatuntung untungbuat buatapalagi apalagiemas emasperak peraktembaga soalfreeportsangat freeportsangatuntung sangatuntungbuat untungbuatapalagi buatapalagiemas apalagiemasperak emasperaktembaga soalfreeportsangatuntung freeportsangatuntungbuat sangatuntungbuatapalagi untungbuatapalagiemas buatapalagiemasperak apalagiemasperaktembaga soalfreeportsangatuntungbuat freeportsangatuntungbuatapalagi sangatuntungbuatapalagiemas untungbuatapalagiemasperak buatapalagiemasperaktembaga soalfreeportsangatuntungbuatapalagi freeportsangatuntungbuatapalagiemas sangatuntungbuatapalagiemasperak untungbuatapalagiemasperaktembaga</t>
+  </si>
+  <si>
+    <t>kata p anggar tni harus naik n perlu tni kuat tahan wilayah katap panggar anggartni tniharus harusnaik naikn nperlu perlutni tnikuat kuattahan tahanwilayah katapanggar panggartni anggartniharus tniharusnaik harusnaikn naiknperlu nperlutni perlutnikuat tnikuattahan kuattahanwilayah katapanggartni panggartniharus anggartniharusnaik tniharusnaikn harusnaiknperlu naiknperlutni nperlutnikuat perlutnikuattahan tnikuattahanwilayah katapanggartniharus panggartniharusnaik anggartniharusnaikn tniharusnaiknperlu harusnaiknperlutni naiknperlutnikuat nperlutnikuattahan perlutnikuattahanwilayah katapanggartniharusnaik panggartniharusnaikn anggartniharusnaiknperlu tniharusnaiknperlutni harusnaiknperlutnikuat naiknperlutnikuattahan nperlutnikuattahanwilayah</t>
+  </si>
+  <si>
+    <t>jenderal lawan umur tahun taruh nyawa pancasila untuk republik jenderallawan lawanumur umurtahun tahuntaruh taruhnyawa nyawapancasila pancasilauntuk untukrepublik jenderallawanumur lawanumurtahun umurtahuntaruh tahuntaruhnyawa taruhnyawapancasila nyawapancasilauntuk pancasilauntukrepublik jenderallawanumurtahun lawanumurtahuntaruh umurtahuntaruhnyawa tahuntaruhnyawapancasila taruhnyawapancasilauntuk nyawapancasilauntukrepublik jenderallawanumurtahuntaruh lawanumurtahuntaruhnyawa umurtahuntaruhnyawapancasila tahuntaruhnyawapancasilauntuk taruhnyawapancasilauntukrepublik jenderallawanumurtahuntaruhnyawa lawanumurtahuntaruhnyawapancasila umurtahuntaruhnyawapancasilauntuk tahuntaruhnyawapancasilauntukrepublik</t>
+  </si>
+  <si>
+    <t>pak serang hujat tahan bilang kalah nyerang akibat selalu keluar konteks tahan sesuai tema pakserang seranghujat hujattahan tahanbilang bilangkalah kalahnyerang nyerangakibat akibatselalu selalukeluar keluarkonteks kontekstahan tahansesuai sesuaitema pakseranghujat seranghujattahan hujattahanbilang tahanbilangkalah bilangkalahnyerang kalahnyerangakibat nyerangakibatselalu akibatselalukeluar selalukeluarkonteks keluarkontekstahan kontekstahansesuai tahansesuaitema pakseranghujattahan seranghujattahanbilang hujattahanbilangkalah tahanbilangkalahnyerang bilangkalahnyerangakibat kalahnyerangakibatselalu nyerangakibatselalukeluar akibatselalukeluarkonteks selalukeluarkontekstahan keluarkontekstahansesuai kontekstahansesuaitema pakseranghujattahanbilang seranghujattahanbilangkalah hujattahanbilangkalahnyerang tahanbilangkalahnyerangakibat bilangkalahnyerangakibatselalu kalahnyerangakibatselalukeluar nyerangakibatselalukeluarkonteks akibatselalukeluarkontekstahan selalukeluarkontekstahansesuai keluarkontekstahansesuaitema pakseranghujattahanbilangkalah seranghujattahanbilangkalahnyerang hujattahanbilangkalahnyerangakibat tahanbilangkalahnyerangakibatselalu bilangkalahnyerangakibatselalukeluar kalahnyerangakibatselalukeluarkonteks nyerangakibatselalukeluarkontekstahan akibatselalukeluarkontekstahansesuai selalukeluarkontekstahansesuaitema</t>
+  </si>
+  <si>
+    <t>mantap kali calon presiden pak malam cerdas tegas prabowomenangdebat mantapkali kalicalon calonpresiden presidenpak pakmalam malamcerdas cerdastegas tegasprabowomenangdebat mantapkalicalon kalicalonpresiden calonpresidenpak presidenpakmalam pakmalamcerdas malamcerdastegas cerdastegasprabowomenangdebat mantapkalicalonpresiden kalicalonpresidenpak calonpresidenpakmalam presidenpakmalamcerdas pakmalamcerdastegas malamcerdastegasprabowomenangdebat mantapkalicalonpresidenpak kalicalonpresidenpakmalam calonpresidenpakmalamcerdas presidenpakmalamcerdastegas pakmalamcerdastegasprabowomenangdebat mantapkalicalonpresidenpakmalam kalicalonpresidenpakmalamcerdas calonpresidenpakmalamcerdastegas presidenpakmalamcerdastegasprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>statement soal usah ngurusin masalah negara adalah pukul telak buat dukung statementsoal soalusah usahngurusin ngurusinmasalah masalahnegara negaraadalah adalahpukul pukultelak telakbuat buatdukung statementsoalusah soalusahngurusin usahngurusinmasalah ngurusinmasalahnegara masalahnegaraadalah negaraadalahpukul adalahpukultelak pukultelakbuat telakbuatdukung statementsoalusahngurusin soalusahngurusinmasalah usahngurusinmasalahnegara ngurusinmasalahnegaraadalah masalahnegaraadalahpukul negaraadalahpukultelak adalahpukultelakbuat pukultelakbuatdukung statementsoalusahngurusinmasalah soalusahngurusinmasalahnegara usahngurusinmasalahnegaraadalah ngurusinmasalahnegaraadalahpukul masalahnegaraadalahpukultelak negaraadalahpukultelakbuat adalahpukultelakbuatdukung statementsoalusahngurusinmasalahnegara soalusahngurusinmasalahnegaraadalah usahngurusinmasalahnegaraadalahpukul ngurusinmasalahnegaraadalahpukultelak masalahnegaraadalahpukultelakbuat negaraadalahpukultelakbuatdukung</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang wahsalah salahnih nihmas maskasih kasihtahu tahulitbang wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang wahsalahnihmas salahnihmaskasih nihmaskasihtahu maskasihtahulitbang wahsalahnihmaskasih salahnihmaskasihtahu nihmaskasihtahulitbang wahsalahnihmaskasihtahu salahnihmaskasihtahulitbang</t>
+  </si>
+  <si>
+    <t>kait aspek tahan keamananan point penting debatpilpres 2019 nyata penting kembang alutsista kaitaspek aspektahan tahankeamananan keamanananpoint pointpenting pentingdebatpilpres debatpilpres2019 2019nyata nyatapenting pentingkembang kembangalutsista kaitaspektahan aspektahankeamananan tahankeamanananpoint keamanananpointpenting pointpentingdebatpilpres pentingdebatpilpres2019 debatpilpres2019nyata 2019nyatapenting nyatapentingkembang pentingkembangalutsista kaitaspektahankeamananan aspektahankeamanananpoint tahankeamanananpointpenting keamanananpointpentingdebatpilpres pointpentingdebatpilpres2019 pentingdebatpilpres2019nyata debatpilpres2019nyatapenting 2019nyatapentingkembang nyatapentingkembangalutsista kaitaspektahankeamanananpoint aspektahankeamanananpointpenting tahankeamanananpointpentingdebatpilpres keamanananpointpentingdebatpilpres2019 pointpentingdebatpilpres2019nyata pentingdebatpilpres2019nyatapenting debatpilpres2019nyatapentingkembang 2019nyatapentingkembangalutsista kaitaspektahankeamanananpointpenting aspektahankeamanananpointpentingdebatpilpres tahankeamanananpointpentingdebatpilpres2019 keamanananpointpentingdebatpilpres2019nyata pointpentingdebatpilpres2019nyatapenting pentingdebatpilpres2019nyatapentingkembang debatpilpres2019nyatapentingkembangalutsista</t>
+  </si>
+  <si>
+    <t>senang naik sepeda sering rantai putus yakin rantai sahabat dengan tak pernah putus senangnaik naiksepeda sepedasering seringrantai rantaiputus putusyakin yakinrantai rantaisahabat sahabatdengan dengantak takpernah pernahputus senangnaiksepeda naiksepedasering sepedaseringrantai seringrantaiputus rantaiputusyakin putusyakinrantai yakinrantaisahabat rantaisahabatdengan sahabatdengantak dengantakpernah takpernahputus senangnaiksepedasering naiksepedaseringrantai sepedaseringrantaiputus seringrantaiputusyakin rantaiputusyakinrantai putusyakinrantaisahabat yakinrantaisahabatdengan rantaisahabatdengantak sahabatdengantakpernah dengantakpernahputus senangnaiksepedaseringrantai naiksepedaseringrantaiputus sepedaseringrantaiputusyakin seringrantaiputusyakinrantai rantaiputusyakinrantaisahabat putusyakinrantaisahabatdengan yakinrantaisahabatdengantak rantaisahabatdengantakpernah sahabatdengantakpernahputus senangnaiksepedaseringrantaiputus naiksepedaseringrantaiputusyakin sepedaseringrantaiputusyakinrantai seringrantaiputusyakinrantaisahabat rantaiputusyakinrantaisahabatdengan putusyakinrantaisahabatdengantak yakinrantaisahabatdengantakpernah rantaisahabatdengantakpernahputus</t>
+  </si>
+  <si>
+    <t>sipil sangat percaya tni beliau lebih percaya tni pada mantan tni yang pecat sipilsangat sangatpercaya percayatni tnibeliau beliaulebih lebihpercaya percayatni tnipada padamantan mantantni tniyang yangpecat sipilsangatpercaya sangatpercayatni percayatnibeliau tnibeliaulebih beliaulebihpercaya lebihpercayatni percayatnipada tnipadamantan padamantantni mantantniyang tniyangpecat sipilsangatpercayatni sangatpercayatnibeliau percayatnibeliaulebih tnibeliaulebihpercaya beliaulebihpercayatni lebihpercayatnipada percayatnipadamantan tnipadamantantni padamantantniyang mantantniyangpecat sipilsangatpercayatnibeliau sangatpercayatnibeliaulebih percayatnibeliaulebihpercaya tnibeliaulebihpercayatni beliaulebihpercayatnipada lebihpercayatnipadamantan percayatnipadamantantni tnipadamantantniyang padamantantniyangpecat sipilsangatpercayatnibeliaulebih sangatpercayatnibeliaulebihpercaya percayatnibeliaulebihpercayatni tnibeliaulebihpercayatnipada beliaulebihpercayatnipadamantan lebihpercayatnipadamantantni percayatnipadamantantniyang tnipadamantantniyangpecat</t>
+  </si>
+  <si>
+    <t>pak tadi maju tidak pakai teks gestur di luar kepala lulus fort cantik gitu paktadi tadimaju majutidak tidakpakai pakaiteks teksgestur gesturdi diluar luarkepala kepalalulus lulusfort fortcantik cantikgitu paktadimaju tadimajutidak majutidakpakai tidakpakaiteks pakaiteksgestur teksgesturdi gesturdiluar diluarkepala luarkepalalulus kepalalulusfort lulusfortcantik fortcantikgitu paktadimajutidak tadimajutidakpakai majutidakpakaiteks tidakpakaiteksgestur pakaiteksgesturdi teksgesturdiluar gesturdiluarkepala diluarkepalalulus luarkepalalulusfort kepalalulusfortcantik lulusfortcantikgitu paktadimajutidakpakai tadimajutidakpakaiteks majutidakpakaiteksgestur tidakpakaiteksgesturdi pakaiteksgesturdiluar teksgesturdiluarkepala gesturdiluarkepalalulus diluarkepalalulusfort luarkepalalulusfortcantik kepalalulusfortcantikgitu paktadimajutidakpakaiteks tadimajutidakpakaiteksgestur majutidakpakaiteksgesturdi tidakpakaiteksgesturdiluar pakaiteksgesturdiluarkepala teksgesturdiluarkepalalulus gesturdiluarkepalalulusfort diluarkepalalulusfortcantik luarkepalalulusfortcantikgitu</t>
+  </si>
+  <si>
+    <t>indonesia bawah jadi bangsa emis utang peran dunia internasional hilang presiden tak bicara indonesiabawah bawahjadi jadibangsa bangsaemis emisutang utangperan perandunia duniainternasional internasionalhilang hilangpresiden presidentak takbicara indonesiabawahjadi bawahjadibangsa jadibangsaemis bangsaemisutang emisutangperan utangperandunia peranduniainternasional duniainternasionalhilang internasionalhilangpresiden hilangpresidentak presidentakbicara indonesiabawahjadibangsa bawahjadibangsaemis jadibangsaemisutang bangsaemisutangperan emisutangperandunia utangperanduniainternasional peranduniainternasionalhilang duniainternasionalhilangpresiden internasionalhilangpresidentak hilangpresidentakbicara indonesiabawahjadibangsaemis bawahjadibangsaemisutang jadibangsaemisutangperan bangsaemisutangperandunia emisutangperanduniainternasional utangperanduniainternasionalhilang peranduniainternasionalhilangpresiden duniainternasionalhilangpresidentak internasionalhilangpresidentakbicara indonesiabawahjadibangsaemisutang bawahjadibangsaemisutangperan jadibangsaemisutangperandunia bangsaemisutangperanduniainternasional emisutangperanduniainternasionalhilang utangperanduniainternasionalhilangpresiden peranduniainternasionalhilangpresidentak duniainternasionalhilangpresidentakbicara</t>
+  </si>
+  <si>
+    <t>denger tuh kata pak saling harga https t co l143x7rvt5 dengertuh tuhkata katapak paksaling salingharga hargahttps httpst tco col143x7rvt5 dengertuhkata tuhkatapak katapaksaling paksalingharga salinghargahttps hargahttpst httpstco tcol143x7rvt5 dengertuhkatapak tuhkatapaksaling katapaksalingharga paksalinghargahttps salinghargahttpst hargahttpstco httpstcol143x7rvt5 dengertuhkatapaksaling tuhkatapaksalingharga katapaksalinghargahttps paksalinghargahttpst salinghargahttpstco hargahttpstcol143x7rvt5 dengertuhkatapaksalingharga tuhkatapaksalinghargahttps katapaksalinghargahttpst paksalinghargahttpstco salinghargahttpstcol143x7rvt5</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin kayasuatubangsakalau suatubangsakalaujaga bangsakalaujagasuatu kalaujagasuatukuat jagasuatukuattahan suatukuattahankuat kuattahankuattidak tahankuattidakmungkin kayasuatubangsakalaujaga suatubangsakalaujagasuatu bangsakalaujagasuatukuat kalaujagasuatukuattahan jagasuatukuattahankuat suatukuattahankuattidak kuattahankuattidakmungkin kayasuatubangsakalaujagasuatu suatubangsakalaujagasuatukuat bangsakalaujagasuatukuattahan kalaujagasuatukuattahankuat jagasuatukuattahankuattidak suatukuattahankuattidakmungkin</t>
+  </si>
+  <si>
+    <t>wkkwkwkwkk asli salah satu omong wowo ngaco pecatanlebihtnidaritni mending jauh pak mana wkkwkwkwkkasli aslisalah salahsatu satuomong omongwowo wowongaco ngacopecatanlebihtnidaritni pecatanlebihtnidaritnimending mendingjauh jauhpak pakmana wkkwkwkwkkaslisalah aslisalahsatu salahsatuomong satuomongwowo omongwowongaco wowongacopecatanlebihtnidaritni ngacopecatanlebihtnidaritnimending pecatanlebihtnidaritnimendingjauh mendingjauhpak jauhpakmana wkkwkwkwkkaslisalahsatu aslisalahsatuomong salahsatuomongwowo satuomongwowongaco omongwowongacopecatanlebihtnidaritni wowongacopecatanlebihtnidaritnimending ngacopecatanlebihtnidaritnimendingjauh pecatanlebihtnidaritnimendingjauhpak mendingjauhpakmana wkkwkwkwkkaslisalahsatuomong aslisalahsatuomongwowo salahsatuomongwowongaco satuomongwowongacopecatanlebihtnidaritni omongwowongacopecatanlebihtnidaritnimending wowongacopecatanlebihtnidaritnimendingjauh ngacopecatanlebihtnidaritnimendingjauhpak pecatanlebihtnidaritnimendingjauhpakmana wkkwkwkwkkaslisalahsatuomongwowo aslisalahsatuomongwowongaco salahsatuomongwowongacopecatanlebihtnidaritni satuomongwowongacopecatanlebihtnidaritnimending omongwowongacopecatanlebihtnidaritnimendingjauh wowongacopecatanlebihtnidaritnimendingjauhpak ngacopecatanlebihtnidaritnimendingjauhpakmana</t>
+  </si>
+  <si>
+    <t>mbak badan menang nasional jangan mau tipu sama hti angin surga buat hti akan buat dukung mbakbadan badanmenang menangnasional nasionaljangan janganmau mautipu tipusama samahti htiangin anginsurga surgabuat buathti htiakan akanbuat buatdukung mbakbadanmenang badanmenangnasional menangnasionaljangan nasionaljanganmau janganmautipu mautipusama tipusamahti samahtiangin htianginsurga anginsurgabuat surgabuathti buathtiakan htiakanbuat akanbuatdukung mbakbadanmenangnasional badanmenangnasionaljangan menangnasionaljanganmau nasionaljanganmautipu janganmautipusama mautipusamahti tipusamahtiangin samahtianginsurga htianginsurgabuat anginsurgabuathti surgabuathtiakan buathtiakanbuat htiakanbuatdukung mbakbadanmenangnasionaljangan badanmenangnasionaljanganmau menangnasionaljanganmautipu nasionaljanganmautipusama janganmautipusamahti mautipusamahtiangin tipusamahtianginsurga samahtianginsurgabuat htianginsurgabuathti anginsurgabuathtiakan surgabuathtiakanbuat buathtiakanbuatdukung mbakbadanmenangnasionaljanganmau badanmenangnasionaljanganmautipu menangnasionaljanganmautipusama nasionaljanganmautipusamahti janganmautipusamahtiangin mautipusamahtianginsurga tipusamahtianginsurgabuat samahtianginsurgabuathti htianginsurgabuathtiakan anginsurgabuathtiakanbuat surgabuathtiakanbuatdukung</t>
+  </si>
+  <si>
+    <t>marah cinta hadap negara kalian goreng sedang bohong manis si jokowi malah kalian puji marahcinta cintahadap hadapnegara negarakalian kaliangoreng gorengsedang sedangbohong bohongmanis manissi sijokowi jokowimalah malahkalian kalianpuji marahcintahadap cintahadapnegara hadapnegarakalian negarakaliangoreng kaliangorengsedang gorengsedangbohong sedangbohongmanis bohongmanissi manissijokowi sijokowimalah jokowimalahkalian malahkalianpuji marahcintahadapnegara cintahadapnegarakalian hadapnegarakaliangoreng negarakaliangorengsedang kaliangorengsedangbohong gorengsedangbohongmanis sedangbohongmanissi bohongmanissijokowi manissijokowimalah sijokowimalahkalian jokowimalahkalianpuji marahcintahadapnegarakalian cintahadapnegarakaliangoreng hadapnegarakaliangorengsedang negarakaliangorengsedangbohong kaliangorengsedangbohongmanis gorengsedangbohongmanissi sedangbohongmanissijokowi bohongmanissijokowimalah manissijokowimalahkalian sijokowimalahkalianpuji marahcintahadapnegarakaliangoreng cintahadapnegarakaliangorengsedang hadapnegarakaliangorengsedangbohong negarakaliangorengsedangbohongmanis kaliangorengsedangbohongmanissi gorengsedangbohongmanissijokowi sedangbohongmanissijokowimalah bohongmanissijokowimalahkalian manissijokowimalahkalianpuji</t>
+  </si>
+  <si>
+    <t>pilpres tarung akal sehat akal dungu jokowidiambangkekalahan https t co 0ygyvuuior pilprestarung tarungakal akalsehat sehatakal akaldungu dungujokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co0ygyvuuior pilprestarungakal tarungakalsehat akalsehatakal sehatakaldungu akaldungujokowidiambangkekalahan dungujokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco0ygyvuuior pilprestarungakalsehat tarungakalsehatakal akalsehatakaldungu sehatakaldungujokowidiambangkekalahan akaldungujokowidiambangkekalahanhttps dungujokowidiambangkekalahanhttpst jokowidiambangkekalahanhttpstco httpstco0ygyvuuior pilprestarungakalsehatakal tarungakalsehatakaldungu akalsehatakaldungujokowidiambangkekalahan sehatakaldungujokowidiambangkekalahanhttps akaldungujokowidiambangkekalahanhttpst dungujokowidiambangkekalahanhttpstco jokowidiambangkekalahanhttpstco0ygyvuuior pilprestarungakalsehatakaldungu tarungakalsehatakaldungujokowidiambangkekalahan akalsehatakaldungujokowidiambangkekalahanhttps sehatakaldungujokowidiambangkekalahanhttpst akaldungujokowidiambangkekalahanhttpstco dungujokowidiambangkekalahanhttpstco0ygyvuuior</t>
+  </si>
+  <si>
+    <t>pak selalu tampil elegan negarawan tampil lepas penuh canda tawa tak segan joget riang pakselalu selalutampil tampilelegan elegannegarawan negarawantampil tampillepas lepaspenuh penuhcanda candatawa tawatak taksegan seganjoget jogetriang pakselalutampil selalutampilelegan tampilelegannegarawan elegannegarawantampil negarawantampillepas tampillepaspenuh lepaspenuhcanda penuhcandatawa candatawatak tawataksegan takseganjoget seganjogetriang pakselalutampilelegan selalutampilelegannegarawan tampilelegannegarawantampil elegannegarawantampillepas negarawantampillepaspenuh tampillepaspenuhcanda lepaspenuhcandatawa penuhcandatawatak candatawataksegan tawatakseganjoget takseganjogetriang pakselalutampilelegannegarawan selalutampilelegannegarawantampil tampilelegannegarawantampillepas elegannegarawantampillepaspenuh negarawantampillepaspenuhcanda tampillepaspenuhcandatawa lepaspenuhcandatawatak penuhcandatawataksegan candatawatakseganjoget tawatakseganjogetriang pakselalutampilelegannegarawantampil selalutampilelegannegarawantampillepas tampilelegannegarawantampillepaspenuh elegannegarawantampillepaspenuhcanda negarawantampillepaspenuhcandatawa tampillepaspenuhcandatawatak lepaspenuhcandatawataksegan penuhcandatawatakseganjoget candatawatakseganjogetriang</t>
+  </si>
+  <si>
+    <t>isu khilafah isu kaum keok-ers katolik pilih pimpin jujur bapak isukhilafah khilafahisu isukaum kaumkeok-ers keok-erskatolik katolikpilih pilihpimpin pimpinjujur jujurbapak isukhilafahisu khilafahisukaum isukaumkeok-ers kaumkeok-erskatolik keok-erskatolikpilih katolikpilihpimpin pilihpimpinjujur pimpinjujurbapak isukhilafahisukaum khilafahisukaumkeok-ers isukaumkeok-erskatolik kaumkeok-erskatolikpilih keok-erskatolikpilihpimpin katolikpilihpimpinjujur pilihpimpinjujurbapak isukhilafahisukaumkeok-ers khilafahisukaumkeok-erskatolik isukaumkeok-erskatolikpilih kaumkeok-erskatolikpilihpimpin keok-erskatolikpilihpimpinjujur katolikpilihpimpinjujurbapak isukhilafahisukaumkeok-erskatolik khilafahisukaumkeok-erskatolikpilih isukaumkeok-erskatolikpilihpimpin kaumkeok-erskatolikpilihpimpinjujur keok-erskatolikpilihpimpinjujurbapak</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung tangan sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungtangan sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongkecewa bohongkecewabapak kecewabapakluka bapaklukadikit lukadikitjangan dikitjanganudah janganudahpakai udahpakaisarung pakaisarungtangan sumpahtahanpancasilatitik tahanpancasilatitikdarah pancasilatitikdarahakhir titikdarahakhirbohong darahakhirbohongkecewa akhirbohongkecewabapak bohongkecewabapakluka kecewabapaklukadikit bapaklukadikitjangan lukadikitjanganudah dikitjanganudahpakai janganudahpakaisarung udahpakaisarungtangan sumpahtahanpancasilatitikdarah tahanpancasilatitikdarahakhir pancasilatitikdarahakhirbohong titikdarahakhirbohongkecewa darahakhirbohongkecewabapak akhirbohongkecewabapakluka bohongkecewabapaklukadikit kecewabapaklukadikitjangan bapaklukadikitjanganudah lukadikitjanganudahpakai dikitjanganudahpakaisarung janganudahpakaisarungtangan sumpahtahanpancasilatitikdarahakhir tahanpancasilatitikdarahakhirbohong pancasilatitikdarahakhirbohongkecewa titikdarahakhirbohongkecewabapak darahakhirbohongkecewabapakluka akhirbohongkecewabapaklukadikit bohongkecewabapaklukadikitjangan kecewabapaklukadikitjanganudah bapaklukadikitjanganudahpakai lukadikitjanganudahpakaisarung dikitjanganudahpakaisarungtangan</t>
+  </si>
+  <si>
+    <t>kalau kayak gin performa pak jadi menhan perintah presiden 2019-2024 tak pantas kalaukayak kayakgin ginperforma performapak pakjadi jadimenhan menhanperintah perintahpresiden presiden2019-2024 2019-2024tak takpantas kalaukayakgin kayakginperforma ginperformapak performapakjadi pakjadimenhan jadimenhanperintah menhanperintahpresiden perintahpresiden2019-2024 presiden2019-2024tak 2019-2024takpantas kalaukayakginperforma kayakginperformapak ginperformapakjadi performapakjadimenhan pakjadimenhanperintah jadimenhanperintahpresiden menhanperintahpresiden2019-2024 perintahpresiden2019-2024tak presiden2019-2024takpantas kalaukayakginperformapak kayakginperformapakjadi ginperformapakjadimenhan performapakjadimenhanperintah pakjadimenhanperintahpresiden jadimenhanperintahpresiden2019-2024 menhanperintahpresiden2019-2024tak perintahpresiden2019-2024takpantas kalaukayakginperformapakjadi kayakginperformapakjadimenhan ginperformapakjadimenhanperintah performapakjadimenhanperintahpresiden pakjadimenhanperintahpresiden2019-2024 jadimenhanperintahpresiden2019-2024tak menhanperintahpresiden2019-2024takpantas</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sama dukung sendiri bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsama samadukung dukungsendiri bapakinfosesat infosesatpetinggi sesatpetinggitni petinggitniwoi tniwoiom woiomwowo omwowolupa wowolupabukankah lupabukankahkamu bukankahkamulebih kamulebihparah lebihparahdibohongin parahdibohonginsama dibohonginsamadukung samadukungsendiri bapakinfosesatpetinggi infosesatpetinggitni sesatpetinggitniwoi petinggitniwoiom tniwoiomwowo woiomwowolupa omwowolupabukankah wowolupabukankahkamu lupabukankahkamulebih bukankahkamulebihparah kamulebihparahdibohongin lebihparahdibohonginsama parahdibohonginsamadukung dibohonginsamadukungsendiri bapakinfosesatpetinggitni infosesatpetinggitniwoi sesatpetinggitniwoiom petinggitniwoiomwowo tniwoiomwowolupa woiomwowolupabukankah omwowolupabukankahkamu wowolupabukankahkamulebih lupabukankahkamulebihparah bukankahkamulebihparahdibohongin kamulebihparahdibohonginsama lebihparahdibohonginsamadukung parahdibohonginsamadukungsendiri bapakinfosesatpetinggitniwoi infosesatpetinggitniwoiom sesatpetinggitniwoiomwowo petinggitniwoiomwowolupa tniwoiomwowolupabukankah woiomwowolupabukankahkamu omwowolupabukankahkamulebih wowolupabukankahkamulebihparah lupabukankahkamulebihparahdibohongin bukankahkamulebihparahdibohonginsama kamulebihparahdibohonginsamadukung lebihparahdibohonginsamadukungsendiri</t>
+  </si>
+  <si>
+    <t>alhamdulillah debat langsung lancar berkat doa semua cinta indonesia sayang alhamdulillahdebat debatlangsung langsunglancar lancarberkat berkatdoa doasemua semuacinta cintaindonesia indonesiasayang alhamdulillahdebatlangsung debatlangsunglancar langsunglancarberkat lancarberkatdoa berkatdoasemua doasemuacinta semuacintaindonesia cintaindonesiasayang alhamdulillahdebatlangsunglancar debatlangsunglancarberkat langsunglancarberkatdoa lancarberkatdoasemua berkatdoasemuacinta doasemuacintaindonesia semuacintaindonesiasayang alhamdulillahdebatlangsunglancarberkat debatlangsunglancarberkatdoa langsunglancarberkatdoasemua lancarberkatdoasemuacinta berkatdoasemuacintaindonesia doasemuacintaindonesiasayang alhamdulillahdebatlangsunglancarberkatdoa debatlangsunglancarberkatdoasemua langsunglancarberkatdoasemuacinta lancarberkatdoasemuacintaindonesia berkatdoasemuacintaindonesiasayang</t>
+  </si>
+  <si>
+    <t>lebih tni tni bagus pak aku overdosis jadi makin mudah kami pilih presiden lebihtni tnitni tnibagus baguspak pakaku akuoverdosis overdosisjadi jadimakin makinmudah mudahkami kamipilih pilihpresiden lebihtnitni tnitnibagus tnibaguspak baguspakaku pakakuoverdosis akuoverdosisjadi overdosisjadimakin jadimakinmudah makinmudahkami mudahkamipilih kamipilihpresiden lebihtnitnibagus tnitnibaguspak tnibaguspakaku baguspakakuoverdosis pakakuoverdosisjadi akuoverdosisjadimakin overdosisjadimakinmudah jadimakinmudahkami makinmudahkamipilih mudahkamipilihpresiden lebihtnitnibaguspak tnitnibaguspakaku tnibaguspakakuoverdosis baguspakakuoverdosisjadi pakakuoverdosisjadimakin akuoverdosisjadimakinmudah overdosisjadimakinmudahkami jadimakinmudahkamipilih makinmudahkamipilihpresiden lebihtnitnibaguspakaku tnitnibaguspakakuoverdosis tnibaguspakakuoverdosisjadi baguspakakuoverdosisjadimakin pakakuoverdosisjadimakinmudah akuoverdosisjadimakinmudahkami overdosisjadimakinmudahkamipilih jadimakinmudahkamipilihpresiden</t>
+  </si>
+  <si>
+    <t>subianto ragu mampu ri bidang tahan situs global fire power fokus masalah subiantoragu ragumampu mampuri ribidang bidangtahan tahansitus situsglobal globalfire firepower powerfokus fokusmasalah subiantoragumampu ragumampuri mampuribidang ribidangtahan bidangtahansitus tahansitusglobal situsglobalfire globalfirepower firepowerfokus powerfokusmasalah subiantoragumampuri ragumampuribidang mampuribidangtahan ribidangtahansitus bidangtahansitusglobal tahansitusglobalfire situsglobalfirepower globalfirepowerfokus firepowerfokusmasalah subiantoragumampuribidang ragumampuribidangtahan mampuribidangtahansitus ribidangtahansitusglobal bidangtahansitusglobalfire tahansitusglobalfirepower situsglobalfirepowerfokus globalfirepowerfokusmasalah subiantoragumampuribidangtahan ragumampuribidangtahansitus mampuribidangtahansitusglobal ribidangtahansitusglobalfire bidangtahansitusglobalfirepower tahansitusglobalfirepowerfokus situsglobalfirepowerfokusmasalah</t>
+  </si>
+  <si>
+    <t>satu sisi tegas bilang akan ubah nkri jadi khilafah di sisi badan menang nasional malah janji hti hidup satusisi sisitegas tegasbilang bilangakan akanubah ubahnkri nkrijadi jadikhilafah khilafahdi disisi sisibadan badanmenang menangnasional nasionalmalah malahjanji janjihti htihidup satusisitegas sisitegasbilang tegasbilangakan bilangakanubah akanubahnkri ubahnkrijadi nkrijadikhilafah jadikhilafahdi khilafahdisisi disisibadan sisibadanmenang badanmenangnasional menangnasionalmalah nasionalmalahjanji malahjanjihti janjihtihidup satusisitegasbilang sisitegasbilangakan tegasbilangakanubah bilangakanubahnkri akanubahnkrijadi ubahnkrijadikhilafah nkrijadikhilafahdi jadikhilafahdisisi khilafahdisisibadan disisibadanmenang sisibadanmenangnasional badanmenangnasionalmalah menangnasionalmalahjanji nasionalmalahjanjihti malahjanjihtihidup satusisitegasbilangakan sisitegasbilangakanubah tegasbilangakanubahnkri bilangakanubahnkrijadi akanubahnkrijadikhilafah ubahnkrijadikhilafahdi nkrijadikhilafahdisisi jadikhilafahdisisibadan khilafahdisisibadanmenang disisibadanmenangnasional sisibadanmenangnasionalmalah badanmenangnasionalmalahjanji menangnasionalmalahjanjihti nasionalmalahjanjihtihidup satusisitegasbilangakanubah sisitegasbilangakanubahnkri tegasbilangakanubahnkrijadi bilangakanubahnkrijadikhilafah akanubahnkrijadikhilafahdi ubahnkrijadikhilafahdisisi nkrijadikhilafahdisisibadan jadikhilafahdisisibadanmenang khilafahdisisibadanmenangnasional disisibadanmenangnasionalmalah sisibadanmenangnasionalmalahjanji badanmenangnasionalmalahjanjihti menangnasionalmalahjanjihtihidup</t>
+  </si>
+  <si>
+    <t>siap bawa indonesia maju cuma pak 01dilanjutkan https t co mhvlauseoz siapbawa bawaindonesia indonesiamaju majucuma cumapak pak01dilanjutkan 01dilanjutkanhttps httpst tco comhvlauseoz siapbawaindonesia bawaindonesiamaju indonesiamajucuma majucumapak cumapak01dilanjutkan pak01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcomhvlauseoz siapbawaindonesiamaju bawaindonesiamajucuma indonesiamajucumapak majucumapak01dilanjutkan cumapak01dilanjutkanhttps pak01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcomhvlauseoz siapbawaindonesiamajucuma bawaindonesiamajucumapak indonesiamajucumapak01dilanjutkan majucumapak01dilanjutkanhttps cumapak01dilanjutkanhttpst pak01dilanjutkanhttpstco 01dilanjutkanhttpstcomhvlauseoz siapbawaindonesiamajucumapak bawaindonesiamajucumapak01dilanjutkan indonesiamajucumapak01dilanjutkanhttps majucumapak01dilanjutkanhttpst cumapak01dilanjutkanhttpstco pak01dilanjutkanhttpstcomhvlauseoz</t>
+  </si>
+  <si>
+    <t>2beer unpopular opinion pak mungkin punya track record tidak gitu baik saya percaya kalau beliau orang baik 2beerunpopular unpopularopinion opinionpak pakmungkin mungkinpunya punyatrack trackrecord recordtidak tidakgitu gitubaik baiksaya sayapercaya percayakalau kalaubeliau beliauorang orangbaik 2beerunpopularopinion unpopularopinionpak opinionpakmungkin pakmungkinpunya mungkinpunyatrack punyatrackrecord trackrecordtidak recordtidakgitu tidakgitubaik gitubaiksaya baiksayapercaya sayapercayakalau percayakalaubeliau kalaubeliauorang beliauorangbaik 2beerunpopularopinionpak unpopularopinionpakmungkin opinionpakmungkinpunya pakmungkinpunyatrack mungkinpunyatrackrecord punyatrackrecordtidak trackrecordtidakgitu recordtidakgitubaik tidakgitubaiksaya gitubaiksayapercaya baiksayapercayakalau sayapercayakalaubeliau percayakalaubeliauorang kalaubeliauorangbaik 2beerunpopularopinionpakmungkin unpopularopinionpakmungkinpunya opinionpakmungkinpunyatrack pakmungkinpunyatrackrecord mungkinpunyatrackrecordtidak punyatrackrecordtidakgitu trackrecordtidakgitubaik recordtidakgitubaiksaya tidakgitubaiksayapercaya gitubaiksayapercayakalau baiksayapercayakalaubeliau sayapercayakalaubeliauorang percayakalaubeliauorangbaik 2beerunpopularopinionpakmungkinpunya unpopularopinionpakmungkinpunyatrack opinionpakmungkinpunyatrackrecord pakmungkinpunyatrackrecordtidak mungkinpunyatrackrecordtidakgitu punyatrackrecordtidakgitubaik trackrecordtidakgitubaiksaya recordtidakgitubaiksayapercaya tidakgitubaiksayapercayakalau gitubaiksayapercayakalaubeliau baiksayapercayakalaubeliauorang sayapercayakalaubeliauorangbaik</t>
+  </si>
+  <si>
+    <t>apa sampai mas tema debat isi tegas lugas mudah erti sesuai lapang apasampai sampaimas mastema temadebat debatisi isitegas tegaslugas lugasmudah mudaherti ertisesuai sesuailapang apasampaimas sampaimastema mastemadebat temadebatisi debatisitegas isitegaslugas tegaslugasmudah lugasmudaherti mudahertisesuai ertisesuailapang apasampaimastema sampaimastemadebat mastemadebatisi temadebatisitegas debatisitegaslugas isitegaslugasmudah tegaslugasmudaherti lugasmudahertisesuai mudahertisesuailapang apasampaimastemadebat sampaimastemadebatisi mastemadebatisitegas temadebatisitegaslugas debatisitegaslugasmudah isitegaslugasmudaherti tegaslugasmudahertisesuai lugasmudahertisesuailapang apasampaimastemadebatisi sampaimastemadebatisitegas mastemadebatisitegaslugas temadebatisitegaslugasmudah debatisitegaslugasmudaherti isitegaslugasmudahertisesuai tegaslugasmudahertisesuailapang</t>
+  </si>
+  <si>
+    <t>pak biar paham rata skor cpi dunia tahu kalau indonesia arti bawah rata pakbiar biarpaham pahamrata rataskor skorcpi cpidunia duniatahu tahukalau kalauindonesia indonesiaarti artibawah bawahrata pakbiarpaham biarpahamrata pahamrataskor rataskorcpi skorcpidunia cpiduniatahu duniatahukalau tahukalauindonesia kalauindonesiaarti indonesiaartibawah artibawahrata pakbiarpahamrata biarpahamrataskor pahamrataskorcpi rataskorcpidunia skorcpiduniatahu cpiduniatahukalau duniatahukalauindonesia tahukalauindonesiaarti kalauindonesiaartibawah indonesiaartibawahrata pakbiarpahamrataskor biarpahamrataskorcpi pahamrataskorcpidunia rataskorcpiduniatahu skorcpiduniatahukalau cpiduniatahukalauindonesia duniatahukalauindonesiaarti tahukalauindonesiaartibawah kalauindonesiaartibawahrata pakbiarpahamrataskorcpi biarpahamrataskorcpidunia pahamrataskorcpiduniatahu rataskorcpiduniatahukalau skorcpiduniatahukalauindonesia cpiduniatahukalauindonesiaarti duniatahukalauindonesiaartibawah tahukalauindonesiaartibawahrata</t>
+  </si>
+  <si>
+    <t>pak all keluar debat malam semua umpan lawan lahap habis bahkan jawab kerap jadi serang balik pakall allkeluar keluardebat debatmalam malamsemua semuaumpan umpanlawan lawanlahap lahaphabis habisbahkan bahkanjawab jawabkerap kerapjadi jadiserang serangbalik pakallkeluar allkeluardebat keluardebatmalam debatmalamsemua malamsemuaumpan semuaumpanlawan umpanlawanlahap lawanlahaphabis lahaphabisbahkan habisbahkanjawab bahkanjawabkerap jawabkerapjadi kerapjadiserang jadiserangbalik pakallkeluardebat allkeluardebatmalam keluardebatmalamsemua debatmalamsemuaumpan malamsemuaumpanlawan semuaumpanlawanlahap umpanlawanlahaphabis lawanlahaphabisbahkan lahaphabisbahkanjawab habisbahkanjawabkerap bahkanjawabkerapjadi jawabkerapjadiserang kerapjadiserangbalik pakallkeluardebatmalam allkeluardebatmalamsemua keluardebatmalamsemuaumpan debatmalamsemuaumpanlawan malamsemuaumpanlawanlahap semuaumpanlawanlahaphabis umpanlawanlahaphabisbahkan lawanlahaphabisbahkanjawab lahaphabisbahkanjawabkerap habisbahkanjawabkerapjadi bahkanjawabkerapjadiserang jawabkerapjadiserangbalik pakallkeluardebatmalamsemua allkeluardebatmalamsemuaumpan keluardebatmalamsemuaumpanlawan debatmalamsemuaumpanlawanlahap malamsemuaumpanlawanlahaphabis semuaumpanlawanlahaphabisbahkan umpanlawanlahaphabisbahkanjawab lawanlahaphabisbahkanjawabkerap lahaphabisbahkanjawabkerapjadi habisbahkanjawabkerapjadiserang bahkanjawabkerapjadiserangbalik</t>
+  </si>
+  <si>
+    <t>rekam jejak bersih segala kasus langgar hukum menangjokowilagi rekamjejak jejakbersih bersihsegala segalakasus kasuslanggar langgarhukum hukummenangjokowilagi rekamjejakbersih jejakbersihsegala bersihsegalakasus segalakasuslanggar kasuslanggarhukum langgarhukummenangjokowilagi rekamjejakbersihsegala jejakbersihsegalakasus bersihsegalakasuslanggar segalakasuslanggarhukum kasuslanggarhukummenangjokowilagi rekamjejakbersihsegalakasus jejakbersihsegalakasuslanggar bersihsegalakasuslanggarhukum segalakasuslanggarhukummenangjokowilagi rekamjejakbersihsegalakasuslanggar jejakbersihsegalakasuslanggarhukum bersihsegalakasuslanggarhukummenangjokowilagi</t>
+  </si>
+  <si>
+    <t>ketua umum pan insyallah allah jawa barat jadi menang pan - sandi ketuaumum umumpan paninsyallah insyallahallah allahjawa jawabarat baratjadi jadimenang menangpan pan- -sandi ketuaumumpan umumpaninsyallah paninsyallahallah insyallahallahjawa allahjawabarat jawabaratjadi baratjadimenang jadimenangpan menangpan- pan-sandi ketuaumumpaninsyallah umumpaninsyallahallah paninsyallahallahjawa insyallahallahjawabarat allahjawabaratjadi jawabaratjadimenang baratjadimenangpan jadimenangpan- menangpan-sandi ketuaumumpaninsyallahallah umumpaninsyallahallahjawa paninsyallahallahjawabarat insyallahallahjawabaratjadi allahjawabaratjadimenang jawabaratjadimenangpan baratjadimenangpan- jadimenangpan-sandi ketuaumumpaninsyallahallahjawa umumpaninsyallahallahjawabarat paninsyallahallahjawabaratjadi insyallahallahjawabaratjadimenang allahjawabaratjadimenangpan jawabaratjadimenangpan- baratjadimenangpan-sandi</t>
+  </si>
+  <si>
+    <t>ken cepat punya presiden tegas berkharisma prabowobentengnkri kencepat cepatpunya punyapresiden presidentegas tegasberkharisma berkharismaprabowobentengnkri kencepatpunya cepatpunyapresiden punyapresidentegas presidentegasberkharisma tegasberkharismaprabowobentengnkri kencepatpunyapresiden cepatpunyapresidentegas punyapresidentegasberkharisma presidentegasberkharismaprabowobentengnkri kencepatpunyapresidentegas cepatpunyapresidentegasberkharisma punyapresidentegasberkharismaprabowobentengnkri kencepatpunyapresidentegasberkharisma cepatpunyapresidentegasberkharismaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>paling penting bagaimana beri didik palingpenting pentingbagaimana bagaimanaberi berididik palingpentingbagaimana pentingbagaimanaberi bagaimanaberididik palingpentingbagaimanaberi pentingbagaimanaberididik palingpentingbagaimanaberididik</t>
+  </si>
+  <si>
+    <t>jadi keliru kalau badan menang nasional beri angin hti harap suara hti justru hti percaya demokrasi jadikeliru kelirukalau kalaubadan badanmenang menangnasional nasionalberi beriangin anginhti htiharap harapsuara suarahti htijustru justruhti htipercaya percayademokrasi jadikelirukalau kelirukalaubadan kalaubadanmenang badanmenangnasional menangnasionalberi nasionalberiangin berianginhti anginhtiharap htiharapsuara harapsuarahti suarahtijustru htijustruhti justruhtipercaya htipercayademokrasi jadikelirukalaubadan kelirukalaubadanmenang kalaubadanmenangnasional badanmenangnasionalberi menangnasionalberiangin nasionalberianginhti berianginhtiharap anginhtiharapsuara htiharapsuarahti harapsuarahtijustru suarahtijustruhti htijustruhtipercaya justruhtipercayademokrasi jadikelirukalaubadanmenang kelirukalaubadanmenangnasional kalaubadanmenangnasionalberi badanmenangnasionalberiangin menangnasionalberianginhti nasionalberianginhtiharap berianginhtiharapsuara anginhtiharapsuarahti htiharapsuarahtijustru harapsuarahtijustruhti suarahtijustruhtipercaya htijustruhtipercayademokrasi jadikelirukalaubadanmenangnasional kelirukalaubadanmenangnasionalberi kalaubadanmenangnasionalberiangin badanmenangnasionalberianginhti menangnasionalberianginhtiharap nasionalberianginhtiharapsuara berianginhtiharapsuarahti anginhtiharapsuarahtijustru htiharapsuarahtijustruhti harapsuarahtijustruhtipercaya suarahtijustruhtipercayademokrasi</t>
+  </si>
+  <si>
+    <t>juang sama sama rakyat biar rakyat tentu juangsama samasama samarakyat rakyatbiar biarrakyat rakyattentu juangsamasama samasamarakyat samarakyatbiar rakyatbiarrakyat biarrakyattentu juangsamasamarakyat samasamarakyatbiar samarakyatbiarrakyat rakyatbiarrakyattentu juangsamasamarakyatbiar samasamarakyatbiarrakyat samarakyatbiarrakyattentu juangsamasamarakyatbiarrakyat samasamarakyatbiarrakyattentu</t>
+  </si>
+  <si>
+    <t>pakdhe budhe iriana suka kampanye suasana positif optimis penuh canda tawa ceria pakdhebudhe budheiriana irianasuka sukakampanye kampanyesuasana suasanapositif positifoptimis optimispenuh penuhcanda candatawa tawaceria pakdhebudheiriana budheirianasuka irianasukakampanye sukakampanyesuasana kampanyesuasanapositif suasanapositifoptimis positifoptimispenuh optimispenuhcanda penuhcandatawa candatawaceria pakdhebudheirianasuka budheirianasukakampanye irianasukakampanyesuasana sukakampanyesuasanapositif kampanyesuasanapositifoptimis suasanapositifoptimispenuh positifoptimispenuhcanda optimispenuhcandatawa penuhcandatawaceria pakdhebudheirianasukakampanye budheirianasukakampanyesuasana irianasukakampanyesuasanapositif sukakampanyesuasanapositifoptimis kampanyesuasanapositifoptimispenuh suasanapositifoptimispenuhcanda positifoptimispenuhcandatawa optimispenuhcandatawaceria pakdhebudheirianasukakampanyesuasana budheirianasukakampanyesuasanapositif irianasukakampanyesuasanapositifoptimis sukakampanyesuasanapositifoptimispenuh kampanyesuasanapositifoptimispenuhcanda suasanapositifoptimispenuhcandatawa positifoptimispenuhcandatawaceria</t>
+  </si>
+  <si>
+    <t>astaga 2nya ngomong kalau dukung yang nuduh soal khilafah yang jelek 2in astaga2nya 2nyangomong ngomongkalau kalaudukung dukungyang yangnuduh nuduhsoal soalkhilafah khilafahyang yangjelek jelek2in astaga2nyangomong 2nyangomongkalau ngomongkalaudukung kalaudukungyang dukungyangnuduh yangnuduhsoal nuduhsoalkhilafah soalkhilafahyang khilafahyangjelek yangjelek2in astaga2nyangomongkalau 2nyangomongkalaudukung ngomongkalaudukungyang kalaudukungyangnuduh dukungyangnuduhsoal yangnuduhsoalkhilafah nuduhsoalkhilafahyang soalkhilafahyangjelek khilafahyangjelek2in astaga2nyangomongkalaudukung 2nyangomongkalaudukungyang ngomongkalaudukungyangnuduh kalaudukungyangnuduhsoal dukungyangnuduhsoalkhilafah yangnuduhsoalkhilafahyang nuduhsoalkhilafahyangjelek soalkhilafahyangjelek2in astaga2nyangomongkalaudukungyang 2nyangomongkalaudukungyangnuduh ngomongkalaudukungyangnuduhsoal kalaudukungyangnuduhsoalkhilafah dukungyangnuduhsoalkhilafahyang yangnuduhsoalkhilafahyangjelek nuduhsoalkhilafahyangjelek2in</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentaholah mentaholahbela olahbelakhilafah kenatuduhpro-khilafahmilik tuduhpro-khilafahmilikargumen pro-khilafahmilikargumenmenep milikargumenmenepmentah argumenmenepmentaholah menepmentaholahbela mentaholahbelakhilafah kenatuduhpro-khilafahmilikargumen tuduhpro-khilafahmilikargumenmenep pro-khilafahmilikargumenmenepmentah milikargumenmenepmentaholah argumenmenepmentaholahbela menepmentaholahbelakhilafah kenatuduhpro-khilafahmilikargumenmenep tuduhpro-khilafahmilikargumenmenepmentah pro-khilafahmilikargumenmenepmentaholah milikargumenmenepmentaholahbela argumenmenepmentaholahbelakhilafah</t>
+  </si>
+  <si>
+    <t>pimpin garis beri contoh jaga satu bukan pecah belah mantap mas pimpingaris garisberi bericontoh contohjaga jagasatu satubukan bukanpecah pecahbelah belahmantap mantapmas pimpingarisberi garisbericontoh bericontohjaga contohjagasatu jagasatubukan satubukanpecah bukanpecahbelah pecahbelahmantap belahmantapmas pimpingarisbericontoh garisbericontohjaga bericontohjagasatu contohjagasatubukan jagasatubukanpecah satubukanpecahbelah bukanpecahbelahmantap pecahbelahmantapmas pimpingarisbericontohjaga garisbericontohjagasatu bericontohjagasatubukan contohjagasatubukanpecah jagasatubukanpecahbelah satubukanpecahbelahmantap bukanpecahbelahmantapmas pimpingarisbericontohjagasatu garisbericontohjagasatubukan bericontohjagasatubukanpecah contohjagasatubukanpecahbelah jagasatubukanpecahbelahmantap satubukanpecahbelahmantapmas</t>
+  </si>
+  <si>
+    <t>mantap sekali nyata pak moga selalu konsisten prabowobentengnkri https t co apdde 5ubll mantapsekali sekalinyata nyatapak pakmoga mogaselalu selalukonsisten konsistenprabowobentengnkri prabowobentengnkrihttps httpst tco coapdde apdde5ubll mantapsekalinyata sekalinyatapak nyatapakmoga pakmogaselalu mogaselalukonsisten selalukonsistenprabowobentengnkri konsistenprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoapdde coapdde5ubll mantapsekalinyatapak sekalinyatapakmoga nyatapakmogaselalu pakmogaselalukonsisten mogaselalukonsistenprabowobentengnkri selalukonsistenprabowobentengnkrihttps konsistenprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcoapdde tcoapdde5ubll mantapsekalinyatapakmoga sekalinyatapakmogaselalu nyatapakmogaselalukonsisten pakmogaselalukonsistenprabowobentengnkri mogaselalukonsistenprabowobentengnkrihttps selalukonsistenprabowobentengnkrihttpst konsistenprabowobentengnkrihttpstco prabowobentengnkrihttpstcoapdde httpstcoapdde5ubll mantapsekalinyatapakmogaselalu sekalinyatapakmogaselalukonsisten nyatapakmogaselalukonsistenprabowobentengnkri pakmogaselalukonsistenprabowobentengnkrihttps mogaselalukonsistenprabowobentengnkrihttpst selalukonsistenprabowobentengnkrihttpstco konsistenprabowobentengnkrihttpstcoapdde prabowobentengnkrihttpstcoapdde5ubll</t>
+  </si>
+  <si>
+    <t>mantaaab yang tunggu argument cerdas tegas bapak pkivspancasila 18harilagicobloscapres02 mantaaabyang yangtunggu tungguargument argumentcerdas cerdastegas tegasbapak bapakpkivspancasila pkivspancasila18harilagicobloscapres02 mantaaabyangtunggu yangtungguargument tungguargumentcerdas argumentcerdastegas cerdastegasbapak tegasbapakpkivspancasila bapakpkivspancasila18harilagicobloscapres02 mantaaabyangtungguargument yangtungguargumentcerdas tungguargumentcerdastegas argumentcerdastegasbapak cerdastegasbapakpkivspancasila tegasbapakpkivspancasila18harilagicobloscapres02 mantaaabyangtungguargumentcerdas yangtungguargumentcerdastegas tungguargumentcerdastegasbapak argumentcerdastegasbapakpkivspancasila cerdastegasbapakpkivspancasila18harilagicobloscapres02 mantaaabyangtungguargumentcerdastegas yangtungguargumentcerdastegasbapak tungguargumentcerdastegasbapakpkivspancasila argumentcerdastegasbapakpkivspancasila18harilagicobloscapres02</t>
+  </si>
+  <si>
+    <t>hasil prediksi menang telak tema ahli beliau notabene milik wawasanya hasilprediksi prediksimenang menangtelak telaktema temaahli ahlibeliau beliaunotabene notabenemilik milikwawasanya hasilprediksimenang prediksimenangtelak menangtelaktema telaktemaahli temaahlibeliau ahlibeliaunotabene beliaunotabenemilik notabenemilikwawasanya hasilprediksimenangtelak prediksimenangtelaktema menangtelaktemaahli telaktemaahlibeliau temaahlibeliaunotabene ahlibeliaunotabenemilik beliaunotabenemilikwawasanya hasilprediksimenangtelaktema prediksimenangtelaktemaahli menangtelaktemaahlibeliau telaktemaahlibeliaunotabene temaahlibeliaunotabenemilik ahlibeliaunotabenemilikwawasanya hasilprediksimenangtelaktemaahli prediksimenangtelaktemaahlibeliau menangtelaktemaahlibeliaunotabene telaktemaahlibeliaunotabenemilik temaahlibeliaunotabenemilikwawasanya</t>
+  </si>
+  <si>
+    <t>andal jual kartu bangga layan satu pintu bangga program yang kata mampu kurang korupsi andaljual jualkartu kartubangga banggalayan layansatu satupintu pintubangga banggaprogram programyang yangkata katamampu mampukurang kurangkorupsi andaljualkartu jualkartubangga kartubanggalayan banggalayansatu layansatupintu satupintubangga pintubanggaprogram banggaprogramyang programyangkata yangkatamampu katamampukurang mampukurangkorupsi andaljualkartubangga jualkartubanggalayan kartubanggalayansatu banggalayansatupintu layansatupintubangga satupintubanggaprogram pintubanggaprogramyang banggaprogramyangkata programyangkatamampu yangkatamampukurang katamampukurangkorupsi andaljualkartubanggalayan jualkartubanggalayansatu kartubanggalayansatupintu banggalayansatupintubangga layansatupintubanggaprogram satupintubanggaprogramyang pintubanggaprogramyangkata banggaprogramyangkatamampu programyangkatamampukurang yangkatamampukurangkorupsi andaljualkartubanggalayansatu jualkartubanggalayansatupintu kartubanggalayansatupintubangga banggalayansatupintubanggaprogram layansatupintubanggaprogramyang satupintubanggaprogramyangkata pintubanggaprogramyangkatamampu banggaprogramyangkatamampukurang programyangkatamampukurangkorupsi</t>
+  </si>
+  <si>
+    <t>lihat segi mana pak lebih unggul prabowobentengnkri https t co ksmrfawt 0c lihatsegi segimana manapak paklebih lebihunggul unggulprabowobentengnkri prabowobentengnkrihttps httpst tco coksmrfawt ksmrfawt0c lihatsegimana segimanapak manapaklebih paklebihunggul lebihunggulprabowobentengnkri unggulprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoksmrfawt coksmrfawt0c lihatsegimanapak segimanapaklebih manapaklebihunggul paklebihunggulprabowobentengnkri lebihunggulprabowobentengnkrihttps unggulprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcoksmrfawt tcoksmrfawt0c lihatsegimanapaklebih segimanapaklebihunggul manapaklebihunggulprabowobentengnkri paklebihunggulprabowobentengnkrihttps lebihunggulprabowobentengnkrihttpst unggulprabowobentengnkrihttpstco prabowobentengnkrihttpstcoksmrfawt httpstcoksmrfawt0c lihatsegimanapaklebihunggul segimanapaklebihunggulprabowobentengnkri manapaklebihunggulprabowobentengnkrihttps paklebihunggulprabowobentengnkrihttpst lebihunggulprabowobentengnkrihttpstco unggulprabowobentengnkrihttpstcoksmrfawt prabowobentengnkrihttpstcoksmrfawt0c</t>
+  </si>
+  <si>
+    <t>dukung waktu fitnah kristen hebertus bila bila bila semua mereka tuduh malah di dukungwaktu waktufitnah fitnahkristen kristenhebertus hebertusbila bilabila bilabila bilasemua semuamereka merekatuduh tuduhmalah malahdi dukungwaktufitnah waktufitnahkristen fitnahkristenhebertus kristenhebertusbila hebertusbilabila bilabilabila bilabilasemua bilasemuamereka semuamerekatuduh merekatuduhmalah tuduhmalahdi dukungwaktufitnahkristen waktufitnahkristenhebertus fitnahkristenhebertusbila kristenhebertusbilabila hebertusbilabilabila bilabilabilasemua bilabilasemuamereka bilasemuamerekatuduh semuamerekatuduhmalah merekatuduhmalahdi dukungwaktufitnahkristenhebertus waktufitnahkristenhebertusbila fitnahkristenhebertusbilabila kristenhebertusbilabilabila hebertusbilabilabilasemua bilabilabilasemuamereka bilabilasemuamerekatuduh bilasemuamerekatuduhmalah semuamerekatuduhmalahdi dukungwaktufitnahkristenhebertusbila waktufitnahkristenhebertusbilabila fitnahkristenhebertusbilabilabila kristenhebertusbilabilabilasemua hebertusbilabilabilasemuamereka bilabilabilasemuamerekatuduh bilabilasemuamerekatuduhmalah bilasemuamerekatuduhmalahdi</t>
+  </si>
+  <si>
+    <t>dukung pak sukarela buat avatar dukung dukung pak dukungpak paksukarela sukarelabuat buatavatar avatardukung dukungdukung dukungpak dukungpaksukarela paksukarelabuat sukarelabuatavatar buatavatardukung avatardukungdukung dukungdukungpak dukungpaksukarelabuat paksukarelabuatavatar sukarelabuatavatardukung buatavatardukungdukung avatardukungdukungpak dukungpaksukarelabuatavatar paksukarelabuatavatardukung sukarelabuatavatardukungdukung buatavatardukungdukungpak dukungpaksukarelabuatavatardukung paksukarelabuatavatardukungdukung sukarelabuatavatardukungdukungpak</t>
+  </si>
+  <si>
+    <t>deklarasi maaruf amin menang yang singkat sebut jomang gagal laksana deklarasimaaruf maarufamin aminmenang menangyang yangsingkat singkatsebut sebutjomang jomanggagal gagallaksana deklarasimaarufamin maarufaminmenang aminmenangyang menangyangsingkat yangsingkatsebut singkatsebutjomang sebutjomanggagal jomanggagallaksana deklarasimaarufaminmenang maarufaminmenangyang aminmenangyangsingkat menangyangsingkatsebut yangsingkatsebutjomang singkatsebutjomanggagal sebutjomanggagallaksana deklarasimaarufaminmenangyang maarufaminmenangyangsingkat aminmenangyangsingkatsebut menangyangsingkatsebutjomang yangsingkatsebutjomanggagal singkatsebutjomanggagallaksana deklarasimaarufaminmenangyangsingkat maarufaminmenangyangsingkatsebut aminmenangyangsingkatsebutjomang menangyangsingkatsebutjomanggagal yangsingkatsebutjomanggagallaksana</t>
+  </si>
+  <si>
+    <t>tenaga medis paham penting sehat jantung jantung pak tetap sehat tenagamedis medispaham pahampenting pentingsehat sehatjantung jantungjantung jantungpak paktetap tetapsehat tenagamedispaham medispahampenting pahampentingsehat pentingsehatjantung sehatjantungjantung jantungjantungpak jantungpaktetap paktetapsehat tenagamedispahampenting medispahampentingsehat pahampentingsehatjantung pentingsehatjantungjantung sehatjantungjantungpak jantungjantungpaktetap jantungpaktetapsehat tenagamedispahampentingsehat medispahampentingsehatjantung pahampentingsehatjantungjantung pentingsehatjantungjantungpak sehatjantungjantungpaktetap jantungjantungpaktetapsehat tenagamedispahampentingsehatjantung medispahampentingsehatjantungjantung pahampentingsehatjantungjantungpak pentingsehatjantungjantungpaktetap sehatjantungjantungpaktetapsehat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 paling kasihan sama orang percaya jadi aparat debatpilpres2019 2019paling palingkasihan kasihansama samaorang orangpercaya percayajadi jadiaparat debatpilpres2019paling 2019palingkasihan palingkasihansama kasihansamaorang samaorangpercaya orangpercayajadi percayajadiaparat debatpilpres2019palingkasihan 2019palingkasihansama palingkasihansamaorang kasihansamaorangpercaya samaorangpercayajadi orangpercayajadiaparat debatpilpres2019palingkasihansama 2019palingkasihansamaorang palingkasihansamaorangpercaya kasihansamaorangpercayajadi samaorangpercayajadiaparat debatpilpres2019palingkasihansamaorang 2019palingkasihansamaorangpercaya palingkasihansamaorangpercayajadi kasihansamaorangpercayajadiaparat</t>
+  </si>
+  <si>
+    <t>jangan putus saudara biar rakyat tentu siapa baik bangsa - janganputus putussaudara saudarabiar biarrakyat rakyattentu tentusiapa siapabaik baikbangsa bangsa- janganputussaudara putussaudarabiar saudarabiarrakyat biarrakyattentu rakyattentusiapa tentusiapabaik siapabaikbangsa baikbangsa- janganputussaudarabiar putussaudarabiarrakyat saudarabiarrakyattentu biarrakyattentusiapa rakyattentusiapabaik tentusiapabaikbangsa siapabaikbangsa- janganputussaudarabiarrakyat putussaudarabiarrakyattentu saudarabiarrakyattentusiapa biarrakyattentusiapabaik rakyattentusiapabaikbangsa tentusiapabaikbangsa- janganputussaudarabiarrakyattentu putussaudarabiarrakyattentusiapa saudarabiarrakyattentusiapabaik biarrakyattentusiapabaikbangsa rakyattentusiapabaikbangsa-</t>
+  </si>
+  <si>
+    <t>sih pak selalu bandingin kondisi tni jaman sukarno jelas dulu ancam militer tinggi sihpak pakselalu selalubandingin bandinginkondisi kondisitni tnijaman jamansukarno sukarnojelas jelasdulu duluancam ancammiliter militertinggi sihpakselalu pakselalubandingin selalubandinginkondisi bandinginkondisitni kondisitnijaman tnijamansukarno jamansukarnojelas sukarnojelasdulu jelasduluancam duluancammiliter ancammilitertinggi sihpakselalubandingin pakselalubandinginkondisi selalubandinginkondisitni bandinginkondisitnijaman kondisitnijamansukarno tnijamansukarnojelas jamansukarnojelasdulu sukarnojelasduluancam jelasduluancammiliter duluancammilitertinggi sihpakselalubandinginkondisi pakselalubandinginkondisitni selalubandinginkondisitnijaman bandinginkondisitnijamansukarno kondisitnijamansukarnojelas tnijamansukarnojelasdulu jamansukarnojelasduluancam sukarnojelasduluancammiliter jelasduluancammilitertinggi sihpakselalubandinginkondisitni pakselalubandinginkondisitnijaman selalubandinginkondisitnijamansukarno bandinginkondisitnijamansukarnojelas kondisitnijamansukarnojelasdulu tnijamansukarnojelasduluancam jamansukarnojelasduluancammiliter sukarnojelasduluancammilitertinggi</t>
+  </si>
+  <si>
+    <t>baru telepon ibu maryani djoyohadikusumo kakak pak subianto memang kenal baik beliau barutelepon teleponibu ibumaryani maryanidjoyohadikusumo djoyohadikusumokakak kakakpak paksubianto subiantomemang memangkenal kenalbaik baikbeliau baruteleponibu teleponibumaryani ibumaryanidjoyohadikusumo maryanidjoyohadikusumokakak djoyohadikusumokakakpak kakakpaksubianto paksubiantomemang subiantomemangkenal memangkenalbaik kenalbaikbeliau baruteleponibumaryani teleponibumaryanidjoyohadikusumo ibumaryanidjoyohadikusumokakak maryanidjoyohadikusumokakakpak djoyohadikusumokakakpaksubianto kakakpaksubiantomemang paksubiantomemangkenal subiantomemangkenalbaik memangkenalbaikbeliau baruteleponibumaryanidjoyohadikusumo teleponibumaryanidjoyohadikusumokakak ibumaryanidjoyohadikusumokakakpak maryanidjoyohadikusumokakakpaksubianto djoyohadikusumokakakpaksubiantomemang kakakpaksubiantomemangkenal paksubiantomemangkenalbaik subiantomemangkenalbaikbeliau baruteleponibumaryanidjoyohadikusumokakak teleponibumaryanidjoyohadikusumokakakpak ibumaryanidjoyohadikusumokakakpaksubianto maryanidjoyohadikusumokakakpaksubiantomemang djoyohadikusumokakakpaksubiantomemangkenal kakakpaksubiantomemangkenalbaik paksubiantomemangkenalbaikbeliau</t>
+  </si>
+  <si>
+    <t>jangan ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu kata janganketawa ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucukata janganketawakalian ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucukata janganketawakalianketawa ketawakalianketawatahan kalianketawatahanindonesia ketawatahanindonesiarapuh tahanindonesiarapuhkalian indonesiarapuhkalianketawa rapuhkalianketawalucu kalianketawalucukok ketawalucukoklucu lucukoklucukata janganketawakalianketawatahan ketawakalianketawatahanindonesia kalianketawatahanindonesiarapuh ketawatahanindonesiarapuhkalian tahanindonesiarapuhkalianketawa indonesiarapuhkalianketawalucu rapuhkalianketawalucukok kalianketawalucukoklucu ketawalucukoklucukata janganketawakalianketawatahanindonesia ketawakalianketawatahanindonesiarapuh kalianketawatahanindonesiarapuhkalian ketawatahanindonesiarapuhkalianketawa tahanindonesiarapuhkalianketawalucu indonesiarapuhkalianketawalucukok rapuhkalianketawalucukoklucu kalianketawalucukoklucukata</t>
+  </si>
+  <si>
+    <t>habis sih telanjang debat mantap pak debatpilpres 2019 prabowobentengnkri habissih sihtelanjang telanjangdebat debatmantap mantappak pakdebatpilpres debatpilpres2019 2019prabowobentengnkri habissihtelanjang sihtelanjangdebat telanjangdebatmantap debatmantappak mantappakdebatpilpres pakdebatpilpres2019 debatpilpres2019prabowobentengnkri habissihtelanjangdebat sihtelanjangdebatmantap telanjangdebatmantappak debatmantappakdebatpilpres mantappakdebatpilpres2019 pakdebatpilpres2019prabowobentengnkri habissihtelanjangdebatmantap sihtelanjangdebatmantappak telanjangdebatmantappakdebatpilpres debatmantappakdebatpilpres2019 mantappakdebatpilpres2019prabowobentengnkri habissihtelanjangdebatmantappak sihtelanjangdebatmantappakdebatpilpres telanjangdebatmantappakdebatpilpres2019 debatmantappakdebatpilpres2019prabowobentengnkri</t>
+  </si>
+  <si>
+    <t>hanya harap kelak negeri maju sama prabowo-sandi banyak bisa bantu pak hanyaharap harapkelak kelaknegeri negerimaju majusama samaprabowo-sandi prabowo-sandibanyak banyakbisa bisabantu bantupak hanyaharapkelak harapkelaknegeri kelaknegerimaju negerimajusama majusamaprabowo-sandi samaprabowo-sandibanyak prabowo-sandibanyakbisa banyakbisabantu bisabantupak hanyaharapkelaknegeri harapkelaknegerimaju kelaknegerimajusama negerimajusamaprabowo-sandi majusamaprabowo-sandibanyak samaprabowo-sandibanyakbisa prabowo-sandibanyakbisabantu banyakbisabantupak hanyaharapkelaknegerimaju harapkelaknegerimajusama kelaknegerimajusamaprabowo-sandi negerimajusamaprabowo-sandibanyak majusamaprabowo-sandibanyakbisa samaprabowo-sandibanyakbisabantu prabowo-sandibanyakbisabantupak hanyaharapkelaknegerimajusama harapkelaknegerimajusamaprabowo-sandi kelaknegerimajusamaprabowo-sandibanyak negerimajusamaprabowo-sandibanyakbisa majusamaprabowo-sandibanyakbisabantu samaprabowo-sandibanyakbisabantupak</t>
+  </si>
+  <si>
+    <t>paling mantap debat malam prabowobentengnkri prabowomenangdebat palingmantap mantapdebat debatmalam malamprabowobentengnkri prabowobentengnkriprabowomenangdebat palingmantapdebat mantapdebatmalam debatmalamprabowobentengnkri malamprabowobentengnkriprabowomenangdebat palingmantapdebatmalam mantapdebatmalamprabowobentengnkri debatmalamprabowobentengnkriprabowomenangdebat palingmantapdebatmalamprabowobentengnkri mantapdebatmalamprabowobentengnkriprabowomenangdebat palingmantapdebatmalamprabowobentengnkriprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>perintah kuat pimpin tegas pihak prabowo-sandi yakin wujud jadi harap perintahkuat kuatpimpin pimpintegas tegaspihak pihakprabowo-sandi prabowo-sandiyakin yakinwujud wujudjadi jadiharap perintahkuatpimpin kuatpimpintegas pimpintegaspihak tegaspihakprabowo-sandi pihakprabowo-sandiyakin prabowo-sandiyakinwujud yakinwujudjadi wujudjadiharap perintahkuatpimpintegas kuatpimpintegaspihak pimpintegaspihakprabowo-sandi tegaspihakprabowo-sandiyakin pihakprabowo-sandiyakinwujud prabowo-sandiyakinwujudjadi yakinwujudjadiharap perintahkuatpimpintegaspihak kuatpimpintegaspihakprabowo-sandi pimpintegaspihakprabowo-sandiyakin tegaspihakprabowo-sandiyakinwujud pihakprabowo-sandiyakinwujudjadi prabowo-sandiyakinwujudjadiharap perintahkuatpimpintegaspihakprabowo-sandi kuatpimpintegaspihakprabowo-sandiyakin pimpintegaspihakprabowo-sandiyakinwujud tegaspihakprabowo-sandiyakinwujudjadi pihakprabowo-sandiyakinwujudjadiharap</t>
+  </si>
+  <si>
+    <t>pak mungkin inspirasi netijen haus tikai makanya marah pakmungkin mungkininspirasi inspirasinetijen netijenhaus haustikai tikaimakanya makanyamarah pakmungkininspirasi mungkininspirasinetijen inspirasinetijenhaus netijenhaustikai haustikaimakanya tikaimakanyamarah pakmungkininspirasinetijen mungkininspirasinetijenhaus inspirasinetijenhaustikai netijenhaustikaimakanya haustikaimakanyamarah pakmungkininspirasinetijenhaus mungkininspirasinetijenhaustikai inspirasinetijenhaustikaimakanya netijenhaustikaimakanyamarah pakmungkininspirasinetijenhaustikai mungkininspirasinetijenhaustikaimakanya inspirasinetijenhaustikaimakanyamarah</t>
+  </si>
+  <si>
+    <t>menang mbak sepenuh yakin pak menang menangmbak mbaksepenuh sepenuhyakin yakinpak pakmenang menangmbaksepenuh mbaksepenuhyakin sepenuhyakinpak yakinpakmenang menangmbaksepenuhyakin mbaksepenuhyakinpak sepenuhyakinpakmenang menangmbaksepenuhyakinpak mbaksepenuhyakinpakmenang menangmbaksepenuhyakinpakmenang</t>
+  </si>
+  <si>
+    <t>moga pak selalu sehat amin debatasyikjokowi https t co lww 2w8bb30 mogapak pakselalu selalusehat sehatamin amindebatasyikjokowi debatasyikjokowihttps httpst tco colww lww2w8bb30 mogapakselalu pakselalusehat selalusehatamin sehatamindebatasyikjokowi amindebatasyikjokowihttps debatasyikjokowihttpst httpstco tcolww colww2w8bb30 mogapakselalusehat pakselalusehatamin selalusehatamindebatasyikjokowi sehatamindebatasyikjokowihttps amindebatasyikjokowihttpst debatasyikjokowihttpstco httpstcolww tcolww2w8bb30 mogapakselalusehatamin pakselalusehatamindebatasyikjokowi selalusehatamindebatasyikjokowihttps sehatamindebatasyikjokowihttpst amindebatasyikjokowihttpstco debatasyikjokowihttpstcolww httpstcolww2w8bb30 mogapakselalusehatamindebatasyikjokowi pakselalusehatamindebatasyikjokowihttps selalusehatamindebatasyikjokowihttpst sehatamindebatasyikjokowihttpstco amindebatasyikjokowihttpstcolww debatasyikjokowihttpstcolww2w8bb30</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa calonpresidennilai presidennilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa calonpresidennilaitak presidennilaitakkeluar nilaitakkeluarnarasi takkeluarnarasibesar keluarnarasibesarsendiri narasibesarsendiritak besarsendiritaktampil sendiritaktampilistimewa calonpresidennilaitakkeluar presidennilaitakkeluarnarasi nilaitakkeluarnarasibesar takkeluarnarasibesarsendiri keluarnarasibesarsendiritak narasibesarsendiritaktampil besarsendiritaktampilistimewa calonpresidennilaitakkeluarnarasi presidennilaitakkeluarnarasibesar nilaitakkeluarnarasibesarsendiri takkeluarnarasibesarsendiritak keluarnarasibesarsendiritaktampil narasibesarsendiritaktampilistimewa</t>
+  </si>
+  <si>
+    <t>paslon calon presiden 01 jokowi-kh ma ruf amin terima deklarasi dukung kelompok supporter sepak bola viking bandung pasloncalon calonpresiden presiden01 01jokowi-kh jokowi-khma maruf rufamin aminterima terimadeklarasi deklarasidukung dukungkelompok kelompoksupporter supportersepak sepakbola bolaviking vikingbandung pasloncalonpresiden calonpresiden01 presiden01jokowi-kh 01jokowi-khma jokowi-khmaruf marufamin rufaminterima aminterimadeklarasi terimadeklarasidukung deklarasidukungkelompok dukungkelompoksupporter kelompoksupportersepak supportersepakbola sepakbolaviking bolavikingbandung pasloncalonpresiden01 calonpresiden01jokowi-kh presiden01jokowi-khma 01jokowi-khmaruf jokowi-khmarufamin marufaminterima rufaminterimadeklarasi aminterimadeklarasidukung terimadeklarasidukungkelompok deklarasidukungkelompoksupporter dukungkelompoksupportersepak kelompoksupportersepakbola supportersepakbolaviking sepakbolavikingbandung pasloncalonpresiden01jokowi-kh calonpresiden01jokowi-khma presiden01jokowi-khmaruf 01jokowi-khmarufamin jokowi-khmarufaminterima marufaminterimadeklarasi rufaminterimadeklarasidukung aminterimadeklarasidukungkelompok terimadeklarasidukungkelompoksupporter deklarasidukungkelompoksupportersepak dukungkelompoksupportersepakbola kelompoksupportersepakbolaviking supportersepakbolavikingbandung pasloncalonpresiden01jokowi-khma calonpresiden01jokowi-khmaruf presiden01jokowi-khmarufamin 01jokowi-khmarufaminterima jokowi-khmarufaminterimadeklarasi marufaminterimadeklarasidukung rufaminterimadeklarasidukungkelompok aminterimadeklarasidukungkelompoksupporter terimadeklarasidukungkelompoksupportersepak deklarasidukungkelompoksupportersepakbola dukungkelompoksupportersepakbolaviking kelompoksupportersepakbolavikingbandung</t>
+  </si>
+  <si>
+    <t>nah pas jokowidiambangkekalahan prabowobentengnkri prabowobentengnkri nahpas pasjokowidiambangkekalahan jokowidiambangkekalahanprabowobentengnkri prabowobentengnkriprabowobentengnkri nahpasjokowidiambangkekalahan pasjokowidiambangkekalahanprabowobentengnkri jokowidiambangkekalahanprabowobentengnkriprabowobentengnkri nahpasjokowidiambangkekalahanprabowobentengnkri pasjokowidiambangkekalahanprabowobentengnkriprabowobentengnkri nahpasjokowidiambangkekalahanprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati bedakelasbapak kelasbapaktrue bapaktruewarrior truewarriorksatria warriorksatriasejati bedakelasbapaktrue kelasbapaktruewarrior bapaktruewarriorksatria truewarriorksatriasejati bedakelasbapaktruewarrior kelasbapaktruewarriorksatria bapaktruewarriorksatriasejati bedakelasbapaktruewarriorksatria kelasbapaktruewarriorksatriasejati</t>
+  </si>
+  <si>
+    <t>mantap pak malam kamu tunjuk sikap tegas nasionalis patriot sejati tolong jaga emosi mantappak pakmalam malamkamu kamutunjuk tunjuksikap sikaptegas tegasnasionalis nasionalispatriot patriotsejati sejatitolong tolongjaga jagaemosi mantappakmalam pakmalamkamu malamkamutunjuk kamutunjuksikap tunjuksikaptegas sikaptegasnasionalis tegasnasionalispatriot nasionalispatriotsejati patriotsejatitolong sejatitolongjaga tolongjagaemosi mantappakmalamkamu pakmalamkamutunjuk malamkamutunjuksikap kamutunjuksikaptegas tunjuksikaptegasnasionalis sikaptegasnasionalispatriot tegasnasionalispatriotsejati nasionalispatriotsejatitolong patriotsejatitolongjaga sejatitolongjagaemosi mantappakmalamkamutunjuk pakmalamkamutunjuksikap malamkamutunjuksikaptegas kamutunjuksikaptegasnasionalis tunjuksikaptegasnasionalispatriot sikaptegasnasionalispatriotsejati tegasnasionalispatriotsejatitolong nasionalispatriotsejatitolongjaga patriotsejatitolongjagaemosi mantappakmalamkamutunjuksikap pakmalamkamutunjuksikaptegas malamkamutunjuksikaptegasnasionalis kamutunjuksikaptegasnasionalispatriot tunjuksikaptegasnasionalispatriotsejati sikaptegasnasionalispatriotsejatitolong tegasnasionalispatriotsejatitolongjaga nasionalispatriotsejatitolongjagaemosi</t>
+  </si>
+  <si>
+    <t>wowo kali ingat pak bapak hati para bisik bapak kena tahan wowokali kaliingat ingatpak pakbapak bapakhati hatipara parabisik bisikbapak bapakkena kenatahan wowokaliingat kaliingatpak ingatpakbapak pakbapakhati bapakhatipara hatiparabisik parabisikbapak bisikbapakkena bapakkenatahan wowokaliingatpak kaliingatpakbapak ingatpakbapakhati pakbapakhatipara bapakhatiparabisik hatiparabisikbapak parabisikbapakkena bisikbapakkenatahan wowokaliingatpakbapak kaliingatpakbapakhati ingatpakbapakhatipara pakbapakhatiparabisik bapakhatiparabisikbapak hatiparabisikbapakkena parabisikbapakkenatahan wowokaliingatpakbapakhati kaliingatpakbapakhatipara ingatpakbapakhatiparabisik pakbapakhatiparabisikbapak bapakhatiparabisikbapakkena hatiparabisikbapakkenatahan</t>
+  </si>
+  <si>
+    <t>malam mantap prabowomenangdebat jokowidiambangkekalahan malammantap mantapprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malammantapprabowomenangdebat mantapprabowomenangdebatjokowidiambangkekalahan malammantapprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>insyallah jatim solid dukung nahdliyinbukanjokower nahdliyindukung 02 sayanusayamilih 02 insyallahjatim jatimsolid soliddukung dukungnahdliyinbukanjokower nahdliyinbukanjokowernahdliyindukung nahdliyindukung02 02sayanusayamilih sayanusayamilih02 insyallahjatimsolid jatimsoliddukung soliddukungnahdliyinbukanjokower dukungnahdliyinbukanjokowernahdliyindukung nahdliyinbukanjokowernahdliyindukung02 nahdliyindukung02sayanusayamilih 02sayanusayamilih02 insyallahjatimsoliddukung jatimsoliddukungnahdliyinbukanjokower soliddukungnahdliyinbukanjokowernahdliyindukung dukungnahdliyinbukanjokowernahdliyindukung02 nahdliyinbukanjokowernahdliyindukung02sayanusayamilih nahdliyindukung02sayanusayamilih02 insyallahjatimsoliddukungnahdliyinbukanjokower jatimsoliddukungnahdliyinbukanjokowernahdliyindukung soliddukungnahdliyinbukanjokowernahdliyindukung02 dukungnahdliyinbukanjokowernahdliyindukung02sayanusayamilih nahdliyinbukanjokowernahdliyindukung02sayanusayamilih02 insyallahjatimsoliddukungnahdliyinbukanjokowernahdliyindukung jatimsoliddukungnahdliyinbukanjokowernahdliyindukung02 soliddukungnahdliyinbukanjokowernahdliyindukung02sayanusayamilih dukungnahdliyinbukanjokowernahdliyindukung02sayanusayamilih02</t>
+  </si>
+  <si>
+    <t>jangan bilang salah hanya mau bilang fakta saya pulang kampung begini kondisi infrastruktur janganbilang bilangsalah salahhanya hanyamau maubilang bilangfakta faktasaya sayapulang pulangkampung kampungbegini beginikondisi kondisiinfrastruktur janganbilangsalah bilangsalahhanya salahhanyamau hanyamaubilang maubilangfakta bilangfaktasaya faktasayapulang sayapulangkampung pulangkampungbegini kampungbeginikondisi beginikondisiinfrastruktur janganbilangsalahhanya bilangsalahhanyamau salahhanyamaubilang hanyamaubilangfakta maubilangfaktasaya bilangfaktasayapulang faktasayapulangkampung sayapulangkampungbegini pulangkampungbeginikondisi kampungbeginikondisiinfrastruktur janganbilangsalahhanyamau bilangsalahhanyamaubilang salahhanyamaubilangfakta hanyamaubilangfaktasaya maubilangfaktasayapulang bilangfaktasayapulangkampung faktasayapulangkampungbegini sayapulangkampungbeginikondisi pulangkampungbeginikondisiinfrastruktur janganbilangsalahhanyamaubilang bilangsalahhanyamaubilangfakta salahhanyamaubilangfaktasaya hanyamaubilangfaktasayapulang maubilangfaktasayapulangkampung bilangfaktasayapulangkampungbegini faktasayapulangkampungbeginikondisi sayapulangkampungbeginikondisiinfrastruktur</t>
+  </si>
+  <si>
+    <t>singkir kali akan gagal akan lantik jadi presiden republik indonesia ke - singkirkali kaliakan akangagal gagalakan akanlantik lantikjadi jadipresiden presidenrepublik republikindonesia indonesiake ke- singkirkaliakan kaliakangagal akangagalakan gagalakanlantik akanlantikjadi lantikjadipresiden jadipresidenrepublik presidenrepublikindonesia republikindonesiake indonesiake- singkirkaliakangagal kaliakangagalakan akangagalakanlantik gagalakanlantikjadi akanlantikjadipresiden lantikjadipresidenrepublik jadipresidenrepublikindonesia presidenrepublikindonesiake republikindonesiake- singkirkaliakangagalakan kaliakangagalakanlantik akangagalakanlantikjadi gagalakanlantikjadipresiden akanlantikjadipresidenrepublik lantikjadipresidenrepublikindonesia jadipresidenrepublikindonesiake presidenrepublikindonesiake- singkirkaliakangagalakanlantik kaliakangagalakanlantikjadi akangagalakanlantikjadipresiden gagalakanlantikjadipresidenrepublik akanlantikjadipresidenrepublikindonesia lantikjadipresidenrepublikindonesiake jadipresidenrepublikindonesiake-</t>
+  </si>
+  <si>
+    <t>ngeri kalau lihat dukung beri viking amin jokowimengubahsemua 01jokowi3pdip kusukajokowiamin ngerikalau kalaulihat lihatdukung dukungberi beriviking vikingamin aminjokowimengubahsemua jokowimengubahsemua01jokowi3pdip 01jokowi3pdipkusukajokowiamin ngerikalaulihat kalaulihatdukung lihatdukungberi dukungberiviking berivikingamin vikingaminjokowimengubahsemua aminjokowimengubahsemua01jokowi3pdip jokowimengubahsemua01jokowi3pdipkusukajokowiamin ngerikalaulihatdukung kalaulihatdukungberi lihatdukungberiviking dukungberivikingamin berivikingaminjokowimengubahsemua vikingaminjokowimengubahsemua01jokowi3pdip aminjokowimengubahsemua01jokowi3pdipkusukajokowiamin ngerikalaulihatdukungberi kalaulihatdukungberiviking lihatdukungberivikingamin dukungberivikingaminjokowimengubahsemua berivikingaminjokowimengubahsemua01jokowi3pdip vikingaminjokowimengubahsemua01jokowi3pdipkusukajokowiamin ngerikalaulihatdukungberiviking kalaulihatdukungberivikingamin lihatdukungberivikingaminjokowimengubahsemua dukungberivikingaminjokowimengubahsemua01jokowi3pdip berivikingaminjokowimengubahsemua01jokowi3pdipkusukajokowiamin</t>
+  </si>
+  <si>
+    <t>kalau cuma pinter bahasa inggris usah cinta laura tukang becak dijogja banyak kalaucuma cumapinter pinterbahasa bahasainggris inggrisusah usahcinta cintalaura lauratukang tukangbecak becakdijogja dijogjabanyak kalaucumapinter cumapinterbahasa pinterbahasainggris bahasainggrisusah inggrisusahcinta usahcintalaura cintalauratukang lauratukangbecak tukangbecakdijogja becakdijogjabanyak kalaucumapinterbahasa cumapinterbahasainggris pinterbahasainggrisusah bahasainggrisusahcinta inggrisusahcintalaura usahcintalauratukang cintalauratukangbecak lauratukangbecakdijogja tukangbecakdijogjabanyak kalaucumapinterbahasainggris cumapinterbahasainggrisusah pinterbahasainggrisusahcinta bahasainggrisusahcintalaura inggrisusahcintalauratukang usahcintalauratukangbecak cintalauratukangbecakdijogja lauratukangbecakdijogjabanyak kalaucumapinterbahasainggrisusah cumapinterbahasainggrisusahcinta pinterbahasainggrisusahcintalaura bahasainggrisusahcintalauratukang inggrisusahcintalauratukangbecak usahcintalauratukangbecakdijogja cintalauratukangbecakdijogjabanyak</t>
+  </si>
+  <si>
+    <t>sedih pilpres buat orang orang jadi benci lebih sekaligus puja lebih sama sama babi buta sedihpilpres pilpresbuat buatorang orangorang orangjadi jadibenci bencilebih lebihsekaligus sekaliguspuja pujalebih lebihsama samasama samababi babibuta sedihpilpresbuat pilpresbuatorang buatorangorang orangorangjadi orangjadibenci jadibencilebih bencilebihsekaligus lebihsekaliguspuja sekaliguspujalebih pujalebihsama lebihsamasama samasamababi samababibuta sedihpilpresbuatorang pilpresbuatorangorang buatorangorangjadi orangorangjadibenci orangjadibencilebih jadibencilebihsekaligus bencilebihsekaliguspuja lebihsekaliguspujalebih sekaliguspujalebihsama pujalebihsamasama lebihsamasamababi samasamababibuta sedihpilpresbuatorangorang pilpresbuatorangorangjadi buatorangorangjadibenci orangorangjadibencilebih orangjadibencilebihsekaligus jadibencilebihsekaliguspuja bencilebihsekaliguspujalebih lebihsekaliguspujalebihsama sekaliguspujalebihsamasama pujalebihsamasamababi lebihsamasamababibuta sedihpilpresbuatorangorangjadi pilpresbuatorangorangjadibenci buatorangorangjadibencilebih orangorangjadibencilebihsekaligus orangjadibencilebihsekaliguspuja jadibencilebihsekaliguspujalebih bencilebihsekaliguspujalebihsama lebihsekaliguspujalebihsamasama sekaliguspujalebihsamasamababi pujalebihsamasamababibuta</t>
+  </si>
+  <si>
+    <t>deklarasi bobotoh dukung bobotohngahiji https t co ck2zv5jzvq deklarasibobotoh bobotohdukung dukungbobotohngahiji bobotohngahijihttps httpst tco cock2zv5jzvq deklarasibobotohdukung bobotohdukungbobotohngahiji dukungbobotohngahijihttps bobotohngahijihttpst httpstco tcock2zv5jzvq deklarasibobotohdukungbobotohngahiji bobotohdukungbobotohngahijihttps dukungbobotohngahijihttpst bobotohngahijihttpstco httpstcock2zv5jzvq deklarasibobotohdukungbobotohngahijihttps bobotohdukungbobotohngahijihttpst dukungbobotohngahijihttpstco bobotohngahijihttpstcock2zv5jzvq deklarasibobotohdukungbobotohngahijihttpst bobotohdukungbobotohngahijihttpstco dukungbobotohngahijihttpstcock2zv5jzvq</t>
+  </si>
+  <si>
+    <t>sandi cita cita indonesia adil makmur berdikari bidang ekonomi yuk terus gerak indonenesia sandicita citacita citaindonesia indonesiaadil adilmakmur makmurberdikari berdikaribidang bidangekonomi ekonomiyuk yukterus terusgerak gerakindonenesia sandicitacita citacitaindonesia citaindonesiaadil indonesiaadilmakmur adilmakmurberdikari makmurberdikaribidang berdikaribidangekonomi bidangekonomiyuk ekonomiyukterus yukterusgerak terusgerakindonenesia sandicitacitaindonesia citacitaindonesiaadil citaindonesiaadilmakmur indonesiaadilmakmurberdikari adilmakmurberdikaribidang makmurberdikaribidangekonomi berdikaribidangekonomiyuk bidangekonomiyukterus ekonomiyukterusgerak yukterusgerakindonenesia sandicitacitaindonesiaadil citacitaindonesiaadilmakmur citaindonesiaadilmakmurberdikari indonesiaadilmakmurberdikaribidang adilmakmurberdikaribidangekonomi makmurberdikaribidangekonomiyuk berdikaribidangekonomiyukterus bidangekonomiyukterusgerak ekonomiyukterusgerakindonenesia sandicitacitaindonesiaadilmakmur citacitaindonesiaadilmakmurberdikari citaindonesiaadilmakmurberdikaribidang indonesiaadilmakmurberdikaribidangekonomi adilmakmurberdikaribidangekonomiyuk makmurberdikaribidangekonomiyukterus berdikaribidangekonomiyukterusgerak bidangekonomiyukterusgerakindonenesia</t>
+  </si>
+  <si>
+    <t>ambil sudut pandang pas ledak boom dilan 2014 cc prabowobentengnkri jokowidiambang ambilsudut sudutpandang pandangpas pasledak ledakboom boomdilan dilan2014 2014cc ccprabowobentengnkri prabowobentengnkrijokowidiambang ambilsudutpandang sudutpandangpas pandangpasledak pasledakboom ledakboomdilan boomdilan2014 dilan2014cc 2014ccprabowobentengnkri ccprabowobentengnkrijokowidiambang ambilsudutpandangpas sudutpandangpasledak pandangpasledakboom pasledakboomdilan ledakboomdilan2014 boomdilan2014cc dilan2014ccprabowobentengnkri 2014ccprabowobentengnkrijokowidiambang ambilsudutpandangpasledak sudutpandangpasledakboom pandangpasledakboomdilan pasledakboomdilan2014 ledakboomdilan2014cc boomdilan2014ccprabowobentengnkri dilan2014ccprabowobentengnkrijokowidiambang ambilsudutpandangpasledakboom sudutpandangpasledakboomdilan pandangpasledakboomdilan2014 pasledakboomdilan2014cc ledakboomdilan2014ccprabowobentengnkri boomdilan2014ccprabowobentengnkrijokowidiambang</t>
+  </si>
+  <si>
+    <t>suka heran sama orang benci parah sama pak disakitin sakit apa sih https t co efc 7clo0mb sukaheran heransama samaorang orangbenci benciparah parahsama samapak pakdisakitin disakitinsakit sakitapa apasih sihhttps httpst tco coefc efc7clo0mb sukaheransama heransamaorang samaorangbenci orangbenciparah benciparahsama parahsamapak samapakdisakitin pakdisakitinsakit disakitinsakitapa sakitapasih apasihhttps sihhttpst httpstco tcoefc coefc7clo0mb sukaheransamaorang heransamaorangbenci samaorangbenciparah orangbenciparahsama benciparahsamapak parahsamapakdisakitin samapakdisakitinsakit pakdisakitinsakitapa disakitinsakitapasih sakitapasihhttps apasihhttpst sihhttpstco httpstcoefc tcoefc7clo0mb sukaheransamaorangbenci heransamaorangbenciparah samaorangbenciparahsama orangbenciparahsamapak benciparahsamapakdisakitin parahsamapakdisakitinsakit samapakdisakitinsakitapa pakdisakitinsakitapasih disakitinsakitapasihhttps sakitapasihhttpst apasihhttpstco sihhttpstcoefc httpstcoefc7clo0mb sukaheransamaorangbenciparah heransamaorangbenciparahsama samaorangbenciparahsamapak orangbenciparahsamapakdisakitin benciparahsamapakdisakitinsakit parahsamapakdisakitinsakitapa samapakdisakitinsakitapasih pakdisakitinsakitapasihhttps disakitinsakitapasihhttpst sakitapasihhttpstco apasihhttpstcoefc sihhttpstcoefc7clo0mb</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni lihatpak pakpercaya percayatni lihatpakpercaya pakpercayatni lihatpakpercayatni</t>
+  </si>
+  <si>
+    <t>lah malah ngulang omong lahmalah malahngulang ngulangomong lahmalahngulang malahngulangomong lahmalahngulangomong</t>
+  </si>
+  <si>
+    <t>insyallah allah aroma menang buat pak bang sudah nampak jelas lihat tinggal kawal menang insyallahallah allaharoma aromamenang menangbuat buatpak pakbang bangsudah sudahnampak nampakjelas jelaslihat lihattinggal tinggalkawal kawalmenang insyallahallaharoma allaharomamenang aromamenangbuat menangbuatpak buatpakbang pakbangsudah bangsudahnampak sudahnampakjelas nampakjelaslihat jelaslihattinggal lihattinggalkawal tinggalkawalmenang insyallahallaharomamenang allaharomamenangbuat aromamenangbuatpak menangbuatpakbang buatpakbangsudah pakbangsudahnampak bangsudahnampakjelas sudahnampakjelaslihat nampakjelaslihattinggal jelaslihattinggalkawal lihattinggalkawalmenang insyallahallaharomamenangbuat allaharomamenangbuatpak aromamenangbuatpakbang menangbuatpakbangsudah buatpakbangsudahnampak pakbangsudahnampakjelas bangsudahnampakjelaslihat sudahnampakjelaslihattinggal nampakjelaslihattinggalkawal jelaslihattinggalkawalmenang insyallahallaharomamenangbuatpak allaharomamenangbuatpakbang aromamenangbuatpakbangsudah menangbuatpakbangsudahnampak buatpakbangsudahnampakjelas pakbangsudahnampakjelaslihat bangsudahnampakjelaslihattinggal sudahnampakjelaslihattinggalkawal nampakjelaslihattinggalkawalmenang</t>
+  </si>
+  <si>
+    <t>pak benar orang baik pilih jadi presiden yang kali pakbenar benarorang orangbaik baikpilih pilihjadi jadipresiden presidenyang yangkali pakbenarorang benarorangbaik orangbaikpilih baikpilihjadi pilihjadipresiden jadipresidenyang presidenyangkali pakbenarorangbaik benarorangbaikpilih orangbaikpilihjadi baikpilihjadipresiden pilihjadipresidenyang jadipresidenyangkali pakbenarorangbaikpilih benarorangbaikpilihjadi orangbaikpilihjadipresiden baikpilihjadipresidenyang pilihjadipresidenyangkali pakbenarorangbaikpilihjadi benarorangbaikpilihjadipresiden orangbaikpilihjadipresidenyang baikpilihjadipresidenyangkali</t>
+  </si>
+  <si>
+    <t>turut ini tampil pak paling lepas benar turutini initampil tampilpak pakpaling palinglepas lepasbenar turutinitampil initampilpak tampilpakpaling pakpalinglepas palinglepasbenar turutinitampilpak initampilpakpaling tampilpakpalinglepas pakpalinglepasbenar turutinitampilpakpaling initampilpakpalinglepas tampilpakpalinglepasbenar turutinitampilpakpalinglepas initampilpakpalinglepasbenar</t>
+  </si>
+  <si>
+    <t>alas pilih prabowo menang debat april coblos sandi alaspilih pilihprabowo prabowomenang menangdebat debatapril aprilcoblos coblossandi alaspilihprabowo pilihprabowomenang prabowomenangdebat menangdebatapril debataprilcoblos aprilcoblossandi alaspilihprabowomenang pilihprabowomenangdebat prabowomenangdebatapril menangdebataprilcoblos debataprilcoblossandi alaspilihprabowomenangdebat pilihprabowomenangdebatapril prabowomenangdebataprilcoblos menangdebataprilcoblossandi alaspilihprabowomenangdebatapril pilihprabowomenangdebataprilcoblos prabowomenangdebataprilcoblossandi</t>
+  </si>
+  <si>
+    <t>udah deh cor usah banyak omong viking bobotoh buat deklarasi dukung udahdeh dehcor corusah usahbanyak banyakomong omongviking vikingbobotoh bobotohbuat buatdeklarasi deklarasidukung udahdehcor dehcorusah corusahbanyak usahbanyakomong banyakomongviking omongvikingbobotoh vikingbobotohbuat bobotohbuatdeklarasi buatdeklarasidukung udahdehcorusah dehcorusahbanyak corusahbanyakomong usahbanyakomongviking banyakomongvikingbobotoh omongvikingbobotohbuat vikingbobotohbuatdeklarasi bobotohbuatdeklarasidukung udahdehcorusahbanyak dehcorusahbanyakomong corusahbanyakomongviking usahbanyakomongvikingbobotoh banyakomongvikingbobotohbuat omongvikingbobotohbuatdeklarasi vikingbobotohbuatdeklarasidukung udahdehcorusahbanyakomong dehcorusahbanyakomongviking corusahbanyakomongvikingbobotoh usahbanyakomongvikingbobotohbuat banyakomongvikingbobotohbuatdeklarasi omongvikingbobotohbuatdeklarasidukung</t>
+  </si>
+  <si>
+    <t>pak mantap jawab tenang jokowimengubahsemua nya jadi lebih baik maju jokowilagi pakmantap mantapjawab jawabtenang tenangjokowimengubahsemua jokowimengubahsemuanya nyajadi jadilebih lebihbaik baikmaju majujokowilagi pakmantapjawab mantapjawabtenang jawabtenangjokowimengubahsemua tenangjokowimengubahsemuanya jokowimengubahsemuanyajadi nyajadilebih jadilebihbaik lebihbaikmaju baikmajujokowilagi pakmantapjawabtenang mantapjawabtenangjokowimengubahsemua jawabtenangjokowimengubahsemuanya tenangjokowimengubahsemuanyajadi jokowimengubahsemuanyajadilebih nyajadilebihbaik jadilebihbaikmaju lebihbaikmajujokowilagi pakmantapjawabtenangjokowimengubahsemua mantapjawabtenangjokowimengubahsemuanya jawabtenangjokowimengubahsemuanyajadi tenangjokowimengubahsemuanyajadilebih jokowimengubahsemuanyajadilebihbaik nyajadilebihbaikmaju jadilebihbaikmajujokowilagi pakmantapjawabtenangjokowimengubahsemuanya mantapjawabtenangjokowimengubahsemuanyajadi jawabtenangjokowimengubahsemuanyajadilebih tenangjokowimengubahsemuanyajadilebihbaik jokowimengubahsemuanyajadilebihbaikmaju nyajadilebihbaikmajujokowilagi</t>
+  </si>
+  <si>
+    <t>tuju pak presiden amin kalau lembaga perintah kuat korupsi jual beli jabat tujupak pakpresiden presidenamin aminkalau kalaulembaga lembagaperintah perintahkuat kuatkorupsi korupsijual jualbeli belijabat tujupakpresiden pakpresidenamin presidenaminkalau aminkalaulembaga kalaulembagaperintah lembagaperintahkuat perintahkuatkorupsi kuatkorupsijual korupsijualbeli jualbelijabat tujupakpresidenamin pakpresidenaminkalau presidenaminkalaulembaga aminkalaulembagaperintah kalaulembagaperintahkuat lembagaperintahkuatkorupsi perintahkuatkorupsijual kuatkorupsijualbeli korupsijualbelijabat tujupakpresidenaminkalau pakpresidenaminkalaulembaga presidenaminkalaulembagaperintah aminkalaulembagaperintahkuat kalaulembagaperintahkuatkorupsi lembagaperintahkuatkorupsijual perintahkuatkorupsijualbeli kuatkorupsijualbelijabat tujupakpresidenaminkalaulembaga pakpresidenaminkalaulembagaperintah presidenaminkalaulembagaperintahkuat aminkalaulembagaperintahkuatkorupsi kalaulembagaperintahkuatkorupsijual lembagaperintahkuatkorupsijualbeli perintahkuatkorupsijualbelijabat</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tol langit rupa karya bangun bukti mampu dukung maju ekonomi digital pemerintahandilantol tollangit langitrupa rupakarya karyabangun bangunbukti buktimampu mampudukung dukungmaju majuekonomi ekonomidigital pemerintahandilantollangit tollangitrupa langitrupakarya rupakaryabangun karyabangunbukti bangunbuktimampu buktimampudukung mampudukungmaju dukungmajuekonomi majuekonomidigital pemerintahandilantollangitrupa tollangitrupakarya langitrupakaryabangun rupakaryabangunbukti karyabangunbuktimampu bangunbuktimampudukung buktimampudukungmaju mampudukungmajuekonomi dukungmajuekonomidigital pemerintahandilantollangitrupakarya tollangitrupakaryabangun langitrupakaryabangunbukti rupakaryabangunbuktimampu karyabangunbuktimampudukung bangunbuktimampudukungmaju buktimampudukungmajuekonomi mampudukungmajuekonomidigital pemerintahandilantollangitrupakaryabangun tollangitrupakaryabangunbukti langitrupakaryabangunbuktimampu rupakaryabangunbuktimampudukung karyabangunbuktimampudukungmaju bangunbuktimampudukungmajuekonomi buktimampudukungmajuekonomidigital</t>
+  </si>
+  <si>
+    <t>bangga baris pak prabowobentengnkri banggabaris barispak pakprabowobentengnkri banggabarispak barispakprabowobentengnkri banggabarispakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial love ya gaya milenial kena ott ahy partai demokrat demokrat dukung mileniallove loveya yagaya gayamilenial milenialkena kenaott ottahy ahypartai partaidemokrat demokratdemokrat demokratdukung milenialloveya loveyagaya yagayamilenial gayamilenialkena milenialkenaott kenaottahy ottahypartai ahypartaidemokrat partaidemokratdemokrat demokratdemokratdukung milenialloveyagaya loveyagayamilenial yagayamilenialkena gayamilenialkenaott milenialkenaottahy kenaottahypartai ottahypartaidemokrat ahypartaidemokratdemokrat partaidemokratdemokratdukung milenialloveyagayamilenial loveyagayamilenialkena yagayamilenialkenaott gayamilenialkenaottahy milenialkenaottahypartai kenaottahypartaidemokrat ottahypartaidemokratdemokrat ahypartaidemokratdemokratdukung milenialloveyagayamilenialkena loveyagayamilenialkenaott yagayamilenialkenaottahy gayamilenialkenaottahypartai milenialkenaottahypartaidemokrat kenaottahypartaidemokratdemokrat ottahypartaidemokratdemokratdukung</t>
+  </si>
+  <si>
+    <t>lebih tni banyak tni lebihtni tnibanyak banyaktni lebihtnibanyak tnibanyaktni lebihtnibanyaktni</t>
+  </si>
+  <si>
+    <t>sistem alat teknologi semua bagus layan publik inti perintah bersih korupsi sistemalat alatteknologi teknologisemua semuabagus baguslayan layanpublik publikinti intiperintah perintahbersih bersihkorupsi sistemalatteknologi alatteknologisemua teknologisemuabagus semuabaguslayan baguslayanpublik layanpublikinti publikintiperintah intiperintahbersih perintahbersihkorupsi sistemalatteknologisemua alatteknologisemuabagus teknologisemuabaguslayan semuabaguslayanpublik baguslayanpublikinti layanpublikintiperintah publikintiperintahbersih intiperintahbersihkorupsi sistemalatteknologisemuabagus alatteknologisemuabaguslayan teknologisemuabaguslayanpublik semuabaguslayanpublikinti baguslayanpublikintiperintah layanpublikintiperintahbersih publikintiperintahbersihkorupsi sistemalatteknologisemuabaguslayan alatteknologisemuabaguslayanpublik teknologisemuabaguslayanpublikinti semuabaguslayanpublikintiperintah baguslayanpublikintiperintahbersih layanpublikintiperintahbersihkorupsi</t>
+  </si>
+  <si>
+    <t>isu khilafah hembus sutradara gempur patah ronde pertama katolik makin percaya isukhilafah khilafahhembus hembussutradara sutradaragempur gempurpatah patahronde rondepertama pertamakatolik katolikmakin makinpercaya isukhilafahhembus khilafahhembussutradara hembussutradaragempur sutradaragempurpatah gempurpatahronde patahrondepertama rondepertamakatolik pertamakatolikmakin katolikmakinpercaya isukhilafahhembussutradara khilafahhembussutradaragempur hembussutradaragempurpatah sutradaragempurpatahronde gempurpatahrondepertama patahrondepertamakatolik rondepertamakatolikmakin pertamakatolikmakinpercaya isukhilafahhembussutradaragempur khilafahhembussutradaragempurpatah hembussutradaragempurpatahronde sutradaragempurpatahrondepertama gempurpatahrondepertamakatolik patahrondepertamakatolikmakin rondepertamakatolikmakinpercaya isukhilafahhembussutradaragempurpatah khilafahhembussutradaragempurpatahronde hembussutradaragempurpatahrondepertama sutradaragempurpatahrondepertamakatolik gempurpatahrondepertamakatolikmakin patahrondepertamakatolikmakinpercaya</t>
+  </si>
+  <si>
+    <t>dil digital layan lebih baik guna teknologi lama pel deh pikir dildigital digitallayan layanlebih lebihbaik baikguna gunateknologi teknologilama lamapel peldeh dehpikir dildigitallayan digitallayanlebih layanlebihbaik lebihbaikguna baikgunateknologi gunateknologilama teknologilamapel lamapeldeh peldehpikir dildigitallayanlebih digitallayanlebihbaik layanlebihbaikguna lebihbaikgunateknologi baikgunateknologilama gunateknologilamapel teknologilamapeldeh lamapeldehpikir dildigitallayanlebihbaik digitallayanlebihbaikguna layanlebihbaikgunateknologi lebihbaikgunateknologilama baikgunateknologilamapel gunateknologilamapeldeh teknologilamapeldehpikir dildigitallayanlebihbaikguna digitallayanlebihbaikgunateknologi layanlebihbaikgunateknologilama lebihbaikgunateknologilamapel baikgunateknologilamapeldeh gunateknologilamapeldehpikir</t>
+  </si>
+  <si>
+    <t>clossing statement isyarat pisah bangga bapak segera gegas pulang serah kuasa clossingstatement statementisyarat isyaratpisah pisahbangga banggabapak bapaksegera segeragegas gegaspulang pulangserah serahkuasa clossingstatementisyarat statementisyaratpisah isyaratpisahbangga pisahbanggabapak banggabapaksegera bapaksegeragegas segeragegaspulang gegaspulangserah pulangserahkuasa clossingstatementisyaratpisah statementisyaratpisahbangga isyaratpisahbanggabapak pisahbanggabapaksegera banggabapaksegeragegas bapaksegeragegaspulang segeragegaspulangserah gegaspulangserahkuasa clossingstatementisyaratpisahbangga statementisyaratpisahbanggabapak isyaratpisahbanggabapaksegera pisahbanggabapaksegeragegas banggabapaksegeragegaspulang bapaksegeragegaspulangserah segeragegaspulangserahkuasa clossingstatementisyaratpisahbanggabapak statementisyaratpisahbanggabapaksegera isyaratpisahbanggabapaksegeragegas pisahbanggabapaksegeragegaspulang banggabapaksegeragegaspulangserah bapaksegeragegaspulangserahkuasa</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni telak sekali bro tak kutik lihatpak pakpercaya percayatni tnitelak telaksekali sekalibro brotak takkutik lihatpakpercaya pakpercayatni percayatnitelak tnitelaksekali telaksekalibro sekalibrotak brotakkutik lihatpakpercayatni pakpercayatnitelak percayatnitelaksekali tnitelaksekalibro telaksekalibrotak sekalibrotakkutik lihatpakpercayatnitelak pakpercayatnitelaksekali percayatnitelaksekalibro tnitelaksekalibrotak telaksekalibrotakkutik lihatpakpercayatnitelaksekali pakpercayatnitelaksekalibro percayatnitelaksekalibrotak tnitelaksekalibrotakkutik</t>
+  </si>
+  <si>
+    <t>buat tonton ketawa saat bilang bukan salah bapak tidak tau salah siapa buattonton tontonketawa ketawasaat saatbilang bilangbukan bukansalah salahbapak bapaktidak tidaktau tausalah salahsiapa buattontonketawa tontonketawasaat ketawasaatbilang saatbilangbukan bilangbukansalah bukansalahbapak salahbapaktidak bapaktidaktau tidaktausalah tausalahsiapa buattontonketawasaat tontonketawasaatbilang ketawasaatbilangbukan saatbilangbukansalah bilangbukansalahbapak bukansalahbapaktidak salahbapaktidaktau bapaktidaktausalah tidaktausalahsiapa buattontonketawasaatbilang tontonketawasaatbilangbukan ketawasaatbilangbukansalah saatbilangbukansalahbapak bilangbukansalahbapaktidak bukansalahbapaktidaktau salahbapaktidaktausalah bapaktidaktausalahsiapa buattontonketawasaatbilangbukan tontonketawasaatbilangbukansalah ketawasaatbilangbukansalahbapak saatbilangbukansalahbapaktidak bilangbukansalahbapaktidaktau bukansalahbapaktidaktausalah salahbapaktidaktausalahsiapa</t>
+  </si>
+  <si>
+    <t>siapa bicara cara umum soal ini jangan korupsi perintah bersih siapabicara bicaracara caraumum umumsoal soalini inijangan jangankorupsi korupsiperintah perintahbersih siapabicaracara bicaracaraumum caraumumsoal umumsoalini soalinijangan inijangankorupsi jangankorupsiperintah korupsiperintahbersih siapabicaracaraumum bicaracaraumumsoal caraumumsoalini umumsoalinijangan soalinijangankorupsi inijangankorupsiperintah jangankorupsiperintahbersih siapabicaracaraumumsoal bicaracaraumumsoalini caraumumsoalinijangan umumsoalinijangankorupsi soalinijangankorupsiperintah inijangankorupsiperintahbersih siapabicaracaraumumsoalini bicaracaraumumsoalinijangan caraumumsoalinijangankorupsi umumsoalinijangankorupsiperintah soalinijangankorupsiperintahbersih</t>
+  </si>
+  <si>
+    <t>indonesia negara duduk muslim besar dunia percaya selesai banyak yang besar indonesianegara negaraduduk dudukmuslim muslimbesar besardunia duniapercaya percayaselesai selesaibanyak banyakyang yangbesar indonesianegaraduduk negaradudukmuslim dudukmuslimbesar muslimbesardunia besarduniapercaya duniapercayaselesai percayaselesaibanyak selesaibanyakyang banyakyangbesar indonesianegaradudukmuslim negaradudukmuslimbesar dudukmuslimbesardunia muslimbesarduniapercaya besarduniapercayaselesai duniapercayaselesaibanyak percayaselesaibanyakyang selesaibanyakyangbesar indonesianegaradudukmuslimbesar negaradudukmuslimbesardunia dudukmuslimbesarduniapercaya muslimbesarduniapercayaselesai besarduniapercayaselesaibanyak duniapercayaselesaibanyakyang percayaselesaibanyakyangbesar indonesianegaradudukmuslimbesardunia negaradudukmuslimbesarduniapercaya dudukmuslimbesarduniapercayaselesai muslimbesarduniapercayaselesaibanyak besarduniapercayaselesaibanyakyang duniapercayaselesaibanyakyangbesar</t>
+  </si>
+  <si>
+    <t>baru kali tenang banget prabowobentengnkri barukali kalitenang tenangbanget bangetprabowobentengnkri barukalitenang kalitenangbanget tenangbangetprabowobentengnkri barukalitenangbanget kalitenangbangetprabowobentengnkri barukalitenangbangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>milenial cinta pemerintahandilan keren https t co gg7eokdtnw milenialcinta cintapemerintahandilan pemerintahandilankeren kerenhttps httpst tco cogg7eokdtnw milenialcintapemerintahandilan cintapemerintahandilankeren pemerintahandilankerenhttps kerenhttpst httpstco tcogg7eokdtnw milenialcintapemerintahandilankeren cintapemerintahandilankerenhttps pemerintahandilankerenhttpst kerenhttpstco httpstcogg7eokdtnw milenialcintapemerintahandilankerenhttps cintapemerintahandilankerenhttpst pemerintahandilankerenhttpstco kerenhttpstcogg7eokdtnw milenialcintapemerintahandilankerenhttpst cintapemerintahandilankerenhttpstco pemerintahandilankerenhttpstcogg7eokdtnw</t>
+  </si>
+  <si>
+    <t>hormat bapak debat momen baik papar gagas rencana hadap benang kusut bangsa hormatbapak bapakdebat debatmomen momenbaik baikpapar papargagas gagasrencana rencanahadap hadapbenang benangkusut kusutbangsa hormatbapakdebat bapakdebatmomen debatmomenbaik momenbaikpapar baikpapargagas papargagasrencana gagasrencanahadap rencanahadapbenang hadapbenangkusut benangkusutbangsa hormatbapakdebatmomen bapakdebatmomenbaik debatmomenbaikpapar momenbaikpapargagas baikpapargagasrencana papargagasrencanahadap gagasrencanahadapbenang rencanahadapbenangkusut hadapbenangkusutbangsa hormatbapakdebatmomenbaik bapakdebatmomenbaikpapar debatmomenbaikpapargagas momenbaikpapargagasrencana baikpapargagasrencanahadap papargagasrencanahadapbenang gagasrencanahadapbenangkusut rencanahadapbenangkusutbangsa hormatbapakdebatmomenbaikpapar bapakdebatmomenbaikpapargagas debatmomenbaikpapargagasrencana momenbaikpapargagasrencanahadap baikpapargagasrencanahadapbenang papargagasrencanahadapbenangkusut gagasrencanahadapbenangkusutbangsa</t>
+  </si>
+  <si>
+    <t>tuduh itu saya diam tidak jawab bohong banget prabowobentengnkri tuduhitu itusaya sayadiam diamtidak tidakjawab jawabbohong bohongbanget bangetprabowobentengnkri tuduhitusaya itusayadiam sayadiamtidak diamtidakjawab tidakjawabbohong jawabbohongbanget bohongbangetprabowobentengnkri tuduhitusayadiam itusayadiamtidak sayadiamtidakjawab diamtidakjawabbohong tidakjawabbohongbanget jawabbohongbangetprabowobentengnkri tuduhitusayadiamtidak itusayadiamtidakjawab sayadiamtidakjawabbohong diamtidakjawabbohongbanget tidakjawabbohongbangetprabowobentengnkri tuduhitusayadiamtidakjawab itusayadiamtidakjawabbohong sayadiamtidakjawabbohongbanget diamtidakjawabbohongbangetprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungtahana dukungtahanarupa tahanarupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik rendahdukungtahanarupa dukungtahanarupabukti tahanarupabuktibila rupabuktibilacara buktibilacaratak bilacarataklangsung carataklangsungsedang taklangsungsedanghukum langsungsedanghukumpublik rendahdukungtahanarupabukti dukungtahanarupabuktibila tahanarupabuktibilacara rupabuktibilacaratak buktibilacarataklangsung bilacarataklangsungsedang carataklangsungsedanghukum taklangsungsedanghukumpublik rendahdukungtahanarupabuktibila dukungtahanarupabuktibilacara tahanarupabuktibilacaratak rupabuktibilacarataklangsung buktibilacarataklangsungsedang bilacarataklangsungsedanghukum carataklangsungsedanghukumpublik</t>
+  </si>
+  <si>
+    <t>leceh tagar 02capresabadi lama 4 5 tahun juang ubah tidur cantik jangan sana lecehtagar tagar02capresabadi 02capresabadilama lama4 45 5tahun tahunjuang juangubah ubahtidur tidurcantik cantikjangan jangansana lecehtagar02capresabadi tagar02capresabadilama 02capresabadilama4 lama45 45tahun 5tahunjuang tahunjuangubah juangubahtidur ubahtidurcantik tidurcantikjangan cantikjangansana lecehtagar02capresabadilama tagar02capresabadilama4 02capresabadilama45 lama45tahun 45tahunjuang 5tahunjuangubah tahunjuangubahtidur juangubahtidurcantik ubahtidurcantikjangan tidurcantikjangansana lecehtagar02capresabadilama4 tagar02capresabadilama45 02capresabadilama45tahun lama45tahunjuang 45tahunjuangubah 5tahunjuangubahtidur tahunjuangubahtidurcantik juangubahtidurcantikjangan ubahtidurcantikjangansana lecehtagar02capresabadilama45 tagar02capresabadilama45tahun 02capresabadilama45tahunjuang lama45tahunjuangubah 45tahunjuangubahtidur 5tahunjuangubahtidurcantik tahunjuangubahtidurcantikjangan juangubahtidurcantikjangansana</t>
+  </si>
+  <si>
+    <t>tetap fokus doa allah maha kuasa menang indonesia satu tetapfokus fokusdoa doaallah allahmaha mahakuasa kuasamenang menangindonesia indonesiasatu tetapfokusdoa fokusdoaallah doaallahmaha allahmahakuasa mahakuasamenang kuasamenangindonesia menangindonesiasatu tetapfokusdoaallah fokusdoaallahmaha doaallahmahakuasa allahmahakuasamenang mahakuasamenangindonesia kuasamenangindonesiasatu tetapfokusdoaallahmaha fokusdoaallahmahakuasa doaallahmahakuasamenang allahmahakuasamenangindonesia mahakuasamenangindonesiasatu tetapfokusdoaallahmahakuasa fokusdoaallahmahakuasamenang doaallahmahakuasamenangindonesia allahmahakuasamenangindonesiasatu</t>
+  </si>
+  <si>
+    <t>percaya tni pecatanlebihtnidaritni https t co qtfysc 93hd percayatni tnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco coqtfysc qtfysc93hd percayatnipecatanlebihtnidaritni tnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcoqtfysc coqtfysc93hd percayatnipecatanlebihtnidaritnihttps tnipecatanlebihtnidaritnihttpst pecatanlebihtnidaritnihttpstco httpstcoqtfysc tcoqtfysc93hd percayatnipecatanlebihtnidaritnihttpst tnipecatanlebihtnidaritnihttpstco pecatanlebihtnidaritnihttpstcoqtfysc httpstcoqtfysc93hd percayatnipecatanlebihtnidaritnihttpstco tnipecatanlebihtnidaritnihttpstcoqtfysc pecatanlebihtnidaritnihttpstcoqtfysc93hd</t>
+  </si>
+  <si>
+    <t>depan negara cepat kalah negara lambat kata pak cepat super cepat lompat depan depannegara negaracepat cepatkalah kalahnegara negaralambat lambatkata katapak pakcepat cepatsuper supercepat cepatlompat lompatdepan depannegaracepat negaracepatkalah cepatkalahnegara kalahnegaralambat negaralambatkata lambatkatapak katapakcepat pakcepatsuper cepatsupercepat supercepatlompat cepatlompatdepan depannegaracepatkalah negaracepatkalahnegara cepatkalahnegaralambat kalahnegaralambatkata negaralambatkatapak lambatkatapakcepat katapakcepatsuper pakcepatsupercepat cepatsupercepatlompat supercepatlompatdepan depannegaracepatkalahnegara negaracepatkalahnegaralambat cepatkalahnegaralambatkata kalahnegaralambatkatapak negaralambatkatapakcepat lambatkatapakcepatsuper katapakcepatsupercepat pakcepatsupercepatlompat cepatsupercepatlompatdepan depannegaracepatkalahnegaralambat negaracepatkalahnegaralambatkata cepatkalahnegaralambatkatapak kalahnegaralambatkatapakcepat negaralambatkatapakcepatsuper lambatkatapakcepatsupercepat katapakcepatsupercepatlompat pakcepatsupercepatlompatdepan</t>
+  </si>
+  <si>
+    <t>makin yakin rakyat ubah tunjuk kelas bagai orang memang paham soal bangsa depan makinyakin yakinrakyat rakyatubah ubahtunjuk tunjukkelas kelasbagai bagaiorang orangmemang memangpaham pahamsoal soalbangsa bangsadepan makinyakinrakyat yakinrakyatubah rakyatubahtunjuk ubahtunjukkelas tunjukkelasbagai kelasbagaiorang bagaiorangmemang orangmemangpaham memangpahamsoal pahamsoalbangsa soalbangsadepan makinyakinrakyatubah yakinrakyatubahtunjuk rakyatubahtunjukkelas ubahtunjukkelasbagai tunjukkelasbagaiorang kelasbagaiorangmemang bagaiorangmemangpaham orangmemangpahamsoal memangpahamsoalbangsa pahamsoalbangsadepan makinyakinrakyatubahtunjuk yakinrakyatubahtunjukkelas rakyatubahtunjukkelasbagai ubahtunjukkelasbagaiorang tunjukkelasbagaiorangmemang kelasbagaiorangmemangpaham bagaiorangmemangpahamsoal orangmemangpahamsoalbangsa memangpahamsoalbangsadepan makinyakinrakyatubahtunjukkelas yakinrakyatubahtunjukkelasbagai rakyatubahtunjukkelasbagaiorang ubahtunjukkelasbagaiorangmemang tunjukkelasbagaiorangmemangpaham kelasbagaiorangmemangpahamsoal bagaiorangmemangpahamsoalbangsa orangmemangpahamsoalbangsadepan</t>
+  </si>
+  <si>
+    <t>lho kok ngeles pak tadi kata ada perang sekarang bilang kira kok pucat lhokok kokngeles ngelespak paktadi tadikata kataada adaperang perangsekarang sekarangbilang bilangkira kirakok kokpucat lhokokngeles kokngelespak ngelespaktadi paktadikata tadikataada kataadaperang adaperangsekarang perangsekarangbilang sekarangbilangkira bilangkirakok kirakokpucat lhokokngelespak kokngelespaktadi ngelespaktadikata paktadikataada tadikataadaperang kataadaperangsekarang adaperangsekarangbilang perangsekarangbilangkira sekarangbilangkirakok bilangkirakokpucat lhokokngelespaktadi kokngelespaktadikata ngelespaktadikataada paktadikataadaperang tadikataadaperangsekarang kataadaperangsekarangbilang adaperangsekarangbilangkira perangsekarangbilangkirakok sekarangbilangkirakokpucat lhokokngelespaktadikata kokngelespaktadikataada ngelespaktadikataadaperang paktadikataadaperangsekarang tadikataadaperangsekarangbilang kataadaperangsekarangbilangkira adaperangsekarangbilangkirakok perangsekarangbilangkirakokpucat</t>
+  </si>
+  <si>
+    <t>repost jokowi amin pak hidup pancasila pimpin bisa beri contoh baik repostjokowi jokowiamin aminpak pakhidup hiduppancasila pancasilapimpin pimpinbisa bisaberi bericontoh contohbaik repostjokowiamin jokowiaminpak aminpakhidup pakhiduppancasila hiduppancasilapimpin pancasilapimpinbisa pimpinbisaberi bisabericontoh bericontohbaik repostjokowiaminpak jokowiaminpakhidup aminpakhiduppancasila pakhiduppancasilapimpin hiduppancasilapimpinbisa pancasilapimpinbisaberi pimpinbisabericontoh bisabericontohbaik repostjokowiaminpakhidup jokowiaminpakhiduppancasila aminpakhiduppancasilapimpin pakhiduppancasilapimpinbisa hiduppancasilapimpinbisaberi pancasilapimpinbisabericontoh pimpinbisabericontohbaik repostjokowiaminpakhiduppancasila jokowiaminpakhiduppancasilapimpin aminpakhiduppancasilapimpinbisa pakhiduppancasilapimpinbisaberi hiduppancasilapimpinbisabericontoh pancasilapimpinbisabericontohbaik</t>
+  </si>
+  <si>
+    <t>telah debat calon presiden kpu setel lagu mesra jangan cepat lalu romantisasi sahabat telahdebat debatcalon calonpresiden presidenkpu kpusetel setellagu lagumesra mesrajangan jangancepat cepatlalu laluromantisasi romantisasisahabat telahdebatcalon debatcalonpresiden calonpresidenkpu presidenkpusetel kpusetellagu setellagumesra lagumesrajangan mesrajangancepat jangancepatlalu cepatlaluromantisasi laluromantisasisahabat telahdebatcalonpresiden debatcalonpresidenkpu calonpresidenkpusetel presidenkpusetellagu kpusetellagumesra setellagumesrajangan lagumesrajangancepat mesrajangancepatlalu jangancepatlaluromantisasi cepatlaluromantisasisahabat telahdebatcalonpresidenkpu debatcalonpresidenkpusetel calonpresidenkpusetellagu presidenkpusetellagumesra kpusetellagumesrajangan setellagumesrajangancepat lagumesrajangancepatlalu mesrajangancepatlaluromantisasi jangancepatlaluromantisasisahabat telahdebatcalonpresidenkpusetel debatcalonpresidenkpusetellagu calonpresidenkpusetellagumesra presidenkpusetellagumesrajangan kpusetellagumesrajangancepat setellagumesrajangancepatlalu lagumesrajangancepatlaluromantisasi mesrajangancepatlaluromantisasisahabat</t>
+  </si>
+  <si>
+    <t>siap nonton debatpilpreskeempat tema debat malam untung p kuasa tema debat siapnonton nontondebatpilpreskeempat debatpilpreskeempattema temadebat debatmalam malamuntung untungp pkuasa kuasatema temadebat siapnontondebatpilpreskeempat nontondebatpilpreskeempattema debatpilpreskeempattemadebat temadebatmalam debatmalamuntung malamuntungp untungpkuasa pkuasatema kuasatemadebat siapnontondebatpilpreskeempattema nontondebatpilpreskeempattemadebat debatpilpreskeempattemadebatmalam temadebatmalamuntung debatmalamuntungp malamuntungpkuasa untungpkuasatema pkuasatemadebat siapnontondebatpilpreskeempattemadebat nontondebatpilpreskeempattemadebatmalam debatpilpreskeempattemadebatmalamuntung temadebatmalamuntungp debatmalamuntungpkuasa malamuntungpkuasatema untungpkuasatemadebat siapnontondebatpilpreskeempattemadebatmalam nontondebatpilpreskeempattemadebatmalamuntung debatpilpreskeempattemadebatmalamuntungp temadebatmalamuntungpkuasa debatmalamuntungpkuasatema malamuntungpkuasatemadebat</t>
+  </si>
+  <si>
+    <t>hebat sekali dlm respon akhir debat pilpres tegas bagus indonesia kuat berdikari hebatsekali sekalidlm dlmrespon responakhir akhirdebat debatpilpres pilprestegas tegasbagus bagusindonesia indonesiakuat kuatberdikari hebatsekalidlm sekalidlmrespon dlmresponakhir responakhirdebat akhirdebatpilpres debatpilprestegas pilprestegasbagus tegasbagusindonesia bagusindonesiakuat indonesiakuatberdikari hebatsekalidlmrespon sekalidlmresponakhir dlmresponakhirdebat responakhirdebatpilpres akhirdebatpilprestegas debatpilprestegasbagus pilprestegasbagusindonesia tegasbagusindonesiakuat bagusindonesiakuatberdikari hebatsekalidlmresponakhir sekalidlmresponakhirdebat dlmresponakhirdebatpilpres responakhirdebatpilprestegas akhirdebatpilprestegasbagus debatpilprestegasbagusindonesia pilprestegasbagusindonesiakuat tegasbagusindonesiakuatberdikari hebatsekalidlmresponakhirdebat sekalidlmresponakhirdebatpilpres dlmresponakhirdebatpilprestegas responakhirdebatpilprestegasbagus akhirdebatpilprestegasbagusindonesia debatpilprestegasbagusindonesiakuat pilprestegasbagusindonesiakuatberdikari</t>
+  </si>
+  <si>
+    <t>nyerocos pakai bahas inggris debatpilpres 2019 malam sontak hilang kosentrasi fokus nyerocospakai pakaibahas bahasinggris inggrisdebatpilpres debatpilpres2019 2019malam malamsontak sontakhilang hilangkosentrasi kosentrasifokus nyerocospakaibahas pakaibahasinggris bahasinggrisdebatpilpres inggrisdebatpilpres2019 debatpilpres2019malam 2019malamsontak malamsontakhilang sontakhilangkosentrasi hilangkosentrasifokus nyerocospakaibahasinggris pakaibahasinggrisdebatpilpres bahasinggrisdebatpilpres2019 inggrisdebatpilpres2019malam debatpilpres2019malamsontak 2019malamsontakhilang malamsontakhilangkosentrasi sontakhilangkosentrasifokus nyerocospakaibahasinggrisdebatpilpres pakaibahasinggrisdebatpilpres2019 bahasinggrisdebatpilpres2019malam inggrisdebatpilpres2019malamsontak debatpilpres2019malamsontakhilang 2019malamsontakhilangkosentrasi malamsontakhilangkosentrasifokus nyerocospakaibahasinggrisdebatpilpres2019 pakaibahasinggrisdebatpilpres2019malam bahasinggrisdebatpilpres2019malamsontak inggrisdebatpilpres2019malamsontakhilang debatpilpres2019malamsontakhilangkosentrasi 2019malamsontakhilangkosentrasifokus</t>
+  </si>
+  <si>
+    <t>dong selalu fokus masalah bicara perlu banyak kerja kepoinpemilu jokowimengubahsemua dongselalu selalufokus fokusmasalah masalahbicara bicaraperlu perlubanyak banyakkerja kerjakepoinpemilu kepoinpemilujokowimengubahsemua dongselalufokus selalufokusmasalah fokusmasalahbicara masalahbicaraperlu bicaraperlubanyak perlubanyakkerja banyakkerjakepoinpemilu kerjakepoinpemilujokowimengubahsemua dongselalufokusmasalah selalufokusmasalahbicara fokusmasalahbicaraperlu masalahbicaraperlubanyak bicaraperlubanyakkerja perlubanyakkerjakepoinpemilu banyakkerjakepoinpemilujokowimengubahsemua dongselalufokusmasalahbicara selalufokusmasalahbicaraperlu fokusmasalahbicaraperlubanyak masalahbicaraperlubanyakkerja bicaraperlubanyakkerjakepoinpemilu perlubanyakkerjakepoinpemilujokowimengubahsemua dongselalufokusmasalahbicaraperlu selalufokusmasalahbicaraperlubanyak fokusmasalahbicaraperlubanyakkerja masalahbicaraperlubanyakkerjakepoinpemilu bicaraperlubanyakkerjakepoinpemilujokowimengubahsemua</t>
+  </si>
+  <si>
+    <t>prinsip perintah pak era revolusi 40 cepat tele simple pak yakin kata prinsipperintah perintahpak pakera erarevolusi revolusi40 40cepat cepattele telesimple simplepak pakyakin yakinkata prinsipperintahpak perintahpakera pakerarevolusi erarevolusi40 revolusi40cepat 40cepattele cepattelesimple telesimplepak simplepakyakin pakyakinkata prinsipperintahpakera perintahpakerarevolusi pakerarevolusi40 erarevolusi40cepat revolusi40cepattele 40cepattelesimple cepattelesimplepak telesimplepakyakin simplepakyakinkata prinsipperintahpakerarevolusi perintahpakerarevolusi40 pakerarevolusi40cepat erarevolusi40cepattele revolusi40cepattelesimple 40cepattelesimplepak cepattelesimplepakyakin telesimplepakyakinkata prinsipperintahpakerarevolusi40 perintahpakerarevolusi40cepat pakerarevolusi40cepattele erarevolusi40cepattelesimple revolusi40cepattelesimplepak 40cepattelesimplepakyakin cepattelesimplepakyakinkata</t>
+  </si>
+  <si>
+    <t>gigi sampai hilang sakit gara-gara lihat performa pak keren nendang jokowi gigisampai sampaihilang hilangsakit sakitgara-gara gara-garalihat lihatperforma performapak pakkeren kerennendang nendangjokowi gigisampaihilang sampaihilangsakit hilangsakitgara-gara sakitgara-garalihat gara-garalihatperforma lihatperformapak performapakkeren pakkerennendang kerennendangjokowi gigisampaihilangsakit sampaihilangsakitgara-gara hilangsakitgara-garalihat sakitgara-garalihatperforma gara-garalihatperformapak lihatperformapakkeren performapakkerennendang pakkerennendangjokowi gigisampaihilangsakitgara-gara sampaihilangsakitgara-garalihat hilangsakitgara-garalihatperforma sakitgara-garalihatperformapak gara-garalihatperformapakkeren lihatperformapakkerennendang performapakkerennendangjokowi gigisampaihilangsakitgara-garalihat sampaihilangsakitgara-garalihatperforma hilangsakitgara-garalihatperformapak sakitgara-garalihatperformapakkeren gara-garalihatperformapakkerennendang lihatperformapakkerennendangjokowi</t>
+  </si>
+  <si>
+    <t>terimakasih pak malam sekali bapak bukti mereka juang rakyat terimakasihpak pakmalam malamsekali sekalibapak bapakbukti buktimereka merekajuang juangrakyat terimakasihpakmalam pakmalamsekali malamsekalibapak sekalibapakbukti bapakbuktimereka buktimerekajuang merekajuangrakyat terimakasihpakmalamsekali pakmalamsekalibapak malamsekalibapakbukti sekalibapakbuktimereka bapakbuktimerekajuang buktimerekajuangrakyat terimakasihpakmalamsekalibapak pakmalamsekalibapakbukti malamsekalibapakbuktimereka sekalibapakbuktimerekajuang bapakbuktimerekajuangrakyat terimakasihpakmalamsekalibapakbukti pakmalamsekalibapakbuktimereka malamsekalibapakbuktimerekajuang sekalibapakbuktimerekajuangrakyat</t>
+  </si>
+  <si>
+    <t>dulur sebut apa buat optimis pak 01dilanjutkan kata tagar dulursebut sebutapa apabuat buatoptimis optimispak pak01dilanjutkan 01dilanjutkankata katatagar dulursebutapa sebutapabuat apabuatoptimis buatoptimispak optimispak01dilanjutkan pak01dilanjutkankata 01dilanjutkankatatagar dulursebutapabuat sebutapabuatoptimis apabuatoptimispak buatoptimispak01dilanjutkan optimispak01dilanjutkankata pak01dilanjutkankatatagar dulursebutapabuatoptimis sebutapabuatoptimispak apabuatoptimispak01dilanjutkan buatoptimispak01dilanjutkankata optimispak01dilanjutkankatatagar dulursebutapabuatoptimispak sebutapabuatoptimispak01dilanjutkan apabuatoptimispak01dilanjutkankata buatoptimispak01dilanjutkankatatagar</t>
+  </si>
+  <si>
+    <t>pak bagaimana bilang orang asing indonesia punya potensial besar bukan nya bersukur di doa sama pakbagaimana bagaimanabilang bilangorang orangasing asingindonesia indonesiapunya punyapotensial potensialbesar besarbukan bukannya nyabersukur bersukurdi didoa doasama pakbagaimanabilang bagaimanabilangorang bilangorangasing orangasingindonesia asingindonesiapunya indonesiapunyapotensial punyapotensialbesar potensialbesarbukan besarbukannya bukannyabersukur nyabersukurdi bersukurdidoa didoasama pakbagaimanabilangorang bagaimanabilangorangasing bilangorangasingindonesia orangasingindonesiapunya asingindonesiapunyapotensial indonesiapunyapotensialbesar punyapotensialbesarbukan potensialbesarbukannya besarbukannyabersukur bukannyabersukurdi nyabersukurdidoa bersukurdidoasama pakbagaimanabilangorangasing bagaimanabilangorangasingindonesia bilangorangasingindonesiapunya orangasingindonesiapunyapotensial asingindonesiapunyapotensialbesar indonesiapunyapotensialbesarbukan punyapotensialbesarbukannya potensialbesarbukannyabersukur besarbukannyabersukurdi bukannyabersukurdidoa nyabersukurdidoasama pakbagaimanabilangorangasingindonesia bagaimanabilangorangasingindonesiapunya bilangorangasingindonesiapunyapotensial orangasingindonesiapunyapotensialbesar asingindonesiapunyapotensialbesarbukan indonesiapunyapotensialbesarbukannya punyapotensialbesarbukannyabersukur potensialbesarbukannyabersukurdi besarbukannyabersukurdidoa bukannyabersukurdidoasama</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris yang mau mundur masa lalu acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris barisyang yangmau maumundur mundurmasa masalalu acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris dibarisyang barisyangmau yangmaumundur maumundurmasa mundurmasalalu acuadalahmertuabukti adalahmertuabuktikeluarga mertuabuktikeluargamertua buktikeluargamertuadi keluargamertuadibaris mertuadibarisyang dibarisyangmau barisyangmaumundur yangmaumundurmasa maumundurmasalalu acuadalahmertuabuktikeluarga adalahmertuabuktikeluargamertua mertuabuktikeluargamertuadi buktikeluargamertuadibaris keluargamertuadibarisyang mertuadibarisyangmau dibarisyangmaumundur barisyangmaumundurmasa yangmaumundurmasalalu acuadalahmertuabuktikeluargamertua adalahmertuabuktikeluargamertuadi mertuabuktikeluargamertuadibaris buktikeluargamertuadibarisyang keluargamertuadibarisyangmau mertuadibarisyangmaumundur dibarisyangmaumundurmasa barisyangmaumundurmasalalu</t>
+  </si>
+  <si>
+    <t>baru kali mau fitnah labil kadang bilang sholat bukan islam pernah jumat barukali kalimau maufitnah fitnahlabil labilkadang kadangbilang bilangsholat sholatbukan bukanislam islampernah pernahjumat barukalimau kalimaufitnah maufitnahlabil fitnahlabilkadang labilkadangbilang kadangbilangsholat bilangsholatbukan sholatbukanislam bukanislampernah islampernahjumat barukalimaufitnah kalimaufitnahlabil maufitnahlabilkadang fitnahlabilkadangbilang labilkadangbilangsholat kadangbilangsholatbukan bilangsholatbukanislam sholatbukanislampernah bukanislampernahjumat barukalimaufitnahlabil kalimaufitnahlabilkadang maufitnahlabilkadangbilang fitnahlabilkadangbilangsholat labilkadangbilangsholatbukan kadangbilangsholatbukanislam bilangsholatbukanislampernah sholatbukanislampernahjumat barukalimaufitnahlabilkadang kalimaufitnahlabilkadangbilang maufitnahlabilkadangbilangsholat fitnahlabilkadangbilangsholatbukan labilkadangbilangsholatbukanislam kadangbilangsholatbukanislampernah bilangsholatbukanislampernahjumat</t>
+  </si>
+  <si>
+    <t>juga pak hendro pak luhut coba lihat dukung sandi biar mikirin khilafah terus jugapak pakhendro hendropak pakluhut luhutcoba cobalihat lihatdukung dukungsandi sandibiar biarmikirin mikirinkhilafah khilafahterus jugapakhendro pakhendropak hendropakluhut pakluhutcoba luhutcobalihat cobalihatdukung lihatdukungsandi dukungsandibiar sandibiarmikirin biarmikirinkhilafah mikirinkhilafahterus jugapakhendropak pakhendropakluhut hendropakluhutcoba pakluhutcobalihat luhutcobalihatdukung cobalihatdukungsandi lihatdukungsandibiar dukungsandibiarmikirin sandibiarmikirinkhilafah biarmikirinkhilafahterus jugapakhendropakluhut pakhendropakluhutcoba hendropakluhutcobalihat pakluhutcobalihatdukung luhutcobalihatdukungsandi cobalihatdukungsandibiar lihatdukungsandibiarmikirin dukungsandibiarmikirinkhilafah sandibiarmikirinkhilafahterus jugapakhendropakluhutcoba pakhendropakluhutcobalihat hendropakluhutcobalihatdukung pakluhutcobalihatdukungsandi luhutcobalihatdukungsandibiar cobalihatdukungsandibiarmikirin lihatdukungsandibiarmikirinkhilafah dukungsandibiarmikirinkhilafahterus</t>
+  </si>
+  <si>
+    <t>https t co gfse 1zynfq siap indonesia hadap industri 4 0 makin siap pakde tau cara httpst tco cogfse gfse1zynfq 1zynfqsiap siapindonesia indonesiahadap hadapindustri industri4 40 0makin makinsiap siappakde pakdetau taucara httpstco tcogfse cogfse1zynfq gfse1zynfqsiap 1zynfqsiapindonesia siapindonesiahadap indonesiahadapindustri hadapindustri4 industri40 40makin 0makinsiap makinsiappakde siappakdetau pakdetaucara httpstcogfse tcogfse1zynfq cogfse1zynfqsiap gfse1zynfqsiapindonesia 1zynfqsiapindonesiahadap siapindonesiahadapindustri indonesiahadapindustri4 hadapindustri40 industri40makin 40makinsiap 0makinsiappakde makinsiappakdetau siappakdetaucara httpstcogfse1zynfq tcogfse1zynfqsiap cogfse1zynfqsiapindonesia gfse1zynfqsiapindonesiahadap 1zynfqsiapindonesiahadapindustri siapindonesiahadapindustri4 indonesiahadapindustri40 hadapindustri40makin industri40makinsiap 40makinsiappakde 0makinsiappakdetau makinsiappakdetaucara httpstcogfse1zynfqsiap tcogfse1zynfqsiapindonesia cogfse1zynfqsiapindonesiahadap gfse1zynfqsiapindonesiahadapindustri 1zynfqsiapindonesiahadapindustri4 siapindonesiahadapindustri40 indonesiahadapindustri40makin hadapindustri40makinsiap industri40makinsiappakde 40makinsiappakdetau 0makinsiappakdetaucara</t>
+  </si>
+  <si>
+    <t>debat hari konfirmasi menang terima kasih mas tampil mas bowo hari ruarbiasa debathari harikonfirmasi konfirmasimenang menangterima terimakasih kasihmas mastampil tampilmas masbowo bowohari hariruarbiasa debatharikonfirmasi harikonfirmasimenang konfirmasimenangterima menangterimakasih terimakasihmas kasihmastampil mastampilmas tampilmasbowo masbowohari bowohariruarbiasa debatharikonfirmasimenang harikonfirmasimenangterima konfirmasimenangterimakasih menangterimakasihmas terimakasihmastampil kasihmastampilmas mastampilmasbowo tampilmasbowohari masbowohariruarbiasa debatharikonfirmasimenangterima harikonfirmasimenangterimakasih konfirmasimenangterimakasihmas menangterimakasihmastampil terimakasihmastampilmas kasihmastampilmasbowo mastampilmasbowohari tampilmasbowohariruarbiasa debatharikonfirmasimenangterimakasih harikonfirmasimenangterimakasihmas konfirmasimenangterimakasihmastampil menangterimakasihmastampilmas terimakasihmastampilmasbowo kasihmastampilmasbowohari mastampilmasbowohariruarbiasa</t>
+  </si>
+  <si>
+    <t>kadang bingung sih dukung sama antem substansi saling jatuh kadangbingung bingungsih sihdukung dukungsama samaantem antemsubstansi substansisaling salingjatuh kadangbingungsih bingungsihdukung sihdukungsama dukungsamaantem samaantemsubstansi antemsubstansisaling substansisalingjatuh kadangbingungsihdukung bingungsihdukungsama sihdukungsamaantem dukungsamaantemsubstansi samaantemsubstansisaling antemsubstansisalingjatuh kadangbingungsihdukungsama bingungsihdukungsamaantem sihdukungsamaantemsubstansi dukungsamaantemsubstansisaling samaantemsubstansisalingjatuh kadangbingungsihdukungsamaantem bingungsihdukungsamaantemsubstansi sihdukungsamaantemsubstansisaling dukungsamaantemsubstansisalingjatuh</t>
+  </si>
+  <si>
+    <t>itu nyata raut wajah tampak lelah pucat pasrah akhir sadar ucap salam pisah itunyata nyataraut rautwajah wajahtampak tampaklelah lelahpucat pucatpasrah pasrahakhir akhirsadar sadarucap ucapsalam salampisah itunyataraut nyatarautwajah rautwajahtampak wajahtampaklelah tampaklelahpucat lelahpucatpasrah pucatpasrahakhir pasrahakhirsadar akhirsadarucap sadarucapsalam ucapsalampisah itunyatarautwajah nyatarautwajahtampak rautwajahtampaklelah wajahtampaklelahpucat tampaklelahpucatpasrah lelahpucatpasrahakhir pucatpasrahakhirsadar pasrahakhirsadarucap akhirsadarucapsalam sadarucapsalampisah itunyatarautwajahtampak nyatarautwajahtampaklelah rautwajahtampaklelahpucat wajahtampaklelahpucatpasrah tampaklelahpucatpasrahakhir lelahpucatpasrahakhirsadar pucatpasrahakhirsadarucap pasrahakhirsadarucapsalam akhirsadarucapsalampisah itunyatarautwajahtampaklelah nyatarautwajahtampaklelahpucat rautwajahtampaklelahpucatpasrah wajahtampaklelahpucatpasrahakhir tampaklelahpucatpasrahakhirsadar lelahpucatpasrahakhirsadarucap pucatpasrahakhirsadarucapsalam pasrahakhirsadarucapsalampisah</t>
+  </si>
+  <si>
+    <t>orang dungu beri label kubu kubu dukung khilafah lain waktu membully orangdungu dunguberi berilabel labelkubu kubukubu kubudukung dukungkhilafah khilafahlain lainwaktu waktumembully orangdunguberi dunguberilabel berilabelkubu labelkubukubu kubukubudukung kubudukungkhilafah dukungkhilafahlain khilafahlainwaktu lainwaktumembully orangdunguberilabel dunguberilabelkubu berilabelkubukubu labelkubukubudukung kubukubudukungkhilafah kubudukungkhilafahlain dukungkhilafahlainwaktu khilafahlainwaktumembully orangdunguberilabelkubu dunguberilabelkubukubu berilabelkubukubudukung labelkubukubudukungkhilafah kubukubudukungkhilafahlain kubudukungkhilafahlainwaktu dukungkhilafahlainwaktumembully orangdunguberilabelkubukubu dunguberilabelkubukubudukung berilabelkubukubudukungkhilafah labelkubukubudukungkhilafahlain kubukubudukungkhilafahlainwaktu kubudukungkhilafahlainwaktumembully</t>
+  </si>
+  <si>
+    <t>pak masalah nasional bisa selesai cara emosional maaf sekadar ingat pakmasalah masalahnasional nasionalbisa bisaselesai selesaicara caraemosional emosionalmaaf maafsekadar sekadaringat pakmasalahnasional masalahnasionalbisa nasionalbisaselesai bisaselesaicara selesaicaraemosional caraemosionalmaaf emosionalmaafsekadar maafsekadaringat pakmasalahnasionalbisa masalahnasionalbisaselesai nasionalbisaselesaicara bisaselesaicaraemosional selesaicaraemosionalmaaf caraemosionalmaafsekadar emosionalmaafsekadaringat pakmasalahnasionalbisaselesai masalahnasionalbisaselesaicara nasionalbisaselesaicaraemosional bisaselesaicaraemosionalmaaf selesaicaraemosionalmaafsekadar caraemosionalmaafsekadaringat pakmasalahnasionalbisaselesaicara masalahnasionalbisaselesaicaraemosional nasionalbisaselesaicaraemosionalmaaf bisaselesaicaraemosionalmaafsekadar selesaicaraemosionalmaafsekadaringat</t>
+  </si>
+  <si>
+    <t>bagai tni wakaf jiwa raga bela negara walo mati medan laga bagaitni tniwakaf wakafjiwa jiwaraga ragabela belanegara negarawalo walomati matimedan medanlaga bagaitniwakaf tniwakafjiwa wakafjiwaraga jiwaragabela ragabelanegara belanegarawalo negarawalomati walomatimedan matimedanlaga bagaitniwakafjiwa tniwakafjiwaraga wakafjiwaragabela jiwaragabelanegara ragabelanegarawalo belanegarawalomati negarawalomatimedan walomatimedanlaga bagaitniwakafjiwaraga tniwakafjiwaragabela wakafjiwaragabelanegara jiwaragabelanegarawalo ragabelanegarawalomati belanegarawalomatimedan negarawalomatimedanlaga bagaitniwakafjiwaragabela tniwakafjiwaragabelanegara wakafjiwaragabelanegarawalo jiwaragabelanegarawalomati ragabelanegarawalomatimedan belanegarawalomatimedanlaga</t>
+  </si>
+  <si>
+    <t>pakde beri fasilitas lalu bangun gedung inkubasi para laku usaha rintis startup pakdeberi berifasilitas fasilitaslalu lalubangun bangungedung gedunginkubasi inkubasipara paralaku lakuusaha usaharintis rintisstartup pakdeberifasilitas berifasilitaslalu fasilitaslalubangun lalubangungedung bangungedunginkubasi gedunginkubasipara inkubasiparalaku paralakuusaha lakuusaharintis usaharintisstartup pakdeberifasilitaslalu berifasilitaslalubangun fasilitaslalubangungedung lalubangungedunginkubasi bangungedunginkubasipara gedunginkubasiparalaku inkubasiparalakuusaha paralakuusaharintis lakuusaharintisstartup pakdeberifasilitaslalubangun berifasilitaslalubangungedung fasilitaslalubangungedunginkubasi lalubangungedunginkubasipara bangungedunginkubasiparalaku gedunginkubasiparalakuusaha inkubasiparalakuusaharintis paralakuusaharintisstartup pakdeberifasilitaslalubangungedung berifasilitaslalubangungedunginkubasi fasilitaslalubangungedunginkubasipara lalubangungedunginkubasiparalaku bangungedunginkubasiparalakuusaha gedunginkubasiparalakuusaharintis inkubasiparalakuusaharintisstartup</t>
+  </si>
+  <si>
+    <t>malam hebat miss makin yakin indonesia menang prabowobentengnkri malamhebat hebatmiss missmakin makinyakin yakinindonesia indonesiamenang menangprabowobentengnkri malamhebatmiss hebatmissmakin missmakinyakin makinyakinindonesia yakinindonesiamenang indonesiamenangprabowobentengnkri malamhebatmissmakin hebatmissmakinyakin missmakinyakinindonesia makinyakinindonesiamenang yakinindonesiamenangprabowobentengnkri malamhebatmissmakinyakin hebatmissmakinyakinindonesia missmakinyakinindonesiamenang makinyakinindonesiamenangprabowobentengnkri malamhebatmissmakinyakinindonesia hebatmissmakinyakinindonesiamenang missmakinyakinindonesiamenangprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>cetar bahana porak poranda tahana buat suka gaya lho jenderal prabowobentengnkri cetarbahana bahanaporak porakporanda porandatahana tahanabuat buatsuka sukagaya gayalho lhojenderal jenderalprabowobentengnkri cetarbahanaporak bahanaporakporanda porakporandatahana porandatahanabuat tahanabuatsuka buatsukagaya sukagayalho gayalhojenderal lhojenderalprabowobentengnkri cetarbahanaporakporanda bahanaporakporandatahana porakporandatahanabuat porandatahanabuatsuka tahanabuatsukagaya buatsukagayalho sukagayalhojenderal gayalhojenderalprabowobentengnkri cetarbahanaporakporandatahana bahanaporakporandatahanabuat porakporandatahanabuatsuka porandatahanabuatsukagaya tahanabuatsukagayalho buatsukagayalhojenderal sukagayalhojenderalprabowobentengnkri cetarbahanaporakporandatahanabuat bahanaporakporandatahanabuatsuka porakporandatahanabuatsukagaya porandatahanabuatsukagayalho tahanabuatsukagayalhojenderal buatsukagayalhojenderalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mbak jaga stamina istirahat pas mbakjaga jagastamina staminaistirahat istirahatpas mbakjagastamina jagastaminaistirahat staminaistirahatpas mbakjagastaminaistirahat jagastaminaistirahatpas mbakjagastaminaistirahatpas</t>
+  </si>
+  <si>
+    <t>terima kasih bapak atas tampil luar biasa malam saya keluarga histeria doa bapak menang terimakasih kasihbapak bapakatas atastampil tampilluar luarbiasa biasamalam malamsaya sayakeluarga keluargahisteria histeriadoa doabapak bapakmenang terimakasihbapak kasihbapakatas bapakatastampil atastampilluar tampilluarbiasa luarbiasamalam biasamalamsaya malamsayakeluarga sayakeluargahisteria keluargahisteriadoa histeriadoabapak doabapakmenang terimakasihbapakatas kasihbapakatastampil bapakatastampilluar atastampilluarbiasa tampilluarbiasamalam luarbiasamalamsaya biasamalamsayakeluarga malamsayakeluargahisteria sayakeluargahisteriadoa keluargahisteriadoabapak histeriadoabapakmenang terimakasihbapakatastampil kasihbapakatastampilluar bapakatastampilluarbiasa atastampilluarbiasamalam tampilluarbiasamalamsaya luarbiasamalamsayakeluarga biasamalamsayakeluargahisteria malamsayakeluargahisteriadoa sayakeluargahisteriadoabapak keluargahisteriadoabapakmenang terimakasihbapakatastampilluar kasihbapakatastampilluarbiasa bapakatastampilluarbiasamalam atastampilluarbiasamalamsaya tampilluarbiasamalamsayakeluarga luarbiasamalamsayakeluargahisteria biasamalamsayakeluargahisteriadoa malamsayakeluargahisteriadoabapak sayakeluargahisteriadoabapakmenang</t>
+  </si>
+  <si>
+    <t>jadi benar sepakat semua usul program pak tuju silah lanjut periode jadibenar benarsepakat sepakatsemua semuausul usulprogram programpak paktuju tujusilah silahlanjut lanjutperiode jadibenarsepakat benarsepakatsemua sepakatsemuausul semuausulprogram usulprogrampak programpaktuju paktujusilah tujusilahlanjut silahlanjutperiode jadibenarsepakatsemua benarsepakatsemuausul sepakatsemuausulprogram semuausulprogrampak usulprogrampaktuju programpaktujusilah paktujusilahlanjut tujusilahlanjutperiode jadibenarsepakatsemuausul benarsepakatsemuausulprogram sepakatsemuausulprogrampak semuausulprogrampaktuju usulprogrampaktujusilah programpaktujusilahlanjut paktujusilahlanjutperiode jadibenarsepakatsemuausulprogram benarsepakatsemuausulprogrampak sepakatsemuausulprogrampaktuju semuausulprogrampaktujusilah usulprogrampaktujusilahlanjut programpaktujusilahlanjutperiode</t>
+  </si>
+  <si>
+    <t>sekarang begini untuk uji nyali berani nyata libas juang hizbut tahrir sekarangbegini beginiuntuk untukuji ujinyali nyaliberani beraninyata nyatalibas libasjuang juanghizbut hizbuttahrir sekarangbeginiuntuk beginiuntukuji untukujinyali ujinyaliberani nyaliberaninyata beraninyatalibas nyatalibasjuang libasjuanghizbut juanghizbuttahrir sekarangbeginiuntukuji beginiuntukujinyali untukujinyaliberani ujinyaliberaninyata nyaliberaninyatalibas beraninyatalibasjuang nyatalibasjuanghizbut libasjuanghizbuttahrir sekarangbeginiuntukujinyali beginiuntukujinyaliberani untukujinyaliberaninyata ujinyaliberaninyatalibas nyaliberaninyatalibasjuang beraninyatalibasjuanghizbut nyatalibasjuanghizbuttahrir sekarangbeginiuntukujinyaliberani beginiuntukujinyaliberaninyata untukujinyaliberaninyatalibas ujinyaliberaninyatalibasjuang nyaliberaninyatalibasjuanghizbut beraninyatalibasjuanghizbuttahrir</t>
+  </si>
+  <si>
+    <t>eh tunggu jual beli jabat angkat pak menteri sumber internal perintah sekarang ehtunggu tunggujual jualbeli belijabat jabatangkat angkatpak pakmenteri menterisumber sumberinternal internalperintah perintahsekarang ehtunggujual tunggujualbeli jualbelijabat belijabatangkat jabatangkatpak angkatpakmenteri pakmenterisumber menterisumberinternal sumberinternalperintah internalperintahsekarang ehtunggujualbeli tunggujualbelijabat jualbelijabatangkat belijabatangkatpak jabatangkatpakmenteri angkatpakmenterisumber pakmenterisumberinternal menterisumberinternalperintah sumberinternalperintahsekarang ehtunggujualbelijabat tunggujualbelijabatangkat jualbelijabatangkatpak belijabatangkatpakmenteri jabatangkatpakmenterisumber angkatpakmenterisumberinternal pakmenterisumberinternalperintah menterisumberinternalperintahsekarang ehtunggujualbelijabatangkat tunggujualbelijabatangkatpak jualbelijabatangkatpakmenteri belijabatangkatpakmenterisumber jabatangkatpakmenterisumberinternal angkatpakmenterisumberinternalperintah pakmenterisumberinternalperintahsekarang</t>
+  </si>
+  <si>
+    <t>jokowi muka merah saya lawan - jokowidiambangkekalahan jokowidiambangkekalahan jokowimuka mukamerah merahsaya sayalawan lawan- -jokowidiambangkekalahan jokowidiambangkekalahanjokowidiambangkekalahan jokowimukamerah mukamerahsaya merahsayalawan sayalawan- lawan-jokowidiambangkekalahan -jokowidiambangkekalahanjokowidiambangkekalahan jokowimukamerahsaya mukamerahsayalawan merahsayalawan- sayalawan-jokowidiambangkekalahan lawan-jokowidiambangkekalahanjokowidiambangkekalahan jokowimukamerahsayalawan mukamerahsayalawan- merahsayalawan-jokowidiambangkekalahan sayalawan-jokowidiambangkekalahanjokowidiambangkekalahan jokowimukamerahsayalawan- mukamerahsayalawan-jokowidiambangkekalahan merahsayalawan-jokowidiambangkekalahanjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>perintah yng sigap layan rakyat bagus pak pemerintahandilan https t co nugbqspxbc perintahyng yngsigap sigaplayan layanrakyat rakyatbagus baguspak pakpemerintahandilan pemerintahandilanhttps httpst tco conugbqspxbc perintahyngsigap yngsigaplayan sigaplayanrakyat layanrakyatbagus rakyatbaguspak baguspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tconugbqspxbc perintahyngsigaplayan yngsigaplayanrakyat sigaplayanrakyatbagus layanrakyatbaguspak rakyatbaguspakpemerintahandilan baguspakpemerintahandilanhttps pakpemerintahandilanhttpst pemerintahandilanhttpstco httpstconugbqspxbc perintahyngsigaplayanrakyat yngsigaplayanrakyatbagus sigaplayanrakyatbaguspak layanrakyatbaguspakpemerintahandilan rakyatbaguspakpemerintahandilanhttps baguspakpemerintahandilanhttpst pakpemerintahandilanhttpstco pemerintahandilanhttpstconugbqspxbc perintahyngsigaplayanrakyatbagus yngsigaplayanrakyatbaguspak sigaplayanrakyatbaguspakpemerintahandilan layanrakyatbaguspakpemerintahandilanhttps rakyatbaguspakpemerintahandilanhttpst baguspakpemerintahandilanhttpstco pakpemerintahandilanhttpstconugbqspxbc</t>
+  </si>
+  <si>
+    <t>colokin nih jenderal pecat militer indonesia lebih kuat israel australia - the global firepower colokinnih nihjenderal jenderalpecat pecatmiliter militerindonesia indonesialebih lebihkuat kuatisrael israelaustralia australia- -the theglobal globalfirepower colokinnihjenderal nihjenderalpecat jenderalpecatmiliter pecatmiliterindonesia militerindonesialebih indonesialebihkuat lebihkuatisrael kuatisraelaustralia israelaustralia- australia-the -theglobal theglobalfirepower colokinnihjenderalpecat nihjenderalpecatmiliter jenderalpecatmiliterindonesia pecatmiliterindonesialebih militerindonesialebihkuat indonesialebihkuatisrael lebihkuatisraelaustralia kuatisraelaustralia- israelaustralia-the australia-theglobal -theglobalfirepower colokinnihjenderalpecatmiliter nihjenderalpecatmiliterindonesia jenderalpecatmiliterindonesialebih pecatmiliterindonesialebihkuat militerindonesialebihkuatisrael indonesialebihkuatisraelaustralia lebihkuatisraelaustralia- kuatisraelaustralia-the israelaustralia-theglobal australia-theglobalfirepower colokinnihjenderalpecatmiliterindonesia nihjenderalpecatmiliterindonesialebih jenderalpecatmiliterindonesialebihkuat pecatmiliterindonesialebihkuatisrael militerindonesialebihkuatisraelaustralia indonesialebihkuatisraelaustralia- lebihkuatisraelaustralia-the kuatisraelaustralia-theglobal israelaustralia-theglobalfirepower</t>
+  </si>
+  <si>
+    <t>istimewa sangat istimewa closing statement pak betul tunjuk beliau memang orang negarawan istimewasangat sangatistimewa istimewaclosing closingstatement statementpak pakbetul betultunjuk tunjukbeliau beliaumemang memangorang orangnegarawan istimewasangatistimewa sangatistimewaclosing istimewaclosingstatement closingstatementpak statementpakbetul pakbetultunjuk betultunjukbeliau tunjukbeliaumemang beliaumemangorang memangorangnegarawan istimewasangatistimewaclosing sangatistimewaclosingstatement istimewaclosingstatementpak closingstatementpakbetul statementpakbetultunjuk pakbetultunjukbeliau betultunjukbeliaumemang tunjukbeliaumemangorang beliaumemangorangnegarawan istimewasangatistimewaclosingstatement sangatistimewaclosingstatementpak istimewaclosingstatementpakbetul closingstatementpakbetultunjuk statementpakbetultunjukbeliau pakbetultunjukbeliaumemang betultunjukbeliaumemangorang tunjukbeliaumemangorangnegarawan istimewasangatistimewaclosingstatementpak sangatistimewaclosingstatementpakbetul istimewaclosingstatementpakbetultunjuk closingstatementpakbetultunjukbeliau statementpakbetultunjukbeliaumemang pakbetultunjukbeliaumemangorang betultunjukbeliaumemangorangnegarawan</t>
+  </si>
+  <si>
+    <t>tau betul ibu dukung kang dukung bukan ganti pancasila taubetul betulibu ibudukung dukungkang kangdukung dukungbukan bukanganti gantipancasila taubetulibu betulibudukung ibudukungkang dukungkangdukung kangdukungbukan dukungbukanganti bukangantipancasila taubetulibudukung betulibudukungkang ibudukungkangdukung dukungkangdukungbukan kangdukungbukanganti dukungbukangantipancasila taubetulibudukungkang betulibudukungkangdukung ibudukungkangdukungbukan dukungkangdukungbukanganti kangdukungbukangantipancasila taubetulibudukungkangdukung betulibudukungkangdukungbukan ibudukungkangdukungbukanganti dukungkangdukungbukangantipancasila</t>
+  </si>
+  <si>
+    <t>milik gagas cerdas beliau rela mati indonesia benar prabowobentengnkri milikgagas gagascerdas cerdasbeliau beliaurela relamati matiindonesia indonesiabenar benarprabowobentengnkri milikgagascerdas gagascerdasbeliau cerdasbeliaurela beliaurelamati relamatiindonesia matiindonesiabenar indonesiabenarprabowobentengnkri milikgagascerdasbeliau gagascerdasbeliaurela cerdasbeliaurelamati beliaurelamatiindonesia relamatiindonesiabenar matiindonesiabenarprabowobentengnkri milikgagascerdasbeliaurela gagascerdasbeliaurelamati cerdasbeliaurelamatiindonesia beliaurelamatiindonesiabenar relamatiindonesiabenarprabowobentengnkri milikgagascerdasbeliaurelamati gagascerdasbeliaurelamatiindonesia cerdasbeliaurelamatiindonesiabenar beliaurelamatiindonesiabenarprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>era jaman sekarang teknologi sangat penting pak bangga unicorn indonesia erajaman jamansekarang sekarangteknologi teknologisangat sangatpenting pentingpak pakbangga banggaunicorn unicornindonesia erajamansekarang jamansekarangteknologi sekarangteknologisangat teknologisangatpenting sangatpentingpak pentingpakbangga pakbanggaunicorn banggaunicornindonesia erajamansekarangteknologi jamansekarangteknologisangat sekarangteknologisangatpenting teknologisangatpentingpak sangatpentingpakbangga pentingpakbanggaunicorn pakbanggaunicornindonesia erajamansekarangteknologisangat jamansekarangteknologisangatpenting sekarangteknologisangatpentingpak teknologisangatpentingpakbangga sangatpentingpakbanggaunicorn pentingpakbanggaunicornindonesia erajamansekarangteknologisangatpenting jamansekarangteknologisangatpentingpak sekarangteknologisangatpentingpakbangga teknologisangatpentingpakbanggaunicorn sangatpentingpakbanggaunicornindonesia</t>
+  </si>
+  <si>
+    <t>pas bilang pernah militer pak cuma senyum pecat koq bangga sih wowo tuh punya malu pasbilang bilangpernah pernahmiliter militerpak pakcuma cumasenyum senyumpecat pecatkoq koqbangga banggasih sihwowo wowotuh tuhpunya punyamalu pasbilangpernah bilangpernahmiliter pernahmiliterpak militerpakcuma pakcumasenyum cumasenyumpecat senyumpecatkoq pecatkoqbangga koqbanggasih banggasihwowo sihwowotuh wowotuhpunya tuhpunyamalu pasbilangpernahmiliter bilangpernahmiliterpak pernahmiliterpakcuma militerpakcumasenyum pakcumasenyumpecat cumasenyumpecatkoq senyumpecatkoqbangga pecatkoqbanggasih koqbanggasihwowo banggasihwowotuh sihwowotuhpunya wowotuhpunyamalu pasbilangpernahmiliterpak bilangpernahmiliterpakcuma pernahmiliterpakcumasenyum militerpakcumasenyumpecat pakcumasenyumpecatkoq cumasenyumpecatkoqbangga senyumpecatkoqbanggasih pecatkoqbanggasihwowo koqbanggasihwowotuh banggasihwowotuhpunya sihwowotuhpunyamalu pasbilangpernahmiliterpakcuma bilangpernahmiliterpakcumasenyum pernahmiliterpakcumasenyumpecat militerpakcumasenyumpecatkoq pakcumasenyumpecatkoqbangga cumasenyumpecatkoqbanggasih senyumpecatkoqbanggasihwowo pecatkoqbanggasihwowotuh koqbanggasihwowotuhpunya banggasihwowotuhpunyamalu</t>
+  </si>
+  <si>
+    <t>subianto figur hebat panglima tinggi ri seluruh komponen bangsa dukung kamu subiantofigur figurhebat hebatpanglima panglimatinggi tinggiri riseluruh seluruhkomponen komponenbangsa bangsadukung dukungkamu subiantofigurhebat figurhebatpanglima hebatpanglimatinggi panglimatinggiri tinggiriseluruh riseluruhkomponen seluruhkomponenbangsa komponenbangsadukung bangsadukungkamu subiantofigurhebatpanglima figurhebatpanglimatinggi hebatpanglimatinggiri panglimatinggiriseluruh tinggiriseluruhkomponen riseluruhkomponenbangsa seluruhkomponenbangsadukung komponenbangsadukungkamu subiantofigurhebatpanglimatinggi figurhebatpanglimatinggiri hebatpanglimatinggiriseluruh panglimatinggiriseluruhkomponen tinggiriseluruhkomponenbangsa riseluruhkomponenbangsadukung seluruhkomponenbangsadukungkamu subiantofigurhebatpanglimatinggiri figurhebatpanglimatinggiriseluruh hebatpanglimatinggiriseluruhkomponen panglimatinggiriseluruhkomponenbangsa tinggiriseluruhkomponenbangsadukung riseluruhkomponenbangsadukungkamu</t>
+  </si>
+  <si>
+    <t>apik kami pesan kami ke akar rumput semua ni sisih kan uang belanja ubah apikkami kamipesan pesankami kamike keakar akarrumput rumputsemua semuani nisisih sisihkan kanuang uangbelanja belanjaubah apikkamipesan kamipesankami pesankamike kamikeakar keakarrumput akarrumputsemua rumputsemuani semuanisisih nisisihkan sisihkanuang kanuangbelanja uangbelanjaubah apikkamipesankami kamipesankamike pesankamikeakar kamikeakarrumput keakarrumputsemua akarrumputsemuani rumputsemuanisisih semuanisisihkan nisisihkanuang sisihkanuangbelanja kanuangbelanjaubah apikkamipesankamike kamipesankamikeakar pesankamikeakarrumput kamikeakarrumputsemua keakarrumputsemuani akarrumputsemuanisisih rumputsemuanisisihkan semuanisisihkanuang nisisihkanuangbelanja sisihkanuangbelanjaubah apikkamipesankamikeakar kamipesankamikeakarrumput pesankamikeakarrumputsemua kamikeakarrumputsemuani keakarrumputsemuanisisih akarrumputsemuanisisihkan rumputsemuanisisihkanuang semuanisisihkanuangbelanja nisisihkanuangbelanjaubah</t>
+  </si>
+  <si>
+    <t>malam pak luar biasa menangjokowilagi malampak pakluar luarbiasa biasamenangjokowilagi malampakluar pakluarbiasa luarbiasamenangjokowilagi malampakluarbiasa pakluarbiasamenangjokowilagi malampakluarbiasamenangjokowilagi</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co gkgy 6lrpko tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco cogkgy gkgy6lrpko tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbagus rakyatbagusbandela bagusbandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcogkgy cogkgy6lrpko tadbirnanpantaslayan nanpantaslayanrakyat pantaslayanrakyatbagus layanrakyatbagusbandela rakyatbagusbandelapemerintahandilan bagusbandelapemerintahandilanhttps bandelapemerintahandilanhttpst pemerintahandilanhttpstco httpstcogkgy tcogkgy6lrpko tadbirnanpantaslayanrakyat nanpantaslayanrakyatbagus pantaslayanrakyatbagusbandela layanrakyatbagusbandelapemerintahandilan rakyatbagusbandelapemerintahandilanhttps bagusbandelapemerintahandilanhttpst bandelapemerintahandilanhttpstco pemerintahandilanhttpstcogkgy httpstcogkgy6lrpko tadbirnanpantaslayanrakyatbagus nanpantaslayanrakyatbagusbandela pantaslayanrakyatbagusbandelapemerintahandilan layanrakyatbagusbandelapemerintahandilanhttps rakyatbagusbandelapemerintahandilanhttpst bagusbandelapemerintahandilanhttpstco bandelapemerintahandilanhttpstcogkgy pemerintahandilanhttpstcogkgy6lrpko</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 pancasila ideologi final pancasila ideologi final debatpilpres2019 2019pancasila pancasilaideologi ideologifinal finalpancasila pancasilaideologi ideologifinal debatpilpres2019pancasila 2019pancasilaideologi pancasilaideologifinal ideologifinalpancasila finalpancasilaideologi pancasilaideologifinal debatpilpres2019pancasilaideologi 2019pancasilaideologifinal pancasilaideologifinalpancasila ideologifinalpancasilaideologi finalpancasilaideologifinal debatpilpres2019pancasilaideologifinal 2019pancasilaideologifinalpancasila pancasilaideologifinalpancasilaideologi ideologifinalpancasilaideologifinal debatpilpres2019pancasilaideologifinalpancasila 2019pancasilaideologifinalpancasilaideologi pancasilaideologifinalpancasilaideologifinal</t>
+  </si>
+  <si>
+    <t>apa pake teknologi lama ajar ilmu perang ribu tahun hahaha gin kali kalau ikut pilpres mulu apapake paketeknologi teknologilama lamaajar ajarilmu ilmuperang perangribu ributahun tahunhahaha hahahagin ginkali kalikalau kalauikut ikutpilpres pilpresmulu apapaketeknologi paketeknologilama teknologilamaajar lamaajarilmu ajarilmuperang ilmuperangribu perangributahun ributahunhahaha tahunhahahagin hahahaginkali ginkalikalau kalikalauikut kalauikutpilpres ikutpilpresmulu apapaketeknologilama paketeknologilamaajar teknologilamaajarilmu lamaajarilmuperang ajarilmuperangribu ilmuperangributahun perangributahunhahaha ributahunhahahagin tahunhahahaginkali hahahaginkalikalau ginkalikalauikut kalikalauikutpilpres kalauikutpilpresmulu apapaketeknologilamaajar paketeknologilamaajarilmu teknologilamaajarilmuperang lamaajarilmuperangribu ajarilmuperangributahun ilmuperangributahunhahaha perangributahunhahahagin ributahunhahahaginkali tahunhahahaginkalikalau hahahaginkalikalauikut ginkalikalauikutpilpres kalikalauikutpilpresmulu apapaketeknologilamaajarilmu paketeknologilamaajarilmuperang teknologilamaajarilmuperangribu lamaajarilmuperangributahun ajarilmuperangributahunhahaha ilmuperangributahunhahahagin perangributahunhahahaginkali ributahunhahahaginkalikalau tahunhahahaginkalikalauikut hahahaginkalikalauikutpilpres ginkalikalauikutpilpresmulu</t>
+  </si>
+  <si>
+    <t>jangan biar pak juang sendiri ayo satu suara satu pilih april coblos baju putih janganbiar biarpak pakjuang juangsendiri sendiriayo ayosatu satusuara suarasatu satupilih pilihapril aprilcoblos coblosbaju bajuputih janganbiarpak biarpakjuang pakjuangsendiri juangsendiriayo sendiriayosatu ayosatusuara satusuarasatu suarasatupilih satupilihapril pilihaprilcoblos aprilcoblosbaju coblosbajuputih janganbiarpakjuang biarpakjuangsendiri pakjuangsendiriayo juangsendiriayosatu sendiriayosatusuara ayosatusuarasatu satusuarasatupilih suarasatupilihapril satupilihaprilcoblos pilihaprilcoblosbaju aprilcoblosbajuputih janganbiarpakjuangsendiri biarpakjuangsendiriayo pakjuangsendiriayosatu juangsendiriayosatusuara sendiriayosatusuarasatu ayosatusuarasatupilih satusuarasatupilihapril suarasatupilihaprilcoblos satupilihaprilcoblosbaju pilihaprilcoblosbajuputih janganbiarpakjuangsendiriayo biarpakjuangsendiriayosatu pakjuangsendiriayosatusuara juangsendiriayosatusuarasatu sendiriayosatusuarasatupilih ayosatusuarasatupilihapril satusuarasatupilihaprilcoblos suarasatupilihaprilcoblosbaju satupilihaprilcoblosbajuputih</t>
+  </si>
+  <si>
+    <t>sedih khawatir diri prabowobentengnkri prabowobentengnkri https t co xoemzw 201d sedihkhawatir khawatirdiri diriprabowobentengnkri prabowobentengnkriprabowobentengnkri prabowobentengnkrihttps httpst tco coxoemzw xoemzw201d sedihkhawatirdiri khawatirdiriprabowobentengnkri diriprabowobentengnkriprabowobentengnkri prabowobentengnkriprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoxoemzw coxoemzw201d sedihkhawatirdiriprabowobentengnkri khawatirdiriprabowobentengnkriprabowobentengnkri diriprabowobentengnkriprabowobentengnkrihttps prabowobentengnkriprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcoxoemzw tcoxoemzw201d sedihkhawatirdiriprabowobentengnkriprabowobentengnkri khawatirdiriprabowobentengnkriprabowobentengnkrihttps diriprabowobentengnkriprabowobentengnkrihttpst prabowobentengnkriprabowobentengnkrihttpstco prabowobentengnkrihttpstcoxoemzw httpstcoxoemzw201d sedihkhawatirdiriprabowobentengnkriprabowobentengnkrihttps khawatirdiriprabowobentengnkriprabowobentengnkrihttpst diriprabowobentengnkriprabowobentengnkrihttpstco prabowobentengnkriprabowobentengnkrihttpstcoxoemzw prabowobentengnkrihttpstcoxoemzw201d</t>
+  </si>
+  <si>
+    <t>tampil paling hebat lama prabowomenangdebat prabowobentengnkri tampilpaling palinghebat hebatlama lamaprabowomenangdebat prabowomenangdebatprabowobentengnkri tampilpalinghebat palinghebatlama hebatlamaprabowomenangdebat lamaprabowomenangdebatprabowobentengnkri tampilpalinghebatlama palinghebatlamaprabowomenangdebat hebatlamaprabowomenangdebatprabowobentengnkri tampilpalinghebatlamaprabowomenangdebat palinghebatlamaprabowomenangdebatprabowobentengnkri tampilpalinghebatlamaprabowomenangdebatprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>apresiasi saudara di papua pakde jadi percuma kalian tebar bohong papua derita apresiasisaudara saudaradi dipapua papuapakde pakdejadi jadipercuma percumakalian kaliantebar tebarbohong bohongpapua papuaderita apresiasisaudaradi saudaradipapua dipapuapakde papuapakdejadi pakdejadipercuma jadipercumakalian percumakaliantebar kaliantebarbohong tebarbohongpapua bohongpapuaderita apresiasisaudaradipapua saudaradipapuapakde dipapuapakdejadi papuapakdejadipercuma pakdejadipercumakalian jadipercumakaliantebar percumakaliantebarbohong kaliantebarbohongpapua tebarbohongpapuaderita apresiasisaudaradipapuapakde saudaradipapuapakdejadi dipapuapakdejadipercuma papuapakdejadipercumakalian pakdejadipercumakaliantebar jadipercumakaliantebarbohong percumakaliantebarbohongpapua kaliantebarbohongpapuaderita apresiasisaudaradipapuapakdejadi saudaradipapuapakdejadipercuma dipapuapakdejadipercumakalian papuapakdejadipercumakaliantebar pakdejadipercumakaliantebarbohong jadipercumakaliantebarbohongpapua percumakaliantebarbohongpapuaderita</t>
+  </si>
+  <si>
+    <t>pak yusril tegas pbb dukung insyallah allah siap kawal pancasila tidak ganti pakyusril yusriltegas tegaspbb pbbdukung dukunginsyallah insyallahallah allahsiap siapkawal kawalpancasila pancasilatidak tidakganti pakyusriltegas yusriltegaspbb tegaspbbdukung pbbdukunginsyallah dukunginsyallahallah insyallahallahsiap allahsiapkawal siapkawalpancasila kawalpancasilatidak pancasilatidakganti pakyusriltegaspbb yusriltegaspbbdukung tegaspbbdukunginsyallah pbbdukunginsyallahallah dukunginsyallahallahsiap insyallahallahsiapkawal allahsiapkawalpancasila siapkawalpancasilatidak kawalpancasilatidakganti pakyusriltegaspbbdukung yusriltegaspbbdukunginsyallah tegaspbbdukunginsyallahallah pbbdukunginsyallahallahsiap dukunginsyallahallahsiapkawal insyallahallahsiapkawalpancasila allahsiapkawalpancasilatidak siapkawalpancasilatidakganti pakyusriltegaspbbdukunginsyallah yusriltegaspbbdukunginsyallahallah tegaspbbdukunginsyallahallahsiap pbbdukunginsyallahallahsiapkawal dukunginsyallahallahsiapkawalpancasila insyallahallahsiapkawalpancasilatidak allahsiapkawalpancasilatidakganti</t>
+  </si>
+  <si>
+    <t>ehem kecewa nyenyak tidur insyallah yakin presiden aamiin prabowobentengnkri ehemkecewa kecewanyenyak nyenyaktidur tidurinsyallah insyallahyakin yakinpresiden presidenaamiin aamiinprabowobentengnkri ehemkecewanyenyak kecewanyenyaktidur nyenyaktidurinsyallah tidurinsyallahyakin insyallahyakinpresiden yakinpresidenaamiin presidenaamiinprabowobentengnkri ehemkecewanyenyaktidur kecewanyenyaktidurinsyallah nyenyaktidurinsyallahyakin tidurinsyallahyakinpresiden insyallahyakinpresidenaamiin yakinpresidenaamiinprabowobentengnkri ehemkecewanyenyaktidurinsyallah kecewanyenyaktidurinsyallahyakin nyenyaktidurinsyallahyakinpresiden tidurinsyallahyakinpresidenaamiin insyallahyakinpresidenaamiinprabowobentengnkri ehemkecewanyenyaktidurinsyallahyakin kecewanyenyaktidurinsyallahyakinpresiden nyenyaktidurinsyallahyakinpresidenaamiin tidurinsyallahyakinpresidenaamiinprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>kawan semua kita dukung pemerintahandilan lanjut era untuk pimpin indonesia makin baik kawansemua semuakita kitadukung dukungpemerintahandilan pemerintahandilanlanjut lanjutera erauntuk untukpimpin pimpinindonesia indonesiamakin makinbaik kawansemuakita semuakitadukung kitadukungpemerintahandilan dukungpemerintahandilanlanjut pemerintahandilanlanjutera lanjuterauntuk erauntukpimpin untukpimpinindonesia pimpinindonesiamakin indonesiamakinbaik kawansemuakitadukung semuakitadukungpemerintahandilan kitadukungpemerintahandilanlanjut dukungpemerintahandilanlanjutera pemerintahandilanlanjuterauntuk lanjuterauntukpimpin erauntukpimpinindonesia untukpimpinindonesiamakin pimpinindonesiamakinbaik kawansemuakitadukungpemerintahandilan semuakitadukungpemerintahandilanlanjut kitadukungpemerintahandilanlanjutera dukungpemerintahandilanlanjuterauntuk pemerintahandilanlanjuterauntukpimpin lanjuterauntukpimpinindonesia erauntukpimpinindonesiamakin untukpimpinindonesiamakinbaik kawansemuakitadukungpemerintahandilanlanjut semuakitadukungpemerintahandilanlanjutera kitadukungpemerintahandilanlanjuterauntuk dukungpemerintahandilanlanjuterauntukpimpin pemerintahandilanlanjuterauntukpimpinindonesia lanjuterauntukpimpinindonesiamakin erauntukpimpinindonesiamakinbaik</t>
+  </si>
+  <si>
+    <t>rezim halal segala cara untuk kuasa tak duli meski bangsa hancur porak poranda rezimhalal halalsegala segalacara carauntuk untukkuasa kuasatak takduli dulimeski meskibangsa bangsahancur hancurporak porakporanda rezimhalalsegala halalsegalacara segalacarauntuk carauntukkuasa untukkuasatak kuasatakduli takdulimeski dulimeskibangsa meskibangsahancur bangsahancurporak hancurporakporanda rezimhalalsegalacara halalsegalacarauntuk segalacarauntukkuasa carauntukkuasatak untukkuasatakduli kuasatakdulimeski takdulimeskibangsa dulimeskibangsahancur meskibangsahancurporak bangsahancurporakporanda rezimhalalsegalacarauntuk halalsegalacarauntukkuasa segalacarauntukkuasatak carauntukkuasatakduli untukkuasatakdulimeski kuasatakdulimeskibangsa takdulimeskibangsahancur dulimeskibangsahancurporak meskibangsahancurporakporanda rezimhalalsegalacarauntukkuasa halalsegalacarauntukkuasatak segalacarauntukkuasatakduli carauntukkuasatakdulimeski untukkuasatakdulimeskibangsa kuasatakdulimeskibangsahancur takdulimeskibangsahancurporak dulimeskibangsahancurporakporanda</t>
+  </si>
+  <si>
+    <t>satu yakin tni satu pesimis jadi pemerintahandilan lanjut indonesia maju satuyakin yakintni tnisatu satupesimis pesimisjadi jadipemerintahandilan pemerintahandilanlanjut lanjutindonesia indonesiamaju satuyakintni yakintnisatu tnisatupesimis satupesimisjadi pesimisjadipemerintahandilan jadipemerintahandilanlanjut pemerintahandilanlanjutindonesia lanjutindonesiamaju satuyakintnisatu yakintnisatupesimis tnisatupesimisjadi satupesimisjadipemerintahandilan pesimisjadipemerintahandilanlanjut jadipemerintahandilanlanjutindonesia pemerintahandilanlanjutindonesiamaju satuyakintnisatupesimis yakintnisatupesimisjadi tnisatupesimisjadipemerintahandilan satupesimisjadipemerintahandilanlanjut pesimisjadipemerintahandilanlanjutindonesia jadipemerintahandilanlanjutindonesiamaju satuyakintnisatupesimisjadi yakintnisatupesimisjadipemerintahandilan tnisatupesimisjadipemerintahandilanlanjut satupesimisjadipemerintahandilanlanjutindonesia pesimisjadipemerintahandilanlanjutindonesiamaju</t>
+  </si>
+  <si>
+    <t>https t co m1u7nlbagq insyallah pak bang menang tanggal april amin httpst tco com1u7nlbagq m1u7nlbagqinsyallah insyallahpak pakbang bangmenang menangtanggal tanggalapril aprilamin httpstco tcom1u7nlbagq com1u7nlbagqinsyallah m1u7nlbagqinsyallahpak insyallahpakbang pakbangmenang bangmenangtanggal menangtanggalapril tanggalaprilamin httpstcom1u7nlbagq tcom1u7nlbagqinsyallah com1u7nlbagqinsyallahpak m1u7nlbagqinsyallahpakbang insyallahpakbangmenang pakbangmenangtanggal bangmenangtanggalapril menangtanggalaprilamin httpstcom1u7nlbagqinsyallah tcom1u7nlbagqinsyallahpak com1u7nlbagqinsyallahpakbang m1u7nlbagqinsyallahpakbangmenang insyallahpakbangmenangtanggal pakbangmenangtanggalapril bangmenangtanggalaprilamin httpstcom1u7nlbagqinsyallahpak tcom1u7nlbagqinsyallahpakbang com1u7nlbagqinsyallahpakbangmenang m1u7nlbagqinsyallahpakbangmenangtanggal insyallahpakbangmenangtanggalapril pakbangmenangtanggalaprilamin</t>
+  </si>
+  <si>
+    <t>semangat salam kompak all tnt-pepes semua dukung juang sama pak tuju indonesia jaya semangatsalam salamkompak kompakall alltnt-pepes tnt-pepessemua semuadukung dukungjuang juangsama samapak paktuju tujuindonesia indonesiajaya semangatsalamkompak salamkompakall kompakalltnt-pepes alltnt-pepessemua tnt-pepessemuadukung semuadukungjuang dukungjuangsama juangsamapak samapaktuju paktujuindonesia tujuindonesiajaya semangatsalamkompakall salamkompakalltnt-pepes kompakalltnt-pepessemua alltnt-pepessemuadukung tnt-pepessemuadukungjuang semuadukungjuangsama dukungjuangsamapak juangsamapaktuju samapaktujuindonesia paktujuindonesiajaya semangatsalamkompakalltnt-pepes salamkompakalltnt-pepessemua kompakalltnt-pepessemuadukung alltnt-pepessemuadukungjuang tnt-pepessemuadukungjuangsama semuadukungjuangsamapak dukungjuangsamapaktuju juangsamapaktujuindonesia samapaktujuindonesiajaya semangatsalamkompakalltnt-pepessemua salamkompakalltnt-pepessemuadukung kompakalltnt-pepessemuadukungjuang alltnt-pepessemuadukungjuangsama tnt-pepessemuadukungjuangsamapak semuadukungjuangsamapaktuju dukungjuangsamapaktujuindonesia juangsamapaktujuindonesiajaya</t>
+  </si>
+  <si>
+    <t>kapabilitas dlm istirahat down materi debat jelas tanggap trengginas gilas kapabilitasdlm dlmistirahat istirahatdown downmateri materidebat debatjelas jelastanggap tanggaptrengginas trengginasgilas kapabilitasdlmistirahat dlmistirahatdown istirahatdownmateri downmateridebat materidebatjelas debatjelastanggap jelastanggaptrengginas tanggaptrengginasgilas kapabilitasdlmistirahatdown dlmistirahatdownmateri istirahatdownmateridebat downmateridebatjelas materidebatjelastanggap debatjelastanggaptrengginas jelastanggaptrengginasgilas kapabilitasdlmistirahatdownmateri dlmistirahatdownmateridebat istirahatdownmateridebatjelas downmateridebatjelastanggap materidebatjelastanggaptrengginas debatjelastanggaptrengginasgilas kapabilitasdlmistirahatdownmateridebat dlmistirahatdownmateridebatjelas istirahatdownmateridebatjelastanggap downmateridebatjelastanggaptrengginas materidebatjelastanggaptrengginasgilas</t>
+  </si>
+  <si>
+    <t>pilpres kali kurang seru hanya sebar ilusi takut jargon jatuh visi misi program lebih baik pilpreskali kalikurang kurangseru seruhanya hanyasebar sebarilusi ilusitakut takutjargon jargonjatuh jatuhvisi visimisi misiprogram programlebih lebihbaik pilpreskalikurang kalikurangseru kurangseruhanya seruhanyasebar hanyasebarilusi sebarilusitakut ilusitakutjargon takutjargonjatuh jargonjatuhvisi jatuhvisimisi visimisiprogram misiprogramlebih programlebihbaik pilpreskalikurangseru kalikurangseruhanya kurangseruhanyasebar seruhanyasebarilusi hanyasebarilusitakut sebarilusitakutjargon ilusitakutjargonjatuh takutjargonjatuhvisi jargonjatuhvisimisi jatuhvisimisiprogram visimisiprogramlebih misiprogramlebihbaik pilpreskalikurangseruhanya kalikurangseruhanyasebar kurangseruhanyasebarilusi seruhanyasebarilusitakut hanyasebarilusitakutjargon sebarilusitakutjargonjatuh ilusitakutjargonjatuhvisi takutjargonjatuhvisimisi jargonjatuhvisimisiprogram jatuhvisimisiprogramlebih visimisiprogramlebihbaik pilpreskalikurangseruhanyasebar kalikurangseruhanyasebarilusi kurangseruhanyasebarilusitakut seruhanyasebarilusitakutjargon hanyasebarilusitakutjargonjatuh sebarilusitakutjargonjatuhvisi ilusitakutjargonjatuhvisimisi takutjargonjatuhvisimisiprogram jargonjatuhvisimisiprogramlebih jatuhvisimisiprogramlebihbaik</t>
+  </si>
+  <si>
+    <t>tadbir nan pantas layan rakyat bagus bandela pemerintahandilan https t co dmjpr 2uqyg tadbirnan nanpantas pantaslayan layanrakyat rakyatbagus bagusbandela bandelapemerintahandilan pemerintahandilanhttps httpst tco codmjpr dmjpr2uqyg tadbirnanpantas nanpantaslayan pantaslayanrakyat layanrakyatbagus rakyatbagusbandela bagusbandelapemerintahandilan bandelapemerintahandilanhttps pemerintahandilanhttpst httpstco tcodmjpr codmjpr2uqyg tadbirnanpantaslayan nanpantaslayanrakyat pantaslayanrakyatbagus layanrakyatbagusbandela rakyatbagusbandelapemerintahandilan bagusbandelapemerintahandilanhttps bandelapemerintahandilanhttpst pemerintahandilanhttpstco httpstcodmjpr tcodmjpr2uqyg tadbirnanpantaslayanrakyat nanpantaslayanrakyatbagus pantaslayanrakyatbagusbandela layanrakyatbagusbandelapemerintahandilan rakyatbagusbandelapemerintahandilanhttps bagusbandelapemerintahandilanhttpst bandelapemerintahandilanhttpstco pemerintahandilanhttpstcodmjpr httpstcodmjpr2uqyg tadbirnanpantaslayanrakyatbagus nanpantaslayanrakyatbagusbandela pantaslayanrakyatbagusbandelapemerintahandilan layanrakyatbagusbandelapemerintahandilanhttps rakyatbagusbandelapemerintahandilanhttpst bagusbandelapemerintahandilanhttpstco bandelapemerintahandilanhttpstcodmjpr pemerintahandilanhttpstcodmjpr2uqyg</t>
+  </si>
+  <si>
+    <t>paranoid perang mulu sama asing padahal dikhawatirin benar justru perang sodara paranoidperang perangmulu mulusama samaasing asingpadahal padahaldikhawatirin dikhawatirinbenar benarjustru justruperang perangsodara paranoidperangmulu perangmulusama mulusamaasing samaasingpadahal asingpadahaldikhawatirin padahaldikhawatirinbenar dikhawatirinbenarjustru benarjustruperang justruperangsodara paranoidperangmulusama perangmulusamaasing mulusamaasingpadahal samaasingpadahaldikhawatirin asingpadahaldikhawatirinbenar padahaldikhawatirinbenarjustru dikhawatirinbenarjustruperang benarjustruperangsodara paranoidperangmulusamaasing perangmulusamaasingpadahal mulusamaasingpadahaldikhawatirin samaasingpadahaldikhawatirinbenar asingpadahaldikhawatirinbenarjustru padahaldikhawatirinbenarjustruperang dikhawatirinbenarjustruperangsodara paranoidperangmulusamaasingpadahal perangmulusamaasingpadahaldikhawatirin mulusamaasingpadahaldikhawatirinbenar samaasingpadahaldikhawatirinbenarjustru asingpadahaldikhawatirinbenarjustruperang padahaldikhawatirinbenarjustruperangsodara</t>
+  </si>
+  <si>
+    <t>duh sumpah merinding dengar pidato mas ini negarawan sejati selalu usaha abdi duhsumpah sumpahmerinding merindingdengar dengarpidato pidatomas masini ininegarawan negarawansejati sejatiselalu selaluusaha usahaabdi duhsumpahmerinding sumpahmerindingdengar merindingdengarpidato dengarpidatomas pidatomasini masininegarawan ininegarawansejati negarawansejatiselalu sejatiselaluusaha selaluusahaabdi duhsumpahmerindingdengar sumpahmerindingdengarpidato merindingdengarpidatomas dengarpidatomasini pidatomasininegarawan masininegarawansejati ininegarawansejatiselalu negarawansejatiselaluusaha sejatiselaluusahaabdi duhsumpahmerindingdengarpidato sumpahmerindingdengarpidatomas merindingdengarpidatomasini dengarpidatomasininegarawan pidatomasininegarawansejati masininegarawansejatiselalu ininegarawansejatiselaluusaha negarawansejatiselaluusahaabdi duhsumpahmerindingdengarpidatomas sumpahmerindingdengarpidatomasini merindingdengarpidatomasininegarawan dengarpidatomasininegarawansejati pidatomasininegarawansejatiselalu masininegarawansejatiselaluusaha ininegarawansejatiselaluusahaabdi</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak coblos temiik dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak bapakcoblos coblostemiik dearpaktaun paktaunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak omelbapakcoblos bapakcoblostemiik dearpaktaunbapak paktaunbapakjabat taunbapakjabatakan bapakjabatakanawas jabatakanawaskritisi akanawaskritisiomel awaskritisiomelbapak kritisiomelbapakcoblos omelbapakcoblostemiik dearpaktaunbapakjabat paktaunbapakjabatakan taunbapakjabatakanawas bapakjabatakanawaskritisi jabatakanawaskritisiomel akanawaskritisiomelbapak awaskritisiomelbapakcoblos kritisiomelbapakcoblostemiik dearpaktaunbapakjabatakan paktaunbapakjabatakanawas taunbapakjabatakanawaskritisi bapakjabatakanawaskritisiomel jabatakanawaskritisiomelbapak akanawaskritisiomelbapakcoblos awaskritisiomelbapakcoblostemiik</t>
+  </si>
+  <si>
+    <t>01caprespendustaabadi bayang pun kecoh dusta 01caprespendustaabadibayang bayangpun punkecoh kecohdusta 01caprespendustaabadibayangpun bayangpunkecoh punkecohdusta 01caprespendustaabadibayangpunkecoh bayangpunkecohdusta 01caprespendustaabadibayangpunkecohdusta</t>
+  </si>
+  <si>
+    <t>enak dukung ajak pak tatap masa depan optimis hadap dinamika era iot kalau ajak balik masa lalu enakdukung dukungajak ajakpak paktatap tatapmasa masadepan depanoptimis optimishadap hadapdinamika dinamikaera eraiot iotkalau kalauajak ajakbalik balikmasa masalalu enakdukungajak dukungajakpak ajakpaktatap paktatapmasa tatapmasadepan masadepanoptimis depanoptimishadap optimishadapdinamika hadapdinamikaera dinamikaeraiot eraiotkalau iotkalauajak kalauajakbalik ajakbalikmasa balikmasalalu enakdukungajakpak dukungajakpaktatap ajakpaktatapmasa paktatapmasadepan tatapmasadepanoptimis masadepanoptimishadap depanoptimishadapdinamika optimishadapdinamikaera hadapdinamikaeraiot dinamikaeraiotkalau eraiotkalauajak iotkalauajakbalik kalauajakbalikmasa ajakbalikmasalalu enakdukungajakpaktatap dukungajakpaktatapmasa ajakpaktatapmasadepan paktatapmasadepanoptimis tatapmasadepanoptimishadap masadepanoptimishadapdinamika depanoptimishadapdinamikaera optimishadapdinamikaeraiot hadapdinamikaeraiotkalau dinamikaeraiotkalauajak eraiotkalauajakbalik iotkalauajakbalikmasa kalauajakbalikmasalalu enakdukungajakpaktatapmasa dukungajakpaktatapmasadepan ajakpaktatapmasadepanoptimis paktatapmasadepanoptimishadap tatapmasadepanoptimishadapdinamika masadepanoptimishadapdinamikaera depanoptimishadapdinamikaeraiot optimishadapdinamikaeraiotkalau hadapdinamikaeraiotkalauajak dinamikaeraiotkalauajakbalik eraiotkalauajakbalikmasa iotkalauajakbalikmasalalu</t>
+  </si>
+  <si>
+    <t>pak jangan sampe korban nyawa ibu pertiwi kita pakjangan jangansampe sampekorban korbannyawa nyawaibu ibupertiwi pertiwikita pakjangansampe jangansampekorban sampekorbannyawa korbannyawaibu nyawaibupertiwi ibupertiwikita pakjangansampekorban jangansampekorbannyawa sampekorbannyawaibu korbannyawaibupertiwi nyawaibupertiwikita pakjangansampekorbannyawa jangansampekorbannyawaibu sampekorbannyawaibupertiwi korbannyawaibupertiwikita pakjangansampekorbannyawaibu jangansampekorbannyawaibupertiwi sampekorbannyawaibupertiwikita</t>
+  </si>
+  <si>
+    <t>mas tegas lawan siapa ingin rubah ideologi pancasila dengerin tuh bong mastegas tegaslawan lawansiapa siapaingin inginrubah rubahideologi ideologipancasila pancasiladengerin dengerintuh tuhbong mastegaslawan tegaslawansiapa lawansiapaingin siapainginrubah inginrubahideologi rubahideologipancasila ideologipancasiladengerin pancasiladengerintuh dengerintuhbong mastegaslawansiapa tegaslawansiapaingin lawansiapainginrubah siapainginrubahideologi inginrubahideologipancasila rubahideologipancasiladengerin ideologipancasiladengerintuh pancasiladengerintuhbong mastegaslawansiapaingin tegaslawansiapainginrubah lawansiapainginrubahideologi siapainginrubahideologipancasila inginrubahideologipancasiladengerin rubahideologipancasiladengerintuh ideologipancasiladengerintuhbong mastegaslawansiapainginrubah tegaslawansiapainginrubahideologi lawansiapainginrubahideologipancasila siapainginrubahideologipancasiladengerin inginrubahideologipancasiladengerintuh rubahideologipancasiladengerintuhbong</t>
+  </si>
+  <si>
+    <t>memang sekarang jaman digital bro perintah pemerintahandilan dong keren digital layan memangsekarang sekarangjaman jamandigital digitalbro broperintah perintahpemerintahandilan pemerintahandilandong dongkeren kerendigital digitallayan memangsekarangjaman sekarangjamandigital jamandigitalbro digitalbroperintah broperintahpemerintahandilan perintahpemerintahandilandong pemerintahandilandongkeren dongkerendigital kerendigitallayan memangsekarangjamandigital sekarangjamandigitalbro jamandigitalbroperintah digitalbroperintahpemerintahandilan broperintahpemerintahandilandong perintahpemerintahandilandongkeren pemerintahandilandongkerendigital dongkerendigitallayan memangsekarangjamandigitalbro sekarangjamandigitalbroperintah jamandigitalbroperintahpemerintahandilan digitalbroperintahpemerintahandilandong broperintahpemerintahandilandongkeren perintahpemerintahandilandongkerendigital pemerintahandilandongkerendigitallayan memangsekarangjamandigitalbroperintah sekarangjamandigitalbroperintahpemerintahandilan jamandigitalbroperintahpemerintahandilandong digitalbroperintahpemerintahandilandongkeren broperintahpemerintahandilandongkerendigital perintahpemerintahandilandongkerendigitallayan</t>
+  </si>
+  <si>
+    <t>kerja perintah jelas unggul 01dilanjutkan https t co yjves 25euq kerjaperintah perintahjelas jelasunggul unggul01dilanjutkan 01dilanjutkanhttps httpst tco coyjves yjves25euq kerjaperintahjelas perintahjelasunggul jelasunggul01dilanjutkan unggul01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoyjves coyjves25euq kerjaperintahjelasunggul perintahjelasunggul01dilanjutkan jelasunggul01dilanjutkanhttps unggul01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcoyjves tcoyjves25euq kerjaperintahjelasunggul01dilanjutkan perintahjelasunggul01dilanjutkanhttps jelasunggul01dilanjutkanhttpst unggul01dilanjutkanhttpstco 01dilanjutkanhttpstcoyjves httpstcoyjves25euq kerjaperintahjelasunggul01dilanjutkanhttps perintahjelasunggul01dilanjutkanhttpst jelasunggul01dilanjutkanhttpstco unggul01dilanjutkanhttpstcoyjves 01dilanjutkanhttpstcoyjves25euq</t>
+  </si>
+  <si>
+    <t>mantap pak tegas cerdazzz mantappak paktegas tegascerdazzz mantappaktegas paktegascerdazzz mantappaktegascerdazzz</t>
+  </si>
+  <si>
+    <t>saya bisa hadir sama ibu bahagia banget acara bapak bal luarbiasa sayabisa bisahadir hadirsama samaibu ibubahagia bahagiabanget bangetacara acarabapak bapakbal balluarbiasa sayabisahadir bisahadirsama hadirsamaibu samaibubahagia ibubahagiabanget bahagiabangetacara bangetacarabapak acarabapakbal bapakballuarbiasa sayabisahadirsama bisahadirsamaibu hadirsamaibubahagia samaibubahagiabanget ibubahagiabangetacara bahagiabangetacarabapak bangetacarabapakbal acarabapakballuarbiasa sayabisahadirsamaibu bisahadirsamaibubahagia hadirsamaibubahagiabanget samaibubahagiabangetacara ibubahagiabangetacarabapak bahagiabangetacarabapakbal bangetacarabapakballuarbiasa sayabisahadirsamaibubahagia bisahadirsamaibubahagiabanget hadirsamaibubahagiabangetacara samaibubahagiabangetacarabapak ibubahagiabangetacarabapakbal bahagiabangetacarabapakballuarbiasa</t>
+  </si>
+  <si>
+    <t>closing statement pak gambar demokrasi yang sungguh closingstatement statementpak pakgambar gambardemokrasi demokrasiyang yangsungguh closingstatementpak statementpakgambar pakgambardemokrasi gambardemokrasiyang demokrasiyangsungguh closingstatementpakgambar statementpakgambardemokrasi pakgambardemokrasiyang gambardemokrasiyangsungguh closingstatementpakgambardemokrasi statementpakgambardemokrasiyang pakgambardemokrasiyangsungguh closingstatementpakgambardemokrasiyang statementpakgambardemokrasiyangsungguh</t>
+  </si>
+  <si>
+    <t>benar bangsa jadi bangsa kuat segani bukan besar sanjung benarbangsa bangsajadi jadibangsa bangsakuat kuatsegani seganibukan bukanbesar besarsanjung benarbangsajadi bangsajadibangsa jadibangsakuat bangsakuatsegani kuatseganibukan seganibukanbesar bukanbesarsanjung benarbangsajadibangsa bangsajadibangsakuat jadibangsakuatsegani bangsakuatseganibukan kuatseganibukanbesar seganibukanbesarsanjung benarbangsajadibangsakuat bangsajadibangsakuatsegani jadibangsakuatseganibukan bangsakuatseganibukanbesar kuatseganibukanbesarsanjung benarbangsajadibangsakuatsegani bangsajadibangsakuatseganibukan jadibangsakuatseganibukanbesar bangsakuatseganibukanbesarsanjung</t>
+  </si>
+  <si>
+    <t>lihat udah cukup percaya diri sama base konservatif religius makanya berani kenal narasi lihatudah udahcukup cukuppercaya percayadiri dirisama samabase basekonservatif konservatifreligius religiusmakanya makanyaberani beranikenal kenalnarasi lihatudahcukup udahcukuppercaya cukuppercayadiri percayadirisama dirisamabase samabasekonservatif basekonservatifreligius konservatifreligiusmakanya religiusmakanyaberani makanyaberanikenal beranikenalnarasi lihatudahcukuppercaya udahcukuppercayadiri cukuppercayadirisama percayadirisamabase dirisamabasekonservatif samabasekonservatifreligius basekonservatifreligiusmakanya konservatifreligiusmakanyaberani religiusmakanyaberanikenal makanyaberanikenalnarasi lihatudahcukuppercayadiri udahcukuppercayadirisama cukuppercayadirisamabase percayadirisamabasekonservatif dirisamabasekonservatifreligius samabasekonservatifreligiusmakanya basekonservatifreligiusmakanyaberani konservatifreligiusmakanyaberanikenal religiusmakanyaberanikenalnarasi lihatudahcukuppercayadirisama udahcukuppercayadirisamabase cukuppercayadirisamabasekonservatif percayadirisamabasekonservatifreligius dirisamabasekonservatifreligiusmakanya samabasekonservatifreligiusmakanyaberani basekonservatifreligiusmakanyaberanikenal konservatifreligiusmakanyaberanikenalnarasi</t>
+  </si>
+  <si>
+    <t>malam bapak jadi serang tangguh bagus pak buat tahana ngelap keringat mulu malambapak bapakjadi jadiserang serangtangguh tangguhbagus baguspak pakbuat buattahana tahanangelap ngelapkeringat keringatmulu malambapakjadi bapakjadiserang jadiserangtangguh serangtangguhbagus tangguhbaguspak baguspakbuat pakbuattahana buattahanangelap tahanangelapkeringat ngelapkeringatmulu malambapakjadiserang bapakjadiserangtangguh jadiserangtangguhbagus serangtangguhbaguspak tangguhbaguspakbuat baguspakbuattahana pakbuattahanangelap buattahanangelapkeringat tahanangelapkeringatmulu malambapakjadiserangtangguh bapakjadiserangtangguhbagus jadiserangtangguhbaguspak serangtangguhbaguspakbuat tangguhbaguspakbuattahana baguspakbuattahanangelap pakbuattahanangelapkeringat buattahanangelapkeringatmulu malambapakjadiserangtangguhbagus bapakjadiserangtangguhbaguspak jadiserangtangguhbaguspakbuat serangtangguhbaguspakbuattahana tangguhbaguspakbuattahanangelap baguspakbuattahanangelapkeringat pakbuattahanangelapkeringatmulu</t>
+  </si>
+  <si>
+    <t>sobat sekali milu ajang gembira dlm beda aja pak kena baju putih tps sobatsekali sekalimilu miluajang ajanggembira gembiradlm dlmbeda bedaaja ajapak pakkena kenabaju bajuputih putihtps sobatsekalimilu sekalimiluajang miluajanggembira ajanggembiradlm gembiradlmbeda dlmbedaaja bedaajapak ajapakkena pakkenabaju kenabajuputih bajuputihtps sobatsekalimiluajang sekalimiluajanggembira miluajanggembiradlm ajanggembiradlmbeda gembiradlmbedaaja dlmbedaajapak bedaajapakkena ajapakkenabaju pakkenabajuputih kenabajuputihtps sobatsekalimiluajanggembira sekalimiluajanggembiradlm miluajanggembiradlmbeda ajanggembiradlmbedaaja gembiradlmbedaajapak dlmbedaajapakkena bedaajapakkenabaju ajapakkenabajuputih pakkenabajuputihtps sobatsekalimiluajanggembiradlm sekalimiluajanggembiradlmbeda miluajanggembiradlmbedaaja ajanggembiradlmbedaajapak gembiradlmbedaajapakkena dlmbedaajapakkenabaju bedaajapakkenabajuputih ajapakkenabajuputihtps</t>
+  </si>
+  <si>
+    <t>sama presiden perintah indonesia konsisten bela negara palestina bagai warga dunia 01dilanjutkan samapresiden presidenperintah perintahindonesia indonesiakonsisten konsistenbela belanegara negarapalestina palestinabagai bagaiwarga wargadunia dunia01dilanjutkan samapresidenperintah presidenperintahindonesia perintahindonesiakonsisten indonesiakonsistenbela konsistenbelanegara belanegarapalestina negarapalestinabagai palestinabagaiwarga bagaiwargadunia wargadunia01dilanjutkan samapresidenperintahindonesia presidenperintahindonesiakonsisten perintahindonesiakonsistenbela indonesiakonsistenbelanegara konsistenbelanegarapalestina belanegarapalestinabagai negarapalestinabagaiwarga palestinabagaiwargadunia bagaiwargadunia01dilanjutkan samapresidenperintahindonesiakonsisten presidenperintahindonesiakonsistenbela perintahindonesiakonsistenbelanegara indonesiakonsistenbelanegarapalestina konsistenbelanegarapalestinabagai belanegarapalestinabagaiwarga negarapalestinabagaiwargadunia palestinabagaiwargadunia01dilanjutkan samapresidenperintahindonesiakonsistenbela presidenperintahindonesiakonsistenbelanegara perintahindonesiakonsistenbelanegarapalestina indonesiakonsistenbelanegarapalestinabagai konsistenbelanegarapalestinabagaiwarga belanegarapalestinabagaiwargadunia negarapalestinabagaiwargadunia01dilanjutkan</t>
+  </si>
+  <si>
+    <t>dapat lembaga perintah kuat dapatlembaga lembagaperintah perintahkuat dapatlembagaperintah lembagaperintahkuat dapatlembagaperintahkuat</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode sepakatsamaom samaomtrik omtrikbasi trikbasiminggu basiminggukelar minggukelarjadi kelarjadimau jadimauperiode sepakatsamaomtrik samaomtrikbasi omtrikbasiminggu trikbasiminggukelar basiminggukelarjadi minggukelarjadimau kelarjadimauperiode sepakatsamaomtrikbasi samaomtrikbasiminggu omtrikbasiminggukelar trikbasiminggukelarjadi basiminggukelarjadimau minggukelarjadimauperiode sepakatsamaomtrikbasiminggu samaomtrikbasiminggukelar omtrikbasiminggukelarjadi trikbasiminggukelarjadimau basiminggukelarjadimauperiode</t>
+  </si>
+  <si>
+    <t>hal perintah bukan teori soal bagaimana jalan perintah baik halperintah perintahbukan bukanteori teorisoal soalbagaimana bagaimanajalan jalanperintah perintahbaik halperintahbukan perintahbukanteori bukanteorisoal teorisoalbagaimana soalbagaimanajalan bagaimanajalanperintah jalanperintahbaik halperintahbukanteori perintahbukanteorisoal bukanteorisoalbagaimana teorisoalbagaimanajalan soalbagaimanajalanperintah bagaimanajalanperintahbaik halperintahbukanteorisoal perintahbukanteorisoalbagaimana bukanteorisoalbagaimanajalan teorisoalbagaimanajalanperintah soalbagaimanajalanperintahbaik halperintahbukanteorisoalbagaimana perintahbukanteorisoalbagaimanajalan bukanteorisoalbagaimanajalanperintah teorisoalbagaimanajalanperintahbaik</t>
+  </si>
+  <si>
+    <t>lho cak bisa mbentengi nkri sangat paham betul sistem tahan negara lhocak cakbisa bisambentengi mbentenginkri nkrisangat sangatpaham pahambetul betulsistem sistemtahan tahannegara lhocakbisa cakbisambentengi bisambentenginkri mbentenginkrisangat nkrisangatpaham sangatpahambetul pahambetulsistem betulsistemtahan sistemtahannegara lhocakbisambentengi cakbisambentenginkri bisambentenginkrisangat mbentenginkrisangatpaham nkrisangatpahambetul sangatpahambetulsistem pahambetulsistemtahan betulsistemtahannegara lhocakbisambentenginkri cakbisambentenginkrisangat bisambentenginkrisangatpaham mbentenginkrisangatpahambetul nkrisangatpahambetulsistem sangatpahambetulsistemtahan pahambetulsistemtahannegara lhocakbisambentenginkrisangat cakbisambentenginkrisangatpaham bisambentenginkrisangatpahambetul mbentenginkrisangatpahambetulsistem nkrisangatpahambetulsistemtahan sangatpahambetulsistemtahannegara</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram rizalramlipak ramlipakmau pakmaurevisi maurevisihehe revisihehekubu hehekubujokowi kubujokowiada jokowiadatanggpan adatanggpanrr tanggpanrrsebut rrsebuthehe sebutheheseram rizalramlipakmau ramlipakmaurevisi pakmaurevisihehe maurevisihehekubu revisihehekubujokowi hehekubujokowiada kubujokowiadatanggpan jokowiadatanggpanrr adatanggpanrrsebut tanggpanrrsebuthehe rrsebutheheseram rizalramlipakmaurevisi ramlipakmaurevisihehe pakmaurevisihehekubu maurevisihehekubujokowi revisihehekubujokowiada hehekubujokowiadatanggpan kubujokowiadatanggpanrr jokowiadatanggpanrrsebut adatanggpanrrsebuthehe tanggpanrrsebutheheseram rizalramlipakmaurevisihehe ramlipakmaurevisihehekubu pakmaurevisihehekubujokowi maurevisihehekubujokowiada revisihehekubujokowiadatanggpan hehekubujokowiadatanggpanrr kubujokowiadatanggpanrrsebut jokowiadatanggpanrrsebuthehe adatanggpanrrsebutheheseram</t>
+  </si>
+  <si>
+    <t>memang sosok pimpin teladan bangga 01dilanjutkan memangsosok sosokpimpin pimpinteladan teladanbangga bangga01dilanjutkan memangsosokpimpin sosokpimpinteladan pimpinteladanbangga teladanbangga01dilanjutkan memangsosokpimpinteladan sosokpimpinteladanbangga pimpinteladanbangga01dilanjutkan memangsosokpimpinteladanbangga sosokpimpinteladanbangga01dilanjutkan memangsosokpimpinteladanbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>pak debat kemaren kasih amunisi kayak debat saya paling suka cara bapak debat pakdebat debatkemaren kemarenkasih kasihamunisi amunisikayak kayakdebat debatsaya sayapaling palingsuka sukacara carabapak bapakdebat pakdebatkemaren debatkemarenkasih kemarenkasihamunisi kasihamunisikayak amunisikayakdebat kayakdebatsaya debatsayapaling sayapalingsuka palingsukacara sukacarabapak carabapakdebat pakdebatkemarenkasih debatkemarenkasihamunisi kemarenkasihamunisikayak kasihamunisikayakdebat amunisikayakdebatsaya kayakdebatsayapaling debatsayapalingsuka sayapalingsukacara palingsukacarabapak sukacarabapakdebat pakdebatkemarenkasihamunisi debatkemarenkasihamunisikayak kemarenkasihamunisikayakdebat kasihamunisikayakdebatsaya amunisikayakdebatsayapaling kayakdebatsayapalingsuka debatsayapalingsukacara sayapalingsukacarabapak palingsukacarabapakdebat pakdebatkemarenkasihamunisikayak debatkemarenkasihamunisikayakdebat kemarenkasihamunisikayakdebatsaya kasihamunisikayakdebatsayapaling amunisikayakdebatsayapalingsuka kayakdebatsayapalingsukacara debatsayapalingsukacarabapak sayapalingsukacarabapakdebat</t>
+  </si>
+  <si>
+    <t>pak pribadi sederhana senang semua kalang menangjokowilagi pakpribadi pribadisederhana sederhanasenang senangsemua semuakalang kalangmenangjokowilagi pakpribadisederhana pribadisederhanasenang sederhanasenangsemua senangsemuakalang semuakalangmenangjokowilagi pakpribadisederhanasenang pribadisederhanasenangsemua sederhanasenangsemuakalang senangsemuakalangmenangjokowilagi pakpribadisederhanasenangsemua pribadisederhanasenangsemuakalang sederhanasenangsemuakalangmenangjokowilagi pakpribadisederhanasenangsemuakalang pribadisederhanasenangsemuakalangmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>untung pilpres pak menang makanya bangun tol proyek tol perdana aceh rumah khusus masyarakat untungpilpres pilprespak pakmenang menangmakanya makanyabangun banguntol tolproyek proyektol tolperdana perdanaaceh acehrumah rumahkhusus khususmasyarakat untungpilprespak pilprespakmenang pakmenangmakanya menangmakanyabangun makanyabanguntol banguntolproyek tolproyektol proyektolperdana tolperdanaaceh perdanaacehrumah acehrumahkhusus rumahkhususmasyarakat untungpilprespakmenang pilprespakmenangmakanya pakmenangmakanyabangun menangmakanyabanguntol makanyabanguntolproyek banguntolproyektol tolproyektolperdana proyektolperdanaaceh tolperdanaacehrumah perdanaacehrumahkhusus acehrumahkhususmasyarakat untungpilprespakmenangmakanya pilprespakmenangmakanyabangun pakmenangmakanyabanguntol menangmakanyabanguntolproyek makanyabanguntolproyektol banguntolproyektolperdana tolproyektolperdanaaceh proyektolperdanaacehrumah tolperdanaacehrumahkhusus perdanaacehrumahkhususmasyarakat untungpilprespakmenangmakanyabangun pilprespakmenangmakanyabanguntol pakmenangmakanyabanguntolproyek menangmakanyabanguntolproyektol makanyabanguntolproyektolperdana banguntolproyektolperdanaaceh tolproyektolperdanaacehrumah proyektolperdanaacehrumahkhusus tolperdanaacehrumahkhususmasyarakat</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta perintahmaukeluar maukeluarparis keluarparistuju paristujukata tujukatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta perintahmaukeluarparis maukeluarparistuju keluarparistujukata paristujukatamikirin tujukatamikirinmasa katamikirinmasadepan mikirinmasadepanindonesia masadepanindonesiamau depanindonesiamaukeluar indonesiamaukeluarpakta perintahmaukeluarparistuju maukeluarparistujukata keluarparistujukatamikirin paristujukatamikirinmasa tujukatamikirinmasadepan katamikirinmasadepanindonesia mikirinmasadepanindonesiamau masadepanindonesiamaukeluar depanindonesiamaukeluarpakta perintahmaukeluarparistujukata maukeluarparistujukatamikirin keluarparistujukatamikirinmasa paristujukatamikirinmasadepan tujukatamikirinmasadepanindonesia katamikirinmasadepanindonesiamau mikirinmasadepanindonesiamaukeluar masadepanindonesiamaukeluarpakta</t>
+  </si>
+  <si>
+    <t>pak bijak sikap hasil survei nyata menang tebal menangjokowilagi pakbijak bijaksikap sikaphasil hasilsurvei surveinyata nyatamenang menangtebal tebalmenangjokowilagi pakbijaksikap bijaksikaphasil sikaphasilsurvei hasilsurveinyata surveinyatamenang nyatamenangtebal menangtebalmenangjokowilagi pakbijaksikaphasil bijaksikaphasilsurvei sikaphasilsurveinyata hasilsurveinyatamenang surveinyatamenangtebal nyatamenangtebalmenangjokowilagi pakbijaksikaphasilsurvei bijaksikaphasilsurveinyata sikaphasilsurveinyatamenang hasilsurveinyatamenangtebal surveinyatamenangtebalmenangjokowilagi pakbijaksikaphasilsurveinyata bijaksikaphasilsurveinyatamenang sikaphasilsurveinyatamenangtebal hasilsurveinyatamenangtebalmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>kamu lihat jujur pak indonesia beliau segan tegur siapa tertawa indonesia kamulihat lihatjujur jujurpak pakindonesia indonesiabeliau beliausegan segantegur tegursiapa siapatertawa tertawaindonesia kamulihatjujur lihatjujurpak jujurpakindonesia pakindonesiabeliau indonesiabeliausegan beliausegantegur segantegursiapa tegursiapatertawa siapatertawaindonesia kamulihatjujurpak lihatjujurpakindonesia jujurpakindonesiabeliau pakindonesiabeliausegan indonesiabeliausegantegur beliausegantegursiapa segantegursiapatertawa tegursiapatertawaindonesia kamulihatjujurpakindonesia lihatjujurpakindonesiabeliau jujurpakindonesiabeliausegan pakindonesiabeliausegantegur indonesiabeliausegantegursiapa beliausegantegursiapatertawa segantegursiapatertawaindonesia kamulihatjujurpakindonesiabeliau lihatjujurpakindonesiabeliausegan jujurpakindonesiabeliausegantegur pakindonesiabeliausegantegursiapa indonesiabeliausegantegursiapatertawa beliausegantegursiapatertawaindonesia</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby adalahagumgumelar agumgumelardengan gumelardenganlantang denganlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby adalahagumgumelardengan agumgumelardenganlantang gumelardenganlantangwajah denganlantangwajahbicara lantangwajahbicarajelek wajahbicarajelekhadap bicarajelekhadapsby adalahagumgumelardenganlantang agumgumelardenganlantangwajah gumelardenganlantangwajahbicara denganlantangwajahbicarajelek lantangwajahbicarajelekhadap wajahbicarajelekhadapsby adalahagumgumelardenganlantangwajah agumgumelardenganlantangwajahbicara gumelardenganlantangwajahbicarajelek denganlantangwajahbicarajelekhadap lantangwajahbicarajelekhadapsby</t>
+  </si>
+  <si>
+    <t>kaya rakyat indonesia sedot luar negeri kaya sendiri numpuk di luar negeri hehe - kayarakyat rakyatindonesia indonesiasedot sedotluar luarnegeri negerikaya kayasendiri sendirinumpuk numpukdi diluar luarnegeri negerihehe hehe- kayarakyatindonesia rakyatindonesiasedot indonesiasedotluar sedotluarnegeri luarnegerikaya negerikayasendiri kayasendirinumpuk sendirinumpukdi numpukdiluar diluarnegeri luarnegerihehe negerihehe- kayarakyatindonesiasedot rakyatindonesiasedotluar indonesiasedotluarnegeri sedotluarnegerikaya luarnegerikayasendiri negerikayasendirinumpuk kayasendirinumpukdi sendirinumpukdiluar numpukdiluarnegeri diluarnegerihehe luarnegerihehe- kayarakyatindonesiasedotluar rakyatindonesiasedotluarnegeri indonesiasedotluarnegerikaya sedotluarnegerikayasendiri luarnegerikayasendirinumpuk negerikayasendirinumpukdi kayasendirinumpukdiluar sendirinumpukdiluarnegeri numpukdiluarnegerihehe diluarnegerihehe- kayarakyatindonesiasedotluarnegeri rakyatindonesiasedotluarnegerikaya indonesiasedotluarnegerikayasendiri sedotluarnegerikayasendirinumpuk luarnegerikayasendirinumpukdi negerikayasendirinumpukdiluar kayasendirinumpukdiluarnegeri sendirinumpukdiluarnegerihehe numpukdiluarnegerihehe-</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawajangan ketawajangandimarahin kalaupakjadipresiden pakjadipresidenhidup jadipresidenhidupmau presidenhidupmauketawa hidupmauketawajangan mauketawajangandimarahin kalaupakjadipresidenhidup pakjadipresidenhidupmau jadipresidenhidupmauketawa presidenhidupmauketawajangan hidupmauketawajangandimarahin kalaupakjadipresidenhidupmau pakjadipresidenhidupmauketawa jadipresidenhidupmauketawajangan presidenhidupmauketawajangandimarahin</t>
+  </si>
+  <si>
+    <t>kalau kalian mau jadi kaum asal bapak senang jokowi kuasa hak kalian saya suka tampil malam kalaukalian kalianmau maujadi jadikaum kaumasal asalbapak bapaksenang senangjokowi jokowikuasa kuasahak hakkalian kaliansaya sayasuka sukatampil tampilmalam kalaukalianmau kalianmaujadi maujadikaum jadikaumasal kaumasalbapak asalbapaksenang bapaksenangjokowi senangjokowikuasa jokowikuasahak kuasahakkalian hakkaliansaya kaliansayasuka sayasukatampil sukatampilmalam kalaukalianmaujadi kalianmaujadikaum maujadikaumasal jadikaumasalbapak kaumasalbapaksenang asalbapaksenangjokowi bapaksenangjokowikuasa senangjokowikuasahak jokowikuasahakkalian kuasahakkaliansaya hakkaliansayasuka kaliansayasukatampil sayasukatampilmalam kalaukalianmaujadikaum kalianmaujadikaumasal maujadikaumasalbapak jadikaumasalbapaksenang kaumasalbapaksenangjokowi asalbapaksenangjokowikuasa bapaksenangjokowikuasahak senangjokowikuasahakkalian jokowikuasahakkaliansaya kuasahakkaliansayasuka hakkaliansayasukatampil kaliansayasukatampilmalam kalaukalianmaujadikaumasal kalianmaujadikaumasalbapak maujadikaumasalbapaksenang jadikaumasalbapaksenangjokowi kaumasalbapaksenangjokowikuasa asalbapaksenangjokowikuasahak bapaksenangjokowikuasahakkalian senangjokowikuasahakkaliansaya jokowikuasahakkaliansayasuka kuasahakkaliansayasukatampil hakkaliansayasukatampilmalam</t>
+  </si>
+  <si>
+    <t>lebih tni tni jangan kamu maling muka manusia sombong lebihtni tnitni tnijangan jangankamu kamumaling malingmuka mukamanusia manusiasombong lebihtnitni tnitnijangan tnijangankamu jangankamumaling kamumalingmuka malingmukamanusia mukamanusiasombong lebihtnitnijangan tnitnijangankamu tnijangankamumaling jangankamumalingmuka kamumalingmukamanusia malingmukamanusiasombong lebihtnitnijangankamu tnitnijangankamumaling tnijangankamumalingmuka jangankamumalingmukamanusia kamumalingmukamanusiasombong lebihtnitnijangankamumaling tnitnijangankamumalingmuka tnijangankamumalingmukamanusia jangankamumalingmukamanusiasombong</t>
+  </si>
+  <si>
+    <t>bongkar data uang orang kaya indonesia swiss ada korupsi simpan uang sana bongkardata datauang uangorang orangkaya kayaindonesia indonesiaswiss swissada adakorupsi korupsisimpan simpanuang uangsana bongkardatauang datauangorang uangorangkaya orangkayaindonesia kayaindonesiaswiss indonesiaswissada swissadakorupsi adakorupsisimpan korupsisimpanuang simpanuangsana bongkardatauangorang datauangorangkaya uangorangkayaindonesia orangkayaindonesiaswiss kayaindonesiaswissada indonesiaswissadakorupsi swissadakorupsisimpan adakorupsisimpanuang korupsisimpanuangsana bongkardatauangorangkaya datauangorangkayaindonesia uangorangkayaindonesiaswiss orangkayaindonesiaswissada kayaindonesiaswissadakorupsi indonesiaswissadakorupsisimpan swissadakorupsisimpanuang adakorupsisimpanuangsana bongkardatauangorangkayaindonesia datauangorangkayaindonesiaswiss uangorangkayaindonesiaswissada orangkayaindonesiaswissadakorupsi kayaindonesiaswissadakorupsisimpan indonesiaswissadakorupsisimpanuang swissadakorupsisimpanuangsana</t>
+  </si>
+  <si>
+    <t>sumpah debat pilpres x pak benar cadas keren prabowobentengnkri sumpahdebat debatpilpres pilpresx xpak pakbenar benarcadas cadaskeren kerenprabowobentengnkri sumpahdebatpilpres debatpilpresx pilpresxpak xpakbenar pakbenarcadas benarcadaskeren cadaskerenprabowobentengnkri sumpahdebatpilpresx debatpilpresxpak pilpresxpakbenar xpakbenarcadas pakbenarcadaskeren benarcadaskerenprabowobentengnkri sumpahdebatpilpresxpak debatpilpresxpakbenar pilpresxpakbenarcadas xpakbenarcadaskeren pakbenarcadaskerenprabowobentengnkri sumpahdebatpilpresxpakbenar debatpilpresxpakbenarcadas pilpresxpakbenarcadaskeren xpakbenarcadaskerenprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak kata tahan lemah kompak tertawa kira 2 alas apa pakkata katatahan tahanlemah lemahkompak kompaktertawa tertawakira kira2 2alas alasapa pakkatatahan katatahanlemah tahanlemahkompak lemahkompaktertawa kompaktertawakira tertawakira2 kira2alas 2alasapa pakkatatahanlemah katatahanlemahkompak tahanlemahkompaktertawa lemahkompaktertawakira kompaktertawakira2 tertawakira2alas kira2alasapa pakkatatahanlemahkompak katatahanlemahkompaktertawa tahanlemahkompaktertawakira lemahkompaktertawakira2 kompaktertawakira2alas tertawakira2alasapa pakkatatahanlemahkompaktertawa katatahanlemahkompaktertawakira tahanlemahkompaktertawakira2 lemahkompaktertawakira2alas kompaktertawakira2alasapa</t>
+  </si>
+  <si>
+    <t>tertawa tertawa larang pemerintahandilan 01dilanjutkan debatkeempatpilpres 2019 tertawatertawa tertawalarang larangpemerintahandilan pemerintahandilan01dilanjutkan 01dilanjutkandebatkeempatpilpres debatkeempatpilpres2019 tertawatertawalarang tertawalarangpemerintahandilan larangpemerintahandilan01dilanjutkan pemerintahandilan01dilanjutkandebatkeempatpilpres 01dilanjutkandebatkeempatpilpres2019 tertawatertawalarangpemerintahandilan tertawalarangpemerintahandilan01dilanjutkan larangpemerintahandilan01dilanjutkandebatkeempatpilpres pemerintahandilan01dilanjutkandebatkeempatpilpres2019 tertawatertawalarangpemerintahandilan01dilanjutkan tertawalarangpemerintahandilan01dilanjutkandebatkeempatpilpres larangpemerintahandilan01dilanjutkandebatkeempatpilpres2019 tertawatertawalarangpemerintahandilan01dilanjutkandebatkeempatpilpres tertawalarangpemerintahandilan01dilanjutkandebatkeempatpilpres2019</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan kamubukantni bukantnikamu tnikamupecat kamupecatsandang pecatsandanggelar sandanggelarpurnawirawan kamubukantnikamu bukantnikamupecat tnikamupecatsandang kamupecatsandanggelar pecatsandanggelarpurnawirawan kamubukantnikamupecat bukantnikamupecatsandang tnikamupecatsandanggelar kamupecatsandanggelarpurnawirawan kamubukantnikamupecatsandang bukantnikamupecatsandanggelar tnikamupecatsandanggelarpurnawirawan</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 malam telah balik dia jadi sosok luar biasa efek kejut debatpilpres2019 2019malam malamtelah telahbalik balikdia diajadi jadisosok sosokluar luarbiasa biasaefek efekkejut debatpilpres2019malam 2019malamtelah malamtelahbalik telahbalikdia balikdiajadi diajadisosok jadisosokluar sosokluarbiasa luarbiasaefek biasaefekkejut debatpilpres2019malamtelah 2019malamtelahbalik malamtelahbalikdia telahbalikdiajadi balikdiajadisosok diajadisosokluar jadisosokluarbiasa sosokluarbiasaefek luarbiasaefekkejut debatpilpres2019malamtelahbalik 2019malamtelahbalikdia malamtelahbalikdiajadi telahbalikdiajadisosok balikdiajadisosokluar diajadisosokluarbiasa jadisosokluarbiasaefek sosokluarbiasaefekkejut debatpilpres2019malamtelahbalikdia 2019malamtelahbalikdiajadi malamtelahbalikdiajadisosok telahbalikdiajadisosokluar balikdiajadisosokluarbiasa diajadisosokluarbiasaefek jadisosokluarbiasaefekkejut</t>
+  </si>
+  <si>
+    <t>anak bangsa perlu bapak tegas bisa bangun karakter disiplin lihat debat bapak anakbangsa bangsaperlu perlubapak bapaktegas tegasbisa bisabangun bangunkarakter karakterdisiplin disiplinlihat lihatdebat debatbapak anakbangsaperlu bangsaperlubapak perlubapaktegas bapaktegasbisa tegasbisabangun bisabangunkarakter bangunkarakterdisiplin karakterdisiplinlihat disiplinlihatdebat lihatdebatbapak anakbangsaperlubapak bangsaperlubapaktegas perlubapaktegasbisa bapaktegasbisabangun tegasbisabangunkarakter bisabangunkarakterdisiplin bangunkarakterdisiplinlihat karakterdisiplinlihatdebat disiplinlihatdebatbapak anakbangsaperlubapaktegas bangsaperlubapaktegasbisa perlubapaktegasbisabangun bapaktegasbisabangunkarakter tegasbisabangunkarakterdisiplin bisabangunkarakterdisiplinlihat bangunkarakterdisiplinlihatdebat karakterdisiplinlihatdebatbapak anakbangsaperlubapaktegasbisa bangsaperlubapaktegasbisabangun perlubapaktegasbisabangunkarakter bapaktegasbisabangunkarakterdisiplin tegasbisabangunkarakterdisiplinlihat bisabangunkarakterdisiplinlihatdebat bangunkarakterdisiplinlihatdebatbapak</t>
+  </si>
+  <si>
+    <t>turut konflik sosial libat muslim rohingya rakhine konflik sudah sangat lama sulit turutkonflik konfliksosial sosiallibat libatmuslim muslimrohingya rohingyarakhine rakhinekonflik konfliksudah sudahsangat sangatlama lamasulit turutkonfliksosial konfliksosiallibat sosiallibatmuslim libatmuslimrohingya muslimrohingyarakhine rohingyarakhinekonflik rakhinekonfliksudah konfliksudahsangat sudahsangatlama sangatlamasulit turutkonfliksosiallibat konfliksosiallibatmuslim sosiallibatmuslimrohingya libatmuslimrohingyarakhine muslimrohingyarakhinekonflik rohingyarakhinekonfliksudah rakhinekonfliksudahsangat konfliksudahsangatlama sudahsangatlamasulit turutkonfliksosiallibatmuslim konfliksosiallibatmuslimrohingya sosiallibatmuslimrohingyarakhine libatmuslimrohingyarakhinekonflik muslimrohingyarakhinekonfliksudah rohingyarakhinekonfliksudahsangat rakhinekonfliksudahsangatlama konfliksudahsangatlamasulit turutkonfliksosiallibatmuslimrohingya konfliksosiallibatmuslimrohingyarakhine sosiallibatmuslimrohingyarakhinekonflik libatmuslimrohingyarakhinekonfliksudah muslimrohingyarakhinekonfliksudahsangat rohingyarakhinekonfliksudahsangatlama rakhinekonfliksudahsangatlamasulit</t>
+  </si>
+  <si>
+    <t>dulu ken ketawa takut dosa sekarang ken ketawa takut marah debatpilpres 2019 duluken kenketawa ketawatakut takutdosa dosasekarang sekarangken kenketawa ketawatakut takutmarah marahdebatpilpres debatpilpres2019 dulukenketawa kenketawatakut ketawatakutdosa takutdosasekarang dosasekarangken sekarangkenketawa kenketawatakut ketawatakutmarah takutmarahdebatpilpres marahdebatpilpres2019 dulukenketawatakut kenketawatakutdosa ketawatakutdosasekarang takutdosasekarangken dosasekarangkenketawa sekarangkenketawatakut kenketawatakutmarah ketawatakutmarahdebatpilpres takutmarahdebatpilpres2019 dulukenketawatakutdosa kenketawatakutdosasekarang ketawatakutdosasekarangken takutdosasekarangkenketawa dosasekarangkenketawatakut sekarangkenketawatakutmarah kenketawatakutmarahdebatpilpres ketawatakutmarahdebatpilpres2019 dulukenketawatakutdosasekarang kenketawatakutdosasekarangken ketawatakutdosasekarangkenketawa takutdosasekarangkenketawatakut dosasekarangkenketawatakutmarah sekarangkenketawatakutmarahdebatpilpres kenketawatakutmarahdebatpilpres2019</t>
+  </si>
+  <si>
+    <t>pak beri harap optimisme 01dilanjutkan https t co rxwogeijvs pakberi beriharap harapoptimisme optimisme01dilanjutkan 01dilanjutkanhttps httpst tco corxwogeijvs pakberiharap beriharapoptimisme harapoptimisme01dilanjutkan optimisme01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcorxwogeijvs pakberiharapoptimisme beriharapoptimisme01dilanjutkan harapoptimisme01dilanjutkanhttps optimisme01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcorxwogeijvs pakberiharapoptimisme01dilanjutkan beriharapoptimisme01dilanjutkanhttps harapoptimisme01dilanjutkanhttpst optimisme01dilanjutkanhttpstco 01dilanjutkanhttpstcorxwogeijvs pakberiharapoptimisme01dilanjutkanhttps beriharapoptimisme01dilanjutkanhttpst harapoptimisme01dilanjutkanhttpstco optimisme01dilanjutkanhttpstcorxwogeijvs</t>
+  </si>
+  <si>
+    <t>pak bilang pancasila final kalau mungkin beliau larang bendera larang hti kampanye pakbilang bilangpancasila pancasilafinal finalkalau kalaumungkin mungkinbeliau beliaularang larangbendera benderalarang laranghti htikampanye pakbilangpancasila bilangpancasilafinal pancasilafinalkalau finalkalaumungkin kalaumungkinbeliau mungkinbeliaularang beliaularangbendera larangbenderalarang benderalaranghti laranghtikampanye pakbilangpancasilafinal bilangpancasilafinalkalau pancasilafinalkalaumungkin finalkalaumungkinbeliau kalaumungkinbeliaularang mungkinbeliaularangbendera beliaularangbenderalarang larangbenderalaranghti benderalaranghtikampanye pakbilangpancasilafinalkalau bilangpancasilafinalkalaumungkin pancasilafinalkalaumungkinbeliau finalkalaumungkinbeliaularang kalaumungkinbeliaularangbendera mungkinbeliaularangbenderalarang beliaularangbenderalaranghti larangbenderalaranghtikampanye pakbilangpancasilafinalkalaumungkin bilangpancasilafinalkalaumungkinbeliau pancasilafinalkalaumungkinbeliaularang finalkalaumungkinbeliaularangbendera kalaumungkinbeliaularangbenderalarang mungkinbeliaularangbenderalaranghti beliaularangbenderalaranghtikampanye</t>
+  </si>
+  <si>
+    <t>hahaha habis peluru ni si buat cerita pak marah segala lah hahahahabis habispeluru peluruni nisi sibuat buatcerita ceritapak pakmarah marahsegala segalalah hahahahabispeluru habispeluruni pelurunisi nisibuat sibuatcerita buatceritapak ceritapakmarah pakmarahsegala marahsegalalah hahahahabispeluruni habispelurunisi pelurunisibuat nisibuatcerita sibuatceritapak buatceritapakmarah ceritapakmarahsegala pakmarahsegalalah hahahahabispelurunisi habispelurunisibuat pelurunisibuatcerita nisibuatceritapak sibuatceritapakmarah buatceritapakmarahsegala ceritapakmarahsegalalah hahahahabispelurunisibuat habispelurunisibuatcerita pelurunisibuatceritapak nisibuatceritapakmarah sibuatceritapakmarahsegala buatceritapakmarahsegalalah</t>
+  </si>
+  <si>
+    <t>malam minggu adalah malam baik kita saksi pak sangat elegan malamminggu mingguadalah adalahmalam malambaik baikkita kitasaksi saksipak paksangat sangatelegan malammingguadalah mingguadalahmalam adalahmalambaik malambaikkita baikkitasaksi kitasaksipak saksipaksangat paksangatelegan malammingguadalahmalam mingguadalahmalambaik adalahmalambaikkita malambaikkitasaksi baikkitasaksipak kitasaksipaksangat saksipaksangatelegan malammingguadalahmalambaik mingguadalahmalambaikkita adalahmalambaikkitasaksi malambaikkitasaksipak baikkitasaksipaksangat kitasaksipaksangatelegan malammingguadalahmalambaikkita mingguadalahmalambaikkitasaksi adalahmalambaikkitasaksipak malambaikkitasaksipaksangat baikkitasaksipaksangatelegan</t>
+  </si>
+  <si>
+    <t>bong optimis unggul debat yang usung tema ideologi aman tahan bongoptimis optimisunggul ungguldebat debatyang yangusung usungtema temaideologi ideologiaman amantahan bongoptimisunggul optimisungguldebat ungguldebatyang debatyangusung yangusungtema usungtemaideologi temaideologiaman ideologiamantahan bongoptimisungguldebat optimisungguldebatyang ungguldebatyangusung debatyangusungtema yangusungtemaideologi usungtemaideologiaman temaideologiamantahan bongoptimisungguldebatyang optimisungguldebatyangusung ungguldebatyangusungtema debatyangusungtemaideologi yangusungtemaideologiaman usungtemaideologiamantahan bongoptimisungguldebatyangusung optimisungguldebatyangusungtema ungguldebatyangusungtemaideologi debatyangusungtemaideologiaman yangusungtemaideologiamantahan</t>
+  </si>
+  <si>
+    <t>pak kalau ngeritik punya gagas tanding lebih baik jelas ketidakpastian pakkalau kalaungeritik ngeritikpunya punyagagas gagastanding tandinglebih lebihbaik baikjelas jelasketidakpastian pakkalaungeritik kalaungeritikpunya ngeritikpunyagagas punyagagastanding gagastandinglebih tandinglebihbaik lebihbaikjelas baikjelasketidakpastian pakkalaungeritikpunya kalaungeritikpunyagagas ngeritikpunyagagastanding punyagagastandinglebih gagastandinglebihbaik tandinglebihbaikjelas lebihbaikjelasketidakpastian pakkalaungeritikpunyagagas kalaungeritikpunyagagastanding ngeritikpunyagagastandinglebih punyagagastandinglebihbaik gagastandinglebihbaikjelas tandinglebihbaikjelasketidakpastian pakkalaungeritikpunyagagastanding kalaungeritikpunyagagastandinglebih ngeritikpunyagagastandinglebihbaik punyagagastandinglebihbaikjelas gagastandinglebihbaikjelasketidakpastian</t>
+  </si>
+  <si>
+    <t>takar kadar pancasila harga mati calon presiden sini pak calon presiden pecat tni kok pernah bilang dukung takarkadar kadarpancasila pancasilaharga hargamati maticalon calonpresiden presidensini sinipak pakcalon calonpresiden presidenpecat pecattni tnikok kokpernah pernahbilang bilangdukung takarkadarpancasila kadarpancasilaharga pancasilahargamati hargamaticalon maticalonpresiden calonpresidensini presidensinipak sinipakcalon pakcalonpresiden calonpresidenpecat presidenpecattni pecattnikok tnikokpernah kokpernahbilang pernahbilangdukung takarkadarpancasilaharga kadarpancasilahargamati pancasilahargamaticalon hargamaticalonpresiden maticalonpresidensini calonpresidensinipak presidensinipakcalon sinipakcalonpresiden pakcalonpresidenpecat calonpresidenpecattni presidenpecattnikok pecattnikokpernah tnikokpernahbilang kokpernahbilangdukung takarkadarpancasilahargamati kadarpancasilahargamaticalon pancasilahargamaticalonpresiden hargamaticalonpresidensini maticalonpresidensinipak calonpresidensinipakcalon presidensinipakcalonpresiden sinipakcalonpresidenpecat pakcalonpresidenpecattni calonpresidenpecattnikok presidenpecattnikokpernah pecattnikokpernahbilang tnikokpernahbilangdukung takarkadarpancasilahargamaticalon kadarpancasilahargamaticalonpresiden pancasilahargamaticalonpresidensini hargamaticalonpresidensinipak maticalonpresidensinipakcalon calonpresidensinipakcalonpresiden presidensinipakcalonpresidenpecat sinipakcalonpresidenpecattni pakcalonpresidenpecattnikok calonpresidenpecattnikokpernah presidenpecattnikokpernahbilang pecattnikokpernahbilangdukung</t>
+  </si>
+  <si>
+    <t>senyum optimis pak dhe sukses lancar debat malam ya pak tuhan kati senyumoptimis optimispak pakdhe dhesukses sukseslancar lancardebat debatmalam malamya yapak paktuhan tuhankati senyumoptimispak optimispakdhe pakdhesukses dhesukseslancar sukseslancardebat lancardebatmalam debatmalamya malamyapak yapaktuhan paktuhankati senyumoptimispakdhe optimispakdhesukses pakdhesukseslancar dhesukseslancardebat sukseslancardebatmalam lancardebatmalamya debatmalamyapak malamyapaktuhan yapaktuhankati senyumoptimispakdhesukses optimispakdhesukseslancar pakdhesukseslancardebat dhesukseslancardebatmalam sukseslancardebatmalamya lancardebatmalamyapak debatmalamyapaktuhan malamyapaktuhankati senyumoptimispakdhesukseslancar optimispakdhesukseslancardebat pakdhesukseslancardebatmalam dhesukseslancardebatmalamya sukseslancardebatmalamyapak lancardebatmalamyapaktuhan debatmalamyapaktuhankati</t>
+  </si>
+  <si>
+    <t>kalau tidak nonton debat pak menang jadi tidur alhamdulillah nyata pakde hajar kalautidak tidaknonton nontondebat debatpak pakmenang menangjadi jaditidur tiduralhamdulillah alhamdulillahnyata nyatapakde pakdehajar kalautidaknonton tidaknontondebat nontondebatpak debatpakmenang pakmenangjadi menangjaditidur jaditiduralhamdulillah tiduralhamdulillahnyata alhamdulillahnyatapakde nyatapakdehajar kalautidaknontondebat tidaknontondebatpak nontondebatpakmenang debatpakmenangjadi pakmenangjaditidur menangjaditiduralhamdulillah jaditiduralhamdulillahnyata tiduralhamdulillahnyatapakde alhamdulillahnyatapakdehajar kalautidaknontondebatpak tidaknontondebatpakmenang nontondebatpakmenangjadi debatpakmenangjaditidur pakmenangjaditiduralhamdulillah menangjaditiduralhamdulillahnyata jaditiduralhamdulillahnyatapakde tiduralhamdulillahnyatapakdehajar kalautidaknontondebatpakmenang tidaknontondebatpakmenangjadi nontondebatpakmenangjaditidur debatpakmenangjaditiduralhamdulillah pakmenangjaditiduralhamdulillahnyata menangjaditiduralhamdulillahnyatapakde jaditiduralhamdulillahnyatapakdehajar</t>
+  </si>
+  <si>
+    <t>raja hutang satu 2nya calon presiden beban hutang nila rp 7 6 triliun apa rajahutang hutangsatu satu2nya 2nyacalon calonpresiden presidenbeban bebanhutang hutangnila nilarp rp7 76 6triliun triliunapa rajahutangsatu hutangsatu2nya satu2nyacalon 2nyacalonpresiden calonpresidenbeban presidenbebanhutang bebanhutangnila hutangnilarp nilarp7 rp76 76triliun 6triliunapa rajahutangsatu2nya hutangsatu2nyacalon satu2nyacalonpresiden 2nyacalonpresidenbeban calonpresidenbebanhutang presidenbebanhutangnila bebanhutangnilarp hutangnilarp7 nilarp76 rp76triliun 76triliunapa rajahutangsatu2nyacalon hutangsatu2nyacalonpresiden satu2nyacalonpresidenbeban 2nyacalonpresidenbebanhutang calonpresidenbebanhutangnila presidenbebanhutangnilarp bebanhutangnilarp7 hutangnilarp76 nilarp76triliun rp76triliunapa rajahutangsatu2nyacalonpresiden hutangsatu2nyacalonpresidenbeban satu2nyacalonpresidenbebanhutang 2nyacalonpresidenbebanhutangnila calonpresidenbebanhutangnilarp presidenbebanhutangnilarp7 bebanhutangnilarp76 hutangnilarp76triliun nilarp76triliunapa</t>
+  </si>
+  <si>
+    <t>tak sisa sedikit celah buat lawan argumentasi memang tidak paham prabowobentengnkri taksisa sisasedikit sedikitcelah celahbuat buatlawan lawanargumentasi argumentasimemang memangtidak tidakpaham pahamprabowobentengnkri taksisasedikit sisasedikitcelah sedikitcelahbuat celahbuatlawan buatlawanargumentasi lawanargumentasimemang argumentasimemangtidak memangtidakpaham tidakpahamprabowobentengnkri taksisasedikitcelah sisasedikitcelahbuat sedikitcelahbuatlawan celahbuatlawanargumentasi buatlawanargumentasimemang lawanargumentasimemangtidak argumentasimemangtidakpaham memangtidakpahamprabowobentengnkri taksisasedikitcelahbuat sisasedikitcelahbuatlawan sedikitcelahbuatlawanargumentasi celahbuatlawanargumentasimemang buatlawanargumentasimemangtidak lawanargumentasimemangtidakpaham argumentasimemangtidakpahamprabowobentengnkri taksisasedikitcelahbuatlawan sisasedikitcelahbuatlawanargumentasi sedikitcelahbuatlawanargumentasimemang celahbuatlawanargumentasimemangtidak buatlawanargumentasimemangtidakpaham lawanargumentasimemangtidakpahamprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>fix bagai orang purbalingga banyumasan dukung pak fixbagai bagaiorang orangpurbalingga purbalinggabanyumasan banyumasandukung dukungpak fixbagaiorang bagaiorangpurbalingga orangpurbalinggabanyumasan purbalinggabanyumasandukung banyumasandukungpak fixbagaiorangpurbalingga bagaiorangpurbalinggabanyumasan orangpurbalinggabanyumasandukung purbalinggabanyumasandukungpak fixbagaiorangpurbalinggabanyumasan bagaiorangpurbalinggabanyumasandukung orangpurbalinggabanyumasandukungpak fixbagaiorangpurbalinggabanyumasandukung bagaiorangpurbalinggabanyumasandukungpak</t>
+  </si>
+  <si>
+    <t>kuat apa kurang insyallah alah teyap gagal prabowobentengnkri kuatapa apakurang kuranginsyallah insyallahalah alahteyap teyapgagal gagalprabowobentengnkri kuatapakurang apakuranginsyallah kuranginsyallahalah insyallahalahteyap alahteyapgagal teyapgagalprabowobentengnkri kuatapakuranginsyallah apakuranginsyallahalah kuranginsyallahalahteyap insyallahalahteyapgagal alahteyapgagalprabowobentengnkri kuatapakuranginsyallahalah apakuranginsyallahalahteyap kuranginsyallahalahteyapgagal insyallahalahteyapgagalprabowobentengnkri kuatapakuranginsyallahalahteyap apakuranginsyallahalahteyapgagal kuranginsyallahalahteyapgagalprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sampe bingung banyak kutip luar biasa tohok banget sampebingung bingungbanyak banyakkutip kutipluar luarbiasa biasatohok tohokbanget sampebingungbanyak bingungbanyakkutip banyakkutipluar kutipluarbiasa luarbiasatohok biasatohokbanget sampebingungbanyakkutip bingungbanyakkutipluar banyakkutipluarbiasa kutipluarbiasatohok luarbiasatohokbanget sampebingungbanyakkutipluar bingungbanyakkutipluarbiasa banyakkutipluarbiasatohok kutipluarbiasatohokbanget sampebingungbanyakkutipluarbiasa bingungbanyakkutipluarbiasatohok banyakkutipluarbiasatohokbanget</t>
+  </si>
+  <si>
+    <t>siapa pilih rakyat akan tunduk patuh - karawang maret https t co h7ihhwk8sr siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -karawang karawangmaret marethttps httpst tco coh7ihhwk8sr siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-karawang -karawangmaret karawangmarethttps marethttpst httpstco tcoh7ihhwk8sr siapapilihrakyatakan pilihrakyatakantunduk rakyatakantundukpatuh akantundukpatuh- tundukpatuh-karawang patuh-karawangmaret -karawangmarethttps karawangmarethttpst marethttpstco httpstcoh7ihhwk8sr siapapilihrakyatakantunduk pilihrakyatakantundukpatuh rakyatakantundukpatuh- akantundukpatuh-karawang tundukpatuh-karawangmaret patuh-karawangmarethttps -karawangmarethttpst karawangmarethttpstco marethttpstcoh7ihhwk8sr siapapilihrakyatakantundukpatuh pilihrakyatakantundukpatuh- rakyatakantundukpatuh-karawang akantundukpatuh-karawangmaret tundukpatuh-karawangmarethttps patuh-karawangmarethttpst -karawangmarethttpstco karawangmarethttpstcoh7ihhwk8sr</t>
+  </si>
+  <si>
+    <t>pak lebih tni tni bapak jangan inferior begini dong kata negara tak hormat paklebih lebihtni tnitni tnibapak bapakjangan janganinferior inferiorbegini beginidong dongkata katanegara negaratak takhormat paklebihtni lebihtnitni tnitnibapak tnibapakjangan bapakjanganinferior janganinferiorbegini inferiorbeginidong beginidongkata dongkatanegara katanegaratak negaratakhormat paklebihtnitni lebihtnitnibapak tnitnibapakjangan tnibapakjanganinferior bapakjanganinferiorbegini janganinferiorbeginidong inferiorbeginidongkata beginidongkatanegara dongkatanegaratak katanegaratakhormat paklebihtnitnibapak lebihtnitnibapakjangan tnitnibapakjanganinferior tnibapakjanganinferiorbegini bapakjanganinferiorbeginidong janganinferiorbeginidongkata inferiorbeginidongkatanegara beginidongkatanegaratak dongkatanegaratakhormat paklebihtnitnibapakjangan lebihtnitnibapakjanganinferior tnitnibapakjanganinferiorbegini tnibapakjanganinferiorbeginidong bapakjanganinferiorbeginidongkata janganinferiorbeginidongkatanegara inferiorbeginidongkatanegaratak beginidongkatanegaratakhormat</t>
+  </si>
+  <si>
+    <t>pecaaahh banget mashaallah sama wujud indonesia adil makmur pecaaahhbanget bangetmashaallah mashaallahsama samawujud wujudindonesia indonesiaadil adilmakmur pecaaahhbangetmashaallah bangetmashaallahsama mashaallahsamawujud samawujudindonesia wujudindonesiaadil indonesiaadilmakmur pecaaahhbangetmashaallahsama bangetmashaallahsamawujud mashaallahsamawujudindonesia samawujudindonesiaadil wujudindonesiaadilmakmur pecaaahhbangetmashaallahsamawujud bangetmashaallahsamawujudindonesia mashaallahsamawujudindonesiaadil samawujudindonesiaadilmakmur pecaaahhbangetmashaallahsamawujudindonesia bangetmashaallahsamawujudindonesiaadil mashaallahsamawujudindonesiaadilmakmur</t>
+  </si>
+  <si>
+    <t>pikir kalau benar serang armada perang ada sekarang bukan ketawa malah nang darah pikirkalau kalaubenar benarserang serangarmada armadaperang perangada adasekarang sekarangbukan bukanketawa ketawamalah malahnang nangdarah pikirkalaubenar kalaubenarserang benarserangarmada serangarmadaperang armadaperangada perangadasekarang adasekarangbukan sekarangbukanketawa bukanketawamalah ketawamalahnang malahnangdarah pikirkalaubenarserang kalaubenarserangarmada benarserangarmadaperang serangarmadaperangada armadaperangadasekarang perangadasekarangbukan adasekarangbukanketawa sekarangbukanketawamalah bukanketawamalahnang ketawamalahnangdarah pikirkalaubenarserangarmada kalaubenarserangarmadaperang benarserangarmadaperangada serangarmadaperangadasekarang armadaperangadasekarangbukan perangadasekarangbukanketawa adasekarangbukanketawamalah sekarangbukanketawamalahnang bukanketawamalahnangdarah pikirkalaubenarserangarmadaperang kalaubenarserangarmadaperangada benarserangarmadaperangadasekarang serangarmadaperangadasekarangbukan armadaperangadasekarangbukanketawa perangadasekarangbukanketawamalah adasekarangbukanketawamalahnang sekarangbukanketawamalahnangdarah</t>
+  </si>
+  <si>
+    <t>terima kasih rakyat jambi insyallah allah akan jumpa di masa lebih baik merdeka https t co ms7crkhozf terimakasih kasihrakyat rakyatjambi jambiinsyallah insyallahallah allahakan akanjumpa jumpadi dimasa masalebih lebihbaik baikmerdeka merdekahttps httpst tco coms7crkhozf terimakasihrakyat kasihrakyatjambi rakyatjambiinsyallah jambiinsyallahallah insyallahallahakan allahakanjumpa akanjumpadi jumpadimasa dimasalebih masalebihbaik lebihbaikmerdeka baikmerdekahttps merdekahttpst httpstco tcoms7crkhozf terimakasihrakyatjambi kasihrakyatjambiinsyallah rakyatjambiinsyallahallah jambiinsyallahallahakan insyallahallahakanjumpa allahakanjumpadi akanjumpadimasa jumpadimasalebih dimasalebihbaik masalebihbaikmerdeka lebihbaikmerdekahttps baikmerdekahttpst merdekahttpstco httpstcoms7crkhozf terimakasihrakyatjambiinsyallah kasihrakyatjambiinsyallahallah rakyatjambiinsyallahallahakan jambiinsyallahallahakanjumpa insyallahallahakanjumpadi allahakanjumpadimasa akanjumpadimasalebih jumpadimasalebihbaik dimasalebihbaikmerdeka masalebihbaikmerdekahttps lebihbaikmerdekahttpst baikmerdekahttpstco merdekahttpstcoms7crkhozf terimakasihrakyatjambiinsyallahallah kasihrakyatjambiinsyallahallahakan rakyatjambiinsyallahallahakanjumpa jambiinsyallahallahakanjumpadi insyallahallahakanjumpadimasa allahakanjumpadimasalebih akanjumpadimasalebihbaik jumpadimasalebihbaikmerdeka dimasalebihbaikmerdekahttps masalebihbaikmerdekahttpst lebihbaikmerdekahttpstco baikmerdekahttpstcoms7crkhozf</t>
+  </si>
+  <si>
+    <t>ibu fatimah kalla adik pak jusuf kalla dukung sandi jokowi silah ngaciro ibufatimah fatimahkalla kallaadik adikpak pakjusuf jusufkalla kalladukung dukungsandi sandijokowi jokowisilah silahngaciro ibufatimahkalla fatimahkallaadik kallaadikpak adikpakjusuf pakjusufkalla jusufkalladukung kalladukungsandi dukungsandijokowi sandijokowisilah jokowisilahngaciro ibufatimahkallaadik fatimahkallaadikpak kallaadikpakjusuf adikpakjusufkalla pakjusufkalladukung jusufkalladukungsandi kalladukungsandijokowi dukungsandijokowisilah sandijokowisilahngaciro ibufatimahkallaadikpak fatimahkallaadikpakjusuf kallaadikpakjusufkalla adikpakjusufkalladukung pakjusufkalladukungsandi jusufkalladukungsandijokowi kalladukungsandijokowisilah dukungsandijokowisilahngaciro ibufatimahkallaadikpakjusuf fatimahkallaadikpakjusufkalla kallaadikpakjusufkalladukung adikpakjusufkalladukungsandi pakjusufkalladukungsandijokowi jusufkalladukungsandijokowisilah kalladukungsandijokowisilahngaciro</t>
+  </si>
+  <si>
+    <t>pantai panjang bengkulu bumi raflesia terima kasih jaga tps kalian masing-masing jangan demokrasi akal pantaipanjang panjangbengkulu bengkulubumi bumiraflesia raflesiaterima terimakasih kasihjaga jagatps tpskalian kalianmasing-masing masing-masingjangan jangandemokrasi demokrasiakal pantaipanjangbengkulu panjangbengkulubumi bengkulubumiraflesia bumiraflesiaterima raflesiaterimakasih terimakasihjaga kasihjagatps jagatpskalian tpskalianmasing-masing kalianmasing-masingjangan masing-masingjangandemokrasi jangandemokrasiakal pantaipanjangbengkulubumi panjangbengkulubumiraflesia bengkulubumiraflesiaterima bumiraflesiaterimakasih raflesiaterimakasihjaga terimakasihjagatps kasihjagatpskalian jagatpskalianmasing-masing tpskalianmasing-masingjangan kalianmasing-masingjangandemokrasi masing-masingjangandemokrasiakal pantaipanjangbengkulubumiraflesia panjangbengkulubumiraflesiaterima bengkulubumiraflesiaterimakasih bumiraflesiaterimakasihjaga raflesiaterimakasihjagatps terimakasihjagatpskalian kasihjagatpskalianmasing-masing jagatpskalianmasing-masingjangan tpskalianmasing-masingjangandemokrasi kalianmasing-masingjangandemokrasiakal pantaipanjangbengkulubumiraflesiaterima panjangbengkulubumiraflesiaterimakasih bengkulubumiraflesiaterimakasihjaga bumiraflesiaterimakasihjagatps raflesiaterimakasihjagatpskalian terimakasihjagatpskalianmasing-masing kasihjagatpskalianmasing-masingjangan jagatpskalianmasing-masingjangandemokrasi tpskalianmasing-masingjangandemokrasiakal</t>
+  </si>
+  <si>
+    <t>marah si jayen sok tahu sebut indonesia ratus suku bangsa marahsi sijayen jayensok soktahu tahusebut sebutindonesia indonesiaratus ratussuku sukubangsa marahsijayen sijayensok jayensoktahu soktahusebut tahusebutindonesia sebutindonesiaratus indonesiaratussuku ratussukubangsa marahsijayensok sijayensoktahu jayensoktahusebut soktahusebutindonesia tahusebutindonesiaratus sebutindonesiaratussuku indonesiaratussukubangsa marahsijayensoktahu sijayensoktahusebut jayensoktahusebutindonesia soktahusebutindonesiaratus tahusebutindonesiaratussuku sebutindonesiaratussukubangsa marahsijayensoktahusebut sijayensoktahusebutindonesia jayensoktahusebutindonesiaratus soktahusebutindonesiaratussuku tahusebutindonesiaratussukubangsa</t>
+  </si>
+  <si>
+    <t>kok malah bangga songong betul sih om eee panjoel genderuwo kokmalah malahbangga banggasongong songongbetul betulsih sihom omeee eeepanjoel panjoelgenderuwo kokmalahbangga malahbanggasongong banggasongongbetul songongbetulsih betulsihom sihomeee omeeepanjoel eeepanjoelgenderuwo kokmalahbanggasongong malahbanggasongongbetul banggasongongbetulsih songongbetulsihom betulsihomeee sihomeeepanjoel omeeepanjoelgenderuwo kokmalahbanggasongongbetul malahbanggasongongbetulsih banggasongongbetulsihom songongbetulsihomeee betulsihomeeepanjoel sihomeeepanjoelgenderuwo kokmalahbanggasongongbetulsih malahbanggasongongbetulsihom banggasongongbetulsihomeee songongbetulsihomeeepanjoel betulsihomeeepanjoelgenderuwo</t>
+  </si>
+  <si>
+    <t>duh jadi melow gitu akhir mas tak laku closing statement lebih prabowobentengnkri duhjadi jadimelow melowgitu gituakhir akhirmas mastak taklaku lakuclosing closingstatement statementlebih lebihprabowobentengnkri duhjadimelow jadimelowgitu melowgituakhir gituakhirmas akhirmastak mastaklaku taklakuclosing lakuclosingstatement closingstatementlebih statementlebihprabowobentengnkri duhjadimelowgitu jadimelowgituakhir melowgituakhirmas gituakhirmastak akhirmastaklaku mastaklakuclosing taklakuclosingstatement lakuclosingstatementlebih closingstatementlebihprabowobentengnkri duhjadimelowgituakhir jadimelowgituakhirmas melowgituakhirmastak gituakhirmastaklaku akhirmastaklakuclosing mastaklakuclosingstatement taklakuclosingstatementlebih lakuclosingstatementlebihprabowobentengnkri duhjadimelowgituakhirmas jadimelowgituakhirmastak melowgituakhirmastaklaku gituakhirmastaklakuclosing akhirmastaklakuclosingstatement mastaklakuclosingstatementlebih taklakuclosingstatementlebihprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>agak fatal ketika sampai klaim orang banyumas sebut keras salah banget agakfatal fatalketika ketikasampai sampaiklaim klaimorang orangbanyumas banyumassebut sebutkeras kerassalah salahbanget agakfatalketika fatalketikasampai ketikasampaiklaim sampaiklaimorang klaimorangbanyumas orangbanyumassebut banyumassebutkeras sebutkerassalah kerassalahbanget agakfatalketikasampai fatalketikasampaiklaim ketikasampaiklaimorang sampaiklaimorangbanyumas klaimorangbanyumassebut orangbanyumassebutkeras banyumassebutkerassalah sebutkerassalahbanget agakfatalketikasampaiklaim fatalketikasampaiklaimorang ketikasampaiklaimorangbanyumas sampaiklaimorangbanyumassebut klaimorangbanyumassebutkeras orangbanyumassebutkerassalah banyumassebutkerassalahbanget agakfatalketikasampaiklaimorang fatalketikasampaiklaimorangbanyumas ketikasampaiklaimorangbanyumassebut sampaiklaimorangbanyumassebutkeras klaimorangbanyumassebutkerassalah orangbanyumassebutkerassalahbanget</t>
+  </si>
+  <si>
+    <t>innalillaahi wa innailaihiraaji un keluarga besar turut duka cita innalillaahiwa wainnailaihiraaji innailaihiraajiun unkeluarga keluargabesar besarturut turutduka dukacita innalillaahiwainnailaihiraaji wainnailaihiraajiun innailaihiraajiunkeluarga unkeluargabesar keluargabesarturut besarturutduka turutdukacita innalillaahiwainnailaihiraajiun wainnailaihiraajiunkeluarga innailaihiraajiunkeluargabesar unkeluargabesarturut keluargabesarturutduka besarturutdukacita innalillaahiwainnailaihiraajiunkeluarga wainnailaihiraajiunkeluargabesar innailaihiraajiunkeluargabesarturut unkeluargabesarturutduka keluargabesarturutdukacita innalillaahiwainnailaihiraajiunkeluargabesar wainnailaihiraajiunkeluargabesarturut innailaihiraajiunkeluargabesarturutduka unkeluargabesarturutdukacita bela sungkawa belasungkawa</t>
+  </si>
+  <si>
+    <t>kata tni milik budaya asal bapak senang asal bapak senang ini efek pernah pecat tni katatni tnimilik milikbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangini iniefek efekpernah pernahpecat pecattni katatnimilik tnimilikbudaya milikbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangini senanginiefek iniefekpernah efekpernahpecat pernahpecattni katatnimilikbudaya tnimilikbudayaasal milikbudayaasalbapak budayaasalbapaksenang asalbapaksenangasal bapaksenangasalbapak senangasalbapaksenang asalbapaksenangini bapaksenanginiefek senanginiefekpernah iniefekpernahpecat efekpernahpecattni katatnimilikbudayaasal tnimilikbudayaasalbapak milikbudayaasalbapaksenang budayaasalbapaksenangasal asalbapaksenangasalbapak bapaksenangasalbapaksenang senangasalbapaksenangini asalbapaksenanginiefek bapaksenanginiefekpernah senanginiefekpernahpecat iniefekpernahpecattni katatnimilikbudayaasalbapak tnimilikbudayaasalbapaksenang milikbudayaasalbapaksenangasal budayaasalbapaksenangasalbapak asalbapaksenangasalbapaksenang bapaksenangasalbapaksenangini senangasalbapaksenanginiefek asalbapaksenanginiefekpernah bapaksenanginiefekpernahpecat senanginiefekpernahpecattni</t>
+  </si>
+  <si>
+    <t>pak tenang banget hari paktenang tenangbanget bangethari paktenangbanget tenangbangethari paktenangbangethari</t>
+  </si>
+  <si>
+    <t>terus kok si pecat omong doang ejek hina tni rapuh teruskok koksi sipecat pecatomong omongdoang doangejek ejekhina hinatni tnirapuh teruskoksi koksipecat sipecatomong pecatomongdoang omongdoangejek doangejekhina ejekhinatni hinatnirapuh teruskoksipecat koksipecatomong sipecatomongdoang pecatomongdoangejek omongdoangejekhina doangejekhinatni ejekhinatnirapuh teruskoksipecatomong koksipecatomongdoang sipecatomongdoangejek pecatomongdoangejekhina omongdoangejekhinatni doangejekhinatnirapuh teruskoksipecatomongdoang koksipecatomongdoangejek sipecatomongdoangejekhina pecatomongdoangejekhinatni omongdoangejekhinatnirapuh</t>
+  </si>
+  <si>
+    <t>salawi masuk neraka neraka panas mana jangan mana infrastruktur langit kalian janji salawimasuk masukneraka nerakaneraka nerakapanas panasmana manajangan janganmana manainfrastruktur infrastrukturlangit langitkalian kalianjanji salawimasukneraka masuknerakaneraka nerakanerakapanas nerakapanasmana panasmanajangan manajanganmana janganmanainfrastruktur manainfrastrukturlangit infrastrukturlangitkalian langitkalianjanji salawimasuknerakaneraka masuknerakanerakapanas nerakanerakapanasmana nerakapanasmanajangan panasmanajanganmana manajanganmanainfrastruktur janganmanainfrastrukturlangit manainfrastrukturlangitkalian infrastrukturlangitkalianjanji salawimasuknerakanerakapanas masuknerakanerakapanasmana nerakanerakapanasmanajangan nerakapanasmanajanganmana panasmanajanganmanainfrastruktur manajanganmanainfrastrukturlangit janganmanainfrastrukturlangitkalian manainfrastrukturlangitkalianjanji salawimasuknerakanerakapanasmana masuknerakanerakapanasmanajangan nerakanerakapanasmanajanganmana nerakapanasmanajanganmanainfrastruktur panasmanajanganmanainfrastrukturlangit manajanganmanainfrastrukturlangitkalian janganmanainfrastrukturlangitkalianjanji</t>
+  </si>
+  <si>
+    <t>catat pak sudah laku delapan bohong besar tahun beberapa bohong lai catatpak paksudah sudahlaku lakudelapan delapanbohong bohongbesar besartahun tahunbeberapa beberapabohong bohonglai catatpaksudah paksudahlaku sudahlakudelapan lakudelapanbohong delapanbohongbesar bohongbesartahun besartahunbeberapa tahunbeberapabohong beberapabohonglai catatpaksudahlaku paksudahlakudelapan sudahlakudelapanbohong lakudelapanbohongbesar delapanbohongbesartahun bohongbesartahunbeberapa besartahunbeberapabohong tahunbeberapabohonglai catatpaksudahlakudelapan paksudahlakudelapanbohong sudahlakudelapanbohongbesar lakudelapanbohongbesartahun delapanbohongbesartahunbeberapa bohongbesartahunbeberapabohong besartahunbeberapabohonglai catatpaksudahlakudelapanbohong paksudahlakudelapanbohongbesar sudahlakudelapanbohongbesartahun lakudelapanbohongbesartahunbeberapa delapanbohongbesartahunbeberapabohong bohongbesartahunbeberapabohonglai</t>
+  </si>
+  <si>
+    <t>arus ubah tak bendung era tiba prabowobentengnkri arusubah ubahtak takbendung bendungera eratiba tibaprabowobentengnkri arusubahtak ubahtakbendung takbendungera bendungeratiba eratibaprabowobentengnkri arusubahtakbendung ubahtakbendungera takbendungeratiba bendungeratibaprabowobentengnkri arusubahtakbendungera ubahtakbendungeratiba takbendungeratibaprabowobentengnkri arusubahtakbendungeratiba ubahtakbendungeratibaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>beri kesan bagai orang orator cara essensi banyak terlalu subjektif berikesan kesanbagai bagaiorang orangorator oratorcara caraessensi essensibanyak banyakterlalu terlalusubjektif berikesanbagai kesanbagaiorang bagaiorangorator orangoratorcara oratorcaraessensi caraessensibanyak essensibanyakterlalu banyakterlalusubjektif berikesanbagaiorang kesanbagaiorangorator bagaiorangoratorcara orangoratorcaraessensi oratorcaraessensibanyak caraessensibanyakterlalu essensibanyakterlalusubjektif berikesanbagaiorangorator kesanbagaiorangoratorcara bagaiorangoratorcaraessensi orangoratorcaraessensibanyak oratorcaraessensibanyakterlalu caraessensibanyakterlalusubjektif berikesanbagaiorangoratorcara kesanbagaiorangoratorcaraessensi bagaiorangoratorcaraessensibanyak orangoratorcaraessensibanyakterlalu oratorcaraessensibanyakterlalusubjektif</t>
+  </si>
+  <si>
+    <t>rindu cinta sayang mari menang beliau jemput pulang rinducinta cintasayang sayangmari marimenang menangbeliau beliaujemput jemputpulang rinducintasayang cintasayangmari sayangmarimenang marimenangbeliau menangbeliaujemput beliaujemputpulang rinducintasayangmari cintasayangmarimenang sayangmarimenangbeliau marimenangbeliaujemput menangbeliaujemputpulang rinducintasayangmarimenang cintasayangmarimenangbeliau sayangmarimenangbeliaujemput marimenangbeliaujemputpulang rinducintasayangmarimenangbeliau cintasayangmarimenangbeliaujemput sayangmarimenangbeliaujemputpulang</t>
+  </si>
+  <si>
+    <t>lihat kalian fitnah anti islam mesjid at-taqarrub luluh lantak gempa aceh lalu lihatkalian kalianfitnah fitnahanti antiislam islammesjid mesjidat-taqarrub at-taqarrubluluh luluhlantak lantakgempa gempaaceh acehlalu lihatkalianfitnah kalianfitnahanti fitnahantiislam antiislammesjid islammesjidat-taqarrub mesjidat-taqarrubluluh at-taqarrubluluhlantak luluhlantakgempa lantakgempaaceh gempaacehlalu lihatkalianfitnahanti kalianfitnahantiislam fitnahantiislammesjid antiislammesjidat-taqarrub islammesjidat-taqarrubluluh mesjidat-taqarrubluluhlantak at-taqarrubluluhlantakgempa luluhlantakgempaaceh lantakgempaacehlalu lihatkalianfitnahantiislam kalianfitnahantiislammesjid fitnahantiislammesjidat-taqarrub antiislammesjidat-taqarrubluluh islammesjidat-taqarrubluluhlantak mesjidat-taqarrubluluhlantakgempa at-taqarrubluluhlantakgempaaceh luluhlantakgempaacehlalu lihatkalianfitnahantiislammesjid kalianfitnahantiislammesjidat-taqarrub fitnahantiislammesjidat-taqarrubluluh antiislammesjidat-taqarrubluluhlantak islammesjidat-taqarrubluluhlantakgempa mesjidat-taqarrubluluhlantakgempaaceh at-taqarrubluluhlantakgempaacehlalu</t>
+  </si>
+  <si>
+    <t>lho kok aneh sini menang tidak punya partai bukan buzzer pampang nyata lhokok kokaneh anehsini sinimenang menangtidak tidakpunya punyapartai partaibukan bukanbuzzer buzzerpampang pampangnyata lhokokaneh kokanehsini anehsinimenang sinimenangtidak menangtidakpunya tidakpunyapartai punyapartaibukan partaibukanbuzzer bukanbuzzerpampang buzzerpampangnyata lhokokanehsini kokanehsinimenang anehsinimenangtidak sinimenangtidakpunya menangtidakpunyapartai tidakpunyapartaibukan punyapartaibukanbuzzer partaibukanbuzzerpampang bukanbuzzerpampangnyata lhokokanehsinimenang kokanehsinimenangtidak anehsinimenangtidakpunya sinimenangtidakpunyapartai menangtidakpunyapartaibukan tidakpunyapartaibukanbuzzer punyapartaibukanbuzzerpampang partaibukanbuzzerpampangnyata lhokokanehsinimenangtidak kokanehsinimenangtidakpunya anehsinimenangtidakpunyapartai sinimenangtidakpunyapartaibukan menangtidakpunyapartaibukanbuzzer tidakpunyapartaibukanbuzzerpampang punyapartaibukanbuzzerpampangnyata</t>
+  </si>
+  <si>
+    <t>ibu ibu lawan biar larang kampanye mall penting menang prabowodansandipilihanrakyat ibuibu ibulawan lawanbiar biarlarang larangkampanye kampanyemall mallpenting pentingmenang menangprabowodansandipilihanrakyat ibuibulawan ibulawanbiar lawanbiarlarang biarlarangkampanye larangkampanyemall kampanyemallpenting mallpentingmenang pentingmenangprabowodansandipilihanrakyat ibuibulawanbiar ibulawanbiarlarang lawanbiarlarangkampanye biarlarangkampanyemall larangkampanyemallpenting kampanyemallpentingmenang mallpentingmenangprabowodansandipilihanrakyat ibuibulawanbiarlarang ibulawanbiarlarangkampanye lawanbiarlarangkampanyemall biarlarangkampanyemallpenting larangkampanyemallpentingmenang kampanyemallpentingmenangprabowodansandipilihanrakyat ibuibulawanbiarlarangkampanye ibulawanbiarlarangkampanyemall lawanbiarlarangkampanyemallpenting biarlarangkampanyemallpentingmenang larangkampanyemallpentingmenangprabowodansandipilihanrakyat</t>
+  </si>
+  <si>
+    <t>yes akhir bilang turut pribadi yang jahat orang belakang pak yesakhir akhirbilang bilangturut turutpribadi pribadiyang yangjahat jahatorang orangbelakang belakangpak yesakhirbilang akhirbilangturut bilangturutpribadi turutpribadiyang pribadiyangjahat yangjahatorang jahatorangbelakang orangbelakangpak yesakhirbilangturut akhirbilangturutpribadi bilangturutpribadiyang turutpribadiyangjahat pribadiyangjahatorang yangjahatorangbelakang jahatorangbelakangpak yesakhirbilangturutpribadi akhirbilangturutpribadiyang bilangturutpribadiyangjahat turutpribadiyangjahatorang pribadiyangjahatorangbelakang yangjahatorangbelakangpak yesakhirbilangturutpribadiyang akhirbilangturutpribadiyangjahat bilangturutpribadiyangjahatorang turutpribadiyangjahatorangbelakang pribadiyangjahatorangbelakangpak</t>
+  </si>
+  <si>
+    <t>arti jokowidiambangkekalahan lihat lebih banyak tunduk tolah toleh bingung artijokowidiambangkekalahan jokowidiambangkekalahanlihat lihatlebih lebihbanyak banyaktunduk tunduktolah tolahtoleh tolehbingung artijokowidiambangkekalahanlihat jokowidiambangkekalahanlihatlebih lihatlebihbanyak lebihbanyaktunduk banyaktunduktolah tunduktolahtoleh tolahtolehbingung artijokowidiambangkekalahanlihatlebih jokowidiambangkekalahanlihatlebihbanyak lihatlebihbanyaktunduk lebihbanyaktunduktolah banyaktunduktolahtoleh tunduktolahtolehbingung artijokowidiambangkekalahanlihatlebihbanyak jokowidiambangkekalahanlihatlebihbanyaktunduk lihatlebihbanyaktunduktolah lebihbanyaktunduktolahtoleh banyaktunduktolahtolehbingung artijokowidiambangkekalahanlihatlebihbanyaktunduk jokowidiambangkekalahanlihatlebihbanyaktunduktolah lihatlebihbanyaktunduktolahtoleh lebihbanyaktunduktolahtolehbingung</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental kalang tni sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentalkalang kalangtni sebutbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangkental senangkentalkalang kentalkalangtni sebutbudayaasalbapak budayaasalbapaksenang asalbapaksenangasal bapaksenangasalbapak senangasalbapaksenang asalbapaksenangkental bapaksenangkentalkalang senangkentalkalangtni sebutbudayaasalbapaksenang budayaasalbapaksenangasal asalbapaksenangasalbapak bapaksenangasalbapaksenang senangasalbapaksenangkental asalbapaksenangkentalkalang bapaksenangkentalkalangtni sebutbudayaasalbapaksenangasal budayaasalbapaksenangasalbapak asalbapaksenangasalbapaksenang bapaksenangasalbapaksenangkental senangasalbapaksenangkentalkalang asalbapaksenangkentalkalangtni</t>
+  </si>
+  <si>
+    <t>terima kasih jenderal ku malam kamu beri harap rakyat yakin pilih tepat terimakasih kasihjenderal jenderalku kumalam malamkamu kamuberi beriharap haraprakyat rakyatyakin yakinpilih pilihtepat terimakasihjenderal kasihjenderalku jenderalkumalam kumalamkamu malamkamuberi kamuberiharap beriharaprakyat haraprakyatyakin rakyatyakinpilih yakinpilihtepat terimakasihjenderalku kasihjenderalkumalam jenderalkumalamkamu kumalamkamuberi malamkamuberiharap kamuberiharaprakyat beriharaprakyatyakin haraprakyatyakinpilih rakyatyakinpilihtepat terimakasihjenderalkumalam kasihjenderalkumalamkamu jenderalkumalamkamuberi kumalamkamuberiharap malamkamuberiharaprakyat kamuberiharaprakyatyakin beriharaprakyatyakinpilih haraprakyatyakinpilihtepat terimakasihjenderalkumalamkamu kasihjenderalkumalamkamuberi jenderalkumalamkamuberiharap kumalamkamuberiharaprakyat malamkamuberiharaprakyatyakin kamuberiharaprakyatyakinpilih beriharaprakyatyakinpilihtepat</t>
+  </si>
+  <si>
+    <t>dasar tukang bohong kapan henti bohong pak kpk diri tahun ngawur kamu jokowi dasartukang tukangbohong bohongkapan kapanhenti hentibohong bohongpak pakkpk kpkdiri diritahun tahunngawur ngawurkamu kamujokowi dasartukangbohong tukangbohongkapan bohongkapanhenti kapanhentibohong hentibohongpak bohongpakkpk pakkpkdiri kpkdiritahun diritahunngawur tahunngawurkamu ngawurkamujokowi dasartukangbohongkapan tukangbohongkapanhenti bohongkapanhentibohong kapanhentibohongpak hentibohongpakkpk bohongpakkpkdiri pakkpkdiritahun kpkdiritahunngawur diritahunngawurkamu tahunngawurkamujokowi dasartukangbohongkapanhenti tukangbohongkapanhentibohong bohongkapanhentibohongpak kapanhentibohongpakkpk hentibohongpakkpkdiri bohongpakkpkdiritahun pakkpkdiritahunngawur kpkdiritahunngawurkamu diritahunngawurkamujokowi dasartukangbohongkapanhentibohong tukangbohongkapanhentibohongpak bohongkapanhentibohongpakkpk kapanhentibohongpakkpkdiri hentibohongpakkpkdiritahun bohongpakkpkdiritahunngawur pakkpkdiritahunngawurkamu kpkdiritahunngawurkamujokowi</t>
+  </si>
+  <si>
+    <t>sejahtera tni lama tahun perintah gaji tni pernah naik sejahtera tni jangan kurang sejahteratni tnilama lamatahun tahunperintah perintahgaji gajitni tnipernah pernahnaik naiksejahtera sejahteratni tnijangan jangankurang sejahteratnilama tnilamatahun lamatahunperintah tahunperintahgaji perintahgajitni gajitnipernah tnipernahnaik pernahnaiksejahtera naiksejahteratni sejahteratnijangan tnijangankurang sejahteratnilamatahun tnilamatahunperintah lamatahunperintahgaji tahunperintahgajitni perintahgajitnipernah gajitnipernahnaik tnipernahnaiksejahtera pernahnaiksejahteratni naiksejahteratnijangan sejahteratnijangankurang sejahteratnilamatahunperintah tnilamatahunperintahgaji lamatahunperintahgajitni tahunperintahgajitnipernah perintahgajitnipernahnaik gajitnipernahnaiksejahtera tnipernahnaiksejahteratni pernahnaiksejahteratnijangan naiksejahteratnijangankurang sejahteratnilamatahunperintahgaji tnilamatahunperintahgajitni lamatahunperintahgajitnipernah tahunperintahgajitnipernahnaik perintahgajitnipernahnaiksejahtera gajitnipernahnaiksejahteratni tnipernahnaiksejahteratnijangan pernahnaiksejahteratnijangankurang</t>
+  </si>
+  <si>
+    <t>catat tanggal siap diri putih gbk sama sabtu april asjb barengjokowi asjb putihkangbk catattanggal tanggalsiap siapdiri diriputih putihgbk gbksama samasabtu sabtuapril aprilasjb asjbbarengjokowi barengjokowiasjb asjbputihkangbk catattanggalsiap tanggalsiapdiri siapdiriputih diriputihgbk putihgbksama gbksamasabtu samasabtuapril sabtuaprilasjb aprilasjbbarengjokowi asjbbarengjokowiasjb barengjokowiasjbputihkangbk catattanggalsiapdiri tanggalsiapdiriputih siapdiriputihgbk diriputihgbksama putihgbksamasabtu gbksamasabtuapril samasabtuaprilasjb sabtuaprilasjbbarengjokowi aprilasjbbarengjokowiasjb asjbbarengjokowiasjbputihkangbk catattanggalsiapdiriputih tanggalsiapdiriputihgbk siapdiriputihgbksama diriputihgbksamasabtu putihgbksamasabtuapril gbksamasabtuaprilasjb samasabtuaprilasjbbarengjokowi sabtuaprilasjbbarengjokowiasjb aprilasjbbarengjokowiasjbputihkangbk catattanggalsiapdiriputihgbk tanggalsiapdiriputihgbksama siapdiriputihgbksamasabtu diriputihgbksamasabtuapril putihgbksamasabtuaprilasjb gbksamasabtuaprilasjbbarengjokowi samasabtuaprilasjbbarengjokowiasjb sabtuaprilasjbbarengjokowiasjbputihkangbk</t>
+  </si>
+  <si>
+    <t>kaya suatu bangsa kalau jaga suatu kuat tahan kuat tidak mungkin - kayasuatu suatubangsa bangsakalau kalaujaga jagasuatu suatukuat kuattahan tahankuat kuattidak tidakmungkin mungkin- kayasuatubangsa suatubangsakalau bangsakalaujaga kalaujagasuatu jagasuatukuat suatukuattahan kuattahankuat tahankuattidak kuattidakmungkin tidakmungkin- kayasuatubangsakalau suatubangsakalaujaga bangsakalaujagasuatu kalaujagasuatukuat jagasuatukuattahan suatukuattahankuat kuattahankuattidak tahankuattidakmungkin kuattidakmungkin- kayasuatubangsakalaujaga suatubangsakalaujagasuatu bangsakalaujagasuatukuat kalaujagasuatukuattahan jagasuatukuattahankuat suatukuattahankuattidak kuattahankuattidakmungkin tahankuattidakmungkin- kayasuatubangsakalaujagasuatu suatubangsakalaujagasuatukuat bangsakalaujagasuatukuattahan kalaujagasuatukuattahankuat jagasuatukuattahankuattidak suatukuattahankuattidakmungkin kuattahankuattidakmungkin-</t>
+  </si>
+  <si>
+    <t>tanah papua memang selalu penuh hangat kunjung merauke lebih asa pulang kampung pada kampanye tanahpapua papuamemang memangselalu selalupenuh penuhhangat hangatkunjung kunjungmerauke meraukelebih lebihasa asapulang pulangkampung kampungpada padakampanye tanahpapuamemang papuamemangselalu memangselalupenuh selalupenuhhangat penuhhangatkunjung hangatkunjungmerauke kunjungmeraukelebih meraukelebihasa lebihasapulang asapulangkampung pulangkampungpada kampungpadakampanye tanahpapuamemangselalu papuamemangselalupenuh memangselalupenuhhangat selalupenuhhangatkunjung penuhhangatkunjungmerauke hangatkunjungmeraukelebih kunjungmeraukelebihasa meraukelebihasapulang lebihasapulangkampung asapulangkampungpada pulangkampungpadakampanye tanahpapuamemangselalupenuh papuamemangselalupenuhhangat memangselalupenuhhangatkunjung selalupenuhhangatkunjungmerauke penuhhangatkunjungmeraukelebih hangatkunjungmeraukelebihasa kunjungmeraukelebihasapulang meraukelebihasapulangkampung lebihasapulangkampungpada asapulangkampungpadakampanye tanahpapuamemangselalupenuhhangat papuamemangselalupenuhhangatkunjung memangselalupenuhhangatkunjungmerauke selalupenuhhangatkunjungmeraukelebih penuhhangatkunjungmeraukelebihasa hangatkunjungmeraukelebihasapulang kunjungmeraukelebihasapulangkampung meraukelebihasapulangkampungpada lebihasapulangkampungpadakampanye</t>
+  </si>
+  <si>
+    <t>lama kawan lalu musuh lama tetangga lalu tak saling bicara semua karena beda pilih lamakawan kawanlalu lalumusuh musuhlama lamatetangga tetanggalalu lalutak taksaling salingbicara bicarasemua semuakarena karenabeda bedapilih lamakawanlalu kawanlalumusuh lalumusuhlama musuhlamatetangga lamatetanggalalu tetanggalalutak lalutaksaling taksalingbicara salingbicarasemua bicarasemuakarena semuakarenabeda karenabedapilih lamakawanlalumusuh kawanlalumusuhlama lalumusuhlamatetangga musuhlamatetanggalalu lamatetanggalalutak tetanggalalutaksaling lalutaksalingbicara taksalingbicarasemua salingbicarasemuakarena bicarasemuakarenabeda semuakarenabedapilih lamakawanlalumusuhlama kawanlalumusuhlamatetangga lalumusuhlamatetanggalalu musuhlamatetanggalalutak lamatetanggalalutaksaling tetanggalalutaksalingbicara lalutaksalingbicarasemua taksalingbicarasemuakarena salingbicarasemuakarenabeda bicarasemuakarenabedapilih lamakawanlalumusuhlamatetangga kawanlalumusuhlamatetanggalalu lalumusuhlamatetanggalalutak musuhlamatetanggalalutaksaling lamatetanggalalutaksalingbicara tetanggalalutaksalingbicarasemua lalutaksalingbicarasemuakarena taksalingbicarasemuakarenabeda salingbicarasemuakarenabedapilih</t>
+  </si>
+  <si>
+    <t>sangat percaya mampu tni kata calon presiden pecat tni https t co kc5cpgca0n sangatpercaya percayamampu mamputni tnikata katacalon calonpresiden presidenpecat pecattni tnihttps httpst tco cokc5cpgca0n sangatpercayamampu percayamamputni mamputnikata tnikatacalon katacalonpresiden calonpresidenpecat presidenpecattni pecattnihttps tnihttpst httpstco tcokc5cpgca0n sangatpercayamamputni percayamamputnikata mamputnikatacalon tnikatacalonpresiden katacalonpresidenpecat calonpresidenpecattni presidenpecattnihttps pecattnihttpst tnihttpstco httpstcokc5cpgca0n sangatpercayamamputnikata percayamamputnikatacalon mamputnikatacalonpresiden tnikatacalonpresidenpecat katacalonpresidenpecattni calonpresidenpecattnihttps presidenpecattnihttpst pecattnihttpstco tnihttpstcokc5cpgca0n sangatpercayamamputnikatacalon percayamamputnikatacalonpresiden mamputnikatacalonpresidenpecat tnikatacalonpresidenpecattni katacalonpresidenpecattnihttps calonpresidenpecattnihttpst presidenpecattnihttpstco pecattnihttpstcokc5cpgca0n</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing cara militan tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing asingcara caramilitan tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing asaiasingcara asingcaramilitan tidakpahamekonomiinvestasi pahamekonomiinvestasiasing ekonomiinvestasiasinglingkup investasiasinglingkupbisnis asinglingkupbisnisdi-framing lingkupbisnisdi-framingolah bisnisdi-framingolahnegara di-framingolahnegaraasai olahnegaraasaiasing negaraasaiasingcara asaiasingcaramilitan tidakpahamekonomiinvestasiasing pahamekonomiinvestasiasinglingkup ekonomiinvestasiasinglingkupbisnis investasiasinglingkupbisnisdi-framing asinglingkupbisnisdi-framingolah lingkupbisnisdi-framingolahnegara bisnisdi-framingolahnegaraasai di-framingolahnegaraasaiasing olahnegaraasaiasingcara negaraasaiasingcaramilitan tidakpahamekonomiinvestasiasinglingkup pahamekonomiinvestasiasinglingkupbisnis ekonomiinvestasiasinglingkupbisnisdi-framing investasiasinglingkupbisnisdi-framingolah asinglingkupbisnisdi-framingolahnegara lingkupbisnisdi-framingolahnegaraasai bisnisdi-framingolahnegaraasaiasing di-framingolahnegaraasaiasingcara olahnegaraasaiasingcaramilitan</t>
+  </si>
+  <si>
+    <t>wow pakai bahasa inggris debat buat plonga plongo https t co chujvskyv 4 prabowomenangdebat wowpakai pakaibahasa bahasainggris inggrisdebat debatbuat buatplonga plongaplongo plongohttps httpst tco cochujvskyv chujvskyv4 4prabowomenangdebat wowpakaibahasa pakaibahasainggris bahasainggrisdebat inggrisdebatbuat debatbuatplonga buatplongaplongo plongaplongohttps plongohttpst httpstco tcochujvskyv cochujvskyv4 chujvskyv4prabowomenangdebat wowpakaibahasainggris pakaibahasainggrisdebat bahasainggrisdebatbuat inggrisdebatbuatplonga debatbuatplongaplongo buatplongaplongohttps plongaplongohttpst plongohttpstco httpstcochujvskyv tcochujvskyv4 cochujvskyv4prabowomenangdebat wowpakaibahasainggrisdebat pakaibahasainggrisdebatbuat bahasainggrisdebatbuatplonga inggrisdebatbuatplongaplongo debatbuatplongaplongohttps buatplongaplongohttpst plongaplongohttpstco plongohttpstcochujvskyv httpstcochujvskyv4 tcochujvskyv4prabowomenangdebat wowpakaibahasainggrisdebatbuat pakaibahasainggrisdebatbuatplonga bahasainggrisdebatbuatplongaplongo inggrisdebatbuatplongaplongohttps debatbuatplongaplongohttpst buatplongaplongohttpstco plongaplongohttpstcochujvskyv plongohttpstcochujvskyv4 httpstcochujvskyv4prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>closing statement orang pamit nuansa khawatir takut tinggal kalau kalah closingstatement statementorang orangpamit pamitnuansa nuansakhawatir khawatirtakut takuttinggal tinggalkalau kalaukalah closingstatementorang statementorangpamit orangpamitnuansa pamitnuansakhawatir nuansakhawatirtakut khawatirtakuttinggal takuttinggalkalau tinggalkalaukalah closingstatementorangpamit statementorangpamitnuansa orangpamitnuansakhawatir pamitnuansakhawatirtakut nuansakhawatirtakuttinggal khawatirtakuttinggalkalau takuttinggalkalaukalah closingstatementorangpamitnuansa statementorangpamitnuansakhawatir orangpamitnuansakhawatirtakut pamitnuansakhawatirtakuttinggal nuansakhawatirtakuttinggalkalau khawatirtakuttinggalkalaukalah closingstatementorangpamitnuansakhawatir statementorangpamitnuansakhawatirtakut orangpamitnuansakhawatirtakuttinggal pamitnuansakhawatirtakuttinggalkalau nuansakhawatirtakuttinggalkalaukalah</t>
+  </si>
+  <si>
+    <t>terima kasih papua terima kasih rakyat merauke moga temu ada lebih baik terimakasih kasihpapua papuaterima terimakasih kasihrakyat rakyatmerauke meraukemoga mogatemu temuada adalebih lebihbaik terimakasihpapua kasihpapuaterima papuaterimakasih terimakasihrakyat kasihrakyatmerauke rakyatmeraukemoga meraukemogatemu mogatemuada temuadalebih adalebihbaik terimakasihpapuaterima kasihpapuaterimakasih papuaterimakasihrakyat terimakasihrakyatmerauke kasihrakyatmeraukemoga rakyatmeraukemogatemu meraukemogatemuada mogatemuadalebih temuadalebihbaik terimakasihpapuaterimakasih kasihpapuaterimakasihrakyat papuaterimakasihrakyatmerauke terimakasihrakyatmeraukemoga kasihrakyatmeraukemogatemu rakyatmeraukemogatemuada meraukemogatemuadalebih mogatemuadalebihbaik terimakasihpapuaterimakasihrakyat kasihpapuaterimakasihrakyatmerauke papuaterimakasihrakyatmeraukemoga terimakasihrakyatmeraukemogatemu kasihrakyatmeraukemogatemuada rakyatmeraukemogatemuadalebih meraukemogatemuadalebihbaik</t>
+  </si>
+  <si>
+    <t>hari jum at nanya prabowojumatandimana nanya jauh mana islam harijum jumat atnanya nanyaprabowojumatandimana prabowojumatandimanananya nanyajauh jauhmana manaislam harijumat jumatnanya atnanyaprabowojumatandimana nanyaprabowojumatandimanananya prabowojumatandimanananyajauh nanyajauhmana jauhmanaislam harijumatnanya jumatnanyaprabowojumatandimana atnanyaprabowojumatandimanananya nanyaprabowojumatandimanananyajauh prabowojumatandimanananyajauhmana nanyajauhmanaislam harijumatnanyaprabowojumatandimana jumatnanyaprabowojumatandimanananya atnanyaprabowojumatandimanananyajauh nanyaprabowojumatandimanananyajauhmana prabowojumatandimanananyajauhmanaislam harijumatnanyaprabowojumatandimanananya jumatnanyaprabowojumatandimanananyajauh atnanyaprabowojumatandimanananyajauhmana nanyaprabowojumatandimanananyajauhmanaislam</t>
+  </si>
+  <si>
+    <t>pesta demokrasi nama pesta harus senang lo man teman pak sama pak bisa saling santai pestademokrasi demokrasinama namapesta pestaharus harussenang senanglo loman manteman temanpak paksama samapak pakbisa bisasaling salingsantai pestademokrasinama demokrasinamapesta namapestaharus pestaharussenang harussenanglo senangloman lomanteman mantemanpak temanpaksama paksamapak samapakbisa pakbisasaling bisasalingsantai pestademokrasinamapesta demokrasinamapestaharus namapestaharussenang pestaharussenanglo harussenangloman senanglomanteman lomantemanpak mantemanpaksama temanpaksamapak paksamapakbisa samapakbisasaling pakbisasalingsantai pestademokrasinamapestaharus demokrasinamapestaharussenang namapestaharussenanglo pestaharussenangloman harussenanglomanteman senanglomantemanpak lomantemanpaksama mantemanpaksamapak temanpaksamapakbisa paksamapakbisasaling samapakbisasalingsantai pestademokrasinamapestaharussenang demokrasinamapestaharussenanglo namapestaharussenangloman pestaharussenanglomanteman harussenanglomantemanpak senanglomantemanpaksama lomantemanpaksamapak mantemanpaksamapakbisa temanpaksamapakbisasaling paksamapakbisasalingsantai</t>
+  </si>
+  <si>
+    <t>jadi presiden berat biar pak prabowobentengnkri jokowidiambangkekalahan https t co ehlgdl 2mcx jadipresiden presidenberat beratbiar biarpak pakprabowobentengnkri prabowobentengnkrijokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco coehlgdl ehlgdl2mcx jadipresidenberat presidenberatbiar beratbiarpak biarpakprabowobentengnkri pakprabowobentengnkrijokowidiambangkekalahan prabowobentengnkrijokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tcoehlgdl coehlgdl2mcx jadipresidenberatbiar presidenberatbiarpak beratbiarpakprabowobentengnkri biarpakprabowobentengnkrijokowidiambangkekalahan pakprabowobentengnkrijokowidiambangkekalahanhttps prabowobentengnkrijokowidiambangkekalahanhttpst jokowidiambangkekalahanhttpstco httpstcoehlgdl tcoehlgdl2mcx jadipresidenberatbiarpak presidenberatbiarpakprabowobentengnkri beratbiarpakprabowobentengnkrijokowidiambangkekalahan biarpakprabowobentengnkrijokowidiambangkekalahanhttps pakprabowobentengnkrijokowidiambangkekalahanhttpst prabowobentengnkrijokowidiambangkekalahanhttpstco jokowidiambangkekalahanhttpstcoehlgdl httpstcoehlgdl2mcx jadipresidenberatbiarpakprabowobentengnkri presidenberatbiarpakprabowobentengnkrijokowidiambangkekalahan beratbiarpakprabowobentengnkrijokowidiambangkekalahanhttps biarpakprabowobentengnkrijokowidiambangkekalahanhttpst pakprabowobentengnkrijokowidiambangkekalahanhttpstco prabowobentengnkrijokowidiambangkekalahanhttpstcoehlgdl jokowidiambangkekalahanhttpstcoehlgdl2mcx</t>
+  </si>
+  <si>
+    <t>terimakasih pak datang manado bangga salam sama bapak insyallah allah bapak bang sandi menang terimakasihpak pakdatang datangmanado manadobangga banggasalam salamsama samabapak bapakinsyallah insyallahallah allahbapak bapakbang bangsandi sandimenang terimakasihpakdatang pakdatangmanado datangmanadobangga manadobanggasalam banggasalamsama salamsamabapak samabapakinsyallah bapakinsyallahallah insyallahallahbapak allahbapakbang bapakbangsandi bangsandimenang terimakasihpakdatangmanado pakdatangmanadobangga datangmanadobanggasalam manadobanggasalamsama banggasalamsamabapak salamsamabapakinsyallah samabapakinsyallahallah bapakinsyallahallahbapak insyallahallahbapakbang allahbapakbangsandi bapakbangsandimenang terimakasihpakdatangmanadobangga pakdatangmanadobanggasalam datangmanadobanggasalamsama manadobanggasalamsamabapak banggasalamsamabapakinsyallah salamsamabapakinsyallahallah samabapakinsyallahallahbapak bapakinsyallahallahbapakbang insyallahallahbapakbangsandi allahbapakbangsandimenang terimakasihpakdatangmanadobanggasalam pakdatangmanadobanggasalamsama datangmanadobanggasalamsamabapak manadobanggasalamsamabapakinsyallah banggasalamsamabapakinsyallahallah salamsamabapakinsyallahallahbapak samabapakinsyallahallahbapakbang bapakinsyallahallahbapakbangsandi insyallahallahbapakbangsandimenang</t>
+  </si>
+  <si>
+    <t>makin baik sama pak menangjokowilagi makinbaik baiksama samapak pakmenangjokowilagi makinbaiksama baiksamapak samapakmenangjokowilagi makinbaiksamapak baiksamapakmenangjokowilagi makinbaiksamapakmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>berangkat bawah ke pucuk tinggi makanya tak pernah takut https t co 7ftilehkv1 berangkatbawah bawahke kepucuk pucuktinggi tinggimakanya makanyatak takpernah pernahtakut takuthttps httpst tco co7ftilehkv1 berangkatbawahke bawahkepucuk kepucuktinggi pucuktinggimakanya tinggimakanyatak makanyatakpernah takpernahtakut pernahtakuthttps takuthttpst httpstco tco7ftilehkv1 berangkatbawahkepucuk bawahkepucuktinggi kepucuktinggimakanya pucuktinggimakanyatak tinggimakanyatakpernah makanyatakpernahtakut takpernahtakuthttps pernahtakuthttpst takuthttpstco httpstco7ftilehkv1 berangkatbawahkepucuktinggi bawahkepucuktinggimakanya kepucuktinggimakanyatak pucuktinggimakanyatakpernah tinggimakanyatakpernahtakut makanyatakpernahtakuthttps takpernahtakuthttpst pernahtakuthttpstco takuthttpstco7ftilehkv1 berangkatbawahkepucuktinggimakanya bawahkepucuktinggimakanyatak kepucuktinggimakanyatakpernah pucuktinggimakanyatakpernahtakut tinggimakanyatakpernahtakuthttps makanyatakpernahtakuthttpst takpernahtakuthttpstco pernahtakuthttpstco7ftilehkv1</t>
+  </si>
+  <si>
+    <t>front bela islam hti jelas di balik kalau yang bantah jelas sedang bohong https t co mwfxk 96sye frontbela belaislam islamhti htijelas jelasdi dibalik balikkalau kalauyang yangbantah bantahjelas jelassedang sedangbohong bohonghttps httpst tco comwfxk mwfxk96sye frontbelaislam belaislamhti islamhtijelas htijelasdi jelasdibalik dibalikkalau balikkalauyang kalauyangbantah yangbantahjelas bantahjelassedang jelassedangbohong sedangbohonghttps bohonghttpst httpstco tcomwfxk comwfxk96sye frontbelaislamhti belaislamhtijelas islamhtijelasdi htijelasdibalik jelasdibalikkalau dibalikkalauyang balikkalauyangbantah kalauyangbantahjelas yangbantahjelassedang bantahjelassedangbohong jelassedangbohonghttps sedangbohonghttpst bohonghttpstco httpstcomwfxk tcomwfxk96sye frontbelaislamhtijelas belaislamhtijelasdi islamhtijelasdibalik htijelasdibalikkalau jelasdibalikkalauyang dibalikkalauyangbantah balikkalauyangbantahjelas kalauyangbantahjelassedang yangbantahjelassedangbohong bantahjelassedangbohonghttps jelassedangbohonghttpst sedangbohonghttpstco bohonghttpstcomwfxk httpstcomwfxk96sye frontbelaislamhtijelasdi belaislamhtijelasdibalik islamhtijelasdibalikkalau htijelasdibalikkalauyang jelasdibalikkalauyangbantah dibalikkalauyangbantahjelas balikkalauyangbantahjelassedang kalauyangbantahjelassedangbohong yangbantahjelassedangbohonghttps bantahjelassedangbohonghttpst jelassedangbohonghttpstco sedangbohonghttpstcomwfxk bohonghttpstcomwfxk96sye</t>
+  </si>
+  <si>
+    <t>bangga prabowobentengnkri banggaprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>contoh orang tidak di ajak maju debatpilpres 2019 jokowimengubahsemua https t co omp 0spnmur contohorang orangtidak tidakdi diajak ajakmaju majudebatpilpres debatpilpres2019 2019jokowimengubahsemua jokowimengubahsemuahttps httpst tco coomp omp0spnmur contohorangtidak orangtidakdi tidakdiajak diajakmaju ajakmajudebatpilpres majudebatpilpres2019 debatpilpres2019jokowimengubahsemua 2019jokowimengubahsemuahttps jokowimengubahsemuahttpst httpstco tcoomp coomp0spnmur contohorangtidakdi orangtidakdiajak tidakdiajakmaju diajakmajudebatpilpres ajakmajudebatpilpres2019 majudebatpilpres2019jokowimengubahsemua debatpilpres2019jokowimengubahsemuahttps 2019jokowimengubahsemuahttpst jokowimengubahsemuahttpstco httpstcoomp tcoomp0spnmur contohorangtidakdiajak orangtidakdiajakmaju tidakdiajakmajudebatpilpres diajakmajudebatpilpres2019 ajakmajudebatpilpres2019jokowimengubahsemua majudebatpilpres2019jokowimengubahsemuahttps debatpilpres2019jokowimengubahsemuahttpst 2019jokowimengubahsemuahttpstco jokowimengubahsemuahttpstcoomp httpstcoomp0spnmur contohorangtidakdiajakmaju orangtidakdiajakmajudebatpilpres tidakdiajakmajudebatpilpres2019 diajakmajudebatpilpres2019jokowimengubahsemua ajakmajudebatpilpres2019jokowimengubahsemuahttps majudebatpilpres2019jokowimengubahsemuahttpst debatpilpres2019jokowimengubahsemuahttpstco 2019jokowimengubahsemuahttpstcoomp jokowimengubahsemuahttpstcoomp0spnmur</t>
+  </si>
+  <si>
+    <t>the strong will do what they can the weak will suffer nilai tahan indonesia terlalu lemah thestrong strongwill willdo dowhat whatthey theycan canthe theweak weakwill willsuffer suffernilai nilaitahan tahanindonesia indonesiaterlalu terlalulemah thestrongwill strongwilldo willdowhat dowhatthey whattheycan theycanthe cantheweak theweakwill weakwillsuffer willsuffernilai suffernilaitahan nilaitahanindonesia tahanindonesiaterlalu indonesiaterlalulemah thestrongwilldo strongwilldowhat willdowhatthey dowhattheycan whattheycanthe theycantheweak cantheweakwill theweakwillsuffer weakwillsuffernilai willsuffernilaitahan suffernilaitahanindonesia nilaitahanindonesiaterlalu tahanindonesiaterlalulemah thestrongwilldowhat strongwilldowhatthey willdowhattheycan dowhattheycanthe whattheycantheweak theycantheweakwill cantheweakwillsuffer theweakwillsuffernilai weakwillsuffernilaitahan willsuffernilaitahanindonesia suffernilaitahanindonesiaterlalu nilaitahanindonesiaterlalulemah thestrongwilldowhatthey strongwilldowhattheycan willdowhattheycanthe dowhattheycantheweak whattheycantheweakwill theycantheweakwillsuffer cantheweakwillsuffernilai theweakwillsuffernilaitahan weakwillsuffernilaitahanindonesia willsuffernilaitahanindonesiaterlalu suffernilaitahanindonesiaterlalulemah</t>
+  </si>
+  <si>
+    <t>rantai sahabat pak pak akan putus debatpilpres 2019 dengerin tuh tkn-bpn cebong kampret rantaisahabat sahabatpak pakpak pakakan akanputus putusdebatpilpres debatpilpres2019 2019dengerin dengerintuh tuhtkn-bpn tkn-bpncebong cebongkampret rantaisahabatpak sahabatpakpak pakpakakan pakakanputus akanputusdebatpilpres putusdebatpilpres2019 debatpilpres2019dengerin 2019dengerintuh dengerintuhtkn-bpn tuhtkn-bpncebong tkn-bpncebongkampret rantaisahabatpakpak sahabatpakpakakan pakpakakanputus pakakanputusdebatpilpres akanputusdebatpilpres2019 putusdebatpilpres2019dengerin debatpilpres2019dengerintuh 2019dengerintuhtkn-bpn dengerintuhtkn-bpncebong tuhtkn-bpncebongkampret rantaisahabatpakpakakan sahabatpakpakakanputus pakpakakanputusdebatpilpres pakakanputusdebatpilpres2019 akanputusdebatpilpres2019dengerin putusdebatpilpres2019dengerintuh debatpilpres2019dengerintuhtkn-bpn 2019dengerintuhtkn-bpncebong dengerintuhtkn-bpncebongkampret rantaisahabatpakpakakanputus sahabatpakpakakanputusdebatpilpres pakpakakanputusdebatpilpres2019 pakakanputusdebatpilpres2019dengerin akanputusdebatpilpres2019dengerintuh putusdebatpilpres2019dengerintuhtkn-bpn debatpilpres2019dengerintuhtkn-bpncebong 2019dengerintuhtkn-bpncebongkampret</t>
+  </si>
+  <si>
+    <t>dengar pak meski sangat lambat https t co aydhf 1aca7 dengarpak pakmeski meskisangat sangatlambat lambathttps httpst tco coaydhf aydhf1aca7 dengarpakmeski pakmeskisangat meskisangatlambat sangatlambathttps lambathttpst httpstco tcoaydhf coaydhf1aca7 dengarpakmeskisangat pakmeskisangatlambat meskisangatlambathttps sangatlambathttpst lambathttpstco httpstcoaydhf tcoaydhf1aca7 dengarpakmeskisangatlambat pakmeskisangatlambathttps meskisangatlambathttpst sangatlambathttpstco lambathttpstcoaydhf httpstcoaydhf1aca7 dengarpakmeskisangatlambathttps pakmeskisangatlambathttpst meskisangatlambathttpstco sangatlambathttpstcoaydhf lambathttpstcoaydhf1aca7</t>
+  </si>
+  <si>
+    <t>pak jangan jelek tni ini lho salah satu prestasi tni 01dilanjutkan https t co ibgmfaixw 1 pakjangan janganjelek jelektni tniini inilho lhosalah salahsatu satuprestasi prestasitni tni01dilanjutkan 01dilanjutkanhttps httpst tco coibgmfaixw ibgmfaixw1 pakjanganjelek janganjelektni jelektniini tniinilho inilhosalah lhosalahsatu salahsatuprestasi satuprestasitni prestasitni01dilanjutkan tni01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcoibgmfaixw coibgmfaixw1 pakjanganjelektni janganjelektniini jelektniinilho tniinilhosalah inilhosalahsatu lhosalahsatuprestasi salahsatuprestasitni satuprestasitni01dilanjutkan prestasitni01dilanjutkanhttps tni01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcoibgmfaixw tcoibgmfaixw1 pakjanganjelektniini janganjelektniinilho jelektniinilhosalah tniinilhosalahsatu inilhosalahsatuprestasi lhosalahsatuprestasitni salahsatuprestasitni01dilanjutkan satuprestasitni01dilanjutkanhttps prestasitni01dilanjutkanhttpst tni01dilanjutkanhttpstco 01dilanjutkanhttpstcoibgmfaixw httpstcoibgmfaixw1 pakjanganjelektniinilho janganjelektniinilhosalah jelektniinilhosalahsatu tniinilhosalahsatuprestasi inilhosalahsatuprestasitni lhosalahsatuprestasitni01dilanjutkan salahsatuprestasitni01dilanjutkanhttps satuprestasitni01dilanjutkanhttpst prestasitni01dilanjutkanhttpstco tni01dilanjutkanhttpstcoibgmfaixw 01dilanjutkanhttpstcoibgmfaixw1</t>
+  </si>
+  <si>
+    <t>sepakat bang pak menang sejak pikir mental menang yang ngga milik pak sepakatbang bangpak pakmenang menangsejak sejakpikir pikirmental mentalmenang menangyang yangngga nggamilik milikpak sepakatbangpak bangpakmenang pakmenangsejak menangsejakpikir sejakpikirmental pikirmentalmenang mentalmenangyang menangyangngga yangnggamilik nggamilikpak sepakatbangpakmenang bangpakmenangsejak pakmenangsejakpikir menangsejakpikirmental sejakpikirmentalmenang pikirmentalmenangyang mentalmenangyangngga menangyangnggamilik yangnggamilikpak sepakatbangpakmenangsejak bangpakmenangsejakpikir pakmenangsejakpikirmental menangsejakpikirmentalmenang sejakpikirmentalmenangyang pikirmentalmenangyangngga mentalmenangyangnggamilik menangyangnggamilikpak sepakatbangpakmenangsejakpikir bangpakmenangsejakpikirmental pakmenangsejakpikirmentalmenang menangsejakpikirmentalmenangyang sejakpikirmentalmenangyangngga pikirmentalmenangyangnggamilik mentalmenangyangnggamilikpak</t>
+  </si>
+  <si>
+    <t>debat malam mas tampil luar biasa tegas lugas cerdas wibawa jadi macan indonesia perkasa debatmalam malammas mastampil tampilluar luarbiasa biasategas tegaslugas lugascerdas cerdaswibawa wibawajadi jadimacan macanindonesia indonesiaperkasa debatmalammas malammastampil mastampilluar tampilluarbiasa luarbiasategas biasategaslugas tegaslugascerdas lugascerdaswibawa cerdaswibawajadi wibawajadimacan jadimacanindonesia macanindonesiaperkasa debatmalammastampil malammastampilluar mastampilluarbiasa tampilluarbiasategas luarbiasategaslugas biasategaslugascerdas tegaslugascerdaswibawa lugascerdaswibawajadi cerdaswibawajadimacan wibawajadimacanindonesia jadimacanindonesiaperkasa debatmalammastampilluar malammastampilluarbiasa mastampilluarbiasategas tampilluarbiasategaslugas luarbiasategaslugascerdas biasategaslugascerdaswibawa tegaslugascerdaswibawajadi lugascerdaswibawajadimacan cerdaswibawajadimacanindonesia wibawajadimacanindonesiaperkasa debatmalammastampilluarbiasa malammastampilluarbiasategas mastampilluarbiasategaslugas tampilluarbiasategaslugascerdas luarbiasategaslugascerdaswibawa biasategaslugascerdaswibawajadi tegaslugascerdaswibawajadimacan lugascerdaswibawajadimacanindonesia cerdaswibawajadimacanindonesiaperkasa</t>
+  </si>
+  <si>
+    <t>percaya pak rantai sahabat tidak pernah putus iya pak pun saya hormat percayapak pakrantai rantaisahabat sahabattidak tidakpernah pernahputus putusiya iyapak pakpun punsaya sayahormat percayapakrantai pakrantaisahabat rantaisahabattidak sahabattidakpernah tidakpernahputus pernahputusiya putusiyapak iyapakpun pakpunsaya punsayahormat percayapakrantaisahabat pakrantaisahabattidak rantaisahabattidakpernah sahabattidakpernahputus tidakpernahputusiya pernahputusiyapak putusiyapakpun iyapakpunsaya pakpunsayahormat percayapakrantaisahabattidak pakrantaisahabattidakpernah rantaisahabattidakpernahputus sahabattidakpernahputusiya tidakpernahputusiyapak pernahputusiyapakpun putusiyapakpunsaya iyapakpunsayahormat percayapakrantaisahabattidakpernah pakrantaisahabattidakpernahputus rantaisahabattidakpernahputusiya sahabattidakpernahputusiyapak tidakpernahputusiyapakpun pernahputusiyapakpunsaya putusiyapakpunsayahormat</t>
+  </si>
+  <si>
+    <t>insyallah allah p kuasa debat malam dengan elegan n presidential saksi studio insyallahallah allahp pkuasa kuasadebat debatmalam malamdengan denganelegan elegann npresidential presidentialsaksi saksistudio insyallahallahp allahpkuasa pkuasadebat kuasadebatmalam debatmalamdengan malamdenganelegan denganelegann elegannpresidential npresidentialsaksi presidentialsaksistudio insyallahallahpkuasa allahpkuasadebat pkuasadebatmalam kuasadebatmalamdengan debatmalamdenganelegan malamdenganelegann denganelegannpresidential elegannpresidentialsaksi npresidentialsaksistudio insyallahallahpkuasadebat allahpkuasadebatmalam pkuasadebatmalamdengan kuasadebatmalamdenganelegan debatmalamdenganelegann malamdenganelegannpresidential denganelegannpresidentialsaksi elegannpresidentialsaksistudio insyallahallahpkuasadebatmalam allahpkuasadebatmalamdengan pkuasadebatmalamdenganelegan kuasadebatmalamdenganelegann debatmalamdenganelegannpresidential malamdenganelegannpresidentialsaksi denganelegannpresidentialsaksistudio</t>
+  </si>
+  <si>
+    <t>malam pak tampil serang lugas skakmaat malampak paktampil tampilserang seranglugas lugasskakmaat malampaktampil paktampilserang tampilseranglugas seranglugasskakmaat malampaktampilserang paktampilseranglugas tampilseranglugasskakmaat malampaktampilseranglugas paktampilseranglugasskakmaat malampaktampilseranglugasskakmaat</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat insyallah allah menang pilpres prabowomenangdebatinsyallah insyallahallah allahmenang menangpilpres prabowomenangdebatinsyallahallah insyallahallahmenang allahmenangpilpres prabowomenangdebatinsyallahallahmenang insyallahallahmenangpilpres prabowomenangdebatinsyallahallahmenangpilpres</t>
+  </si>
+  <si>
+    <t>debat kali tidak pegang telinga tanda tidak pikir panjang debat sorot mata tebar kosong debatkali kalitidak tidakpegang pegangtelinga telingatanda tandatidak tidakpikir pikirpanjang panjangdebat debatsorot sorotmata matatebar tebarkosong debatkalitidak kalitidakpegang tidakpegangtelinga pegangtelingatanda telingatandatidak tandatidakpikir tidakpikirpanjang pikirpanjangdebat panjangdebatsorot debatsorotmata sorotmatatebar matatebarkosong debatkalitidakpegang kalitidakpegangtelinga tidakpegangtelingatanda pegangtelingatandatidak telingatandatidakpikir tandatidakpikirpanjang tidakpikirpanjangdebat pikirpanjangdebatsorot panjangdebatsorotmata debatsorotmatatebar sorotmatatebarkosong debatkalitidakpegangtelinga kalitidakpegangtelingatanda tidakpegangtelingatandatidak pegangtelingatandatidakpikir telingatandatidakpikirpanjang tandatidakpikirpanjangdebat tidakpikirpanjangdebatsorot pikirpanjangdebatsorotmata panjangdebatsorotmatatebar debatsorotmatatebarkosong debatkalitidakpegangtelingatanda kalitidakpegangtelingatandatidak tidakpegangtelingatandatidakpikir pegangtelingatandatidakpikirpanjang telingatandatidakpikirpanjangdebat tandatidakpikirpanjangdebatsorot tidakpikirpanjangdebatsorotmata pikirpanjangdebatsorotmatatebar panjangdebatsorotmatatebarkosong</t>
+  </si>
+  <si>
+    <t>lah pak akan lupa sahabat lain jika masalah hukum lahpak pakakan akanlupa lupasahabat sahabatlain lainjika jikamasalah masalahhukum lahpakakan pakakanlupa akanlupasahabat lupasahabatlain sahabatlainjika lainjikamasalah jikamasalahhukum lahpakakanlupa pakakanlupasahabat akanlupasahabatlain lupasahabatlainjika sahabatlainjikamasalah lainjikamasalahhukum lahpakakanlupasahabat pakakanlupasahabatlain akanlupasahabatlainjika lupasahabatlainjikamasalah sahabatlainjikamasalahhukum lahpakakanlupasahabatlain pakakanlupasahabatlainjika akanlupasahabatlainjikamasalah lupasahabatlainjikamasalahhukum</t>
+  </si>
+  <si>
+    <t>bagus pak lebih tni tni lucu nuduh percaya tni lah wong pak ex militer baguspak paklebih lebihtni tnitni tnilucu lucunuduh nuduhpercaya percayatni tnilah lahwong wongpak pakex exmiliter baguspaklebih paklebihtni lebihtnitni tnitnilucu tnilucunuduh lucunuduhpercaya nuduhpercayatni percayatnilah tnilahwong lahwongpak wongpakex pakexmiliter baguspaklebihtni paklebihtnitni lebihtnitnilucu tnitnilucunuduh tnilucunuduhpercaya lucunuduhpercayatni nuduhpercayatnilah percayatnilahwong tnilahwongpak lahwongpakex wongpakexmiliter baguspaklebihtnitni paklebihtnitnilucu lebihtnitnilucunuduh tnitnilucunuduhpercaya tnilucunuduhpercayatni lucunuduhpercayatnilah nuduhpercayatnilahwong percayatnilahwongpak tnilahwongpakex lahwongpakexmiliter baguspaklebihtnitnilucu paklebihtnitnilucunuduh lebihtnitnilucunuduhpercaya tnitnilucunuduhpercayatni tnilucunuduhpercayatnilah lucunuduhpercayatnilahwong nuduhpercayatnilahwongpak percayatnilahwongpakex tnilahwongpakexmiliter</t>
+  </si>
+  <si>
+    <t>politik luar negeri makin turun sering absen p forum internasional n sidang pbb politikluar luarnegeri negerimakin makinturun turunsering seringabsen absenp pforum foruminternasional internasionaln nsidang sidangpbb politikluarnegeri luarnegerimakin negerimakinturun makinturunsering turunseringabsen seringabsenp absenpforum pforuminternasional foruminternasionaln internasionalnsidang nsidangpbb politikluarnegerimakin luarnegerimakinturun negerimakinturunsering makinturunseringabsen turunseringabsenp seringabsenpforum absenpforuminternasional pforuminternasionaln foruminternasionalnsidang internasionalnsidangpbb politikluarnegerimakinturun luarnegerimakinturunsering negerimakinturunseringabsen makinturunseringabsenp turunseringabsenpforum seringabsenpforuminternasional absenpforuminternasionaln pforuminternasionalnsidang foruminternasionalnsidangpbb politikluarnegerimakinturunsering luarnegerimakinturunseringabsen negerimakinturunseringabsenp makinturunseringabsenpforum turunseringabsenpforuminternasional seringabsenpforuminternasionaln absenpforuminternasionalnsidang pforuminternasionalnsidangpbb</t>
+  </si>
+  <si>
+    <t>jangan pilih pimpin bohong ingkar janji provokasi rakyat kacang lupa kulit pilih pimpin jujur janganpilih pilihpimpin pimpinbohong bohongingkar ingkarjanji janjiprovokasi provokasirakyat rakyatkacang kacanglupa lupakulit kulitpilih pilihpimpin pimpinjujur janganpilihpimpin pilihpimpinbohong pimpinbohongingkar bohongingkarjanji ingkarjanjiprovokasi janjiprovokasirakyat provokasirakyatkacang rakyatkacanglupa kacanglupakulit lupakulitpilih kulitpilihpimpin pilihpimpinjujur janganpilihpimpinbohong pilihpimpinbohongingkar pimpinbohongingkarjanji bohongingkarjanjiprovokasi ingkarjanjiprovokasirakyat janjiprovokasirakyatkacang provokasirakyatkacanglupa rakyatkacanglupakulit kacanglupakulitpilih lupakulitpilihpimpin kulitpilihpimpinjujur janganpilihpimpinbohongingkar pilihpimpinbohongingkarjanji pimpinbohongingkarjanjiprovokasi bohongingkarjanjiprovokasirakyat ingkarjanjiprovokasirakyatkacang janjiprovokasirakyatkacanglupa provokasirakyatkacanglupakulit rakyatkacanglupakulitpilih kacanglupakulitpilihpimpin lupakulitpilihpimpinjujur janganpilihpimpinbohongingkarjanji pilihpimpinbohongingkarjanjiprovokasi pimpinbohongingkarjanjiprovokasirakyat bohongingkarjanjiprovokasirakyatkacang ingkarjanjiprovokasirakyatkacanglupa janjiprovokasirakyatkacanglupakulit provokasirakyatkacanglupakulitpilih rakyatkacanglupakulitpilihpimpin kacanglupakulitpilihpimpinjujur</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni saya sipil sangat percaya tni - lihatpak pakpercaya percayatni tnisaya sayasipil sipilsangat sangatpercaya percayatni tni- lihatpakpercaya pakpercayatni percayatnisaya tnisayasipil sayasipilsangat sipilsangatpercaya sangatpercayatni percayatni- lihatpakpercayatni pakpercayatnisaya percayatnisayasipil tnisayasipilsangat sayasipilsangatpercaya sipilsangatpercayatni sangatpercayatni- lihatpakpercayatnisaya pakpercayatnisayasipil percayatnisayasipilsangat tnisayasipilsangatpercaya sayasipilsangatpercayatni sipilsangatpercayatni- lihatpakpercayatnisayasipil pakpercayatnisayasipilsangat percayatnisayasipilsangatpercaya tnisayasipilsangatpercayatni sayasipilsangatpercayatni-</t>
+  </si>
+  <si>
+    <t>makanya kalau pilpres ada debat jangan beri tahu buat rusuh makanyakalau kalaupilpres pilpresada adadebat debatjangan janganberi beritahu tahubuat buatrusuh makanyakalaupilpres kalaupilpresada pilpresadadebat adadebatjangan debatjanganberi janganberitahu beritahubuat tahubuatrusuh makanyakalaupilpresada kalaupilpresadadebat pilpresadadebatjangan adadebatjanganberi debatjanganberitahu janganberitahubuat beritahubuatrusuh makanyakalaupilpresadadebat kalaupilpresadadebatjangan pilpresadadebatjanganberi adadebatjanganberitahu debatjanganberitahubuat janganberitahubuatrusuh makanyakalaupilpresadadebatjangan kalaupilpresadadebatjanganberi pilpresadadebatjanganberitahu adadebatjanganberitahubuat debatjanganberitahubuatrusuh</t>
+  </si>
+  <si>
+    <t>sepakat malam pak kabul semua harap dukung debat kali nampol banget sepakatmalam malampak pakkabul kabulsemua semuaharap harapdukung dukungdebat debatkali kalinampol nampolbanget sepakatmalampak malampakkabul pakkabulsemua kabulsemuaharap semuaharapdukung harapdukungdebat dukungdebatkali debatkalinampol kalinampolbanget sepakatmalampakkabul malampakkabulsemua pakkabulsemuaharap kabulsemuaharapdukung semuaharapdukungdebat harapdukungdebatkali dukungdebatkalinampol debatkalinampolbanget sepakatmalampakkabulsemua malampakkabulsemuaharap pakkabulsemuaharapdukung kabulsemuaharapdukungdebat semuaharapdukungdebatkali harapdukungdebatkalinampol dukungdebatkalinampolbanget sepakatmalampakkabulsemuaharap malampakkabulsemuaharapdukung pakkabulsemuaharapdukungdebat kabulsemuaharapdukungdebatkali semuaharapdukungdebatkalinampol harapdukungdebatkalinampolbanget</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata pula demokrasi politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata katapula pulademokrasi politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata korupsikatapula katapulademokrasi politicalwillcerminpraktik willcerminpraktikberantas cerminpraktikberantaskorupsi praktikberantaskorupsikata berantaskorupsikatapula korupsikatapulademokrasi politicalwillcerminpraktikberantas willcerminpraktikberantaskorupsi cerminpraktikberantaskorupsikata praktikberantaskorupsikatapula berantaskorupsikatapulademokrasi politicalwillcerminpraktikberantaskorupsi willcerminpraktikberantaskorupsikata cerminpraktikberantaskorupsikatapula praktikberantaskorupsikatapulademokrasi</t>
+  </si>
+  <si>
+    <t>industri kreatif indonesia era presiden tumbuh sangat pesat industrikreatif kreatifindonesia indonesiaera erapresiden presidentumbuh tumbuhsangat sangatpesat industrikreatifindonesia kreatifindonesiaera indonesiaerapresiden erapresidentumbuh presidentumbuhsangat tumbuhsangatpesat industrikreatifindonesiaera kreatifindonesiaerapresiden indonesiaerapresidentumbuh erapresidentumbuhsangat presidentumbuhsangatpesat industrikreatifindonesiaerapresiden kreatifindonesiaerapresidentumbuh indonesiaerapresidentumbuhsangat erapresidentumbuhsangatpesat industrikreatifindonesiaerapresidentumbuh kreatifindonesiaerapresidentumbuhsangat indonesiaerapresidentumbuhsangatpesat</t>
+  </si>
+  <si>
+    <t>sudah jelas bisa ikut rombong wong sejak awal visi beda visi commuter line mau bikin maju jangan sudahjelas jelasbisa bisaikut ikutrombong rombongwong wongsejak sejakawal awalvisi visibeda bedavisi visicommuter commuterline linemau maubikin bikinmaju majujangan sudahjelasbisa jelasbisaikut bisaikutrombong ikutrombongwong rombongwongsejak wongsejakawal sejakawalvisi awalvisibeda visibedavisi bedavisicommuter visicommuterline commuterlinemau linemaubikin maubikinmaju bikinmajujangan sudahjelasbisaikut jelasbisaikutrombong bisaikutrombongwong ikutrombongwongsejak rombongwongsejakawal wongsejakawalvisi sejakawalvisibeda awalvisibedavisi visibedavisicommuter bedavisicommuterline visicommuterlinemau commuterlinemaubikin linemaubikinmaju maubikinmajujangan sudahjelasbisaikutrombong jelasbisaikutrombongwong bisaikutrombongwongsejak ikutrombongwongsejakawal rombongwongsejakawalvisi wongsejakawalvisibeda sejakawalvisibedavisi awalvisibedavisicommuter visibedavisicommuterline bedavisicommuterlinemau visicommuterlinemaubikin commuterlinemaubikinmaju linemaubikinmajujangan sudahjelasbisaikutrombongwong jelasbisaikutrombongwongsejak bisaikutrombongwongsejakawal ikutrombongwongsejakawalvisi rombongwongsejakawalvisibeda wongsejakawalvisibedavisi sejakawalvisibedavisicommuter awalvisibedavisicommuterline visibedavisicommuterlinemau bedavisicommuterlinemaubikin visicommuterlinemaubikinmaju commuterlinemaubikinmajujangan</t>
+  </si>
+  <si>
+    <t>helmy faishal debat kandidat tahap empat menang alam https t co 5iueilxkxo helmyfaishal faishaldebat debatkandidat kandidattahap tahapempat empatmenang menangalam alamhttps httpst tco co5iueilxkxo helmyfaishaldebat faishaldebatkandidat debatkandidattahap kandidattahapempat tahapempatmenang empatmenangalam menangalamhttps alamhttpst httpstco tco5iueilxkxo helmyfaishaldebatkandidat faishaldebatkandidattahap debatkandidattahapempat kandidattahapempatmenang tahapempatmenangalam empatmenangalamhttps menangalamhttpst alamhttpstco httpstco5iueilxkxo helmyfaishaldebatkandidattahap faishaldebatkandidattahapempat debatkandidattahapempatmenang kandidattahapempatmenangalam tahapempatmenangalamhttps empatmenangalamhttpst menangalamhttpstco alamhttpstco5iueilxkxo helmyfaishaldebatkandidattahapempat faishaldebatkandidattahapempatmenang debatkandidattahapempatmenangalam kandidattahapempatmenangalamhttps tahapempatmenangalamhttpst empatmenangalamhttpstco menangalamhttpstco5iueilxkxo</t>
+  </si>
+  <si>
+    <t>juang hormat akan diri kaki sendiri kita tidak akan impor pangan juanghormat hormatakan akandiri dirikaki kakisendiri sendirikita kitatidak tidakakan akanimpor imporpangan juanghormatakan hormatakandiri akandirikaki dirikakisendiri kakisendirikita sendirikitatidak kitatidakakan tidakakanimpor akanimporpangan juanghormatakandiri hormatakandirikaki akandirikakisendiri dirikakisendirikita kakisendirikitatidak sendirikitatidakakan kitatidakakanimpor tidakakanimporpangan juanghormatakandirikaki hormatakandirikakisendiri akandirikakisendirikita dirikakisendirikitatidak kakisendirikitatidakakan sendirikitatidakakanimpor kitatidakakanimporpangan juanghormatakandirikakisendiri hormatakandirikakisendirikita akandirikakisendirikitatidak dirikakisendirikitatidakakan kakisendirikitatidakakanimpor sendirikitatidakakanimporpangan</t>
+  </si>
+  <si>
+    <t>korupsi parah stadium empat https t co 4sqd2cyjnw prabowobentengnkri korupsiparah parahstadium stadiumempat empathttps httpst tco co4sqd2cyjnw 4sqd2cyjnwprabowobentengnkri korupsiparahstadium parahstadiumempat stadiumempathttps empathttpst httpstco tco4sqd2cyjnw co4sqd2cyjnwprabowobentengnkri korupsiparahstadiumempat parahstadiumempathttps stadiumempathttpst empathttpstco httpstco4sqd2cyjnw tco4sqd2cyjnwprabowobentengnkri korupsiparahstadiumempathttps parahstadiumempathttpst stadiumempathttpstco empathttpstco4sqd2cyjnw httpstco4sqd2cyjnwprabowobentengnkri korupsiparahstadiumempathttpst parahstadiumempathttpstco stadiumempathttpstco4sqd2cyjnw empathttpstco4sqd2cyjnwprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sangat untung jadi orang kualitas ilmu minim bisa jadi orang presiden sangatuntung untungjadi jadiorang orangkualitas kualitasilmu ilmuminim minimbisa bisajadi jadiorang orangpresiden sangatuntungjadi untungjadiorang jadiorangkualitas orangkualitasilmu kualitasilmuminim ilmuminimbisa minimbisajadi bisajadiorang jadiorangpresiden sangatuntungjadiorang untungjadiorangkualitas jadiorangkualitasilmu orangkualitasilmuminim kualitasilmuminimbisa ilmuminimbisajadi minimbisajadiorang bisajadiorangpresiden sangatuntungjadiorangkualitas untungjadiorangkualitasilmu jadiorangkualitasilmuminim orangkualitasilmuminimbisa kualitasilmuminimbisajadi ilmuminimbisajadiorang minimbisajadiorangpresiden sangatuntungjadiorangkualitasilmu untungjadiorangkualitasilmuminim jadiorangkualitasilmuminimbisa orangkualitasilmuminimbisajadi kualitasilmuminimbisajadiorang ilmuminimbisajadiorangpresiden</t>
+  </si>
+  <si>
+    <t>dulu pernah asal bapak senang asal bapak senang sujud sukur live lho tv one apa live lho asal bapak senang nya wow dulupernah pernahasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangsujud sujudsukur sukurlive livelho lhotv tvone oneapa apalive livelho lhoasal asalbapak bapaksenang senangnya nyawow dulupernahasal pernahasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangsujud senangsujudsukur sujudsukurlive sukurlivelho livelhotv lhotvone tvoneapa oneapalive apalivelho livelhoasal lhoasalbapak asalbapaksenang bapaksenangnya senangnyawow dulupernahasalbapak pernahasalbapaksenang asalbapaksenangasal bapaksenangasalbapak senangasalbapaksenang asalbapaksenangsujud bapaksenangsujudsukur senangsujudsukurlive sujudsukurlivelho sukurlivelhotv livelhotvone lhotvoneapa tvoneapalive oneapalivelho apalivelhoasal livelhoasalbapak lhoasalbapaksenang asalbapaksenangnya bapaksenangnyawow dulupernahasalbapaksenang pernahasalbapaksenangasal asalbapaksenangasalbapak bapaksenangasalbapaksenang senangasalbapaksenangsujud asalbapaksenangsujudsukur bapaksenangsujudsukurlive senangsujudsukurlivelho sujudsukurlivelhotv sukurlivelhotvone livelhotvoneapa lhotvoneapalive tvoneapalivelho oneapalivelhoasal apalivelhoasalbapak livelhoasalbapaksenang lhoasalbapaksenangnya asalbapaksenangnyawow dulupernahasalbapaksenangasal pernahasalbapaksenangasalbapak asalbapaksenangasalbapaksenang bapaksenangasalbapaksenangsujud senangasalbapaksenangsujudsukur asalbapaksenangsujudsukurlive bapaksenangsujudsukurlivelho senangsujudsukurlivelhotv sujudsukurlivelhotvone sukurlivelhotvoneapa livelhotvoneapalive lhotvoneapalivelho tvoneapalivelhoasal oneapalivelhoasalbapak apalivelhoasalbapaksenang livelhoasalbapaksenangnya lhoasalbapaksenangnyawow</t>
+  </si>
+  <si>
+    <t>santai banget screamo mantap jadi pasang bagus kek jokowi-ahok santaibanget bangetscreamo screamomantap mantapjadi jadipasang pasangbagus baguskek kekjokowi-ahok santaibangetscreamo bangetscreamomantap screamomantapjadi mantapjadipasang jadipasangbagus pasangbaguskek baguskekjokowi-ahok santaibangetscreamomantap bangetscreamomantapjadi screamomantapjadipasang mantapjadipasangbagus jadipasangbaguskek pasangbaguskekjokowi-ahok santaibangetscreamomantapjadi bangetscreamomantapjadipasang screamomantapjadipasangbagus mantapjadipasangbaguskek jadipasangbaguskekjokowi-ahok santaibangetscreamomantapjadipasang bangetscreamomantapjadipasangbagus screamomantapjadipasangbaguskek mantapjadipasangbaguskekjokowi-ahok</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni paktraumapecattni traumapecattnibegini pecattnibeginingomongnya tnibeginingomongnyajustru beginingomongnyajustrupak ngomongnyajustrupaksipil justrupaksipilpercaya paksipilpercayasama sipilpercayasamatni paktraumapecattnibegini traumapecattnibeginingomongnya pecattnibeginingomongnyajustru tnibeginingomongnyajustrupak beginingomongnyajustrupaksipil ngomongnyajustrupaksipilpercaya justrupaksipilpercayasama paksipilpercayasamatni paktraumapecattnibeginingomongnya traumapecattnibeginingomongnyajustru pecattnibeginingomongnyajustrupak tnibeginingomongnyajustrupaksipil beginingomongnyajustrupaksipilpercaya ngomongnyajustrupaksipilpercayasama justrupaksipilpercayasamatni</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 ngebacot kaya luar negeri ngomongin diri sendiri https t co tirpkmgt 4g debatpilpres2019 2019ngebacot ngebacotkaya kayaluar luarnegeri negeringomongin ngomongindiri dirisendiri sendirihttps httpst tco cotirpkmgt tirpkmgt4g debatpilpres2019ngebacot 2019ngebacotkaya ngebacotkayaluar kayaluarnegeri luarnegeringomongin negeringomongindiri ngomongindirisendiri dirisendirihttps sendirihttpst httpstco tcotirpkmgt cotirpkmgt4g debatpilpres2019ngebacotkaya 2019ngebacotkayaluar ngebacotkayaluarnegeri kayaluarnegeringomongin luarnegeringomongindiri negeringomongindirisendiri ngomongindirisendirihttps dirisendirihttpst sendirihttpstco httpstcotirpkmgt tcotirpkmgt4g debatpilpres2019ngebacotkayaluar 2019ngebacotkayaluarnegeri ngebacotkayaluarnegeringomongin kayaluarnegeringomongindiri luarnegeringomongindirisendiri negeringomongindirisendirihttps ngomongindirisendirihttpst dirisendirihttpstco sendirihttpstcotirpkmgt httpstcotirpkmgt4g debatpilpres2019ngebacotkayaluarnegeri 2019ngebacotkayaluarnegeringomongin ngebacotkayaluarnegeringomongindiri kayaluarnegeringomongindirisendiri luarnegeringomongindirisendirihttps negeringomongindirisendirihttpst ngomongindirisendirihttpstco dirisendirihttpstcotirpkmgt sendirihttpstcotirpkmgt4g</t>
+  </si>
+  <si>
+    <t>nkri harga mati pancasila selalu hati presidennnya tetap pancasilavskhilafah tim 88untukjokowi tim 88 nkriharga hargamati matipancasila pancasilaselalu selaluhati hatipresidennnya presidennnyatetap tetappancasilavskhilafah pancasilavskhilafahtim tim88untukjokowi 88untukjokowitim tim88 nkrihargamati hargamatipancasila matipancasilaselalu pancasilaselaluhati selaluhatipresidennnya hatipresidennnyatetap presidennnyatetappancasilavskhilafah tetappancasilavskhilafahtim pancasilavskhilafahtim88untukjokowi tim88untukjokowitim 88untukjokowitim88 nkrihargamatipancasila hargamatipancasilaselalu matipancasilaselaluhati pancasilaselaluhatipresidennnya selaluhatipresidennnyatetap hatipresidennnyatetappancasilavskhilafah presidennnyatetappancasilavskhilafahtim tetappancasilavskhilafahtim88untukjokowi pancasilavskhilafahtim88untukjokowitim tim88untukjokowitim88 nkrihargamatipancasilaselalu hargamatipancasilaselaluhati matipancasilaselaluhatipresidennnya pancasilaselaluhatipresidennnyatetap selaluhatipresidennnyatetappancasilavskhilafah hatipresidennnyatetappancasilavskhilafahtim presidennnyatetappancasilavskhilafahtim88untukjokowi tetappancasilavskhilafahtim88untukjokowitim pancasilavskhilafahtim88untukjokowitim88 nkrihargamatipancasilaselaluhati hargamatipancasilaselaluhatipresidennnya matipancasilaselaluhatipresidennnyatetap pancasilaselaluhatipresidennnyatetappancasilavskhilafah selaluhatipresidennnyatetappancasilavskhilafahtim hatipresidennnyatetappancasilavskhilafahtim88untukjokowi presidennnyatetappancasilavskhilafahtim88untukjokowitim tetappancasilavskhilafahtim88untukjokowitim88</t>
+  </si>
+  <si>
+    <t>kritik solusi bagai kaca air keruh kerja beri solusi nyata tumbuh ekonomi kritiksolusi solusibagai bagaikaca kacaair airkeruh keruhkerja kerjaberi berisolusi solusinyata nyatatumbuh tumbuhekonomi kritiksolusibagai solusibagaikaca bagaikacaair kacaairkeruh airkeruhkerja keruhkerjaberi kerjaberisolusi berisolusinyata solusinyatatumbuh nyatatumbuhekonomi kritiksolusibagaikaca solusibagaikacaair bagaikacaairkeruh kacaairkeruhkerja airkeruhkerjaberi keruhkerjaberisolusi kerjaberisolusinyata berisolusinyatatumbuh solusinyatatumbuhekonomi kritiksolusibagaikacaair solusibagaikacaairkeruh bagaikacaairkeruhkerja kacaairkeruhkerjaberi airkeruhkerjaberisolusi keruhkerjaberisolusinyata kerjaberisolusinyatatumbuh berisolusinyatatumbuhekonomi kritiksolusibagaikacaairkeruh solusibagaikacaairkeruhkerja bagaikacaairkeruhkerjaberi kacaairkeruhkerjaberisolusi airkeruhkerjaberisolusinyata keruhkerjaberisolusinyatatumbuh kerjaberisolusinyatatumbuhekonomi</t>
+  </si>
+  <si>
+    <t>si banyak omong soal tax rio rendah perusaaan sendiri nunggak pajak miliar sibanyak banyakomong omongsoal soaltax taxrio riorendah rendahperusaaan perusaaansendiri sendirinunggak nunggakpajak pajakmiliar sibanyakomong banyakomongsoal omongsoaltax soaltaxrio taxriorendah riorendahperusaaan rendahperusaaansendiri perusaaansendirinunggak sendirinunggakpajak nunggakpajakmiliar sibanyakomongsoal banyakomongsoaltax omongsoaltaxrio soaltaxriorendah taxriorendahperusaaan riorendahperusaaansendiri rendahperusaaansendirinunggak perusaaansendirinunggakpajak sendirinunggakpajakmiliar sibanyakomongsoaltax banyakomongsoaltaxrio omongsoaltaxriorendah soaltaxriorendahperusaaan taxriorendahperusaaansendiri riorendahperusaaansendirinunggak rendahperusaaansendirinunggakpajak perusaaansendirinunggakpajakmiliar sibanyakomongsoaltaxrio banyakomongsoaltaxriorendah omongsoaltaxriorendahperusaaan soaltaxriorendahperusaaansendiri taxriorendahperusaaansendirinunggak riorendahperusaaansendirinunggakpajak rendahperusaaansendirinunggakpajakmiliar</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan presidenbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutsista detailalutsistaindonesia alutsistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan presidenbisatidakbicara bisatidakbicaradetail tidakbicaradetailalutsista bicaradetailalutsistaindonesia detailalutsistaindonesiaitu alutsistaindonesiaituyang indonesiaituyangsensitif ituyangsensitiftahan presidenbisatidakbicaradetail bisatidakbicaradetailalutsista tidakbicaradetailalutsistaindonesia bicaradetailalutsistaindonesiaitu detailalutsistaindonesiaituyang alutsistaindonesiaituyangsensitif indonesiaituyangsensitiftahan presidenbisatidakbicaradetailalutsista bisatidakbicaradetailalutsistaindonesia tidakbicaradetailalutsistaindonesiaitu bicaradetailalutsistaindonesiaituyang detailalutsistaindonesiaituyangsensitif alutsistaindonesiaituyangsensitiftahan</t>
+  </si>
+  <si>
+    <t>malam inj gak ikut nonton debtamu pak saya bagai dukung ikut gemetar pak takut yang lalu malaminj injgak gakikut ikutnonton nontondebtamu debtamupak paksaya sayabagai bagaidukung dukungikut ikutgemetar gemetarpak paktakut takutyang yanglalu malaminjgak injgakikut gakikutnonton ikutnontondebtamu nontondebtamupak debtamupaksaya paksayabagai sayabagaidukung bagaidukungikut dukungikutgemetar ikutgemetarpak gemetarpaktakut paktakutyang takutyanglalu malaminjgakikut injgakikutnonton gakikutnontondebtamu ikutnontondebtamupak nontondebtamupaksaya debtamupaksayabagai paksayabagaidukung sayabagaidukungikut bagaidukungikutgemetar dukungikutgemetarpak ikutgemetarpaktakut gemetarpaktakutyang paktakutyanglalu malaminjgakikutnonton injgakikutnontondebtamu gakikutnontondebtamupak ikutnontondebtamupaksaya nontondebtamupaksayabagai debtamupaksayabagaidukung paksayabagaidukungikut sayabagaidukungikutgemetar bagaidukungikutgemetarpak dukungikutgemetarpaktakut ikutgemetarpaktakutyang gemetarpaktakutyanglalu malaminjgakikutnontondebtamu injgakikutnontondebtamupak gakikutnontondebtamupaksaya ikutnontondebtamupaksayabagai nontondebtamupaksayabagaidukung debtamupaksayabagaidukungikut paksayabagaidukungikutgemetar sayabagaidukungikutgemetarpak bagaidukungikutgemetarpaktakut dukungikutgemetarpaktakutyang ikutgemetarpaktakutyanglalu</t>
+  </si>
+  <si>
+    <t>malam benar keren prabowotidakmenyalahkanboneka prabowomenangdebat jokowidiambangkekalahan malambenar benarkeren kerenprabowotidakmenyalahkanboneka prabowotidakmenyalahkanbonekaprabowomenangdebat prabowomenangdebatjokowidiambangkekalahan malambenarkeren benarkerenprabowotidakmenyalahkanboneka kerenprabowotidakmenyalahkanbonekaprabowomenangdebat prabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan malambenarkerenprabowotidakmenyalahkanboneka benarkerenprabowotidakmenyalahkanbonekaprabowomenangdebat kerenprabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan malambenarkerenprabowotidakmenyalahkanbonekaprabowomenangdebat benarkerenprabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan malambenarkerenprabowotidakmenyalahkanbonekaprabowomenangdebatjokowidiambangkekalahan</t>
+  </si>
+  <si>
+    <t>haha yen wahid bilang salah cara ngebaca data anggar tahan hahayen yenwahid wahidbilang bilangsalah salahcara carangebaca ngebacadata dataanggar anggartahan hahayenwahid yenwahidbilang wahidbilangsalah bilangsalahcara salahcarangebaca carangebacadata ngebacadataanggar dataanggartahan hahayenwahidbilang yenwahidbilangsalah wahidbilangsalahcara bilangsalahcarangebaca salahcarangebacadata carangebacadataanggar ngebacadataanggartahan hahayenwahidbilangsalah yenwahidbilangsalahcara wahidbilangsalahcarangebaca bilangsalahcarangebacadata salahcarangebacadataanggar carangebacadataanggartahan hahayenwahidbilangsalahcara yenwahidbilangsalahcarangebaca wahidbilangsalahcarangebacadata bilangsalahcarangebacadataanggar salahcarangebacadataanggartahan</t>
+  </si>
+  <si>
+    <t>closing statement dingin pak makin mantap 17aprilcoblosbajuputih https t co gu7yd7owzz closingstatement statementdingin dinginpak pakmakin makinmantap mantap17aprilcoblosbajuputih 17aprilcoblosbajuputihhttps httpst tco cogu7yd7owzz closingstatementdingin statementdinginpak dinginpakmakin pakmakinmantap makinmantap17aprilcoblosbajuputih mantap17aprilcoblosbajuputihhttps 17aprilcoblosbajuputihhttpst httpstco tcogu7yd7owzz closingstatementdinginpak statementdinginpakmakin dinginpakmakinmantap pakmakinmantap17aprilcoblosbajuputih makinmantap17aprilcoblosbajuputihhttps mantap17aprilcoblosbajuputihhttpst 17aprilcoblosbajuputihhttpstco httpstcogu7yd7owzz closingstatementdinginpakmakin statementdinginpakmakinmantap dinginpakmakinmantap17aprilcoblosbajuputih pakmakinmantap17aprilcoblosbajuputihhttps makinmantap17aprilcoblosbajuputihhttpst mantap17aprilcoblosbajuputihhttpstco 17aprilcoblosbajuputihhttpstcogu7yd7owzz closingstatementdinginpakmakinmantap statementdinginpakmakinmantap17aprilcoblosbajuputih dinginpakmakinmantap17aprilcoblosbajuputihhttps pakmakinmantap17aprilcoblosbajuputihhttpst makinmantap17aprilcoblosbajuputihhttpstco mantap17aprilcoblosbajuputihhttpstcogu7yd7owzz</t>
+  </si>
+  <si>
+    <t>pokok malam pak jos sekali mantap banget buat lawan klepek-klepek kaya ikan kurang air pokokmalam malampak pakjos jossekali sekalimantap mantapbanget bangetbuat buatlawan lawanklepek-klepek klepek-klepekkaya kayaikan ikankurang kurangair pokokmalampak malampakjos pakjossekali jossekalimantap sekalimantapbanget mantapbangetbuat bangetbuatlawan buatlawanklepek-klepek lawanklepek-klepekkaya klepek-klepekkayaikan kayaikankurang ikankurangair pokokmalampakjos malampakjossekali pakjossekalimantap jossekalimantapbanget sekalimantapbangetbuat mantapbangetbuatlawan bangetbuatlawanklepek-klepek buatlawanklepek-klepekkaya lawanklepek-klepekkayaikan klepek-klepekkayaikankurang kayaikankurangair pokokmalampakjossekali malampakjossekalimantap pakjossekalimantapbanget jossekalimantapbangetbuat sekalimantapbangetbuatlawan mantapbangetbuatlawanklepek-klepek bangetbuatlawanklepek-klepekkaya buatlawanklepek-klepekkayaikan lawanklepek-klepekkayaikankurang klepek-klepekkayaikankurangair pokokmalampakjossekalimantap malampakjossekalimantapbanget pakjossekalimantapbangetbuat jossekalimantapbangetbuatlawan sekalimantapbangetbuatlawanklepek-klepek mantapbangetbuatlawanklepek-klepekkaya bangetbuatlawanklepek-klepekkayaikan buatlawanklepek-klepekkayaikankurang lawanklepek-klepekkayaikankurangair</t>
+  </si>
+  <si>
+    <t>debat udah selesai unggul - satu pujat 01caprespendustaabadi prabowomenangdebat debatudah udahselesai selesaiunggul unggul- -satu satupujat pujat01caprespendustaabadi 01caprespendustaabadiprabowomenangdebat debatudahselesai udahselesaiunggul selesaiunggul- unggul-satu -satupujat satupujat01caprespendustaabadi pujat01caprespendustaabadiprabowomenangdebat debatudahselesaiunggul udahselesaiunggul- selesaiunggul-satu unggul-satupujat -satupujat01caprespendustaabadi satupujat01caprespendustaabadiprabowomenangdebat debatudahselesaiunggul- udahselesaiunggul-satu selesaiunggul-satupujat unggul-satupujat01caprespendustaabadi -satupujat01caprespendustaabadiprabowomenangdebat debatudahselesaiunggul-satu udahselesaiunggul-satupujat selesaiunggul-satupujat01caprespendustaabadi unggul-satupujat01caprespendustaabadiprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>kalau terima mandat akan bersih kuat lembaga perintah prabowobentengnkri kalauterima terimamandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahprabowobentengnkri kalauterimamandat terimamandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahprabowobentengnkri kalauterimamandatakan terimamandatakanbersih mandatakanbersihkuat akanbersihkuatlembaga bersihkuatlembagaperintah kuatlembagaperintahprabowobentengnkri kalauterimamandatakanbersih terimamandatakanbersihkuat mandatakanbersihkuatlembaga akanbersihkuatlembagaperintah bersihkuatlembagaperintahprabowobentengnkri kalauterimamandatakanbersihkuat terimamandatakanbersihkuatlembaga mandatakanbersihkuatlembagaperintah akanbersihkuatlembagaperintahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lebih semangat jaga momentum sd april prabowobentengnkri https t co evpzax 3bax lebihsemangat semangatjaga jagamomentum momentumsd sdapril aprilprabowobentengnkri prabowobentengnkrihttps httpst tco coevpzax evpzax3bax lebihsemangatjaga semangatjagamomentum jagamomentumsd momentumsdapril sdaprilprabowobentengnkri aprilprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tcoevpzax coevpzax3bax lebihsemangatjagamomentum semangatjagamomentumsd jagamomentumsdapril momentumsdaprilprabowobentengnkri sdaprilprabowobentengnkrihttps aprilprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstcoevpzax tcoevpzax3bax lebihsemangatjagamomentumsd semangatjagamomentumsdapril jagamomentumsdaprilprabowobentengnkri momentumsdaprilprabowobentengnkrihttps sdaprilprabowobentengnkrihttpst aprilprabowobentengnkrihttpstco prabowobentengnkrihttpstcoevpzax httpstcoevpzax3bax lebihsemangatjagamomentumsdapril semangatjagamomentumsdaprilprabowobentengnkri jagamomentumsdaprilprabowobentengnkrihttps momentumsdaprilprabowobentengnkrihttpst sdaprilprabowobentengnkrihttpstco aprilprabowobentengnkrihttpstcoevpzax prabowobentengnkrihttpstcoevpzax3bax</t>
+  </si>
+  <si>
+    <t>bidang tahan aman masih terlalu lemah anggar terlalu kecil yang kita baik bidangtahan tahanaman amanmasih masihterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilyang yangkita kitabaik bidangtahanaman tahanamanmasih amanmasihterlalu masihterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilyang kecilyangkita yangkitabaik bidangtahanamanmasih tahanamanmasihterlalu amanmasihterlalulemah masihterlalulemahanggar terlalulemahanggarterlalu lemahanggarterlalukecil anggarterlalukecilyang terlalukecilyangkita kecilyangkitabaik bidangtahanamanmasihterlalu tahanamanmasihterlalulemah amanmasihterlalulemahanggar masihterlalulemahanggarterlalu terlalulemahanggarterlalukecil lemahanggarterlalukecilyang anggarterlalukecilyangkita terlalukecilyangkitabaik bidangtahanamanmasihterlalulemah tahanamanmasihterlalulemahanggar amanmasihterlalulemahanggarterlalu masihterlalulemahanggarterlalukecil terlalulemahanggarterlalukecilyang lemahanggarterlalukecilyangkita anggarterlalukecilyangkitabaik</t>
+  </si>
+  <si>
+    <t>membully pak tak istri lalu pamer mesra keluarga membullypak paktak takistri istrilalu lalupamer pamermesra mesrakeluarga membullypaktak paktakistri takistrilalu istrilalupamer lalupamermesra pamermesrakeluarga membullypaktakistri paktakistrilalu takistrilalupamer istrilalupamermesra lalupamermesrakeluarga membullypaktakistrilalu paktakistrilalupamer takistrilalupamermesra istrilalupamermesrakeluarga membullypaktakistrilalupamer paktakistrilalupamermesra takistrilalupamermesrakeluarga</t>
+  </si>
+  <si>
+    <t>yakin lubuk hati dukung pada malu lihat jagoanya kaya gitu mata publik yakinlubuk lubukhati hatidukung dukungpada padamalu malulihat lihatjagoanya jagoanyakaya kayagitu gitumata matapublik yakinlubukhati lubukhatidukung hatidukungpada dukungpadamalu padamalulihat malulihatjagoanya lihatjagoanyakaya jagoanyakayagitu kayagitumata gitumatapublik yakinlubukhatidukung lubukhatidukungpada hatidukungpadamalu dukungpadamalulihat padamalulihatjagoanya malulihatjagoanyakaya lihatjagoanyakayagitu jagoanyakayagitumata kayagitumatapublik yakinlubukhatidukungpada lubukhatidukungpadamalu hatidukungpadamalulihat dukungpadamalulihatjagoanya padamalulihatjagoanyakaya malulihatjagoanyakayagitu lihatjagoanyakayagitumata jagoanyakayagitumatapublik yakinlubukhatidukungpadamalu lubukhatidukungpadamalulihat hatidukungpadamalulihatjagoanya dukungpadamalulihatjagoanyakaya padamalulihatjagoanyakayagitu malulihatjagoanyakayagitumata lihatjagoanyakayagitumatapublik</t>
+  </si>
+  <si>
+    <t>pemerintahandilan tekan layan perintah baik butuh efektifitas efisiensi pemerintahandilantekan tekanlayan layanperintah perintahbaik baikbutuh butuhefektifitas efektifitasefisiensi pemerintahandilantekanlayan tekanlayanperintah layanperintahbaik perintahbaikbutuh baikbutuhefektifitas butuhefektifitasefisiensi pemerintahandilantekanlayanperintah tekanlayanperintahbaik layanperintahbaikbutuh perintahbaikbutuhefektifitas baikbutuhefektifitasefisiensi pemerintahandilantekanlayanperintahbaik tekanlayanperintahbaikbutuh layanperintahbaikbutuhefektifitas perintahbaikbutuhefektifitasefisiensi pemerintahandilantekanlayanperintahbaikbutuh tekanlayanperintahbaikbutuhefektifitas layanperintahbaikbutuhefektifitasefisiensi</t>
+  </si>
+  <si>
+    <t>hakul yakin indonesia hebat rakyat sejahtera wujud sama - prabowomenangdebat hakulyakin yakinindonesia indonesiahebat hebatrakyat rakyatsejahtera sejahterawujud wujudsama sama- -prabowomenangdebat hakulyakinindonesia yakinindonesiahebat indonesiahebatrakyat hebatrakyatsejahtera rakyatsejahterawujud sejahterawujudsama wujudsama- sama-prabowomenangdebat hakulyakinindonesiahebat yakinindonesiahebatrakyat indonesiahebatrakyatsejahtera hebatrakyatsejahterawujud rakyatsejahterawujudsama sejahterawujudsama- wujudsama-prabowomenangdebat hakulyakinindonesiahebatrakyat yakinindonesiahebatrakyatsejahtera indonesiahebatrakyatsejahterawujud hebatrakyatsejahterawujudsama rakyatsejahterawujudsama- sejahterawujudsama-prabowomenangdebat hakulyakinindonesiahebatrakyatsejahtera yakinindonesiahebatrakyatsejahterawujud indonesiahebatrakyatsejahterawujudsama hebatrakyatsejahterawujudsama- rakyatsejahterawujudsama-prabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 bagaimana mau maju tni kalau baru jadi mayor jangan udah pensiun sekarang jadi timses bapak debatpilpres2019 2019bagaimana bagaimanamau maumaju majutni tnikalau kalaubaru barujadi jadimayor mayorjangan janganudah udahpensiun pensiunsekarang sekarangjadi jaditimses timsesbapak debatpilpres2019bagaimana 2019bagaimanamau bagaimanamaumaju maumajutni majutnikalau tnikalaubaru kalaubarujadi barujadimayor jadimayorjangan mayorjanganudah janganudahpensiun udahpensiunsekarang pensiunsekarangjadi sekarangjaditimses jaditimsesbapak debatpilpres2019bagaimanamau 2019bagaimanamaumaju bagaimanamaumajutni maumajutnikalau majutnikalaubaru tnikalaubarujadi kalaubarujadimayor barujadimayorjangan jadimayorjanganudah mayorjanganudahpensiun janganudahpensiunsekarang udahpensiunsekarangjadi pensiunsekarangjaditimses sekarangjaditimsesbapak debatpilpres2019bagaimanamaumaju 2019bagaimanamaumajutni bagaimanamaumajutnikalau maumajutnikalaubaru majutnikalaubarujadi tnikalaubarujadimayor kalaubarujadimayorjangan barujadimayorjanganudah jadimayorjanganudahpensiun mayorjanganudahpensiunsekarang janganudahpensiunsekarangjadi udahpensiunsekarangjaditimses pensiunsekarangjaditimsesbapak debatpilpres2019bagaimanamaumajutni 2019bagaimanamaumajutnikalau bagaimanamaumajutnikalaubaru maumajutnikalaubarujadi majutnikalaubarujadimayor tnikalaubarujadimayorjangan kalaubarujadimayorjanganudah barujadimayorjanganudahpensiun jadimayorjanganudahpensiunsekarang mayorjanganudahpensiunsekarangjadi janganudahpensiunsekarangjaditimses udahpensiunsekarangjaditimsesbapak</t>
+  </si>
+  <si>
+    <t>turut pk diplomasi arti tahan inti national interest bukan cuma senyam-senyum turutpk pkdiplomasi diplomasiarti artitahan tahaninti intinational nationalinterest interestbukan bukancuma cumasenyam-senyum turutpkdiplomasi pkdiplomasiarti diplomasiartitahan artitahaninti tahanintinational intinationalinterest nationalinterestbukan interestbukancuma bukancumasenyam-senyum turutpkdiplomasiarti pkdiplomasiartitahan diplomasiartitahaninti artitahanintinational tahanintinationalinterest intinationalinterestbukan nationalinterestbukancuma interestbukancumasenyam-senyum turutpkdiplomasiartitahan pkdiplomasiartitahaninti diplomasiartitahanintinational artitahanintinationalinterest tahanintinationalinterestbukan intinationalinterestbukancuma nationalinterestbukancumasenyam-senyum turutpkdiplomasiartitahaninti pkdiplomasiartitahanintinational diplomasiartitahanintinationalinterest artitahanintinationalinterestbukan tahanintinationalinterestbukancuma intinationalinterestbukancumasenyam-senyum</t>
+  </si>
+  <si>
+    <t>bisik si jokowi lebih sibuk cari cara gebuk lawan politik waspada jaga nkri bisiksi sijokowi jokowilebih lebihsibuk sibukcari caricara caragebuk gebuklawan lawanpolitik politikwaspada waspadajaga jagankri bisiksijokowi sijokowilebih jokowilebihsibuk lebihsibukcari sibukcaricara caricaragebuk caragebuklawan gebuklawanpolitik lawanpolitikwaspada politikwaspadajaga waspadajagankri bisiksijokowilebih sijokowilebihsibuk jokowilebihsibukcari lebihsibukcaricara sibukcaricaragebuk caricaragebuklawan caragebuklawanpolitik gebuklawanpolitikwaspada lawanpolitikwaspadajaga politikwaspadajagankri bisiksijokowilebihsibuk sijokowilebihsibukcari jokowilebihsibukcaricara lebihsibukcaricaragebuk sibukcaricaragebuklawan caricaragebuklawanpolitik caragebuklawanpolitikwaspada gebuklawanpolitikwaspadajaga lawanpolitikwaspadajagankri bisiksijokowilebihsibukcari sijokowilebihsibukcaricara jokowilebihsibukcaricaragebuk lebihsibukcaricaragebuklawan sibukcaricaragebuklawanpolitik caricaragebuklawanpolitikwaspada caragebuklawanpolitikwaspadajaga gebuklawanpolitikwaspadajagankri</t>
+  </si>
+  <si>
+    <t>bukan percaya sama tni tni lebih tni para tni orang patriot cinta nkri bukanpercaya percayasama samatni tnitni tnilebih lebihtni tnipara paratni tniorang orangpatriot patriotcinta cintankri bukanpercayasama percayasamatni samatnitni tnitnilebih tnilebihtni lebihtnipara tniparatni paratniorang tniorangpatriot orangpatriotcinta patriotcintankri bukanpercayasamatni percayasamatnitni samatnitnilebih tnitnilebihtni tnilebihtnipara lebihtniparatni tniparatniorang paratniorangpatriot tniorangpatriotcinta orangpatriotcintankri bukanpercayasamatnitni percayasamatnitnilebih samatnitnilebihtni tnitnilebihtnipara tnilebihtniparatni lebihtniparatniorang tniparatniorangpatriot paratniorangpatriotcinta tniorangpatriotcintankri bukanpercayasamatnitnilebih percayasamatnitnilebihtni samatnitnilebihtnipara tnitnilebihtniparatni tnilebihtniparatniorang lebihtniparatniorangpatriot tniparatniorangpatriotcinta paratniorangpatriotcintankri</t>
+  </si>
+  <si>
+    <t>ketawa kalian ketawa tahan indonesia rapuh kalian ketawa lucu kok lucu ujar ketawakalian kalianketawa ketawatahan tahanindonesia indonesiarapuh rapuhkalian kalianketawa ketawalucu lucukok koklucu lucuujar ketawakalianketawa kalianketawatahan ketawatahanindonesia tahanindonesiarapuh indonesiarapuhkalian rapuhkalianketawa kalianketawalucu ketawalucukok lucukoklucu koklucuujar ketawakalianketawatahan kalianketawatahanindonesia ketawatahanindonesiarapuh tahanindonesiarapuhkalian indonesiarapuhkalianketawa rapuhkalianketawalucu kalianketawalucukok ketawalucukoklucu lucukoklucuujar ketawakalianketawatahanindonesia kalianketawatahanindonesiarapuh ketawatahanindonesiarapuhkalian tahanindonesiarapuhkalianketawa indonesiarapuhkalianketawalucu rapuhkalianketawalucukok kalianketawalucukoklucu ketawalucukoklucuujar ketawakalianketawatahanindonesiarapuh kalianketawatahanindonesiarapuhkalian ketawatahanindonesiarapuhkalianketawa tahanindonesiarapuhkalianketawalucu indonesiarapuhkalianketawalucukok rapuhkalianketawalucukoklucu kalianketawalucukoklucuujar</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 tidak harga internasional tuh doang mah dihargain kok debatpilpres2019 2019tidak tidakharga hargainternasional internasionaltuh tuhdoang doangmah mahdihargain dihargainkok debatpilpres2019tidak 2019tidakharga tidakhargainternasional hargainternasionaltuh internasionaltuhdoang tuhdoangmah doangmahdihargain mahdihargainkok debatpilpres2019tidakharga 2019tidakhargainternasional tidakhargainternasionaltuh hargainternasionaltuhdoang internasionaltuhdoangmah tuhdoangmahdihargain doangmahdihargainkok debatpilpres2019tidakhargainternasional 2019tidakhargainternasionaltuh tidakhargainternasionaltuhdoang hargainternasionaltuhdoangmah internasionaltuhdoangmahdihargain tuhdoangmahdihargainkok debatpilpres2019tidakhargainternasionaltuh 2019tidakhargainternasionaltuhdoang tidakhargainternasionaltuhdoangmah hargainternasionaltuhdoangmahdihargain internasionaltuhdoangmahdihargainkok</t>
+  </si>
+  <si>
+    <t>komplit tukang bohong main curang piye pak de komplittukang tukangbohong bohongmain maincurang curangpiye piyepak pakde komplittukangbohong tukangbohongmain bohongmaincurang maincurangpiye curangpiyepak piyepakde komplittukangbohongmain tukangbohongmaincurang bohongmaincurangpiye maincurangpiyepak curangpiyepakde komplittukangbohongmaincurang tukangbohongmaincurangpiye bohongmaincurangpiyepak maincurangpiyepakde komplittukangbohongmaincurangpiye tukangbohongmaincurangpiyepak bohongmaincurangpiyepakde</t>
+  </si>
+  <si>
+    <t>dong pak sangat percaya tni jokowidilan pemerintahandilan https t co uunuy 9su9e dongpak paksangat sangatpercaya percayatni tnijokowidilan jokowidilanpemerintahandilan pemerintahandilanhttps httpst tco couunuy uunuy9su9e dongpaksangat paksangatpercaya sangatpercayatni percayatnijokowidilan tnijokowidilanpemerintahandilan jokowidilanpemerintahandilanhttps pemerintahandilanhttpst httpstco tcouunuy couunuy9su9e dongpaksangatpercaya paksangatpercayatni sangatpercayatnijokowidilan percayatnijokowidilanpemerintahandilan tnijokowidilanpemerintahandilanhttps jokowidilanpemerintahandilanhttpst pemerintahandilanhttpstco httpstcouunuy tcouunuy9su9e dongpaksangatpercayatni paksangatpercayatnijokowidilan sangatpercayatnijokowidilanpemerintahandilan percayatnijokowidilanpemerintahandilanhttps tnijokowidilanpemerintahandilanhttpst jokowidilanpemerintahandilanhttpstco pemerintahandilanhttpstcouunuy httpstcouunuy9su9e dongpaksangatpercayatnijokowidilan paksangatpercayatnijokowidilanpemerintahandilan sangatpercayatnijokowidilanpemerintahandilanhttps percayatnijokowidilanpemerintahandilanhttpst tnijokowidilanpemerintahandilanhttpstco jokowidilanpemerintahandilanhttpstcouunuy pemerintahandilanhttpstcouunuy9su9e</t>
+  </si>
+  <si>
+    <t>unggul april menangjokowilagi unggulapril aprilmenangjokowilagi unggulaprilmenangjokowilagi</t>
+  </si>
+  <si>
+    <t>saat perintah kibal-kibul akhir jokowidiambangkekalahan masyarakat hilang percaya perintah saatperintah perintahkibal-kibul kibal-kibulakhir akhirjokowidiambangkekalahan jokowidiambangkekalahanmasyarakat masyarakathilang hilangpercaya percayaperintah saatperintahkibal-kibul perintahkibal-kibulakhir kibal-kibulakhirjokowidiambangkekalahan akhirjokowidiambangkekalahanmasyarakat jokowidiambangkekalahanmasyarakathilang masyarakathilangpercaya hilangpercayaperintah saatperintahkibal-kibulakhir perintahkibal-kibulakhirjokowidiambangkekalahan kibal-kibulakhirjokowidiambangkekalahanmasyarakat akhirjokowidiambangkekalahanmasyarakathilang jokowidiambangkekalahanmasyarakathilangpercaya masyarakathilangpercayaperintah saatperintahkibal-kibulakhirjokowidiambangkekalahan perintahkibal-kibulakhirjokowidiambangkekalahanmasyarakat kibal-kibulakhirjokowidiambangkekalahanmasyarakathilang akhirjokowidiambangkekalahanmasyarakathilangpercaya jokowidiambangkekalahanmasyarakathilangpercayaperintah saatperintahkibal-kibulakhirjokowidiambangkekalahanmasyarakat perintahkibal-kibulakhirjokowidiambangkekalahanmasyarakathilang kibal-kibulakhirjokowidiambangkekalahanmasyarakathilangpercaya akhirjokowidiambangkekalahanmasyarakathilangpercayaperintah</t>
+  </si>
+  <si>
+    <t>politik luar negeri sampai tak sesuai realitas dia sering tak hadir forum internasional politikluar luarnegeri negerisampai sampaitak taksesuai sesuairealitas realitasdia diasering seringtak takhadir hadirforum foruminternasional politikluarnegeri luarnegerisampai negerisampaitak sampaitaksesuai taksesuairealitas sesuairealitasdia realitasdiasering diaseringtak seringtakhadir takhadirforum hadirforuminternasional politikluarnegerisampai luarnegerisampaitak negerisampaitaksesuai sampaitaksesuairealitas taksesuairealitasdia sesuairealitasdiasering realitasdiaseringtak diaseringtakhadir seringtakhadirforum takhadirforuminternasional politikluarnegerisampaitak luarnegerisampaitaksesuai negerisampaitaksesuairealitas sampaitaksesuairealitasdia taksesuairealitasdiasering sesuairealitasdiaseringtak realitasdiaseringtakhadir diaseringtakhadirforum seringtakhadirforuminternasional politikluarnegerisampaitaksesuai luarnegerisampaitaksesuairealitas negerisampaitaksesuairealitasdia sampaitaksesuairealitasdiasering taksesuairealitasdiaseringtak sesuairealitasdiaseringtakhadir realitasdiaseringtakhadirforum diaseringtakhadirforuminternasional</t>
+  </si>
+  <si>
+    <t>distrust paham apa makna hanya plonga-plongo debatpilpres 2019 https t co qpr 2qpbcj1 distrustpaham pahamapa apamakna maknahanya hanyaplonga-plongo plonga-plongodebatpilpres debatpilpres2019 2019https httpst tco coqpr qpr2qpbcj1 distrustpahamapa pahamapamakna apamaknahanya maknahanyaplonga-plongo hanyaplonga-plongodebatpilpres plonga-plongodebatpilpres2019 debatpilpres2019https 2019httpst httpstco tcoqpr coqpr2qpbcj1 distrustpahamapamakna pahamapamaknahanya apamaknahanyaplonga-plongo maknahanyaplonga-plongodebatpilpres hanyaplonga-plongodebatpilpres2019 plonga-plongodebatpilpres2019https debatpilpres2019httpst 2019httpstco httpstcoqpr tcoqpr2qpbcj1 distrustpahamapamaknahanya pahamapamaknahanyaplonga-plongo apamaknahanyaplonga-plongodebatpilpres maknahanyaplonga-plongodebatpilpres2019 hanyaplonga-plongodebatpilpres2019https plonga-plongodebatpilpres2019httpst debatpilpres2019httpstco 2019httpstcoqpr httpstcoqpr2qpbcj1 distrustpahamapamaknahanyaplonga-plongo pahamapamaknahanyaplonga-plongodebatpilpres apamaknahanyaplonga-plongodebatpilpres2019 maknahanyaplonga-plongodebatpilpres2019https hanyaplonga-plongodebatpilpres2019httpst plonga-plongodebatpilpres2019httpstco debatpilpres2019httpstcoqpr 2019httpstcoqpr2qpbcj1</t>
+  </si>
+  <si>
+    <t>harus utama tuju perintah sendiri tuju perintah jelas akan jadi gaduh harusutama utamatuju tujuperintah perintahsendiri sendirituju tujuperintah perintahjelas jelasakan akanjadi jadigaduh harusutamatuju utamatujuperintah tujuperintahsendiri perintahsendirituju sendiritujuperintah tujuperintahjelas perintahjelasakan jelasakanjadi akanjadigaduh harusutamatujuperintah utamatujuperintahsendiri tujuperintahsendirituju perintahsendiritujuperintah sendiritujuperintahjelas tujuperintahjelasakan perintahjelasakanjadi jelasakanjadigaduh harusutamatujuperintahsendiri utamatujuperintahsendirituju tujuperintahsendiritujuperintah perintahsendiritujuperintahjelas sendiritujuperintahjelasakan tujuperintahjelasakanjadi perintahjelasakanjadigaduh harusutamatujuperintahsendirituju utamatujuperintahsendiritujuperintah tujuperintahsendiritujuperintahjelas perintahsendiritujuperintahjelasakan sendiritujuperintahjelasakanjadi tujuperintahjelasakanjadigaduh</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap https t co znzz 94ncaj depanmau mauubah ubahpancasila pancasilahadap hadaphttps httpst tco coznzz znzz94ncaj depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadaphttps hadaphttpst httpstco tcoznzz coznzz94ncaj depanmauubahpancasila mauubahpancasilahadap ubahpancasilahadaphttps pancasilahadaphttpst hadaphttpstco httpstcoznzz tcoznzz94ncaj depanmauubahpancasilahadap mauubahpancasilahadaphttps ubahpancasilahadaphttpst pancasilahadaphttpstco hadaphttpstcoznzz httpstcoznzz94ncaj depanmauubahpancasilahadaphttps mauubahpancasilahadaphttpst ubahpancasilahadaphttpstco pancasilahadaphttpstcoznzz hadaphttpstcoznzz94ncaj</t>
+  </si>
+  <si>
+    <t>menang gagas menang debat menang pilpres prabowobentengnkri menanggagas gagasmenang menangdebat debatmenang menangpilpres pilpresprabowobentengnkri menanggagasmenang gagasmenangdebat menangdebatmenang debatmenangpilpres menangpilpresprabowobentengnkri menanggagasmenangdebat gagasmenangdebatmenang menangdebatmenangpilpres debatmenangpilpresprabowobentengnkri menanggagasmenangdebatmenang gagasmenangdebatmenangpilpres menangdebatmenangpilpresprabowobentengnkri menanggagasmenangdebatmenangpilpres gagasmenangdebatmenangpilpresprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>anak beri tahu toleransi kita beda - optimisindonesiamaju anakberi beritahu tahutoleransi toleransikita kitabeda beda- -optimisindonesiamaju anakberitahu beritahutoleransi tahutoleransikita toleransikitabeda kitabeda- beda-optimisindonesiamaju anakberitahutoleransi beritahutoleransikita tahutoleransikitabeda toleransikitabeda- kitabeda-optimisindonesiamaju anakberitahutoleransikita beritahutoleransikitabeda tahutoleransikitabeda- toleransikitabeda-optimisindonesiamaju anakberitahutoleransikitabeda beritahutoleransikitabeda- tahutoleransikitabeda-optimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>nama benteng harus kokoh masuk allah uji waktu kondisi namabenteng bentengharus haruskokoh kokohmasuk masukallah allahuji ujiwaktu waktukondisi namabentengharus bentengharuskokoh haruskokohmasuk kokohmasukallah masukallahuji allahujiwaktu ujiwaktukondisi namabentengharuskokoh bentengharuskokohmasuk haruskokohmasukallah kokohmasukallahuji masukallahujiwaktu allahujiwaktukondisi namabentengharuskokohmasuk bentengharuskokohmasukallah haruskokohmasukallahuji kokohmasukallahujiwaktu masukallahujiwaktukondisi namabentengharuskokohmasukallah bentengharuskokohmasukallahuji haruskokohmasukallahujiwaktu kokohmasukallahujiwaktukondisi</t>
+  </si>
+  <si>
+    <t>percaya kalau pak pimpin baik pemerintahandilan percayakalau kalaupak pakpimpin pimpinbaik baikpemerintahandilan percayakalaupak kalaupakpimpin pakpimpinbaik pimpinbaikpemerintahandilan percayakalaupakpimpin kalaupakpimpinbaik pakpimpinbaikpemerintahandilan percayakalaupakpimpinbaik kalaupakpimpinbaikpemerintahandilan percayakalaupakpimpinbaikpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pak ini sering naik sepeda rantai sering putus paksa ganti rantai makan pak pakini inisering seringnaik naiksepeda sepedarantai rantaisering seringputus putuspaksa paksaganti gantirantai rantaimakan makanpak pakinisering iniseringnaik seringnaiksepeda naiksepedarantai sepedarantaisering rantaiseringputus seringputuspaksa putuspaksaganti paksagantirantai gantirantaimakan rantaimakanpak pakiniseringnaik iniseringnaiksepeda seringnaiksepedarantai naiksepedarantaisering sepedarantaiseringputus rantaiseringputuspaksa seringputuspaksaganti putuspaksagantirantai paksagantirantaimakan gantirantaimakanpak pakiniseringnaiksepeda iniseringnaiksepedarantai seringnaiksepedarantaisering naiksepedarantaiseringputus sepedarantaiseringputuspaksa rantaiseringputuspaksaganti seringputuspaksagantirantai putuspaksagantirantaimakan paksagantirantaimakanpak pakiniseringnaiksepedarantai iniseringnaiksepedarantaisering seringnaiksepedarantaiseringputus naiksepedarantaiseringputuspaksa sepedarantaiseringputuspaksaganti rantaiseringputuspaksagantirantai seringputuspaksagantirantaimakan putuspaksagantirantaimakanpak</t>
+  </si>
+  <si>
+    <t>meski indonesia milik saham persen freeport sebut untung freeport jauh lebih besar meskiindonesia indonesiamilik miliksaham sahampersen persenfreeport freeportsebut sebutuntung untungfreeport freeportjauh jauhlebih lebihbesar meskiindonesiamilik indonesiamiliksaham miliksahampersen sahampersenfreeport persenfreeportsebut freeportsebutuntung sebutuntungfreeport untungfreeportjauh freeportjauhlebih jauhlebihbesar meskiindonesiamiliksaham indonesiamiliksahampersen miliksahampersenfreeport sahampersenfreeportsebut persenfreeportsebutuntung freeportsebutuntungfreeport sebutuntungfreeportjauh untungfreeportjauhlebih freeportjauhlebihbesar meskiindonesiamiliksahampersen indonesiamiliksahampersenfreeport miliksahampersenfreeportsebut sahampersenfreeportsebutuntung persenfreeportsebutuntungfreeport freeportsebutuntungfreeportjauh sebutuntungfreeportjauhlebih untungfreeportjauhlebihbesar meskiindonesiamiliksahampersenfreeport indonesiamiliksahampersenfreeportsebut miliksahampersenfreeportsebutuntung sahampersenfreeportsebutuntungfreeport persenfreeportsebutuntungfreeportjauh freeportsebutuntungfreeportjauhlebih sebutuntungfreeportjauhlebihbesar</t>
+  </si>
+  <si>
+    <t>ghiroh kab kalong menang sungguh haru bangga dlm parau suara brandal ghirohkab kabkalong kalongmenang menangsungguh sungguhharu harubangga banggadlm dlmparau parausuara suarabrandal ghirohkabkalong kabkalongmenang kalongmenangsungguh menangsungguhharu sungguhharubangga harubanggadlm banggadlmparau dlmparausuara parausuarabrandal ghirohkabkalongmenang kabkalongmenangsungguh kalongmenangsungguhharu menangsungguhharubangga sungguhharubanggadlm harubanggadlmparau banggadlmparausuara dlmparausuarabrandal ghirohkabkalongmenangsungguh kabkalongmenangsungguhharu kalongmenangsungguhharubangga menangsungguhharubanggadlm sungguhharubanggadlmparau harubanggadlmparausuara banggadlmparausuarabrandal ghirohkabkalongmenangsungguhharu kabkalongmenangsungguhharubangga kalongmenangsungguhharubanggadlm menangsungguhharubanggadlmparau sungguhharubanggadlmparausuara harubanggadlmparausuarabrandal</t>
+  </si>
+  <si>
+    <t>mantap pak jokowidiambangkekalahan https t co 5aqu8vfkic mantappak pakjokowidiambangkekalahan jokowidiambangkekalahanhttps httpst tco co5aqu8vfkic mantappakjokowidiambangkekalahan pakjokowidiambangkekalahanhttps jokowidiambangkekalahanhttpst httpstco tco5aqu8vfkic mantappakjokowidiambangkekalahanhttps pakjokowidiambangkekalahanhttpst jokowidiambangkekalahanhttpstco httpstco5aqu8vfkic mantappakjokowidiambangkekalahanhttpst pakjokowidiambangkekalahanhttpstco jokowidiambangkekalahanhttpstco5aqu8vfkic mantappakjokowidiambangkekalahanhttpstco pakjokowidiambangkekalahanhttpstco5aqu8vfkic</t>
+  </si>
+  <si>
+    <t>benteng nkri benteng bukan banteng prabowobentengnkri bentengnkri nkribenteng bentengbukan bukanbanteng bantengprabowobentengnkri bentengnkribenteng nkribentengbukan bentengbukanbanteng bukanbantengprabowobentengnkri bentengnkribentengbukan nkribentengbukanbanteng bentengbukanbantengprabowobentengnkri bentengnkribentengbukanbanteng nkribentengbukanbantengprabowobentengnkri bentengnkribentengbukanbantengprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>pak siap papar visi misi beliau tema debat malam 01dilanjutkan paksiap siappapar paparvisi visimisi misibeliau beliautema temadebat debatmalam malam01dilanjutkan paksiappapar siappaparvisi paparvisimisi visimisibeliau misibeliautema beliautemadebat temadebatmalam debatmalam01dilanjutkan paksiappaparvisi siappaparvisimisi paparvisimisibeliau visimisibeliautema misibeliautemadebat beliautemadebatmalam temadebatmalam01dilanjutkan paksiappaparvisimisi siappaparvisimisibeliau paparvisimisibeliautema visimisibeliautemadebat misibeliautemadebatmalam beliautemadebatmalam01dilanjutkan paksiappaparvisimisibeliau siappaparvisimisibeliautema paparvisimisibeliautemadebat visimisibeliautemadebatmalam misibeliautemadebatmalam01dilanjutkan</t>
+  </si>
+  <si>
+    <t>sosok pimpin baik maka tak ada alas golput 01dilanjutkan sosokpimpin pimpinbaik baikmaka makatak takada adaalas alasgolput golput01dilanjutkan sosokpimpinbaik pimpinbaikmaka baikmakatak makatakada takadaalas adaalasgolput alasgolput01dilanjutkan sosokpimpinbaikmaka pimpinbaikmakatak baikmakatakada makatakadaalas takadaalasgolput adaalasgolput01dilanjutkan sosokpimpinbaikmakatak pimpinbaikmakatakada baikmakatakadaalas makatakadaalasgolput takadaalasgolput01dilanjutkan sosokpimpinbaikmakatakada pimpinbaikmakatakadaalas baikmakatakadaalasgolput makatakadaalasgolput01dilanjutkan</t>
+  </si>
+  <si>
+    <t>debat calon presiden kali seperti lihat orang dewasa wawas santun lawan debatcalon calonpresiden presidenkali kaliseperti sepertilihat lihatorang orangdewasa dewasawawas wawassantun santunlawan debatcalonpresiden calonpresidenkali presidenkaliseperti kalisepertilihat sepertilihatorang lihatorangdewasa orangdewasawawas dewasawawassantun wawassantunlawan debatcalonpresidenkali calonpresidenkaliseperti presidenkalisepertilihat kalisepertilihatorang sepertilihatorangdewasa lihatorangdewasawawas orangdewasawawassantun dewasawawassantunlawan debatcalonpresidenkaliseperti calonpresidenkalisepertilihat presidenkalisepertilihatorang kalisepertilihatorangdewasa sepertilihatorangdewasawawas lihatorangdewasawawassantun orangdewasawawassantunlawan debatcalonpresidenkalisepertilihat calonpresidenkalisepertilihatorang presidenkalisepertilihatorangdewasa kalisepertilihatorangdewasawawas sepertilihatorangdewasawawassantun lihatorangdewasawawassantunlawan</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi indonesia kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi korupsiindonesia kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi hilangkorupsiindonesia kalaumandatakanbersih mandatakanbersihkuat akanbersihkuatlembaga bersihkuatlembagaperintah kuatlembagaperintahakan lembagaperintahakanhilang perintahakanhilangkorupsi akanhilangkorupsiindonesia kalaumandatakanbersihkuat mandatakanbersihkuatlembaga akanbersihkuatlembagaperintah bersihkuatlembagaperintahakan kuatlembagaperintahakanhilang lembagaperintahakanhilangkorupsi perintahakanhilangkorupsiindonesia kalaumandatakanbersihkuatlembaga mandatakanbersihkuatlembagaperintah akanbersihkuatlembagaperintahakan bersihkuatlembagaperintahakanhilang kuatlembagaperintahakanhilangkorupsi lembagaperintahakanhilangkorupsiindonesia</t>
+  </si>
+  <si>
+    <t>nah inti juang hasil panen raya jaga lumbung tikus nahinti intijuang juanghasil hasilpanen panenraya rayajaga jagalumbung lumbungtikus nahintijuang intijuanghasil juanghasilpanen hasilpanenraya panenrayajaga rayajagalumbung jagalumbungtikus nahintijuanghasil intijuanghasilpanen juanghasilpanenraya hasilpanenrayajaga panenrayajagalumbung rayajagalumbungtikus nahintijuanghasilpanen intijuanghasilpanenraya juanghasilpanenrayajaga hasilpanenrayajagalumbung panenrayajagalumbungtikus nahintijuanghasilpanenraya intijuanghasilpanenrayajaga juanghasilpanenrayajagalumbung hasilpanenrayajagalumbungtikus</t>
+  </si>
+  <si>
+    <t>warga karawang mana kalau knytaan y laut manusia hadir sambut presiden wargakarawang karawangmana manakalau kalauknytaan knytaany ylaut lautmanusia manusiahadir hadirsambut sambutpresiden wargakarawangmana karawangmanakalau manakalauknytaan kalauknytaany knytaanylaut ylautmanusia lautmanusiahadir manusiahadirsambut hadirsambutpresiden wargakarawangmanakalau karawangmanakalauknytaan manakalauknytaany kalauknytaanylaut knytaanylautmanusia ylautmanusiahadir lautmanusiahadirsambut manusiahadirsambutpresiden wargakarawangmanakalauknytaan karawangmanakalauknytaany manakalauknytaanylaut kalauknytaanylautmanusia knytaanylautmanusiahadir ylautmanusiahadirsambut lautmanusiahadirsambutpresiden wargakarawangmanakalauknytaany karawangmanakalauknytaanylaut manakalauknytaanylautmanusia kalauknytaanylautmanusiahadir knytaanylautmanusiahadirsambut ylautmanusiahadirsambutpresiden</t>
+  </si>
+  <si>
+    <t>cuma doa moga terima nyata walaupun pahit rakyat presiden ri cumadoa doamoga mogaterima terimanyata nyatawalaupun walaupunpahit pahitrakyat rakyatpresiden presidenri cumadoamoga doamogaterima mogaterimanyata terimanyatawalaupun nyatawalaupunpahit walaupunpahitrakyat pahitrakyatpresiden rakyatpresidenri cumadoamogaterima doamogaterimanyata mogaterimanyatawalaupun terimanyatawalaupunpahit nyatawalaupunpahitrakyat walaupunpahitrakyatpresiden pahitrakyatpresidenri cumadoamogaterimanyata doamogaterimanyatawalaupun mogaterimanyatawalaupunpahit terimanyatawalaupunpahitrakyat nyatawalaupunpahitrakyatpresiden walaupunpahitrakyatpresidenri cumadoamogaterimanyatawalaupun doamogaterimanyatawalaupunpahit mogaterimanyatawalaupunpahitrakyat terimanyatawalaupunpahitrakyatpresiden nyatawalaupunpahitrakyatpresidenri</t>
+  </si>
+  <si>
+    <t>simpul debat malam sangat cinta nkri jokowi sangat cinta dagang prabowobentengnkri prabowobentengnkri simpuldebat debatmalam malamsangat sangatcinta cintankri nkrijokowi jokowisangat sangatcinta cintadagang dagangprabowobentengnkri prabowobentengnkriprabowobentengnkri simpuldebatmalam debatmalamsangat malamsangatcinta sangatcintankri cintankrijokowi nkrijokowisangat jokowisangatcinta sangatcintadagang cintadagangprabowobentengnkri dagangprabowobentengnkriprabowobentengnkri simpuldebatmalamsangat debatmalamsangatcinta malamsangatcintankri sangatcintankrijokowi cintankrijokowisangat nkrijokowisangatcinta jokowisangatcintadagang sangatcintadagangprabowobentengnkri cintadagangprabowobentengnkriprabowobentengnkri simpuldebatmalamsangatcinta debatmalamsangatcintankri malamsangatcintankrijokowi sangatcintankrijokowisangat cintankrijokowisangatcinta nkrijokowisangatcintadagang jokowisangatcintadagangprabowobentengnkri sangatcintadagangprabowobentengnkriprabowobentengnkri simpuldebatmalamsangatcintankri debatmalamsangatcintankrijokowi malamsangatcintankrijokowisangat sangatcintankrijokowisangatcinta cintankrijokowisangatcintadagang nkrijokowisangatcintadagangprabowobentengnkri jokowisangatcintadagangprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru negara kuat program bangun laksana lembagaperintah perintahkuat kuatbaru barunegara negarakuat kuatprogram programbangun bangunlaksana lembagaperintahkuat perintahkuatbaru kuatbarunegara barunegarakuat negarakuatprogram kuatprogrambangun programbangunlaksana lembagaperintahkuatbaru perintahkuatbarunegara kuatbarunegarakuat barunegarakuatprogram negarakuatprogrambangun kuatprogrambangunlaksana lembagaperintahkuatbarunegara perintahkuatbarunegarakuat kuatbarunegarakuatprogram barunegarakuatprogrambangun negarakuatprogrambangunlaksana lembagaperintahkuatbarunegarakuat perintahkuatbarunegarakuatprogram kuatbarunegarakuatprogrambangun barunegarakuatprogrambangunlaksana</t>
+  </si>
+  <si>
+    <t>lebih baik pakai teknologi lama kaya indonesia keluar indonesia - lebihbaik baikpakai pakaiteknologi teknologilama lamakaya kayaindonesia indonesiakeluar keluarindonesia indonesia- lebihbaikpakai baikpakaiteknologi pakaiteknologilama teknologilamakaya lamakayaindonesia kayaindonesiakeluar indonesiakeluarindonesia keluarindonesia- lebihbaikpakaiteknologi baikpakaiteknologilama pakaiteknologilamakaya teknologilamakayaindonesia lamakayaindonesiakeluar kayaindonesiakeluarindonesia indonesiakeluarindonesia- lebihbaikpakaiteknologilama baikpakaiteknologilamakaya pakaiteknologilamakayaindonesia teknologilamakayaindonesiakeluar lamakayaindonesiakeluarindonesia kayaindonesiakeluarindonesia- lebihbaikpakaiteknologilamakaya baikpakaiteknologilamakayaindonesia pakaiteknologilamakayaindonesiakeluar teknologilamakayaindonesiakeluarindonesia lamakayaindonesiakeluarindonesia-</t>
+  </si>
+  <si>
+    <t>bapak info asal bapak senang https t co 11g3jkmdz3 bapakinfo infoasal asalbapak bapaksenang senanghttps httpst tco co11g3jkmdz3 bapakinfoasal infoasalbapak asalbapaksenang bapaksenanghttps senanghttpst httpstco tco11g3jkmdz3 bapakinfoasalbapak infoasalbapaksenang asalbapaksenanghttps bapaksenanghttpst senanghttpstco httpstco11g3jkmdz3 bapakinfoasalbapaksenang infoasalbapaksenanghttps asalbapaksenanghttpst bapaksenanghttpstco senanghttpstco11g3jkmdz3 bapakinfoasalbapaksenanghttps infoasalbapaksenanghttpst asalbapaksenanghttpstco bapaksenanghttpstco11g3jkmdz3</t>
+  </si>
+  <si>
+    <t>indonesia maju sama pemerintahandilan https t co ue10thkyey indonesiamaju majusama samapemerintahandilan pemerintahandilanhttps httpst tco coue10thkyey indonesiamajusama majusamapemerintahandilan samapemerintahandilanhttps pemerintahandilanhttpst httpstco tcoue10thkyey indonesiamajusamapemerintahandilan majusamapemerintahandilanhttps samapemerintahandilanhttpst pemerintahandilanhttpstco httpstcoue10thkyey indonesiamajusamapemerintahandilanhttps majusamapemerintahandilanhttpst samapemerintahandilanhttpstco pemerintahandilanhttpstcoue10thkyey indonesiamajusamapemerintahandilanhttpst majusamapemerintahandilanhttpstco samapemerintahandilanhttpstcoue10thkyey</t>
+  </si>
+  <si>
+    <t>warkop dki tagline warkop dki memang visioner tertawa prabowomarah https t co 8wsgualxi6 warkopdki dkitagline taglinewarkop warkopdki dkimemang memangvisioner visionertertawa tertawaprabowomarah prabowomarahhttps httpst tco co8wsgualxi6 warkopdkitagline dkitaglinewarkop taglinewarkopdki warkopdkimemang dkimemangvisioner memangvisionertertawa visionertertawaprabowomarah tertawaprabowomarahhttps prabowomarahhttpst httpstco tco8wsgualxi6 warkopdkitaglinewarkop dkitaglinewarkopdki taglinewarkopdkimemang warkopdkimemangvisioner dkimemangvisionertertawa memangvisionertertawaprabowomarah visionertertawaprabowomarahhttps tertawaprabowomarahhttpst prabowomarahhttpstco httpstco8wsgualxi6 warkopdkitaglinewarkopdki dkitaglinewarkopdkimemang taglinewarkopdkimemangvisioner warkopdkimemangvisionertertawa dkimemangvisionertertawaprabowomarah memangvisionertertawaprabowomarahhttps visionertertawaprabowomarahhttpst tertawaprabowomarahhttpstco prabowomarahhttpstco8wsgualxi6 warkopdkitaglinewarkopdkimemang dkitaglinewarkopdkimemangvisioner taglinewarkopdkimemangvisionertertawa warkopdkimemangvisionertertawaprabowomarah dkimemangvisionertertawaprabowomarahhttps memangvisionertertawaprabowomarahhttpst visionertertawaprabowomarahhttpstco tertawaprabowomarahhttpstco8wsgualxi6</t>
+  </si>
+  <si>
+    <t>nahkan sistem perintah udah oke banget deh poko pemerintahandilan keren pak https t co 1tomcggkxy nahkansistem sistemperintah perintahudah udahoke okebanget bangetdeh dehpoko pokopemerintahandilan pemerintahandilankeren kerenpak pakhttps httpst tco co1tomcggkxy nahkansistemperintah sistemperintahudah perintahudahoke udahokebanget okebangetdeh bangetdehpoko dehpokopemerintahandilan pokopemerintahandilankeren pemerintahandilankerenpak kerenpakhttps pakhttpst httpstco tco1tomcggkxy nahkansistemperintahudah sistemperintahudahoke perintahudahokebanget udahokebangetdeh okebangetdehpoko bangetdehpokopemerintahandilan dehpokopemerintahandilankeren pokopemerintahandilankerenpak pemerintahandilankerenpakhttps kerenpakhttpst pakhttpstco httpstco1tomcggkxy nahkansistemperintahudahoke sistemperintahudahokebanget perintahudahokebangetdeh udahokebangetdehpoko okebangetdehpokopemerintahandilan bangetdehpokopemerintahandilankeren dehpokopemerintahandilankerenpak pokopemerintahandilankerenpakhttps pemerintahandilankerenpakhttpst kerenpakhttpstco pakhttpstco1tomcggkxy nahkansistemperintahudahokebanget sistemperintahudahokebangetdeh perintahudahokebangetdehpoko udahokebangetdehpokopemerintahandilan okebangetdehpokopemerintahandilankeren bangetdehpokopemerintahandilankerenpak dehpokopemerintahandilankerenpakhttps pokopemerintahandilankerenpakhttpst pemerintahandilankerenpakhttpstco kerenpakhttpstco1tomcggkxy</t>
+  </si>
+  <si>
+    <t>debat kami terima bagai saudara wahai mualaf politik memang pantas pimpin nkri debatkami kamiterima terimabagai bagaisaudara saudarawahai wahaimualaf mualafpolitik politikmemang memangpantas pantaspimpin pimpinnkri debatkamiterima kamiterimabagai terimabagaisaudara bagaisaudarawahai saudarawahaimualaf wahaimualafpolitik mualafpolitikmemang politikmemangpantas memangpantaspimpin pantaspimpinnkri debatkamiterimabagai kamiterimabagaisaudara terimabagaisaudarawahai bagaisaudarawahaimualaf saudarawahaimualafpolitik wahaimualafpolitikmemang mualafpolitikmemangpantas politikmemangpantaspimpin memangpantaspimpinnkri debatkamiterimabagaisaudara kamiterimabagaisaudarawahai terimabagaisaudarawahaimualaf bagaisaudarawahaimualafpolitik saudarawahaimualafpolitikmemang wahaimualafpolitikmemangpantas mualafpolitikmemangpantaspimpin politikmemangpantaspimpinnkri debatkamiterimabagaisaudarawahai kamiterimabagaisaudarawahaimualaf terimabagaisaudarawahaimualafpolitik bagaisaudarawahaimualafpolitikmemang saudarawahaimualafpolitikmemangpantas wahaimualafpolitikmemangpantaspimpin mualafpolitikmemangpantaspimpinnkri</t>
+  </si>
+  <si>
+    <t>kalau pecat pensiun dong bapak dapat pensiun kalaupecat pecatpensiun pensiundong dongbapak bapakdapat dapatpensiun kalaupecatpensiun pecatpensiundong pensiundongbapak dongbapakdapat bapakdapatpensiun kalaupecatpensiundong pecatpensiundongbapak pensiundongbapakdapat dongbapakdapatpensiun kalaupecatpensiundongbapak pecatpensiundongbapakdapat pensiundongbapakdapatpensiun kalaupecatpensiundongbapakdapat pecatpensiundongbapakdapatpensiun</t>
+  </si>
+  <si>
+    <t>karawang maret siapa pilih rakyat akan tunduk patuh - negarawan sejati karawangmaret maretsiapa siapapilih pilihrakyat rakyatakan akantunduk tundukpatuh patuh- -negarawan negarawansejati karawangmaretsiapa maretsiapapilih siapapilihrakyat pilihrakyatakan rakyatakantunduk akantundukpatuh tundukpatuh- patuh-negarawan -negarawansejati karawangmaretsiapapilih maretsiapapilihrakyat siapapilihrakyatakan pilihrakyatakantunduk rakyatakantundukpatuh akantundukpatuh- tundukpatuh-negarawan patuh-negarawansejati karawangmaretsiapapilihrakyat maretsiapapilihrakyatakan siapapilihrakyatakantunduk pilihrakyatakantundukpatuh rakyatakantundukpatuh- akantundukpatuh-negarawan tundukpatuh-negarawansejati karawangmaretsiapapilihrakyatakan maretsiapapilihrakyatakantunduk siapapilihrakyatakantundukpatuh pilihrakyatakantundukpatuh- rakyatakantundukpatuh-negarawan akantundukpatuh-negarawansejati</t>
+  </si>
+  <si>
+    <t>apa pak paham skor cpi indonesia maka indonesia masuk kategori hybrid regime apapak pakpaham pahamskor skorcpi cpiindonesia indonesiamaka makaindonesia indonesiamasuk masukkategori kategorihybrid hybridregime apapakpaham pakpahamskor pahamskorcpi skorcpiindonesia cpiindonesiamaka indonesiamakaindonesia makaindonesiamasuk indonesiamasukkategori masukkategorihybrid kategorihybridregime apapakpahamskor pakpahamskorcpi pahamskorcpiindonesia skorcpiindonesiamaka cpiindonesiamakaindonesia indonesiamakaindonesiamasuk makaindonesiamasukkategori indonesiamasukkategorihybrid masukkategorihybridregime apapakpahamskorcpi pakpahamskorcpiindonesia pahamskorcpiindonesiamaka skorcpiindonesiamakaindonesia cpiindonesiamakaindonesiamasuk indonesiamakaindonesiamasukkategori makaindonesiamasukkategorihybrid indonesiamasukkategorihybridregime apapakpahamskorcpiindonesia pakpahamskorcpiindonesiamaka pahamskorcpiindonesiamakaindonesia skorcpiindonesiamakaindonesiamasuk cpiindonesiamakaindonesiamasukkategori indonesiamakaindonesiamasukkategorihybrid makaindonesiamasukkategorihybridregime</t>
+  </si>
+  <si>
+    <t>perintah dil digital layan sangat perlu perintahdil dildigital digitallayan layansangat sangatperlu perintahdildigital dildigitallayan digitallayansangat layansangatperlu perintahdildigitallayan dildigitallayansangat digitallayansangatperlu perintahdildigitallayansangat dildigitallayansangatperlu perintahdildigitallayansangatperlu</t>
+  </si>
+  <si>
+    <t>teknologi lama kaya tetap di negara sendiri kata duh maksud internetan pake dial-up teknologilama lamakaya kayatetap tetapdi dinegara negarasendiri sendirikata kataduh duhmaksud maksudinternetan internetanpake pakedial-up teknologilamakaya lamakayatetap kayatetapdi tetapdinegara dinegarasendiri negarasendirikata sendirikataduh kataduhmaksud duhmaksudinternetan maksudinternetanpake internetanpakedial-up teknologilamakayatetap lamakayatetapdi kayatetapdinegara tetapdinegarasendiri dinegarasendirikata negarasendirikataduh sendirikataduhmaksud kataduhmaksudinternetan duhmaksudinternetanpake maksudinternetanpakedial-up teknologilamakayatetapdi lamakayatetapdinegara kayatetapdinegarasendiri tetapdinegarasendirikata dinegarasendirikataduh negarasendirikataduhmaksud sendirikataduhmaksudinternetan kataduhmaksudinternetanpake duhmaksudinternetanpakedial-up teknologilamakayatetapdinegara lamakayatetapdinegarasendiri kayatetapdinegarasendirikata tetapdinegarasendirikataduh dinegarasendirikataduhmaksud negarasendirikataduhmaksudinternetan sendirikataduhmaksudinternetanpake kataduhmaksudinternetanpakedial-up</t>
+  </si>
+  <si>
+    <t>dari bumi pertiwi yang lepas nyata gera separatis hantu daribumi bumipertiwi pertiwiyang yanglepas lepasnyata nyatagera geraseparatis separatishantu daribumipertiwi bumipertiwiyang pertiwiyanglepas yanglepasnyata lepasnyatagera nyatageraseparatis geraseparatishantu daribumipertiwiyang bumipertiwiyanglepas pertiwiyanglepasnyata yanglepasnyatagera lepasnyatageraseparatis nyatageraseparatishantu daribumipertiwiyanglepas bumipertiwiyanglepasnyata pertiwiyanglepasnyatagera yanglepasnyatageraseparatis lepasnyatageraseparatishantu daribumipertiwiyanglepasnyata bumipertiwiyanglepasnyatagera pertiwiyanglepasnyatageraseparatis yanglepasnyatageraseparatishantu</t>
+  </si>
+  <si>
+    <t>bantu retwet teman teman seluruh dunia paham kalau sosok sangat depan toleransi banturetwet retwetteman temanteman temanseluruh seluruhdunia duniapaham pahamkalau kalausosok sosoksangat sangatdepan depantoleransi banturetwetteman retwettemanteman temantemanseluruh temanseluruhdunia seluruhduniapaham duniapahamkalau pahamkalausosok kalausosoksangat sosoksangatdepan sangatdepantoleransi banturetwettemanteman retwettemantemanseluruh temantemanseluruhdunia temanseluruhduniapaham seluruhduniapahamkalau duniapahamkalausosok pahamkalausosoksangat kalausosoksangatdepan sosoksangatdepantoleransi banturetwettemantemanseluruh retwettemantemanseluruhdunia temantemanseluruhduniapaham temanseluruhduniapahamkalau seluruhduniapahamkalausosok duniapahamkalausosoksangat pahamkalausosoksangatdepan kalausosoksangatdepantoleransi banturetwettemantemanseluruhdunia retwettemantemanseluruhduniapaham temantemanseluruhduniapahamkalau temanseluruhduniapahamkalausosok seluruhduniapahamkalausosoksangat duniapahamkalausosoksangatdepan pahamkalausosoksangatdepantoleransi</t>
+  </si>
+  <si>
+    <t>itu ma ruf amin senang tak provokasi https t co fmhnp 7nafz ituma maruf rufamin aminsenang senangtak takprovokasi provokasihttps httpst tco cofmhnp fmhnp7nafz itumaruf marufamin rufaminsenang aminsenangtak senangtakprovokasi takprovokasihttps provokasihttpst httpstco tcofmhnp cofmhnp7nafz itumarufamin marufaminsenang rufaminsenangtak aminsenangtakprovokasi senangtakprovokasihttps takprovokasihttpst provokasihttpstco httpstcofmhnp tcofmhnp7nafz itumarufaminsenang marufaminsenangtak rufaminsenangtakprovokasi aminsenangtakprovokasihttps senangtakprovokasihttpst takprovokasihttpstco provokasihttpstcofmhnp httpstcofmhnp7nafz itumarufaminsenangtak marufaminsenangtakprovokasi rufaminsenangtakprovokasihttps aminsenangtakprovokasihttpst senangtakprovokasihttpstco takprovokasihttpstcofmhnp provokasihttpstcofmhnp7nafz</t>
+  </si>
+  <si>
+    <t>mc kepada pak sila tanggap nyata pak kira ada beda mckepada kepadapak paksila silatanggap tanggapnyata nyatapak pakkira kiraada adabeda mckepadapak kepadapaksila paksilatanggap silatanggapnyata tanggapnyatapak nyatapakkira pakkiraada kiraadabeda mckepadapaksila kepadapaksilatanggap paksilatanggapnyata silatanggapnyatapak tanggapnyatapakkira nyatapakkiraada pakkiraadabeda mckepadapaksilatanggap kepadapaksilatanggapnyata paksilatanggapnyatapak silatanggapnyatapakkira tanggapnyatapakkiraada nyatapakkiraadabeda mckepadapaksilatanggapnyata kepadapaksilatanggapnyatapak paksilatanggapnyatapakkira silatanggapnyatapakkiraada tanggapnyatapakkiraadabeda</t>
+  </si>
+  <si>
+    <t>jadi presiden jangan prabohong udah ngamuk tertawa kok larang hancur prabowomarah jadipresiden presidenjangan janganprabohong prabohongudah udahngamuk ngamuktertawa tertawakok koklarang laranghancur hancurprabowomarah jadipresidenjangan presidenjanganprabohong janganprabohongudah prabohongudahngamuk udahngamuktertawa ngamuktertawakok tertawakoklarang koklaranghancur laranghancurprabowomarah jadipresidenjanganprabohong presidenjanganprabohongudah janganprabohongudahngamuk prabohongudahngamuktertawa udahngamuktertawakok ngamuktertawakoklarang tertawakoklaranghancur koklaranghancurprabowomarah jadipresidenjanganprabohongudah presidenjanganprabohongudahngamuk janganprabohongudahngamuktertawa prabohongudahngamuktertawakok udahngamuktertawakoklarang ngamuktertawakoklaranghancur tertawakoklaranghancurprabowomarah jadipresidenjanganprabohongudahngamuk presidenjanganprabohongudahngamuktertawa janganprabohongudahngamuktertawakok prabohongudahngamuktertawakoklarang udahngamuktertawakoklaranghancur ngamuktertawakoklaranghancurprabowomarah</t>
+  </si>
+  <si>
+    <t>prabowo bahasa terlalu tinggi buat planga plongo prabowobahasa bahasaterlalu terlalutinggi tinggibuat buatplanga plangaplongo prabowobahasaterlalu bahasaterlalutinggi terlalutinggibuat tinggibuatplanga buatplangaplongo prabowobahasaterlalutinggi bahasaterlalutinggibuat terlalutinggibuatplanga tinggibuatplangaplongo prabowobahasaterlalutinggibuat bahasaterlalutinggibuatplanga terlalutinggibuatplangaplongo prabowobahasaterlalutinggibuatplanga bahasaterlalutinggibuatplangaplongo</t>
+  </si>
+  <si>
+    <t>aman negara malah ketawa ngawur tidak nasionalis tuh pak tegor jangan prabowomenangdebat amannegara negaramalah malahketawa ketawangawur ngawurtidak tidaknasionalis nasionalistuh tuhpak paktegor tegorjangan janganprabowomenangdebat amannegaramalah negaramalahketawa malahketawangawur ketawangawurtidak ngawurtidaknasionalis tidaknasionalistuh nasionalistuhpak tuhpaktegor paktegorjangan tegorjanganprabowomenangdebat amannegaramalahketawa negaramalahketawangawur malahketawangawurtidak ketawangawurtidaknasionalis ngawurtidaknasionalistuh tidaknasionalistuhpak nasionalistuhpaktegor tuhpaktegorjangan paktegorjanganprabowomenangdebat amannegaramalahketawangawur negaramalahketawangawurtidak malahketawangawurtidaknasionalis ketawangawurtidaknasionalistuh ngawurtidaknasionalistuhpak tidaknasionalistuhpaktegor nasionalistuhpaktegorjangan tuhpaktegorjanganprabowomenangdebat amannegaramalahketawangawurtidak negaramalahketawangawurtidaknasionalis malahketawangawurtidaknasionalistuh ketawangawurtidaknasionalistuhpak ngawurtidaknasionalistuhpaktegor tidaknasionalistuhpaktegorjangan nasionalistuhpaktegorjanganprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>debat pak serang tapi beliau sabar balas debatpak pakserang serangtapi tapibeliau beliausabar sabarbalas debatpakserang pakserangtapi serangtapibeliau tapibeliausabar beliausabarbalas debatpakserangtapi pakserangtapibeliau serangtapibeliausabar tapibeliausabarbalas debatpakserangtapibeliau pakserangtapibeliausabar serangtapibeliausabarbalas debatpakserangtapibeliausabar pakserangtapibeliausabarbalas</t>
+  </si>
+  <si>
+    <t>harus buat sistem henti bocor cegah korupsi prabowobentengnkri harusbuat buatsistem sistemhenti hentibocor bocorcegah cegahkorupsi korupsiprabowobentengnkri harusbuatsistem buatsistemhenti sistemhentibocor hentibocorcegah bocorcegahkorupsi cegahkorupsiprabowobentengnkri harusbuatsistemhenti buatsistemhentibocor sistemhentibocorcegah hentibocorcegahkorupsi bocorcegahkorupsiprabowobentengnkri harusbuatsistemhentibocor buatsistemhentibocorcegah sistemhentibocorcegahkorupsi hentibocorcegahkorupsiprabowobentengnkri harusbuatsistemhentibocorcegah buatsistemhentibocorcegahkorupsi sistemhentibocorcegahkorupsiprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowomenangdebat prabowobentengnkri malam jadi kuat tekad sama menang prabowomenangdebatprabowobentengnkri prabowobentengnkrimalam malamjadi jadikuat kuattekad tekadsama samamenang prabowomenangdebatprabowobentengnkrimalam prabowobentengnkrimalamjadi malamjadikuat jadikuattekad kuattekadsama tekadsamamenang prabowomenangdebatprabowobentengnkrimalamjadi prabowobentengnkrimalamjadikuat malamjadikuattekad jadikuattekadsama kuattekadsamamenang prabowomenangdebatprabowobentengnkrimalamjadikuat prabowobentengnkrimalamjadikuattekad malamjadikuattekadsama jadikuattekadsamamenang prabowomenangdebatprabowobentengnkrimalamjadikuattekad prabowobentengnkrimalamjadikuattekadsama malamjadikuattekadsamamenang</t>
+  </si>
+  <si>
+    <t>entah tahan negara mana maksud lemah palelu diketawain tonton tonton bentak ngeri entahtahan tahannegara negaramana manamaksud maksudlemah lemahpalelu paleludiketawain diketawaintonton tontontonton tontonbentak bentakngeri entahtahannegara tahannegaramana negaramanamaksud manamaksudlemah maksudlemahpalelu lemahpaleludiketawain paleludiketawaintonton diketawaintontontonton tontontontonbentak tontonbentakngeri entahtahannegaramana tahannegaramanamaksud negaramanamaksudlemah manamaksudlemahpalelu maksudlemahpaleludiketawain lemahpaleludiketawaintonton paleludiketawaintontontonton diketawaintontontontonbentak tontontontonbentakngeri entahtahannegaramanamaksud tahannegaramanamaksudlemah negaramanamaksudlemahpalelu manamaksudlemahpaleludiketawain maksudlemahpaleludiketawaintonton lemahpaleludiketawaintontontonton paleludiketawaintontontontonbentak diketawaintontontontonbentakngeri entahtahannegaramanamaksudlemah tahannegaramanamaksudlemahpalelu negaramanamaksudlemahpaleludiketawain manamaksudlemahpaleludiketawaintonton maksudlemahpaleludiketawaintontontonton lemahpaleludiketawaintontontontonbentak paleludiketawaintontontontonbentakngeri</t>
+  </si>
+  <si>
+    <t>negara rakyat makmur selalu iring teknologi mumpuni tinggal teknologi negararakyat rakyatmakmur makmurselalu selaluiring iringteknologi teknologimumpuni mumpunitinggal tinggalteknologi negararakyatmakmur rakyatmakmurselalu makmurselaluiring selaluiringteknologi iringteknologimumpuni teknologimumpunitinggal mumpunitinggalteknologi negararakyatmakmurselalu rakyatmakmurselaluiring makmurselaluiringteknologi selaluiringteknologimumpuni iringteknologimumpunitinggal teknologimumpunitinggalteknologi negararakyatmakmurselaluiring rakyatmakmurselaluiringteknologi makmurselaluiringteknologimumpuni selaluiringteknologimumpunitinggal iringteknologimumpunitinggalteknologi negararakyatmakmurselaluiringteknologi rakyatmakmurselaluiringteknologimumpuni makmurselaluiringteknologimumpunitinggal selaluiringteknologimumpunitinggalteknologi</t>
+  </si>
+  <si>
+    <t>do a sama pak moga allah subhanahu wa ta ala meridhoi beri menang buat beliau doa asama samapak pakmoga mogaallah allahsubhanahu subhanahuwa wata taala alameridhoi meridhoiberi berimenang menangbuat buatbeliau doasama asamapak samapakmoga pakmogaallah mogaallahsubhanahu allahsubhanahuwa subhanahuwata wataala taalameridhoi alameridhoiberi meridhoiberimenang berimenangbuat menangbuatbeliau doasamapak asamapakmoga samapakmogaallah pakmogaallahsubhanahu mogaallahsubhanahuwa allahsubhanahuwata subhanahuwataala wataalameridhoi taalameridhoiberi alameridhoiberimenang meridhoiberimenangbuat berimenangbuatbeliau doasamapakmoga asamapakmogaallah samapakmogaallahsubhanahu pakmogaallahsubhanahuwa mogaallahsubhanahuwata allahsubhanahuwataala subhanahuwataalameridhoi wataalameridhoiberi taalameridhoiberimenang alameridhoiberimenangbuat meridhoiberimenangbuatbeliau doasamapakmogaallah asamapakmogaallahsubhanahu samapakmogaallahsubhanahuwa pakmogaallahsubhanahuwata mogaallahsubhanahuwataala allahsubhanahuwataalameridhoi subhanahuwataalameridhoiberi wataalameridhoiberimenang taalameridhoiberimenangbuat alameridhoiberimenangbuatbeliau</t>
+  </si>
+  <si>
+    <t>ini muncul survei senang debatpilpres 2019 ideasrabbani inimuncul munculsurvei surveisenang senangdebatpilpres debatpilpres2019 2019ideasrabbani inimunculsurvei munculsurveisenang surveisenangdebatpilpres senangdebatpilpres2019 debatpilpres2019ideasrabbani inimunculsurveisenang munculsurveisenangdebatpilpres surveisenangdebatpilpres2019 senangdebatpilpres2019ideasrabbani inimunculsurveisenangdebatpilpres munculsurveisenangdebatpilpres2019 surveisenangdebatpilpres2019ideasrabbani inimunculsurveisenangdebatpilpres2019 munculsurveisenangdebatpilpres2019ideasrabbani</t>
+  </si>
+  <si>
+    <t>pemerintahandilan turun tingkat korupsi https t co cwcotkvzyo pemerintahandilanturun turuntingkat tingkatkorupsi korupsihttps httpst tco cocwcotkvzyo pemerintahandilanturuntingkat turuntingkatkorupsi tingkatkorupsihttps korupsihttpst httpstco tcocwcotkvzyo pemerintahandilanturuntingkatkorupsi turuntingkatkorupsihttps tingkatkorupsihttpst korupsihttpstco httpstcocwcotkvzyo pemerintahandilanturuntingkatkorupsihttps turuntingkatkorupsihttpst tingkatkorupsihttpstco korupsihttpstcocwcotkvzyo pemerintahandilanturuntingkatkorupsihttpst turuntingkatkorupsihttpstco tingkatkorupsihttpstcocwcotkvzyo</t>
+  </si>
+  <si>
+    <t>turut pimpin politik boleh buat situasi pecah belah nasional https t co butzybqt 6a turutpimpin pimpinpolitik politikboleh bolehbuat buatsituasi situasipecah pecahbelah belahnasional nasionalhttps httpst tco cobutzybqt butzybqt6a turutpimpinpolitik pimpinpolitikboleh politikbolehbuat bolehbuatsituasi buatsituasipecah situasipecahbelah pecahbelahnasional belahnasionalhttps nasionalhttpst httpstco tcobutzybqt cobutzybqt6a turutpimpinpolitikboleh pimpinpolitikbolehbuat politikbolehbuatsituasi bolehbuatsituasipecah buatsituasipecahbelah situasipecahbelahnasional pecahbelahnasionalhttps belahnasionalhttpst nasionalhttpstco httpstcobutzybqt tcobutzybqt6a turutpimpinpolitikbolehbuat pimpinpolitikbolehbuatsituasi politikbolehbuatsituasipecah bolehbuatsituasipecahbelah buatsituasipecahbelahnasional situasipecahbelahnasionalhttps pecahbelahnasionalhttpst belahnasionalhttpstco nasionalhttpstcobutzybqt httpstcobutzybqt6a turutpimpinpolitikbolehbuatsituasi pimpinpolitikbolehbuatsituasipecah politikbolehbuatsituasipecahbelah bolehbuatsituasipecahbelahnasional buatsituasipecahbelahnasionalhttps situasipecahbelahnasionalhttpst pecahbelahnasionalhttpstco belahnasionalhttpstcobutzybqt nasionalhttpstcobutzybqt6a</t>
+  </si>
+  <si>
+    <t>moga pak pimpin negara dengan adil cipta makmur prabowobentengnkri mogapak pakpimpin pimpinnegara negaradengan denganadil adilcipta ciptamakmur makmurprabowobentengnkri mogapakpimpin pakpimpinnegara pimpinnegaradengan negaradenganadil denganadilcipta adilciptamakmur ciptamakmurprabowobentengnkri mogapakpimpinnegara pakpimpinnegaradengan pimpinnegaradenganadil negaradenganadilcipta denganadilciptamakmur adilciptamakmurprabowobentengnkri mogapakpimpinnegaradengan pakpimpinnegaradenganadil pimpinnegaradenganadilcipta negaradenganadilciptamakmur denganadilciptamakmurprabowobentengnkri mogapakpimpinnegaradenganadil pakpimpinnegaradenganadilcipta pimpinnegaradenganadilciptamakmur negaradenganadilciptamakmurprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>calon presiden sempat geram debat calon presiden langsung bicara soal tahan aman lemah calonpresiden presidensempat sempatgeram geramdebat debatcalon calonpresiden presidenlangsung langsungbicara bicarasoal soaltahan tahanaman amanlemah calonpresidensempat presidensempatgeram sempatgeramdebat geramdebatcalon debatcalonpresiden calonpresidenlangsung presidenlangsungbicara langsungbicarasoal bicarasoaltahan soaltahanaman tahanamanlemah calonpresidensempatgeram presidensempatgeramdebat sempatgeramdebatcalon geramdebatcalonpresiden debatcalonpresidenlangsung calonpresidenlangsungbicara presidenlangsungbicarasoal langsungbicarasoaltahan bicarasoaltahanaman soaltahanamanlemah calonpresidensempatgeramdebat presidensempatgeramdebatcalon sempatgeramdebatcalonpresiden geramdebatcalonpresidenlangsung debatcalonpresidenlangsungbicara calonpresidenlangsungbicarasoal presidenlangsungbicarasoaltahan langsungbicarasoaltahanaman bicarasoaltahanamanlemah calonpresidensempatgeramdebatcalon presidensempatgeramdebatcalonpresiden sempatgeramdebatcalonpresidenlangsung geramdebatcalonpresidenlangsungbicara debatcalonpresidenlangsungbicarasoal calonpresidenlangsungbicarasoaltahan presidenlangsungbicarasoaltahanaman langsungbicarasoaltahanamanlemah</t>
+  </si>
+  <si>
+    <t>memang benar pak cenderung optimistis sisi pak cenderung pesimistis memangbenar benarpak pakcenderung cenderungoptimistis optimistissisi sisipak pakcenderung cenderungpesimistis memangbenarpak benarpakcenderung pakcenderungoptimistis cenderungoptimistissisi optimistissisipak sisipakcenderung pakcenderungpesimistis memangbenarpakcenderung benarpakcenderungoptimistis pakcenderungoptimistissisi cenderungoptimistissisipak optimistissisipakcenderung sisipakcenderungpesimistis memangbenarpakcenderungoptimistis benarpakcenderungoptimistissisi pakcenderungoptimistissisipak cenderungoptimistissisipakcenderung optimistissisipakcenderungpesimistis memangbenarpakcenderungoptimistissisi benarpakcenderungoptimistissisipak pakcenderungoptimistissisipakcenderung cenderungoptimistissisipakcenderungpesimistis</t>
+  </si>
+  <si>
+    <t>sebut budaya asal bapak senang asal bapak senang kental dunia militer nasional https t co andtnmbmi 6 sebutbudaya budayaasal asalbapak bapaksenang senangasal asalbapak bapaksenang senangkental kentaldunia duniamiliter militernasional nasionalhttps httpst tco coandtnmbmi andtnmbmi6 sebutbudayaasal budayaasalbapak asalbapaksenang bapaksenangasal senangasalbapak asalbapaksenang bapaksenangkental senangkentaldunia kentalduniamiliter duniamiliternasional militernasionalhttps nasionalhttpst httpstco tcoandtnmbmi coandtnmbmi6 sebutbudayaasalbapak budayaasalbapaksenang asalbapaksenangasal bapaksenangasalbapak senangasalbapaksenang asalbapaksenangkental bapaksenangkentaldunia senangkentalduniamiliter kentalduniamiliternasional duniamiliternasionalhttps militernasionalhttpst nasionalhttpstco httpstcoandtnmbmi tcoandtnmbmi6 sebutbudayaasalbapaksenang budayaasalbapaksenangasal asalbapaksenangasalbapak bapaksenangasalbapaksenang senangasalbapaksenangkental asalbapaksenangkentaldunia bapaksenangkentalduniamiliter senangkentalduniamiliternasional kentalduniamiliternasionalhttps duniamiliternasionalhttpst militernasionalhttpstco nasionalhttpstcoandtnmbmi httpstcoandtnmbmi6 sebutbudayaasalbapaksenangasal budayaasalbapaksenangasalbapak asalbapaksenangasalbapaksenang bapaksenangasalbapaksenangkental senangasalbapaksenangkentaldunia asalbapaksenangkentalduniamiliter bapaksenangkentalduniamiliternasional senangkentalduniamiliternasionalhttps kentalduniamiliternasionalhttpst duniamiliternasionalhttpstco militernasionalhttpstcoandtnmbmi nasionalhttpstcoandtnmbmi6</t>
+  </si>
+  <si>
+    <t>buat rindu negeri maju jadi masa depan anak cucu pak jokowi pimpin dekat kesana tentu sempurna buatrindu rindunegeri negerimaju majujadi jadimasa masadepan depananak anakcucu cucupak pakjokowi jokowipimpin pimpindekat dekatkesana kesanatentu tentusempurna buatrindunegeri rindunegerimaju negerimajujadi majujadimasa jadimasadepan masadepananak depananakcucu anakcucupak cucupakjokowi pakjokowipimpin jokowipimpindekat pimpindekatkesana dekatkesanatentu kesanatentusempurna buatrindunegerimaju rindunegerimajujadi negerimajujadimasa majujadimasadepan jadimasadepananak masadepananakcucu depananakcucupak anakcucupakjokowi cucupakjokowipimpin pakjokowipimpindekat jokowipimpindekatkesana pimpindekatkesanatentu dekatkesanatentusempurna buatrindunegerimajujadi rindunegerimajujadimasa negerimajujadimasadepan majujadimasadepananak jadimasadepananakcucu masadepananakcucupak depananakcucupakjokowi anakcucupakjokowipimpin cucupakjokowipimpindekat pakjokowipimpindekatkesana jokowipimpindekatkesanatentu pimpindekatkesanatentusempurna buatrindunegerimajujadimasa rindunegerimajujadimasadepan negerimajujadimasadepananak majujadimasadepananakcucu jadimasadepananakcucupak masadepananakcucupakjokowi depananakcucupakjokowipimpin anakcucupakjokowipimpindekat cucupakjokowipimpindekatkesana pakjokowipimpindekatkesanatentu jokowipimpindekatkesanatentusempurna</t>
+  </si>
+  <si>
+    <t>ustad maheer bahaya bisa jadi oceh frontal seluruh dukung kena cap khilafah curiga nih ustadmaheer maheerbahaya bahayabisa bisajadi jadioceh ocehfrontal frontalseluruh seluruhdukung dukungkena kenacap capkhilafah khilafahcuriga curiganih ustadmaheerbahaya maheerbahayabisa bahayabisajadi bisajadioceh jadiocehfrontal ocehfrontalseluruh frontalseluruhdukung seluruhdukungkena dukungkenacap kenacapkhilafah capkhilafahcuriga khilafahcuriganih ustadmaheerbahayabisa maheerbahayabisajadi bahayabisajadioceh bisajadiocehfrontal jadiocehfrontalseluruh ocehfrontalseluruhdukung frontalseluruhdukungkena seluruhdukungkenacap dukungkenacapkhilafah kenacapkhilafahcuriga capkhilafahcuriganih ustadmaheerbahayabisajadi maheerbahayabisajadioceh bahayabisajadiocehfrontal bisajadiocehfrontalseluruh jadiocehfrontalseluruhdukung ocehfrontalseluruhdukungkena frontalseluruhdukungkenacap seluruhdukungkenacapkhilafah dukungkenacapkhilafahcuriga kenacapkhilafahcuriganih ustadmaheerbahayabisajadioceh maheerbahayabisajadiocehfrontal bahayabisajadiocehfrontalseluruh bisajadiocehfrontalseluruhdukung jadiocehfrontalseluruhdukungkena ocehfrontalseluruhdukungkenacap frontalseluruhdukungkenacapkhilafah seluruhdukungkenacapkhilafahcuriga dukungkenacapkhilafahcuriganih</t>
+  </si>
+  <si>
+    <t>wahai berani 2nya bilang indonesia daya fakta indonesia capai minimum essential tekan wahaiberani berani2nya 2nyabilang bilangindonesia indonesiadaya dayafakta faktaindonesia indonesiacapai capaiminimum minimumessential essentialtekan wahaiberani2nya berani2nyabilang 2nyabilangindonesia bilangindonesiadaya indonesiadayafakta dayafaktaindonesia faktaindonesiacapai indonesiacapaiminimum capaiminimumessential minimumessentialtekan wahaiberani2nyabilang berani2nyabilangindonesia 2nyabilangindonesiadaya bilangindonesiadayafakta indonesiadayafaktaindonesia dayafaktaindonesiacapai faktaindonesiacapaiminimum indonesiacapaiminimumessential capaiminimumessentialtekan wahaiberani2nyabilangindonesia berani2nyabilangindonesiadaya 2nyabilangindonesiadayafakta bilangindonesiadayafaktaindonesia indonesiadayafaktaindonesiacapai dayafaktaindonesiacapaiminimum faktaindonesiacapaiminimumessential indonesiacapaiminimumessentialtekan wahaiberani2nyabilangindonesiadaya berani2nyabilangindonesiadayafakta 2nyabilangindonesiadayafaktaindonesia bilangindonesiadayafaktaindonesiacapai indonesiadayafaktaindonesiacapaiminimum dayafaktaindonesiacapaiminimumessential faktaindonesiacapaiminimumessentialtekan</t>
+  </si>
+  <si>
+    <t>selalu tiap sempat ada tanya nikah culi kudeta apa bosan bung selalutiap tiapsempat sempatada adatanya tanyanikah nikahculi culikudeta kudetaapa apabosan bosanbung selalutiapsempat tiapsempatada sempatadatanya adatanyanikah tanyanikahculi nikahculikudeta culikudetaapa kudetaapabosan apabosanbung selalutiapsempatada tiapsempatadatanya sempatadatanyanikah adatanyanikahculi tanyanikahculikudeta nikahculikudetaapa culikudetaapabosan kudetaapabosanbung selalutiapsempatadatanya tiapsempatadatanyanikah sempatadatanyanikahculi adatanyanikahculikudeta tanyanikahculikudetaapa nikahculikudetaapabosan culikudetaapabosanbung selalutiapsempatadatanyanikah tiapsempatadatanyanikahculi sempatadatanyanikahculikudeta adatanyanikahculikudetaapa tanyanikahculikudetaapabosan nikahculikudetaapabosanbung</t>
+  </si>
+  <si>
+    <t>debatpilpres 2019 laku tidak harga internasional puas kamu langgar ham debatpilpres2019 2019laku lakutidak tidakharga hargainternasional internasionalpuas puaskamu kamulanggar langgarham debatpilpres2019laku 2019lakutidak lakutidakharga tidakhargainternasional hargainternasionalpuas internasionalpuaskamu puaskamulanggar kamulanggarham debatpilpres2019lakutidak 2019lakutidakharga lakutidakhargainternasional tidakhargainternasionalpuas hargainternasionalpuaskamu internasionalpuaskamulanggar puaskamulanggarham debatpilpres2019lakutidakharga 2019lakutidakhargainternasional lakutidakhargainternasionalpuas tidakhargainternasionalpuaskamu hargainternasionalpuaskamulanggar internasionalpuaskamulanggarham debatpilpres2019lakutidakhargainternasional 2019lakutidakhargainternasionalpuas lakutidakhargainternasionalpuaskamu tidakhargainternasionalpuaskamulanggar hargainternasionalpuaskamulanggarham</t>
+  </si>
+  <si>
+    <t>istilah tak kenal tak peduli kita jalin silaturahmi ada saudara tanya tanya istilahtak takkenal kenaltak takpeduli pedulikita kitajalin jalinsilaturahmi silaturahmiada adasaudara saudaratanya tanyatanya istilahtakkenal takkenaltak kenaltakpeduli takpedulikita pedulikitajalin kitajalinsilaturahmi jalinsilaturahmiada silaturahmiadasaudara adasaudaratanya saudaratanyatanya istilahtakkenaltak takkenaltakpeduli kenaltakpedulikita takpedulikitajalin pedulikitajalinsilaturahmi kitajalinsilaturahmiada jalinsilaturahmiadasaudara silaturahmiadasaudaratanya adasaudaratanyatanya istilahtakkenaltakpeduli takkenaltakpedulikita kenaltakpedulikitajalin takpedulikitajalinsilaturahmi pedulikitajalinsilaturahmiada kitajalinsilaturahmiadasaudara jalinsilaturahmiadasaudaratanya silaturahmiadasaudaratanyatanya istilahtakkenaltakpedulikita takkenaltakpedulikitajalin kenaltakpedulikitajalinsilaturahmi takpedulikitajalinsilaturahmiada pedulikitajalinsilaturahmiadasaudara kitajalinsilaturahmiadasaudaratanya jalinsilaturahmiadasaudaratanyatanya</t>
+  </si>
+  <si>
+    <t>bang yang jauh pelosok kalimantan rasa bangga lihat debat malam bangyang yangjauh jauhpelosok pelosokkalimantan kalimantanrasa rasabangga banggalihat lihatdebat debatmalam bangyangjauh yangjauhpelosok jauhpelosokkalimantan pelosokkalimantanrasa kalimantanrasabangga rasabanggalihat banggalihatdebat lihatdebatmalam bangyangjauhpelosok yangjauhpelosokkalimantan jauhpelosokkalimantanrasa pelosokkalimantanrasabangga kalimantanrasabanggalihat rasabanggalihatdebat banggalihatdebatmalam bangyangjauhpelosokkalimantan yangjauhpelosokkalimantanrasa jauhpelosokkalimantanrasabangga pelosokkalimantanrasabanggalihat kalimantanrasabanggalihatdebat rasabanggalihatdebatmalam bangyangjauhpelosokkalimantanrasa yangjauhpelosokkalimantanrasabangga jauhpelosokkalimantanrasabanggalihat pelosokkalimantanrasabanggalihatdebat kalimantanrasabanggalihatdebatmalam</t>
+  </si>
+  <si>
+    <t>dil digital layan mantap pak pemerintahandilan dildigital digitallayan layanmantap mantappak pakpemerintahandilan dildigitallayan digitallayanmantap layanmantappak mantappakpemerintahandilan dildigitallayanmantap digitallayanmantappak layanmantappakpemerintahandilan dildigitallayanmantappak digitallayanmantappakpemerintahandilan dildigitallayanmantappakpemerintahandilan</t>
+  </si>
+  <si>
+    <t>ucap selamat pak cara naluri aku bagai menang pilpres ucapselamat selamatpak pakcara caranaluri naluriaku akubagai bagaimenang menangpilpres ucapselamatpak selamatpakcara pakcaranaluri caranaluriaku naluriakubagai akubagaimenang bagaimenangpilpres ucapselamatpakcara selamatpakcaranaluri pakcaranaluriaku caranaluriakubagai naluriakubagaimenang akubagaimenangpilpres ucapselamatpakcaranaluri selamatpakcaranaluriaku pakcaranaluriakubagai caranaluriakubagaimenang naluriakubagaimenangpilpres ucapselamatpakcaranaluriaku selamatpakcaranaluriakubagai pakcaranaluriakubagaimenang caranaluriakubagaimenangpilpres</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyum jadi nice guy hanya saja pak prabowobentengnkri diplomasikalau kalausenyum senyumjadi jadinice niceguy guyhanya hanyasaja sajapak pakprabowobentengnkri diplomasikalausenyum kalausenyumjadi senyumjadinice jadiniceguy niceguyhanya guyhanyasaja hanyasajapak sajapakprabowobentengnkri diplomasikalausenyumjadi kalausenyumjadinice senyumjadiniceguy jadiniceguyhanya niceguyhanyasaja guyhanyasajapak hanyasajapakprabowobentengnkri diplomasikalausenyumjadinice kalausenyumjadiniceguy senyumjadiniceguyhanya jadiniceguyhanyasaja niceguyhanyasajapak guyhanyasajapakprabowobentengnkri diplomasikalausenyumjadiniceguy kalausenyumjadiniceguyhanya senyumjadiniceguyhanyasaja jadiniceguyhanyasajapak niceguyhanyasajapakprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>prabowo-sandi beri sempat anak bangsa bisa karya jadi main negara sendiri prabowo-sandiberi berisempat sempatanak anakbangsa bangsabisa bisakarya karyajadi jadimain mainnegara negarasendiri prabowo-sandiberisempat berisempatanak sempatanakbangsa anakbangsabisa bangsabisakarya bisakaryajadi karyajadimain jadimainnegara mainnegarasendiri prabowo-sandiberisempatanak berisempatanakbangsa sempatanakbangsabisa anakbangsabisakarya bangsabisakaryajadi bisakaryajadimain karyajadimainnegara jadimainnegarasendiri prabowo-sandiberisempatanakbangsa berisempatanakbangsabisa sempatanakbangsabisakarya anakbangsabisakaryajadi bangsabisakaryajadimain bisakaryajadimainnegara karyajadimainnegarasendiri prabowo-sandiberisempatanakbangsabisa berisempatanakbangsabisakarya sempatanakbangsabisakaryajadi anakbangsabisakaryajadimain bangsabisakaryajadimainnegara bisakaryajadimainnegarasendiri</t>
+  </si>
+  <si>
+    <t>lembaga perintah kuat baru program bangun kuat subianto prabowobentengnkri debatpilpres 2019 lembagaperintah perintahkuat kuatbaru baruprogram programbangun bangunkuat kuatsubianto subiantoprabowobentengnkri prabowobentengnkridebatpilpres debatpilpres2019 lembagaperintahkuat perintahkuatbaru kuatbaruprogram baruprogrambangun programbangunkuat bangunkuatsubianto kuatsubiantoprabowobentengnkri subiantoprabowobentengnkridebatpilpres prabowobentengnkridebatpilpres2019 lembagaperintahkuatbaru perintahkuatbaruprogram kuatbaruprogrambangun baruprogrambangunkuat programbangunkuatsubianto bangunkuatsubiantoprabowobentengnkri kuatsubiantoprabowobentengnkridebatpilpres subiantoprabowobentengnkridebatpilpres2019 lembagaperintahkuatbaruprogram perintahkuatbaruprogrambangun kuatbaruprogrambangunkuat baruprogrambangunkuatsubianto programbangunkuatsubiantoprabowobentengnkri bangunkuatsubiantoprabowobentengnkridebatpilpres kuatsubiantoprabowobentengnkridebatpilpres2019 lembagaperintahkuatbaruprogrambangun perintahkuatbaruprogrambangunkuat kuatbaruprogrambangunkuatsubianto baruprogrambangunkuatsubiantoprabowobentengnkri programbangunkuatsubiantoprabowobentengnkridebatpilpres bangunkuatsubiantoprabowobentengnkridebatpilpres2019</t>
+  </si>
+  <si>
+    <t>refleksi buat dia kutuk jahat jahat tatap jadi satu diri refleksibuat buatdia diakutuk kutukjahat jahatjahat jahattatap tatapjadi jadisatu satudiri refleksibuatdia buatdiakutuk diakutukjahat kutukjahatjahat jahatjahattatap jahattatapjadi tatapjadisatu jadisatudiri refleksibuatdiakutuk buatdiakutukjahat diakutukjahatjahat kutukjahatjahattatap jahatjahattatapjadi jahattatapjadisatu tatapjadisatudiri refleksibuatdiakutukjahat buatdiakutukjahatjahat diakutukjahatjahattatap kutukjahatjahattatapjadi jahatjahattatapjadisatu jahattatapjadisatudiri refleksibuatdiakutukjahatjahat buatdiakutukjahatjahattatap diakutukjahatjahattatapjadi kutukjahatjahattatapjadisatu jahatjahattatapjadisatudiri</t>
+  </si>
+  <si>
+    <t>menang telak prabowomenangdebat menangtelak telakprabowomenangdebat menangtelakprabowomenangdebat</t>
+  </si>
+  <si>
+    <t>swear deh puas banget malam ni nengok mr planga plongo tak kutik hajar macan asia sweardeh dehpuas puasbanget bangetmalam malamni ninengok nengokmr mrplanga plangaplongo plongotak takkutik kutikhajar hajarmacan macanasia sweardehpuas dehpuasbanget puasbangetmalam bangetmalamni malamninengok ninengokmr nengokmrplanga mrplangaplongo plangaplongotak plongotakkutik takkutikhajar kutikhajarmacan hajarmacanasia sweardehpuasbanget dehpuasbangetmalam puasbangetmalamni bangetmalamninengok malamninengokmr ninengokmrplanga nengokmrplangaplongo mrplangaplongotak plangaplongotakkutik plongotakkutikhajar takkutikhajarmacan kutikhajarmacanasia sweardehpuasbangetmalam dehpuasbangetmalamni puasbangetmalamninengok bangetmalamninengokmr malamninengokmrplanga ninengokmrplangaplongo nengokmrplangaplongotak mrplangaplongotakkutik plangaplongotakkutikhajar plongotakkutikhajarmacan takkutikhajarmacanasia sweardehpuasbangetmalamni dehpuasbangetmalamninengok puasbangetmalamninengokmr bangetmalamninengokmrplanga malamninengokmrplangaplongo ninengokmrplangaplongotak nengokmrplangaplongotakkutik mrplangaplongotakkutikhajar plangaplongotakkutikhajarmacan plongotakkutikhajarmacanasia</t>
+  </si>
+  <si>
+    <t>pagelaran kelas pilpres dukung asing sangat penting jangan kelas suharto bisa kondisi asing pagelarankelas kelaspilpres pilpresdukung dukungasing asingsangat sangatpenting pentingjangan jangankelas kelassuharto suhartobisa bisakondisi kondisiasing pagelarankelaspilpres kelaspilpresdukung pilpresdukungasing dukungasingsangat asingsangatpenting sangatpentingjangan pentingjangankelas jangankelassuharto kelassuhartobisa suhartobisakondisi bisakondisiasing pagelarankelaspilpresdukung kelaspilpresdukungasing pilpresdukungasingsangat dukungasingsangatpenting asingsangatpentingjangan sangatpentingjangankelas pentingjangankelassuharto jangankelassuhartobisa kelassuhartobisakondisi suhartobisakondisiasing pagelarankelaspilpresdukungasing kelaspilpresdukungasingsangat pilpresdukungasingsangatpenting dukungasingsangatpentingjangan asingsangatpentingjangankelas sangatpentingjangankelassuharto pentingjangankelassuhartobisa jangankelassuhartobisakondisi kelassuhartobisakondisiasing pagelarankelaspilpresdukungasingsangat kelaspilpresdukungasingsangatpenting pilpresdukungasingsangatpentingjangan dukungasingsangatpentingjangankelas asingsangatpentingjangankelassuharto sangatpentingjangankelassuhartobisa pentingjangankelassuhartobisakondisi jangankelassuhartobisakondisiasing</t>
+  </si>
+  <si>
+    <t>tegas sekali debat kali insyallah allah hendak bapak jadi presiden ri prabowobentengnkri tegassekali sekalidebat debatkali kaliinsyallah insyallahallah allahhendak hendakbapak bapakjadi jadipresiden presidenri riprabowobentengnkri tegassekalidebat sekalidebatkali debatkaliinsyallah kaliinsyallahallah insyallahallahhendak allahhendakbapak hendakbapakjadi bapakjadipresiden jadipresidenri presidenriprabowobentengnkri tegassekalidebatkali sekalidebatkaliinsyallah debatkaliinsyallahallah kaliinsyallahallahhendak insyallahallahhendakbapak allahhendakbapakjadi hendakbapakjadipresiden bapakjadipresidenri jadipresidenriprabowobentengnkri tegassekalidebatkaliinsyallah sekalidebatkaliinsyallahallah debatkaliinsyallahallahhendak kaliinsyallahallahhendakbapak insyallahallahhendakbapakjadi allahhendakbapakjadipresiden hendakbapakjadipresidenri bapakjadipresidenriprabowobentengnkri tegassekalidebatkaliinsyallahallah sekalidebatkaliinsyallahallahhendak debatkaliinsyallahallahhendakbapak kaliinsyallahallahhendakbapakjadi insyallahallahhendakbapakjadipresiden allahhendakbapakjadipresidenri hendakbapakjadipresidenriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>udahlah matiin jangan tipi simpilkan jangan kalau pak kalah debat masa iya calon presiden ada optimis udahlahmatiin matiinjangan jangantipi tipisimpilkan simpilkanjangan jangankalau kalaupak pakkalah kalahdebat debatmasa masaiya iyacalon calonpresiden presidenada adaoptimis udahlahmatiinjangan matiinjangantipi jangantipisimpilkan tipisimpilkanjangan simpilkanjangankalau jangankalaupak kalaupakkalah pakkalahdebat kalahdebatmasa debatmasaiya masaiyacalon iyacalonpresiden calonpresidenada presidenadaoptimis udahlahmatiinjangantipi matiinjangantipisimpilkan jangantipisimpilkanjangan tipisimpilkanjangankalau simpilkanjangankalaupak jangankalaupakkalah kalaupakkalahdebat pakkalahdebatmasa kalahdebatmasaiya debatmasaiyacalon masaiyacalonpresiden iyacalonpresidenada calonpresidenadaoptimis udahlahmatiinjangantipisimpilkan matiinjangantipisimpilkanjangan jangantipisimpilkanjangankalau tipisimpilkanjangankalaupak simpilkanjangankalaupakkalah jangankalaupakkalahdebat kalaupakkalahdebatmasa pakkalahdebatmasaiya kalahdebatmasaiyacalon debatmasaiyacalonpresiden masaiyacalonpresidenada iyacalonpresidenadaoptimis udahlahmatiinjangantipisimpilkanjangan matiinjangantipisimpilkanjangankalau jangantipisimpilkanjangankalaupak tipisimpilkanjangankalaupakkalah simpilkanjangankalaupakkalahdebat jangankalaupakkalahdebatmasa kalaupakkalahdebatmasaiya pakkalahdebatmasaiyacalon kalahdebatmasaiyacalonpresiden debatmasaiyacalonpresidenada masaiyacalonpresidenadaoptimis</t>
+  </si>
+  <si>
+    <t>ditanyain diplomasi luar negeri jawab putar jarak peluru kendali oke ditanyaindiplomasi diplomasiluar luarnegeri negerijawab jawabputar putarjarak jarakpeluru pelurukendali kendalioke ditanyaindiplomasiluar diplomasiluarnegeri luarnegerijawab negerijawabputar jawabputarjarak putarjarakpeluru jarakpelurukendali pelurukendalioke ditanyaindiplomasiluarnegeri diplomasiluarnegerijawab luarnegerijawabputar negerijawabputarjarak jawabputarjarakpeluru putarjarakpelurukendali jarakpelurukendalioke ditanyaindiplomasiluarnegerijawab diplomasiluarnegerijawabputar luarnegerijawabputarjarak negerijawabputarjarakpeluru jawabputarjarakpelurukendali putarjarakpelurukendalioke ditanyaindiplomasiluarnegerijawabputar diplomasiluarnegerijawabputarjarak luarnegerijawabputarjarakpeluru negerijawabputarjarakpelurukendali jawabputarjarakpelurukendalioke</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps hahahayangbakar yangbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps hahahayangbakarjenggot yangbakarjenggotsama bakarjenggotsamaimbau jenggotsamaimbaupakai samaimbaupakaibaju imbaupakaibajuputih pakaibajuputihtps hahahayangbakarjenggotsama yangbakarjenggotsamaimbau bakarjenggotsamaimbaupakai jenggotsamaimbaupakaibaju samaimbaupakaibajuputih imbaupakaibajuputihtps hahahayangbakarjenggotsamaimbau yangbakarjenggotsamaimbaupakai bakarjenggotsamaimbaupakaibaju jenggotsamaimbaupakaibajuputih samaimbaupakaibajuputihtps</t>
+  </si>
+  <si>
+    <t>wow menang tebal nih mantap pak lanjut 01dilanj wowmenang menangtebal tebalnih nihmantap mantappak paklanjut lanjut01dilanj wowmenangtebal menangtebalnih tebalnihmantap nihmantappak mantappaklanjut paklanjut01dilanj wowmenangtebalnih menangtebalnihmantap tebalnihmantappak nihmantappaklanjut mantappaklanjut01dilanj wowmenangtebalnihmantap menangtebalnihmantappak tebalnihmantappaklanjut nihmantappaklanjut01dilanj wowmenangtebalnihmantappak menangtebalnihmantappaklanjut tebalnihmantappaklanjut01dilanj</t>
+  </si>
+  <si>
+    <t>penting jangan asal bapak senang kata sindir prabowobentengnkri asal bapak senang tau kondisi riil rakyat pentingjangan janganasal asalbapak bapaksenang senangkata katasindir sindirprabowobentengnkri prabowobentengnkriasal asalbapak bapaksenang senangtau taukondisi kondisiriil riilrakyat pentingjanganasal janganasalbapak asalbapaksenang bapaksenangkata senangkatasindir katasindirprabowobentengnkri sindirprabowobentengnkriasal prabowobentengnkriasalbapak asalbapaksenang bapaksenangtau senangtaukondisi taukondisiriil kondisiriilrakyat pentingjanganasalbapak janganasalbapaksenang asalbapaksenangkata bapaksenangkatasindir senangkatasindirprabowobentengnkri katasindirprabowobentengnkriasal sindirprabowobentengnkriasalbapak prabowobentengnkriasalbapaksenang asalbapaksenangtau bapaksenangtaukondisi senangtaukondisiriil taukondisiriilrakyat pentingjanganasalbapaksenang janganasalbapaksenangkata asalbapaksenangkatasindir bapaksenangkatasindirprabowobentengnkri senangkatasindirprabowobentengnkriasal katasindirprabowobentengnkriasalbapak sindirprabowobentengnkriasalbapaksenang prabowobentengnkriasalbapaksenangtau asalbapaksenangtaukondisi bapaksenangtaukondisiriil senangtaukondisiriilrakyat pentingjanganasalbapaksenangkata janganasalbapaksenangkatasindir asalbapaksenangkatasindirprabowobentengnkri bapaksenangkatasindirprabowobentengnkriasal senangkatasindirprabowobentengnkriasalbapak katasindirprabowobentengnkriasalbapaksenang sindirprabowobentengnkriasalbapaksenangtau prabowobentengnkriasalbapaksenangtaukondisi asalbapaksenangtaukondisiriil bapaksenangtaukondisiriilrakyat</t>
+  </si>
+  <si>
+    <t>ingin negara kuat ekonomi pilih ingin negara kuat tentara pilih gitu kok repot inginnegara negarakuat kuatekonomi ekonomipilih pilihingin inginnegara negarakuat kuattentara tentarapilih pilihgitu gitukok kokrepot inginnegarakuat negarakuatekonomi kuatekonomipilih ekonomipilihingin pilihinginnegara inginnegarakuat negarakuattentara kuattentarapilih tentarapilihgitu pilihgitukok gitukokrepot inginnegarakuatekonomi negarakuatekonomipilih kuatekonomipilihingin ekonomipilihinginnegara pilihinginnegarakuat inginnegarakuattentara negarakuattentarapilih kuattentarapilihgitu tentarapilihgitukok pilihgitukokrepot inginnegarakuatekonomipilih negarakuatekonomipilihingin kuatekonomipilihinginnegara ekonomipilihinginnegarakuat pilihinginnegarakuattentara inginnegarakuattentarapilih negarakuattentarapilihgitu kuattentarapilihgitukok tentarapilihgitukokrepot inginnegarakuatekonomipilihingin negarakuatekonomipilihinginnegara kuatekonomipilihinginnegarakuat ekonomipilihinginnegarakuattentara pilihinginnegarakuattentarapilih inginnegarakuattentarapilihgitu negarakuattentarapilihgitukok kuattentarapilihgitukokrepot</t>
+  </si>
+  <si>
+    <t>kok nyata sabar luarbiasa maaf kok seperti persepsi distortif lama koknyata nyatasabar sabarluarbiasa luarbiasamaaf maafkok kokseperti sepertipersepsi persepsidistortif distortiflama koknyatasabar nyatasabarluarbiasa sabarluarbiasamaaf luarbiasamaafkok maafkokseperti koksepertipersepsi sepertipersepsidistortif persepsidistortiflama koknyatasabarluarbiasa nyatasabarluarbiasamaaf sabarluarbiasamaafkok luarbiasamaafkokseperti maafkoksepertipersepsi koksepertipersepsidistortif sepertipersepsidistortiflama koknyatasabarluarbiasamaaf nyatasabarluarbiasamaafkok sabarluarbiasamaafkokseperti luarbiasamaafkoksepertipersepsi maafkoksepertipersepsidistortif koksepertipersepsidistortiflama koknyatasabarluarbiasamaafkok nyatasabarluarbiasamaafkokseperti sabarluarbiasamaafkoksepertipersepsi luarbiasamaafkoksepertipersepsidistortif maafkoksepertipersepsidistortiflama</t>
+  </si>
+  <si>
+    <t>betul prabowomenangdebat jelas lah prabowobentengnkri betulprabowomenangdebat prabowomenangdebatjelas jelaslah lahprabowobentengnkri betulprabowomenangdebatjelas prabowomenangdebatjelaslah jelaslahprabowobentengnkri betulprabowomenangdebatjelaslah prabowomenangdebatjelaslahprabowobentengnkri betulprabowomenangdebatjelaslahprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>lihat semua hasil kerja nyata ubah semua besar bangsa indonesia ubah semua lihatsemua semuahasil hasilkerja kerjanyata nyataubah ubahsemua semuabesar besarbangsa bangsaindonesia indonesiaubah ubahsemua lihatsemuahasil semuahasilkerja hasilkerjanyata kerjanyataubah nyataubahsemua ubahsemuabesar semuabesarbangsa besarbangsaindonesia bangsaindonesiaubah indonesiaubahsemua lihatsemuahasilkerja semuahasilkerjanyata hasilkerjanyataubah kerjanyataubahsemua nyataubahsemuabesar ubahsemuabesarbangsa semuabesarbangsaindonesia besarbangsaindonesiaubah bangsaindonesiaubahsemua lihatsemuahasilkerjanyata semuahasilkerjanyataubah hasilkerjanyataubahsemua kerjanyataubahsemuabesar nyataubahsemuabesarbangsa ubahsemuabesarbangsaindonesia semuabesarbangsaindonesiaubah besarbangsaindonesiaubahsemua lihatsemuahasilkerjanyataubah semuahasilkerjanyataubahsemua hasilkerjanyataubahsemuabesar kerjanyataubahsemuabesarbangsa nyataubahsemuabesarbangsaindonesia ubahsemuabesarbangsaindonesiaubah semuabesarbangsaindonesiaubahsemua</t>
+  </si>
+  <si>
+    <t>zaman teknologi 4 0 ko mau pake teknologi jadul makin tinggal bangsa dong pak zamanteknologi teknologi4 40 0ko komau maupake paketeknologi teknologijadul jadulmakin makintinggal tinggalbangsa bangsadong dongpak zamanteknologi4 teknologi40 40ko 0komau komaupake maupaketeknologi paketeknologijadul teknologijadulmakin jadulmakintinggal makintinggalbangsa tinggalbangsadong bangsadongpak zamanteknologi40 teknologi40ko 40komau 0komaupake komaupaketeknologi maupaketeknologijadul paketeknologijadulmakin teknologijadulmakintinggal jadulmakintinggalbangsa makintinggalbangsadong tinggalbangsadongpak zamanteknologi40ko teknologi40komau 40komaupake 0komaupaketeknologi komaupaketeknologijadul maupaketeknologijadulmakin paketeknologijadulmakintinggal teknologijadulmakintinggalbangsa jadulmakintinggalbangsadong makintinggalbangsadongpak zamanteknologi40komau teknologi40komaupake 40komaupaketeknologi 0komaupaketeknologijadul komaupaketeknologijadulmakin maupaketeknologijadulmakintinggal paketeknologijadulmakintinggalbangsa teknologijadulmakintinggalbangsadong jadulmakintinggalbangsadongpak</t>
+  </si>
+  <si>
+    <t>sandi penting manusia biasa kalian maa allah pernah mimpi dekat dengan presiden sandipenting pentingmanusia manusiabiasa biasakalian kalianmaa maaallah allahpernah pernahmimpi mimpidekat dekatdengan denganpresiden sandipentingmanusia pentingmanusiabiasa manusiabiasakalian biasakalianmaa kalianmaaallah maaallahpernah allahpernahmimpi pernahmimpidekat mimpidekatdengan dekatdenganpresiden sandipentingmanusiabiasa pentingmanusiabiasakalian manusiabiasakalianmaa biasakalianmaaallah kalianmaaallahpernah maaallahpernahmimpi allahpernahmimpidekat pernahmimpidekatdengan mimpidekatdenganpresiden sandipentingmanusiabiasakalian pentingmanusiabiasakalianmaa manusiabiasakalianmaaallah biasakalianmaaallahpernah kalianmaaallahpernahmimpi maaallahpernahmimpidekat allahpernahmimpidekatdengan pernahmimpidekatdenganpresiden sandipentingmanusiabiasakalianmaa pentingmanusiabiasakalianmaaallah manusiabiasakalianmaaallahpernah biasakalianmaaallahpernahmimpi kalianmaaallahpernahmimpidekat maaallahpernahmimpidekatdengan allahpernahmimpidekatdenganpresiden</t>
+  </si>
+  <si>
+    <t>tenang pak papar pemerintahandilan solusi tepat baik birokrasi perintah tenangpak pakpapar paparpemerintahandilan pemerintahandilansolusi solusitepat tepatbaik baikbirokrasi birokrasiperintah tenangpakpapar pakpaparpemerintahandilan paparpemerintahandilansolusi pemerintahandilansolusitepat solusitepatbaik tepatbaikbirokrasi baikbirokrasiperintah tenangpakpaparpemerintahandilan pakpaparpemerintahandilansolusi paparpemerintahandilansolusitepat pemerintahandilansolusitepatbaik solusitepatbaikbirokrasi tepatbaikbirokrasiperintah tenangpakpaparpemerintahandilansolusi pakpaparpemerintahandilansolusitepat paparpemerintahandilansolusitepatbaik pemerintahandilansolusitepatbaikbirokrasi solusitepatbaikbirokrasiperintah tenangpakpaparpemerintahandilansolusitepat pakpaparpemerintahandilansolusitepatbaik paparpemerintahandilansolusitepatbaikbirokrasi pemerintahandilansolusitepatbaikbirokrasiperintah</t>
+  </si>
+  <si>
+    <t>wow jawab bapak prabowo sandi atas tanya buat onoh tel ludah deh macaaan asia bapak mulai wowjawab jawabbapak bapakprabowo prabowosandi sandiatas atastanya tanyabuat buatonoh onohtel telludah ludahdeh dehmacaaan macaaanasia asiabapak bapakmulai wowjawabbapak jawabbapakprabowo bapakprabowosandi prabowosandiatas sandiatastanya atastanyabuat tanyabuatonoh buatonohtel onohtelludah telludahdeh ludahdehmacaaan dehmacaaanasia macaaanasiabapak asiabapakmulai wowjawabbapakprabowo jawabbapakprabowosandi bapakprabowosandiatas prabowosandiatastanya sandiatastanyabuat atastanyabuatonoh tanyabuatonohtel buatonohtelludah onohtelludahdeh telludahdehmacaaan ludahdehmacaaanasia dehmacaaanasiabapak macaaanasiabapakmulai wowjawabbapakprabowosandi jawabbapakprabowosandiatas bapakprabowosandiatastanya prabowosandiatastanyabuat sandiatastanyabuatonoh atastanyabuatonohtel tanyabuatonohtelludah buatonohtelludahdeh onohtelludahdehmacaaan telludahdehmacaaanasia ludahdehmacaaanasiabapak dehmacaaanasiabapakmulai wowjawabbapakprabowosandiatas jawabbapakprabowosandiatastanya bapakprabowosandiatastanyabuat prabowosandiatastanyabuatonoh sandiatastanyabuatonohtel atastanyabuatonohtelludah tanyabuatonohtelludahdeh buatonohtelludahdehmacaaan onohtelludahdehmacaaanasia telludahdehmacaaanasiabapak ludahdehmacaaanasiabapakmulai</t>
+  </si>
+  <si>
+    <t>mantaf malam nih pak semua debat yang paling oke prabowobentengnkri mantafmalam malamnih nihpak paksemua semuadebat debatyang yangpaling palingoke okeprabowobentengnkri mantafmalamnih malamnihpak nihpaksemua paksemuadebat semuadebatyang debatyangpaling yangpalingoke palingokeprabowobentengnkri mantafmalamnihpak malamnihpaksemua nihpaksemuadebat paksemuadebatyang semuadebatyangpaling debatyangpalingoke yangpalingokeprabowobentengnkri mantafmalamnihpaksemua malamnihpaksemuadebat nihpaksemuadebatyang paksemuadebatyangpaling semuadebatyangpalingoke debatyangpalingokeprabowobentengnkri mantafmalamnihpaksemuadebat malamnihpaksemuadebatyang nihpaksemuadebatyangpaling paksemuadebatyangpalingoke semuadebatyangpalingokeprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>indonesia sentris laksana pak sangat luar biasa menang 01dilanjutkan https t co dbeyzg 9edb indonesiasentris sentrislaksana laksanapak paksangat sangatluar luarbiasa biasamenang menang01dilanjutkan 01dilanjutkanhttps httpst tco codbeyzg dbeyzg9edb indonesiasentrislaksana sentrislaksanapak laksanapaksangat paksangatluar sangatluarbiasa luarbiasamenang biasamenang01dilanjutkan menang01dilanjutkanhttps 01dilanjutkanhttpst httpstco tcodbeyzg codbeyzg9edb indonesiasentrislaksanapak sentrislaksanapaksangat laksanapaksangatluar paksangatluarbiasa sangatluarbiasamenang luarbiasamenang01dilanjutkan biasamenang01dilanjutkanhttps menang01dilanjutkanhttpst 01dilanjutkanhttpstco httpstcodbeyzg tcodbeyzg9edb indonesiasentrislaksanapaksangat sentrislaksanapaksangatluar laksanapaksangatluarbiasa paksangatluarbiasamenang sangatluarbiasamenang01dilanjutkan luarbiasamenang01dilanjutkanhttps biasamenang01dilanjutkanhttpst menang01dilanjutkanhttpstco 01dilanjutkanhttpstcodbeyzg httpstcodbeyzg9edb indonesiasentrislaksanapaksangatluar sentrislaksanapaksangatluarbiasa laksanapaksangatluarbiasamenang paksangatluarbiasamenang01dilanjutkan sangatluarbiasamenang01dilanjutkanhttps luarbiasamenang01dilanjutkanhttpst biasamenang01dilanjutkanhttpstco menang01dilanjutkanhttpstcodbeyzg 01dilanjutkanhttpstcodbeyzg9edb</t>
+  </si>
+  <si>
+    <t>saja subianto visi jauh depan tidak lupa sejahtera rakyat mantap sajasubianto subiantovisi visijauh jauhdepan depantidak tidaklupa lupasejahtera sejahterarakyat rakyatmantap sajasubiantovisi subiantovisijauh visijauhdepan jauhdepantidak depantidaklupa tidaklupasejahtera lupasejahterarakyat sejahterarakyatmantap sajasubiantovisijauh subiantovisijauhdepan visijauhdepantidak jauhdepantidaklupa depantidaklupasejahtera tidaklupasejahterarakyat lupasejahterarakyatmantap sajasubiantovisijauhdepan subiantovisijauhdepantidak visijauhdepantidaklupa jauhdepantidaklupasejahtera depantidaklupasejahterarakyat tidaklupasejahterarakyatmantap sajasubiantovisijauhdepantidak subiantovisijauhdepantidaklupa visijauhdepantidaklupasejahtera jauhdepantidaklupasejahterarakyat depantidaklupasejahterarakyatmantap</t>
+  </si>
+  <si>
+    <t>calon presiden subianto sebut di garda depan tumpas bahaya komunis masuk gera radikal calonpresiden presidensubianto subiantosebut sebutdi digarda gardadepan depantumpas tumpasbahaya bahayakomunis komunismasuk masukgera geraradikal calonpresidensubianto presidensubiantosebut subiantosebutdi sebutdigarda digardadepan gardadepantumpas depantumpasbahaya tumpasbahayakomunis bahayakomunismasuk komunismasukgera masukgeraradikal calonpresidensubiantosebut presidensubiantosebutdi subiantosebutdigarda sebutdigardadepan digardadepantumpas gardadepantumpasbahaya depantumpasbahayakomunis tumpasbahayakomunismasuk bahayakomunismasukgera komunismasukgeraradikal calonpresidensubiantosebutdi presidensubiantosebutdigarda subiantosebutdigardadepan sebutdigardadepantumpas digardadepantumpasbahaya gardadepantumpasbahayakomunis depantumpasbahayakomunismasuk tumpasbahayakomunismasukgera bahayakomunismasukgeraradikal calonpresidensubiantosebutdigarda presidensubiantosebutdigardadepan subiantosebutdigardadepantumpas sebutdigardadepantumpasbahaya digardadepantumpasbahayakomunis gardadepantumpasbahayakomunismasuk depantumpasbahayakomunismasukgera tumpasbahayakomunismasukgeraradikal</t>
+  </si>
+  <si>
+    <t>malu - arogan - emosi - pesimis - tak taat atur debat - ngedongeng bilang lebih tni tni malu- -arogan arogan- -emosi emosi- -pesimis pesimis- -tak taktaat taatatur aturdebat debat- -ngedongeng ngedongengbilang bilanglebih lebihtni tnitni malu-arogan -arogan- arogan-emosi -emosi- emosi-pesimis -pesimis- pesimis-tak -taktaat taktaatatur taataturdebat aturdebat- debat-ngedongeng -ngedongengbilang ngedongengbilanglebih bilanglebihtni lebihtnitni malu-arogan- -arogan-emosi arogan-emosi- -emosi-pesimis emosi-pesimis- -pesimis-tak pesimis-taktaat -taktaatatur taktaataturdebat taataturdebat- aturdebat-ngedongeng debat-ngedongengbilang -ngedongengbilanglebih ngedongengbilanglebihtni bilanglebihtnitni malu-arogan-emosi -arogan-emosi- arogan-emosi-pesimis -emosi-pesimis- emosi-pesimis-tak -pesimis-taktaat pesimis-taktaatatur -taktaataturdebat taktaataturdebat- taataturdebat-ngedongeng aturdebat-ngedongengbilang debat-ngedongengbilanglebih -ngedongengbilanglebihtni ngedongengbilanglebihtnitni malu-arogan-emosi- -arogan-emosi-pesimis arogan-emosi-pesimis- -emosi-pesimis-tak emosi-pesimis-taktaat -pesimis-taktaatatur pesimis-taktaataturdebat -taktaataturdebat- taktaataturdebat-ngedongeng taataturdebat-ngedongengbilang aturdebat-ngedongengbilanglebih debat-ngedongengbilanglebihtni -ngedongengbilanglebihtnitni</t>
+  </si>
+  <si>
+    <t>pemerintahandilan presiden selalu usaha tingkat mutu tenaga kerja pemerintahandilanpresiden presidenselalu selaluusaha usahatingkat tingkatmutu mututenaga tenagakerja pemerintahandilanpresidenselalu presidenselaluusaha selaluusahatingkat usahatingkatmutu tingkatmututenaga mututenagakerja pemerintahandilanpresidenselaluusaha presidenselaluusahatingkat selaluusahatingkatmutu usahatingkatmututenaga tingkatmututenagakerja pemerintahandilanpresidenselaluusahatingkat presidenselaluusahatingkatmutu selaluusahatingkatmututenaga usahatingkatmututenagakerja pemerintahandilanpresidenselaluusahatingkatmutu presidenselaluusahatingkatmututenaga selaluusahatingkatmututenagakerja</t>
+  </si>
+  <si>
+    <t>apa bosan terus tuding - nya kritik habis apabosan bosanterus terustuding tuding- -nya nyakritik kritikhabis apabosanterus bosanterustuding terustuding- tuding-nya -nyakritik nyakritikhabis apabosanterustuding bosanterustuding- terustuding-nya tuding-nyakritik -nyakritikhabis apabosanterustuding- bosanterustuding-nya terustuding-nyakritik tuding-nyakritikhabis apabosanterustuding-nya bosanterustuding-nyakritik terustuding-nyakritikhabis</t>
+  </si>
+  <si>
+    <t>pak komitmen dukung e-government salah satu e-budgeting konkrit cegah korupsi pakkomitmen komitmendukung dukunge-government e-governmentsalah salahsatu satue-budgeting e-budgetingkonkrit konkritcegah cegahkorupsi pakkomitmendukung komitmendukunge-government dukunge-governmentsalah e-governmentsalahsatu salahsatue-budgeting satue-budgetingkonkrit e-budgetingkonkritcegah konkritcegahkorupsi pakkomitmendukunge-government komitmendukunge-governmentsalah dukunge-governmentsalahsatu e-governmentsalahsatue-budgeting salahsatue-budgetingkonkrit satue-budgetingkonkritcegah e-budgetingkonkritcegahkorupsi pakkomitmendukunge-governmentsalah komitmendukunge-governmentsalahsatu dukunge-governmentsalahsatue-budgeting e-governmentsalahsatue-budgetingkonkrit salahsatue-budgetingkonkritcegah satue-budgetingkonkritcegahkorupsi pakkomitmendukunge-governmentsalahsatu komitmendukunge-governmentsalahsatue-budgeting dukunge-governmentsalahsatue-budgetingkonkrit e-governmentsalahsatue-budgetingkonkritcegah salahsatue-budgetingkonkritcegahkorupsi</t>
+  </si>
+  <si>
+    <t>tuju sama tompi cukup baik eksekutif pilih legislatif perlu baik tujusama samatompi tompicukup cukupbaik baikeksekutif eksekutifpilih pilihlegislatif legislatifperlu perlubaik tujusamatompi samatompicukup tompicukupbaik cukupbaikeksekutif baikeksekutifpilih eksekutifpilihlegislatif pilihlegislatifperlu legislatifperlubaik tujusamatompicukup samatompicukupbaik tompicukupbaikeksekutif cukupbaikeksekutifpilih baikeksekutifpilihlegislatif eksekutifpilihlegislatifperlu pilihlegislatifperlubaik tujusamatompicukupbaik samatompicukupbaikeksekutif tompicukupbaikeksekutifpilih cukupbaikeksekutifpilihlegislatif baikeksekutifpilihlegislatifperlu eksekutifpilihlegislatifperlubaik tujusamatompicukupbaikeksekutif samatompicukupbaikeksekutifpilih tompicukupbaikeksekutifpilihlegislatif cukupbaikeksekutifpilihlegislatifperlu baikeksekutifpilihlegislatifperlubaik</t>
+  </si>
+  <si>
+    <t>debatkeempatpilpres 2019 calon presiden tanggap teknologi cepat ala debatkeempatpilpres2019 2019calon calonpresiden presidentanggap tanggapteknologi teknologicepat cepatala debatkeempatpilpres2019calon 2019calonpresiden calonpresidentanggap presidentanggapteknologi tanggapteknologicepat teknologicepatala debatkeempatpilpres2019calonpresiden 2019calonpresidentanggap calonpresidentanggapteknologi presidentanggapteknologicepat tanggapteknologicepatala debatkeempatpilpres2019calonpresidentanggap 2019calonpresidentanggapteknologi calonpresidentanggapteknologicepat presidentanggapteknologicepatala debatkeempatpilpres2019calonpresidentanggapteknologi 2019calonpresidentanggapteknologicepat calonpresidentanggapteknologicepatala</t>
+  </si>
+  <si>
+    <t>dukung calon presiden no urut jokowi-ma ruf kali datang viking makin dekat hari coblos dukung terus dukungcalon calonpresiden presidenno nourut urutjokowi-ma jokowi-maruf rufkali kalidatang datangviking vikingmakin makindekat dekathari haricoblos coblosdukung dukungterus dukungcalonpresiden calonpresidenno presidennourut nourutjokowi-ma urutjokowi-maruf jokowi-marufkali rufkalidatang kalidatangviking datangvikingmakin vikingmakindekat makindekathari dekatharicoblos haricoblosdukung coblosdukungterus dukungcalonpresidenno calonpresidennourut presidennourutjokowi-ma nourutjokowi-maruf urutjokowi-marufkali jokowi-marufkalidatang rufkalidatangviking kalidatangvikingmakin datangvikingmakindekat vikingmakindekathari makindekatharicoblos dekatharicoblosdukung haricoblosdukungterus dukungcalonpresidennourut calonpresidennourutjokowi-ma presidennourutjokowi-maruf nourutjokowi-marufkali urutjokowi-marufkalidatang jokowi-marufkalidatangviking rufkalidatangvikingmakin kalidatangvikingmakindekat datangvikingmakindekathari vikingmakindekatharicoblos makindekatharicoblosdukung dekatharicoblosdukungterus dukungcalonpresidennourutjokowi-ma calonpresidennourutjokowi-maruf presidennourutjokowi-marufkali nourutjokowi-marufkalidatang urutjokowi-marufkalidatangviking jokowi-marufkalidatangvikingmakin rufkalidatangvikingmakindekat kalidatangvikingmakindekathari datangvikingmakindekatharicoblos vikingmakindekatharicoblosdukung makindekatharicoblosdukungterus</t>
+  </si>
+  <si>
+    <t>nampak debatpilpres 2019 dari sisi ilmu komplit alam bijaksana perilaku jelas lebih unggul nampakdebatpilpres debatpilpres2019 2019dari darisisi sisiilmu ilmukomplit komplitalam alambijaksana bijaksanaperilaku perilakujelas jelaslebih lebihunggul nampakdebatpilpres2019 debatpilpres2019dari 2019darisisi darisisiilmu sisiilmukomplit ilmukomplitalam komplitalambijaksana alambijaksanaperilaku bijaksanaperilakujelas perilakujelaslebih jelaslebihunggul nampakdebatpilpres2019dari debatpilpres2019darisisi 2019darisisiilmu darisisiilmukomplit sisiilmukomplitalam ilmukomplitalambijaksana komplitalambijaksanaperilaku alambijaksanaperilakujelas bijaksanaperilakujelaslebih perilakujelaslebihunggul nampakdebatpilpres2019darisisi debatpilpres2019darisisiilmu 2019darisisiilmukomplit darisisiilmukomplitalam sisiilmukomplitalambijaksana ilmukomplitalambijaksanaperilaku komplitalambijaksanaperilakujelas alambijaksanaperilakujelaslebih bijaksanaperilakujelaslebihunggul nampakdebatpilpres2019darisisiilmu debatpilpres2019darisisiilmukomplit 2019darisisiilmukomplitalam darisisiilmukomplitalambijaksana sisiilmukomplitalambijaksanaperilaku ilmukomplitalambijaksanaperilakujelas komplitalambijaksanaperilakujelaslebih alambijaksanaperilakujelaslebihunggul</t>
+  </si>
+  <si>
+    <t>aje maling teriak maling bung ajemaling malingteriak teriakmaling malingbung ajemalingteriak malingteriakmaling teriakmalingbung ajemalingteriakmaling malingteriakmalingbung ajemalingteriakmalingbung</t>
+  </si>
+  <si>
+    <t>pak bilang beri contoh toleransi tetapi dukung kerap laku tindak intoleran pakbilang bilangberi bericontoh contohtoleransi toleransitetapi tetapidukung dukungkerap keraplaku lakutindak tindakintoleran pakbilangberi bilangbericontoh bericontohtoleransi contohtoleransitetapi toleransitetapidukung tetapidukungkerap dukungkeraplaku keraplakutindak lakutindakintoleran pakbilangbericontoh bilangbericontohtoleransi bericontohtoleransitetapi contohtoleransitetapidukung toleransitetapidukungkerap tetapidukungkeraplaku dukungkeraplakutindak keraplakutindakintoleran pakbilangbericontohtoleransi bilangbericontohtoleransitetapi bericontohtoleransitetapidukung contohtoleransitetapidukungkerap toleransitetapidukungkeraplaku tetapidukungkeraplakutindak dukungkeraplakutindakintoleran pakbilangbericontohtoleransitetapi bilangbericontohtoleransitetapidukung bericontohtoleransitetapidukungkerap contohtoleransitetapidukungkeraplaku toleransitetapidukungkeraplakutindak tetapidukungkeraplakutindakintoleran</t>
+  </si>
+  <si>
+    <t>debat pilpres empat tutup statement tutup penuh damai dua calon presiden buat dingin debatpilpres pilpresempat empattutup tutupstatement statementtutup tutuppenuh penuhdamai damaidua duacalon calonpresiden presidenbuat buatdingin debatpilpresempat pilpresempattutup empattutupstatement tutupstatementtutup statementtutuppenuh tutuppenuhdamai penuhdamaidua damaiduacalon duacalonpresiden calonpresidenbuat presidenbuatdingin debatpilpresempattutup pilpresempattutupstatement empattutupstatementtutup tutupstatementtutuppenuh statementtutuppenuhdamai tutuppenuhdamaidua penuhdamaiduacalon damaiduacalonpresiden duacalonpresidenbuat calonpresidenbuatdingin debatpilpresempattutupstatement pilpresempattutupstatementtutup empattutupstatementtutuppenuh tutupstatementtutuppenuhdamai statementtutuppenuhdamaidua tutuppenuhdamaiduacalon penuhdamaiduacalonpresiden damaiduacalonpresidenbuat duacalonpresidenbuatdingin debatpilpresempattutupstatementtutup pilpresempattutupstatementtutuppenuh empattutupstatementtutuppenuhdamai tutupstatementtutuppenuhdamaidua statementtutuppenuhdamaiduacalon tutuppenuhdamaiduacalonpresiden penuhdamaiduacalonpresidenbuat damaiduacalonpresidenbuatdingin</t>
+  </si>
+  <si>
+    <t>pak beri contoh dewasa memang lahir dalam diri 01dilanjutkan https t co 68tqfjd530 pakberi bericontoh contohdewasa dewasamemang memanglahir lahirdalam dalamdiri diri01dilanjutkan 01dilanjutkanhttps httpst tco co68tqfjd530 pakbericontoh bericontohdewasa contohdewasamemang dewasamemanglahir memanglahirdalam lahirdalamdiri dalamdiri01dilanjutkan diri01dilanjutkanhttps 01dilanjutkanhttpst httpstco tco68tqfjd530 pakbericontohdewasa bericontohdewasamemang contohdewasamemanglahir dewasamemanglahirdalam memanglahirdalamdiri lahirdalamdiri01dilanjutkan dalamdiri01dilanjutkanhttps diri01dilanjutkanhttpst 01dilanjutkanhttpstco httpstco68tqfjd530 pakbericontohdewasamemang bericontohdewasamemanglahir contohdewasamemanglahirdalam dewasamemanglahirdalamdiri memanglahirdalamdiri01dilanjutkan lahirdalamdiri01dilanjutkanhttps dalamdiri01dilanjutkanhttpst diri01dilanjutkanhttpstco 01dilanjutkanhttpstco68tqfjd530 pakbericontohdewasamemanglahir bericontohdewasamemanglahirdalam contohdewasamemanglahirdalamdiri dewasamemanglahirdalamdiri01dilanjutkan memanglahirdalamdiri01dilanjutkanhttps lahirdalamdiri01dilanjutkanhttpst dalamdiri01dilanjutkanhttpstco diri01dilanjutkanhttpstco68tqfjd530</t>
+  </si>
+  <si>
+    <t>optimisme pak ragu bagai warga sipil pak sangat percaya tentara nasional optimismepak pakragu ragubagai bagaiwarga wargasipil sipilpak paksangat sangatpercaya percayatentara tentaranasional optimismepakragu pakragubagai ragubagaiwarga bagaiwargasipil wargasipilpak sipilpaksangat paksangatpercaya sangatpercayatentara percayatentaranasional optimismepakragubagai pakragubagaiwarga ragubagaiwargasipil bagaiwargasipilpak wargasipilpaksangat sipilpaksangatpercaya paksangatpercayatentara sangatpercayatentaranasional optimismepakragubagaiwarga pakragubagaiwargasipil ragubagaiwargasipilpak bagaiwargasipilpaksangat wargasipilpaksangatpercaya sipilpaksangatpercayatentara paksangatpercayatentaranasional optimismepakragubagaiwargasipil pakragubagaiwargasipilpak ragubagaiwargasipilpaksangat bagaiwargasipilpaksangatpercaya wargasipilpaksangatpercayatentara sipilpaksangatpercayatentaranasional</t>
+  </si>
+  <si>
+    <t>lembaga polmark indonesia rilis rilis survei tunjuk elektabilitas pasang milik elektabilitas lembagapolmark polmarkindonesia indonesiarilis rilisrilis rilissurvei surveitunjuk tunjukelektabilitas elektabilitaspasang pasangmilik milikelektabilitas lembagapolmarkindonesia polmarkindonesiarilis indonesiarilisrilis rilisrilissurvei rilissurveitunjuk surveitunjukelektabilitas tunjukelektabilitaspasang elektabilitaspasangmilik pasangmilikelektabilitas lembagapolmarkindonesiarilis polmarkindonesiarilisrilis indonesiarilisrilissurvei rilisrilissurveitunjuk rilissurveitunjukelektabilitas surveitunjukelektabilitaspasang tunjukelektabilitaspasangmilik elektabilitaspasangmilikelektabilitas lembagapolmarkindonesiarilisrilis polmarkindonesiarilisrilissurvei indonesiarilisrilissurveitunjuk rilisrilissurveitunjukelektabilitas rilissurveitunjukelektabilitaspasang surveitunjukelektabilitaspasangmilik tunjukelektabilitaspasangmilikelektabilitas lembagapolmarkindonesiarilisrilissurvei polmarkindonesiarilisrilissurveitunjuk indonesiarilisrilissurveitunjukelektabilitas rilisrilissurveitunjukelektabilitaspasang rilissurveitunjukelektabilitaspasangmilik surveitunjukelektabilitaspasangmilikelektabilitas</t>
+  </si>
+  <si>
+    <t>hari perintah bawah pak sangat maju infrastruktur udara ada hariperintah perintahbawah bawahpak paksangat sangatmaju majuinfrastruktur infrastrukturudara udaraada hariperintahbawah perintahbawahpak bawahpaksangat paksangatmaju sangatmajuinfrastruktur majuinfrastrukturudara infrastrukturudaraada hariperintahbawahpak perintahbawahpaksangat bawahpaksangatmaju paksangatmajuinfrastruktur sangatmajuinfrastrukturudara majuinfrastrukturudaraada hariperintahbawahpaksangat perintahbawahpaksangatmaju bawahpaksangatmajuinfrastruktur paksangatmajuinfrastrukturudara sangatmajuinfrastrukturudaraada hariperintahbawahpaksangatmaju perintahbawahpaksangatmajuinfrastruktur bawahpaksangatmajuinfrastrukturudara paksangatmajuinfrastrukturudaraada</t>
+  </si>
+  <si>
+    <t>kasihan pak tahan ketawa pecatanlebihtnidaritni kasihanpak paktahan tahanketawa ketawapecatanlebihtnidaritni kasihanpaktahan paktahanketawa tahanketawapecatanlebihtnidaritni kasihanpaktahanketawa paktahanketawapecatanlebihtnidaritni kasihanpaktahanketawapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>rendah dukung tahana rupa bukti rupa bukti bila cara tak langsung sedang hukum publik rendahdukung dukungtahana tahanarupa rupabukti buktirupa rupabukti buktibila bilacara caratak taklangsung langsungsedang sedanghukum hukumpublik rendahdukungtahana dukungtahanarupa tahanarupabukti rupabuktirupa buktirupabukti rupabuktibila buktibilacara bilacaratak carataklangsung taklangsungsedang langsungsedanghukum sedanghukumpublik rendahdukungtahanarupa dukungtahanarupabukti tahanarupabuktirupa rupabuktirupabukti buktirupabuktibila rupabuktibilacara buktibilacaratak bilacarataklangsung carataklangsungsedang taklangsungsedanghukum langsungsedanghukumpublik rendahdukungtahanarupabukti dukungtahanarupabuktirupa tahanarupabuktirupabukti rupabuktirupabuktibila buktirupabuktibilacara rupabuktibilacaratak buktibilacarataklangsung bilacarataklangsungsedang carataklangsungsedanghukum taklangsungsedanghukumpublik rendahdukungtahanarupabuktirupa dukungtahanarupabuktirupabukti tahanarupabuktirupabuktibila rupabuktirupabuktibilacara buktirupabuktibilacaratak rupabuktibilacarataklangsung buktibilacarataklangsungsedang bilacarataklangsungsedanghukum carataklangsungsedanghukumpublik</t>
+  </si>
+  <si>
+    <t>pak kaget tingkah laku jabat perintah sendiri laku jual beli jabat pakkaget kagettingkah tingkahlaku lakujabat jabatperintah perintahsendiri sendirilaku lakujual jualbeli belijabat pakkagettingkah kagettingkahlaku tingkahlakujabat lakujabatperintah jabatperintahsendiri perintahsendirilaku sendirilakujual lakujualbeli jualbelijabat pakkagettingkahlaku kagettingkahlakujabat tingkahlakujabatperintah lakujabatperintahsendiri jabatperintahsendirilaku perintahsendirilakujual sendirilakujualbeli lakujualbelijabat pakkagettingkahlakujabat kagettingkahlakujabatperintah tingkahlakujabatperintahsendiri lakujabatperintahsendirilaku jabatperintahsendirilakujual perintahsendirilakujualbeli sendirilakujualbelijabat pakkagettingkahlakujabatperintah kagettingkahlakujabatperintahsendiri tingkahlakujabatperintahsendirilaku lakujabatperintahsendirilakujual jabatperintahsendirilakujualbeli perintahsendirilakujualbelijabat</t>
+  </si>
+  <si>
+    <t>semua kata mas benar indonesia luas uni eropa jumlah tni cuma segitu lemah pak semuakata katamas masbenar benarindonesia indonesialuas luasuni unieropa eropajumlah jumlahtni tnicuma cumasegitu segitulemah lemahpak semuakatamas katamasbenar masbenarindonesia benarindonesialuas indonesialuasuni luasunieropa unieropajumlah eropajumlahtni jumlahtnicuma tnicumasegitu cumasegitulemah segitulemahpak semuakatamasbenar katamasbenarindonesia masbenarindonesialuas benarindonesialuasuni indonesialuasunieropa luasunieropajumlah unieropajumlahtni eropajumlahtnicuma jumlahtnicumasegitu tnicumasegitulemah cumasegitulemahpak semuakatamasbenarindonesia katamasbenarindonesialuas masbenarindonesialuasuni benarindonesialuasunieropa indonesialuasunieropajumlah luasunieropajumlahtni unieropajumlahtnicuma eropajumlahtnicumasegitu jumlahtnicumasegitulemah tnicumasegitulemahpak semuakatamasbenarindonesialuas katamasbenarindonesialuasuni masbenarindonesialuasunieropa benarindonesialuasunieropajumlah indonesialuasunieropajumlahtni luasunieropajumlahtnicuma unieropajumlahtnicumasegitu eropajumlahtnicumasegitulemah jumlahtnicumasegitulemahpak</t>
+  </si>
+  <si>
+    <t>pulau kecil tambang jaya tani nelayan ikut ruang hidup terus ancam parah baik maupun pulaukecil keciltambang tambangjaya jayatani taninelayan nelayanikut ikutruang ruanghidup hidupterus terusancam ancamparah parahbaik baikmaupun pulaukeciltambang keciltambangjaya tambangjayatani jayataninelayan taninelayanikut nelayanikutruang ikutruanghidup ruanghidupterus hidupterusancam terusancamparah ancamparahbaik parahbaikmaupun pulaukeciltambangjaya keciltambangjayatani tambangjayataninelayan jayataninelayanikut taninelayanikutruang nelayanikutruanghidup ikutruanghidupterus ruanghidupterusancam hidupterusancamparah terusancamparahbaik ancamparahbaikmaupun pulaukeciltambangjayatani keciltambangjayataninelayan tambangjayataninelayanikut jayataninelayanikutruang taninelayanikutruanghidup nelayanikutruanghidupterus ikutruanghidupterusancam ruanghidupterusancamparah hidupterusancamparahbaik terusancamparahbaikmaupun pulaukeciltambangjayataninelayan keciltambangjayataninelayanikut tambangjayataninelayanikutruang jayataninelayanikutruanghidup taninelayanikutruanghidupterus nelayanikutruanghidupterusancam ikutruanghidupterusancamparah ruanghidupterusancamparahbaik hidupterusancamparahbaikmaupun</t>
+  </si>
+  <si>
+    <t>daniel sibolang durian medan nyanyi lagu kocak kamu pingin kaya kerja tidur jangan danielsibolang sibolangdurian durianmedan medannyanyi nyanyilagu lagukocak kocakkamu kamupingin pinginkaya kayakerja kerjatidur tidurjangan danielsibolangdurian sibolangdurianmedan durianmedannyanyi medannyanyilagu nyanyilagukocak lagukocakkamu kocakkamupingin kamupinginkaya pinginkayakerja kayakerjatidur kerjatidurjangan danielsibolangdurianmedan sibolangdurianmedannyanyi durianmedannyanyilagu medannyanyilagukocak nyanyilagukocakkamu lagukocakkamupingin kocakkamupinginkaya kamupinginkayakerja pinginkayakerjatidur kayakerjatidurjangan danielsibolangdurianmedannyanyi sibolangdurianmedannyanyilagu durianmedannyanyilagukocak medannyanyilagukocakkamu nyanyilagukocakkamupingin lagukocakkamupinginkaya kocakkamupinginkayakerja kamupinginkayakerjatidur pinginkayakerjatidurjangan danielsibolangdurianmedannyanyilagu sibolangdurianmedannyanyilagukocak durianmedannyanyilagukocakkamu medannyanyilagukocakkamupingin nyanyilagukocakkamupinginkaya lagukocakkamupinginkayakerja kocakkamupinginkayakerjatidur kamupinginkayakerjatidurjangan</t>
+  </si>
+  <si>
+    <t>perintah oss dulunya kalau urus izin bulan bahkan tahun sekarang izin keluar jam kata perintahoss ossdulunya dulunyakalau kalauurus urusizin izinbulan bulanbahkan bahkantahun tahunsekarang sekarangizin izinkeluar keluarjam jamkata perintahossdulunya ossdulunyakalau dulunyakalauurus kalauurusizin urusizinbulan izinbulanbahkan bulanbahkantahun bahkantahunsekarang tahunsekarangizin sekarangizinkeluar izinkeluarjam keluarjamkata perintahossdulunyakalau ossdulunyakalauurus dulunyakalauurusizin kalauurusizinbulan urusizinbulanbahkan izinbulanbahkantahun bulanbahkantahunsekarang bahkantahunsekarangizin tahunsekarangizinkeluar sekarangizinkeluarjam izinkeluarjamkata perintahossdulunyakalauurus ossdulunyakalauurusizin dulunyakalauurusizinbulan kalauurusizinbulanbahkan urusizinbulanbahkantahun izinbulanbahkantahunsekarang bulanbahkantahunsekarangizin bahkantahunsekarangizinkeluar tahunsekarangizinkeluarjam sekarangizinkeluarjamkata perintahossdulunyakalauurusizin ossdulunyakalauurusizinbulan dulunyakalauurusizinbulanbahkan kalauurusizinbulanbahkantahun urusizinbulanbahkantahunsekarang izinbulanbahkantahunsekarangizin bulanbahkantahunsekarangizinkeluar bahkantahunsekarangizinkeluarjam tahunsekarangizinkeluarjamkata</t>
+  </si>
+  <si>
+    <t>orang golkar dukung jadi jangan heran kalau bowo sedang main politik kaki jatuh oranggolkar golkardukung dukungjadi jadijangan janganheran herankalau kalaubowo bowosedang sedangmain mainpolitik politikkaki kakijatuh oranggolkardukung golkardukungjadi dukungjadijangan jadijanganheran janganherankalau herankalaubowo kalaubowosedang bowosedangmain sedangmainpolitik mainpolitikkaki politikkakijatuh oranggolkardukungjadi golkardukungjadijangan dukungjadijanganheran jadijanganherankalau janganherankalaubowo herankalaubowosedang kalaubowosedangmain bowosedangmainpolitik sedangmainpolitikkaki mainpolitikkakijatuh oranggolkardukungjadijangan golkardukungjadijanganheran dukungjadijanganherankalau jadijanganherankalaubowo janganherankalaubowosedang herankalaubowosedangmain kalaubowosedangmainpolitik bowosedangmainpolitikkaki sedangmainpolitikkakijatuh oranggolkardukungjadijanganheran golkardukungjadijanganherankalau dukungjadijanganherankalaubowo jadijanganherankalaubowosedang janganherankalaubowosedangmain herankalaubowosedangmainpolitik kalaubowosedangmainpolitikkaki bowosedangmainpolitikkakijatuh</t>
+  </si>
+  <si>
+    <t>admin mau bahas kata militer lemah https t co raliyooy 3e adminmau maubahas bahaskata katamiliter militerlemah lemahhttps httpst tco coraliyooy raliyooy3e adminmaubahas maubahaskata bahaskatamiliter katamiliterlemah militerlemahhttps lemahhttpst httpstco tcoraliyooy coraliyooy3e adminmaubahaskata maubahaskatamiliter bahaskatamiliterlemah katamiliterlemahhttps militerlemahhttpst lemahhttpstco httpstcoraliyooy tcoraliyooy3e adminmaubahaskatamiliter maubahaskatamiliterlemah bahaskatamiliterlemahhttps katamiliterlemahhttpst militerlemahhttpstco lemahhttpstcoraliyooy httpstcoraliyooy3e adminmaubahaskatamiliterlemah maubahaskatamiliterlemahhttps bahaskatamiliterlemahhttpst katamiliterlemahhttpstco militerlemahhttpstcoraliyooy lemahhttpstcoraliyooy3e</t>
+  </si>
+  <si>
+    <t>tidak apa apa to h pecat pada presiden bohong nggedabrus plonga plongo tidakapa apaapa apato toh hpecat pecatpada padapresiden presidenbohong bohongnggedabrus nggedabrusplonga plongaplongo tidakapaapa apaapato apatoh tohpecat hpecatpada pecatpadapresiden padapresidenbohong presidenbohongnggedabrus bohongnggedabrusplonga nggedabrusplongaplongo tidakapaapato apaapatoh apatohpecat tohpecatpada hpecatpadapresiden pecatpadapresidenbohong padapresidenbohongnggedabrus presidenbohongnggedabrusplonga bohongnggedabrusplongaplongo tidakapaapatoh apaapatohpecat apatohpecatpada tohpecatpadapresiden hpecatpadapresidenbohong pecatpadapresidenbohongnggedabrus padapresidenbohongnggedabrusplonga presidenbohongnggedabrusplongaplongo tidakapaapatohpecat apaapatohpecatpada apatohpecatpadapresiden tohpecatpadapresidenbohong hpecatpadapresidenbohongnggedabrus pecatpadapresidenbohongnggedabrusplonga padapresidenbohongnggedabrusplongaplongo</t>
+  </si>
+  <si>
+    <t>bang kalau jadi presiden siapa ibu negara apa benar kita jadi negara piatu bangkalau kalaujadi jadipresiden presidensiapa siapaibu ibunegara negaraapa apabenar benarkita kitajadi jadinegara negarapiatu bangkalaujadi kalaujadipresiden jadipresidensiapa presidensiapaibu siapaibunegara ibunegaraapa negaraapabenar apabenarkita benarkitajadi kitajadinegara jadinegarapiatu bangkalaujadipresiden kalaujadipresidensiapa jadipresidensiapaibu presidensiapaibunegara siapaibunegaraapa ibunegaraapabenar negaraapabenarkita apabenarkitajadi benarkitajadinegara kitajadinegarapiatu bangkalaujadipresidensiapa kalaujadipresidensiapaibu jadipresidensiapaibunegara presidensiapaibunegaraapa siapaibunegaraapabenar ibunegaraapabenarkita negaraapabenarkitajadi apabenarkitajadinegara benarkitajadinegarapiatu bangkalaujadipresidensiapaibu kalaujadipresidensiapaibunegara jadipresidensiapaibunegaraapa presidensiapaibunegaraapabenar siapaibunegaraapabenarkita ibunegaraapabenarkitajadi negaraapabenarkitajadinegara apabenarkitajadinegarapiatu</t>
+  </si>
+  <si>
+    <t>dukung terus pak pemerintahandilan https t co rzz 6pqhmus dukungterus teruspak pakpemerintahandilan pemerintahandilanhttps httpst tco corzz rzz6pqhmus dukungteruspak teruspakpemerintahandilan pakpemerintahandilanhttps pemerintahandilanhttpst httpstco tcorzz corzz6pqhmus dukungteruspakpemerintahandilan teruspakpemerintahandilanhttps pakpemerintahandilanhttpst pemerintahandilanhttpstco httpstcorzz tcorzz6pqhmus dukungteruspakpemerintahandilanhttps teruspakpemerintahandilanhttpst pakpemerintahandilanhttpstco pemerintahandilanhttpstcorzz httpstcorzz6pqhmus dukungteruspakpemerintahandilanhttpst teruspakpemerintahandilanhttpstco pakpemerintahandilanhttpstcorzz pemerintahandilanhttpstcorzz6pqhmus</t>
+  </si>
+  <si>
+    <t>pemerintahandilan ma ruf amin ungkap hasil presiden pak hanya lihat proyek pemerintahandilanma maruf rufamin aminungkap ungkaphasil hasilpresiden presidenpak pakhanya hanyalihat lihatproyek pemerintahandilanmaruf marufamin rufaminungkap aminungkaphasil ungkaphasilpresiden hasilpresidenpak presidenpakhanya pakhanyalihat hanyalihatproyek pemerintahandilanmarufamin marufaminungkap rufaminungkaphasil aminungkaphasilpresiden ungkaphasilpresidenpak hasilpresidenpakhanya presidenpakhanyalihat pakhanyalihatproyek pemerintahandilanmarufaminungkap marufaminungkaphasil rufaminungkaphasilpresiden aminungkaphasilpresidenpak ungkaphasilpresidenpakhanya hasilpresidenpakhanyalihat presidenpakhanyalihatproyek pemerintahandilanmarufaminungkaphasil marufaminungkaphasilpresiden rufaminungkaphasilpresidenpak aminungkaphasilpresidenpakhanya ungkaphasilpresidenpakhanyalihat hasilpresidenpakhanyalihatproyek</t>
+  </si>
+  <si>
+    <t>lihat pak percaya tni pemerintahandilan memang nampol lihatpak pakpercaya percayatni tnipemerintahandilan pemerintahandilanmemang memangnampol lihatpakpercaya pakpercayatni percayatnipemerintahandilan tnipemerintahandilanmemang pemerintahandilanmemangnampol lihatpakpercayatni pakpercayatnipemerintahandilan percayatnipemerintahandilanmemang tnipemerintahandilanmemangnampol lihatpakpercayatnipemerintahandilan pakpercayatnipemerintahandilanmemang percayatnipemerintahandilanmemangnampol lihatpakpercayatnipemerintahandilanmemang pakpercayatnipemerintahandilanmemangnampol</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut sangat siap tema debat ideologi perintah tahan aman calonpresiden presidennomor nomorurut urutsangat sangatsiap siaptema temadebat debatideologi ideologiperintah perintahtahan tahanaman calonpresidennomor presidennomorurut nomorurutsangat urutsangatsiap sangatsiaptema siaptemadebat temadebatideologi debatideologiperintah ideologiperintahtahan perintahtahanaman calonpresidennomorurut presidennomorurutsangat nomorurutsangatsiap urutsangatsiaptema sangatsiaptemadebat siaptemadebatideologi temadebatideologiperintah debatideologiperintahtahan ideologiperintahtahanaman calonpresidennomorurutsangat presidennomorurutsangatsiap nomorurutsangatsiaptema urutsangatsiaptemadebat sangatsiaptemadebatideologi siaptemadebatideologiperintah temadebatideologiperintahtahan debatideologiperintahtahanaman calonpresidennomorurutsangatsiap presidennomorurutsangatsiaptema nomorurutsangatsiaptemadebat urutsangatsiaptemadebatideologi sangatsiaptemadebatideologiperintah siaptemadebatideologiperintahtahan temadebatideologiperintahtahanaman</t>
+  </si>
+  <si>
+    <t>pemerintahandilan siap data akan bagai amunisi debat malam semangat pagi pemerintahandilansiap siapdata dataakan akanbagai bagaiamunisi amunisidebat debatmalam malamsemangat semangatpagi pemerintahandilansiapdata siapdataakan dataakanbagai akanbagaiamunisi bagaiamunisidebat amunisidebatmalam debatmalamsemangat malamsemangatpagi pemerintahandilansiapdataakan siapdataakanbagai dataakanbagaiamunisi akanbagaiamunisidebat bagaiamunisidebatmalam amunisidebatmalamsemangat debatmalamsemangatpagi pemerintahandilansiapdataakanbagai siapdataakanbagaiamunisi dataakanbagaiamunisidebat akanbagaiamunisidebatmalam bagaiamunisidebatmalamsemangat amunisidebatmalamsemangatpagi pemerintahandilansiapdataakanbagaiamunisi siapdataakanbagaiamunisidebat dataakanbagaiamunisidebatmalam akanbagaiamunisidebatmalamsemangat bagaiamunisidebatmalamsemangatpagi</t>
+  </si>
+  <si>
+    <t>bidang perintah pak kuat lembaga lembaga kuat prabowobentengnkri negara kuat bidangperintah perintahpak pakkuat kuatlembaga lembagalembaga lembagakuat kuatprabowobentengnkri prabowobentengnkrinegara negarakuat bidangperintahpak perintahpakkuat pakkuatlembaga kuatlembagalembaga lembagalembagakuat lembagakuatprabowobentengnkri kuatprabowobentengnkrinegara prabowobentengnkrinegarakuat bidangperintahpakkuat perintahpakkuatlembaga pakkuatlembagalembaga kuatlembagalembagakuat lembagalembagakuatprabowobentengnkri lembagakuatprabowobentengnkrinegara kuatprabowobentengnkrinegarakuat bidangperintahpakkuatlembaga perintahpakkuatlembagalembaga pakkuatlembagalembagakuat kuatlembagalembagakuatprabowobentengnkri lembagalembagakuatprabowobentengnkrinegara lembagakuatprabowobentengnkrinegarakuat bidangperintahpakkuatlembagalembaga perintahpakkuatlembagalembagakuat pakkuatlembagalembagakuatprabowobentengnkri kuatlembagalembagakuatprabowobentengnkrinegara lembagalembagakuatprabowobentengnkrinegarakuat</t>
+  </si>
+  <si>
+    <t>bangun indonesia desa bangun adab lebih baik tuju lanjut 01dilanjutkan bangunindonesia indonesiadesa desabangun bangunadab adablebih lebihbaik baiktuju tujulanjut lanjut01dilanjutkan bangunindonesiadesa indonesiadesabangun desabangunadab bangunadablebih adablebihbaik lebihbaiktuju baiktujulanjut tujulanjut01dilanjutkan bangunindonesiadesabangun indonesiadesabangunadab desabangunadablebih bangunadablebihbaik adablebihbaiktuju lebihbaiktujulanjut baiktujulanjut01dilanjutkan bangunindonesiadesabangunadab indonesiadesabangunadablebih desabangunadablebihbaik bangunadablebihbaiktuju adablebihbaiktujulanjut lebihbaiktujulanjut01dilanjutkan bangunindonesiadesabangunadablebih indonesiadesabangunadablebihbaik desabangunadablebihbaiktuju bangunadablebihbaiktujulanjut adablebihbaiktujulanjut01dilanjutkan</t>
+  </si>
+  <si>
+    <t>diplomasi kalau senyam senyum diplomasi butuh kuat - penting jaga daulat nkri diplomasikalau kalausenyam senyamsenyum senyumdiplomasi diplomasibutuh butuhkuat kuat- -penting pentingjaga jagadaulat daulatnkri diplomasikalausenyam kalausenyamsenyum senyamsenyumdiplomasi senyumdiplomasibutuh diplomasibutuhkuat butuhkuat- kuat-penting -pentingjaga pentingjagadaulat jagadaulatnkri diplomasikalausenyamsenyum kalausenyamsenyumdiplomasi senyamsenyumdiplomasibutuh senyumdiplomasibutuhkuat diplomasibutuhkuat- butuhkuat-penting kuat-pentingjaga -pentingjagadaulat pentingjagadaulatnkri diplomasikalausenyamsenyumdiplomasi kalausenyamsenyumdiplomasibutuh senyamsenyumdiplomasibutuhkuat senyumdiplomasibutuhkuat- diplomasibutuhkuat-penting butuhkuat-pentingjaga kuat-pentingjagadaulat -pentingjagadaulatnkri diplomasikalausenyamsenyumdiplomasibutuh kalausenyamsenyumdiplomasibutuhkuat senyamsenyumdiplomasibutuhkuat- senyumdiplomasibutuhkuat-penting diplomasibutuhkuat-pentingjaga butuhkuat-pentingjagadaulat kuat-pentingjagadaulatnkri</t>
+  </si>
+  <si>
+    <t>yunarto debat kali adalah tampil buruk calon presiden bahkan sejak lalu yunartodebat debatkali kaliadalah adalahtampil tampilburuk burukcalon calonpresiden presidenbahkan bahkansejak sejaklalu yunartodebatkali debatkaliadalah kaliadalahtampil adalahtampilburuk tampilburukcalon burukcalonpresiden calonpresidenbahkan presidenbahkansejak bahkansejaklalu yunartodebatkaliadalah debatkaliadalahtampil kaliadalahtampilburuk adalahtampilburukcalon tampilburukcalonpresiden burukcalonpresidenbahkan calonpresidenbahkansejak presidenbahkansejaklalu yunartodebatkaliadalahtampil debatkaliadalahtampilburuk kaliadalahtampilburukcalon adalahtampilburukcalonpresiden tampilburukcalonpresidenbahkan burukcalonpresidenbahkansejak calonpresidenbahkansejaklalu yunartodebatkaliadalahtampilburuk debatkaliadalahtampilburukcalon kaliadalahtampilburukcalonpresiden adalahtampilburukcalonpresidenbahkan tampilburukcalonpresidenbahkansejak burukcalonpresidenbahkansejaklalu</t>
+  </si>
+  <si>
+    <t>kalau opung tak percaya diri citra nempel pak kalauopung opungtak takpercaya percayadiri diricitra citranempel nempelpak kalauopungtak opungtakpercaya takpercayadiri percayadiricitra diricitranempel citranempelpak kalauopungtakpercaya opungtakpercayadiri takpercayadiricitra percayadiricitranempel diricitranempelpak kalauopungtakpercayadiri opungtakpercayadiricitra takpercayadiricitranempel percayadiricitranempelpak kalauopungtakpercayadiricitra opungtakpercayadiricitranempel takpercayadiricitranempelpak</t>
+  </si>
+  <si>
+    <t>sabar bangsa rasa ubah ken buru buru ganti presiden era tidak ada ubah hebat sabarbangsa bangsarasa rasaubah ubahken kenburu buruburu buruganti gantipresiden presidenera eratidak tidakada adaubah ubahhebat sabarbangsarasa bangsarasaubah rasaubahken ubahkenburu kenburuburu buruburuganti burugantipresiden gantipresidenera presideneratidak eratidakada tidakadaubah adaubahhebat sabarbangsarasaubah bangsarasaubahken rasaubahkenburu ubahkenburuburu kenburuburuganti buruburugantipresiden burugantipresidenera gantipresideneratidak presideneratidakada eratidakadaubah tidakadaubahhebat sabarbangsarasaubahken bangsarasaubahkenburu rasaubahkenburuburu ubahkenburuburuganti kenburuburugantipresiden buruburugantipresidenera burugantipresideneratidak gantipresideneratidakada presideneratidakadaubah eratidakadaubahhebat sabarbangsarasaubahkenburu bangsarasaubahkenburuburu rasaubahkenburuburuganti ubahkenburuburugantipresiden kenburuburugantipresidenera buruburugantipresideneratidak burugantipresideneratidakada gantipresideneratidakadaubah presideneratidakadaubahhebat</t>
+  </si>
+  <si>
+    <t>ayo seluruh masyarakat indonesia dukung penuh calon presiden 01 debat - pilpres ayoseluruh seluruhmasyarakat masyarakatindonesia indonesiadukung dukungpenuh penuhcalon calonpresiden presiden01 01debat debat- -pilpres ayoseluruhmasyarakat seluruhmasyarakatindonesia masyarakatindonesiadukung indonesiadukungpenuh dukungpenuhcalon penuhcalonpresiden calonpresiden01 presiden01debat 01debat- debat-pilpres ayoseluruhmasyarakatindonesia seluruhmasyarakatindonesiadukung masyarakatindonesiadukungpenuh indonesiadukungpenuhcalon dukungpenuhcalonpresiden penuhcalonpresiden01 calonpresiden01debat presiden01debat- 01debat-pilpres ayoseluruhmasyarakatindonesiadukung seluruhmasyarakatindonesiadukungpenuh masyarakatindonesiadukungpenuhcalon indonesiadukungpenuhcalonpresiden dukungpenuhcalonpresiden01 penuhcalonpresiden01debat calonpresiden01debat- presiden01debat-pilpres ayoseluruhmasyarakatindonesiadukungpenuh seluruhmasyarakatindonesiadukungpenuhcalon masyarakatindonesiadukungpenuhcalonpresiden indonesiadukungpenuhcalonpresiden01 dukungpenuhcalonpresiden01debat penuhcalonpresiden01debat- calonpresiden01debat-pilpres</t>
+  </si>
+  <si>
+    <t>debat malam liat banget siapa dewasa tanggap ya pak buat bangga 01dilanjutkan debatmalam malamliat liatbanget bangetsiapa siapadewasa dewasatanggap tanggapya yapak pakbuat buatbangga bangga01dilanjutkan debatmalamliat malamliatbanget liatbangetsiapa bangetsiapadewasa siapadewasatanggap dewasatanggapya tanggapyapak yapakbuat pakbuatbangga buatbangga01dilanjutkan debatmalamliatbanget malamliatbangetsiapa liatbangetsiapadewasa bangetsiapadewasatanggap siapadewasatanggapya dewasatanggapyapak tanggapyapakbuat yapakbuatbangga pakbuatbangga01dilanjutkan debatmalamliatbangetsiapa malamliatbangetsiapadewasa liatbangetsiapadewasatanggap bangetsiapadewasatanggapya siapadewasatanggapyapak dewasatanggapyapakbuat tanggapyapakbuatbangga yapakbuatbangga01dilanjutkan debatmalamliatbangetsiapadewasa malamliatbangetsiapadewasatanggap liatbangetsiapadewasatanggapya bangetsiapadewasatanggapyapak siapadewasatanggapyapakbuat dewasatanggapyapakbuatbangga tanggapyapakbuatbangga01dilanjutkan</t>
+  </si>
+  <si>
+    <t>makanya jangan ragu prabowobentengnkri prabowobentengnkri makanyajangan janganragu raguprabowobentengnkri prabowobentengnkriprabowobentengnkri makanyajanganragu janganraguprabowobentengnkri raguprabowobentengnkriprabowobentengnkri makanyajanganraguprabowobentengnkri janganraguprabowobentengnkriprabowobentengnkri makanyajanganraguprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>depan mau ubah pancasila hadap prabowobentengnkri doauntukprabowosandi depanmau mauubah ubahpancasila pancasilahadap hadapprabowobentengnkri prabowobentengnkridoauntukprabowosandi depanmauubah mauubahpancasila ubahpancasilahadap pancasilahadapprabowobentengnkri hadapprabowobentengnkridoauntukprabowosandi depanmauubahpancasila mauubahpancasilahadap ubahpancasilahadapprabowobentengnkri pancasilahadapprabowobentengnkridoauntukprabowosandi depanmauubahpancasilahadap mauubahpancasilahadapprabowobentengnkri ubahpancasilahadapprabowobentengnkridoauntukprabowosandi depanmauubahpancasilahadapprabowobentengnkri mauubahpancasilahadapprabowobentengnkridoauntukprabowosandi</t>
+  </si>
+  <si>
+    <t>halah halaaah dulu kamu kalah pilpres jangan ngamuk ngamuk kaya orang mabuk jamur https t co 0dbjt9cspe halahhalaaah halaaahdulu dulukamu kamukalah kalahpilpres pilpresjangan janganngamuk ngamukngamuk ngamukkaya kayaorang orangmabuk mabukjamur jamurhttps httpst tco co0dbjt9cspe halahhalaaahdulu halaaahdulukamu dulukamukalah kamukalahpilpres kalahpilpresjangan pilpresjanganngamuk janganngamukngamuk ngamukngamukkaya ngamukkayaorang kayaorangmabuk orangmabukjamur mabukjamurhttps jamurhttpst httpstco tco0dbjt9cspe halahhalaaahdulukamu halaaahdulukamukalah dulukamukalahpilpres kamukalahpilpresjangan kalahpilpresjanganngamuk pilpresjanganngamukngamuk janganngamukngamukkaya ngamukngamukkayaorang ngamukkayaorangmabuk kayaorangmabukjamur orangmabukjamurhttps mabukjamurhttpst jamurhttpstco httpstco0dbjt9cspe halahhalaaahdulukamukalah halaaahdulukamukalahpilpres dulukamukalahpilpresjangan kamukalahpilpresjanganngamuk kalahpilpresjanganngamukngamuk pilpresjanganngamukngamukkaya janganngamukngamukkayaorang ngamukngamukkayaorangmabuk ngamukkayaorangmabukjamur kayaorangmabukjamurhttps orangmabukjamurhttpst mabukjamurhttpstco jamurhttpstco0dbjt9cspe halahhalaaahdulukamukalahpilpres halaaahdulukamukalahpilpresjangan dulukamukalahpilpresjanganngamuk kamukalahpilpresjanganngamukngamuk kalahpilpresjanganngamukngamukkaya pilpresjanganngamukngamukkayaorang janganngamukngamukkayaorangmabuk ngamukngamukkayaorangmabukjamur ngamukkayaorangmabukjamurhttps kayaorangmabukjamurhttpst orangmabukjamurhttpstco mabukjamurhttpstco0dbjt9cspe</t>
+  </si>
+  <si>
+    <t>gitu dong pak gahar dikit inti pak mau menang tidak jangan sia 2kan juang pak gitudong dongpak pakgahar gahardikit dikitinti intipak pakmau maumenang menangtidak tidakjangan jangansia sia2kan 2kanjuang juangpak gitudongpak dongpakgahar pakgahardikit gahardikitinti dikitintipak intipakmau pakmaumenang maumenangtidak menangtidakjangan tidakjangansia jangansia2kan sia2kanjuang 2kanjuangpak gitudongpakgahar dongpakgahardikit pakgahardikitinti gahardikitintipak dikitintipakmau intipakmaumenang pakmaumenangtidak maumenangtidakjangan menangtidakjangansia tidakjangansia2kan jangansia2kanjuang sia2kanjuangpak gitudongpakgahardikit dongpakgahardikitinti pakgahardikitintipak gahardikitintipakmau dikitintipakmaumenang intipakmaumenangtidak pakmaumenangtidakjangan maumenangtidakjangansia menangtidakjangansia2kan tidakjangansia2kanjuang jangansia2kanjuangpak gitudongpakgahardikitinti dongpakgahardikitintipak pakgahardikitintipakmau gahardikitintipakmaumenang dikitintipakmaumenangtidak intipakmaumenangtidakjangan pakmaumenangtidakjangansia maumenangtidakjangansia2kan menangtidakjangansia2kanjuang tidakjangansia2kanjuangpak</t>
+  </si>
+  <si>
+    <t>bukan ngetawain tahan negara cuma ngetawain bukanngetawain ngetawaintahan tahannegara negaracuma cumangetawain bukanngetawaintahan ngetawaintahannegara tahannegaracuma negaracumangetawain bukanngetawaintahannegara ngetawaintahannegaracuma tahannegaracumangetawain bukanngetawaintahannegaracuma ngetawaintahannegaracumangetawain bukanngetawaintahannegaracumangetawain</t>
+  </si>
+  <si>
+    <t>kampanye lama tahana lampu c o arti pilih sedang hukum kampanyelama lamatahana tahanalampu lampuc co oarti artipilih pilihsedang sedanghukum kampanyelamatahana lamatahanalampu tahanalampuc lampuco coarti oartipilih artipilihsedang pilihsedanghukum kampanyelamatahanalampu lamatahanalampuc tahanalampuco lampucoarti coartipilih oartipilihsedang artipilihsedanghukum kampanyelamatahanalampuc lamatahanalampuco tahanalampucoarti lampucoartipilih coartipilihsedang oartipilihsedanghukum kampanyelamatahanalampuco lamatahanalampucoarti tahanalampucoartipilih lampucoartipilihsedang coartipilihsedanghukum</t>
+  </si>
+  <si>
+    <t>ini keras banyu mas minahasa banyumas batak nya jawa tengah inikeras kerasbanyu banyumas masminahasa minahasabanyumas banyumasbatak bataknya nyajawa jawatengah inikerasbanyu kerasbanyumas banyumasminahasa masminahasabanyumas minahasabanyumasbatak banyumasbataknya bataknyajawa nyajawatengah inikerasbanyumas kerasbanyumasminahasa banyumasminahasabanyumas masminahasabanyumasbatak minahasabanyumasbataknya banyumasbataknyajawa bataknyajawatengah inikerasbanyumasminahasa kerasbanyumasminahasabanyumas banyumasminahasabanyumasbatak masminahasabanyumasbataknya minahasabanyumasbataknyajawa banyumasbataknyajawatengah inikerasbanyumasminahasabanyumas kerasbanyumasminahasabanyumasbatak banyumasminahasabanyumasbataknya masminahasabanyumasbataknyajawa minahasabanyumasbataknyajawatengah</t>
+  </si>
+  <si>
+    <t>pulang kaya tambang emas papua pangku ibu pertiwi taruh jabat bagai presiden indonesia pulangkaya kayatambang tambangemas emaspapua papuapangku pangkuibu ibupertiwi pertiwitaruh taruhjabat jabatbagai bagaipresiden presidenindonesia pulangkayatambang kayatambangemas tambangemaspapua emaspapuapangku papuapangkuibu pangkuibupertiwi ibupertiwitaruh pertiwitaruhjabat taruhjabatbagai jabatbagaipresiden bagaipresidenindonesia pulangkayatambangemas kayatambangemaspapua tambangemaspapuapangku emaspapuapangkuibu papuapangkuibupertiwi pangkuibupertiwitaruh ibupertiwitaruhjabat pertiwitaruhjabatbagai taruhjabatbagaipresiden jabatbagaipresidenindonesia pulangkayatambangemaspapua kayatambangemaspapuapangku tambangemaspapuapangkuibu emaspapuapangkuibupertiwi papuapangkuibupertiwitaruh pangkuibupertiwitaruhjabat ibupertiwitaruhjabatbagai pertiwitaruhjabatbagaipresiden taruhjabatbagaipresidenindonesia pulangkayatambangemaspapuapangku kayatambangemaspapuapangkuibu tambangemaspapuapangkuibupertiwi emaspapuapangkuibupertiwitaruh papuapangkuibupertiwitaruhjabat pangkuibupertiwitaruhjabatbagai ibupertiwitaruhjabatbagaipresiden pertiwitaruhjabatbagaipresidenindonesia</t>
+  </si>
+  <si>
+    <t>dengan pemerintahandilan buat calon presiden tahan terus sosialisasi manfaat revolusi industri denganpemerintahandilan pemerintahandilanbuat buatcalon calonpresiden presidentahan tahanterus terussosialisasi sosialisasimanfaat manfaatrevolusi revolusiindustri denganpemerintahandilanbuat pemerintahandilanbuatcalon buatcalonpresiden calonpresidentahan presidentahanterus tahanterussosialisasi terussosialisasimanfaat sosialisasimanfaatrevolusi manfaatrevolusiindustri denganpemerintahandilanbuatcalon pemerintahandilanbuatcalonpresiden buatcalonpresidentahan calonpresidentahanterus presidentahanterussosialisasi tahanterussosialisasimanfaat terussosialisasimanfaatrevolusi sosialisasimanfaatrevolusiindustri denganpemerintahandilanbuatcalonpresiden pemerintahandilanbuatcalonpresidentahan buatcalonpresidentahanterus calonpresidentahanterussosialisasi presidentahanterussosialisasimanfaat tahanterussosialisasimanfaatrevolusi terussosialisasimanfaatrevolusiindustri denganpemerintahandilanbuatcalonpresidentahan pemerintahandilanbuatcalonpresidentahanterus buatcalonpresidentahanterussosialisasi calonpresidentahanterussosialisasimanfaat presidentahanterussosialisasimanfaatrevolusi tahanterussosialisasimanfaatrevolusiindustri</t>
+  </si>
+  <si>
+    <t>bocor bocor tahun diksi bocor jangan ada gagas makanya pakai aquaproof pak bocorbocor bocortahun tahundiksi diksibocor bocorjangan janganada adagagas gagasmakanya makanyapakai pakaiaquaproof aquaproofpak bocorbocortahun bocortahundiksi tahundiksibocor diksibocorjangan bocorjanganada janganadagagas adagagasmakanya gagasmakanyapakai makanyapakaiaquaproof pakaiaquaproofpak bocorbocortahundiksi bocortahundiksibocor tahundiksibocorjangan diksibocorjanganada bocorjanganadagagas janganadagagasmakanya adagagasmakanyapakai gagasmakanyapakaiaquaproof makanyapakaiaquaproofpak bocorbocortahundiksibocor bocortahundiksibocorjangan tahundiksibocorjanganada diksibocorjanganadagagas bocorjanganadagagasmakanya janganadagagasmakanyapakai adagagasmakanyapakaiaquaproof gagasmakanyapakaiaquaproofpak bocorbocortahundiksibocorjangan bocortahundiksibocorjanganada tahundiksibocorjanganadagagas diksibocorjanganadagagasmakanya bocorjanganadagagasmakanyapakai janganadagagasmakanyapakaiaquaproof adagagasmakanyapakaiaquaproofpak</t>
+  </si>
+  <si>
+    <t>debat curhat tonton gebu tetap ulang tema lama solusi debatcurhat curhattonton tontongebu gebutetap tetapulang ulangtema temalama lamasolusi debatcurhattonton curhattontongebu tontongebutetap gebutetapulang tetapulangtema ulangtemalama temalamasolusi debatcurhattontongebu curhattontongebutetap tontongebutetapulang gebutetapulangtema tetapulangtemalama ulangtemalamasolusi debatcurhattontongebutetap curhattontongebutetapulang tontongebutetapulangtema gebutetapulangtemalama tetapulangtemalamasolusi debatcurhattontongebutetapulang curhattontongebutetapulangtema tontongebutetapulangtemalama gebutetapulangtemalamasolusi</t>
+  </si>
+  <si>
+    <t>era milenial era pakde presiden paling keren ketimbang sudah pemerintahandilan eramilenial milenialera erapakde pakdepresiden presidenpaling palingkeren kerenketimbang ketimbangsudah sudahpemerintahandilan eramilenialera milenialerapakde erapakdepresiden pakdepresidenpaling presidenpalingkeren palingkerenketimbang kerenketimbangsudah ketimbangsudahpemerintahandilan eramilenialerapakde milenialerapakdepresiden erapakdepresidenpaling pakdepresidenpalingkeren presidenpalingkerenketimbang palingkerenketimbangsudah kerenketimbangsudahpemerintahandilan eramilenialerapakdepresiden milenialerapakdepresidenpaling erapakdepresidenpalingkeren pakdepresidenpalingkerenketimbang presidenpalingkerenketimbangsudah palingkerenketimbangsudahpemerintahandilan eramilenialerapakdepresidenpaling milenialerapakdepresidenpalingkeren erapakdepresidenpalingkerenketimbang pakdepresidenpalingkerenketimbangsudah presidenpalingkerenketimbangsudahpemerintahandilan</t>
+  </si>
+  <si>
+    <t>pemerintahandilan nyata perintah pak hanya benah atas masalah jaring broadband daerah 3t pemerintahandilannyata nyataperintah perintahpak pakhanya hanyabenah benahatas atasmasalah masalahjaring jaringbroadband broadbanddaerah daerah3t pemerintahandilannyataperintah nyataperintahpak perintahpakhanya pakhanyabenah hanyabenahatas benahatasmasalah atasmasalahjaring masalahjaringbroadband jaringbroadbanddaerah broadbanddaerah3t pemerintahandilannyataperintahpak nyataperintahpakhanya perintahpakhanyabenah pakhanyabenahatas hanyabenahatasmasalah benahatasmasalahjaring atasmasalahjaringbroadband masalahjaringbroadbanddaerah jaringbroadbanddaerah3t pemerintahandilannyataperintahpakhanya nyataperintahpakhanyabenah perintahpakhanyabenahatas pakhanyabenahatasmasalah hanyabenahatasmasalahjaring benahatasmasalahjaringbroadband atasmasalahjaringbroadbanddaerah masalahjaringbroadbanddaerah3t pemerintahandilannyataperintahpakhanyabenah nyataperintahpakhanyabenahatas perintahpakhanyabenahatasmasalah pakhanyabenahatasmasalahjaring hanyabenahatasmasalahjaringbroadband benahatasmasalahjaringbroadbanddaerah atasmasalahjaringbroadbanddaerah3t</t>
+  </si>
+  <si>
+    <t>pak percaya yang pecatanlebihtnidaritni pecatanlebihtnidaritni https t co jrlvbdoafw pakpercaya percayayang yangpecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnihttps httpst tco cojrlvbdoafw pakpercayayang percayayangpecatanlebihtnidaritni yangpecatanlebihtnidaritnipecatanlebihtnidaritni pecatanlebihtnidaritnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnihttpst httpstco tcojrlvbdoafw pakpercayayangpecatanlebihtnidaritni percayayangpecatanlebihtnidaritnipecatanlebihtnidaritni yangpecatanlebihtnidaritnipecatanlebihtnidaritnihttps pecatanlebihtnidaritnipecatanlebihtnidaritnihttpst pecatanlebihtnidaritnihttpstco httpstcojrlvbdoafw pakpercayayangpecatanlebihtnidaritnipecatanlebihtnidaritni percayayangpecatanlebihtnidaritnipecatanlebihtnidaritnihttps yangpecatanlebihtnidaritnipecatanlebihtnidaritnihttpst pecatanlebihtnidaritnipecatanlebihtnidaritnihttpstco pecatanlebihtnidaritnihttpstcojrlvbdoafw pakpercayayangpecatanlebihtnidaritnipecatanlebihtnidaritnihttps percayayangpecatanlebihtnidaritnipecatanlebihtnidaritnihttpst yangpecatanlebihtnidaritnipecatanlebihtnidaritnihttpstco pecatanlebihtnidaritnipecatanlebihtnidaritnihttpstcojrlvbdoafw</t>
+  </si>
+  <si>
+    <t>kaget beneran menangkanprabowosandi april datang tps pilih kagetbeneran beneranmenangkanprabowosandi menangkanprabowosandiapril aprildatang datangtps tpspilih kagetbeneranmenangkanprabowosandi beneranmenangkanprabowosandiapril menangkanprabowosandiaprildatang aprildatangtps datangtpspilih kagetbeneranmenangkanprabowosandiapril beneranmenangkanprabowosandiaprildatang menangkanprabowosandiaprildatangtps aprildatangtpspilih kagetbeneranmenangkanprabowosandiaprildatang beneranmenangkanprabowosandiaprildatangtps menangkanprabowosandiaprildatangtpspilih kagetbeneranmenangkanprabowosandiaprildatangtps beneranmenangkanprabowosandiaprildatangtpspilih</t>
+  </si>
+  <si>
+    <t>calon presiden kata lembaga bubar anggap buat layan publik belit calonpresiden presidenkata katalembaga lembagabubar bubaranggap anggapbuat buatlayan layanpublik publikbelit calonpresidenkata presidenkatalembaga katalembagabubar lembagabubaranggap bubaranggapbuat anggapbuatlayan buatlayanpublik layanpublikbelit calonpresidenkatalembaga presidenkatalembagabubar katalembagabubaranggap lembagabubaranggapbuat bubaranggapbuatlayan anggapbuatlayanpublik buatlayanpublikbelit calonpresidenkatalembagabubar presidenkatalembagabubaranggap katalembagabubaranggapbuat lembagabubaranggapbuatlayan bubaranggapbuatlayanpublik anggapbuatlayanpublikbelit calonpresidenkatalembagabubaranggap presidenkatalembagabubaranggapbuat katalembagabubaranggapbuatlayan lembagabubaranggapbuatlayanpublik bubaranggapbuatlayanpublikbelit</t>
+  </si>
+  <si>
+    <t>bidang tahan aman terlalu lemah anggar terlalu kecil perlu baik - bidangtahan tahanaman amanterlalu terlalulemah lemahanggar anggarterlalu terlalukecil kecilperlu perlubaik baik- bidangtahanaman tahanamanterlalu amanterlalulemah terlalulemahanggar lemahanggarterlalu anggarterlalukecil terlalukecilperlu kecilperlubaik perlubaik- bidangtahanamanterlalu tahanamanterlalulemah amanterlalulemahanggar terlalulemahanggarterlalu lemahanggarterlalukecil anggarterlalukecilperlu terlalukecilperlubaik kecilperlubaik- bidangtahanamanterlalulemah tahanamanterlalulemahanggar amanterlalulemahanggarterlalu terlalulemahanggarterlalukecil lemahanggarterlalukecilperlu anggarterlalukecilperlubaik terlalukecilperlubaik- bidangtahanamanterlalulemahanggar tahanamanterlalulemahanggarterlalu amanterlalulemahanggarterlalukecil terlalulemahanggarterlalukecilperlu lemahanggarterlalukecilperlubaik anggarterlalukecilperlubaik-</t>
+  </si>
+  <si>
+    <t>tetap sahabat pak sinyal siap siap bawa pulang kecebong solo tetapsahabat sahabatpak paksinyal sinyalsiap siapsiap siapbawa bawapulang pulangkecebong kecebongsolo tetapsahabatpak sahabatpaksinyal paksinyalsiap sinyalsiapsiap siapsiapbawa siapbawapulang bawapulangkecebong pulangkecebongsolo tetapsahabatpaksinyal sahabatpaksinyalsiap paksinyalsiapsiap sinyalsiapsiapbawa siapsiapbawapulang siapbawapulangkecebong bawapulangkecebongsolo tetapsahabatpaksinyalsiap sahabatpaksinyalsiapsiap paksinyalsiapsiapbawa sinyalsiapsiapbawapulang siapsiapbawapulangkecebong siapbawapulangkecebongsolo tetapsahabatpaksinyalsiapsiap sahabatpaksinyalsiapsiapbawa paksinyalsiapsiapbawapulang sinyalsiapsiapbawapulangkecebong siapsiapbawapulangkecebongsolo</t>
+  </si>
+  <si>
+    <t>pak ngebahas perihal pemerintahandilan tuju wowo sayang wowo jawab nya asal bunyi pakngebahas ngebahasperihal perihalpemerintahandilan pemerintahandilantuju tujuwowo wowosayang sayangwowo wowojawab jawabnya nyaasal asalbunyi pakngebahasperihal ngebahasperihalpemerintahandilan perihalpemerintahandilantuju pemerintahandilantujuwowo tujuwowosayang wowosayangwowo sayangwowojawab wowojawabnya jawabnyaasal nyaasalbunyi pakngebahasperihalpemerintahandilan ngebahasperihalpemerintahandilantuju perihalpemerintahandilantujuwowo pemerintahandilantujuwowosayang tujuwowosayangwowo wowosayangwowojawab sayangwowojawabnya wowojawabnyaasal jawabnyaasalbunyi pakngebahasperihalpemerintahandilantuju ngebahasperihalpemerintahandilantujuwowo perihalpemerintahandilantujuwowosayang pemerintahandilantujuwowosayangwowo tujuwowosayangwowojawab wowosayangwowojawabnya sayangwowojawabnyaasal wowojawabnyaasalbunyi pakngebahasperihalpemerintahandilantujuwowo ngebahasperihalpemerintahandilantujuwowosayang perihalpemerintahandilantujuwowosayangwowo pemerintahandilantujuwowosayangwowojawab tujuwowosayangwowojawabnya wowosayangwowojawabnyaasal sayangwowojawabnyaasalbunyi</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tidak tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang gubernurpahe pahem mtidak tidaktanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang gubernurpahem pahemtidak mtidaktanya tidaktanyakamu tanyakamululus kamululusmana lulusmanatidak manatidaktanya tidaktanyaprestasi tanyaprestasiapa prestasiapasaya apasayatanya sayatanyakamu tanyakamupunya kamupunyauang gubernurpahemtidak pahemtidaktanya mtidaktanyakamu tidaktanyakamululus tanyakamululusmana kamululusmanatidak lulusmanatidaktanya manatidaktanyaprestasi tidaktanyaprestasiapa tanyaprestasiapasaya prestasiapasayatanya apasayatanyakamu sayatanyakamupunya tanyakamupunyauang gubernurpahemtidaktanya pahemtidaktanyakamu mtidaktanyakamululus tidaktanyakamululusmana tanyakamululusmanatidak kamululusmanatidaktanya lulusmanatidaktanyaprestasi manatidaktanyaprestasiapa tidaktanyaprestasiapasaya tanyaprestasiapasayatanya prestasiapasayatanyakamu apasayatanyakamupunya sayatanyakamupunyauang gubernurpahemtidaktanyakamu pahemtidaktanyakamululus mtidaktanyakamululusmana tidaktanyakamululusmanatidak tanyakamululusmanatidaktanya kamululusmanatidaktanyaprestasi lulusmanatidaktanyaprestasiapa manatidaktanyaprestasiapasaya tidaktanyaprestasiapasayatanya tanyaprestasiapasayatanyakamu prestasiapasayatanyakamupunya apasayatanyakamupunyauang</t>
+  </si>
+  <si>
+    <t>tahan indonesia terlalu lemah jauh yang harap karena tidak punya uang - tahanindonesia indonesiaterlalu terlalulemah lemahjauh jauhyang yangharap harapkarena karenatidak tidakpunya punyauang uang- tahanindonesiaterlalu indonesiaterlalulemah terlalulemahjauh lemahjauhyang jauhyangharap yangharapkarena harapkarenatidak karenatidakpunya tidakpunyauang punyauang- tahanindonesiaterlalulemah indonesiaterlalulemahjauh terlalulemahjauhyang lemahjauhyangharap jauhyangharapkarena yangharapkarenatidak harapkarenatidakpunya karenatidakpunyauang tidakpunyauang- tahanindonesiaterlalulemahjauh indonesiaterlalulemahjauhyang terlalulemahjauhyangharap lemahjauhyangharapkarena jauhyangharapkarenatidak yangharapkarenatidakpunya harapkarenatidakpunyauang karenatidakpunyauang- tahanindonesiaterlalulemahjauhyang indonesiaterlalulemahjauhyangharap terlalulemahjauhyangharapkarena lemahjauhyangharapkarenatidak jauhyangharapkarenatidakpunya yangharapkarenatidakpunyauang harapkarenatidakpunyauang-</t>
+  </si>
+  <si>
+    <t>tegas pak barusan keluar parah orang tertawa rapuh tahan negara tegaspak pakbarusan barusankeluar keluarparah parahorang orangtertawa tertawarapuh rapuhtahan tahannegara tegaspakbarusan pakbarusankeluar barusankeluarparah keluarparahorang parahorangtertawa orangtertawarapuh tertawarapuhtahan rapuhtahannegara tegaspakbarusankeluar pakbarusankeluarparah barusankeluarparahorang keluarparahorangtertawa parahorangtertawarapuh orangtertawarapuhtahan tertawarapuhtahannegara tegaspakbarusankeluarparah pakbarusankeluarparahorang barusankeluarparahorangtertawa keluarparahorangtertawarapuh parahorangtertawarapuhtahan orangtertawarapuhtahannegara tegaspakbarusankeluarparahorang pakbarusankeluarparahorangtertawa barusankeluarparahorangtertawarapuh keluarparahorangtertawarapuhtahan parahorangtertawarapuhtahannegara</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukalikata kalikatamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter bagaimanatontontertawakalau tontontertawakalaukali tertawakalaukalikata kalaukalikatamiliter kalikatamiliterindonesia katamiliterindonesiasangat militerindonesiasangatlemah indonesiasangatlemahpadahal sangatlemahpadahalkuat lemahpadahalkuatmiliter bagaimanatontontertawakalaukali tontontertawakalaukalikata tertawakalaukalikatamiliter kalaukalikatamiliterindonesia kalikatamiliterindonesiasangat katamiliterindonesiasangatlemah militerindonesiasangatlemahpadahal indonesiasangatlemahpadahalkuat sangatlemahpadahalkuatmiliter bagaimanatontontertawakalaukalikata tontontertawakalaukalikatamiliter tertawakalaukalikatamiliterindonesia kalaukalikatamiliterindonesiasangat kalikatamiliterindonesiasangatlemah katamiliterindonesiasangatlemahpadahal militerindonesiasangatlemahpadahalkuat indonesiasangatlemahpadahalkuatmiliter</t>
+  </si>
+  <si>
+    <t>marah tahan bangsa tertawa audiens marah diri hina netizen marahtahan tahanbangsa bangsatertawa tertawaaudiens audiensmarah marahdiri dirihina hinanetizen marahtahanbangsa tahanbangsatertawa bangsatertawaaudiens tertawaaudiensmarah audiensmarahdiri marahdirihina dirihinanetizen marahtahanbangsatertawa tahanbangsatertawaaudiens bangsatertawaaudiensmarah tertawaaudiensmarahdiri audiensmarahdirihina marahdirihinanetizen marahtahanbangsatertawaaudiens tahanbangsatertawaaudiensmarah bangsatertawaaudiensmarahdiri tertawaaudiensmarahdirihina audiensmarahdirihinanetizen marahtahanbangsatertawaaudiensmarah tahanbangsatertawaaudiensmarahdiri bangsatertawaaudiensmarahdirihina tertawaaudiensmarahdirihinanetizen</t>
+  </si>
+  <si>
+    <t>yim habib rizieq bilang sama ya sengaja harus pasang ulama islam jelas yimhabib habibrizieq rizieqbilang bilangsama samaya yasengaja sengajaharus haruspasang pasangulama ulamaislam islamjelas yimhabibrizieq habibrizieqbilang rizieqbilangsama bilangsamaya samayasengaja yasengajaharus sengajaharuspasang haruspasangulama pasangulamaislam ulamaislamjelas yimhabibrizieqbilang habibrizieqbilangsama rizieqbilangsamaya bilangsamayasengaja samayasengajaharus yasengajaharuspasang sengajaharuspasangulama haruspasangulamaislam pasangulamaislamjelas yimhabibrizieqbilangsama habibrizieqbilangsamaya rizieqbilangsamayasengaja bilangsamayasengajaharus samayasengajaharuspasang yasengajaharuspasangulama sengajaharuspasangulamaislam haruspasangulamaislamjelas yimhabibrizieqbilangsamaya habibrizieqbilangsamayasengaja rizieqbilangsamayasengajaharus bilangsamayasengajaharuspasang samayasengajaharuspasangulama yasengajaharuspasangulamaislam sengajaharuspasangulamaislamjelas</t>
+  </si>
+  <si>
+    <t>maju era android ke era pecatanlebihtnidaritni majuera eraandroid androidke keera erapecatanlebihtnidaritni majueraandroid eraandroidke androidkeera keerapecatanlebihtnidaritni majueraandroidke eraandroidkeera androidkeerapecatanlebihtnidaritni majueraandroidkeera eraandroidkeerapecatanlebihtnidaritni majueraandroidkeerapecatanlebihtnidaritni</t>
+  </si>
+  <si>
+    <t>natural badan menang nasional mirip orang habis bangun tidur mau nyabu ada bong terus marah tonton naturalbadan badanmenang menangnasional nasionalmirip miriporang oranghabis habisbangun banguntidur tidurmau maunyabu nyabuada adabong bongterus terusmarah marahtonton naturalbadanmenang badanmenangnasional menangnasionalmirip nasionalmiriporang miriporanghabis oranghabisbangun habisbanguntidur banguntidurmau tidurmaunyabu maunyabuada nyabuadabong adabongterus bongterusmarah terusmarahtonton naturalbadanmenangnasional badanmenangnasionalmirip menangnasionalmiriporang nasionalmiriporanghabis miriporanghabisbangun oranghabisbanguntidur habisbanguntidurmau banguntidurmaunyabu tidurmaunyabuada maunyabuadabong nyabuadabongterus adabongterusmarah bongterusmarahtonton naturalbadanmenangnasionalmirip badanmenangnasionalmiriporang menangnasionalmiriporanghabis nasionalmiriporanghabisbangun miriporanghabisbanguntidur oranghabisbanguntidurmau habisbanguntidurmaunyabu banguntidurmaunyabuada tidurmaunyabuadabong maunyabuadabongterus nyabuadabongterusmarah adabongterusmarahtonton naturalbadanmenangnasionalmiriporang badanmenangnasionalmiriporanghabis menangnasionalmiriporanghabisbangun nasionalmiriporanghabisbanguntidur miriporanghabisbanguntidurmau oranghabisbanguntidurmaunyabu habisbanguntidurmaunyabuada banguntidurmaunyabuadabong tidurmaunyabuadabongterus maunyabuadabongterusmarah nyabuadabongterusmarahtonton</t>
+  </si>
+  <si>
+    <t>kompas koplak kamu salah kutip bilang gdp apbn kompaskoplak koplakkamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn kompaskoplakkamu koplakkamusalah kamusalahkutip salahkutipbilang kutipbilanggdp bilanggdpapbn kompaskoplakkamusalah koplakkamusalahkutip kamusalahkutipbilang salahkutipbilanggdp kutipbilanggdpapbn kompaskoplakkamusalahkutip koplakkamusalahkutipbilang kamusalahkutipbilanggdp salahkutipbilanggdpapbn kompaskoplakkamusalahkutipbilang koplakkamusalahkutipbilanggdp kamusalahkutipbilanggdpapbn</t>
+  </si>
+  <si>
+    <t>mummmeeettt sekarang kali hahaha mummmeeetttsekarang sekarangkali kalihahaha mummmeeetttsekarangkali sekarangkalihahaha mummmeeetttsekarangkalihahaha</t>
+  </si>
+  <si>
+    <t>mutu banget twetnya kentara berat belah mutubanget bangettwetnya twetnyakentara kentaraberat beratbelah mutubangettwetnya bangettwetnyakentara twetnyakentaraberat kentaraberatbelah mutubangettwetnyakentara bangettwetnyakentaraberat twetnyakentaraberatbelah mutubangettwetnyakentaraberat bangettwetnyakentaraberatbelah mutubangettwetnyakentaraberatbelah</t>
+  </si>
+  <si>
+    <t>kayak panik banget jadi sedi liat kayakpanik panikbanget bangetjadi jadisedi sediliat kayakpanikbanget panikbangetjadi bangetjadisedi jadisediliat kayakpanikbangetjadi panikbangetjadisedi bangetjadisediliat kayakpanikbangetjadisedi panikbangetjadisediliat kayakpanikbangetjadisediliat</t>
+  </si>
+  <si>
+    <t>i love kurang masuk sama kartu ilove lovekurang kurangmasuk masuksama samakartu ilovekurang lovekurangmasuk kurangmasuksama masuksamakartu ilovekurangmasuk lovekurangmasuksama kurangmasuksamakartu ilovekurangmasuksama lovekurangmasuksamakartu ilovekurangmasuksamakartu</t>
+  </si>
+  <si>
+    <t>keren banget jawab pak soal tuduh kerenbanget bangetjawab jawabpak paksoal soaltuduh kerenbangetjawab bangetjawabpak jawabpaksoal paksoaltuduh kerenbangetjawabpak bangetjawabpaksoal jawabpaksoaltuduh kerenbangetjawabpaksoal bangetjawabpaksoaltuduh kerenbangetjawabpaksoaltuduh</t>
+  </si>
+  <si>
+    <t>catat paling atas seba kalah laku dukung catatpaling palingatas atasseba sebakalah kalahlaku lakudukung catatpalingatas palingatasseba atassebakalah sebakalahlaku kalahlakudukung catatpalingatasseba palingatassebakalah atassebakalahlaku sebakalahlakudukung catatpalingatassebakalah palingatassebakalahlaku atassebakalahlakudukung catatpalingatassebakalahlaku palingatassebakalahlakudukung</t>
+  </si>
+  <si>
+    <t>dengar sendiri maher at thuwailibi dukung prabowo-sandi ejek polisi menthogutkan nkri dengarsendiri sendirimaher maherat atthuwailibi thuwailibidukung dukungprabowo-sandi prabowo-sandiejek ejekpolisi polisimenthogutkan menthogutkannkri dengarsendirimaher sendirimaherat maheratthuwailibi atthuwailibidukung thuwailibidukungprabowo-sandi dukungprabowo-sandiejek prabowo-sandiejekpolisi ejekpolisimenthogutkan polisimenthogutkannkri dengarsendirimaherat sendirimaheratthuwailibi maheratthuwailibidukung atthuwailibidukungprabowo-sandi thuwailibidukungprabowo-sandiejek dukungprabowo-sandiejekpolisi prabowo-sandiejekpolisimenthogutkan ejekpolisimenthogutkannkri dengarsendirimaheratthuwailibi sendirimaheratthuwailibidukung maheratthuwailibidukungprabowo-sandi atthuwailibidukungprabowo-sandiejek thuwailibidukungprabowo-sandiejekpolisi dukungprabowo-sandiejekpolisimenthogutkan prabowo-sandiejekpolisimenthogutkannkri dengarsendirimaheratthuwailibidukung sendirimaheratthuwailibidukungprabowo-sandi maheratthuwailibidukungprabowo-sandiejek atthuwailibidukungprabowo-sandiejekpolisi thuwailibidukungprabowo-sandiejekpolisimenthogutkan dukungprabowo-sandiejekpolisimenthogutkannkri</t>
+  </si>
+  <si>
+    <t>tim sehat tekan darah pak pantau masa acara debat begini marah timsehat sehattekan tekandarah darahpak pakpantau pantaumasa masaacara acaradebat debatbegini beginimarah timsehattekan sehattekandarah tekandarahpak darahpakpantau pakpantaumasa pantaumasaacara masaacaradebat acaradebatbegini debatbeginimarah timsehattekandarah sehattekandarahpak tekandarahpakpantau darahpakpantaumasa pakpantaumasaacara pantaumasaacaradebat masaacaradebatbegini acaradebatbeginimarah timsehattekandarahpak sehattekandarahpakpantau tekandarahpakpantaumasa darahpakpantaumasaacara pakpantaumasaacaradebat pantaumasaacaradebatbegini masaacaradebatbeginimarah timsehattekandarahpakpantau sehattekandarahpakpantaumasa tekandarahpakpantaumasaacara darahpakpantaumasaacaradebat pakpantaumasaacaradebatbegini pantaumasaacaradebatbeginimarah</t>
+  </si>
+  <si>
+    <t>kuat tahan sangat rapuh lemah bukan salah bapak salah enggak tahu - kuattahan tahansangat sangatrapuh rapuhlemah lemahbukan bukansalah salahbapak bapaksalah salahenggak enggaktahu tahu- kuattahansangat tahansangatrapuh sangatrapuhlemah rapuhlemahbukan lemahbukansalah bukansalahbapak salahbapaksalah bapaksalahenggak salahenggaktahu enggaktahu- kuattahansangatrapuh tahansangatrapuhlemah sangatrapuhlemahbukan rapuhlemahbukansalah lemahbukansalahbapak bukansalahbapaksalah salahbapaksalahenggak bapaksalahenggaktahu salahenggaktahu- kuattahansangatrapuhlemah tahansangatrapuhlemahbukan sangatrapuhlemahbukansalah rapuhlemahbukansalahbapak lemahbukansalahbapaksalah bukansalahbapaksalahenggak salahbapaksalahenggaktahu bapaksalahenggaktahu- kuattahansangatrapuhlemahbukan tahansangatrapuhlemahbukansalah sangatrapuhlemahbukansalahbapak rapuhlemahbukansalahbapaksalah lemahbukansalahbapaksalahenggak bukansalahbapaksalahenggaktahu salahbapaksalahenggaktahu-</t>
+  </si>
+  <si>
+    <t>pak i am proud of you closing statement lawan debat nyambung bukan manfaat tampil prima paki iam amproud proudof ofyou youclosing closingstatement statementlawan lawandebat debatnyambung nyambungbukan bukanmanfaat manfaattampil tampilprima pakiam iamproud amproudof proudofyou ofyouclosing youclosingstatement closingstatementlawan statementlawandebat lawandebatnyambung debatnyambungbukan nyambungbukanmanfaat bukanmanfaattampil manfaattampilprima pakiamproud iamproudof amproudofyou proudofyouclosing ofyouclosingstatement youclosingstatementlawan closingstatementlawandebat statementlawandebatnyambung lawandebatnyambungbukan debatnyambungbukanmanfaat nyambungbukanmanfaattampil bukanmanfaattampilprima pakiamproudof iamproudofyou amproudofyouclosing proudofyouclosingstatement ofyouclosingstatementlawan youclosingstatementlawandebat closingstatementlawandebatnyambung statementlawandebatnyambungbukan lawandebatnyambungbukanmanfaat debatnyambungbukanmanfaattampil nyambungbukanmanfaattampilprima pakiamproudofyou iamproudofyouclosing amproudofyouclosingstatement proudofyouclosingstatementlawan ofyouclosingstatementlawandebat youclosingstatementlawandebatnyambung closingstatementlawandebatnyambungbukan statementlawandebatnyambungbukanmanfaat lawandebatnyambungbukanmanfaattampil debatnyambungbukanmanfaattampilprima</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turut indonesia turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah lemahturut turutindonesia turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah indonesialemahturut lemahturutindonesia turuttahanlemahimplikasi tahanlemahimplikasiuang lemahimplikasiuangindonesia implikasiuangindonesialemah uangindonesialemahturut indonesialemahturutindonesia turuttahanlemahimplikasiuang tahanlemahimplikasiuangindonesia lemahimplikasiuangindonesialemah implikasiuangindonesialemahturut uangindonesialemahturutindonesia turuttahanlemahimplikasiuangindonesia tahanlemahimplikasiuangindonesialemah lemahimplikasiuangindonesialemahturut implikasiuangindonesialemahturutindonesia</t>
+  </si>
+  <si>
+    <t>oknum kepala desa cikopo - bogor maksa warga milih o1 virallkan gaes lapor oknumkepala kepaladesa desacikopo cikopo- -bogor bogormaksa maksawarga wargamilih miliho1 o1virallkan virallkangaes gaeslapor oknumkepaladesa kepaladesacikopo desacikopo- cikopo-bogor -bogormaksa bogormaksawarga maksawargamilih wargamiliho1 miliho1virallkan o1virallkangaes virallkangaeslapor oknumkepaladesacikopo kepaladesacikopo- desacikopo-bogor cikopo-bogormaksa -bogormaksawarga bogormaksawargamilih maksawargamiliho1 wargamiliho1virallkan miliho1virallkangaes o1virallkangaeslapor oknumkepaladesacikopo- kepaladesacikopo-bogor desacikopo-bogormaksa cikopo-bogormaksawarga -bogormaksawargamilih bogormaksawargamiliho1 maksawargamiliho1virallkan wargamiliho1virallkangaes miliho1virallkangaeslapor oknumkepaladesacikopo-bogor kepaladesacikopo-bogormaksa desacikopo-bogormaksawarga cikopo-bogormaksawargamilih -bogormaksawargamiliho1 bogormaksawargamiliho1virallkan maksawargamiliho1virallkangaes wargamiliho1virallkangaeslapor</t>
+  </si>
+  <si>
+    <t>jangan bawa asa laper di fitnah tahu jangan mengapa masa baru gitu jangan udah ngambek si janganbawa bawaasa asalaper laperdi difitnah fitnahtahu tahujangan janganmengapa mengapamasa masabaru barugitu gitujangan janganudah udahngambek ngambeksi janganbawaasa bawaasalaper asalaperdi laperdifitnah difitnahtahu fitnahtahujangan tahujanganmengapa janganmengapamasa mengapamasabaru masabarugitu barugitujangan gitujanganudah janganudahngambek udahngambeksi janganbawaasalaper bawaasalaperdi asalaperdifitnah laperdifitnahtahu difitnahtahujangan fitnahtahujanganmengapa tahujanganmengapamasa janganmengapamasabaru mengapamasabarugitu masabarugitujangan barugitujanganudah gitujanganudahngambek janganudahngambeksi janganbawaasalaperdi bawaasalaperdifitnah asalaperdifitnahtahu laperdifitnahtahujangan difitnahtahujanganmengapa fitnahtahujanganmengapamasa tahujanganmengapamasabaru janganmengapamasabarugitu mengapamasabarugitujangan masabarugitujanganudah barugitujanganudahngambek gitujanganudahngambeksi janganbawaasalaperdifitnah bawaasalaperdifitnahtahu asalaperdifitnahtahujangan laperdifitnahtahujanganmengapa difitnahtahujanganmengapamasa fitnahtahujanganmengapamasabaru tahujanganmengapamasabarugitu janganmengapamasabarugitujangan mengapamasabarugitujanganudah masabarugitujanganudahngambek barugitujanganudahngambeksi</t>
+  </si>
+  <si>
+    <t>duh tonton kok dimarahin salah apa sabar pak jangan marah ngopi sik pak duhtonton tontonkok kokdimarahin dimarahinsalah salahapa apasabar sabarpak pakjangan janganmarah marahngopi ngopisik sikpak duhtontonkok tontonkokdimarahin kokdimarahinsalah dimarahinsalahapa salahapasabar apasabarpak sabarpakjangan pakjanganmarah janganmarahngopi marahngopisik ngopisikpak duhtontonkokdimarahin tontonkokdimarahinsalah kokdimarahinsalahapa dimarahinsalahapasabar salahapasabarpak apasabarpakjangan sabarpakjanganmarah pakjanganmarahngopi janganmarahngopisik marahngopisikpak duhtontonkokdimarahinsalah tontonkokdimarahinsalahapa kokdimarahinsalahapasabar dimarahinsalahapasabarpak salahapasabarpakjangan apasabarpakjanganmarah sabarpakjanganmarahngopi pakjanganmarahngopisik janganmarahngopisikpak duhtontonkokdimarahinsalahapa tontonkokdimarahinsalahapasabar kokdimarahinsalahapasabarpak dimarahinsalahapasabarpakjangan salahapasabarpakjanganmarah apasabarpakjanganmarahngopi sabarpakjanganmarahngopisik pakjanganmarahngopisikpak</t>
+  </si>
+  <si>
+    <t>jenderal pecat sekadar ingat jelas lebih paham bos very smart responses comprehesif jenderalpecat pecatsekadar sekadaringat ingatjelas jelaslebih lebihpaham pahambos bosvery verysmart smartresponses responsescomprehesif jenderalpecatsekadar pecatsekadaringat sekadaringatjelas ingatjelaslebih jelaslebihpaham lebihpahambos pahambosvery bosverysmart verysmartresponses smartresponsescomprehesif jenderalpecatsekadaringat pecatsekadaringatjelas sekadaringatjelaslebih ingatjelaslebihpaham jelaslebihpahambos lebihpahambosvery pahambosverysmart bosverysmartresponses verysmartresponsescomprehesif jenderalpecatsekadaringatjelas pecatsekadaringatjelaslebih sekadaringatjelaslebihpaham ingatjelaslebihpahambos jelaslebihpahambosvery lebihpahambosverysmart pahambosverysmartresponses bosverysmartresponsescomprehesif jenderalpecatsekadaringatjelaslebih pecatsekadaringatjelaslebihpaham sekadaringatjelaslebihpahambos ingatjelaslebihpahambosvery jelaslebihpahambosverysmart lebihpahambosverysmartresponses pahambosverysmartresponsescomprehesif</t>
+  </si>
+  <si>
+    <t>bandara akses keluar masuk asing indonesia kalau kelola serah asing bandaraakses akseskeluar keluarmasuk masukasing asingindonesia indonesiakalau kalaukelola kelolaserah serahasing bandaraakseskeluar akseskeluarmasuk keluarmasukasing masukasingindonesia asingindonesiakalau indonesiakalaukelola kalaukelolaserah kelolaserahasing bandaraakseskeluarmasuk akseskeluarmasukasing keluarmasukasingindonesia masukasingindonesiakalau asingindonesiakalaukelola indonesiakalaukelolaserah kalaukelolaserahasing bandaraakseskeluarmasukasing akseskeluarmasukasingindonesia keluarmasukasingindonesiakalau masukasingindonesiakalaukelola asingindonesiakalaukelolaserah indonesiakalaukelolaserahasing bandaraakseskeluarmasukasingindonesia akseskeluarmasukasingindonesiakalau keluarmasukasingindonesiakalaukelola masukasingindonesiakalaukelolaserah asingindonesiakalaukelolaserahasing</t>
+  </si>
+  <si>
+    <t>ngomong apa ujung bocor tanya urus tahan inti bocor lah ini calon presiden apa tukang tambal ban ngomongapa apaujung ujungbocor bocortanya tanyaurus urustahan tahaninti intibocor bocorlah lahini inicalon calonpresiden presidenapa apatukang tukangtambal tambalban ngomongapaujung apaujungbocor ujungbocortanya bocortanyaurus tanyaurustahan urustahaninti tahanintibocor intibocorlah bocorlahini lahinicalon inicalonpresiden calonpresidenapa presidenapatukang apatukangtambal tukangtambalban ngomongapaujungbocor apaujungbocortanya ujungbocortanyaurus bocortanyaurustahan tanyaurustahaninti urustahanintibocor tahanintibocorlah intibocorlahini bocorlahinicalon lahinicalonpresiden inicalonpresidenapa calonpresidenapatukang presidenapatukangtambal apatukangtambalban ngomongapaujungbocortanya apaujungbocortanyaurus ujungbocortanyaurustahan bocortanyaurustahaninti tanyaurustahanintibocor urustahanintibocorlah tahanintibocorlahini intibocorlahinicalon bocorlahinicalonpresiden lahinicalonpresidenapa inicalonpresidenapatukang calonpresidenapatukangtambal presidenapatukangtambalban ngomongapaujungbocortanyaurus apaujungbocortanyaurustahan ujungbocortanyaurustahaninti bocortanyaurustahanintibocor tanyaurustahanintibocorlah urustahanintibocorlahini tahanintibocorlahinicalon intibocorlahinicalonpresiden bocorlahinicalonpresidenapa lahinicalonpresidenapatukang inicalonpresidenapatukangtambal calonpresidenapatukangtambalban</t>
+  </si>
+  <si>
+    <t>jadi soal digital layan inimah lama rakyat antri dapat layan e-ktp yang gagal lah so jadisoal soaldigital digitallayan layaninimah inimahlama lamarakyat rakyatantri antridapat dapatlayan layane-ktp e-ktpyang yanggagal gagallah lahso jadisoaldigital soaldigitallayan digitallayaninimah layaninimahlama inimahlamarakyat lamarakyatantri rakyatantridapat antridapatlayan dapatlayane-ktp layane-ktpyang e-ktpyanggagal yanggagallah gagallahso jadisoaldigitallayan soaldigitallayaninimah digitallayaninimahlama layaninimahlamarakyat inimahlamarakyatantri lamarakyatantridapat rakyatantridapatlayan antridapatlayane-ktp dapatlayane-ktpyang layane-ktpyanggagal e-ktpyanggagallah yanggagallahso jadisoaldigitallayaninimah soaldigitallayaninimahlama digitallayaninimahlamarakyat layaninimahlamarakyatantri inimahlamarakyatantridapat lamarakyatantridapatlayan rakyatantridapatlayane-ktp antridapatlayane-ktpyang dapatlayane-ktpyanggagal layane-ktpyanggagallah e-ktpyanggagallahso jadisoaldigitallayaninimahlama soaldigitallayaninimahlamarakyat digitallayaninimahlamarakyatantri layaninimahlamarakyatantridapat inimahlamarakyatantridapatlayan lamarakyatantridapatlayane-ktp rakyatantridapatlayane-ktpyang antridapatlayane-ktpyanggagal dapatlayane-ktpyanggagallah layane-ktpyanggagallahso</t>
+  </si>
+  <si>
+    <t>jangan coba ganti ideologi pancasila nkri harga mati harga mati harga tidak tawar jangancoba cobaganti gantiideologi ideologipancasila pancasilankri nkriharga hargamati matiharga hargamati matiharga hargatidak tidaktawar jangancobaganti cobagantiideologi gantiideologipancasila ideologipancasilankri pancasilankriharga nkrihargamati hargamatiharga matihargamati hargamatiharga matihargatidak hargatidaktawar jangancobagantiideologi cobagantiideologipancasila gantiideologipancasilankri ideologipancasilankriharga pancasilankrihargamati nkrihargamatiharga hargamatihargamati matihargamatiharga hargamatihargatidak matihargatidaktawar jangancobagantiideologipancasila cobagantiideologipancasilankri gantiideologipancasilankriharga ideologipancasilankrihargamati pancasilankrihargamatiharga nkrihargamatihargamati hargamatihargamatiharga matihargamatihargatidak hargamatihargatidaktawar jangancobagantiideologipancasilankri cobagantiideologipancasilankriharga gantiideologipancasilankrihargamati ideologipancasilankrihargamatiharga pancasilankrihargamatihargamati nkrihargamatihargamatiharga hargamatihargamatihargatidak matihargamatihargatidaktawar</t>
+  </si>
+  <si>
+    <t>wow percaya tni ragu kuat tni lemah tni rasa lebih tni tni wowpercaya percayatni tniragu ragukuat kuattni tnilemah lemahtni tnirasa rasalebih lebihtni tnitni wowpercayatni percayatniragu tniragukuat ragukuattni kuattnilemah tnilemahtni lemahtnirasa tnirasalebih rasalebihtni lebihtnitni wowpercayatniragu percayatniragukuat tniragukuattni ragukuattnilemah kuattnilemahtni tnilemahtnirasa lemahtnirasalebih tnirasalebihtni rasalebihtnitni wowpercayatniragukuat percayatniragukuattni tniragukuattnilemah ragukuattnilemahtni kuattnilemahtnirasa tnilemahtnirasalebih lemahtnirasalebihtni tnirasalebihtnitni wowpercayatniragukuattni percayatniragukuattnilemah tniragukuattnilemahtni ragukuattnilemahtnirasa kuattnilemahtnirasalebih tnilemahtnirasalebihtni lemahtnirasalebihtnitni</t>
+  </si>
+  <si>
+    <t>ampun sih tiap tanya kamu jawab bocor bocor uang negara alir luar ampunsih sihtiap tiaptanya tanyakamu kamujawab jawabbocor bocorbocor bocoruang uangnegara negaraalir alirluar ampunsihtiap sihtiaptanya tiaptanyakamu tanyakamujawab kamujawabbocor jawabbocorbocor bocorbocoruang bocoruangnegara uangnegaraalir negaraalirluar ampunsihtiaptanya sihtiaptanyakamu tiaptanyakamujawab tanyakamujawabbocor kamujawabbocorbocor jawabbocorbocoruang bocorbocoruangnegara bocoruangnegaraalir uangnegaraalirluar ampunsihtiaptanyakamu sihtiaptanyakamujawab tiaptanyakamujawabbocor tanyakamujawabbocorbocor kamujawabbocorbocoruang jawabbocorbocoruangnegara bocorbocoruangnegaraalir bocoruangnegaraalirluar ampunsihtiaptanyakamujawab sihtiaptanyakamujawabbocor tiaptanyakamujawabbocorbocor tanyakamujawabbocorbocoruang kamujawabbocorbocoruangnegara jawabbocorbocoruangnegaraalir bocorbocoruangnegaraalirluar</t>
+  </si>
+  <si>
+    <t>tidak terlalu hormat luar negeri jangan tebar pesimisme pak tidakterlalu terlaluhormat hormatluar luarnegeri negerijangan jangantebar tebarpesimisme pesimismepak tidakterlaluhormat terlaluhormatluar hormatluarnegeri luarnegerijangan negerijangantebar jangantebarpesimisme tebarpesimismepak tidakterlaluhormatluar terlaluhormatluarnegeri hormatluarnegerijangan luarnegerijangantebar negerijangantebarpesimisme jangantebarpesimismepak tidakterlaluhormatluarnegeri terlaluhormatluarnegerijangan hormatluarnegerijangantebar luarnegerijangantebarpesimisme negerijangantebarpesimismepak tidakterlaluhormatluarnegerijangan terlaluhormatluarnegerijangantebar hormatluarnegerijangantebarpesimisme luarnegerijangantebarpesimismepak</t>
+  </si>
+  <si>
+    <t>pak kata kuat lembaga perintah hilang korupsi pakkata katakuat kuatlembaga lembagaperintah perintahhilang hilangkorupsi pakkatakuat katakuatlembaga kuatlembagaperintah lembagaperintahhilang perintahhilangkorupsi pakkatakuatlembaga katakuatlembagaperintah kuatlembagaperintahhilang lembagaperintahhilangkorupsi pakkatakuatlembagaperintah katakuatlembagaperintahhilang kuatlembagaperintahhilangkorupsi pakkatakuatlembagaperintahhilang katakuatlembagaperintahhilangkorupsi</t>
+  </si>
+  <si>
+    <t>tertawa tertawa dimarahain tertawatertawa tertawadimarahain tertawatertawadimarahain</t>
+  </si>
+  <si>
+    <t>g nyambung kalau masalah kalau bandara udah kuasa asing pesawat suka nya keluar masuk apa milik gnyambung nyambungkalau kalaumasalah masalahkalau kalaubandara bandaraudah udahkuasa kuasaasing asingpesawat pesawatsuka sukanya nyakeluar keluarmasuk masukapa apamilik gnyambungkalau nyambungkalaumasalah kalaumasalahkalau masalahkalaubandara kalaubandaraudah bandaraudahkuasa udahkuasaasing kuasaasingpesawat asingpesawatsuka pesawatsukanya sukanyakeluar nyakeluarmasuk keluarmasukapa masukapamilik gnyambungkalaumasalah nyambungkalaumasalahkalau kalaumasalahkalaubandara masalahkalaubandaraudah kalaubandaraudahkuasa bandaraudahkuasaasing udahkuasaasingpesawat kuasaasingpesawatsuka asingpesawatsukanya pesawatsukanyakeluar sukanyakeluarmasuk nyakeluarmasukapa keluarmasukapamilik gnyambungkalaumasalahkalau nyambungkalaumasalahkalaubandara kalaumasalahkalaubandaraudah masalahkalaubandaraudahkuasa kalaubandaraudahkuasaasing bandaraudahkuasaasingpesawat udahkuasaasingpesawatsuka kuasaasingpesawatsukanya asingpesawatsukanyakeluar pesawatsukanyakeluarmasuk sukanyakeluarmasukapa nyakeluarmasukapamilik gnyambungkalaumasalahkalaubandara nyambungkalaumasalahkalaubandaraudah kalaumasalahkalaubandaraudahkuasa masalahkalaubandaraudahkuasaasing kalaubandaraudahkuasaasingpesawat bandaraudahkuasaasingpesawatsuka udahkuasaasingpesawatsukanya kuasaasingpesawatsukanyakeluar asingpesawatsukanyakeluarmasuk pesawatsukanyakeluarmasukapa sukanyakeluarmasukapamilik</t>
+  </si>
+  <si>
+    <t>tengah debat calon presiden dadak marah hadirin tertawa tengah acara https t co xj1ofes136 tengahdebat debatcalon calonpresiden presidendadak dadakmarah marahhadirin hadirintertawa tertawatengah tengahacara acarahttps httpst tco coxj1ofes136 tengahdebatcalon debatcalonpresiden calonpresidendadak presidendadakmarah dadakmarahhadirin marahhadirintertawa hadirintertawatengah tertawatengahacara tengahacarahttps acarahttpst httpstco tcoxj1ofes136 tengahdebatcalonpresiden debatcalonpresidendadak calonpresidendadakmarah presidendadakmarahhadirin dadakmarahhadirintertawa marahhadirintertawatengah hadirintertawatengahacara tertawatengahacarahttps tengahacarahttpst acarahttpstco httpstcoxj1ofes136 tengahdebatcalonpresidendadak debatcalonpresidendadakmarah calonpresidendadakmarahhadirin presidendadakmarahhadirintertawa dadakmarahhadirintertawatengah marahhadirintertawatengahacara hadirintertawatengahacarahttps tertawatengahacarahttpst tengahacarahttpstco acarahttpstcoxj1ofes136 tengahdebatcalonpresidendadakmarah debatcalonpresidendadakmarahhadirin calonpresidendadakmarahhadirintertawa presidendadakmarahhadirintertawatengah dadakmarahhadirintertawatengahacara marahhadirintertawatengahacarahttps hadirintertawatengahacarahttpst tertawatengahacarahttpstco tengahacarahttpstcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>terus hina bangsa indonesia kata percaya dunia internasional terushina hinabangsa bangsaindonesia indonesiakata katapercaya percayadunia duniainternasional terushinabangsa hinabangsaindonesia bangsaindonesiakata indonesiakatapercaya katapercayadunia percayaduniainternasional terushinabangsaindonesia hinabangsaindonesiakata bangsaindonesiakatapercaya indonesiakatapercayadunia katapercayaduniainternasional terushinabangsaindonesiakata hinabangsaindonesiakatapercaya bangsaindonesiakatapercayadunia indonesiakatapercayaduniainternasional terushinabangsaindonesiakatapercaya hinabangsaindonesiakatapercayadunia bangsaindonesiakatapercayaduniainternasional</t>
+  </si>
+  <si>
+    <t>lebih baik kalau tipu halusinasi parah coba muncul ngaku golput lebihbaik baikkalau kalautipu tipuhalusinasi halusinasiparah parahcoba cobamuncul munculngaku ngakugolput lebihbaikkalau baikkalautipu kalautipuhalusinasi tipuhalusinasiparah halusinasiparahcoba parahcobamuncul cobamunculngaku munculngakugolput lebihbaikkalautipu baikkalautipuhalusinasi kalautipuhalusinasiparah tipuhalusinasiparahcoba halusinasiparahcobamuncul parahcobamunculngaku cobamunculngakugolput lebihbaikkalautipuhalusinasi baikkalautipuhalusinasiparah kalautipuhalusinasiparahcoba tipuhalusinasiparahcobamuncul halusinasiparahcobamunculngaku parahcobamunculngakugolput lebihbaikkalautipuhalusinasiparah baikkalautipuhalusinasiparahcoba kalautipuhalusinasiparahcobamuncul tipuhalusinasiparahcobamunculngaku halusinasiparahcobamunculngakugolput</t>
+  </si>
+  <si>
+    <t>lihat negara bagai alat maju kualitas masyarakat lihat negara bagai alat perang lihatnegara negarabagai bagaialat alatmaju majukualitas kualitasmasyarakat masyarakatlihat lihatnegara negarabagai bagaialat alatperang lihatnegarabagai negarabagaialat bagaialatmaju alatmajukualitas majukualitasmasyarakat kualitasmasyarakatlihat masyarakatlihatnegara lihatnegarabagai negarabagaialat bagaialatperang lihatnegarabagaialat negarabagaialatmaju bagaialatmajukualitas alatmajukualitasmasyarakat majukualitasmasyarakatlihat kualitasmasyarakatlihatnegara masyarakatlihatnegarabagai lihatnegarabagaialat negarabagaialatperang lihatnegarabagaialatmaju negarabagaialatmajukualitas bagaialatmajukualitasmasyarakat alatmajukualitasmasyarakatlihat majukualitasmasyarakatlihatnegara kualitasmasyarakatlihatnegarabagai masyarakatlihatnegarabagaialat lihatnegarabagaialatperang lihatnegarabagaialatmajukualitas negarabagaialatmajukualitasmasyarakat bagaialatmajukualitasmasyarakatlihat alatmajukualitasmasyarakatlihatnegara majukualitasmasyarakatlihatnegarabagai kualitasmasyarakatlihatnegarabagaialat masyarakatlihatnegarabagaialatperang</t>
+  </si>
+  <si>
+    <t>freeport lapor nse mereka dapat manfaat jadi saham ethok prabowobentengnkri freeportlapor lapornse nsemereka merekadapat dapatmanfaat manfaatjadi jadisaham sahamethok ethokprabowobentengnkri freeportlapornse lapornsemereka nsemerekadapat merekadapatmanfaat dapatmanfaatjadi manfaatjadisaham jadisahamethok sahamethokprabowobentengnkri freeportlapornsemereka lapornsemerekadapat nsemerekadapatmanfaat merekadapatmanfaatjadi dapatmanfaatjadisaham manfaatjadisahamethok jadisahamethokprabowobentengnkri freeportlapornsemerekadapat lapornsemerekadapatmanfaat nsemerekadapatmanfaatjadi merekadapatmanfaatjadisaham dapatmanfaatjadisahamethok manfaatjadisahamethokprabowobentengnkri freeportlapornsemerekadapatmanfaat lapornsemerekadapatmanfaatjadi nsemerekadapatmanfaatjadisaham merekadapatmanfaatjadisahamethok dapatmanfaatjadisahamethokprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>insaallah zalim rezim rakyat allah subhanawataala balas copot kuasa wenang wenang insaallahzalim zalimrezim rezimrakyat rakyatallah allahsubhanawataala subhanawataalabalas balascopot copotkuasa kuasawenang wenangwenang insaallahzalimrezim zalimrezimrakyat rezimrakyatallah rakyatallahsubhanawataala allahsubhanawataalabalas subhanawataalabalascopot balascopotkuasa copotkuasawenang kuasawenangwenang insaallahzalimrezimrakyat zalimrezimrakyatallah rezimrakyatallahsubhanawataala rakyatallahsubhanawataalabalas allahsubhanawataalabalascopot subhanawataalabalascopotkuasa balascopotkuasawenang copotkuasawenangwenang insaallahzalimrezimrakyatallah zalimrezimrakyatallahsubhanawataala rezimrakyatallahsubhanawataalabalas rakyatallahsubhanawataalabalascopot allahsubhanawataalabalascopotkuasa subhanawataalabalascopotkuasawenang balascopotkuasawenangwenang insaallahzalimrezimrakyatallahsubhanawataala zalimrezimrakyatallahsubhanawataalabalas rezimrakyatallahsubhanawataalabalascopot rakyatallahsubhanawataalabalascopotkuasa allahsubhanawataalabalascopotkuasawenang subhanawataalabalascopotkuasawenangwenang</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat subianto soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat pecatsubianto soaltahanbenar tahanbenarberi benarberibriefing beribriefingpak briefingpakkalau pakkalaupresiden kalaupresidenpecat presidenpecatsubianto soaltahanbenarberi tahanbenarberibriefing benarberibriefingpak beribriefingpakkalau briefingpakkalaupresiden pakkalaupresidenpecat kalaupresidenpecatsubianto soaltahanbenarberibriefing tahanbenarberibriefingpak benarberibriefingpakkalau beribriefingpakkalaupresiden briefingpakkalaupresidenpecat pakkalaupresidenpecatsubianto soaltahanbenarberibriefingpak tahanbenarberibriefingpakkalau benarberibriefingpakkalaupresiden beribriefingpakkalaupresidenpecat briefingpakkalaupresidenpecatsubianto</t>
+  </si>
+  <si>
+    <t>tidak hormat luar negeri utang banyak impor banyak bagaimana mau hormat tidakhormat hormatluar luarnegeri negeriutang utangbanyak banyakimpor imporbanyak banyakbagaimana bagaimanamau mauhormat tidakhormatluar hormatluarnegeri luarnegeriutang negeriutangbanyak utangbanyakimpor banyakimporbanyak imporbanyakbagaimana banyakbagaimanamau bagaimanamauhormat tidakhormatluarnegeri hormatluarnegeriutang luarnegeriutangbanyak negeriutangbanyakimpor utangbanyakimporbanyak banyakimporbanyakbagaimana imporbanyakbagaimanamau banyakbagaimanamauhormat tidakhormatluarnegeriutang hormatluarnegeriutangbanyak luarnegeriutangbanyakimpor negeriutangbanyakimporbanyak utangbanyakimporbanyakbagaimana banyakimporbanyakbagaimanamau imporbanyakbagaimanamauhormat tidakhormatluarnegeriutangbanyak hormatluarnegeriutangbanyakimpor luarnegeriutangbanyakimporbanyak negeriutangbanyakimporbanyakbagaimana utangbanyakimporbanyakbagaimanamau banyakimporbanyakbagaimanamauhormat</t>
+  </si>
+  <si>
+    <t>lawan tak daya lawan mantap oy lawantak takdaya dayalawan lawanmantap mantapoy lawantakdaya takdayalawan dayalawanmantap lawanmantapoy lawantakdayalawan takdayalawanmantap dayalawanmantapoy lawantakdayalawanmantap takdayalawanmantapoy lawantakdayalawanmantapoy</t>
+  </si>
+  <si>
+    <t>presiden ajak keluarga makan siang rumah makan bilang jalan sabang jakarta pusat sayang dua putra hadir presidenajak ajakkeluarga keluargamakan makansiang siangrumah rumahmakan makanbilang bilangjalan jalansabang sabangjakarta jakartapusat pusatsayang sayangdua duaputra putrahadir presidenajakkeluarga ajakkeluargamakan keluargamakansiang makansiangrumah siangrumahmakan rumahmakanbilang makanbilangjalan bilangjalansabang jalansabangjakarta sabangjakartapusat jakartapusatsayang pusatsayangdua sayangduaputra duaputrahadir presidenajakkeluargamakan ajakkeluargamakansiang keluargamakansiangrumah makansiangrumahmakan siangrumahmakanbilang rumahmakanbilangjalan makanbilangjalansabang bilangjalansabangjakarta jalansabangjakartapusat sabangjakartapusatsayang jakartapusatsayangdua pusatsayangduaputra sayangduaputrahadir presidenajakkeluargamakansiang ajakkeluargamakansiangrumah keluargamakansiangrumahmakan makansiangrumahmakanbilang siangrumahmakanbilangjalan rumahmakanbilangjalansabang makanbilangjalansabangjakarta bilangjalansabangjakartapusat jalansabangjakartapusatsayang sabangjakartapusatsayangdua jakartapusatsayangduaputra pusatsayangduaputrahadir presidenajakkeluargamakansiangrumah ajakkeluargamakansiangrumahmakan keluargamakansiangrumahmakanbilang makansiangrumahmakanbilangjalan siangrumahmakanbilangjalansabang rumahmakanbilangjalansabangjakarta makanbilangjalansabangjakartapusat bilangjalansabangjakartapusatsayang jalansabangjakartapusatsayangdua sabangjakartapusatsayangduaputra jakartapusatsayangduaputrahadir</t>
+  </si>
+  <si>
+    <t>cek fakta cek fakta sebut dana tahan ri kecil singapura gdp https t co hv6u1urlj5 cekfakta faktacek cekfakta faktasebut sebutdana danatahan tahanri rikecil kecilsingapura singapuragdp gdphttps httpst tco cohv6u1urlj5 cekfaktacek faktacekfakta cekfaktasebut faktasebutdana sebutdanatahan danatahanri tahanrikecil rikecilsingapura kecilsingapuragdp singapuragdphttps gdphttpst httpstco tcohv6u1urlj5 cekfaktacekfakta faktacekfaktasebut cekfaktasebutdana faktasebutdanatahan sebutdanatahanri danatahanrikecil tahanrikecilsingapura rikecilsingapuragdp kecilsingapuragdphttps singapuragdphttpst gdphttpstco httpstcohv6u1urlj5 cekfaktacekfaktasebut faktacekfaktasebutdana cekfaktasebutdanatahan faktasebutdanatahanri sebutdanatahanrikecil danatahanrikecilsingapura tahanrikecilsingapuragdp rikecilsingapuragdphttps kecilsingapuragdphttpst singapuragdphttpstco gdphttpstcohv6u1urlj5 cekfaktacekfaktasebutdana faktacekfaktasebutdanatahan cekfaktasebutdanatahanri faktasebutdanatahanrikecil sebutdanatahanrikecilsingapura danatahanrikecilsingapuragdp tahanrikecilsingapuragdphttps rikecilsingapuragdphttpst kecilsingapuragdphttpstco singapuragdphttpstcohv6u1urlj5</t>
+  </si>
+  <si>
+    <t>beda negara debat maaf keras tengah banyumas bedanegara negaradebat debatmaaf maafkeras kerastengah tengahbanyumas bedanegaradebat negaradebatmaaf debatmaafkeras maafkerastengah kerastengahbanyumas bedanegaradebatmaaf negaradebatmaafkeras debatmaafkerastengah maafkerastengahbanyumas bedanegaradebatmaafkeras negaradebatmaafkerastengah debatmaafkerastengahbanyumas bedanegaradebatmaafkerastengah negaradebatmaafkerastengahbanyumas</t>
+  </si>
+  <si>
+    <t>kamu cm nyinyir udah ngerasain terjun lapang kamu lahir kamucm cmnyinyir nyinyirudah udahngerasain ngerasainterjun terjunlapang lapangkamu kamulahir kamucmnyinyir cmnyinyirudah nyinyirudahngerasain udahngerasainterjun ngerasainterjunlapang terjunlapangkamu lapangkamulahir kamucmnyinyirudah cmnyinyirudahngerasain nyinyirudahngerasainterjun udahngerasainterjunlapang ngerasainterjunlapangkamu terjunlapangkamulahir kamucmnyinyirudahngerasain cmnyinyirudahngerasainterjun nyinyirudahngerasainterjunlapang udahngerasainterjunlapangkamu ngerasainterjunlapangkamulahir kamucmnyinyirudahngerasainterjun cmnyinyirudahngerasainterjunlapang nyinyirudahngerasainterjunlapangkamu udahngerasainterjunlapangkamulahir</t>
+  </si>
+  <si>
+    <t>malam minggu duduk depan layar tv nonton debat empat calon presiden semangat pak 01dilanjutkan malamminggu minggududuk dudukdepan depanlayar layartv tvnonton nontondebat debatempat empatcalon calonpresiden presidensemangat semangatpak pak01dilanjutkan malamminggududuk minggududukdepan dudukdepanlayar depanlayartv layartvnonton tvnontondebat nontondebatempat debatempatcalon empatcalonpresiden calonpresidensemangat presidensemangatpak semangatpak01dilanjutkan malamminggududukdepan minggududukdepanlayar dudukdepanlayartv depanlayartvnonton layartvnontondebat tvnontondebatempat nontondebatempatcalon debatempatcalonpresiden empatcalonpresidensemangat calonpresidensemangatpak presidensemangatpak01dilanjutkan malamminggududukdepanlayar minggududukdepanlayartv dudukdepanlayartvnonton depanlayartvnontondebat layartvnontondebatempat tvnontondebatempatcalon nontondebatempatcalonpresiden debatempatcalonpresidensemangat empatcalonpresidensemangatpak calonpresidensemangatpak01dilanjutkan malamminggududukdepanlayartv minggududukdepanlayartvnonton dudukdepanlayartvnontondebat depanlayartvnontondebatempat layartvnontondebatempatcalon tvnontondebatempatcalonpresiden nontondebatempatcalonpresidensemangat debatempatcalonpresidensemangatpak empatcalonpresidensemangatpak01dilanjutkan</t>
+  </si>
+  <si>
+    <t>lah situ nyinyir apa balik aki aki apa nenek peot calon presidenya jadul lahsitu situnyinyir nyinyirapa apabalik balikaki akiaki akiapa apanenek nenekpeot peotcalon calonpresidenya presidenyajadul lahsitunyinyir situnyinyirapa nyinyirapabalik apabalikaki balikakiaki akiakiapa akiapanenek apanenekpeot nenekpeotcalon peotcalonpresidenya calonpresidenyajadul lahsitunyinyirapa situnyinyirapabalik nyinyirapabalikaki apabalikakiaki balikakiakiapa akiakiapanenek akiapanenekpeot apanenekpeotcalon nenekpeotcalonpresidenya peotcalonpresidenyajadul lahsitunyinyirapabalik situnyinyirapabalikaki nyinyirapabalikakiaki apabalikakiakiapa balikakiakiapanenek akiakiapanenekpeot akiapanenekpeotcalon apanenekpeotcalonpresidenya nenekpeotcalonpresidenyajadul lahsitunyinyirapabalikaki situnyinyirapabalikakiaki nyinyirapabalikakiakiapa apabalikakiakiapanenek balikakiakiapanenekpeot akiakiapanenekpeotcalon akiapanenekpeotcalonpresidenya apanenekpeotcalonpresidenyajadul</t>
+  </si>
+  <si>
+    <t>bilang rapuh skor kuat militer indonesia turut global fire power di peringkat tinggi bilangrapuh rapuhskor skorkuat kuatmiliter militerindonesia indonesiaturut turutglobal globalfire firepower powerdi diperingkat peringkattinggi bilangrapuhskor rapuhskorkuat skorkuatmiliter kuatmiliterindonesia militerindonesiaturut indonesiaturutglobal turutglobalfire globalfirepower firepowerdi powerdiperingkat diperingkattinggi bilangrapuhskorkuat rapuhskorkuatmiliter skorkuatmiliterindonesia kuatmiliterindonesiaturut militerindonesiaturutglobal indonesiaturutglobalfire turutglobalfirepower globalfirepowerdi firepowerdiperingkat powerdiperingkattinggi bilangrapuhskorkuatmiliter rapuhskorkuatmiliterindonesia skorkuatmiliterindonesiaturut kuatmiliterindonesiaturutglobal militerindonesiaturutglobalfire indonesiaturutglobalfirepower turutglobalfirepowerdi globalfirepowerdiperingkat firepowerdiperingkattinggi bilangrapuhskorkuatmiliterindonesia rapuhskorkuatmiliterindonesiaturut skorkuatmiliterindonesiaturutglobal kuatmiliterindonesiaturutglobalfire militerindonesiaturutglobalfirepower indonesiaturutglobalfirepowerdi turutglobalfirepowerdiperingkat globalfirepowerdiperingkattinggi</t>
+  </si>
+  <si>
+    <t>cakep jenderal makin kita hidup rukun tidak ajar benci mistericapjempol cakepjenderal jenderalmakin makinkita kitahidup hiduprukun rukuntidak tidakajar ajarbenci bencimistericapjempol cakepjenderalmakin jenderalmakinkita makinkitahidup kitahiduprukun hiduprukuntidak rukuntidakajar tidakajarbenci ajarbencimistericapjempol cakepjenderalmakinkita jenderalmakinkitahidup makinkitahiduprukun kitahiduprukuntidak hiduprukuntidakajar rukuntidakajarbenci tidakajarbencimistericapjempol cakepjenderalmakinkitahidup jenderalmakinkitahiduprukun makinkitahiduprukuntidak kitahiduprukuntidakajar hiduprukuntidakajarbenci rukuntidakajarbencimistericapjempol cakepjenderalmakinkitahiduprukun jenderalmakinkitahiduprukuntidak makinkitahiduprukuntidakajar kitahiduprukuntidakajarbenci hiduprukuntidakajarbencimistericapjempol</t>
+  </si>
+  <si>
+    <t>tidak jajah bangsa lai rugi banyak pak salah orang amerika sedikit bicara banyak kerja tidakjajah jajahbangsa bangsalai lairugi rugibanyak banyakpak paksalah salahorang orangamerika amerikasedikit sedikitbicara bicarabanyak banyakkerja tidakjajahbangsa jajahbangsalai bangsalairugi lairugibanyak rugibanyakpak banyakpaksalah paksalahorang salahorangamerika orangamerikasedikit amerikasedikitbicara sedikitbicarabanyak bicarabanyakkerja tidakjajahbangsalai jajahbangsalairugi bangsalairugibanyak lairugibanyakpak rugibanyakpaksalah banyakpaksalahorang paksalahorangamerika salahorangamerikasedikit orangamerikasedikitbicara amerikasedikitbicarabanyak sedikitbicarabanyakkerja tidakjajahbangsalairugi jajahbangsalairugibanyak bangsalairugibanyakpak lairugibanyakpaksalah rugibanyakpaksalahorang banyakpaksalahorangamerika paksalahorangamerikasedikit salahorangamerikasedikitbicara orangamerikasedikitbicarabanyak amerikasedikitbicarabanyakkerja tidakjajahbangsalairugibanyak jajahbangsalairugibanyakpak bangsalairugibanyakpaksalah lairugibanyakpaksalahorang rugibanyakpaksalahorangamerika banyakpaksalahorangamerikasedikit paksalahorangamerikasedikitbicara salahorangamerikasedikitbicarabanyak orangamerikasedikitbicarabanyakkerja</t>
+  </si>
+  <si>
+    <t>nama ngomong ngasal jangan penting gaya dulu wkwkqk kasi babak bur hajar jenderal namangomong ngomongngasal ngasaljangan janganpenting pentinggaya gayadulu duluwkwkqk wkwkqkkasi kasibabak babakbur burhajar hajarjenderal namangomongngasal ngomongngasaljangan ngasaljanganpenting janganpentinggaya pentinggayadulu gayaduluwkwkqk duluwkwkqkkasi wkwkqkkasibabak kasibabakbur babakburhajar burhajarjenderal namangomongngasaljangan ngomongngasaljanganpenting ngasaljanganpentinggaya janganpentinggayadulu pentinggayaduluwkwkqk gayaduluwkwkqkkasi duluwkwkqkkasibabak wkwkqkkasibabakbur kasibabakburhajar babakburhajarjenderal namangomongngasaljanganpenting ngomongngasaljanganpentinggaya ngasaljanganpentinggayadulu janganpentinggayaduluwkwkqk pentinggayaduluwkwkqkkasi gayaduluwkwkqkkasibabak duluwkwkqkkasibabakbur wkwkqkkasibabakburhajar kasibabakburhajarjenderal namangomongngasaljanganpentinggaya ngomongngasaljanganpentinggayadulu ngasaljanganpentinggayaduluwkwkqk janganpentinggayaduluwkwkqkkasi pentinggayaduluwkwkqkkasibabak gayaduluwkwkqkkasibabakbur duluwkwkqkkasibabakburhajar wkwkqkkasibabakburhajarjenderal</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019 turutpercumapunyabanyak percumapunyabanyakkartu punyabanyakkartulihat banyakkartulihatmodern kartulihatmoderndebatpilpres lihatmoderndebatpilpres2019 moderndebatpilpres2019pilpres debatpilpres2019pilpres2019 2019pilpres2019pemilu pilpres2019pemilu2019 turutpercumapunyabanyakkartu percumapunyabanyakkartulihat punyabanyakkartulihatmodern banyakkartulihatmoderndebatpilpres kartulihatmoderndebatpilpres2019 lihatmoderndebatpilpres2019pilpres moderndebatpilpres2019pilpres2019 debatpilpres2019pilpres2019pemilu 2019pilpres2019pemilu2019 turutpercumapunyabanyakkartulihat percumapunyabanyakkartulihatmodern punyabanyakkartulihatmoderndebatpilpres banyakkartulihatmoderndebatpilpres2019 kartulihatmoderndebatpilpres2019pilpres lihatmoderndebatpilpres2019pilpres2019 moderndebatpilpres2019pilpres2019pemilu debatpilpres2019pilpres2019pemilu2019</t>
+  </si>
+  <si>
+    <t>bukan mau nyerang pisik fakta gerombol badan menang nasional banyak gembul perut kayak gentong bukanmau maunyerang nyerangpisik pisikfakta faktagerombol gerombolbadan badanmenang menangnasional nasionalbanyak banyakgembul gembulperut perutkayak kayakgentong bukanmaunyerang maunyerangpisik nyerangpisikfakta pisikfaktagerombol faktagerombolbadan gerombolbadanmenang badanmenangnasional menangnasionalbanyak nasionalbanyakgembul banyakgembulperut gembulperutkayak perutkayakgentong bukanmaunyerangpisik maunyerangpisikfakta nyerangpisikfaktagerombol pisikfaktagerombolbadan faktagerombolbadanmenang gerombolbadanmenangnasional badanmenangnasionalbanyak menangnasionalbanyakgembul nasionalbanyakgembulperut banyakgembulperutkayak gembulperutkayakgentong bukanmaunyerangpisikfakta maunyerangpisikfaktagerombol nyerangpisikfaktagerombolbadan pisikfaktagerombolbadanmenang faktagerombolbadanmenangnasional gerombolbadanmenangnasionalbanyak badanmenangnasionalbanyakgembul menangnasionalbanyakgembulperut nasionalbanyakgembulperutkayak banyakgembulperutkayakgentong bukanmaunyerangpisikfaktagerombol maunyerangpisikfaktagerombolbadan nyerangpisikfaktagerombolbadanmenang pisikfaktagerombolbadanmenangnasional faktagerombolbadanmenangnasionalbanyak gerombolbadanmenangnasionalbanyakgembul badanmenangnasionalbanyakgembulperut menangnasionalbanyakgembulperutkayak nasionalbanyakgembulperutkayakgentong</t>
+  </si>
+  <si>
+    <t>kalau jadi nice guy masalah ada yang bapak rasa tidak hormat luar indonesia kalaujadi jadinice niceguy guymasalah masalahada adayang yangbapak bapakrasa rasatidak tidakhormat hormatluar luarindonesia kalaujadinice jadiniceguy niceguymasalah guymasalahada masalahadayang adayangbapak yangbapakrasa bapakrasatidak rasatidakhormat tidakhormatluar hormatluarindonesia kalaujadiniceguy jadiniceguymasalah niceguymasalahada guymasalahadayang masalahadayangbapak adayangbapakrasa yangbapakrasatidak bapakrasatidakhormat rasatidakhormatluar tidakhormatluarindonesia kalaujadiniceguymasalah jadiniceguymasalahada niceguymasalahadayang guymasalahadayangbapak masalahadayangbapakrasa adayangbapakrasatidak yangbapakrasatidakhormat bapakrasatidakhormatluar rasatidakhormatluarindonesia kalaujadiniceguymasalahada jadiniceguymasalahadayang niceguymasalahadayangbapak guymasalahadayangbapakrasa masalahadayangbapakrasatidak adayangbapakrasatidakhormat yangbapakrasatidakhormatluar bapakrasatidakhormatluarindonesia</t>
+  </si>
+  <si>
+    <t>kalau anak anak antem si kurus udah mewek pojok yang gemuk tega kalauanak anakanak anakantem antemsi sikurus kurusudah udahmewek mewekpojok pojokyang yanggemuk gemuktega kalauanakanak anakanakantem anakantemsi antemsikurus sikurusudah kurusudahmewek udahmewekpojok mewekpojokyang pojokyanggemuk yanggemuktega kalauanakanakantem anakanakantemsi anakantemsikurus antemsikurusudah sikurusudahmewek kurusudahmewekpojok udahmewekpojokyang mewekpojokyanggemuk pojokyanggemuktega kalauanakanakantemsi anakanakantemsikurus anakantemsikurusudah antemsikurusudahmewek sikurusudahmewekpojok kurusudahmewekpojokyang udahmewekpojokyanggemuk mewekpojokyanggemuktega kalauanakanakantemsikurus anakanakantemsikurusudah anakantemsikurusudahmewek antemsikurusudahmewekpojok sikurusudahmewekpojokyang kurusudahmewekpojokyanggemuk udahmewekpojokyanggemuktega</t>
+  </si>
+  <si>
+    <t>si manusia gadungan hibur diri junjung kalah sol sol simanusia manusiagadungan gadunganhibur hiburdiri dirijunjung junjungkalah kalahsol solsol simanusiagadungan manusiagadunganhibur gadunganhiburdiri hiburdirijunjung dirijunjungkalah junjungkalahsol kalahsolsol simanusiagadunganhibur manusiagadunganhiburdiri gadunganhiburdirijunjung hiburdirijunjungkalah dirijunjungkalahsol junjungkalahsolsol simanusiagadunganhiburdiri manusiagadunganhiburdirijunjung gadunganhiburdirijunjungkalah hiburdirijunjungkalahsol dirijunjungkalahsolsol simanusiagadunganhiburdirijunjung manusiagadunganhiburdirijunjungkalah gadunganhiburdirijunjungkalahsol hiburdirijunjungkalahsolsol</t>
+  </si>
+  <si>
+    <t>komitmen nkri pancasila tak perlu ragu propaganda ubah sistem demokrasi sistem khilafah komitmennkri nkripancasila pancasilatak takperlu perluragu ragupropaganda propagandaubah ubahsistem sistemdemokrasi demokrasisistem sistemkhilafah komitmennkripancasila nkripancasilatak pancasilatakperlu takperluragu perluragupropaganda ragupropagandaubah propagandaubahsistem ubahsistemdemokrasi sistemdemokrasisistem demokrasisistemkhilafah komitmennkripancasilatak nkripancasilatakperlu pancasilatakperluragu takperluragupropaganda perluragupropagandaubah ragupropagandaubahsistem propagandaubahsistemdemokrasi ubahsistemdemokrasisistem sistemdemokrasisistemkhilafah komitmennkripancasilatakperlu nkripancasilatakperluragu pancasilatakperluragupropaganda takperluragupropagandaubah perluragupropagandaubahsistem ragupropagandaubahsistemdemokrasi propagandaubahsistemdemokrasisistem ubahsistemdemokrasisistemkhilafah komitmennkripancasilatakperluragu nkripancasilatakperluragupropaganda pancasilatakperluragupropagandaubah takperluragupropagandaubahsistem perluragupropagandaubahsistemdemokrasi ragupropagandaubahsistemdemokrasisistem propagandaubahsistemdemokrasisistemkhilafah</t>
+  </si>
+  <si>
+    <t>luar biasa demen kali sama pak dungu natural akhir keluar luarbiasa biasademen demenkali kalisama samapak pakdungu dungunatural naturalakhir akhirkeluar luarbiasademen biasademenkali demenkalisama kalisamapak samapakdungu pakdungunatural dungunaturalakhir naturalakhirkeluar luarbiasademenkali biasademenkalisama demenkalisamapak kalisamapakdungu samapakdungunatural pakdungunaturalakhir dungunaturalakhirkeluar luarbiasademenkalisama biasademenkalisamapak demenkalisamapakdungu kalisamapakdungunatural samapakdungunaturalakhir pakdungunaturalakhirkeluar luarbiasademenkalisamapak biasademenkalisamapakdungu demenkalisamapakdungunatural kalisamapakdungunaturalakhir samapakdungunaturalakhirkeluar</t>
+  </si>
+  <si>
+    <t>rasa posisi selalu posisi aman buat indonesia tak hormat asing rasaposisi posisiselalu selaluposisi posisiaman amanbuat buatindonesia indonesiatak takhormat hormatasing rasaposisiselalu posisiselaluposisi selaluposisiaman posisiamanbuat amanbuatindonesia buatindonesiatak indonesiatakhormat takhormatasing rasaposisiselaluposisi posisiselaluposisiaman selaluposisiamanbuat posisiamanbuatindonesia amanbuatindonesiatak buatindonesiatakhormat indonesiatakhormatasing rasaposisiselaluposisiaman posisiselaluposisiamanbuat selaluposisiamanbuatindonesia posisiamanbuatindonesiatak amanbuatindonesiatakhormat buatindonesiatakhormatasing rasaposisiselaluposisiamanbuat posisiselaluposisiamanbuatindonesia selaluposisiamanbuatindonesiatak posisiamanbuatindonesiatakhormat amanbuatindonesiatakhormatasing</t>
+  </si>
+  <si>
+    <t>pak saya hormat lebih baik kamu daftar jadi tni biar paham percaya berani paksaya sayahormat hormatlebih lebihbaik baikkamu kamudaftar daftarjadi jaditni tnibiar biarpaham pahampercaya percayaberani paksayahormat sayahormatlebih hormatlebihbaik lebihbaikkamu baikkamudaftar kamudaftarjadi daftarjaditni jaditnibiar tnibiarpaham biarpahampercaya pahampercayaberani paksayahormatlebih sayahormatlebihbaik hormatlebihbaikkamu lebihbaikkamudaftar baikkamudaftarjadi kamudaftarjaditni daftarjaditnibiar jaditnibiarpaham tnibiarpahampercaya biarpahampercayaberani paksayahormatlebihbaik sayahormatlebihbaikkamu hormatlebihbaikkamudaftar lebihbaikkamudaftarjadi baikkamudaftarjaditni kamudaftarjaditnibiar daftarjaditnibiarpaham jaditnibiarpahampercaya tnibiarpahampercayaberani paksayahormatlebihbaikkamu sayahormatlebihbaikkamudaftar hormatlebihbaikkamudaftarjadi lebihbaikkamudaftarjaditni baikkamudaftarjaditnibiar kamudaftarjaditnibiarpaham daftarjaditnibiarpahampercaya jaditnibiarpahampercayaberani</t>
+  </si>
+  <si>
+    <t>set up nya padahal kuat bat sayang punchline nya beri terlalu banyak rusa setup upnya nyapadahal padahalkuat kuatbat batsayang sayangpunchline punchlinenya nyaberi beriterlalu terlalubanyak banyakrusa setupnya upnyapadahal nyapadahalkuat padahalkuatbat kuatbatsayang batsayangpunchline sayangpunchlinenya punchlinenyaberi nyaberiterlalu beriterlalubanyak terlalubanyakrusa setupnyapadahal upnyapadahalkuat nyapadahalkuatbat padahalkuatbatsayang kuatbatsayangpunchline batsayangpunchlinenya sayangpunchlinenyaberi punchlinenyaberiterlalu nyaberiterlalubanyak beriterlalubanyakrusa setupnyapadahalkuat upnyapadahalkuatbat nyapadahalkuatbatsayang padahalkuatbatsayangpunchline kuatbatsayangpunchlinenya batsayangpunchlinenyaberi sayangpunchlinenyaberiterlalu punchlinenyaberiterlalubanyak nyaberiterlalubanyakrusa setupnyapadahalkuatbat upnyapadahalkuatbatsayang nyapadahalkuatbatsayangpunchline padahalkuatbatsayangpunchlinenya kuatbatsayangpunchlinenyaberi batsayangpunchlinenyaberiterlalu sayangpunchlinenyaberiterlalubanyak punchlinenyaberiterlalubanyakrusa</t>
+  </si>
+  <si>
+    <t>mau ngecapruk apa bodoh sudah jadi kadang ucap nya sua nyata maungecapruk ngecaprukapa apabodoh bodohsudah sudahjadi jadikadang kadangucap ucapnya nyasua suanyata maungecaprukapa ngecaprukapabodoh apabodohsudah bodohsudahjadi sudahjadikadang jadikadangucap kadangucapnya ucapnyasua nyasuanyata maungecaprukapabodoh ngecaprukapabodohsudah apabodohsudahjadi bodohsudahjadikadang sudahjadikadangucap jadikadangucapnya kadangucapnyasua ucapnyasuanyata maungecaprukapabodohsudah ngecaprukapabodohsudahjadi apabodohsudahjadikadang bodohsudahjadikadangucap sudahjadikadangucapnya jadikadangucapnyasua kadangucapnyasuanyata maungecaprukapabodohsudahjadi ngecaprukapabodohsudahjadikadang apabodohsudahjadikadangucap bodohsudahjadikadangucapnya sudahjadikadangucapnyasua jadikadangucapnyasuanyata</t>
+  </si>
+  <si>
+    <t>turut dalam tahan aman boleh anggap akan perang masa depan turutdalam dalamtahan tahanaman amanboleh bolehanggap anggapakan akanperang perangmasa masadepan turutdalamtahan dalamtahanaman tahanamanboleh amanbolehanggap bolehanggapakan anggapakanperang akanperangmasa perangmasadepan turutdalamtahanaman dalamtahanamanboleh tahanamanbolehanggap amanbolehanggapakan bolehanggapakanperang anggapakanperangmasa akanperangmasadepan turutdalamtahanamanboleh dalamtahanamanbolehanggap tahanamanbolehanggapakan amanbolehanggapakanperang bolehanggapakanperangmasa anggapakanperangmasadepan turutdalamtahanamanbolehanggap dalamtahanamanbolehanggapakan tahanamanbolehanggapakanperang amanbolehanggapakanperangmasa bolehanggapakanperangmasadepan</t>
+  </si>
+  <si>
+    <t>wah salah nih mas kasih tahu litbang bela apa apa admin cer wahsalah salahnih nihmas maskasih kasihtahu tahulitbang litbangbela belaapa apaapa apaadmin admincer wahsalahnih salahnihmas nihmaskasih maskasihtahu kasihtahulitbang tahulitbangbela litbangbelaapa belaapaapa apaapaadmin apaadmincer wahsalahnihmas salahnihmaskasih nihmaskasihtahu maskasihtahulitbang kasihtahulitbangbela tahulitbangbelaapa litbangbelaapaapa belaapaapaadmin apaapaadmincer wahsalahnihmaskasih salahnihmaskasihtahu nihmaskasihtahulitbang maskasihtahulitbangbela kasihtahulitbangbelaapa tahulitbangbelaapaapa litbangbelaapaapaadmin belaapaapaadmincer wahsalahnihmaskasihtahu salahnihmaskasihtahulitbang nihmaskasihtahulitbangbela maskasihtahulitbangbelaapa kasihtahulitbangbelaapaapa tahulitbangbelaapaapaadmin litbangbelaapaapaadmincer</t>
+  </si>
+  <si>
+    <t>sumpah tahan pancasila titik darah akhir bohong kecewa bapak luka dikit jangan udah pakai sarung t sumpahtahan tahanpancasila pancasilatitik titikdarah darahakhir akhirbohong bohongkecewa kecewabapak bapakluka lukadikit dikitjangan janganudah udahpakai pakaisarung sarungt sumpahtahanpancasila tahanpancasilatitik pancasilatitikdarah titikdarahakhir darahakhirbohong akhirbohongkecewa bohongkecewabapak kecewabapakluka bapaklukadikit lukadikitjangan dikitjanganudah janganudahpakai udahpakaisarung pakaisarungt sumpahtahanpancasilatitik tahanpancasilatitikdarah pancasilatitikdarahakhir titikdarahakhirbohong darahakhirbohongkecewa akhirbohongkecewabapak bohongkecewabapakluka kecewabapaklukadikit bapaklukadikitjangan lukadikitjanganudah dikitjanganudahpakai janganudahpakaisarung udahpakaisarungt sumpahtahanpancasilatitikdarah tahanpancasilatitikdarahakhir pancasilatitikdarahakhirbohong titikdarahakhirbohongkecewa darahakhirbohongkecewabapak akhirbohongkecewabapakluka bohongkecewabapaklukadikit kecewabapaklukadikitjangan bapaklukadikitjanganudah lukadikitjanganudahpakai dikitjanganudahpakaisarung janganudahpakaisarungt sumpahtahanpancasilatitikdarahakhir tahanpancasilatitikdarahakhirbohong pancasilatitikdarahakhirbohongkecewa titikdarahakhirbohongkecewabapak darahakhirbohongkecewabapakluka akhirbohongkecewabapaklukadikit bohongkecewabapaklukadikitjangan kecewabapaklukadikitjanganudah bapaklukadikitjanganudahpakai lukadikitjanganudahpakaisarung dikitjanganudahpakaisarungt</t>
+  </si>
+  <si>
+    <t>latar belakang latarbelakang karya intel amerika defense intelligence agency karyaintel intelamerika amerikadefense defenseintelligence intelligenceagency karyaintelamerika intelamerikadefense amerikadefenseintelligence defenseintelligenceagency karyaintelamerikadefense intelamerikadefenseintelligence amerikadefenseintelligenceagency karyaintelamerikadefenseintelligence intelamerikadefenseintelligenceagency karyaintelamerikadefenseintelligenceagency soal serang asing p soalserang serangasing asingp soalserangasing serangasingp soalserangasingp</t>
+  </si>
+  <si>
+    <t>bapak info sesat petinggi tni woi om wowo lupa bukankah kamu lebih parah dibohongin sam bapakinfo infosesat sesatpetinggi petinggitni tniwoi woiom omwowo wowolupa lupabukankah bukankahkamu kamulebih lebihparah parahdibohongin dibohonginsam bapakinfosesat infosesatpetinggi sesatpetinggitni petinggitniwoi tniwoiom woiomwowo omwowolupa wowolupabukankah lupabukankahkamu bukankahkamulebih kamulebihparah lebihparahdibohongin parahdibohonginsam bapakinfosesatpetinggi infosesatpetinggitni sesatpetinggitniwoi petinggitniwoiom tniwoiomwowo woiomwowolupa omwowolupabukankah wowolupabukankahkamu lupabukankahkamulebih bukankahkamulebihparah kamulebihparahdibohongin lebihparahdibohonginsam bapakinfosesatpetinggitni infosesatpetinggitniwoi sesatpetinggitniwoiom petinggitniwoiomwowo tniwoiomwowolupa woiomwowolupabukankah omwowolupabukankahkamu wowolupabukankahkamulebih lupabukankahkamulebihparah bukankahkamulebihparahdibohongin kamulebihparahdibohonginsam bapakinfosesatpetinggitniwoi infosesatpetinggitniwoiom sesatpetinggitniwoiomwowo petinggitniwoiomwowolupa tniwoiomwowolupabukankah woiomwowolupabukankahkamu omwowolupabukankahkamulebih wowolupabukankahkamulebihparah lupabukankahkamulebihparahdibohongin bukankahkamulebihparahdibohonginsam</t>
+  </si>
+  <si>
+    <t>malu kompas kamu salah kutip bilang gdp apbn ralat https t co parepqmlyn malukompas kompaskamu kamusalah salahkutip kutipbilang bilanggdp gdpapbn apbnralat ralathttps httpst tco coparepqmlyn malukompaskamu kompaskamusalah kamusalahkutip salahkutipbilang kutipbilanggdp bilanggdpapbn gdpapbnralat apbnralathttps ralathttpst httpstco tcoparepqmlyn malukompaskamusalah kompaskamusalahkutip kamusalahkutipbilang salahkutipbilanggdp kutipbilanggdpapbn bilanggdpapbnralat gdpapbnralathttps apbnralathttpst ralathttpstco httpstcoparepqmlyn malukompaskamusalahkutip kompaskamusalahkutipbilang kamusalahkutipbilanggdp salahkutipbilanggdpapbn kutipbilanggdpapbnralat bilanggdpapbnralathttps gdpapbnralathttpst apbnralathttpstco ralathttpstcoparepqmlyn malukompaskamusalahkutipbilang kompaskamusalahkutipbilanggdp kamusalahkutipbilanggdpapbn salahkutipbilanggdpapbnralat kutipbilanggdpapbnralathttps bilanggdpapbnralathttpst gdpapbnralathttpstco apbnralathttpstcoparepqmlyn</t>
+  </si>
+  <si>
+    <t>kena tuduh pro-khilafah milik argumen menep mentah olah bela khilafah tak masuk akal kenatuduh tuduhpro-khilafah pro-khilafahmilik milikargumen argumenmenep menepmentah mentaholah olahbela belakhilafah khilafahtak takmasuk masukakal kenatuduhpro-khilafah tuduhpro-khilafahmilik pro-khilafahmilikargumen milikargumenmenep argumenmenepmentah menepmentaholah mentaholahbela olahbelakhilafah belakhilafahtak khilafahtakmasuk takmasukakal kenatuduhpro-khilafahmilik tuduhpro-khilafahmilikargumen pro-khilafahmilikargumenmenep milikargumenmenepmentah argumenmenepmentaholah menepmentaholahbela mentaholahbelakhilafah olahbelakhilafahtak belakhilafahtakmasuk khilafahtakmasukakal kenatuduhpro-khilafahmilikargumen tuduhpro-khilafahmilikargumenmenep pro-khilafahmilikargumenmenepmentah milikargumenmenepmentaholah argumenmenepmentaholahbela menepmentaholahbelakhilafah mentaholahbelakhilafahtak olahbelakhilafahtakmasuk belakhilafahtakmasukakal kenatuduhpro-khilafahmilikargumenmenep tuduhpro-khilafahmilikargumenmenepmentah pro-khilafahmilikargumenmenepmentaholah milikargumenmenepmentaholahbela argumenmenepmentaholahbelakhilafah menepmentaholahbelakhilafahtak mentaholahbelakhilafahtakmasuk olahbelakhilafahtakmasukakal</t>
+  </si>
+  <si>
+    <t>strategi upaya modernisasi alutsista tni material khusus polri tahan lemah kita punya alutsista canggih strategiupaya upayamodernisasi modernisasialutsista alutsistatni tnimaterial materialkhusus khususpolri polritahan tahanlemah lemahkita kitapunya punyaalutsista alutsistacanggih strategiupayamodernisasi upayamodernisasialutsista modernisasialutsistatni alutsistatnimaterial tnimaterialkhusus materialkhususpolri khususpolritahan polritahanlemah tahanlemahkita lemahkitapunya kitapunyaalutsista punyaalutsistacanggih strategiupayamodernisasialutsista upayamodernisasialutsistatni modernisasialutsistatnimaterial alutsistatnimaterialkhusus tnimaterialkhususpolri materialkhususpolritahan khususpolritahanlemah polritahanlemahkita tahanlemahkitapunya lemahkitapunyaalutsista kitapunyaalutsistacanggih strategiupayamodernisasialutsistatni upayamodernisasialutsistatnimaterial modernisasialutsistatnimaterialkhusus alutsistatnimaterialkhususpolri tnimaterialkhususpolritahan materialkhususpolritahanlemah khususpolritahanlemahkita polritahanlemahkitapunya tahanlemahkitapunyaalutsista lemahkitapunyaalutsistacanggih strategiupayamodernisasialutsistatnimaterial upayamodernisasialutsistatnimaterialkhusus modernisasialutsistatnimaterialkhususpolri alutsistatnimaterialkhususpolritahan tnimaterialkhususpolritahanlemah materialkhususpolritahanlemahkita khususpolritahanlemahkitapunya polritahanlemahkitapunyaalutsista tahanlemahkitapunyaalutsistacanggih</t>
+  </si>
+  <si>
+    <t>calon presiden nilai tak keluar narasi besar sendiri tak tampil istimewa nilai buruk calonpresiden presidennilai nilaitak takkeluar keluarnarasi narasibesar besarsendiri sendiritak taktampil tampilistimewa istimewanilai nilaiburuk calonpresidennilai presidennilaitak nilaitakkeluar takkeluarnarasi keluarnarasibesar narasibesarsendiri besarsendiritak sendiritaktampil taktampilistimewa tampilistimewanilai istimewanilaiburuk calonpresidennilaitak presidennilaitakkeluar nilaitakkeluarnarasi takkeluarnarasibesar keluarnarasibesarsendiri narasibesarsendiritak besarsendiritaktampil sendiritaktampilistimewa taktampilistimewanilai tampilistimewanilaiburuk calonpresidennilaitakkeluar presidennilaitakkeluarnarasi nilaitakkeluarnarasibesar takkeluarnarasibesarsendiri keluarnarasibesarsendiritak narasibesarsendiritaktampil besarsendiritaktampilistimewa sendiritaktampilistimewanilai taktampilistimewanilaiburuk calonpresidennilaitakkeluarnarasi presidennilaitakkeluarnarasibesar nilaitakkeluarnarasibesarsendiri takkeluarnarasibesarsendiritak keluarnarasibesarsendiritaktampil narasibesarsendiritaktampilistimewa besarsendiritaktampilistimewanilai sendiritaktampilistimewanilaiburuk</t>
+  </si>
+  <si>
+    <t>beda kelas bapak true warrior ksatria sejati perlu malu orang sudah malu bedakelas kelasbapak bapaktrue truewarrior warriorksatria ksatriasejati sejatiperlu perlumalu maluorang orangsudah sudahmalu bedakelasbapak kelasbapaktrue bapaktruewarrior truewarriorksatria warriorksatriasejati ksatriasejatiperlu sejatiperlumalu perlumaluorang maluorangsudah orangsudahmalu bedakelasbapaktrue kelasbapaktruewarrior bapaktruewarriorksatria truewarriorksatriasejati warriorksatriasejatiperlu ksatriasejatiperlumalu sejatiperlumaluorang perlumaluorangsudah maluorangsudahmalu bedakelasbapaktruewarrior kelasbapaktruewarriorksatria bapaktruewarriorksatriasejati truewarriorksatriasejatiperlu warriorksatriasejatiperlumalu ksatriasejatiperlumaluorang sejatiperlumaluorangsudah perlumaluorangsudahmalu bedakelasbapaktruewarriorksatria kelasbapaktruewarriorksatriasejati bapaktruewarriorksatriasejatiperlu truewarriorksatriasejatiperlumalu warriorksatriasejatiperlumaluorang ksatriasejatiperlumaluorangsudah sejatiperlumaluorangsudahmalu</t>
+  </si>
+  <si>
+    <t>mau kalah sama gurita dukun piala dunia kucing milih fokus nonton tanda optimisindonesiamaju maukalah kalahsama samagurita guritadukun dukunpiala pialadunia duniakucing kucingmilih milihfokus fokusnonton nontontanda tandaoptimisindonesiamaju maukalahsama kalahsamagurita samaguritadukun guritadukunpiala dukunpialadunia pialaduniakucing duniakucingmilih kucingmilihfokus milihfokusnonton fokusnontontanda nontontandaoptimisindonesiamaju maukalahsamagurita kalahsamaguritadukun samaguritadukunpiala guritadukunpialadunia dukunpialaduniakucing pialaduniakucingmilih duniakucingmilihfokus kucingmilihfokusnonton milihfokusnontontanda fokusnontontandaoptimisindonesiamaju maukalahsamaguritadukun kalahsamaguritadukunpiala samaguritadukunpialadunia guritadukunpialaduniakucing dukunpialaduniakucingmilih pialaduniakucingmilihfokus duniakucingmilihfokusnonton kucingmilihfokusnontontanda milihfokusnontontandaoptimisindonesiamaju maukalahsamaguritadukunpiala kalahsamaguritadukunpialadunia samaguritadukunpialaduniakucing guritadukunpialaduniakucingmilih dukunpialaduniakucingmilihfokus pialaduniakucingmilihfokusnonton duniakucingmilihfokusnontontanda kucingmilihfokusnontontandaoptimisindonesiamaju</t>
+  </si>
+  <si>
+    <t>selalu ulang soal kaya ambil asing masa mertua kali sekarang rok mahakam freeport udah jadi milik indonesia selaluulang ulangsoal soalkaya kayaambil ambilasing asingmasa masamertua mertuakali kalisekarang sekarangrok rokmahakam mahakamfreeport freeportudah udahjadi jadimilik milikindonesia selaluulangsoal ulangsoalkaya soalkayaambil kayaambilasing ambilasingmasa asingmasamertua masamertuakali mertuakalisekarang kalisekarangrok sekarangrokmahakam rokmahakamfreeport mahakamfreeportudah freeportudahjadi udahjadimilik jadimilikindonesia selaluulangsoalkaya ulangsoalkayaambil soalkayaambilasing kayaambilasingmasa ambilasingmasamertua asingmasamertuakali masamertuakalisekarang mertuakalisekarangrok kalisekarangrokmahakam sekarangrokmahakamfreeport rokmahakamfreeportudah mahakamfreeportudahjadi freeportudahjadimilik udahjadimilikindonesia selaluulangsoalkayaambil ulangsoalkayaambilasing soalkayaambilasingmasa kayaambilasingmasamertua ambilasingmasamertuakali asingmasamertuakalisekarang masamertuakalisekarangrok mertuakalisekarangrokmahakam kalisekarangrokmahakamfreeport sekarangrokmahakamfreeportudah rokmahakamfreeportudahjadi mahakamfreeportudahjadimilik freeportudahjadimilikindonesia selaluulangsoalkayaambilasing ulangsoalkayaambilasingmasa soalkayaambilasingmasamertua kayaambilasingmasamertuakali ambilasingmasamertuakalisekarang asingmasamertuakalisekarangrok masamertuakalisekarangrokmahakam mertuakalisekarangrokmahakamfreeport kalisekarangrokmahakamfreeportudah sekarangrokmahakamfreeportudahjadi rokmahakamfreeportudahjadimilik mahakamfreeportudahjadimilikindonesia</t>
+  </si>
+  <si>
+    <t>lawan lihat dunia luar jahat pretensi kuasa padahal hidup era kolaborasi kira mindset keliru lawanlihat lihatdunia dunialuar luarjahat jahatpretensi pretensikuasa kuasapadahal padahalhidup hidupera erakolaborasi kolaborasikira kiramindset mindsetkeliru lawanlihatdunia lihatdunialuar dunialuarjahat luarjahatpretensi jahatpretensikuasa pretensikuasapadahal kuasapadahalhidup padahalhidupera hiduperakolaborasi erakolaborasikira kolaborasikiramindset kiramindsetkeliru lawanlihatdunialuar lihatdunialuarjahat dunialuarjahatpretensi luarjahatpretensikuasa jahatpretensikuasapadahal pretensikuasapadahalhidup kuasapadahalhidupera padahalhiduperakolaborasi hiduperakolaborasikira erakolaborasikiramindset kolaborasikiramindsetkeliru lawanlihatdunialuarjahat lihatdunialuarjahatpretensi dunialuarjahatpretensikuasa luarjahatpretensikuasapadahal jahatpretensikuasapadahalhidup pretensikuasapadahalhidupera kuasapadahalhiduperakolaborasi padahalhiduperakolaborasikira hiduperakolaborasikiramindset erakolaborasikiramindsetkeliru lawanlihatdunialuarjahatpretensi lihatdunialuarjahatpretensikuasa dunialuarjahatpretensikuasapadahal luarjahatpretensikuasapadahalhidup jahatpretensikuasapadahalhidupera pretensikuasapadahalhiduperakolaborasi kuasapadahalhiduperakolaborasikira padahalhiduperakolaborasikiramindset hiduperakolaborasikiramindsetkeliru</t>
+  </si>
+  <si>
+    <t>awal gila antek antek dukung mulai pilpres mana hasil oleh suara sangat sedikit awalgila gilaantek antekantek antekdukung dukungmulai mulaipilpres pilpresmana manahasil hasiloleh olehsuara suarasangat sangatsedikit awalgilaantek gilaantekantek antekantekdukung antekdukungmulai dukungmulaipilpres mulaipilpresmana pilpresmanahasil manahasiloleh hasilolehsuara olehsuarasangat suarasangatsedikit awalgilaantekantek gilaantekantekdukung antekantekdukungmulai antekdukungmulaipilpres dukungmulaipilpresmana mulaipilpresmanahasil pilpresmanahasiloleh manahasilolehsuara hasilolehsuarasangat olehsuarasangatsedikit awalgilaantekantekdukung gilaantekantekdukungmulai antekantekdukungmulaipilpres antekdukungmulaipilpresmana dukungmulaipilpresmanahasil mulaipilpresmanahasiloleh pilpresmanahasilolehsuara manahasilolehsuarasangat hasilolehsuarasangatsedikit awalgilaantekantekdukungmulai gilaantekantekdukungmulaipilpres antekantekdukungmulaipilpresmana antekdukungmulaipilpresmanahasil dukungmulaipilpresmanahasiloleh mulaipilpresmanahasilolehsuara pilpresmanahasilolehsuarasangat manahasilolehsuarasangatsedikit</t>
+  </si>
+  <si>
+    <t>kata anggar tahan indonesia di angka 0 8 persen gdp pun banding singapura kataanggar anggartahan tahanindonesia indonesiadi diangka angka0 08 8persen persengdp gdppun punbanding bandingsingapura kataanggartahan anggartahanindonesia tahanindonesiadi indonesiadiangka diangka0 angka08 08persen 8persengdp persengdppun gdppunbanding punbandingsingapura kataanggartahanindonesia anggartahanindonesiadi tahanindonesiadiangka indonesiadiangka0 diangka08 angka08persen 08persengdp 8persengdppun persengdppunbanding gdppunbandingsingapura kataanggartahanindonesiadi anggartahanindonesiadiangka tahanindonesiadiangka0 indonesiadiangka08 diangka08persen angka08persengdp 08persengdppun 8persengdppunbanding persengdppunbandingsingapura kataanggartahanindonesiadiangka anggartahanindonesiadiangka0 tahanindonesiadiangka08 indonesiadiangka08persen diangka08persengdp angka08persengdppun 08persengdppunbanding 8persengdppunbandingsingapura</t>
+  </si>
+  <si>
+    <t>bicara entry gerbang safety strategic point jokowi jawab investasi asing nyambung prabowobentengnkri bicaraentry entrygerbang gerbangsafety safetystrategic strategicpoint pointjokowi jokowijawab jawabinvestasi investasiasing asingnyambung nyambungprabowobentengnkri bicaraentrygerbang entrygerbangsafety gerbangsafetystrategic safetystrategicpoint strategicpointjokowi pointjokowijawab jokowijawabinvestasi jawabinvestasiasing investasiasingnyambung asingnyambungprabowobentengnkri bicaraentrygerbangsafety entrygerbangsafetystrategic gerbangsafetystrategicpoint safetystrategicpointjokowi strategicpointjokowijawab pointjokowijawabinvestasi jokowijawabinvestasiasing jawabinvestasiasingnyambung investasiasingnyambungprabowobentengnkri bicaraentrygerbangsafetystrategic entrygerbangsafetystrategicpoint gerbangsafetystrategicpointjokowi safetystrategicpointjokowijawab strategicpointjokowijawabinvestasi pointjokowijawabinvestasiasing jokowijawabinvestasiasingnyambung jawabinvestasiasingnyambungprabowobentengnkri bicaraentrygerbangsafetystrategicpoint entrygerbangsafetystrategicpointjokowi gerbangsafetystrategicpointjokowijawab safetystrategicpointjokowijawabinvestasi strategicpointjokowijawabinvestasiasing pointjokowijawabinvestasiasingnyambung jokowijawabinvestasiasingnyambungprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>sandi mas anis sini traktir jadi gubernur tak lama sandi izin mas mau nraktir pak sandimas masanis anissini sinitraktir traktirjadi jadigubernur gubernurtak taklama lamasandi sandiizin izinmas masmau maunraktir nraktirpak sandimasanis masanissini anissinitraktir sinitraktirjadi traktirjadigubernur jadigubernurtak gubernurtaklama taklamasandi lamasandiizin sandiizinmas izinmasmau masmaunraktir maunraktirpak sandimasanissini masanissinitraktir anissinitraktirjadi sinitraktirjadigubernur traktirjadigubernurtak jadigubernurtaklama gubernurtaklamasandi taklamasandiizin lamasandiizinmas sandiizinmasmau izinmasmaunraktir masmaunraktirpak sandimasanissinitraktir masanissinitraktirjadi anissinitraktirjadigubernur sinitraktirjadigubernurtak traktirjadigubernurtaklama jadigubernurtaklamasandi gubernurtaklamasandiizin taklamasandiizinmas lamasandiizinmasmau sandiizinmasmaunraktir izinmasmaunraktirpak sandimasanissinitraktirjadi masanissinitraktirjadigubernur anissinitraktirjadigubernurtak sinitraktirjadigubernurtaklama traktirjadigubernurtaklamasandi jadigubernurtaklamasandiizin gubernurtaklamasandiizinmas taklamasandiizinmasmau lamasandiizinmasmaunraktir sandiizinmasmaunraktirpak</t>
+  </si>
+  <si>
+    <t>acu adalah mertua bukti keluarga mertua di baris acuadalah adalahmertua mertuabukti buktikeluarga keluargamertua mertuadi dibaris acuadalahmertua adalahmertuabukti mertuabuktikeluarga buktikeluargamertua keluargamertuadi mertuadibaris acuadalahmertuabukti adalahmertuabuktikeluarga mertuabuktikeluargamertua buktikeluargamertuadi keluargamertuadibaris acuadalahmertuabuktikeluarga adalahmertuabuktikeluargamertua mertuabuktikeluargamertuadi buktikeluargamertuadibaris acuadalahmertuabuktikeluargamertua adalahmertuabuktikeluargamertuadi mertuabuktikeluargamertuadibaris</t>
+  </si>
+  <si>
+    <t>dear pak taun bapak jabat akan awas kritisi omel bapak dearpak paktaun taunbapak bapakjabat jabatakan akanawas awaskritisi kritisiomel omelbapak dearpaktaun paktaunbapak taunbapakjabat bapakjabatakan jabatakanawas akanawaskritisi awaskritisiomel kritisiomelbapak dearpaktaunbapak paktaunbapakjabat taunbapakjabatakan bapakjabatakanawas jabatakanawaskritisi akanawaskritisiomel awaskritisiomelbapak dearpaktaunbapakjabat paktaunbapakjabatakan taunbapakjabatakanawas bapakjabatakanawaskritisi jabatakanawaskritisiomel akanawaskritisiomelbapak dearpaktaunbapakjabatakan paktaunbapakjabatakanawas taunbapakjabatakanawaskritisi bapakjabatakanawaskritisiomel jabatakanawaskritisiomelbapak</t>
+  </si>
+  <si>
+    <t>pada nyemplung kolam malu lihat bos bom bardir padanyemplung nyemplungkolam kolammalu malulihat lihatbos bosbom bombardir padanyemplungkolam nyemplungkolammalu kolammalulihat malulihatbos lihatbosbom bosbombardir padanyemplungkolammalu nyemplungkolammalulihat kolammalulihatbos malulihatbosbom lihatbosbombardir padanyemplungkolammalulihat nyemplungkolammalulihatbos kolammalulihatbosbom malulihatbosbombardir padanyemplungkolammalulihatbos nyemplungkolammalulihatbosbom kolammalulihatbosbombardir</t>
+  </si>
+  <si>
+    <t>sepakat sama om trik basi minggu kelar jadi mau periode jual dil laku sepakatsama samaom omtrik trikbasi basiminggu minggukelar kelarjadi jadimau mauperiode periodejual jualdil dillaku sepakatsamaom samaomtrik omtrikbasi trikbasiminggu basiminggukelar minggukelarjadi kelarjadimau jadimauperiode mauperiodejual periodejualdil jualdillaku sepakatsamaomtrik samaomtrikbasi omtrikbasiminggu trikbasiminggukelar basiminggukelarjadi minggukelarjadimau kelarjadimauperiode jadimauperiodejual mauperiodejualdil periodejualdillaku sepakatsamaomtrikbasi samaomtrikbasiminggu omtrikbasiminggukelar trikbasiminggukelarjadi basiminggukelarjadimau minggukelarjadimauperiode kelarjadimauperiodejual jadimauperiodejualdil mauperiodejualdillaku sepakatsamaomtrikbasiminggu samaomtrikbasiminggukelar omtrikbasiminggukelarjadi trikbasiminggukelarjadimau basiminggukelarjadimauperiode minggukelarjadimauperiodejual kelarjadimauperiodejualdil jadimauperiodejualdillaku</t>
+  </si>
+  <si>
+    <t>rizal ramli pak mau revisi hehe kubu jokowi ada tanggpan rr sebut hehe seram undang sebut dipake disalahgunakan rizalramli ramlipak pakmau maurevisi revisihehe hehekubu kubujokowi jokowiada adatanggpan tanggpanrr rrsebut sebuthehe heheseram seramundang undangsebut sebutdipake dipakedisalahgunakan rizalramlipak ramlipakmau pakmaurevisi maurevisihehe revisihehekubu hehekubujokowi kubujokowiada jokowiadatanggpan adatanggpanrr tanggpanrrsebut rrsebuthehe sebutheheseram heheseramundang seramundangsebut undangsebutdipake sebutdipakedisalahgunakan rizalramlipakmau ramlipakmaurevisi pakmaurevisihehe maurevisihehekubu revisihehekubujokowi hehekubujokowiada kubujokowiadatanggpan jokowiadatanggpanrr adatanggpanrrsebut tanggpanrrsebuthehe rrsebutheheseram sebutheheseramundang heheseramundangsebut seramundangsebutdipake undangsebutdipakedisalahgunakan rizalramlipakmaurevisi ramlipakmaurevisihehe pakmaurevisihehekubu maurevisihehekubujokowi revisihehekubujokowiada hehekubujokowiadatanggpan kubujokowiadatanggpanrr jokowiadatanggpanrrsebut adatanggpanrrsebuthehe tanggpanrrsebutheheseram rrsebutheheseramundang sebutheheseramundangsebut heheseramundangsebutdipake seramundangsebutdipakedisalahgunakan rizalramlipakmaurevisihehe ramlipakmaurevisihehekubu pakmaurevisihehekubujokowi maurevisihehekubujokowiada revisihehekubujokowiadatanggpan hehekubujokowiadatanggpanrr kubujokowiadatanggpanrrsebut jokowiadatanggpanrrsebuthehe adatanggpanrrsebutheheseram tanggpanrrsebutheheseramundang rrsebutheheseramundangsebut sebutheheseramundangsebutdipake heheseramundangsebutdipakedisalahgunakan</t>
+  </si>
+  <si>
+    <t>perintah mau keluar paris tuju kata mikirin masa depan indonesia mau keluar pakta sama perintahmau maukeluar keluarparis paristuju tujukata katamikirin mikirinmasa masadepan depanindonesia indonesiamau maukeluar keluarpakta paktasama perintahmaukeluar maukeluarparis keluarparistuju paristujukata tujukatamikirin katamikirinmasa mikirinmasadepan masadepanindonesia depanindonesiamau indonesiamaukeluar maukeluarpakta keluarpaktasama perintahmaukeluarparis maukeluarparistuju keluarparistujukata paristujukatamikirin tujukatamikirinmasa katamikirinmasadepan mikirinmasadepanindonesia masadepanindonesiamau depanindonesiamaukeluar indonesiamaukeluarpakta maukeluarpaktasama perintahmaukeluarparistuju maukeluarparistujukata keluarparistujukatamikirin paristujukatamikirinmasa tujukatamikirinmasadepan katamikirinmasadepanindonesia mikirinmasadepanindonesiamau masadepanindonesiamaukeluar depanindonesiamaukeluarpakta indonesiamaukeluarpaktasama perintahmaukeluarparistujukata maukeluarparistujukatamikirin keluarparistujukatamikirinmasa paristujukatamikirinmasadepan tujukatamikirinmasadepanindonesia katamikirinmasadepanindonesiamau mikirinmasadepanindonesiamaukeluar masadepanindonesiamaukeluarpakta depanindonesiamaukeluarpaktasama</t>
+  </si>
+  <si>
+    <t>adalah agum gumelar dengan lantang wajah bicara jelek hadap sby nyata hadap taipan manis adalahagum agumgumelar gumelardengan denganlantang lantangwajah wajahbicara bicarajelek jelekhadap hadapsby sbynyata nyatahadap hadaptaipan taipanmanis adalahagumgumelar agumgumelardengan gumelardenganlantang denganlantangwajah lantangwajahbicara wajahbicarajelek bicarajelekhadap jelekhadapsby hadapsbynyata sbynyatahadap nyatahadaptaipan hadaptaipanmanis adalahagumgumelardengan agumgumelardenganlantang gumelardenganlantangwajah denganlantangwajahbicara lantangwajahbicarajelek wajahbicarajelekhadap bicarajelekhadapsby jelekhadapsbynyata hadapsbynyatahadap sbynyatahadaptaipan nyatahadaptaipanmanis adalahagumgumelardenganlantang agumgumelardenganlantangwajah gumelardenganlantangwajahbicara denganlantangwajahbicarajelek lantangwajahbicarajelekhadap wajahbicarajelekhadapsby bicarajelekhadapsbynyata jelekhadapsbynyatahadap hadapsbynyatahadaptaipan sbynyatahadaptaipanmanis adalahagumgumelardenganlantangwajah agumgumelardenganlantangwajahbicara gumelardenganlantangwajahbicarajelek denganlantangwajahbicarajelekhadap lantangwajahbicarajelekhadapsby wajahbicarajelekhadapsbynyata bicarajelekhadapsbynyatahadap jelekhadapsbynyatahadaptaipan hadapsbynyatahadaptaipanmanis</t>
+  </si>
+  <si>
+    <t>kalau pak jadi presiden hidup mau ketawa jangan dimarahin https t co b7dymmekfs kalaupak pakjadi jadipresiden presidenhidup hidupmau mauketawa ketawajangan jangandimarahin dimarahinhttps httpst tco cob7dymmekfs kalaupakjadi pakjadipresiden jadipresidenhidup presidenhidupmau hidupmauketawa mauketawajangan ketawajangandimarahin jangandimarahinhttps dimarahinhttpst httpstco tcob7dymmekfs kalaupakjadipresiden pakjadipresidenhidup jadipresidenhidupmau presidenhidupmauketawa hidupmauketawajangan mauketawajangandimarahin ketawajangandimarahinhttps jangandimarahinhttpst dimarahinhttpstco httpstcob7dymmekfs kalaupakjadipresidenhidup pakjadipresidenhidupmau jadipresidenhidupmauketawa presidenhidupmauketawajangan hidupmauketawajangandimarahin mauketawajangandimarahinhttps ketawajangandimarahinhttpst jangandimarahinhttpstco dimarahinhttpstcob7dymmekfs kalaupakjadipresidenhidupmau pakjadipresidenhidupmauketawa jadipresidenhidupmauketawajangan presidenhidupmauketawajangandimarahin hidupmauketawajangandimarahinhttps mauketawajangandimarahinhttpst ketawajangandimarahinhttpstco jangandimarahinhttpstcob7dymmekfs</t>
+  </si>
+  <si>
+    <t>deh makan dulu siap debat awas pulpen lupa dehmakan makandulu dulusiap siapdebat debatawas awaspulpen pulpenlupa dehmakandulu makandulusiap dulusiapdebat siapdebatawas debatawaspulpen awaspulpenlupa dehmakandulusiap makandulusiapdebat dulusiapdebatawas siapdebatawaspulpen debatawaspulpenlupa dehmakandulusiapdebat makandulusiapdebatawas dulusiapdebatawaspulpen siapdebatawaspulpenlupa dehmakandulusiapdebatawas makandulusiapdebatawaspulpen dulusiapdebatawaspulpenlupa</t>
+  </si>
+  <si>
+    <t>kamu bukan tni kamu pecat sandang gelar purnawirawan kamu pantas kamubukan bukantni tnikamu kamupecat pecatsandang sandanggelar gelarpurnawirawan purnawirawankamu kamupantas kamubukantni bukantnikamu tnikamupecat kamupecatsandang pecatsandanggelar sandanggelarpurnawirawan gelarpurnawirawankamu purnawirawankamupantas kamubukantnikamu bukantnikamupecat tnikamupecatsandang kamupecatsandanggelar pecatsandanggelarpurnawirawan sandanggelarpurnawirawankamu gelarpurnawirawankamupantas kamubukantnikamupecat bukantnikamupecatsandang tnikamupecatsandanggelar kamupecatsandanggelarpurnawirawan pecatsandanggelarpurnawirawankamu sandanggelarpurnawirawankamupantas kamubukantnikamupecatsandang bukantnikamupecatsandanggelar tnikamupecatsandanggelarpurnawirawan kamupecatsandanggelarpurnawirawankamu pecatsandanggelarpurnawirawankamupantas</t>
+  </si>
+  <si>
+    <t>nyata pak debat empat ragu tni 01dilanjutkan jokowilagi nyatapak pakdebat debatempat empatragu ragutni tni01dilanjutkan 01dilanjutkanjokowilagi nyatapakdebat pakdebatempat debatempatragu empatragutni ragutni01dilanjutkan tni01dilanjutkanjokowilagi nyatapakdebatempat pakdebatempatragu debatempatragutni empatragutni01dilanjutkan ragutni01dilanjutkanjokowilagi nyatapakdebatempatragu pakdebatempatragutni debatempatragutni01dilanjutkan empatragutni01dilanjutkanjokowilagi nyatapakdebatempatragutni pakdebatempatragutni01dilanjutkan debatempatragutni01dilanjutkanjokowilagi</t>
+  </si>
+  <si>
+    <t>makanya kamu mikir belum tuntas belum prioritas jangan sebut kebo makanyakamu kamumikir mikirbelum belumtuntas tuntasbelum belumprioritas prioritasjangan jangansebut sebutkebo makanyakamumikir kamumikirbelum mikirbelumtuntas belumtuntasbelum tuntasbelumprioritas belumprioritasjangan prioritasjangansebut jangansebutkebo makanyakamumikirbelum kamumikirbelumtuntas mikirbelumtuntasbelum belumtuntasbelumprioritas tuntasbelumprioritasjangan belumprioritasjangansebut prioritasjangansebutkebo makanyakamumikirbelumtuntas kamumikirbelumtuntasbelum mikirbelumtuntasbelumprioritas belumtuntasbelumprioritasjangan tuntasbelumprioritasjangansebut belumprioritasjangansebutkebo makanyakamumikirbelumtuntasbelum kamumikirbelumtuntasbelumprioritas mikirbelumtuntasbelumprioritasjangan belumtuntasbelumprioritasjangansebut tuntasbelumprioritasjangansebutkebo</t>
+  </si>
+  <si>
+    <t>juga tuduh pki jawab hahaha hari saya saya lawan saya akan lawan jugatuduh tuduhpki pkijawab jawabhahaha hahahahari harisaya sayasaya sayalawan lawansaya sayaakan akanlawan jugatuduhpki tuduhpkijawab pkijawabhahaha jawabhahahahari hahahaharisaya harisayasaya sayasayalawan sayalawansaya lawansayaakan sayaakanlawan jugatuduhpkijawab tuduhpkijawabhahaha pkijawabhahahahari jawabhahahaharisaya hahahaharisayasaya harisayasayalawan sayasayalawansaya sayalawansayaakan lawansayaakanlawan jugatuduhpkijawabhahaha tuduhpkijawabhahahahari pkijawabhahahaharisaya jawabhahahaharisayasaya hahahaharisayasayalawan harisayasayalawansaya sayasayalawansayaakan sayalawansayaakanlawan jugatuduhpkijawabhahahahari tuduhpkijawabhahahaharisaya pkijawabhahahaharisayasaya jawabhahahaharisayasayalawan hahahaharisayasayalawansaya harisayasayalawansayaakan sayasayalawansayaakanlawan</t>
+  </si>
+  <si>
+    <t>tidak paham ekonomi investasi asing lingkup bisnis di-framing olah negara asai asing tidakpaham pahamekonomi ekonomiinvestasi investasiasing asinglingkup lingkupbisnis bisnisdi-framing di-framingolah olahnegara negaraasai asaiasing tidakpahamekonomi pahamekonomiinvestasi ekonomiinvestasiasing investasiasinglingkup asinglingkupbisnis lingkupbisnisdi-framing bisnisdi-framingolah di-framingolahnegara olahnegaraasai negaraasaiasing tidakpahamekonomiinvestasi pahamekonomiinvestasiasing ekonomiinvestasiasinglingkup investasiasinglingkupbisnis asinglingkupbisnisdi-framing lingkupbisnisdi-framingolah bisnisdi-framingolahnegara di-framingolahnegaraasai olahnegaraasaiasing tidakpahamekonomiinvestasiasing pahamekonomiinvestasiasinglingkup ekonomiinvestasiasinglingkupbisnis investasiasinglingkupbisnisdi-framing asinglingkupbisnisdi-framingolah lingkupbisnisdi-framingolahnegara bisnisdi-framingolahnegaraasai di-framingolahnegaraasaiasing tidakpahamekonomiinvestasiasinglingkup pahamekonomiinvestasiasinglingkupbisnis ekonomiinvestasiasinglingkupbisnisdi-framing investasiasinglingkupbisnisdi-framingolah asinglingkupbisnisdi-framingolahnegara lingkupbisnisdi-framingolahnegaraasai bisnisdi-framingolahnegaraasaiasing</t>
+  </si>
+  <si>
+    <t>nya punya ambisi wowo ambisi jangka pendek harta nyapunya punyaambisi ambisiwowo wowoambisi ambisijangka jangkapendek pendekharta nyapunyaambisi punyaambisiwowo ambisiwowoambisi wowoambisijangka ambisijangkapendek jangkapendekharta nyapunyaambisiwowo punyaambisiwowoambisi ambisiwowoambisijangka wowoambisijangkapendek ambisijangkapendekharta nyapunyaambisiwowoambisi punyaambisiwowoambisijangka ambisiwowoambisijangkapendek wowoambisijangkapendekharta nyapunyaambisiwowoambisijangka punyaambisiwowoambisijangkapendek ambisiwowoambisijangkapendekharta</t>
+  </si>
+  <si>
+    <t>political will cermin praktik berantas korupsi kata politicalwill willcermin cerminpraktik praktikberantas berantaskorupsi korupsikata politicalwillcermin willcerminpraktik cerminpraktikberantas praktikberantaskorupsi berantaskorupsikata politicalwillcerminpraktik willcerminpraktikberantas cerminpraktikberantaskorupsi praktikberantaskorupsikata politicalwillcerminpraktikberantas willcerminpraktikberantaskorupsi cerminpraktikberantaskorupsikata politicalwillcerminpraktikberantaskorupsi willcerminpraktikberantaskorupsikata</t>
+  </si>
+  <si>
+    <t>pak trauma pecat tni begini ngomongnya justru pak sipil percaya sama tni salut paktrauma traumapecat pecattni tnibegini beginingomongnya ngomongnyajustru justrupak paksipil sipilpercaya percayasama samatni tnisalut paktraumapecat traumapecattni pecattnibegini tnibeginingomongnya beginingomongnyajustru ngomongnyajustrupak justrupaksipil paksipilpercaya sipilpercayasama percayasamatni samatnisalut paktraumapecattni traumapecattnibegini pecattnibeginingomongnya tnibeginingomongnyajustru beginingomongnyajustrupak ngomongnyajustrupaksipil justrupaksipilpercaya paksipilpercayasama sipilpercayasamatni percayasamatnisalut paktraumapecattnibegini traumapecattnibeginingomongnya pecattnibeginingomongnyajustru tnibeginingomongnyajustrupak beginingomongnyajustrupaksipil ngomongnyajustrupaksipilpercaya justrupaksipilpercayasama paksipilpercayasamatni sipilpercayasamatnisalut paktraumapecattnibeginingomongnya traumapecattnibeginingomongnyajustru pecattnibeginingomongnyajustrupak tnibeginingomongnyajustrupaksipil beginingomongnyajustrupaksipilpercaya ngomongnyajustrupaksipilpercayasama justrupaksipilpercayasamatni paksipilpercayasamatnisalut</t>
+  </si>
+  <si>
+    <t>presiden bisa tidak bicara detail alutsista indonesia itu yang sensitif tahan indonesia presidenbisa bisatidak tidakbicara bicaradetail detailalutsista alutsistaindonesia indonesiaitu ituyang yangsensitif sensitiftahan tahanindonesia presidenbisatidak bisatidakbicara tidakbicaradetail bicaradetailalutsista detailalutsistaindonesia alutsistaindonesiaitu indonesiaituyang ituyangsensitif yangsensitiftahan sensitiftahanindonesia presidenbisatidakbicara bisatidakbicaradetail tidakbicaradetailalutsista bicaradetailalutsistaindonesia detailalutsistaindonesiaitu alutsistaindonesiaituyang indonesiaituyangsensitif ituyangsensitiftahan yangsensitiftahanindonesia presidenbisatidakbicaradetail bisatidakbicaradetailalutsista tidakbicaradetailalutsistaindonesia bicaradetailalutsistaindonesiaitu detailalutsistaindonesiaituyang alutsistaindonesiaituyangsensitif indonesiaituyangsensitiftahan ituyangsensitiftahanindonesia presidenbisatidakbicaradetailalutsista bisatidakbicaradetailalutsistaindonesia tidakbicaradetailalutsistaindonesiaitu bicaradetailalutsistaindonesiaituyang detailalutsistaindonesiaituyangsensitif alutsistaindonesiaituyangsensitiftahan indonesiaituyangsensitiftahanindonesia</t>
+  </si>
+  <si>
+    <t>kalau mandat akan bersih kuat lembaga perintah akan hilang korupsi kalaumandat mandatakan akanbersih bersihkuat kuatlembaga lembagaperintah perintahakan akanhilang hilangkorupsi kalaumandatakan mandatakanbersih akanbersihkuat bersihkuatlembaga kuatlembagaperintah lembagaperintahakan perintahakanhilang akanhilangkorupsi kalaumandatakanbersih mandatakanbersihkuat akanbersihkuatlembaga bersihkuatlembagaperintah kuatlembagaperintahakan lembagaperintahakanhilang perintahakanhilangkorupsi kalaumandatakanbersihkuat mandatakanbersihkuatlembaga akanbersihkuatlembagaperintah bersihkuatlembagaperintahakan kuatlembagaperintahakanhilang lembagaperintahakanhilangkorupsi kalaumandatakanbersihkuatlembaga mandatakanbersihkuatlembagaperintah akanbersihkuatlembagaperintahakan bersihkuatlembagaperintahakanhilang kuatlembagaperintahakanhilangkorupsi</t>
+  </si>
+  <si>
+    <t>hahaha yang bakar jenggot sama imbau pakai baju putih tps jangan ngambek gitu dong hahahayang yangbakar bakarjenggot jenggotsama samaimbau imbaupakai pakaibaju bajuputih putihtps tpsjangan janganngambek ngambekgitu gitudong hahahayangbakar yangbakarjenggot bakarjenggotsama jenggotsamaimbau samaimbaupakai imbaupakaibaju pakaibajuputih bajuputihtps putihtpsjangan tpsjanganngambek janganngambekgitu ngambekgitudong hahahayangbakarjenggot yangbakarjenggotsama bakarjenggotsamaimbau jenggotsamaimbaupakai samaimbaupakaibaju imbaupakaibajuputih pakaibajuputihtps bajuputihtpsjangan putihtpsjanganngambek tpsjanganngambekgitu janganngambekgitudong hahahayangbakarjenggotsama yangbakarjenggotsamaimbau bakarjenggotsamaimbaupakai jenggotsamaimbaupakaibaju samaimbaupakaibajuputih imbaupakaibajuputihtps pakaibajuputihtpsjangan bajuputihtpsjanganngambek putihtpsjanganngambekgitu tpsjanganngambekgitudong hahahayangbakarjenggotsamaimbau yangbakarjenggotsamaimbaupakai bakarjenggotsamaimbaupakaibaju jenggotsamaimbaupakaibajuputih samaimbaupakaibajuputihtps imbaupakaibajuputihtpsjangan pakaibajuputihtpsjanganngambek bajuputihtpsjanganngambekgitu putihtpsjanganngambekgitudong</t>
+  </si>
+  <si>
+    <t>gubernur pahe m tanya kamu lulus mana tidak tanya prestasi apa saya tanya kamu punya uang tidak gubernurpahe pahem mtanya tanyakamu kamululus lulusmana manatidak tidaktanya tanyaprestasi prestasiapa apasaya sayatanya tanyakamu kamupunya punyauang uangtidak gubernurpahem pahemtanya mtanyakamu tanyakamululus kamululusmana lulusmanatidak manatidaktanya tidaktanyaprestasi tanyaprestasiapa prestasiapasaya apasayatanya sayatanyakamu tanyakamupunya kamupunyauang punyauangtidak gubernurpahemtanya pahemtanyakamu mtanyakamululus tanyakamululusmana kamululusmanatidak lulusmanatidaktanya manatidaktanyaprestasi tidaktanyaprestasiapa tanyaprestasiapasaya prestasiapasayatanya apasayatanyakamu sayatanyakamupunya tanyakamupunyauang kamupunyauangtidak gubernurpahemtanyakamu pahemtanyakamululus mtanyakamululusmana tanyakamululusmanatidak kamululusmanatidaktanya lulusmanatidaktanyaprestasi manatidaktanyaprestasiapa tidaktanyaprestasiapasaya tanyaprestasiapasayatanya prestasiapasayatanyakamu apasayatanyakamupunya sayatanyakamupunyauang tanyakamupunyauangtidak gubernurpahemtanyakamululus pahemtanyakamululusmana mtanyakamululusmanatidak tanyakamululusmanatidaktanya kamululusmanatidaktanyaprestasi lulusmanatidaktanyaprestasiapa manatidaktanyaprestasiapasaya tidaktanyaprestasiapasayatanya tanyaprestasiapasayatanyakamu prestasiapasayatanyakamupunya apasayatanyakamupunyauang sayatanyakamupunyauangtidak</t>
+  </si>
+  <si>
+    <t>bagaimana tonton tertawa kalau kali kata militer indonesia sangat lemah padahal kuat militer indonesia masuk kuat dunia bagaimanatonton tontontertawa tertawakalau kalaukali kalikata katamiliter militerindonesia indonesiasangat sangatlemah lemahpadahal padahalkuat kuatmiliter militerindonesia indonesiamasuk masukkuat kuatdunia bagaimanatontontertawa tontontertawakalau tertawakalaukali kalaukalikata kalikatamiliter katamiliterindonesia militerindonesiasangat indonesiasangatlemah sangatlemahpadahal lemahpadahalkuat padahalkuatmiliter kuatmiliterindonesia militerindonesiamasuk indonesiamasukkuat masukkuatdunia bagaimanatontontertawakalau tontontertawakalaukali tertawakalaukalikata kalaukalikatamiliter kalikatamiliterindonesia katamiliterindonesiasangat militerindonesiasangatlemah indonesiasangatlemahpadahal sangatlemahpadahalkuat lemahpadahalkuatmiliter padahalkuatmiliterindonesia kuatmiliterindonesiamasuk militerindonesiamasukkuat indonesiamasukkuatdunia bagaimanatontontertawakalaukali tontontertawakalaukalikata tertawakalaukalikatamiliter kalaukalikatamiliterindonesia kalikatamiliterindonesiasangat katamiliterindonesiasangatlemah militerindonesiasangatlemahpadahal indonesiasangatlemahpadahalkuat sangatlemahpadahalkuatmiliter lemahpadahalkuatmiliterindonesia padahalkuatmiliterindonesiamasuk kuatmiliterindonesiamasukkuat militerindonesiamasukkuatdunia bagaimanatontontertawakalaukalikata tontontertawakalaukalikatamiliter tertawakalaukalikatamiliterindonesia kalaukalikatamiliterindonesiasangat kalikatamiliterindonesiasangatlemah katamiliterindonesiasangatlemahpadahal militerindonesiasangatlemahpadahalkuat indonesiasangatlemahpadahalkuatmiliter sangatlemahpadahalkuatmiliterindonesia lemahpadahalkuatmiliterindonesiamasuk padahalkuatmiliterindonesiamasukkuat kuatmiliterindonesiamasukkuatdunia</t>
+  </si>
+  <si>
+    <t>banyak catat jadi kalau kalah mana letak kalah juga balik banyakcatat catatjadi jadikalau kalaukalah kalahmana manaletak letakkalah kalahjuga jugabalik banyakcatatjadi catatjadikalau jadikalaukalah kalaukalahmana kalahmanaletak manaletakkalah letakkalahjuga kalahjugabalik banyakcatatjadikalau catatjadikalaukalah jadikalaukalahmana kalaukalahmanaletak kalahmanaletakkalah manaletakkalahjuga letakkalahjugabalik banyakcatatjadikalaukalah catatjadikalaukalahmana jadikalaukalahmanaletak kalaukalahmanaletakkalah kalahmanaletakkalahjuga manaletakkalahjugabalik banyakcatatjadikalaukalahmana catatjadikalaukalahmanaletak jadikalaukalahmanaletakkalah kalaukalahmanaletakkalahjuga kalahmanaletakkalahjugabalik</t>
+  </si>
+  <si>
+    <t>bukan percaya mampu tni harus tni siap the worst scenario lindung indonesia prabowo bukanpercaya percayamampu mamputni tniharus harustni tnisiap siapthe theworst worstscenario scenariolindung lindungindonesia indonesiaprabowo bukanpercayamampu percayamamputni mamputniharus tniharustni harustnisiap tnisiapthe siaptheworst theworstscenario worstscenariolindung scenariolindungindonesia lindungindonesiaprabowo bukanpercayamamputni percayamamputniharus mamputniharustni tniharustnisiap harustnisiapthe tnisiaptheworst siaptheworstscenario theworstscenariolindung worstscenariolindungindonesia scenariolindungindonesiaprabowo bukanpercayamamputniharus percayamamputniharustni mamputniharustnisiap tniharustnisiapthe harustnisiaptheworst tnisiaptheworstscenario siaptheworstscenariolindung theworstscenariolindungindonesia worstscenariolindungindonesiaprabowo bukanpercayamamputniharustni percayamamputniharustnisiap mamputniharustnisiapthe tniharustnisiaptheworst harustnisiaptheworstscenario tnisiaptheworstscenariolindung siaptheworstscenariolindungindonesia theworstscenariolindungindonesiaprabowo</t>
+  </si>
+  <si>
+    <t>tidak mau mati jabat bpk dulu pernah kurus dia tidakmau maumati matijabat jabatbpk bpkdulu dulupernah pernahkurus kurusdia tidakmaumati maumatijabat matijabatbpk jabatbpkdulu bpkdulupernah dulupernahkurus pernahkurusdia tidakmaumatijabat maumatijabatbpk matijabatbpkdulu jabatbpkdulupernah bpkdulupernahkurus dulupernahkurusdia tidakmaumatijabatbpk maumatijabatbpkdulu matijabatbpkdulupernah jabatbpkdulupernahkurus bpkdulupernahkurusdia tidakmaumatijabatbpkdulu maumatijabatbpkdulupernah matijabatbpkdulupernahkurus jabatbpkdulupernahkurusdia</t>
+  </si>
+  <si>
+    <t>turut tahan lemah implikasi uang indonesia lemah turuttahan tahanlemah lemahimplikasi implikasiuang uangindonesia indonesialemah turuttahanlemah tahanlemahimplikasi lemahimplikasiuang implikasiuangindonesia uangindonesialemah turuttahanlemahimplikasi tahanlemahimplikasiuang lemahimplikasiuangindonesia implikasiuangindonesialemah turuttahanlemahimplikasiuang tahanlemahimplikasiuangindonesia lemahimplikasiuangindonesialemah turuttahanlemahimplikasiuangindonesia tahanlemahimplikasiuangindonesialemah</t>
+  </si>
+  <si>
+    <t>baru era daulat laut nasional tega kapal kapal asing kini takut curi ikan teritori nasional baruera eradaulat daulatlaut lautnasional nasionaltega tegakapal kapalkapal kapalasing asingkini kinitakut takutcuri curiikan ikanteritori teritorinasional barueradaulat eradaulatlaut daulatlautnasional lautnasionaltega nasionaltegakapal tegakapalkapal kapalkapalasing kapalasingkini asingkinitakut kinitakutcuri takutcuriikan curiikanteritori ikanteritorinasional barueradaulatlaut eradaulatlautnasional daulatlautnasionaltega lautnasionaltegakapal nasionaltegakapalkapal tegakapalkapalasing kapalkapalasingkini kapalasingkinitakut asingkinitakutcuri kinitakutcuriikan takutcuriikanteritori curiikanteritorinasional barueradaulatlautnasional eradaulatlautnasionaltega daulatlautnasionaltegakapal lautnasionaltegakapalkapal nasionaltegakapalkapalasing tegakapalkapalasingkini kapalkapalasingkinitakut kapalasingkinitakutcuri asingkinitakutcuriikan kinitakutcuriikanteritori takutcuriikanteritorinasional barueradaulatlautnasionaltega eradaulatlautnasionaltegakapal daulatlautnasionaltegakapalkapal lautnasionaltegakapalkapalasing nasionaltegakapalkapalasingkini tegakapalkapalasingkinitakut kapalkapalasingkinitakutcuri kapalasingkinitakutcuriikan asingkinitakutcuriikanteritori kinitakutcuriikanteritorinasional</t>
+  </si>
+  <si>
+    <t>kalau bahasa simpel jin numpang sama genderuwo kalaubahasa bahasasimpel simpeljin jinnumpang numpangsama samagenderuwo kalaubahasasimpel bahasasimpeljin simpeljinnumpang jinnumpangsama numpangsamagenderuwo kalaubahasasimpeljin bahasasimpeljinnumpang simpeljinnumpangsama jinnumpangsamagenderuwo kalaubahasasimpeljinnumpang bahasasimpeljinnumpangsama simpeljinnumpangsamagenderuwo kalaubahasasimpeljinnumpangsama bahasasimpeljinnumpangsamagenderuwo</t>
+  </si>
+  <si>
+    <t>ahmad tangkap polisi ujar benci ada hubung pilpres sama bahar bin smith tangkap polisi ahmadtangkap tangkappolisi polisiujar ujarbenci benciada adahubung hubungpilpres pilpressama samabahar baharbin binsmith smithtangkap tangkappolisi ahmadtangkappolisi tangkappolisiujar polisiujarbenci ujarbenciada benciadahubung adahubungpilpres hubungpilpressama pilpressamabahar samabaharbin baharbinsmith binsmithtangkap smithtangkappolisi ahmadtangkappolisiujar tangkappolisiujarbenci polisiujarbenciada ujarbenciadahubung benciadahubungpilpres adahubungpilpressama hubungpilpressamabahar pilpressamabaharbin samabaharbinsmith baharbinsmithtangkap binsmithtangkappolisi ahmadtangkappolisiujarbenci tangkappolisiujarbenciada polisiujarbenciadahubung ujarbenciadahubungpilpres benciadahubungpilpressama adahubungpilpressamabahar hubungpilpressamabaharbin pilpressamabaharbinsmith samabaharbinsmithtangkap baharbinsmithtangkappolisi ahmadtangkappolisiujarbenciada tangkappolisiujarbenciadahubung polisiujarbenciadahubungpilpres ujarbenciadahubungpilpressama benciadahubungpilpressamabahar adahubungpilpressamabaharbin hubungpilpressamabaharbinsmith pilpressamabaharbinsmithtangkap samabaharbinsmithtangkappolisi</t>
+  </si>
+  <si>
+    <t>makan tuh radar prabowobentengnkri 01caprespendustaabadi makantuh tuhradar radarprabowobentengnkri prabowobentengnkri01caprespendustaabadi makantuhradar tuhradarprabowobentengnkri radarprabowobentengnkri01caprespendustaabadi makantuhradarprabowobentengnkri tuhradarprabowobentengnkri01caprespendustaabadi makantuhradarprabowobentengnkri01caprespendustaabadi</t>
+  </si>
+  <si>
+    <t>kesi tuh si engkong g mau pilih kong prabowobentengnkri prabowobentengnkri kesituh tuhsi siengkong engkongg gmau maupilih pilihkong kongprabowobentengnkri prabowobentengnkriprabowobentengnkri kesituhsi tuhsiengkong siengkongg engkonggmau gmaupilih maupilihkong pilihkongprabowobentengnkri kongprabowobentengnkriprabowobentengnkri kesituhsiengkong tuhsiengkongg siengkonggmau engkonggmaupilih gmaupilihkong maupilihkongprabowobentengnkri pilihkongprabowobentengnkriprabowobentengnkri kesituhsiengkongg tuhsiengkonggmau siengkonggmaupilih engkonggmaupilihkong gmaupilihkongprabowobentengnkri maupilihkongprabowobentengnkriprabowobentengnkri kesituhsiengkonggmau tuhsiengkonggmaupilih siengkonggmaupilihkong engkonggmaupilihkongprabowobentengnkri gmaupilihkongprabowobentengnkriprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>soal tahan benar beri briefing pak kalau presiden pecat soaltahan tahanbenar benarberi beribriefing briefingpak pakkalau kalaupresiden presidenpecat soaltahanbenar tahanbenarberi benarberibriefing beribriefingpak briefingpakkalau pakkalaupresiden kalaupresidenpecat soaltahanbenarberi tahanbenarberibriefing benarberibriefingpak beribriefingpakkalau briefingpakkalaupresiden pakkalaupresidenpecat soaltahanbenarberibriefing tahanbenarberibriefingpak benarberibriefingpakkalau beribriefingpakkalaupresiden briefingpakkalaupresidenpecat soaltahanbenarberibriefingpak tahanbenarberibriefingpakkalau benarberibriefingpakkalaupresiden beribriefingpakkalaupresidenpecat</t>
+  </si>
+  <si>
+    <t>pak upaya masyarakat sulit tarik pungli urus segala pakupaya upayamasyarakat masyarakatsulit sulittarik tarikpungli pungliurus urussegala pakupayamasyarakat upayamasyarakatsulit masyarakatsulittarik sulittarikpungli tarikpungliurus pungliurussegala pakupayamasyarakatsulit upayamasyarakatsulittarik masyarakatsulittarikpungli sulittarikpungliurus tarikpungliurussegala pakupayamasyarakatsulittarik upayamasyarakatsulittarikpungli masyarakatsulittarikpungliurus sulittarikpungliurussegala pakupayamasyarakatsulittarikpungli upayamasyarakatsulittarikpungliurus masyarakatsulittarikpungliurussegala</t>
+  </si>
+  <si>
+    <t>salah kali zo justru pak laksana clean government jadi pada gerah panas dapat uang salahkali kalizo zojustru justrupak paklaksana laksanaclean cleangovernment governmentjadi jadipada padagerah gerahpanas panasdapat dapatuang salahkalizo kalizojustru zojustrupak justrupaklaksana paklaksanaclean laksanacleangovernment cleangovernmentjadi governmentjadipada jadipadagerah padagerahpanas gerahpanasdapat panasdapatuang salahkalizojustru kalizojustrupak zojustrupaklaksana justrupaklaksanaclean paklaksanacleangovernment laksanacleangovernmentjadi cleangovernmentjadipada governmentjadipadagerah jadipadagerahpanas padagerahpanasdapat gerahpanasdapatuang salahkalizojustrupak kalizojustrupaklaksana zojustrupaklaksanaclean justrupaklaksanacleangovernment paklaksanacleangovernmentjadi laksanacleangovernmentjadipada cleangovernmentjadipadagerah governmentjadipadagerahpanas jadipadagerahpanasdapat padagerahpanasdapatuang salahkalizojustrupaklaksana kalizojustrupaklaksanaclean zojustrupaklaksanacleangovernment justrupaklaksanacleangovernmentjadi paklaksanacleangovernmentjadipada laksanacleangovernmentjadipadagerah cleangovernmentjadipadagerahpanas governmentjadipadagerahpanasdapat jadipadagerahpanasdapatuang</t>
+  </si>
+  <si>
+    <t>bogor tadi siang lihat massa riil wiwis perlu banyak banyak omong lihat prab bogortadi tadisiang sianglihat lihatmassa massariil riilwiwis wiwisperlu perlubanyak banyakbanyak banyakomong omonglihat lihatprab bogortadisiang tadisianglihat sianglihatmassa lihatmassariil massariilwiwis riilwiwisperlu wiwisperlubanyak perlubanyakbanyak banyakbanyakomong banyakomonglihat omonglihatprab bogortadisianglihat tadisianglihatmassa sianglihatmassariil lihatmassariilwiwis massariilwiwisperlu riilwiwisperlubanyak wiwisperlubanyakbanyak perlubanyakbanyakomong banyakbanyakomonglihat banyakomonglihatprab bogortadisianglihatmassa tadisianglihatmassariil sianglihatmassariilwiwis lihatmassariilwiwisperlu massariilwiwisperlubanyak riilwiwisperlubanyakbanyak wiwisperlubanyakbanyakomong perlubanyakbanyakomonglihat banyakbanyakomonglihatprab bogortadisianglihatmassariil tadisianglihatmassariilwiwis sianglihatmassariilwiwisperlu lihatmassariilwiwisperlubanyak massariilwiwisperlubanyakbanyak riilwiwisperlubanyakbanyakomong wiwisperlubanyakbanyakomonglihat perlubanyakbanyakomonglihatprab</t>
+  </si>
+  <si>
+    <t>berangkat kerja naik taksi kepala pusing bawa motor jaman susah korupsi padahal banyak harus setor berangkatkerja kerjanaik naiktaksi taksikepala kepalapusing pusingbawa bawamotor motorjaman jamansusah susahkorupsi korupsipadahal padahalbanyak banyakharus harussetor berangkatkerjanaik kerjanaiktaksi naiktaksikepala taksikepalapusing kepalapusingbawa pusingbawamotor bawamotorjaman motorjamansusah jamansusahkorupsi susahkorupsipadahal korupsipadahalbanyak padahalbanyakharus banyakharussetor berangkatkerjanaiktaksi kerjanaiktaksikepala naiktaksikepalapusing taksikepalapusingbawa kepalapusingbawamotor pusingbawamotorjaman bawamotorjamansusah motorjamansusahkorupsi jamansusahkorupsipadahal susahkorupsipadahalbanyak korupsipadahalbanyakharus padahalbanyakharussetor berangkatkerjanaiktaksikepala kerjanaiktaksikepalapusing naiktaksikepalapusingbawa taksikepalapusingbawamotor kepalapusingbawamotorjaman pusingbawamotorjamansusah bawamotorjamansusahkorupsi motorjamansusahkorupsipadahal jamansusahkorupsipadahalbanyak susahkorupsipadahalbanyakharus korupsipadahalbanyakharussetor berangkatkerjanaiktaksikepalapusing kerjanaiktaksikepalapusingbawa naiktaksikepalapusingbawamotor taksikepalapusingbawamotorjaman kepalapusingbawamotorjamansusah pusingbawamotorjamansusahkorupsi bawamotorjamansusahkorupsipadahal motorjamansusahkorupsipadahalbanyak jamansusahkorupsipadahalbanyakharus susahkorupsipadahalbanyakharussetor</t>
+  </si>
+  <si>
+    <t>panjang debat lihat goyah argumen kokoh tak yakin panjangdebat debatlihat lihatgoyah goyahargumen argumenkokoh kokohtak takyakin panjangdebatlihat debatlihatgoyah lihatgoyahargumen goyahargumenkokoh argumenkokohtak kokohtakyakin panjangdebatlihatgoyah debatlihatgoyahargumen lihatgoyahargumenkokoh goyahargumenkokohtak argumenkokohtakyakin panjangdebatlihatgoyahargumen debatlihatgoyahargumenkokoh lihatgoyahargumenkokohtak goyahargumenkokohtakyakin panjangdebatlihatgoyahargumenkokoh debatlihatgoyahargumenkokohtak lihatgoyahargumenkokohtakyakin</t>
+  </si>
+  <si>
+    <t>turut percuma punya banyak kartu lihat modern debatpilpres 2019 pilpres 2019 pemilu 2019 republik turutpercuma percumapunya punyabanyak banyakkartu kartulihat lihatmodern moderndebatpilpres debatpilpres2019 2019pilpres pilpres2019 2019pemilu pemilu2019 2019republik turutpercumapunya percumapunyabanyak punyabanyakkartu banyakkartulihat kartulihatmodern lihatmoderndebatpilpres moderndebatpilpres2019 debatpilpres2019pilpres 2019pilpres2019 pilpres2019pemilu 2019pemilu2019 pemilu2019republik turutpercumapunyabanyak percumapunyabanyakkartu punyabanyakkartulihat banyakkartulihatmodern kartulihatmoderndebatpilpres lihatmoderndebatpilpres2019 moderndebatpilpres2019pilpres debatpilpres2019pilpres2019 2019pilpres2019pemilu pilpres2019pemilu2019 2019pemilu2019republik turutpercumapunyabanyakkartu percumapunyabanyakkartulihat punyabanyakkartulihatmodern banyakkartulihatmoderndebatpilpres kartulihatmoderndebatpilpres2019 lihatmoderndebatpilpres2019pilpres moderndebatpilpres2019pilpres2019 debatpilpres2019pilpres2019pemilu 2019pilpres2019pemilu2019 pilpres2019pemilu2019republik turutpercumapunyabanyakkartulihat percumapunyabanyakkartulihatmodern punyabanyakkartulihatmoderndebatpilpres banyakkartulihatmoderndebatpilpres2019 kartulihatmoderndebatpilpres2019pilpres lihatmoderndebatpilpres2019pilpres2019 moderndebatpilpres2019pilpres2019pemilu debatpilpres2019pilpres2019pemilu2019 2019pilpres2019pemilu2019republik</t>
+  </si>
+  <si>
+    <t>sakit masa konflik timur rupa konflik negeri bilang perang sakitmasa masakonflik konfliktimur timurrupa rupakonflik konfliknegeri negeribilang bilangperang sakitmasakonflik masakonfliktimur konfliktimurrupa timurrupakonflik rupakonfliknegeri konfliknegeribilang negeribilangperang sakitmasakonfliktimur masakonfliktimurrupa konfliktimurrupakonflik timurrupakonfliknegeri rupakonfliknegeribilang konfliknegeribilangperang sakitmasakonfliktimurrupa masakonfliktimurrupakonflik konfliktimurrupakonfliknegeri timurrupakonfliknegeribilang rupakonfliknegeribilangperang sakitmasakonfliktimurrupakonflik masakonfliktimurrupakonfliknegeri konfliktimurrupakonfliknegeribilang timurrupakonfliknegeribilangperang</t>
+  </si>
+  <si>
+    <t>calon presiden nomor urut khawatir kalau semua labuh bandara operate usaha asing calonpresiden presidennomor nomorurut urutkhawatir khawatirkalau kalausemua semualabuh labuhbandara bandaraoperate operateusaha usahaasing calonpresidennomor presidennomorurut nomorurutkhawatir urutkhawatirkalau khawatirkalausemua kalausemualabuh semualabuhbandara labuhbandaraoperate bandaraoperateusaha operateusahaasing calonpresidennomorurut presidennomorurutkhawatir nomorurutkhawatirkalau urutkhawatirkalausemua khawatirkalausemualabuh kalausemualabuhbandara semualabuhbandaraoperate labuhbandaraoperateusaha bandaraoperateusahaasing calonpresidennomorurutkhawatir presidennomorurutkhawatirkalau nomorurutkhawatirkalausemua urutkhawatirkalausemualabuh khawatirkalausemualabuhbandara kalausemualabuhbandaraoperate semualabuhbandaraoperateusaha labuhbandaraoperateusahaasing calonpresidennomorurutkhawatirkalau presidennomorurutkhawatirkalausemua nomorurutkhawatirkalausemualabuh urutkhawatirkalausemualabuhbandara khawatirkalausemualabuhbandaraoperate kalausemualabuhbandaraoperateusaha semualabuhbandaraoperateusahaasing</t>
+  </si>
+  <si>
+    <t>mantap keren moga ikut seluruh pelosok nusantara mantapkeren kerenmoga mogaikut ikutseluruh seluruhpelosok pelosoknusantara mantapkerenmoga kerenmogaikut mogaikutseluruh ikutseluruhpelosok seluruhpelosoknusantara mantapkerenmogaikut kerenmogaikutseluruh mogaikutseluruhpelosok ikutseluruhpelosoknusantara mantapkerenmogaikutseluruh kerenmogaikutseluruhpelosok mogaikutseluruhpelosoknusantara mantapkerenmogaikutseluruhpelosok kerenmogaikutseluruhpelosoknusantara</t>
+  </si>
+  <si>
+    <t>pns pilih sulit laku pungli anggar potong ketat anggar pnspilih pilihsulit sulitlaku lakupungli punglianggar anggarpotong potongketat ketatanggar pnspilihsulit pilihsulitlaku sulitlakupungli lakupunglianggar punglianggarpotong anggarpotongketat potongketatanggar pnspilihsulitlaku pilihsulitlakupungli sulitlakupunglianggar lakupunglianggarpotong punglianggarpotongketat anggarpotongketatanggar pnspilihsulitlakupungli pilihsulitlakupunglianggar sulitlakupunglianggarpotong lakupunglianggarpotongketat punglianggarpotongketatanggar pnspilihsulitlakupunglianggar pilihsulitlakupunglianggarpotong sulitlakupunglianggarpotongketat lakupunglianggarpotongketatanggar</t>
+  </si>
+  <si>
+    <t>pilih sandi saya ingin bpjs puruk terus tidak optimal beri solusi awat sehat pilihsandi sandisaya sayaingin inginbpjs bpjspuruk purukterus terustidak tidakoptimal optimalberi berisolusi solusiawat awatsehat pilihsandisaya sandisayaingin sayainginbpjs inginbpjspuruk bpjspurukterus purukterustidak terustidakoptimal tidakoptimalberi optimalberisolusi berisolusiawat solusiawatsehat pilihsandisayaingin sandisayainginbpjs sayainginbpjspuruk inginbpjspurukterus bpjspurukterustidak purukterustidakoptimal terustidakoptimalberi tidakoptimalberisolusi optimalberisolusiawat berisolusiawatsehat pilihsandisayainginbpjs sandisayainginbpjspuruk sayainginbpjspurukterus inginbpjspurukterustidak bpjspurukterustidakoptimal purukterustidakoptimalberi terustidakoptimalberisolusi tidakoptimalberisolusiawat optimalberisolusiawatsehat pilihsandisayainginbpjspuruk sandisayainginbpjspurukterus sayainginbpjspurukterustidak inginbpjspurukterustidakoptimal bpjspurukterustidakoptimalberi purukterustidakoptimalberisolusi terustidakoptimalberisolusiawat tidakoptimalberisolusiawatsehat</t>
+  </si>
+  <si>
+    <t>salah besar sih pilih pak lembaga perintah bebas korupsi jual beli jabat salahbesar besarsih sihpilih pilihpak paklembaga lembagaperintah perintahbebas bebaskorupsi korupsijual jualbeli belijabat salahbesarsih besarsihpilih sihpilihpak pilihpaklembaga paklembagaperintah lembagaperintahbebas perintahbebaskorupsi bebaskorupsijual korupsijualbeli jualbelijabat salahbesarsihpilih besarsihpilihpak sihpilihpaklembaga pilihpaklembagaperintah paklembagaperintahbebas lembagaperintahbebaskorupsi perintahbebaskorupsijual bebaskorupsijualbeli korupsijualbelijabat salahbesarsihpilihpak besarsihpilihpaklembaga sihpilihpaklembagaperintah pilihpaklembagaperintahbebas paklembagaperintahbebaskorupsi lembagaperintahbebaskorupsijual perintahbebaskorupsijualbeli bebaskorupsijualbelijabat salahbesarsihpilihpaklembaga besarsihpilihpaklembagaperintah sihpilihpaklembagaperintahbebas pilihpaklembagaperintahbebaskorupsi paklembagaperintahbebaskorupsijual lembagaperintahbebaskorupsijualbeli perintahbebaskorupsijualbelijabat</t>
+  </si>
+  <si>
+    <t>milik banyak prestasi ada prestasi milik salah satu cabut subsidi bbm milikbanyak banyakprestasi prestasiada adaprestasi prestasimilik miliksalah salahsatu satucabut cabutsubsidi subsidibbm milikbanyakprestasi banyakprestasiada prestasiadaprestasi adaprestasimilik prestasimiliksalah miliksalahsatu salahsatucabut satucabutsubsidi cabutsubsidibbm milikbanyakprestasiada banyakprestasiadaprestasi prestasiadaprestasimilik adaprestasimiliksalah prestasimiliksalahsatu miliksalahsatucabut salahsatucabutsubsidi satucabutsubsidibbm milikbanyakprestasiadaprestasi banyakprestasiadaprestasimilik prestasiadaprestasimiliksalah adaprestasimiliksalahsatu prestasimiliksalahsatucabut miliksalahsatucabutsubsidi salahsatucabutsubsidibbm milikbanyakprestasiadaprestasimilik banyakprestasiadaprestasimiliksalah prestasiadaprestasimiliksalahsatu adaprestasimiliksalahsatucabut prestasimiliksalahsatucabutsubsidi miliksalahsatucabutsubsidibbm</t>
+  </si>
+  <si>
+    <t>bagaimana mau pulang habib rizieq kalau tidak menang jadi presiden kata subianto bagaimanamau maupulang pulanghabib habibrizieq rizieqkalau kalautidak tidakmenang menangjadi jadipresiden presidenkata katasubianto bagaimanamaupulang maupulanghabib pulanghabibrizieq habibrizieqkalau rizieqkalautidak kalautidakmenang tidakmenangjadi menangjadipresiden jadipresidenkata presidenkatasubianto bagaimanamaupulanghabib maupulanghabibrizieq pulanghabibrizieqkalau habibrizieqkalautidak rizieqkalautidakmenang kalautidakmenangjadi tidakmenangjadipresiden menangjadipresidenkata jadipresidenkatasubianto bagaimanamaupulanghabibrizieq maupulanghabibrizieqkalau pulanghabibrizieqkalautidak habibrizieqkalautidakmenang rizieqkalautidakmenangjadi kalautidakmenangjadipresiden tidakmenangjadipresidenkata menangjadipresidenkatasubianto bagaimanamaupulanghabibrizieqkalau maupulanghabibrizieqkalautidak pulanghabibrizieqkalautidakmenang habibrizieqkalautidakmenangjadi rizieqkalautidakmenangjadipresiden kalautidakmenangjadipresidenkata tidakmenangjadipresidenkatasubianto</t>
+  </si>
+  <si>
+    <t>kalau pasu asing masuk tentara tindak adi napitupulu dukung calon presiden kalaupasu pasuasing asingmasuk masuktentara tentaratindak tindakadi adinapitupulu napitupuludukung dukungcalon calonpresiden kalaupasuasing pasuasingmasuk asingmasuktentara masuktentaratindak tentaratindakadi tindakadinapitupulu adinapitupuludukung napitupuludukungcalon dukungcalonpresiden kalaupasuasingmasuk pasuasingmasuktentara asingmasuktentaratindak masuktentaratindakadi tentaratindakadinapitupulu tindakadinapitupuludukung adinapitupuludukungcalon napitupuludukungcalonpresiden kalaupasuasingmasuktentara pasuasingmasuktentaratindak asingmasuktentaratindakadi masuktentaratindakadinapitupulu tentaratindakadinapitupuludukung tindakadinapitupuludukungcalon adinapitupuludukungcalonpresiden kalaupasuasingmasuktentaratindak pasuasingmasuktentaratindakadi asingmasuktentaratindakadinapitupulu masuktentaratindakadinapitupuludukung tentaratindakadinapitupuludukungcalon tindakadinapitupuludukungcalonpresiden</t>
+  </si>
+  <si>
+    <t>justru makna bersit nada kalah rasa kalah justrumakna maknabersit bersitnada nadakalah kalahrasa rasakalah justrumaknabersit maknabersitnada bersitnadakalah nadakalahrasa kalahrasakalah justrumaknabersitnada maknabersitnadakalah bersitnadakalahrasa nadakalahrasakalah justrumaknabersitnadakalah maknabersitnadakalahrasa bersitnadakalahrasakalah justrumaknabersitnadakalahrasa maknabersitnadakalahrasakalah</t>
+  </si>
+  <si>
+    <t>rubah watak susah susah jadi presiden https t co esw 5qi9add rubahwatak wataksusah susahsusah susahjadi jadipresiden presidenhttps httpst tco coesw esw5qi9add rubahwataksusah wataksusahsusah susahsusahjadi susahjadipresiden jadipresidenhttps presidenhttpst httpstco tcoesw coesw5qi9add rubahwataksusahsusah wataksusahsusahjadi susahsusahjadipresiden susahjadipresidenhttps jadipresidenhttpst presidenhttpstco httpstcoesw tcoesw5qi9add rubahwataksusahsusahjadi wataksusahsusahjadipresiden susahsusahjadipresidenhttps susahjadipresidenhttpst jadipresidenhttpstco presidenhttpstcoesw httpstcoesw5qi9add rubahwataksusahsusahjadipresiden wataksusahsusahjadipresidenhttps susahsusahjadipresidenhttpst susahjadipresidenhttpstco jadipresidenhttpstcoesw presidenhttpstcoesw5qi9add</t>
+  </si>
+  <si>
+    <t>banyak bandara asai asing buat khawatir serang luar https t co xj1ofes136 banyakbandara bandaraasai asaiasing asingbuat buatkhawatir khawatirserang serangluar luarhttps httpst tco coxj1ofes136 banyakbandaraasai bandaraasaiasing asaiasingbuat asingbuatkhawatir buatkhawatirserang khawatirserangluar serangluarhttps luarhttpst httpstco tcoxj1ofes136 banyakbandaraasaiasing bandaraasaiasingbuat asaiasingbuatkhawatir asingbuatkhawatirserang buatkhawatirserangluar khawatirserangluarhttps serangluarhttpst luarhttpstco httpstcoxj1ofes136 banyakbandaraasaiasingbuat bandaraasaiasingbuatkhawatir asaiasingbuatkhawatirserang asingbuatkhawatirserangluar buatkhawatirserangluarhttps khawatirserangluarhttpst serangluarhttpstco luarhttpstcoxj1ofes136 banyakbandaraasaiasingbuatkhawatir bandaraasaiasingbuatkhawatirserang asaiasingbuatkhawatirserangluar asingbuatkhawatirserangluarhttps buatkhawatirserangluarhttpst khawatirserangluarhttpstco serangluarhttpstcoxj1ofes136</t>
+  </si>
+  <si>
+    <t>bahas pancasila udah final organisasi transnasional ideologi radikal pernah singgung bahaspancasila pancasilaudah udahfinal finalorganisasi organisasitransnasional transnasionalideologi ideologiradikal radikalpernah pernahsinggung bahaspancasilaudah pancasilaudahfinal udahfinalorganisasi finalorganisasitransnasional organisasitransnasionalideologi transnasionalideologiradikal ideologiradikalpernah radikalpernahsinggung bahaspancasilaudahfinal pancasilaudahfinalorganisasi udahfinalorganisasitransnasional finalorganisasitransnasionalideologi organisasitransnasionalideologiradikal transnasionalideologiradikalpernah ideologiradikalpernahsinggung bahaspancasilaudahfinalorganisasi pancasilaudahfinalorganisasitransnasional udahfinalorganisasitransnasionalideologi finalorganisasitransnasionalideologiradikal organisasitransnasionalideologiradikalpernah transnasionalideologiradikalpernahsinggung bahaspancasilaudahfinalorganisasitransnasional pancasilaudahfinalorganisasitransnasionalideologi udahfinalorganisasitransnasionalideologiradikal finalorganisasitransnasionalideologiradikalpernah organisasitransnasionalideologiradikalpernahsinggung</t>
+  </si>
+  <si>
+    <t>aduh salah data oy bong pinter dikit prabowobentengnkri aduhsalah salahdata dataoy oybong bongpinter pinterdikit dikitprabowobentengnkri aduhsalahdata salahdataoy dataoybong oybongpinter bongpinterdikit pinterdikitprabowobentengnkri aduhsalahdataoy salahdataoybong dataoybongpinter oybongpinterdikit bongpinterdikitprabowobentengnkri aduhsalahdataoybong salahdataoybongpinter dataoybongpinterdikit oybongpinterdikitprabowobentengnkri aduhsalahdataoybongpinter salahdataoybongpinterdikit dataoybongpinterdikitprabowobentengnkri</t>
+  </si>
+  <si>
+    <t>mau begini acung jari telunjuk tak enak tim jokowi-maruf benci tauhid kan mereka benci tauhid maubegini beginiacung acungjari jaritelunjuk telunjuktak takenak enaktim timjokowi-maruf jokowi-marufbenci bencitauhid tauhidkan kanmereka merekabenci bencitauhid maubeginiacung beginiacungjari acungjaritelunjuk jaritelunjuktak telunjuktakenak takenaktim enaktimjokowi-maruf timjokowi-marufbenci jokowi-marufbencitauhid bencitauhidkan tauhidkanmereka kanmerekabenci merekabencitauhid maubeginiacungjari beginiacungjaritelunjuk acungjaritelunjuktak jaritelunjuktakenak telunjuktakenaktim takenaktimjokowi-maruf enaktimjokowi-marufbenci timjokowi-marufbencitauhid jokowi-marufbencitauhidkan bencitauhidkanmereka tauhidkanmerekabenci kanmerekabencitauhid maubeginiacungjaritelunjuk beginiacungjaritelunjuktak acungjaritelunjuktakenak jaritelunjuktakenaktim telunjuktakenaktimjokowi-maruf takenaktimjokowi-marufbenci enaktimjokowi-marufbencitauhid timjokowi-marufbencitauhidkan jokowi-marufbencitauhidkanmereka bencitauhidkanmerekabenci tauhidkanmerekabencitauhid maubeginiacungjaritelunjuktak beginiacungjaritelunjuktakenak acungjaritelunjuktakenaktim jaritelunjuktakenaktimjokowi-maruf telunjuktakenaktimjokowi-marufbenci takenaktimjokowi-marufbencitauhid enaktimjokowi-marufbencitauhidkan timjokowi-marufbencitauhidkanmereka jokowi-marufbencitauhidkanmerekabenci bencitauhidkanmerekabencitauhid</t>
+  </si>
+  <si>
+    <t>tadi ngomongin perang perang perang memang rencana pak wo mau bawa indonesia perang tadingomongin ngomonginperang perangperang perangperang perangmemang memangrencana rencanapak pakwo womau maubawa bawaindonesia indonesiaperang tadingomonginperang ngomonginperangperang perangperangperang perangperangmemang perangmemangrencana memangrencanapak rencanapakwo pakwomau womaubawa maubawaindonesia bawaindonesiaperang tadingomonginperangperang ngomonginperangperangperang perangperangperangmemang perangperangmemangrencana perangmemangrencanapak memangrencanapakwo rencanapakwomau pakwomaubawa womaubawaindonesia maubawaindonesiaperang tadingomonginperangperangperang ngomonginperangperangperangmemang perangperangperangmemangrencana perangperangmemangrencanapak perangmemangrencanapakwo memangrencanapakwomau rencanapakwomaubawa pakwomaubawaindonesia womaubawaindonesiaperang tadingomonginperangperangperangmemang ngomonginperangperangperangmemangrencana perangperangperangmemangrencanapak perangperangmemangrencanapakwo perangmemangrencanapakwomau memangrencanapakwomaubawa rencanapakwomaubawaindonesia pakwomaubawaindonesiaperang</t>
+  </si>
+  <si>
+    <t>pak sama pak sama emosional emosi pikir selamat nkri paksama samapak paksama samaemosional emosionalemosi emosipikir pikirselamat selamatnkri paksamapak samapaksama paksamaemosional samaemosionalemosi emosionalemosipikir emosipikirselamat pikirselamatnkri paksamapaksama samapaksamaemosional paksamaemosionalemosi samaemosionalemosipikir emosionalemosipikirselamat emosipikirselamatnkri paksamapaksamaemosional samapaksamaemosionalemosi paksamaemosionalemosipikir samaemosionalemosipikirselamat emosionalemosipikirselamatnkri paksamapaksamaemosionalemosi samapaksamaemosionalemosipikir paksamaemosionalemosipikirselamat samaemosionalemosipikirselamatnkri</t>
+  </si>
+  <si>
+    <t>narasi utama pakai debat kali adalah narasi asing narasi anti asing memang erat topik debat narasiutama utamapakai pakaidebat debatkali kaliadalah adalahnarasi narasiasing asingnarasi narasianti antiasing asingmemang memangerat erattopik topikdebat narasiutamapakai utamapakaidebat pakaidebatkali debatkaliadalah kaliadalahnarasi adalahnarasiasing narasiasingnarasi asingnarasianti narasiantiasing antiasingmemang asingmemangerat memangerattopik erattopikdebat narasiutamapakaidebat utamapakaidebatkali pakaidebatkaliadalah debatkaliadalahnarasi kaliadalahnarasiasing adalahnarasiasingnarasi narasiasingnarasianti asingnarasiantiasing narasiantiasingmemang antiasingmemangerat asingmemangerattopik memangerattopikdebat narasiutamapakaidebatkali utamapakaidebatkaliadalah pakaidebatkaliadalahnarasi debatkaliadalahnarasiasing kaliadalahnarasiasingnarasi adalahnarasiasingnarasianti narasiasingnarasiantiasing asingnarasiantiasingmemang narasiantiasingmemangerat antiasingmemangerattopik asingmemangerattopikdebat narasiutamapakaidebatkaliadalah utamapakaidebatkaliadalahnarasi pakaidebatkaliadalahnarasiasing debatkaliadalahnarasiasingnarasi kaliadalahnarasiasingnarasianti adalahnarasiasingnarasiantiasing narasiasingnarasiantiasingmemang asingnarasiantiasingmemangerat narasiantiasingmemangerattopik antiasingmemangerattopikdebat</t>
+  </si>
+  <si>
+    <t>lama kita suguh fitnah keji hadap presiden nyata justru konon turun khianat lamakita kitasuguh suguhfitnah fitnahkeji kejihadap hadappresiden presidennyata nyatajustru justrukonon kononturun turunkhianat lamakitasuguh kitasuguhfitnah suguhfitnahkeji fitnahkejihadap kejihadappresiden hadappresidennyata presidennyatajustru nyatajustrukonon justrukononturun kononturunkhianat lamakitasuguhfitnah kitasuguhfitnahkeji suguhfitnahkejihadap fitnahkejihadappresiden kejihadappresidennyata hadappresidennyatajustru presidennyatajustrukonon nyatajustrukononturun justrukononturunkhianat lamakitasuguhfitnahkeji kitasuguhfitnahkejihadap suguhfitnahkejihadappresiden fitnahkejihadappresidennyata kejihadappresidennyatajustru hadappresidennyatajustrukonon presidennyatajustrukononturun nyatajustrukononturunkhianat lamakitasuguhfitnahkejihadap kitasuguhfitnahkejihadappresiden suguhfitnahkejihadappresidennyata fitnahkejihadappresidennyatajustru kejihadappresidennyatajustrukonon hadappresidennyatajustrukononturun presidennyatajustrukononturunkhianat</t>
+  </si>
+  <si>
+    <t>pak emosi kalau bicara daulat aman nkri balik rakyat lindung pakemosi emosikalau kalaubicara bicaradaulat daulataman amannkri nkribalik balikrakyat rakyatlindung pakemosikalau emosikalaubicara kalaubicaradaulat bicaradaulataman daulatamannkri amannkribalik nkribalikrakyat balikrakyatlindung pakemosikalaubicara emosikalaubicaradaulat kalaubicaradaulataman bicaradaulatamannkri daulatamannkribalik amannkribalikrakyat nkribalikrakyatlindung pakemosikalaubicaradaulat emosikalaubicaradaulataman kalaubicaradaulatamannkri bicaradaulatamannkribalik daulatamannkribalikrakyat amannkribalikrakyatlindung pakemosikalaubicaradaulataman emosikalaubicaradaulatamannkri kalaubicaradaulatamannkribalik bicaradaulatamannkribalikrakyat daulatamannkribalikrakyatlindung</t>
+  </si>
+  <si>
+    <t>orang masa lalu sukses masa lalu gagal sesuai ubah hari memang tolak pak orangmasa masalalu lalusukses suksesmasa masalalu lalugagal gagalsesuai sesuaiubah ubahhari harimemang memangtolak tolakpak orangmasalalu masalalusukses lalusuksesmasa suksesmasalalu masalalugagal lalugagalsesuai gagalsesuaiubah sesuaiubahhari ubahharimemang harimemangtolak memangtolakpak orangmasalalusukses masalalusuksesmasa lalusuksesmasalalu suksesmasalalugagal masalalugagalsesuai lalugagalsesuaiubah gagalsesuaiubahhari sesuaiubahharimemang ubahharimemangtolak harimemangtolakpak orangmasalalusuksesmasa masalalusuksesmasalalu lalusuksesmasalalugagal suksesmasalalugagalsesuai masalalugagalsesuaiubah lalugagalsesuaiubahhari gagalsesuaiubahharimemang sesuaiubahharimemangtolak ubahharimemangtolakpak orangmasalalusuksesmasalalu masalalusuksesmasalalugagal lalusuksesmasalalugagalsesuai suksesmasalalugagalsesuaiubah masalalugagalsesuaiubahhari lalugagalsesuaiubahharimemang gagalsesuaiubahharimemangtolak sesuaiubahharimemangtolakpak</t>
+  </si>
+  <si>
+    <t>pak kayak kakak lagi ngospek jangan buat ketawa terus marah kalau orang ketawa pakkayak kayakkakak kakaklagi lagingospek ngospekjangan janganbuat buatketawa ketawaterus terusmarah marahkalau kalauorang orangketawa pakkayakkakak kayakkakaklagi kakaklagingospek lagingospekjangan ngospekjanganbuat janganbuatketawa buatketawaterus ketawaterusmarah terusmarahkalau marahkalauorang kalauorangketawa pakkayakkakaklagi kayakkakaklagingospek kakaklagingospekjangan lagingospekjanganbuat ngospekjanganbuatketawa janganbuatketawaterus buatketawaterusmarah ketawaterusmarahkalau terusmarahkalauorang marahkalauorangketawa pakkayakkakaklagingospek kayakkakaklagingospekjangan kakaklagingospekjanganbuat lagingospekjanganbuatketawa ngospekjanganbuatketawaterus janganbuatketawaterusmarah buatketawaterusmarahkalau ketawaterusmarahkalauorang terusmarahkalauorangketawa pakkayakkakaklagingospekjangan kayakkakaklagingospekjanganbuat kakaklagingospekjanganbuatketawa lagingospekjanganbuatketawaterus ngospekjanganbuatketawaterusmarah janganbuatketawaterusmarahkalau buatketawaterusmarahkalauorang ketawaterusmarahkalauorangketawa</t>
+  </si>
+  <si>
+    <t>terlalu asik bayang bebas ketawa larang culik hal jika jadi presiden terlaluasik asikbayang bayangbebas bebasketawa ketawalarang larangculik culikhal haljika jikajadi jadipresiden terlaluasikbayang asikbayangbebas bayangbebasketawa bebasketawalarang ketawalarangculik larangculikhal culikhaljika haljikajadi jikajadipresiden terlaluasikbayangbebas asikbayangbebasketawa bayangbebasketawalarang bebasketawalarangculik ketawalarangculikhal larangculikhaljika culikhaljikajadi haljikajadipresiden terlaluasikbayangbebasketawa asikbayangbebasketawalarang bayangbebasketawalarangculik bebasketawalarangculikhal ketawalarangculikhaljika larangculikhaljikajadi culikhaljikajadipresiden terlaluasikbayangbebasketawalarang asikbayangbebasketawalarangculik bayangbebasketawalarangculikhal bebasketawalarangculikhaljika ketawalarangculikhaljikajadi larangculikhaljikajadipresiden</t>
+  </si>
+  <si>
+    <t>oke oce bangkrut gagal tingkat daya beli masyarakat okeoce ocebangkrut bangkrutgagal gagaltingkat tingkatdaya dayabeli belimasyarakat okeocebangkrut ocebangkrutgagal bangkrutgagaltingkat gagaltingkatdaya tingkatdayabeli dayabelimasyarakat okeocebangkrutgagal ocebangkrutgagaltingkat bangkrutgagaltingkatdaya gagaltingkatdayabeli tingkatdayabelimasyarakat okeocebangkrutgagaltingkat ocebangkrutgagaltingkatdaya bangkrutgagaltingkatdayabeli gagaltingkatdayabelimasyarakat okeocebangkrutgagaltingkatdaya ocebangkrutgagaltingkatdayabeli bangkrutgagaltingkatdayabelimasyarakat</t>
+  </si>
+  <si>
+    <t>gagal paham cuma percaya bisik ngaco masa daulat kira kira prabowobentengnkri jok gagalpaham pahamcuma cumapercaya percayabisik bisikngaco ngacomasa masadaulat daulatkira kirakira kiraprabowobentengnkri prabowobentengnkrijok gagalpahamcuma pahamcumapercaya cumapercayabisik percayabisikngaco bisikngacomasa ngacomasadaulat masadaulatkira daulatkirakira kirakiraprabowobentengnkri kiraprabowobentengnkrijok gagalpahamcumapercaya pahamcumapercayabisik cumapercayabisikngaco percayabisikngacomasa bisikngacomasadaulat ngacomasadaulatkira masadaulatkirakira daulatkirakiraprabowobentengnkri kirakiraprabowobentengnkrijok gagalpahamcumapercayabisik pahamcumapercayabisikngaco cumapercayabisikngacomasa percayabisikngacomasadaulat bisikngacomasadaulatkira ngacomasadaulatkirakira masadaulatkirakiraprabowobentengnkri daulatkirakiraprabowobentengnkrijok gagalpahamcumapercayabisikngaco pahamcumapercayabisikngacomasa cumapercayabisikngacomasadaulat percayabisikngacomasadaulatkira bisikngacomasadaulatkirakira ngacomasadaulatkirakiraprabowobentengnkri masadaulatkirakiraprabowobentengnkrijok</t>
+  </si>
+  <si>
+    <t>kesi banget kamu sahal pilpres kamu jual ancam takut melulu khilafah lah culik lah kesibanget bangetkamu kamusahal sahalpilpres pilpreskamu kamujual jualancam ancamtakut takutmelulu melulukhilafah khilafahlah lahculik culiklah kesibangetkamu bangetkamusahal kamusahalpilpres sahalpilpreskamu pilpreskamujual kamujualancam jualancamtakut ancamtakutmelulu takutmelulukhilafah melulukhilafahlah khilafahlahculik lahculiklah kesibangetkamusahal bangetkamusahalpilpres kamusahalpilpreskamu sahalpilpreskamujual pilpreskamujualancam kamujualancamtakut jualancamtakutmelulu ancamtakutmelulukhilafah takutmelulukhilafahlah melulukhilafahlahculik khilafahlahculiklah kesibangetkamusahalpilpres bangetkamusahalpilpreskamu kamusahalpilpreskamujual sahalpilpreskamujualancam pilpreskamujualancamtakut kamujualancamtakutmelulu jualancamtakutmelulukhilafah ancamtakutmelulukhilafahlah takutmelulukhilafahlahculik melulukhilafahlahculiklah kesibangetkamusahalpilpreskamu bangetkamusahalpilpreskamujual kamusahalpilpreskamujualancam sahalpilpreskamujualancamtakut pilpreskamujualancamtakutmelulu kamujualancamtakutmelulukhilafah jualancamtakutmelulukhilafahlah ancamtakutmelulukhilafahlahculik takutmelulukhilafahlahculiklah</t>
+  </si>
+  <si>
+    <t>yang lemes nih kaya data salah ban semua pak prabowobentengnkri https t co 1yqfosvy7a yanglemes lemesnih nihkaya kayadata datasalah salahban bansemua semuapak pakprabowobentengnkri prabowobentengnkrihttps httpst tco co1yqfosvy7a yanglemesnih lemesnihkaya nihkayadata kayadatasalah datasalahban salahbansemua bansemuapak semuapakprabowobentengnkri pakprabowobentengnkrihttps prabowobentengnkrihttpst httpstco tco1yqfosvy7a yanglemesnihkaya lemesnihkayadata nihkayadatasalah kayadatasalahban datasalahbansemua salahbansemuapak bansemuapakprabowobentengnkri semuapakprabowobentengnkrihttps pakprabowobentengnkrihttpst prabowobentengnkrihttpstco httpstco1yqfosvy7a yanglemesnihkayadata lemesnihkayadatasalah nihkayadatasalahban kayadatasalahbansemua datasalahbansemuapak salahbansemuapakprabowobentengnkri bansemuapakprabowobentengnkrihttps semuapakprabowobentengnkrihttpst pakprabowobentengnkrihttpstco prabowobentengnkrihttpstco1yqfosvy7a yanglemesnihkayadatasalah lemesnihkayadatasalahban nihkayadatasalahbansemua kayadatasalahbansemuapak datasalahbansemuapakprabowobentengnkri salahbansemuapakprabowobentengnkrihttps bansemuapakprabowobentengnkrihttpst semuapakprabowobentengnkrihttpstco pakprabowobentengnkrihttpstco1yqfosvy7a</t>
+  </si>
+  <si>
+    <t>mau kalah disalahin khilafah hti bukankah hti bunuh maukalah kalahdisalahin disalahinkhilafah khilafahhti htibukankah bukankahhti htibunuh maukalahdisalahin kalahdisalahinkhilafah disalahinkhilafahhti khilafahhtibukankah htibukankahhti bukankahhtibunuh maukalahdisalahinkhilafah kalahdisalahinkhilafahhti disalahinkhilafahhtibukankah khilafahhtibukankahhti htibukankahhtibunuh maukalahdisalahinkhilafahhti kalahdisalahinkhilafahhtibukankah disalahinkhilafahhtibukankahhti khilafahhtibukankahhtibunuh maukalahdisalahinkhilafahhtibukankah kalahdisalahinkhilafahhtibukankahhti disalahinkhilafahhtibukankahhtibunuh</t>
+  </si>
+  <si>
+    <t>pikir pak tau masalah myanmar pikirpak paktau taumasalah masalahmyanmar pikirpaktau paktaumasalah taumasalahmyanmar pikirpaktaumasalah paktaumasalahmyanmar pikirpaktaumasalahmyanmar</t>
+  </si>
+  <si>
+    <t>tertawa pancing pidato closingnya beranta tertawapancing pancingpidato pidatoclosingnya closingnyaberanta tertawapancingpidato pancingpidatoclosingnya pidatoclosingnyaberanta tertawapancingpidatoclosingnya pancingpidatoclosingnyaberanta tertawapancingpidatoclosingnyaberanta</t>
+  </si>
+  <si>
+    <t>bukan tidak percaya ini tni pak taruh nyawa tni lebih tni tni bukantidak tidakpercaya percayaini initni tnipak paktaruh taruhnyawa nyawatni tnilebih lebihtni tnitni bukantidakpercaya tidakpercayaini percayainitni initnipak tnipaktaruh paktaruhnyawa taruhnyawatni nyawatnilebih tnilebihtni lebihtnitni bukantidakpercayaini tidakpercayainitni percayainitnipak initnipaktaruh tnipaktaruhnyawa paktaruhnyawatni taruhnyawatnilebih nyawatnilebihtni tnilebihtnitni bukantidakpercayainitni tidakpercayainitnipak percayainitnipaktaruh initnipaktaruhnyawa tnipaktaruhnyawatni paktaruhnyawatnilebih taruhnyawatnilebihtni nyawatnilebihtnitni bukantidakpercayainitnipak tidakpercayainitnipaktaruh percayainitnipaktaruhnyawa initnipaktaruhnyawatni tnipaktaruhnyawatnilebih paktaruhnyawatnilebihtni taruhnyawatnilebihtnitni</t>
+  </si>
+  <si>
+    <t>gemetar apes malam kata di bentak jenderal prabowobentengnkri gemetarapes apesmalam malamkata katadi dibentak bentakjenderal jenderalprabowobentengnkri gemetarapesmalam apesmalamkata malamkatadi katadibentak dibentakjenderal bentakjenderalprabowobentengnkri gemetarapesmalamkata apesmalamkatadi malamkatadibentak katadibentakjenderal dibentakjenderalprabowobentengnkri gemetarapesmalamkatadi apesmalamkatadibentak malamkatadibentakjenderal katadibentakjenderalprabowobentengnkri gemetarapesmalamkatadibentak apesmalamkatadibentakjenderal malamkatadibentakjenderalprabowobentengnkri</t>
   </si>
   <si>
     <t>positive</t>
